--- a/data/top_docs/ctm/thetas_top_docs.xlsx
+++ b/data/top_docs/ctm/thetas_top_docs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,32 +476,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>credits composition allmusic listing charts piano drums beats liner label recording download ballad songwriter vocals albums musicians accompanying remix singer mixing singing adapted lyrically tempo formats lyrical pop lyrics acoustic billboard charted musically promotion performing mixed instrumentation background grammy videos promotional reception vocal personnel promote rolling_stone releases artist digital influences usher debuted sounds backing hip footage songwriting compilation guitars chart youtube listings handled popmatters bonus concert musician keyboards reviewer studio studios catchy percussion nme remixes airplay hop mexican vocalist guitarist band recordings thirty peaked tracks jazz sing collaboration rap electronic recorded bass hear highlight radio hot sings listeners dvd stan</t>
+          <t>['episode', 'mulder', 'doctor', 'scully', 'viewers', 'episodes', 'series', 'television', 'character', 'season', 'watched', 'dwight', 'broadcast', 'trek', 'jack']</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Oh Blue Christmas = Oh Blue Christmas is an EP by the American band A Fine Frenzy , released in November 2009 in the United States by Virgin Records . It was initially released exclusively through Target just two months following the group 's previous studio album Bomb in a Birdcage . The EP contains cover versions of three popular holiday songs ( " Blue Christmas " , " Winter Wonderland " and " Christmas Time Is Here " from A Charlie Brown Christmas ) as well as three original tracks . According to Alison Sudol , A Fine Frenzy 's leader , the collection of songs was recorded in five days at record producer David Bianco 's studio in Los Angeles . The EP , and " Christmas Time Is Here " in particular , received positive critical reception overall . In the United States , Oh Blue Christmas peaked at number 87 on the Billboard 200 , number three on Billboard 's Top Holiday Albums chart and number 28 on the Top Rock Albums chart . A Fine Frenzy was touring throughout the United States arou</t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The Stripped Mixes = The Stripped Mixes ( released on CD for a limited time as The Motown 50 Mixes ) , is a collection of American recording artist and former Jackson 5 member Michael Jackson 's classic songs . The songs featured on the album are mainly from Jackson 's career as a member of the Jackson 5 from the 1960s to the 1980s ; songs credited to Jackson as a solo artist are from his albums during his Motown-era . Other songs included on the album are " stripped " mixes of Jackson material , meaning the songs are of a quieter tone and most of the drums have been removed . Following a surge in Jackson 's popularity after his death in June 2009 , it was confirmed on July 7 , that The Stripped Mixes would be released . The album was made available as a digital download on July 7 , 2009 , and as a CD on July 28 . A remixed song , entitled " I 'll Be There ( Minus Mix ) " , was released on iTunes to promote the album on June 9 , 2009 , prior to Jackson 's death . The Stripped Mixes was</t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A Different Kind of Love Song = " A Different Kind of Love Song " is a song by American recording artist Cher , taken from her 24th studio album , Living Proof ( 2002 ) . The song was written and produced by Sigurd Rosnes and Johan Aberg , with additional writing done by Michelle Lewis , and was co-produced by Anders Hansson . The dance-pop song alludes to themes of tragedy , heroism and brotherhood , and was released as a double A-side single with " The Music 's No Good Without You " in July 2002 through Warner Bros. Records and WEA . " A Different Kind of Love Song " received mostly positive reviews from music critics , who deemed it as one of the album 's highlights , although noting Cher 's heavily processed vocals due to the use of auto-tune . The song charted on a few Billboard components , such as Dance / Club Play Songs , where it reached number one , Hot Dance Music / Maxi-Singles Sales , peaking at number two , and on the Adult Contemporary chart . No accompanying music video</t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Electric ( Robyn song ) = " Electric " is a song by Swedish recording artist Robyn from her second studio album My Truth ( 1999 ) . It was released as the album 's lead single on 29 April 1999 by BMG Sweden . Robyn wrote the track in collaboration with its producers Ulf Lindström and Johan Ekhé . The single artwork features the singer wearing a feather headpiece designed by Sebastian Wahl . Musically , " Electric " is an electronic funk song , and the lyrics address unexpected life events that make one feel alive . " Electric " was hailed by music critics as a highlight on My Truth . It achieved commercial success in Sweden , with a peak position of number six on the Sverigetopplistan chart and a gold certification by the Swedish Recording Industry Association ( GLF ) . Though it was initially planned to be serviced internationally , " Electric " and its parent album were never released outside of Sweden due to a dispute between Robyn and her overseas label RCA Records . = = Background</t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>No Quiero Saber = " No Quiero Saber " is a song recorded by American recording artist Selena . It was originally a track on her second studio album Ven Conmigo ( 1990 ) . It was composed and produced by her brother , A.B. Quintanilla III . Pete Astudillo , a backup singer with Selena y Los Dinos , produced the song with Quintanilla . The recording was later mixed by A.B. for Selena 's 1996 first remix album , Siempre Selena . It was released posthumously by EMI Latin in June 1996 , as the album 's second single , behind " Siempre Hace Frio " . The track was given positive reviews by music critics , with The Deseret News calling it one of Selena 's best songs . After its inclusion on her second remix album as a bonus acoustic track on Enamorada de Ti ( 2012 ) , critics gave a mixed review . The song won the Tejano Crossover Song of the Year award posthumously at the 1997 Tejano Music Awards . It peaked at number six on the US Billboard Hot Latin Tracks chart , while peaking within the t</t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -511,32 +511,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>film release released million story scene scenes script effects production opening plot filming original director sequel action movie weekend blu character bond highest batman score dvd photography cast based reviews films shot box grossing stars visual gave trailer screenplay disney version rotten_tomatoes marvel characters studio said office like rating set filmmakers sequels toy gross theaters wanted making footage burton idea animation critics worldwide animated direct theatrical cinematic shots grossed james_bond stated development horror sequence critical create principal cameron best special north_america halloween screening reception written escapes kills woody filmed villain animators cgi budget sequences movies role features place kill takes</t>
+          <t>['album', 'song', 'madonna', 'chart', 'video', 'music', 'harrison', 'songs', 'carey', 'band', 'pop', 'track', 'recording', 'billboard', 'number']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Batman in film = The fictional character Batman , a comic book superhero featured in DC Comics publications and created by Bob Kane and Bill Finger , has appeared in various films since his inception . The character first starred in two serial films in the 1940s , Batman and Batman and Robin . The character also appeared in the 1966 film Batman , which was a feature film adaptation of the 1960s Batman TV series starring Adam West and Burt Ward , who also starred in the film . Toward the end of the 1980s , the Warner Bros. studio began producing a series of feature films starring Batman , beginning with the 1989 film Batman , directed by Tim Burton and starring Michael Keaton . Burton and Keaton returned for the 1992 sequel Batman Returns , and in 1995 , Joel Schumacher directed Batman Forever with Val Kilmer as Batman . Schumacher also directed the 1997 sequel Batman &amp; Robin , which starred George Clooney . Batman &amp; Robin was poorly received by both critics and fans , leading to the ca</t>
+          <t>Gravity the Seducer = Gravity the Seducer is the fifth studio album by electronic music band Ladytron . The album was released by Nettwerk in the United Kingdom on 12 September 2011 and in the United States , a day later . Recorded in Kent , England , the album has been described as " haunted , evocative , romantic " , and having " a feminine warmth " . Three singles have been released from the album , " White Elephant " , " Ambulances " and " Mirage " . The song " Ace of Hz " had previously been released as a single from the greatest hits album Best of 00 – 10 before appearing on Gravity the Seducer . Release of the album coincided with a tour across Canada and the United States . Gravity the Seducer earned generally positive reviews and reached number seventy-two on the UK Albums Chart , the group 's highest-peaking album in their home country as of September 2012 . = = Production = = Gravity the Seducer was Ladytron 's second studio album produced for record label Nettwerk , with wh</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toy Story 3 = Toy Story 3 is a 2010 American 3D computer-animated comedy-drama film , and the third installment in the Toy Story series . It was produced by Pixar Animation Studios and released by Walt Disney Pictures . Directed by Lee Unkrich , the screenplay was written by Michael Arndt , while Unkrich wrote the story along with John Lasseter and Andrew Stanton , respectively director and co-writer of the first two films . The film was released in theaters June 18 , 2010 , and played worldwide from June through October in the Disney Digital 3-D , RealD , and IMAX 3D formats . Toy Story 3 was the first film to be released theatrically with Dolby Surround 7.1 sound . The plot focuses on the toys Woody , Buzz Lightyear , and their friends dealing with an uncertain future as their owner , Andy , prepares to leave for college . The film features an ensemble voice cast with Tom Hanks , Tim Allen , Joan Cusack , Don Rickles , Wallace Shawn , John Ratzenberger , Estelle Harris , Jodi Benson </t>
+          <t>Mulder and Scully ( song ) = " Mulder and Scully " is a song by Catatonia , released as a single from their 1998 album , International Velvet . The song makes direct reference to fictional FBI special agents Fox Mulder ( David Duchovny ) and Dana Scully ( Gillian Anderson ) , the two main characters of the popular sci-fi TV series The X-Files who work on cases linked to the paranormal , called X-Files . In an interview Cerys Matthews , co-writer of the song , explained that while she was not a serious fan of the show , the basic premise of the series matched the conceit of what she was trying to express . " Mulder and Scully " was released as the second single from the band 's album International Velvet . Originally , it was supposed to be the first single , but was delayed due to circumstances beyond the band 's control . The song was Catatonia 's first single in the United States . " Mulder and Scully " became the group 's break-out hit and received a mixed to positive from the music</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Batman ( 1989 film ) = Batman is a 1989 American superhero film directed by Tim Burton and produced by Jon Peters , based on the DC Comics character of the same name . It is the first installment of Warner Bros. ' initial Batman film series . The film stars Michael Keaton as Bruce Wayne / Batman , alongside Jack Nicholson , Kim Basinger , Robert Wuhl , Pat Hingle , Billy Dee Williams , Michael Gough , and Jack Palance . In the film , Batman is widely believed to be an urban legend until he actively goes to war with a rising criminal mastermind known as " the Joker " . After Burton was hired as director in 1986 , Steve Englehart and Julie Hickson wrote film treatments before Sam Hamm wrote the first screenplay . Batman was not greenlit until after the success of Burton 's Beetlejuice ( 1988 ) . Numerous A-list actors were considered for the role of Batman before Keaton was cast . Keaton 's casting caused a controversy since , by 1988 , he had become typecast as a comedic actor and many </t>
+          <t>Tabloid Junkie = " Tabloid Junkie " is a pop song performed by American recording artist Michael Jackson . The song appeared as the eleventh track on Jackson 's ninth studio album , entitled HIStory : Past , Present and Future , Book I , which was released in 1995 as a two-disc set . The song was written , composed , and produced by Michael Jackson , Jimmy Jam ( James Harris III ) and Terry Lewis . The song received generally positive reviews from music critics . " Tabloid Junkie " is a pop-rock song , with lyrics that pertain to media bias and negative coverage of rumors about Jackson and his personal life , similar to previous songs recorded by Jackson . " Tabloid Junkie " is the seventh song on HIStory : Past , Present And Future , Book I to be aimed at the media . The track was not released as a single . = = Background = = Similarly to " Leave Me Alone " ( 1987 ) and HIStory : Past , Present and Future , Book I album tracks , " They Don 't Care About Us " , " Scream " and " This Ti</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toy Story 2 = Toy Story 2 is a 1999 American computer-animated comedy adventure film produced by Pixar Animation Studios and released by Walt Disney Pictures . Directed by John Lasseter and co-directed by Lee Unkrich and Ash Brannon , it is the sequel to the 1995 film Toy Story . In the film , Woody is stolen by a toy collector , prompting Buzz Lightyear and his friends to vow to rescue him , but Woody is then tempted by the idea of immortality in a museum . Many of the original characters and voices from Toy Story return for this sequel , and several new characters — including Jessie ( voiced by Joan Cusack ) , Barbie ( voiced by Jodi Benson ) , Stinky Pete ( voiced by Kelsey Grammer ) and Mrs. Potato Head ( voiced by Estelle Harris ) — are introduced . Disney initially envisioned the film as a direct-to-video sequel . Toy Story 2 began production in a building separated from Pixar , on a small scale , as most of the main Pixar staff were busy working on A Bug 's Life ( 1998 ) . When </t>
+          <t>Cafe Disco = " Cafe Disco " is the twenty-seventh episode of the fifth season of the American comedy television series The Office , and the 99th overall episode of the series . It originally aired on NBC in the United States on May 7 , 2009 . Feeling the office is overworked after the recent reign of Charles Miner , Michael sets up a " cafe disco " in his old Michael Scott Paper Company office . Phyllis injures her back dancing at the cafe disco and bonds with Dwight as he tries to relieve her back . Meanwhile , Jim and Pam plan to elope . The episode was written by Warren Lieberstein &amp; Halsted Sullivan and directed by Randall Einhorn . Several songs are featured in the episode , including " Car Wash " by Rose Royce , " Cat People " by David Bowie , " Everybody Dance Now " by C + C Music Factory and " Y.M.C.A. " by Village People . The episode received generally positive reviews and , according to Nielsen ratings , was watched by 7.71 million viewers during its original broadcast . = =</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Toy Story = Toy Story is a 1995 American computer-animated adventure buddy comedy film produced by Pixar Animation Studios and released by Walt Disney Pictures . Directed by John Lasseter at his directorial debut , Toy Story was the first feature-length computer-animated film and the first theatrical film produced by Pixar . Toy Story follows a group of anthropomorphic toys who pretend to be lifeless whenever humans are present , and focuses on the relationship between Woody , a pullstring cowboy doll ( voiced by Tom Hanks ) , and Buzz Lightyear , an astronaut action figure ( voiced by Tim Allen ) . The film was written by John Lasseter , Andrew Stanton , Joel Cohen , Alec Sokolow , and Joss Whedon , and featured music by Randy Newman . Its executive producers were Steve Jobs and Edwin Catmull . It was released in theatres November 22 , 1995 . Pixar , which produced short animated films to promote their computers , was approached by Disney to produce a computer-animated feature after t</t>
+          <t>Who Really Cares ( Featuring the Sound of Insanity ) = " Who Really Cares ( Featuring the Sound of Insanity ) " is a song by Powderfinger from their sixth album Dream Days at the Hotel Existence . It is the fourth single from the album and was released in Australia in March 2008 . The band 's publicist , Ms. Fanclub , announced on 27 February that the single would be released to radioplay in the following week , without specifying a date . In her announcement , she also noted that a music video will be released at about the same time . The music video was then released in mid-March ; however , the single 's release was then announced as 31 March . A music video was released for the song ; however , it features the live version of the song taken from the DVD for the Across the Great Divide tour , whereas the radio single for the song is a radio edit of the studio album version . The music video is directly taken from the DVD ; however , it is altered optically with filters and converted</t>
         </is>
       </c>
     </row>
@@ -546,32 +546,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>career hit games season league baseball major_league_baseball signed home played manager professional minor earned hits pitcher mlb leagues base giants roster strikeouts average pitched runs spent playing hitter starts spring era pitching basketball cubs inning team catcher national_league traded record starting rookie draft double named year run dodgers baseman batted contract disabled bats batters reds percentage hitting postseason pitchers rbi new_york_yankees seasons plate sophomore pirates prospect pitch rbis bases drafted pitches braves hitters walks ninth signing pennant finished player assists major boston_red_sox american_league chicago_cubs throwing philadelphia_phillies outfielder fastball handed batting fielder fielding shortstop texas_rangers freshman detroit_tigers tied san_francisco_giants list cincinnati_reds</t>
+          <t>['ship', 'guns', 'ships', 'tons', 'torpedo', 'knots', 'inch', 'cruiser', 'fleet', 'gun', 'deck', 'admiral', 'german', 'turrets', 'cruisers']</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jon Lieber = Jonathan Ray Lieber ( born April 2 , 1970 ) is a former Major League Baseball ( MLB ) pitcher . He stands 6 feet 2 inches ( 1.88 m ) tall and weighs 240 pounds ( 110 kg ) . He played for the Pittsburgh Pirates ( 1994 – 1998 ) , Chicago Cubs ( 1999 – 2002 and 2008 ) , New York Yankees ( 2004 ) , and Philadelphia Phillies ( 2005 – 2007 ) . He batted left-handed and threw right-handed , and utilized a fastball , a slider , and a changeup for his pitches . In a 14-season career , Lieber compiled a 131 – 124 record with 1,553 strikeouts and a 4.27 ERA in 2,198 innings pitched . Lieber attended the University of South Alabama , helping them win the Sun Belt Conference Championship . He was drafted by the Kansas City Royals in the second round of the 1992 Major League Baseball Draft , but he was traded to the Pittsburgh Pirates the following season before even throwing a pitch in the major leagues . He made his debut in 1994 and was named the Pirates ' Opening Day starter in 1995</t>
+          <t xml:space="preserve">Regioni-class cruiser = The Regioni class was a group of six protected cruisers built for the Italian Regia Marina ( Royal Navy ) in the late 1880s through the early 1900s . The class comprised Umbria , Lombardia , Etruria , Liguria , Elba , and Puglia , all of which were named for regions of Italy with the exception of Elba , which was named for the island . The class is sometimes referred as the Umbria class , for the first ship to be laid down . The ships , built by four different shipyards , varied slightly in their size , speed , and armament , but all could steam at about 18 kn ( 33 km / h ; 21 mph ) and their main armament consisted of four 15-centimeter ( 5.9 in ) guns and six 12 cm ( 4.7 in ) guns . The ships served in a variety of roles throughout their careers , including scouts for the main fleet , colonial cruisers , and representatives of Italy at major foreign events . Elba observed the Russo-Japanese War , including the Battle of Chemulpo Bay in 1904 , where she picked </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>John Bowker ( baseball ) = John Brite Bowker ( born July 8 , 1983 ) is an American professional baseball outfielder and first baseman who is a free agent . He stands 6 feet 1 inch ( 1.85 m ) tall and weighs 205 pounds ( 93 kg ) . He has played for the San Francisco Giants , Pittsburgh Pirates and Philadelphia Phillies of Major League Baseball ( MLB ) and the Yomiuri Giants and Tohoku Rakuten Golden Eagles of Nippon Professional Baseball ( NPB ) . He bats and throws left-handed . Bowker was drafted out of Long Beach State University in the third round of the 2004 MLB draft by the San Francisco Giants . He spent the next few years in their minor league system and ranked among the Eastern League leaders in several hitting categories in 2007 . He was called up by the Giants shortly after the 2008 season began , and he became the first San Francisco-era Giant to hit a home run in his first two major league games . He was the Giants ' starting first baseman for much of the season and finishe</t>
+          <t>Italian ironclad Re d 'Italia = Re d 'Italia ( King of Italy ) was the lead ship of the Re d 'Italia-class armored frigates built in the United States for the Italian Regia Marina ( Royal Navy ) in the early 1860s . She was laid down at the William H. Webb Shipyard in New York in November 1861 , was launched in April 1863 , and was completed a year later in September 1864 ; the two Re d 'Italia-class ships were the only Italian ironclads built in the United States . The ships were broadside ironclads , armed with a battery of six 72-pounder guns and thirty-two 164 mm ( 6.5 in ) guns . Re d 'Italia initially served as the flagship of the Italian fleet , though she was replaced by the turret ship Affondatore shortly before the Battle of Lissa in 1866 . During that battle , Re d 'Italia was at the center of the melee . After her rudder was disabled by an Austrian vessel , the Austrian flagship , Erzherzog Ferdinand Max rammed her and tore a large hole in her hull . Re d 'Italia quickly ro</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Will Venable = William Dion Venable ( born October 29 , 1982 ) is an American professional baseball outfielder in the Los Angeles Dodgers organization . He has also played in MLB for the San Diego Padres and Texas Rangers . Venable is the son of former Major League outfielder Max Venable as well as the older brother of Canadian Football League safety Winston Venable . Venable played basketball for Princeton University , as well as San Rafael High School . He was the second athlete to earn first-team All-Ivy League honors in both baseball and basketball . In the 2005 MLB Draft , the Padres selected Venable in the seventh round . He made his major league debut on August 29 , 2008 , against the Colorado Rockies , collecting his first hit . Although he broke into the Major Leagues as a center fielder , he has played mostly right field since his second season . Venable has frequently batted lead off and has on several occasions come within one hit of the cycle . As of November 2013 , he has</t>
+          <t>Ruggiero di Lauria-class ironclad = The Ruggiero di Lauria class was a class of ironclad battleships built for the Italian Regia Marina ( Royal Navy ) during the late 19th century . The three ships — Ruggiero di Lauria , Francesco Morosini , and Andrea Doria — were improved versions of the earlier Caio Duilio-class battleships . The primary improvements were new breech-loading guns , better armor protection , and more powerful machinery . The ships , designed by Giuseppe Micheli , marked a temporary diversion from the ideas of Benedetto Brin , who had designed the two preceding classes along with the following class . Construction of the ships was very lengthy , and by the time they were completed , the first pre-dreadnought battleships were being built . Rendered obsolescent by these new ships , the Ruggiero di Laurias had limited careers . The spent their time in service alternating between the Active and Reserve Squadrons , and they were primarily occupied with conducting training e</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Eric Hacker = Eric Lynn Hacker ( born March 26 , 1983 ) is an American professional baseball pitcher who plays for the NC Dinos of the Korea Baseball Organization . Hacker stands 6 feet 1 inch ( 1.85 m ) and weighs 230 pounds ( 100 kg ) . He throws right-handed but is a switch hitter . He has played for the Pittsburgh Pirates , Minnesota Twins , and San Francisco Giants . He throws a fastball , a slider , a curveball , and a changeup . Hacker was drafted out of Duncanville High School by the New York Yankees in 2002 . He pitched in their minor league system from 2002 – 2009 ( missing 2004 and 2006 with injuries ) before getting traded to the Pirates . He made his major league debut with Pittsburgh on September 22 , 2009 , and pitched in three games for them that season . He signed with the Giants in the offseason and spent the entire 2010 season in the minor leagues . In 2011 , he signed with the Twins and appeared in two games with them . He signed with San Francisco in 2012 and made </t>
+          <t>Italian cruiser Francesco Ferruccio = Francesco Ferruccio was a Giuseppe Garibaldi-class armored cruiser built for the Royal Italian Navy ( Regia Marina ) in the first decade of the 20th century . The ship made several deployments to the Eastern Mediterranean and the Levant during her career . At the beginning of the Italo-Turkish War of 1911 – 12 she bombarded Tripoli and then Beirut in early 1912 before being transferred to Libya . During World War I , Francesco Ferruccio 's activities were limited by the threat of Austro-Hungarian submarines and she became a training ship in 1919 . The ship was struck from the naval register in 1930 and subsequently scrapped . = = Design and description = = Francesco Ferruccio had an overall length of 111.8 meters ( 366 ft 10 in ) , a beam of 18.2 meters ( 59 ft 9 in ) and a deep draft ( ship ) of 7.3 meters ( 23 ft 11 in ) . She displaced 7,350 metric tons ( 7,230 long tons ) at normal load . The ship was powered by two vertical triple-expansion st</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Denny Bautista = Denny M. Bautista Germán ( born August 23 , 1980 ) is a Dominican professional baseball pitcher who is currently a free agent . Bautista is 6 feet 5 inches ( 1.96 m ) tall and weighs 190 pounds ( 86 kg ) . He played in Major League Baseball ( MLB ) for the Baltimore Orioles , Kansas City Royals , Colorado Rockies , Detroit Tigers , Pittsburgh Pirates , and San Francisco Giants from 2004 to 2010 . From 2011 through 2013 , he played for the Hanwha Eagles of the Korea Baseball Organization ( KBO ) . He bats and throws right-handed . Bautista throws three pitches : a fastball , a curveball , and a changeup . He has struggled with control throughout his career . Bautista grew up receiving instruction on pitching from his second cousin , Pedro Martínez . The Florida Marlins signed him in 2000 but traded him to the Baltimore Orioles before Bautista reached the major leagues . He debuted with the Orioles in 2004 , appearing in two games before getting traded to the Kansas City</t>
+          <t>Italian cruiser Dogali = Dogali was a unique protected cruiser built for the Italian Regia Marina ( Royal Navy ) in the 1880s . Notably , she was the first warship equipped with triple-expansion engines . The ship was originally ordered by the Greek Navy and named Salamis , but she was sold to the Regia Marina before she was completed and renamed for the Battle of Dogali . She was armed with a main battery of six 15-centimeter ( 5.9 in ) guns and reached a speed of 19.66 knots ( 36.41 km / h ; 22.62 mph ) on her sea trials , making her one of the fastest cruisers at the time . Dogali 's career was uneventful ; she served with the main Italian fleet for the first few years of her career and visited the United States in 1893 for the start of the World 's Columbian Exposition . In January 1908 , the ship was sold to Uruguay and renamed 25 de Agosto and later Montevideo . In 1914 , the cruiser was withdrawn from service , but she was not disposed of until 1932 when she was sold for scrap .</t>
         </is>
       </c>
     </row>
@@ -581,32 +581,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>work life wrote writing published book written women works history world writer woman early books years known literary thought according children man people author novel poetry death art god human ideas society stories write poems literature historical story family age described writers modern century later church born writings study mother poem father science believed like social school culture poet view spiritual use religious tradition contemporary christian friend novels theory taught characters believe studies idea considered academic prize criticism old form account cult belief comics argued cultural professor great views political chess nature publication readers called publishing sexual teaching influenced philosophical</t>
+          <t>['highway', 'route', 'road', 'freeway', 'interchange', 'intersection', 'terminus', 'north', 'east', 'lane', 'continues', 'state', 'avenue', 'passes', 'traffic']</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Feminism = Feminism is a range of political movements , ideologies , and social movements that share a common goal : to define , establish , and achieve political , economic , personal , and social rights for women that are equal to those of men . This includes seeking to establish equal opportunities for women in education and employment . Feminists typically advocate or support the rights and equality of women . Feminist movements have campaigned and continue to campaign for women 's rights , including the right to vote , to hold public office , to work , to earn fair wages or equal pay , to own property , to receive education , to enter contracts , to have equal rights within marriage , and to have maternity leave . Feminists have also worked to promote bodily autonomy and integrity , and to protect women and girls from rape , sexual harassment , and domestic violence . Feminist campaigns are generally considered to be one of the main forces behind major historical societal changes </t>
+          <t xml:space="preserve">M-40 ( Michigan highway ) = M-40 is a north – south state trunkline highway in the Lower Peninsula of the US state of Michigan . The highway runs from US Highway 12 ( US 12 ) near the Indiana state line in Porter Township north through Paw Paw and Allegan to end in the outskirts of Holland . The current northern end is near Interstate 196 ( I-196 ) at an intersection with US 31 / Business Loop I-196 ( BL 196 ) . In between , M-40 runs through mixed agricultural and forest lands and along lakes and rivers through Southwest Michigan . The trunkline was designated by July 1 , 1919 along with the rest of the original state highway system along a route that is different that of today . South of Paw Paw , the original M-40 reached Niles and even the Indiana state line for a time . The northern end was extended in stages to Holland . The southern end was shifted in the 1970s , resulting in the current routing . = = Route description = = M-40 starts at an intersection with US 12 in rural Cass </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>New Age = The New Age is a term applied to a range of spiritual or religious beliefs and practices that developed in Western nations during the 1970s . Precise scholarly definitions of the movement differ in their emphasis , largely as a result of its highly eclectic structure . Although analytically often considered to be religious , those involved in it typically prefer the designation of " spiritual " and rarely use the term " New Age " themselves . Many scholars of the subject refer to it as the New Age movement , although others contest this term , believing that it gives a false sense of homogeneity to the phenomenon . As a form of Western esotericism , the New Age movement drew heavily upon a number of older esoteric traditions , in particular those that emerged from the occultist current that developed in the eighteenth century . Such prominent occult influences include the work of Emanuel Swedenborg and Franz Mesmer , as well as the ideas of Spiritualism , New Thought , and th</t>
+          <t>Forest Highway 16 = Federal Forest Highway 16 ( FFH 16 ) is a forest highway in the western Upper Peninsula of the US state of Michigan . This road runs through the Ottawa National Forest in Iron , Houghton and Ontonagon counties . The Michigan Department of Transportation ( MDOT ) has erroneously marked it as H-16 on their official state map . FFH 16 is designated by the US Forest Service ( USFS ) with maintenance shared by the county road commissions ( ICRC , HCRC , OCRC , respectively ) . Although the MDOT maps would suggest that it is a part of the County-Designated Highway System ( CDH system ) , it is not . The three counties in question do not participate in the system , and the roadway falls in the middle of the G zone for numbering purposes . = = Route description = = FFH 16 starts at an intersection with County Road 436 ( CR 436 , Smokey Lake Road ) near Horseshoe Lake in rural Iron County 's Stambaugh Township . The roadway runs north from this location east of Smokey Lake t</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Objections to evolution = Scholars , theologians and lay-people have raised objections to evolution since evolutionary ideas came to prominence in the 19th century . When Charles Darwin published his 1859 book On the Origin of Species , his theory of evolution ( the idea that species arose through descent with modification from a single common ancestor in a process driven by natural selection ) initially met opposition from scientists with different theories , but eventually came to receive overwhelming acceptance in the scientific community . The observation of evolutionary processes occurring ( as well as the modern evolutionary synthesis explaining that evidence ) has been uncontroversial among mainstream biologists since the 1940s . Since then , most criticisms and denials of evolution have come from religious sources , rather than from the scientific community . Although many religions , such as those advocating theistic evolution , have accepted the occurrence of evolution , some</t>
+          <t xml:space="preserve">U.S. Route 161 = U.S. Highway 161 ( US 161 ) was a U.S. Highway in Iowa that ran from Keokuk to Dubuque by way of Cedar Rapids . It was designated in 1925 and signed in 1926 along two primary highways . The route began at the Missouri River with US 61 southwest of Keokuk ran north through Mount Pleasant and Iowa City to Cedar Rapids . There , it turned to the northeast through Anamosa and Monticello towards Dubuque . The route ended at US 61 in Key West , a few miles west of Dubuque . The route changed very little while it was in service . It was paved from end to end by the summer of 1932 . In January 1938 , it was removed from the US Highway System . From Keokuk to Cedar Rapids , it was replaced by US 218 , which was extended southward . From Cedar Rapids to Key West it was replaced by US 151 , which was extended westward . = = Route description = = US 161 began on the US 61 bridge over the Des Moines River , which represents the border between Missouri and Iowa . The two routes ran </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Alfred North Whitehead = Alfred North Whitehead OM FRS ( 15 February 1861 – 30 December 1947 ) was an English mathematician and philosopher . He is best known as the defining figure of the philosophical school known as process philosophy , which today has found application to a wide variety of disciplines , including ecology , theology , education , physics , biology , economics , and psychology , among other areas . In his early career Whitehead wrote primarily on mathematics , logic , and physics . His most notable work in these fields is the three-volume Principia Mathematica ( 1910 – 13 ) , which he wrote with former student Bertrand Russell . Principia Mathematica is considered one of the twentieth century 's most important works in mathematical logic , and placed 23rd in a list of the top 100 English-language nonfiction books of the twentieth century by Modern Library . Beginning in the late 1910s and early 1920s , Whitehead gradually turned his attention from mathematics to phil</t>
+          <t xml:space="preserve">M-59 ( Michigan highway ) = M-59 is an east – west state trunkline highway that crosses the northern part of Metropolitan Detroit in the US state of Michigan . It runs between Howell at Interstate 96 ( I-96 ) and I-94 on the Chesterfield – Harrison township line near the Selfridge Air National Guard Base . While primarily a multi-lane surface highway , it is a full freeway from just east of the Pontiac downtown near Opdyke Road to just east of the Mound Road / Merrill Road exit in Utica . The various surface highway segments are named either Highland Road , Huron Street or Hall Road , with the latter known as an area for shopping and dining . The rural sections west of Pontiac pass through Oakland County lake country crossing through two state recreational areas . M-59 was first designated with the rest of the original state trunkline highway system by July 1 , 1919 between Pontiac and Mt . Clemens . Extensions on both ends brought the termini as far as Howell and New Baltimore before </t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Benjamin Lee Whorf = Benjamin Lee Whorf ( / wɔːrf / ; April 24 , 1897 – July 26 , 1941 ) was an American linguist and fire prevention engineer . Whorf is widely known as an advocate for the idea that because of linguistic differences in grammar and usage , speakers of different languages conceptualize and experience the world differently . This principle has frequently been called the " Sapir – Whorf hypothesis " , after him and his mentor Edward Sapir , but Whorf called it the principle of linguistic relativity , because he saw the idea as having implications similar to Einstein 's principle of physical relativity . Throughout his life Whorf was a chemical engineer by profession , but as a young man he took up an interest in linguistics . At first this interest drew him to the study of Biblical Hebrew , but he quickly went on to study the indigenous languages of Mesoamerica on his own . Professional scholars were impressed by his work and in 1930 he received a grant to study the Nahua</t>
+          <t>M-28 Business ( Newberry , Michigan ) = Business M-28 ( Bus . M-28 ) was a state trunkline highway in the Upper Peninsula of Michigan . It served as a business route running for 9.010 miles ( 14.500 km ) through the Newberry area . The business loop followed a U-shaped routing to connect downtown Newberry with M-28 south of town . It ran west of the city of Newberry , passing through the community of Dollarville before entering downtown , turning south and ending near the county airport . Bus . M-28 was originally a section of M-28 before the latter was realigned in the late 1930s . The highway carried the M-28A designation before it was redesignated as Bus . M-28 in 1950 . The trunkline was partially turned back to local control in 1953 , and the business loop designation was removed at that time . The section of the roadway in downtown Newberry has carried several different designations in addition to the original M-28 . = = Route description = = Bus . M-28 started at the top of a sm</t>
         </is>
       </c>
     </row>
@@ -616,32 +616,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>tons beam deck consisted guns laid horsepower armor hull boilers displaced steam mounted armament battery knots armored protected stern inch belt commissioned aft scrap torpedo carried waterline ironclad muzzle ship tubes amidships italian shipyard assigned propulsion indicated thick nautical enlisted broken stricken millimeter conning armed trials turrets shaft launched flagship gun twin propeller fired pounder ironclads cruiser caliber submerged load bow driving engines sisters quick powered casemates armour coal forward supplied maximum turbines outbreak draft rounds mounts plates wrought superstructure inches broadside expansion loading iron russian reduced battleship provided secondary hotchkiss class maneuvers fore transverse ammunition backed austro barbettes calibre</t>
+          <t>['election', 'hitler', 'campaign', 'party', 'bush', 'republican', 'political', 'vote', 'labour', 'president', 'presidential', 'democratic', 'war', 'government', 'senate']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colbert-class ironclad = The Colbert class were a pair of armored frigates built for the French Navy during the 1870s . The ships served as the flagships of the commander and deputy commander of the Mediterranean Squadron for most of their careers . The sister ships took part in the French conquest of Tunisia , notably shelling and landing troops in Sfax in 1881 . They were relegated to second-line roles in 1894 – 95 before being condemned in 1900 . The ships were finally sold for scrap in 1909 . = = Design and description = = The Colbert-class ships were designed by Constructor Sabattier as improved versions of the ironclad Richelieu and were the last ships authorized by the 1857 Naval Program . They reverted to a single propeller shaft to improve their sailing qualities and to lessen the chance of the propellers being fouled by fallen rigging . As central battery ironclads , they had their armament concentrated amidships . Like most ironclads of their era , they were equipped with a </t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>La Galissonnière-class ironclad = The La Galissonnière class ironclads were a group of wooden-hulled , armored corvettes built for the French Navy during the 1870s , meant as a heavier armed and faster version of the Alma-class ironclad . While all three ships were begun before the Franco-Prussian War of 1870 – 71 , the construction of the last two ships was delayed for years . The navy took advantage of the extended construction time of the latter ships to upgrade their armament . La Galissonnière bombarded Sfax in 1881 as part of the French occupation of Tunisia . She and her half-sister Triomphante participated in a number of battles during the Sino-French War of 1884 – 85 . Their sister Victorieuse had a much quieter career . All three ships were decommissioned in the 1890s . = = Design and description = = The La Galissonnière-class ironclads were designed as faster , more heavily armed versions of the Alma-class ironclads by Henri Dupuy de Lôme . They used the same central battery</t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">French ironclad Suffren = Suffren was a wooden-hulled , armored frigate of the Océan class , built for the French Navy in the mid to late 1860s as an improvement over the Provence-class ironclad . Although she was laid down in 1866 , the ship was not launched until 1872 and commissioned in 1876 . Suffren was one of the French ships assigned to the international squadron gathered to force the Ottoman Empire to carry out its obligations under the Treaty of Berlin in 1880 . The ship was paid off in 1895 and discarded two years later . = = Design and description = = The Océan-class ironclads were designed by Henri Dupuy de Lôme as an improved version of the Provence-class ironclads . The ships were central battery ironclads , with the armament concentrated amidships . For the first time in a French ironclad three watertight iron bulkheads were fitted in the hull . Like most ironclads of their era , they were equipped with a metal-reinforced ram . The ship measured 87.73 meters ( 287 ft 10 </t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Océan-class ironclad = The Océan class ironclads were a group of three wooden-hulled armored frigates built for the French Navy in the mid to late 1860s . Océan attempted to blockade Prussian ports in the Baltic Sea in 1870 during the Franco-Prussian War . Marengo participated in the French conquest of Tunisia in 1881 . Suffren was often used as the flagship for the squadron she was assigned to . She was flagship of the Cherbourg Division , the Channel Division , Mediterranean Squadron and the Northern Squadron during her career . The ships were discarded during the 1890s . = = Design and description = = The Océan-class ironclads were designed by Henri Dupuy de Lôme as an improved version of the Provence-class ironclads . The ships were central battery ironclads with the armament concentrated amidships . For the first time in a French ironclad three watertight iron bulkheads were fitted in the hull . Like most ironclads of their era they were equipped with a metal-reinforced ram . The </t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>French ironclad Victorieuse = Victorieuse ( Victorious ) was the second ship of the La Galissonnière class of wooden-hulled , armored corvettes built for the French Navy during the 1870s . Her construction was delayed for years and the navy took advantage of the extended construction time to upgrade her armament in comparison to the lead ship , La Galissonnière . Unlike her sisters , Victorieuse did not see any combat although she participated in the pacification of the Marquesas Islands in 1880 . She was condemned in 1900 . = = Design and description = = The La Galissonnière-class ironclads were designed as faster , more heavily armed versions of the Alma-class ironclads by Henri Dupuy de Lôme . They used the same central battery layout as their predecessors , although the battery was lengthened 4 meters ( 13 ft 1 in ) to provide enough room to work the larger 240-millimeter ( 9.4 in ) guns . Victorieuse and her sister ship Triomphante were modified by Sabattier who reduced the number</t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -651,32 +651,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>different called given form example point elements real use possible formula sequence particular result simple similar method function known physical results defined terms non problem theory important equivalent functions instance shown uses related constant space set value applications linear types zero complex basic field values light figure energy mechanical matrix systems plane standard properties corresponding case triangle gives mathematical direction methods group equation numbers code allows element definition continuous independent structure type frequency fact useful means map components analysis sense finite dimensional ways normal change equal infinite information certain order filter rules surface electrical ratio image step mechanics quantum cell</t>
+          <t>['tropical', 'storm', 'hurricane', 'winds', 'depression', 'cyclone', 'mph', 'rainfall', 'damage', 'landfall', 'wind', 'utc', 'flooding', 'weakened', 'intensity']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Hilbert space = The mathematical concept of a Hilbert space , named after David Hilbert , generalizes the notion of Euclidean space . It extends the methods of vector algebra and calculus from the two-dimensional Euclidean plane and three-dimensional space to spaces with any finite or infinite number of dimensions . A Hilbert space is an abstract vector space possessing the structure of an inner product that allows length and angle to be measured . Furthermore , Hilbert spaces are complete : there are enough limits in the space to allow the techniques of calculus to be used . Hilbert spaces arise naturally and frequently in mathematics and physics , typically as infinite-dimensional function spaces . The earliest Hilbert spaces were studied from this point of view in the first decade of the 20th century by David Hilbert , Erhard Schmidt , and Frigyes Riesz . They are indispensable tools in the theories of partial differential equations , quantum mechanics , Fourier analysis ( which inc</t>
+          <t xml:space="preserve">1956 Atlantic hurricane season = The 1956 Atlantic hurricane season featured a low number of tropical cyclones , although every tropical storm and hurricane affected land . There were twelve tropical storms , a third of which became hurricanes . One of the hurricanes strengthened to the equivalent of a major hurricane , which is a Category 3 or greater on the Saffir-Simpson scale . The strongest hurricane of the season was Betsy , which was also the most damaging storm of the season : it destroyed 15,000 houses and left $ 40 million in damage in Puerto Rico . Betsy was also the deadliest of the season , having killed 18 people in the French West Indies , two from a shipwreck in the Caribbean Sea , and 16 in Puerto Rico . Tropical Storm Dora struck Mexico in September and killed 27 people . The season officially started on June 15 , although an unnamed storm developed about a week prior over the western North Atlantic Ocean . A later storm that formed over the Gulf of Mexico on June 12 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Derivative = The derivative of a function of a real variable measures the sensitivity to change of a quantity ( a function value or dependent variable ) which is determined by another quantity ( the independent variable ) . Derivatives are a fundamental tool of calculus . For example , the derivative of the position of a moving object with respect to time is the object 's velocity : this measures how quickly the position of the object changes when time is advanced . The derivative of a function of a single variable at a chosen input value , when it exists , is the slope of the tangent line to the graph of the function at that point . The tangent line is the best linear approximation of the function near that input value . For this reason , the derivative is often described as the " instantaneous rate of change " , the ratio of the instantaneous change in the dependent variable to that of the independent variable . Derivatives may be generalized to functions of several real variables . </t>
+          <t>2009 Atlantic hurricane season = The 2009 Atlantic hurricane season was a below-average Atlantic hurricane season that produced eleven tropical cyclones , nine named storms , three hurricanes , and two major hurricanes . It officially began on June 1 and ended on November 30 , dates that conventionally delimit the period of each year when most tropical cyclones develop in the Atlantic basin . The season 's first tropical cyclone , Tropical Depression One , developed on May 28 , while the final storm , Hurricane Ida , dissipated on November 10 . The most intense hurricane , Bill , was a powerful Cape Verde-type hurricane that affected areas from the Leeward Islands to Newfoundland . The season featured the lowest number of tropical cyclones since the 1997 season , and only one system , Claudette , made landfall in the United States . Forming from the interaction of a tropical wave and an upper level low , Claudette made landfall on the Florida Panhandle with maximum sustained winds of 4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Vector space = A vector space ( also called a linear space ) is a collection of objects called vectors , which may be added together and multiplied ( " scaled " ) by numbers , called scalars in this context . Scalars are often taken to be real numbers , but there are also vector spaces with scalar multiplication by complex numbers , rational numbers , or generally any field . The operations of vector addition and scalar multiplication must satisfy certain requirements , called axioms , listed below . Euclidean vectors are an example of a vector space . They represent physical quantities such as forces : any two forces ( of the same type ) can be added to yield a third , and the multiplication of a force vector by a real multiplier is another force vector . In the same vein , but in a more geometric sense , vectors representing displacements in the plane or in three-dimensional space also form vector spaces . Vectors in vector spaces do not necessarily have to be arrow-like objects as t</t>
+          <t>1970 North Indian Ocean cyclone season = The 1970 North Indian Ocean cyclone season had no bounds , but tropical cyclones in the North Indian Ocean tend to form between April and December , with peaks in May and November . The 1970 season saw a total of seven cyclonic storms , of which three developed into severe cyclonic storms . The Bay of Bengal was more active than the Arabian Sea during 1970 , with all of the three severe cyclonic storms in the season forming there . Unusually , none of the storms in the Arabian Sea made landfall this year . The most significant storm of the season was the Bhola cyclone , which formed in the Bay of Bengal and hit Bangladesh on November 12 . The storm killed at least 300,000 and possibly even over half a million people , making it the deadliest tropical cyclone in recorded history . = = Storms = = = = = Very Severe Cyclonic Storm One = = = A low pressure area that developed over the southern Andaman Sea late in April moved north into the Bay of Ben</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dirac delta function = In mathematics , the Dirac delta function , or δ function , is a generalized function , or distribution , on the real number line that is zero everywhere except at zero , with an integral of one over the entire real line . The delta function is sometimes thought of as a hypothetical function whose graph is an infinitely high , infinitely thin spike at the origin , with total area one under the spike , and physically represents the density of an idealized point mass or point charge . It was introduced by theoretical physicist Paul Dirac . From a purely mathematical viewpoint , the Dirac delta is not strictly a function , because any extended-real function that is equal to zero everywhere but a single point must have total integral zero . The delta function only makes sense as a mathematical object when it appears inside an integral . From this perspective the Dirac delta can usually be manipulated as though it were a function . The formal rules obeyed by this " fu</t>
+          <t>1939 Atlantic hurricane season = The 1939 Atlantic hurricane season officially began on June 12 , 1939 , and lasted until November 7 , 1939 . These dates mark the period of each year when most tropical cyclones form in the Atlantic basin . The 1939 season had below normal activity , with only six tropical storms , of which two became hurricanes and one became a major hurricane , equivalent to Category 3 status or higher on the modern-day Saffir-Simpson Hurricane Scale . The first tropical cyclone formed on June 12 , and the last dissipated on November 6 . All of the storms affected land to some extent . The first two cyclones of the season made landfall along the coast of the United States , collectively causing only minor damage . Hurricane Five , the strongest of the year , took a northeastern path through the western Atlantic , striking Bermuda on October 16 . The fifth and final storm was a minimal hurricane that wrought damage throughout the western Caribbean Sea , most notably in</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Matrix ( mathematics ) = In mathematics , a matrix ( plural matrices ) is a rectangular array of numbers , symbols , or expressions , arranged in rows and columns . The dimensions of matrix ( 1 ) are 2 × 3 ( read " two by three " ) , because there are two rows and three columns . The individual items in a matrix are called its elements or entries . Provided that they are the same size ( have the same number of rows and the same number of columns ) , two matrices can be added or subtracted element by element . The rule for matrix multiplication , however , is that two matrices can be multiplied only when the number of columns in the first equals the number of rows in the second . Any matrix can be multiplied element-wise by a scalar from its associated field . A major application of matrices is to represent linear transformations , that is , generalizations of linear functions such as f ( x ) = 4x . For example , the rotation of vectors in three dimensional space is a linear transformat</t>
+          <t>Effects of Hurricane Charley in North Carolina = The effects of Hurricane Charley in North Carolina were minor to moderate and included $ 25 million ( 2004 USD ) in damage . Hurricane Charley lasted from August 9 to August 15 , 2004 , and at peak intensity it attained 150 miles per hour ( 240 km / h ) winds , making it a strong Category 4 hurricane on the Saffir-Simpson Hurricane Scale . The storm made landfall in southwestern Florida at maximum strength , and moved northward , parallel to the U.S. East Coast before moving ashore on northeastern South Carolina . The storm caused flooding in seven counties within the state as a result of 5.05 inches ( 128 mm ) of rainfall . Winds peaked at 85 miles per hour ( 137 km / h ) which downed trees and power lines , and left 65,000 homes without power . A storm surge of 2 feet ( 0.61 m ) to 3 feet ( 0.91 m ) was reported , along with moderate waves that caused minor beach erosion . No deaths are attributed to the storm . = = Preparations = = On</t>
         </is>
       </c>
     </row>
@@ -686,32 +686,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>war american later wrote years began men time british land united_states known general early received including southern day returned state military lincoln new_york near governor family continued led march sent north south town command small president took hamilton major came gave battle new left large died massachusetts july arnold texas fort remained troops washington arrived called soldiers went slavery expedition included ordered settlers colonial end man city government named officers year house slaves new_england death miles days jefferson june navy life white congress virginia army return grant spanish area boston great confederate people slave commander following attack little served moved</t>
+          <t>['king', 'government', 'polish', 'political', 'emperor', 'son', 'arab', 'death', 'military', 'army', 'died', 'pope', 'poland', 'reign', 'byzantine']</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>George Washington = George Washington ( February 22 , 1732 [ O.S. February 11 , 1731 ] – December 14 , 1799 ) was the first President of the United States ( 1789 – 97 ) , the Commander-in-Chief of the Continental Army during the American Revolutionary War , and one of the Founding Fathers of the United States . He presided over the convention that drafted the current United States Constitution and during his lifetime was called the " father of his country " . Widely admired for his strong leadership qualities , Washington was unanimously elected president by the Electoral College in the first two national elections . He oversaw the creation of a strong , well-financed national government that maintained neutrality in the French Revolutionary Wars , suppressed the Whiskey Rebellion , and won acceptance among Americans of all types . Washington 's incumbency established many precedents , still in use today , such as the cabinet system , the inaugural address , and the title Mr. President</t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Abraham Lincoln = Abraham Lincoln ( / ˈeɪbrəhæm ˈlɪŋkən / ; February 12 , 1809 – April 15 , 1865 ) was the 16th President of the United States , serving from March 1861 until his assassination in April 1865 . Lincoln led the United States through its Civil War — its bloodiest war and its greatest moral , constitutional , and political crisis . In doing so , he preserved the Union , abolished slavery , strengthened the federal government , and modernized the economy . Born in Hodgenville , Kentucky , Lincoln grew up on the western frontier in Kentucky and Indiana . Largely self-educated , he became a lawyer in Illinois , a Whig Party leader , and a member of the Illinois House of Representatives , in which he served for twelve years . Elected to the United States House of Representatives in 1846 , Lincoln promoted rapid modernization of the economy through banks , tariffs , and railroads . Because he had originally agreed not to run for a second term in Congress , and because his opposi</t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hamilton Fish = Hamilton Fish ( August 3 , 1808 – September 7 , 1893 ) , was an American statesman and politician who served as the 16th Governor of New York , a United States Senator and United States Secretary of State . Fish is recognized as the " pillar " of the Grant Administration and considered one of the best U.S. Secretaries of State by scholars , known for his judiciousness and efforts towards reform and diplomatic moderation . Fish settled the controversial Alabama Claims with Great Britain through his development of the concept of international arbitration . Fish kept the United States out of war with Spain over Cuban independence by coolly handling the volatile Virginius Incident . In 1875 , Fish initiated the process that would ultimately lead to Hawaiian statehood , by having negotiated a reciprocal trade treaty for the island nation 's sugar production . He also organized a peace conference and treaty in Washington D.C. between South American countries and Spain . Fish </t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alexander Hamilton = Alexander Hamilton ( January 11 , 1755 or 1757 – July 12 , 1804 ) was a Founding Father of the United States , chief staff aide to General George Washington , one of the most influential interpreters and promoters of the U.S. Constitution , the founder of the nation 's financial system , the founder of the Federalist Party , the world 's first voter-based political party , the founder of the United States Coast Guard , and the founder of The New York Post newspaper . As the first Secretary of the Treasury , Hamilton was the primary author of the economic policies of the George Washington administration . Hamilton took the lead in the funding of the states ' debts by the Federal government , the establishment of a national bank , a system of tariffs , and friendly trade relations with Britain . He led the Federalist Party , created largely in support of his views ; he was opposed by the Democratic-Republican Party , led by Thomas Jefferson and James Madison , which </t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Spanish Texas = Spanish Texas was one of the interior provinces of the Spanish colonial Viceroyalty of New Spain from 1690 until 1821 . = = History = = Spain had claimed ownership of the territory , which comprised part of the present-day U.S. state of Texas , including the land north of the Medina and Nueces Rivers , but did not attempt to colonize the area until after locating evidence of the failed French colony of Fort Saint Louis in 1689 . In 1690 , Alonso de León escorted several Catholic missionaries to east Texas , where they established the first mission in Texas . When native tribes resisted the Spanish invasion of their homeland , the missionaries returned to Mexico , abandoning Texas for the next two decades . The Spanish returned to southeastern Texas in 1716 , establishing several missions and a presidio to maintain a buffer between Spanish territory and the French colonial Louisiana district of New France . Two years later in 1718 , the first civilian settlement in Texas</t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -721,32 +721,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>game released games player music version original series release story characters players main character japan based development soundtrack tracks hero theme playing japanese published new guitar plot enix playstation gaming created video gameplay versions features included called scenario anime sold localization received previous songs mode composed final_fantasy playable persona tales developed battle square_enix famitsu praised titled manga multiplayer content dragon online best world use rpg developers include arranged ign xbox create downloadable ending console portable different abilities arrangements controller nintendo volumes soundtracks hearts fantasy gamespot items wii protagonist featured difficulty ps2 similar multiple mortal cutscenes fan key containing additional reviewers</t>
+          <t>['species', 'shark', 'genus', 'sharks', 'females', 'prey', 'eggs', 'males', 'cap', 'birds', 'nest', 'habitat', 'fin', 'brown', 'stem']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Dragon Quest = Dragon Quest ( Japanese : ドラゴンクエスト , Hepburn : Doragon Kuesuto ) , published as Dragon Warrior in North America until 2005 , is a series of internationally best-selling console role-playing video game ( RPG ) titles created by Yuji Horii and his studio , Armor Project . The series is published by Square Enix ( formerly Enix ) , with localized versions of later installments for the Nintendo DS being published by Nintendo outside Japan . With its first title published in 1986 , there are currently ten main-series titles , along with numerous spin-off games . Nearly every game in the main series has either an anime or manga adaptation , or both . The series has had a significant impact on the development of console RPGs , and introduced a number of features to the genre . Installments of the series have appeared on MSX computers , Nintendo Entertainment System , Super Nintendo Entertainment System , Game Boy Color , Game Boy Advance , Nintendo DS , PlayStation , PlayStation</t>
+          <t>Bramble shark = The bramble shark ( Echinorhinus brucus ) is one of the two species of sharks in the family Echinorhinidae . Aside from the eastern Pacific Ocean , it is found in tropical and temperate waters worldwide . This rarely encountered shark swims close to the bottom of the seafloor , typically at depths of 400 – 900 m ( 1,300 – 3,000 ft ) , though it may enter much shallower water . The bramble shark has a stout body with two small dorsal fins positioned far back and no anal fin . It can be readily identified by the large , thorn-like dermal denticles scattered over its body , some of which may be fused together . It is purplish brown or black in color and grows up to 3.1 m ( 10 ft ) long . The diet of the bramble shark includes smaller sharks , bony fishes , and crabs , which this slow-moving species may capture via suction . It is aplacental viviparous , with females producing litters of 15 – 52 pups . Harmless to humans , it is an occasional bycatch of commercial and recre</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Guitar Hero = The Guitar Hero series ( sometimes referred to as the Hero series ) is a series of music rhythm games first published in 2005 by RedOctane and Harmonix , and distributed by Activision , in which players use a guitar-shaped game controller to simulate playing lead , bass guitar , and rhythm guitar across numerous rock music songs . Players match notes that scroll on-screen to colored fret buttons on the controller , strumming the controller in time to the music in order to score points , and keep the virtual audience excited . The games attempt to mimic many features of playing a real guitar , including the use of fast-fingering hammer-ons and pull-offs and the use of the whammy bar to alter the pitch of notes . Most games support single player modes , typically a Career mode to play through all the songs in the game , and both competitive and cooperative multiplayer modes . With the introduction of Guitar Hero World Tour in 2008 , the game includes support for a four-play</t>
+          <t>Cyathus stercoreus = Cyathus stercoreus , commonly known as the dung-loving bird 's nest , is a species of fungus in the genus Cyathus , family Nidulariaceae . Like other species in the Nidulariaceae , the fruiting bodies of C. stercoreus resemble tiny bird 's nests filled with eggs . The fruiting bodies are referred to as splash cups , because they are designed to use the force of falling drops of water to dislodge and disperse their spores . The species has a worldwide distribution , and prefers growing on dung , or soil containing dung ; the specific epithet is derived from the Latin word stercorarius , meaning " of dung " . = = Description = = The fruiting bodies , or perida , are funnel- or barrel-shaped , 6 – 15 mm tall , 4 – 8 mm wide at the mouth , sometimes short-stalked , golden brown to blackish brown in age . The outside wall of the peridium , the ectoperidium , is covered with tufts of fungal hyphae that resembles shaggy , untidy hair . However , in older specimens this ou</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tales ( series ) = The Tales series , known in Japan as the Tales of series ( 「 テイルズ オブ 」 シリーズ , " Teiruzu Obu " Shirīzu ) , is a franchise of fantasy Japanese role-playing video games published by Bandai Namco Entertainment ( formerly Namco ) , and developed by its subsidiary , Namco Tales Studio until 2011 and presently by Bandai Namco . First begun in 1995 with the development and release of Tales of Phantasia for the Super Famicom , the series currently spans sixteen main titles , multiple spin-off games and supplementary media in the form of manga series , anime series , and audio dramas . While entries in the series generally stand independent of each other with different characters and stories , they are commonly linked by their gameplay , themes and high fantasy settings . The series is characterized by its art style , which draws from Japanese manga and anime , and its action-based fighting system called the " Linear Motion Battle System " . Multiple people have become linked </t>
+          <t>Cookiecutter shark = Cookiecutter shark ( Isistius brasiliensis ) , also called the cigar shark , is a species of small dogfish shark in the family Dalatiidae . This shark occurs in warm , oceanic waters worldwide , particularly near islands , and has been recorded as deep as 3.7 km ( 2.3 mi ) . It migrates vertically up to 3 km ( 1.9 mi ) every day , approaching the surface at dusk and descending with the dawn . Reaching only 42 – 56 cm ( 16.5 – 22 in ) in length , the cookiecutter shark has a long , cylindrical body with a short , blunt snout , large eyes , two tiny spineless dorsal fins , and a large caudal fin . It is dark brown , with light-emitting photophores covering its underside except for a dark " collar " around its throat and gill slits . The name " cookiecutter shark " refers to its feeding habit of gouging round plugs , as if cut out with a cookie cutter , out of larger animals . Marks made by cookiecutter sharks have been found on a wide variety of marine mammals and fi</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Music of the Final Fantasy series = Final Fantasy is a media franchise created by Hironobu Sakaguchi and owned by Square Enix that includes video games , motion pictures , and other merchandise . The series began in 1987 as an eponymous role-playing video game developed by Square , spawning a video game series that became the central focus of the franchise . The music of the Final Fantasy series refers to the soundtracks of the Final Fantasy series of video games , as well as the surrounding medley of soundtrack , arranged , and compilation albums . The series ' music ranges from very light background music to emotionally intense interweavings of character and situation leitmotifs . The franchise includes a main series of numbered games as well as several spin-off series such as Crystal Chronicles and the Final Fantasy Tactics series . The primary composer of music for the main series was Nobuo Uematsu , who single-handedly composed the soundtracks for the first nine games , as well as</t>
+          <t>Smooth hammerhead = The smooth hammerhead ( Sphyrna zygaena ) is a species of hammerhead shark , and part of the family Sphyrnidae . This species is named " smooth hammerhead " because of the distinctive shape of the head , which is flattened and laterally extended into a hammer shape ( called the " cephalofoil " ) , without an indentation in the middle of the front margin ( hence " smooth " ) . Unlike other hammerheads , this species prefers temperate waters and occurs worldwide at medium latitudes . In the summer , these sharks migrate towards the poles following cool water masses , sometimes forming schools numbering in the hundreds to thousands . The second-largest hammerhead shark after the great hammerhead shark , the smooth hammerhead can measure up to 5 m ( 16 ft ) long . It is an active predator that takes a wide variety of bony fishes and invertebrates , with larger individuals also feeding on sharks and rays . As in the rest of its family , this shark is viviparous and gives</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Dragon Quest ( video game ) = Dragon Quest ( Japanese : ドラゴンクエスト , Hepburn : Doragon Kuesuto ) , also released as Dragon Warrior , is the first role-playing video game ( RPG ) in the Dragon Quest media franchise . It was developed by Chunsoft for the Family Computer ( or Famicom for short ) and published by Enix in Japan in 1986 as Dragon Quest and by Nintendo in 1989 in North America for the Nintendo Entertainment System ( or NES ) as Dragon Warrior . Dragon Quest has been ported and remade for several video game platforms , including the MSX , PC-9801 , X68000 , Super Famicom , Game Boy Color , and mobile phones . In play , players control a hero character who is charged with saving the Kingdom of Alefgard and rescuing its princess from the evil Dragonlord . Dragon Warrior 's story became the second part in a trilogy . Several more anime and manga games , which revolved around this overarching plot were created . Dragon Quest was created by Yuji Horii , who took inspiration from prev</t>
+          <t>Squatina squatina = Squatina squatina , the angelshark or monkfish , is a species of shark in the family Squatinidae ( known generally also as angel sharks ) , once widespread in the coastal waters of the northeastern Atlantic Ocean . Well-adapted for camouflaging itself on the sea floor , the angelshark has a flattened form with enlarged pectoral and pelvic fins , giving it a superficial resemblance to a ray . This species can be identified by its broad and stout body , conical barbels , thornless back ( in larger individuals ) , and grayish or brownish dorsal coloration with a pattern of numerous small light and dark markings ( that is more vivid in juveniles ) . It measures up to 2.4 m ( 7.9 ft ) long . Like other members of its family , the angelshark is a nocturnal ambush predator that buries itself in sediment and waits for passing prey , mostly benthic bony fishes , but also skates and invertebrates . An aplacental viviparous species , females bear litters of seven to 25 pups ev</t>
         </is>
       </c>
     </row>
@@ -756,32 +756,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>tropical storm cyclone area cyclones near level wind low formed depression miles winds water west sea activity ice high southwest northwest system storms south volcano peak typhoon coast mph disturbance shear trough surface cold southeast eruption weather feet form circulation temperature day moved upper days formation caused hurricane convection ocean northeast rainfall flows land august developed monsoon volcanic mountain east lava ridge significant air turned subtropical warm atmosphere moving intensity westward july basin dissipated pressure cloud center region weakened lower september severe snow clouds southern strong temperatures active pacific areas zone extratropical large island organized metres mid waters eastern lake</t>
+          <t>['game', 'player', 'gameplay', 'games', 'players', 'soundtrack', 'mario', 'playstation', 'graphics', 'mode', 'hero', 'nintendo', 'characters', 'released', 'version']</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1981 Pacific typhoon season = The 1981 Pacific typhoon season has no official bounds ; it ran year-round in 1981 , but most tropical cyclones tend to form in the northwestern Pacific Ocean between May and November . These dates conventionally delimit the period of each year when most tropical cyclones form in the northwestern Pacific Ocean . Tropical Storms formed in the entire west pacific basin were assigned a name by the Joint Typhoon Warning Center . Tropical depressions that enter or form in the Philippine area of responsibility are assigned a name by the Philippine Atmospheric , Geophysical and Astronomical Services Administration or PAGASA . This can often result in the same storm having two names . A total of 35 tropical depressions formed this year in the Western Pacific , of which 29 became tropical storms . Of the 29 , 13 storms reached typhoon intensity , of which 2 reached super typhoon strength . Seven tropical cyclones moved through the Philippines this season . The firs</t>
+          <t>Donkey Kong Jr . Math = Donkey Kong Jr . Math , originally released in Japan as Donkey Kong Jr . ' s Math Play ( Japanese : ドンキーコングJR.の算数遊び , Hepburn : Donkī Kongu Junia no Sansū Asobi ) ( sometimes released as Jr . Math Lesson ( JR.算数レッスン , Junia Sansū Ressun ) ) , is a Nintendo edutainment video game where players must solve math problems in order to win . It was released in Japan in 1983 for the Family Computer , in North America for the NES 's nationwide launch in 1986 , and in PAL regions in 1986 . It is the only game in the " Education Series " of NES games in North America . Donkey Kong Jr . Math was made available in the video game Animal Crossing ( along with several other NES titles ) . Donkey Kong Jr . Math was re-released on the Wii 's Virtual Console in 2007 and on the Wii U 's Virtual Console in 2014 . Since its release , Donkey Kong Jr . Math has received very negative reception ; Nintendo spokesman Tom Sarris commented that it was not well received , resulting in Ninten</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1984 Pacific typhoon season = The 1984 Pacific typhoon season has no official bounds , but most tropical cyclones tend to form in the northwestern Pacific Ocean between May and November . These dates conventionally delimit the period of each year when most tropical cyclones form in the northwestern Pacific Ocean . Tropical Storms formed in the entire west pacific basin were assigned a name by the Joint Typhoon Warning Center . Tropical depressions that enter or form in the Philippine area of responsibility are assigned a name by the Philippine Atmospheric , Geophysical and Astronomical Services Administration or PAGASA . This can often result in the same storm having two names . A total of 30 tropical depressions formed in 1984 in the Western Pacific , of which 27 became tropical storms , 16 reached typhoon intensity , and two reached super typhoon strength . Eight tropical cyclones moved into mainland China , four struck Vietnam , four moved through the Philippines , and one cyclone m</t>
+          <t>Neverwinter Nights 2 : Mask of the Betrayer = Neverwinter Nights 2 : Mask of the Betrayer is a role-playing video game developed by Obsidian Entertainment and published by Atari . It is an expansion pack for Neverwinter Nights 2 . It was released in Autumn 2007 for the PC in North America , Europe , and Australia . Like the first game , Mask of the Betrayer is set in the Forgotten Realms campaign setting of the paper and pencil role-playing game Dungeons &amp; Dragons and employs the 3.5 edition rules . Mask of the Betrayer continues the story of Neverwinter Nights 2 by following the fictional main character , the Shard-bearer , who is afflicted by a curse that requires the devouring of spirits ( and occasionally souls ) to survive , and the character 's quest to determine the nature of the curse . The game takes place in two nations of the Forgotten Realms , Rashemen and Thay , which are considered part of Faerûn 's " Unapproachable East . " The expansion received generally favorable revi</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1982 Pacific typhoon season = The 1982 Pacific typhoon season had no official bounds ; it ran year-round in 1982 . On average , most tropical cyclones tend to form in the northwestern Pacific Ocean between May and November . These dates conventionally delimit the period of each year when most tropical cyclones form in the northwestern Pacific Ocean . The scope of this article is limited to the Pacific Ocean , north of the equator and west of the International Date Line . Storms that form east of the date line and north of the equator are called hurricanes . Tropical Storms that formed in the entire west Pacific basin were assigned a name by the Joint Typhoon Warning Center . Tropical depressions that enter or form in the Philippine area of responsibility are assigned a name by the Philippine Atmospheric , Geophysical and Astronomical Services Administration or PAGASA . This can often result in the same storm having two names . During this season , the first tropical cyclone formed on M</t>
+          <t>Guitar Hero Smash Hits = Guitar Hero Smash Hits ( titled Guitar Hero Greatest Hits in Europe and Australia ) is a music rhythm game and the fourth expansion game to the Guitar Hero series . The game features 48 songs originally featured in five previous games in the series — Guitar Hero , Guitar Hero II , Guitar Hero Encore : Rocks the 80s , Guitar Hero III : Legends of Rock and Guitar Hero : Aerosmith — redesigning the songs to be based on master recordings and to include support for full band play first introduced to the series in Guitar Hero World Tour . The game was developed by Beenox , published by Activision and distributed by RedOctane for release on the PlayStation 2 , PlayStation 3 , Wii , and Xbox 360 systems and was released around the world in the second half of June 2009 . The game reuses many elements from previous titles in the series , including Guitar Hero World Tour and Guitar Hero : Metallica . Beenox designed the game around playing the greatest songs of the series</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1986 Pacific typhoon season = The 1986 Pacific typhoon season has no official bounds ; it ran year-round in 1986 , but most tropical cyclones tend to form in the northwestern Pacific Ocean between May and December . These dates conventionally delimit the period of each year when most tropical cyclones form in the northwestern Pacific Ocean . Tropical Storms formed in the entire west pacific basin were assigned a name by the Joint Typhoon Warning Center . Tropical depressions that enter or form in the Philippine area of responsibility are assigned a name by the Philippine Atmospheric , Geophysical and Astronomical Services Administration or PAGASA . This can often result in the same storm having two names . A total of 32 tropical depressions formed in 1986 in the Western Pacific over an eleven-month time span . Of the 32 , 30 became tropical storms , 19 storms reached typhoon intensity , and 3 reached super typhoon strength . The Joint Typhoon Warning Center considered Vera as two tropi</t>
+          <t>Barbarian : The Ultimate Warrior = Barbarian : The Ultimate Warrior is a video game first released for Commodore 64 personal computers in 1987 ; the title was developed and published by Palace Software , and ported to other computers in the following months . The developers licensed the game to Epyx , who published it as Death Sword in the United States . Barbarian is a fighting game that gives players control over sword-wielding barbarians . In the game 's two-player mode , players pit their characters against each other . Barbarian also has a single-player mode , in which the player 's barbarian braves a series of challenges set by an evil wizard to rescue a princess . Instead of using painted artwork for the game 's box , Palace Software used photos of hired models . The photos , also used in advertising campaigns , featured Michael Van Wijk ( who would later become famous as ' Wolf ' in the TV series Gladiators ) as the hero and bikini-clad Maria Whittaker , a model who was then as</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1994 Pacific typhoon season = The 1994 Pacific typhoon season was an extremely active season in the annual cycle of tropical cyclone formation in the Western North Pacific , with a total of 41 tropical cyclones during the course of the season . The season had no official bounds and it ran year-round in 1994 , but most tropical cyclones tend to form in the northwestern Pacific Ocean between May and November . Tropical storms that formed west of the date line were assigned a name by the Joint Typhoon Warning Center . The World Meteorological Organization-designated Regional Specialized Meteorological Centre for tropical cyclones for the region is the Japan Meteorological Agency . Tropical depressions that entered or formed in the Philippine area of responsibility were assigned a name by the Philippine Atmospheric , Geophysical and Astronomical Services Administration or PAGASA . This resulted in some storms having two names . The season started on January 4 with the formation of Tropical</t>
+          <t>Guitar Hero II = Guitar Hero II is a music rhythm game developed by Harmonix , published by Activision and distributed by RedOctane . It is the second installment in the Guitar Hero series and is the sequel to Guitar Hero . It was first released for the PlayStation 2 in November 2006 , and then for the Xbox 360 in April 2007 , with additional content not originally in the PlayStation 2 version . Like in the original Guitar Hero , the player uses a peripheral in the shape of a solid-body electric guitar to simulate playing rock music as notes scroll towards the player . Most of the gameplay from the original game remains intact , and provides new modes and note combinations . The game features more than 40 popular licensed songs , many of them cover versions recorded for the game , spanning five decades ( from the 1960s to the 2000s ) . The PlayStation 2 version of Guitar Hero II can be purchased individually or in a bundle that packages the game with a cherry red Gibson SG guitar contr</t>
         </is>
       </c>
     </row>
@@ -791,32 +791,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>court act public law state rights case government right cases united_states courts decision singapore person held review legal states constitutional required appeal provisions subject article constitution section purpose judges non order free federal justice executive laws process jurisdiction requires members amendment powers apply shall human persons action provision clause information criminal question means judgment common freedom property specifically authority people certain statute purposes argued supreme_court necessary interest judicial applicable report effect provides bill opinion prevent judge limited exercise provided protection view congress power citizens scope passed legislation considered acts provide ensure issued judiciary decisions enacted personal involving actions parliament adopted</t>
+          <t>['innings', 'runs', 'league', 'baseball', 'nba', 'batting', 'season', 'career', 'team', 'scored', 'wickets', 'basketball', 'games', 'rebounds', 'batted']</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Article 14 of the Constitution of Singapore = Article 14 of the Constitution of the Republic of Singapore , specifically Article 14 ( 1 ) , guarantees to Singapore citizens the rights to freedom of speech and expression , peaceful assembly without arms , and association . However , the enjoyment of these rights may be restricted by laws imposed by the Parliament of Singapore on the grounds stated in Article 14 ( 2 ) of the Constitution . There are two types of grounds . For the first type , it must be shown that restricting the rights is " necessary or expedient in the interest " of the grounds . The grounds are the security of Singapore and public order ( applicable to all three rights protected by Article 14 ( 1 ) ) , morality ( freedom of speech and freedom of association ) , and friendly relations with other countries ( freedom of speech only ) . In a 2005 judgment , the High Court expressed the view that the phrase necessary or expedient confers upon Parliament " an extremely wide</t>
+          <t>Leverett George DeVeber = Leverett George DeVeber ( sometimes spelled De Veber ) ( February 10 , 1849 – July 9 , 1925 ) was a Canadian politician who served as Member of the Legislative Assemblies of Alberta and the North-West Territories , minister in the government of Alberta , and member of the Senate of Canada . Born in New Brunswick and trained as a physician , he joined the North-West Mounted Police and came west , eventually settling in Lethbridge after leaving the police force . He represented Lethbridge in the North-West Legislative Assembly from 1898 until 1905 , when Lethbridge became part of the new province of Alberta . He was appointed Minister without Portfolio in Alberta 's first government , but resigned four months later to accept an appointment to the Senate , where he remained until his death . = = Early life = = DeVeber was born February 10 , 1849 , in Saint John , New Brunswick . His great-grandfather , Gabriel DeVeber , had been a British army officer who was rew</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Exclusion of judicial review in Singapore law = Exclusion of judicial review has been attempted by the Parliament of Singapore to protect the exercise of executive power . Typically , this has been done though the insertion of finality or total ouster clauses into Acts of Parliament , or by wording powers conferred by Acts on decision-makers subjectively . Finality clauses are generally viewed restrictively by courts in the United Kingdom . The courts there have taken the view that such clauses are , subject to some exceptions , not effective in denying or restricting the extent to which the courts are able to exercise judicial review . In contrast , Singapore cases suggest that ouster clauses cannot prevent the High Court from exercising supervisory jurisdiction over the exercise of executive power where authorities have committed jurisdictional errors of law , but are effective against non-jurisdictional errors of law . A partial ouster or time limit clause specifies a restricted per</t>
+          <t>Salil Ankola = Salil Ashok Ankola ( born 1 March 1968 , Solapur , Maharashtra ) is a former Indian international cricketer who played one Test match and 20 One Day Internationals ( ODIs ) from 1989 to 1997 for India . A right-arm fast-medium bowler , he played first-class cricket for Maharashtra , regularly opening the bowling . Ankola 's consistent performances for Maharashtra earned him a call for representing India during their tour of Pakistan in 1989 – 90 . After the first Test match at Karachi , he was dropped for the subsequent matches in the series owing to injuries . After a brief phase of playing first-class cricket , Ankola was called for the Indian ODI team during 1993 , eventually led to being a part of the 1996 Cricket World Cup . At age 28 , Ankola retired due to a sudden development of bone tumor in his left shin bone ( osteoid osteoma ) because of which he could not run for 2 years . Since then he went on to appear in a number of Indian soap operas and a few Hindi film</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Threshold issues in Singapore administrative law = Threshold issues are legal requirements in Singapore administrative law that must be satisfied by applicants before their claims for judicial review of acts or decisions of public authorities can be dealt with by the High Court . These include showing that they have standing ( locus standi ) to bring cases , and that the matters are amenable to judicial review and justiciable by the Court . Depending on the interest that the applicant seeks to represent , standing can be categorized as either private or public standing . Applicants must establish they have private standing if they seek to represent personal interests . In contrast , an applicant who seeks to represent the interests of a larger group or the public at large must establish he or she has public or representative standing . Where private standing is concerned , the Singapore courts have not yet directly addressed the issue of the standing required to obtain a declaration in</t>
+          <t>Dorothy McKibbin = Dorothy McKibbin ( December 12 , 1897 – December 17 , 1985 ) worked on the Manhattan Project during World War II . She ran the project 's office at 109 East Palace in Santa Fe , through which staff moving to the Los Alamos Laboratory passed . She was known as the " first lady of Los Alamos " , and was often the first point of contact for new arrivals . She retired when the Santa Fe office closed in 1963 . = = Early life = = Dorothy Ann Scarritt was born in Kansas City , Missouri , on December 12 , 1897 , the fourth of five children of William Chick Scarritt , a corporate lawyer , and his wife Frances Virginia née Davis . She had two older brothers , William Hendrix ( known as Bill ) and Arthur Davis ( known as A.D. ) , and an older sister , Frances . A younger sister , Virginia , died in 1907 . Dorothy was known as Dink to her family and close friends . Her father was active in political and social life in Kansas City , serving as its police commissioner from 1896 to</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Article 9 of the Constitution of Singapore = Article 9 of the Constitution of the Republic of Singapore , specifically Article 9 ( 1 ) , guarantees the right to life and the right to personal liberty . The Court of Appeal has called the right to life the most basic of human rights , but has yet to fully define the term in the Constitution . Contrary to the broad position taken in jurisdictions such as Malaysia and the United States , the High Court of Singapore has said that personal liberty only refers to freedom from unlawful incarceration or detention . Article 9 ( 1 ) states that persons may be deprived of life or personal liberty " in accordance with law " . In Ong Ah Chuan v. Public Prosecutor ( 1980 ) , an appeal to the Judicial Committee of the Privy Council from Singapore , it was held that the term law means more than just legislation validly enacted by Parliament , and includes fundamental rules of natural justice . Subsequently , in Yong Vui Kong v. Attorney-General ( 2011 </t>
+          <t>Colin McCool = Colin Leslie McCool ( 9 December 1916 – 5 April 1986 ) was an Australian cricketer who played in 14 Tests from 1946 to 1950 . McCool , born in Paddington , New South Wales , was an all-rounder who bowled leg spin and googlies with a round arm action and as a lower order batsman was regarded as effective square of the wicket and against spin bowling . He made his Test début against New Zealand in 1946 , taking a wicket with his second delivery . He was part of Donald Bradman 's Invincibles team that toured England in 1948 but injury saw him miss selection in any of the Test matches . A good tour of South Africa in 1949 – 50 was followed by a lack of opportunity in the next two seasons , leading McCool to sign a contract to play professional cricket in the Lancashire League in 1953 . Three years later , Somerset County Cricket Club recruited McCool where he was a success , especially as a middle-order batsman ; he played five seasons and saw the club achieve its highest pl</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">United States constitutional criminal procedure = The United States Constitution contains several provisions regarding the law of criminal procedure . Petit jury and venue provisions — both traceable to enumerated complaints in the Declaration of Independence — are included in Article Three of the United States Constitution . More criminal procedure provisions are contained in the United States Bill of Rights , specifically the Fifth , Sixth , and Eighth Amendments . With the exception of the Grand Jury Clause of the Fifth Amendment , the Vicinage Clause of the Sixth Amendment , and ( maybe ) the Excessive Bail Clause of the Eighth Amendment , all of the criminal procedure provisions of the Bill of Rights have been incorporated to apply to the state governments . Several of these rights regulate pre-trial procedure : access to a non-excessive bail , the right to indictment by a grand jury , the right to an information ( charging document ) , the right to a speedy trial , and the right </t>
+          <t xml:space="preserve">Munir Malik = Munir Malik ( Urdu : منيرملک ; 10 July 1934 – 30 November 2012 ) was a Pakistani cricketer who played three Tests for Pakistan between 1959 and 1962 . A right-arm fast-medium bowler , he took nine wickets in Test cricket at an average of 39.77 , including a five-wicket haul against England . During his first-class career , he took 197 wickets at the average of 21.75 . = = First-class career = = Malik played 49 first-class matches for Karachi , Punjab , Rawalpindi and Services teams during 1956 – 66 . During his first-class career , he achieved five or more wickets in an innings on fourteen occasions , and ten or more wickets in a match four times . Malik made his first-class debut for Punjab B during the Quaid-e-Azam Trophy , against Bahawalpur in 1956 – 57 . He finished the season taking 13 wickets at an average of 8.30 . His 5 wickets for 19 runs for Punjab B , against Punjab , was his best performance in the season . Malik played three matches during 1957 – 58 and his </t>
         </is>
       </c>
     </row>
@@ -826,32 +826,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>bridge miles area road construction river route line traffic dam water station feet tunnel built valley project park opened canal south railway motorway bridges mile section completed land creek near north street city toll service proposed located watershed access flood link plans lake lanes downstream roads coal constructed channel rail drainage london west navigation acres lane flows stations east upstream lock mouth crossing site town km2 passengers connect cubic tributaries tributary junction wildlife tunnels connecting areas services routes transit western reaches trout trains reservoir cost extension railroad tolls trail interchange border locks basin transport plan corridor rest passenger operated lower</t>
+          <t>['film', 'films', 'bond', 'disney', 'role', 'movie', 'actor', 'starred', 'cast', 'box', 'tamil', 'director', 'filming', 'grossing', 'production']</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Big Wapwallopen Creek = Big Wapwallopen Creek ( also known as Wapwallopen Creek or Big Wap ) is a tributary of the Susquehanna River in Luzerne County , Pennsylvania , in the United States . It is approximately 23 miles ( 37 km ) long and flows through Bear Creek Township , Fairview Township , Rice Township , Wright Township , Dorrance Township , Hollenback Township , Nescopeck Township , and Conyngham Township . The watershed of the creek has an area of 53.2 square miles ( 138 km2 ) . The creek has three named tributaries : Balliet Run , Watering Run , and Bow Creek . The creek is designated as a Coldwater Fishery and a Migratory Fishery and is also Class A Wild Trout Waters for part of its length . However , it is considered to be impaired by organic enrichment and / or low levels of dissolved oxygen and its pH ranges from moderately acidic to slightly alkaline . Big Wapwallopen Creek has three large waterfalls , all of which are more than 25 feet ( 7.6 m ) high . The creek flows thr</t>
+          <t>Iron Man 3 = Iron Man 3 ( stylized onscreen as Iron Man Three ) is a 2013 American superhero film featuring the Marvel Comics character Iron Man , produced by Marvel Studios and distributed by Walt Disney Studios Motion Pictures.1 It is the sequel to 2008 's Iron Man and 2010 's Iron Man 2 , and the seventh film in the Marvel Cinematic Universe . Shane Black directed a screenplay he co-wrote with Drew Pearce , which uses concepts from the " Extremis " story arc by Warren Ellis . The film stars Robert Downey Jr . , Gwyneth Paltrow , Don Cheadle , Guy Pearce , Rebecca Hall , Stephanie Szostak , James Badge Dale , Jon Favreau , and Ben Kingsley . In Iron Man 3 , Tony Stark deals with posttraumatic stress disorder caused by the events of The Avengers , while investigating the reemergence of the Ten Rings , led by the mysterious Mandarin and comes into a conflict with old enemy ; Aldrich Killian . After the release of Iron Man 2 in May 2010 , Favreau , who served as director , decided not t</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>A7 ( Croatia ) = The A7 motorway ( Croatian : Autocesta A7 ) is a 42.4-kilometre-long ( 26.3 mi ) motorway in Croatia . It connects the nation 's largest port in Rijeka , to the Croatian motorway network , as well as to the Rupa and Pasjak border crossings to Slovenia . The motorway forms part of a longitudinal transportation corridor in Croatia , and it is a part of European route E61 Villach – Ljubljana – Trieste – Rijeka . The A7 motorway route south of Orehovica interchange , where it also intersects Pan-European corridor Vb , is a part of European route E65 . The A7 motorway runs near a number of Croatian cities and provides access to Učka Nature Park and , indirectly , to numerous resorts in the Istria and Kvarner Gulf regions . The motorway is nationally significant because of its positive economic impact on the cities and towns it connects , and because of its contribution to tourism in Croatia . The importance of the motorway as a transit route will be further increased upon c</t>
+          <t xml:space="preserve">Delhi Daredevils in 2012 = The Delhi Daredevils ( DD ) is a franchise cricket team based in Delhi , India , which plays in the Indian Premier League ( IPL ) . The team competed in the 2012 IPL and finished at the third place , thus qualified for the 2012 Champions League Twenty20 ( CLT20 ) . It topped the league and the group stage in the IPL and the CLT20 respectively ; however , it failed to win any match in the playoffs . After finishing last in the previous season , the Daredevils added players such as Mahela Jayawardene , Andre Russell , Kevin Pietersen and Ross Taylor to the squad . Eric Simons succeeded Greg Shipperd as the head coach and T. A. Sekhar took the mentorship . The team won 11 of the 16 matches played in the league stage of the IPL and topped the point table . However , it lost both its two matches in the playoffs and finished at the third place . In the CLT20 , they won two of its four group stage matches , while the other two were abandoned due to rain . It topped </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A6 ( Croatia ) = The A6 motorway ( Croatian : Autocesta A6 ) is a motorway in Croatia spanning 80.2 kilometres ( 49.8 mi ) . It connects the nation 's capital , Zagreb , via the A1 , to the seaport of Rijeka . The motorway forms a major north – south transportation corridor in Croatia and is a part of European route E65 Nagykanizsa – Zagreb – Rijeka – Zadar – Split – Dubrovnik – Podgorica . The A6 motorway route also follows Pan-European corridor Vb . The A6 motorway runs near a number of Croatian cities , provides access to Risnjak National Park and indirectly to numerous resorts , notably in the Istria and Kvarner Gulf regions . The motorway route was completed in 2008 . The motorway is nationally significant because of its positive economic impact on the cities and towns it connects , and because of its contribution to tourism in Croatia . The importance of the motorway as a transit route will be further increased upon completion of a proposed expansion of the Port of Rijeka and Rij</t>
+          <t>Curtly Ambrose = Sir Curtly Elconn Lynwall Ambrose , KCN ( born 21 September 1963 ) is a former cricketer from Antigua who played 98 Test matches for the West Indies . A fast bowler , he took 405 Test wickets at an average of 20.99 and topped the ICC Player Rankings for much of his career to be rated the best bowler in the world . His great height — he is 6 feet 7 inches ( 2.01 m ) tall — allowed him to make the ball bounce unusually high after he delivered it ; allied to his pace and accuracy , it made him a difficult bowler for batsmen to face . A man of few words during his career , he was notoriously reluctant to speak to journalists . He was chosen as one of the Wisden Cricketers of the Year in 1992 ; after he retired he was entered into the International Cricket Council Hall of Fame and selected as one of West Indies all-time XI by a panel of experts . Born in Swetes , Antigua , Ambrose came to cricket at a relatively late age , having preferred basketball in his youth , but quic</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>A1 ( Croatia ) = The A1 motorway ( Croatian : Autocesta A1 ) is the longest motorway in Croatia , spanning 478.9 kilometers ( 297.6 mi ) . As it connects Zagreb , the nation 's capital , to Split , the second largest city in the country and the largest city in Dalmatia , the motorway represents a major north – south transportation corridor in Croatia and a significant part of the Adriatic – Ionian motorway . Apart from Zagreb and Split , the A1 motorway runs near a number of major Croatian cities , provides access to several national parks or nature parks , world heritage sites , and numerous resorts , especially along the Adriatic Coast . National significance of the motorway is reflected through its positive economic impact on the cities and towns it connects as well as its importance to tourism in Croatia . The motorway consists of two traffic lanes and an emergency lane in each driving direction separated by a central reservation . All intersections of the A1 motorway are grade sep</t>
+          <t xml:space="preserve">Irfan Pathan = Irfan Khan Pathan ( pronunciation ; born 27 October 1984 ) is an Indian cricketer who made his debut for India in the 2003 / 04 Border-Gavaskar Trophy , and was a core member of the national team until a decline in form set in during 2006 , forcing him out of the team . Since then , he has been in and out of the limited-overs teams ( ODIs and T20Is ) , and has only sporadic appearances in Test cricket . Pathan played his last Test in April , 2008 at the age of 24 . Beginning his career as a fast-medium swing and seam bowler , Pathan broke into the national team soon after turning 19 , and evoked comparisons with Pakistan 's Wasim Akram with his promising performances and prodigious swing . He cemented his position in the team and was named by the International Cricket Council as the 2004 Emerging Player of the Year . Pathan was instrumental in India 's One-day international and Test series wins in Pakistan in 2004 . He was described by the media as the " blue-eyed boy " </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Staten Island Tunnel = The Staten Island Tunnel is an abandoned , incomplete railway / subway tunnel in New York City . It was intended to connect railways on Staten Island ( precursors to the modern-day Staten Island Railway ) to the BMT Fourth Avenue Line of the New York City Subway , in Brooklyn , via a new crossing under the Narrows . Planned to extend 10,400 feet ( 3,200 m ) , the tunnel would have been among the world 's longest at the time of its planning , in the late 19th and early 20th centuries . Construction began in 1923 , but New York City Mayor John Hylan , a former Brooklyn – Manhattan Transit Corporation ( BMT ) employee , canceled the project , and the tunnel only went 150 feet ( 46 m ) into the Narrows before it was halted . The tunnel lies dormant under Owl 's Head Park in Bay Ridge , Brooklyn . Later proposals to complete the tunnel , including the 1939 plans for the Independent Subway System 's ambitious Second System , were never funded . Modern proposals for com</t>
+          <t>Norm O 'Neill = Norman Clifford Louis O 'Neill OAM ( 19 February 1937 – 3 March 2008 ) was a cricketer who played for New South Wales and Australia . A right-handed batsman known for his back foot strokeplay , O 'Neill made his state debut aged 18 , before progressing to Test selection aged 21 in late 1958 . Early in his career , O 'Neill was one of the foremost batsmen in the Australian team , scoring three Test centuries and topping the run scoring aggregates on a 1959 – 60 tour of the Indian subcontinent which helped Australia win its last Test and series on Pakistani soil for 39 years , as well as another series in India . His career peaked in 1960 – 61 when he scored 181 in the Tied Test against the West Indies , and at the end of the series , had a career average of 58.25 . His performances on the 1961 tour of England saw him named as one of the Wisden Cricketers of the Year . Thereafter his form was less formidable , characterised by nervousness and fidgeting at the start of his</t>
         </is>
       </c>
     </row>
@@ -861,32 +861,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>century known breed horses horse found popular island today breeds including period dog large early include small breeding food region modern islands europe wine population dogs established area especially bred use traditional seen tea quality plants leaves considered common european plant northern imported arabian brought years fried important native birds stud variety red scotland produce grown 19th areas cuisine generally present particularly southern species different meat park britain culture history chinese produced black old vegetables called english tradition stallion chicken 20th regions breeders earliest tree scottish usually water wild local spread cooked norse registered late herd coat created land ancient</t>
+          <t>['french', 'british', 'governor', 'militia', 'troops', 'battle', 'massachusetts', 'boston', 'command', 'kentucky', 'fort', 'men', 'army', 'fleet', 'general']</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Israeli cuisine = Israeli cuisine ( Hebrew : המטבח הישראלי ha-mitbach ha-yisra ’ eli ) comprises local dishes by people native to Israel and dishes brought to Israel by Jews from the Diaspora . Since before the establishment of the State of Israel in 1948 , and particularly since the late 1970s , an Israeli Jewish fusion cuisine has developed . Israeli cuisine has adopted , and continues to adapt , elements of various styles of Jewish cuisine , particularly the Mizrahi , Sephardic and Ashkenazi styles of cooking . It incorporates many foods traditionally eaten in Levantine , Middle Eastern and Mediterranean cuisines , and foods such as falafel , hummus , msabbha , shakshouka , couscous , and za 'atar are now widely popular in Israel . Other influences on the cuisine are the availability of foods common to the Mediterranean region , especially certain kinds of fruits and vegetables , dairy products and fish ; the distinctive traditional dishes prepared at holiday times ; the tradition o</t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Palestinian cuisine = Palestinian cuisine consists of foods from or commonly eaten by Palestinians — which includes those living in Palestine , Israel , Jordan , refugee camps in nearby countries as well as by the Palestinian diaspora . The cuisine is a diffusion of the cultures of civilizations that settled in the region of Palestine , particularly during and after the Islamic era beginning with the Arab Ummayad conquest , then the eventual Persian-influenced Abbasids and ending with the strong influences of Turkish cuisine , resulting from the coming of the Ottoman Turks . It is similar to other Levantine cuisines , including Lebanese , Syrian and Jordanian . Cooking styles vary by region and each type of cooking style and the ingredients used are generally based on the climate and location of the particular region and on traditions . Rice and variations of kibbee are common in the Galilee . The West Bank engages primarily in heavier meals involving the use of taboon bread , rice and</t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Mediterranean cuisine = Mediterranean cuisine is the food from the lands around the Mediterranean Sea and its preparation . This geographical area broadly follows the distribution of the olive tree , which provides one of the most distinctive features of the region 's cooking , olive oil . Although this region spans a wide variety of cultures with distinct cuisines , the historical connections of the region , as well as the impact of the Mediterranean Sea on the region 's climate and economy , mean that there are common elements in these cuisines , which include Italian , Levantine , Maghrebi , Ottoman , Provençal ( French ) , and Spanish cuisines . The region 's food came to be seen as a more or less unified cuisine following the cookery writer Elizabeth David 's book , A Book of Mediterranean Food ( 1950 ) . Other writers , such as the Tunisian historian Mohamed Yassine Essid , have agreed with David , defining the three core elements of the cuisine as the olive , wheat , and the gra</t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">French cuisine = French cuisine consists of the cooking traditions and practices from France . In the 14th century Guillaume Tirel , a court chef known as " Taillevent " , wrote Le Viandier , one of the earliest recipe collections of medieval France . During that time , French cuisine was heavily influenced by Italian cuisine . In the 17th century , chefs François Pierre La Varenne and Marie-Antoine Carême spearheaded movements that shifted French cooking away from its foreign influences and developed France 's own indigenous style . Cheese and wine are a major part of the cuisine , playing different roles regionally and nationally , with many variations and appellation d 'origine contrôlée ( AOC ) ( regulated appellation ) laws . French cuisine was codified in the 20th century by Auguste Escoffier to become the modern haute cuisine ; Escoffier , however , left out much of the local culinary character to be found in the regions of France and was considered difficult to execute by home </t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arabian horse = The Arabian or Arab horse ( Arabic : الحصان العربي [ ħisˤaːn ʕarabiː ] , DMG ḥiṣān ʿarabī ) is a breed of horse that originated on the Arabian Peninsula . With a distinctive head shape and high tail carriage , the Arabian is one of the most easily recognizable horse breeds in the world . It is also one of the oldest breeds , with archaeological evidence of horses in the Middle East that resemble modern Arabians dating back 4,500 years . Throughout history , Arabian horses have spread around the world by both war and trade , used to improve other breeds by adding speed , refinement , endurance , and strong bone . Today , Arabian bloodlines are found in almost every modern breed of riding horse . The Arabian developed in a desert climate and was prized by the nomadic Bedouin people , often being brought inside the family tent for shelter and protection from theft . Selective breeding for traits including an ability to form a cooperative relationship with humans created a </t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -896,32 +896,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>september storm mph august hurricane october day damage near early developed later tropical began caused winds system west reported strong people days continued produced moved heavy july late june east reached destroyed brought depression november damaged quickly hours north million shortly florida category peaked status south occurred passed peak turned homes formed northeast deaths resulted estimated initially curved landfall flooding coast rainfall northwestward issued northeastward reaching briefly slightly located area strengthened southern names moving fatalities eastern utc overall struck wave lesser low sustained minimal bermuda southeast maximum island central africa atlantic curving antilles caribbean_sea northwest weakened offshore remnants hurricanes mbar</t>
+          <t>['castle', 'century', 'station', 'church', 'castles', 'built', 'bridge', 'tower', 'pier', 'railway', 'bailey', 'river', 'building', 'trains', 'bristol']</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2004 Atlantic hurricane season = The 2004 Atlantic hurricane season was the costliest Atlantic hurricane season on record until surpassed by the following year . More than half of the 16 tropical cyclones brushed or struck the United States . The season officially began on June 1 , and ended on November 30 . Due to a Modoki El Niño – a rare type of El Niño in which unfavorable conditions are produced over the eastern Pacific instead of the Atlantic basin due to warmer sea surface temperatures farther west along the equatorial Pacific – activity was above average . The first storm , Alex , developed offshore of the Southeastern United States on July 31 . It brushed the Carolinas and the Mid-Atlantic , causing one death and $ 7.5 million ( 2004 USD ) in damage . Several storms caused only minor damage , including tropical storms Bonnie , Earl , Hermine , and Matthew . In addition , hurricanes Danielle , Karl , and Lisa , Tropical Depression Ten , Subtropical Storm Nicole and Tropical Sto</t>
+          <t>Caerphilly Castle = Caerphilly Castle ( Welsh : Castell Caerffili ) is a medieval fortification in Caerphilly in South Wales . The castle was constructed by Gilbert de Clare in the 13th century as part of his campaign to conquer Glamorgan , and saw extensive fighting between Gilbert and his descendants and the native Welsh rulers . Surrounded by extensive artificial lakes – considered by historian Allen Brown to be " the most elaborate water defences in all Britain " – it occupies around 30 acres ( 12 ha ) and is the second largest castle in Britain . It is famous for having introduced concentric castle defences to Britain and for its large gatehouses . Gilbert began work on the castle in 1268 following his occupation of the north of Glamorgan , with the majority of the construction occurring over the next three years at a considerable cost . The project was opposed by Gilbert 's Welsh rival Llywelyn ap Gruffudd , leading to the site being burnt in 1270 and taken over by royal official</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">1969 Atlantic hurricane season = The 1969 Atlantic hurricane season was the busiest Atlantic hurricane season since 1933 . The hurricane season officially began on June 1 , and lasted until November 30 . The season had the highest number of systems reach hurricane status – twelve – in a single season , until that record was surpassed in 2005 . Activity began with a series of five tropical depressions , the first of which developed on May 29 . The third system in that series , Tropical Depression Seven , caused extensive flooding in Cuba and Jamaica in early June . The final in the series formed on July 25 , the same day that Tropical Storm Anna developed . Neither the former nor latter caused significant impact on land . Later in the season , Tropical Depression Twenty-Nine caused severe local flooding in the Florida Panhandle and southwestern Georgia in September . Hurricane Blanche was a small and short-lived tropical cyclone in mid-August that resulted in minimal effects . The most </t>
+          <t>Josce de Dinan = Josce de Dinan ( sometimes Joce de Dinan , Josselin de Dinan , Joce de Dynan ; Jocelin de Dinan , Joyce de Dinan , or Joceas de Dinan ; died 1166 ) was an Anglo-Norman nobleman who lived during and after the civil war between King Stephen of England and his cousin Matilda over the throne of England . He was a landholder in the Welsh Marches when he was married by Stephen to the widow of Pain fitzJohn , a union that gave Josce control of Ludlow Castle . Control of the castle was contested by other noblemen , and the resulting warfare between the nobles forms the background to a late medieval romance known as Fouke le Fitz Waryn , which is mainly concerned with the actions of Josce 's grandson , but also includes some material on Josce 's lifetime . Josce eventually lost control of Ludlow and was granted lands in compensation by Matilda and her son , King Henry II of England , who succeeded Stephen in 1154 . = = Background and early life = = Following King Henry I 's dea</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">1979 Atlantic hurricane season = The 1979 Atlantic hurricane season was the first season to include both male and female names . The season officially began on June 1 , and lasted until November 30 . These dates conventionally delimit the period of each year when most tropical cyclones form in the Atlantic basin . It was slightly below average , with nine systems reaching tropical storm intensity . The first system , an unnumbered tropical depression , developed north of Puerto Rico on June 9 . Two days later , Tropical Depression One formed and produced severe flooding in Jamaica , with 40 deaths and about $ 27 million ( 1979 USD ) in damage . Tropical Storm Ana caused minimal impact in the Lesser Antilles . Hurricane Bob spawned tornadoes and produced minor wind damage along the Gulf Coast of the United States , primarily in Louisiana , while the remnants caused flooding , especially in Indiana . Tropical Storm Claudette caused extensive flooding , due to torrential rainfall . There </t>
+          <t xml:space="preserve">Beeston Castle = Beeston Castle is a former Royal castle in Beeston , Cheshire , England ( grid reference SJ537593 ) , perched on a rocky sandstone crag 350 feet ( 107 m ) above the Cheshire Plain . It was built in the 1220s by Ranulf de Blondeville , 6th Earl of Chester , ( 1170 – 1232 ) , on his return from the Crusades . In 1237 , Henry III took over the ownership of Beeston , and it was kept in good repair until the 16th century , when it was considered to be of no further military use , although it was pressed into service again in 1643 , during the English Civil War . The castle was slighted ( partly demolished ) in 1646 , in accordance with Cromwell 's destruction order , to prevent its further use as a stronghold . During the 18th century the site was used as a quarry . It is rumoured that treasure belonging to Richard II lies undiscovered in the castle grounds , but the many searches that have been carried out have failed to find any trace of it . The castle is now in ruins . </t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1998 Atlantic hurricane season = The 1998 Atlantic hurricane season was one of the deadliest Atlantic hurricane seasons that featured the highest number of storm-related fatalities in over 200 years . It officially began on June 1 and ended on November 30 , dates which conventionally delimit the period during which most tropical cyclones form in the Atlantic Ocean . The first tropical cyclone , Tropical Storm Alex , developed on July 27 , and the season 's final storm , Hurricane Nicole , became extratropical on December 1 . The strongest storm , Mitch , was tied with Hurricane Dean for the seventh most intense Atlantic hurricane ever recorded . Mitch is also the second deadliest Atlantic hurricane in recorded history . The system dropped tremendous amounts of rainfall in Central America , causing 19,000 confirmed deaths and at least $ 6.2 billion ( 1998 USD ) in damage . The season was the first to feature a Category 5 hurricane on the Saffir – Simpson hurricane wind scale since Hurri</t>
+          <t>Bowes Castle = Bowes Castle was a medieval castle in the village of Bowes in County Durham , England . Built within the perimeter of the former Roman fort of Lavatrae , the early timber castle on the site was replaced by a more substantial stone structure between 1170 and 1174 on the orders of Henry II . A planned village was built alongside the castle . Bowes Castle withstood Scottish attack during the Great Revolt of 1173-74 but was successfully looted by rebels in 1322 . The castle went into decline and was largely dismantled after the English Civil War . The ruins are now owned by English Heritage and run as a tourist attraction . = = History = = = = = 12th century = = = Bowes Castle was built within the ruins of the Roman fort of Lavatrae . The route was one of the few upland passes to link England and Scotland and had remained strategically important during the medieval period . The castle site lay within the Honour of Richmond , a grouping of lands traditionally owned by the Cou</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2000 Atlantic hurricane season = The 2000 Atlantic hurricane season was the first Atlantic hurricane season without a tropical cyclone in the month of July since 1993 . The hurricane season officially began on June 1 , and ended on November 30 . It was slightly above average due to a La Niña weather pattern . The first cyclone , Tropical Depression One , developed in the southern Gulf of Mexico on June 7 and dissipated after an uneventful duration . However , it would be almost two months before the first named storm , Alberto , formed near Cape Verde ; Alberto also dissipated with no effects on land . Several other tropical cyclones – Tropical Depression Two , Tropical Depression Four , Chris , Ernesto , Nadine , and an unnamed subtropical storm – did not impact land . Five additional storms – Tropical Depression Nine , Florence , Isaac , Joyce , and Leslie – minimally effected land areas . The most significant storm of the season was Hurricane Keith , which caused extensive damage in</t>
+          <t>Halton Castle = Not to be confused with Alton Castle . Halton Castle is in the former village of Halton which is now part of the town of Runcorn , Cheshire , England . The castle is situated on the top of Halton Hill , a sandstone prominence overlooking the village . It is recorded in the National Heritage List for England as a designated Grade I listed building , and a scheduled ancient monument . It was the seat of the Barons of Halton from the 11th century until the 14th century and it then passed to the Duchy of Lancaster . It was besieged twice in the Civil War after which its structure deteriorated . In the 18th century a new courthouse was built on the site of the previous gatehouse . The castle lies in ruins apart from the courthouse which has been converted into a public house . = = History = = = = = Building and administration = = = Although there is no surviving evidence , it is likely that Halton Hill was a settlement in prehistoric times . Following the Norman conquest , t</t>
         </is>
       </c>
     </row>
@@ -931,32 +931,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>said told death police murder family life found asked relationship killed later mother character man killing hospital father child house away help shot kill leave storyline prison arrested trial old find guilty left money sentenced taken bond case wife woman died people stated shooting body revealed years evidence having crime knew authorities sister months sentence investigation charges going days friend friends convicted discovered mercedes incident come soap children tells think believed inmates murders daughter room victim wanted described court home scene testified heard went charged prisoners tried arrest judge officers investigators execution affair saying suicide officer involved escape report sarah</t>
+          <t>['match', 'wrestling', 'championship', 'wwe', 'tag', 'raw', 'ring', 'smackdown', 'defeated', 'heavyweight', 'feud', 'event', 'wwf', 'michaels', 'title']</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mercedes McQueen = Mercedes Maria Theresa Immaculata McQueen ( previously Owen , Fisher and Browning ) is a fictional character from the British Channel 4 soap opera Hollyoaks , played by Jennifer Metcalfe . She debuted on-screen during the episode airing on 19 June 2006 as the first character to be introduced to the series by series producer , Bryan Kirkwood . In 2008 Metcalfe feared that the character was to be axed but was later reassured by the series producer that she would not be . Metcalfe later stated her intention to stay with the series . Mercedes is part of the McQueen family and is the longest serving McQueen on the series . On 26 August 2014 , it was revealed that Metcalfe had decided to quit the soap . In November 2014 , Mercedes was presumably stabbed to death , with her body discarded . However , Metcalfe returned to screens on 17 February 2015 in a surprise , unannounced twist which saw Mercedes revealed as alive and well , living in Nice , France . It was announced th</t>
+          <t>Bobby Kay = Romeo Cormier is a retired Canadian professional wrestler best known by the ring name Bobby Kay . He is a member of the Cormier wrestling family , a group of four brothers who were all successful professional wrestlers . Romeo Cormier competed in Canada and the United States from 1967 to the mid-1980s . He also worked as a wrestling promoter . After retiring from wrestling , Cormier began performing country music professionally before taking a job with Loblaws . = = Career = = Cormier grew up with eight brothers and four sisters on the family 's farm in what is now Memramcook , New Brunswick . He became interested in professional wrestling because of his older brothers Jean-Louis , Yvon , and Leonce , who competed under the ring names Rudy Kay , The Beast , and Leo Burke , respectively . At age 17 , Yvon took Romeo to Calgary , Alberta to train under Stu Hart . Cormier made his professional debut in 1967 and wrestled in several countries . While touring the world as a compe</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Susan Kennedy = Susan Wendy Kennedy ( also Smith and Kinski ) , is a fictional character from the Australian soap opera Neighbours , played by Jackie Woodburne . The character and her family were created by storyliners in an attempt to bring the show back to its roots . Susan made her first screen appearance during the episode broadcast on 3 October 1994 , along with her eldest son and daughter . The storyliners made Susan a teacher at Erinsborough High to give her immediate links with other characters . Since her introduction , Susan 's personality and appearance have been through several changes . Her storylines have seen her begin a relationship with a Priest , being married , divorced and widowed . Susan has become a stepmother and a grandmother and she has been central to three plots revolving around health issues : Retrograde amnesia , Multiple sclerosis and Surrogacy . She has also been central to a cyber-bullying plot . In October 2009 , Susan became the longest-running female </t>
+          <t xml:space="preserve">Tekno Team 2000 = Tekno Team 2000 was a professional wrestling tag team that competed in the World Wrestling Federation ( WWF ) from 1995 to 1996 . The team was composed of Travis and Troy . Although the team started off with a strong push from the WWF , they did not continue their initial success . Tekno Team 2000 also left the WWF temporarily to make several appearances in the United States Wrestling Association ( USWA ) . After returning to the WWF , the team continued to lose matches and was eventually disbanded . = = History = = Originally Chad Fortune and Erik Watts were football teammates for the University of Louisville . In 1994 , they reunited and began wrestling as a tag team . They would debut in Minnesota for the AWA losing to Wayne Bloom and Mike Enos . = = = World Wrestling Federation = = = Wearing " futuristic " silver and maroon ring outfits , they debuted in the WWF as a babyface tag team that was " ahead of its time " . As part of the " New Generation " of the WWF , </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Joran van der Sloot = Joran Andreas Petrus van der Sloot ( Dutch pronunciation : [ ˈjoːrɑn vɑn dεr ˈsloːt ] ; born 6 August 1987 ) is a Dutch citizen , the murderer of Stephany Flores Ramírez in Lima , in 2010 , and the primary suspect in the 2005 disappearance of Natalee Holloway , in Aruba . After Flores Ramírez 's murder on 30 May 2010 van der Sloot fled to Chile , where he was arrested and extradited back to Peru for questioning regarding the murder . On 7 June 2010 , he confessed to bludgeoning Flores . He later tried to formally retract his confession , claiming that he had been intimidated by the National Police of Peru and framed by the FBI . A Peruvian judge ruled on 25 June 2010 that the confession was valid and on 13 January 2012 , Van der Sloot was sentenced to 28 years imprisonment for Flores ' murder . Five years earlier , while living in Aruba , van der Sloot had been the primary suspect in the disappearance of American teenager Natalee Holloway , who disappeared in Arub</t>
+          <t>TNA World Heavyweight Championship = The TNA World Heavyweight Championship is a professional wrestling world heavyweight championship owned by Total Nonstop Action Wrestling ( TNA ) . It is currently the highest ranked championship in TNA and is primarily defended in TNA 's heavyweight division . It was unveiled on May 14 , 2007 , at the taping of TNA 's primary television program , TNA Impact ! ; this episode of Impact ! did not air until May 17 , 2007 . The inaugural champion was Kurt Angle . Like most professional wrestling championships , the title is won via the result of a scripted match . Before the TNA World Heavyweight Championship was created , TNA held control over the NWA World Heavyweight Championship due to an agreement between TNA and the National Wrestling Alliance ( NWA ) , the organization which owned the NWA Championship . In 2007 , the agreement between TNA and the NWA ended , leading to the creation of the TNA World Heavyweight Championship . = = History = = The T</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Mark Brennan ( Neighbours ) = Mark Brennan is a fictional character from the Australian soap opera Neighbours , played by Scott McGregor . He made his first screen appearance on 30 August 2010 . McGregor initially had a four-week guest contract with the show , but this was increased to six months . Shortly after , it was announced that McGregor 's contract had been extended again to twelve months and that he would become a regular cast member . In February 2011 , McGregor announced his departure from Neighbours , so he could pursue modelling opportunities in Europe . He filmed his final scenes at the end of April and departed on screen on 22 June 2011 . On 4 November 2012 , it was announced that McGregor had reprised his role and Mark made a brief return from 20 May 2013 , before returning permanently on 5 February 2014 . After an attempt on Paul Robinson 's ( Stefan Dennis ) life , Mark is introduced as the lead detective in the case . When he received conflicting information from the</t>
+          <t>All Star Pro-Wrestling = All Star Pro-Wrestling ( オールスター ・ プロレスリング ) is a Japan-exclusive professional wrestling video game developed and published by Square on June 8 , 2000 for the PlayStation 2 . It was the first wrestling game published on this platform . All Star Pro-Wrestling was released in a period in which Square sought to diversify its catalog by producing various non-role-playing games for the PlayStation 2 . The game was notable for its control relying exclusively on the DualShock 2 's analog sticks , although a second mode using the normal buttons was also available . While the quality of the game 's graphics was lauded and sales were good during its month of release , the control was received negatively by critics , who felt it was awkward and unintuitive . Nevertheless , the game spawned two sequels , released in 2001 and 2003 . = = Gameplay = = All Star Pro-Wrestling is based on Japanese wrestling rather than American . The game can be played in several modes selected i</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Paul Robinson ( Neighbours ) = Paul Stewart Robinson is a fictional character from the Australian television soap opera Neighbours , a long-running serial drama about social life in the fictional Melbourne suburb of Erinsborough . He is played by Stefan Dennis . Paul was created by producer Reg Watson as one of Neighbours ' original characters . He debuted in the first episode of the show broadcast on 18 March 1985 and is currently the sole remaining original cast member . Paul appeared on a regular basis until 1992 when Dennis quit Neighbours to pursue work elsewhere . He agreed to reprise the role for a guest appearance in 1993 . Dennis returned to the show full-time in 2004 and has since remained in the role . Dennis views his decision to leave Neighbours as a mistake . Early character development during 1980s episodes changed Paul into a powerful , arrogant and sometimes villainous business man . Paul has an evil persona which has long been admired by Dennis for the entertainment v</t>
+          <t xml:space="preserve">The Mega Bucks = The Mega Bucks was a professional wrestling tag team that competed in the World Wrestling Federation ( WWF ) in 1988 . The team , consisting of " The Million Dollar Man " Ted DiBiase and André the Giant , was formed in a storyline that saw DiBiase purchase André 's contract from fellow manager Bobby Heenan . André was to win the WWF World Heavyweight Championship from Hulk Hogan , but then he attempted to sell the belt to DiBiase . The title was vacated , but DiBiase and André were then scheduled to face Hogan and Macho Man Randy Savage in a match at SummerSlam , which Hogan and Savage won . After the match , DiBiase and André went their separate ways and the team was dissolved . = = History = = = = = Formation = = = Prior to the formation of the team , André the Giant had been engaged in a feud with Hulk Hogan . According to the storyline , André was tired of Hogan being the top wrestler in the WWF and was jealous of Hogan 's reign as WWF World Heavyweight Champion . </t>
         </is>
       </c>
     </row>
@@ -966,32 +966,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>city million school company building stadium students center schools year sports largest located community years including library sold public education business area campus hosted financial market founded new local university host include college festival population facilities arena student development billion events established olympic residents companies chicago street museum program firm neighborhoods businesses downtown opened industry united_states expanded arts private facility annual retail buildings housing football expansion mayor venues programs theatre includes offices acquired neighborhood institutions households designed jobs census products commercial home board investment organization members professional art location median families funds fraternity management collection owned national fund culture historic</t>
+          <t>['building', 'city', 'park', 'chicago', 'memorial', 'memorials', 'library', 'fountain', 'indiana', 'square', 'galveston', 'street', 'buildings', 'bay', 'courthouse']</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dartmouth College Greek organizations = Dartmouth College is host to many Greek organizations , and a significant percentage of the undergraduate student body is active in Greek life . In 2005 , the school stated that 1,785 students were members of a fraternity , sorority , or coeducational Greek house , comprising about 43 percent of all students , or about 60 percent of the eligible student body . Greek organizations at Dartmouth provide both social and residential opportunities for students , and are the only single-sex residential option on campus . Greek organizations at Dartmouth do not provide dining options , as regular meals service has been banned in Greek houses since 1909 . Social fraternities at Dartmouth College grew out of a tradition of student literary societies that began in the late eighteenth and early nineteenth centuries . The first social fraternities were founded in 1842 and rapidly expanded to include the active participation of over half of the student body . </t>
+          <t>Millennium Stadium = The Millennium Stadium ( Welsh : Stadiwm y Mileniwm ) , currently named the Principality Stadium ( Welsh : Stadiwm Principality ) for sponsorship purposes , is the national stadium of Wales , located in Cardiff . It is the home of the Wales national rugby union team and has also staged games of the Wales national football team . Initially built to host the 1999 Rugby World Cup , it has gone on to host many other large-scale events , such as the Tsunami Relief concert , the Super Special Stage of Wales Rally Great Britain , the Speedway Grand Prix of Great Britain and various music concerts . It also hosted six FA Cup finals and several other high profile football fixtures whilst Wembley Stadium was being redeveloped . The stadium is owned by Millennium Stadium plc , a subsidiary company of the Welsh Rugby Union ( WRU ) . The stadium was designed by a team led by architects Bligh Lobb Sports Architecture . WS Atkins were the structural engineers , and the building c</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Chemical Bank = Chemical Bank was a bank with headquarters in New York City from 1824 until 1996 . The bank operated as the primary subsidiary of the Chemical Banking Corporation , a bank holding company established in 1988 . At the end of 1995 , Chemical was the third largest bank in the U.S. with approximately $ 182.9 billion in assets . Beginning in 1920 but accelerating in the 1980s and 1990s , Chemical was a leading consolidator of the banking industry in the United States , acquiring Chase Manhattan Bank , Manufacturers Hanover , Texas Commerce Bank and Corn Exchange Bank among others . Following Chemical 's acquisition of Chase , the bank adopted the venerable Chase brand . What had been Chemical Bank is now a foundational component of what today is JPMorgan Chase . Chemical Bank was headquartered in New York City with more than 39,000 employees globally as of the end of 1995 . = = Overview of the company = = Chemical Bank was the principal operating subsidiary of the Chemical B</t>
+          <t xml:space="preserve">Delhi Daredevils in 2012 = The Delhi Daredevils ( DD ) is a franchise cricket team based in Delhi , India , which plays in the Indian Premier League ( IPL ) . The team competed in the 2012 IPL and finished at the third place , thus qualified for the 2012 Champions League Twenty20 ( CLT20 ) . It topped the league and the group stage in the IPL and the CLT20 respectively ; however , it failed to win any match in the playoffs . After finishing last in the previous season , the Daredevils added players such as Mahela Jayawardene , Andre Russell , Kevin Pietersen and Ross Taylor to the squad . Eric Simons succeeded Greg Shipperd as the head coach and T. A. Sekhar took the mentorship . The team won 11 of the 16 matches played in the league stage of the IPL and topped the point table . However , it lost both its two matches in the playoffs and finished at the third place . In the CLT20 , they won two of its four group stage matches , while the other two were abandoned due to rain . It topped </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gulfton , Houston = Gulfton is a community in Southwest Houston , Texas , United States that includes a 3.2 sq mi ( 8.3 km2 ) group of apartment complexes that primarily house Hispanic and immigrant populations . It is located between the 610 Loop and Beltway 8 , west of the City of Bellaire , southeast of Interstate 69 / U.S. Highway 59 , and north of Bellaire Boulevard . In the 1960s and 1970s Gulfton experienced rapid development , with new apartment complexes built for young individuals from the Northeast and Midwest United States . They came to work in the oil industry during the 1970s oil boom . In the 1980s , as the economy declined , existing tenants left , resulting in significant drop in occupancy rates in the apartment complexes and forcing many complexes into bankruptcy and foreclosure . Owners marketed the empty units to newly arrived immigrants and Gulfton became a predominantly immigrant community . Beginning in the 1980s Gulfton 's crime rate increased and schools were </t>
+          <t>Curtly Ambrose = Sir Curtly Elconn Lynwall Ambrose , KCN ( born 21 September 1963 ) is a former cricketer from Antigua who played 98 Test matches for the West Indies . A fast bowler , he took 405 Test wickets at an average of 20.99 and topped the ICC Player Rankings for much of his career to be rated the best bowler in the world . His great height — he is 6 feet 7 inches ( 2.01 m ) tall — allowed him to make the ball bounce unusually high after he delivered it ; allied to his pace and accuracy , it made him a difficult bowler for batsmen to face . A man of few words during his career , he was notoriously reluctant to speak to journalists . He was chosen as one of the Wisden Cricketers of the Year in 1992 ; after he retired he was entered into the International Cricket Council Hall of Fame and selected as one of West Indies all-time XI by a panel of experts . Born in Swetes , Antigua , Ambrose came to cricket at a relatively late age , having preferred basketball in his youth , but quic</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Bridgewater Associates = Bridgewater Associates is an American investment management firm founded by Ray Dalio in 1975 . The firm serves institutional clients including pension funds , endowments , foundations , foreign governments and central banks . It utilizes a global macro investing style based on economic trends , such as inflation , currency exchange rates , and U.S. gross domestic product . Bridgewater Associates began as an institutional investment advisory service , graduated to institutional investing and pioneered the risk parity investment approach in 1996 . In 1981 the company moved its headquarters from New York City to Westport , Connecticut and currently engages 1,200 employees . It embraces a corporate culture that encourages transparency and the elimination of the decision making hierarchy , and in 2011 was the " world 's largest macro hedge fund " company with US $ 122 billion in assets under management . = = History = = The firm 's history includes the pioneering o</t>
+          <t xml:space="preserve">Irfan Pathan = Irfan Khan Pathan ( pronunciation ; born 27 October 1984 ) is an Indian cricketer who made his debut for India in the 2003 / 04 Border-Gavaskar Trophy , and was a core member of the national team until a decline in form set in during 2006 , forcing him out of the team . Since then , he has been in and out of the limited-overs teams ( ODIs and T20Is ) , and has only sporadic appearances in Test cricket . Pathan played his last Test in April , 2008 at the age of 24 . Beginning his career as a fast-medium swing and seam bowler , Pathan broke into the national team soon after turning 19 , and evoked comparisons with Pakistan 's Wasim Akram with his promising performances and prodigious swing . He cemented his position in the team and was named by the International Cricket Council as the 2004 Emerging Player of the Year . Pathan was instrumental in India 's One-day international and Test series wins in Pakistan in 2004 . He was described by the media as the " blue-eyed boy " </t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Design management = Design management is a business discipline that uses project management , design , strategy , and supply chain techniques to control a creative process , support a culture of creativity , and build a structure and organization for design . The objective of design management is to develop and maintain a business environment in which an organization can achieve its strategic and mission goals through design , and by establishing and managing an efficient and effective system . Design management is a comprehensive activity at all levels of business ( operational to strategic ) , from the discovery phase to the execution phase . " Simply put , design management is the business side of design . Design management encompasses the ongoing processes , business decisions , and strategies that enable innovation and create effectively-designed products , services , communications , environments , and brands that enhance our quality of life and provide organizational success . "</t>
+          <t>Norm O 'Neill = Norman Clifford Louis O 'Neill OAM ( 19 February 1937 – 3 March 2008 ) was a cricketer who played for New South Wales and Australia . A right-handed batsman known for his back foot strokeplay , O 'Neill made his state debut aged 18 , before progressing to Test selection aged 21 in late 1958 . Early in his career , O 'Neill was one of the foremost batsmen in the Australian team , scoring three Test centuries and topping the run scoring aggregates on a 1959 – 60 tour of the Indian subcontinent which helped Australia win its last Test and series on Pakistani soil for 39 years , as well as another series in India . His career peaked in 1960 – 61 when he scored 181 in the Tied Test against the West Indies , and at the end of the series , had a career average of 58.25 . His performances on the 1961 tour of England saw him named as one of the Wisden Cricketers of the Year . Thereafter his form was less formidable , characterised by nervousness and fidgeting at the start of his</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1001,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>film role appeared award acting director roles success actor performance directed comedy drama actors films cast movie festival starred television received box awards played actress career play production starring musical reviews theatre alongside debut critical stage best filmography tamil supporting cinema critics stars romantic thriller screen hollywood telugu script performances successful broadway adaptation feature nominations filming life worked mother playing nominated wrote opposite portrayed ballet acclaim screenplay critic acclaimed born met critically commercial theatrical remake picture productions screened indian los_angeles directorial married personal work lynch bollywood producer woman cannes actresses portrayal bafta academy_award movies miss comedian dance voice earned grossed</t>
+          <t>['simpsons', 'episodes', 'episode', 'homer', 'stan', 'parker', 'kenny', 'animated', 'kyle', 'nickelodeon', 'voice', 'lisa', 'jake', 'television', 'voiced']</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Manoj Bajpayee = Manoj Bajpayee ( born 23 April 1969 ) , also credited as Manoj Bajpai , is an Indian film actor who predominantly works in Hindi cinema and has also done some Telugu and Tamil language films . He is the recipient of two National Film Awards and two Filmfare Awards . Born in Belwa , a small village in Narkatiaganj , Bihar , Bajpayee aspired to become an actor since childhood . He relocated to Delhi at the age of seventeen , and applied for National School of Drama , only to be rejected for three times . He continued to do theatre while studying in the college . Bajpayee made his feature film debut with the one-minute role in Drohkaal ( 1994 ) , and a minor role of a dacoit in Shekhar Kapur 's Bandit Queen ( 1994 ) . After few unnoticed roles , he played gangster Bhiku Mhatre in Ram Gopal Varma 's 1998 crime drama Satya , which proved to be a breakthrough . Bajpayee received the National Film Award for Best Supporting Actor and Filmfare Critics Award for Best Actor for t</t>
+          <t>The Coon = " The Coon " is the second episode of the thirteenth season of the American animated television series South Park . The 183rd episode of the series , it originally aired on Comedy Central in the United States on March 18 , 2009 . In the episode , Cartman poses as a superhero vigilante named " The Coon " , who grows increasingly jealous of the popularity and success of a rival superhero named " Mysterion " . The episode was written and directed by series co-founder Trey Parker , and was rated TV-MA L in the United States . It was originally conceived as an episode about the economic recession , but those elements were later adapted into the future episode , " Margaritaville " . " The Coon " generated a great deal of speculation about the true identity of Mysterion . Parker and Stone originally said there was no specific answer to the question . However , his identity is finally revealed in the fourteenth season episode " Mysterion Rises " . The episode parodied several dark-t</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Shriya Saran = Shriya Saran ( pronounced [ ʂrɪjaː sərən ] ( born as Shriya Saran Bhatnagar on 11 September 1982 ) , also known by the mononym Shriya , is an Indian film actress and model . She has acted in Telugu , Tamil , and Hindi language films , as well as a few films in English , Malayalam and Kannada . Saran was born in Dehradun and spent most of her childhood in Haridwar . In 2001 , her dance master gave her the opportunity to appear in Renoo Nathan 's debut music video " Thirakti Kyun Hawa " , which brought Saran to the attention of many Indian filmmakers . Although Saran aspired to become a well-known dancer , she was rather offered a leading role . Thus , Saran made her film debut in 2001 with the Telugu film Ishtam , and had her first commercial success with Santhosham ( 2002 ) . She subsequently appeared in several more Telugu films , while making in-roads in the Hindi and Tamil film industries . In 2007 , Saran starred in Sivaji , the highest-grossing Tamil film at that ti</t>
+          <t>The Price of Gold = " The Price of Gold " is the fourth episode of the American fairy tale / drama television series Once Upon a Time . The series takes place in the fictional seaside town of Storybrooke , Maine , in which the residents are actually characters from various fairy tales that were transported to the " real world " town by a powerful curse . This episode centers on Emma Swan ( Jennifer Morrison ) coming to the aid of a young pregnant woman ( Jessy Schram ) who is trying to escape from Storybrooke and Mr. Gold ( Robert Carlyle ) , which parallels with Cinderella 's ( Schram ) regrettable deal she made with Rumpelstiltskin ( Carlyle ) . The episode was written by co-executive producer David H. Goodman , while being directed by David Solomon . Goodman used the newly introduced character of Cinderella to reveal more of Emma 's backstory , as she had no flashbacks to draw upon . Schram 's casting was confirmed in August 2011 , when it was revealed that Cinderella 's storyline w</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Emma Thompson = Emma Thompson ( born 15 April 1959 ) is a British actress , a comedian , and a writer . Thompson is known for her portrayals of reticent women and playing haughty or matronly characters with a sense of irony , often in period dramas and literary adaptations . She is considered one of Britain 's most accomplished actresses . Born in London to English actor , Eric Thompson , and Scottish actress , Phyllida Law , Thompson was educated at Newnham College , University of Cambridge , where she became a member of the Footlights troupe . After appearing in several comedy programmes , she first came to prominence in 1987 , in two BBC TV series , Tutti Frutti and Fortunes of War , winning the BAFTA TV Award for Best Actress for her work in both series . Thompson 's first film role came in the 1989 romantic comedy , The Tall Guy , and in the early 1990s she frequently collaborated with her then husband , actor , and director , Kenneth Branagh . The pair became popular in the Briti</t>
+          <t>That Still Small Voice = " That Still Small Voice " is the fifth episode of the American fairy tale / drama television series Once Upon a Time . The series takes place in the fictional seaside town of Storybrooke , Maine , in which the residents are actually characters from various fairy tales that were transported to the " real world " town by a powerful curse . In this episode , Henry ( Jared S. Gilmore ) becomes upset when told by Archie ( Raphael Sbarge ) that his fairy tale theories are delusions ; Henry places himself in danger when he investigates a mysterious sinkhole , forcing a regretful Archie to save him . Meanwhile , the backstory of Jiminy Cricket ( Sbarge ) is revealed – he yearns to leave his con artist parents and become a good person , but accidentally hurts an innocent couple along the way . It was the first Once Upon a Time episode to be written by consulting producer Jane Espenson , while being directed by Paul Edwards . Espenson was " thrilled " to be assigned the</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rachel Weisz = Rachel Hannah Weisz ( / ˈvaɪs / VYSS ; born 7 March 1970 ) is an English film and theatre actress as well as a former fashion model who holds both British and American citizenship . Weisz began her acting career at Trinity Hall , Cambridge in the early 1990s , then started working in television , appearing in the detective drama Inspector Morse , the British mini-series Scarlet and Black and the television film Advocates II . She made her film debut in the science fiction movie Death Machine ( 1994 ) . Her first Hollywood appearance came in the action film Chain Reaction ( 1996 ) , opposite Keanu Reeves and Morgan Freeman . Next , she appeared as Evelyn Carnahan-O 'Connell in the adventure films The Mummy ( 1999 ) and The Mummy Returns ( 2001 ) . Other notable films featuring Weisz are the war film Enemy at the Gates ( 2001 ) , opposite Jude Law ; the comedy-drama About a Boy ( 2002 ) , opposite Hugh Grant ; the supernatural action-thriller Constantine ( 2005 ) , pairing</t>
+          <t>The Tale of Scrotie McBoogerballs = " The Tale of Scrotie McBoogerballs " is the second episode of the fourteenth season of the American animated television series South Park , and the 197th overall episode of the series . It originally aired on Comedy Central in the United States on March 24 , 2010 . In the episode , the South Park boys write a vulgar book with the sole intention of getting it banned . When Stan 's parents discover the manuscript , the boys accuse Butters of writing it , then are enraged when it is hailed as a literary masterpiece . The episode was written and directed by series co-creator Trey Parker , and was rated TV-MA L in the United States . It serves as a satire of pop culture criticism , and mocks people who find hidden messages in works where there are none . The episode includes other themes , including the lack of interest in reading among American youths , and mocks the idea that a book alone causes people to commit violent crimes . The novel The Catcher i</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Mani Ratnam = Gopala Ratnam Subramaniam ( born 2 June 1955 ) , commonly known by his screen name Mani Ratnam , is an Indian film director , screenwriter , and producer who predominantly works in Tamil cinema . Cited by the media as one of India 's most acclaimed and influential filmmakers , Mani Ratnam is widely credited with revolutionising the Tamil film industry and altering the profile of Indian cinema . Although working in the mainstream medium , his films are noted for their realism , technical finesse , and craft . The Government of India honoured him with the Padma Shri , acknowledging his contributions to film in 2002 . Despite being born into a film family , Mani Ratnam did not develop any interest towards films when he was young . Upon completion of his post graduation in management , he started his career as a consultant . He entered the film industry through the 1983 Kannada film Pallavi Anu Pallavi . The failure of his subsequent films would mean that he was left with lit</t>
+          <t>The Simpsons : An Uncensored , Unauthorized History = The Simpsons : An Uncensored , Unauthorized History is a non-fiction book about the American animated television series The Simpsons . It was written by John Ortved , and first published in October 2009 by Faber and Faber . In the United Kingdom , the book is called Simpsons Confidential : The uncensored , totally unauthorised history of the world 's greatest TV show by the people that made it . The book is an oral history of the show , and concentrates particularly on the writers and producers of the show . The book includes entire chapters devoted to key figures such as creator Matt Groening and James L. Brooks and Sam Simon , who helped develop the series . According to National Public Radio reviewer Linda Holmes , " Ortved 's thesis , essentially , is that lots of people are responsible for the success of The Simpsons , and their creator , Matt Groening , has too often been viewed as the sole source to the detriment of others wh</t>
         </is>
       </c>
     </row>
@@ -1036,32 +1036,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>cambridge oxford boat competition silver summer competed referred medal seconds olympics compete athletes champions heat race championships crews finishing honour reigning thames rowing olympic races blues medals cox lengths contest paralympics beijing sport stroke bronze surrey universities coached athlete opponents excluding rowed university_of_cambridge fixture participants contained toss gold umpire isis university_of_oxford rower competing annually represented rivalry pounds junior coaches umpired wheelchair competitors participating participate middlesex handing favour swimming clear overall paralympic qualified boxing sports event hammersmith_bridge mile_post contested preliminary river_thames flag worldwide athletics ahead delegation course winner strokes polo participation favourites freestyle rowers disability reserve swimmer events consecutive qualification relay</t>
+          <t>['battalion', 'brigade', 'division', 'regiment', 'infantry', 'battalions', 'squadron', 'training', 'unit', 'units', 'raaf', 'australian', '2nd', 'japanese', '1st']</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>The Boat Race 1904 = The 61st Boat Race took place on 26 March 1904 . Held annually , the Boat Race is a side-by-side rowing race between crews from the Universities of Oxford and Cambridge along the River Thames . Neither boat club president was able to row through injury . In a race umpired by former rower Frederick I. Pitman , Cambridge won by four-and-a-half lengths in a time of 21 minutes 37 seconds . Their third victory in a row , it took the overall record in the event to 33 – 27 in Oxford 's favour . = = Background = = The Boat Race is a side-by-side rowing competition between the University of Oxford ( sometimes referred to as the " Dark Blues " ) and the University of Cambridge ( sometimes referred to as the " Light Blues " ) . The race was first held in 1829 , and since 1845 has taken place on the 4.2-mile ( 6.8 km ) Championship Course on the River Thames in southwest London . The rivalry is a major point of honour between the two universities ; it is followed throughout th</t>
+          <t>45th Infantry Brigade Combat Team ( United States ) = The 45th Infantry Brigade Combat Team ( " Thunderbird " ) is a modular infantry brigade combat team of the United States Army headquartered in Norman , Oklahoma . It is a part of the Oklahoma Army National Guard . Formed from elements of the disbanded 45th Infantry Division which saw action during World War II and the Korean War , along with the 45th Field Artillery Group ( today 's 45th Fires Brigade ) and 90th Troop Command , the 45th Infantry Brigade was activated in 1968 and assigned to training duties for active duty army units until 1994 when the 45th was selected as one of 15 " enhanced brigades " . The brigade deployed as part of the UN peacekeeping force in the wake of the Bosnian War , with C Company , 1-179th Infantry being among the first National Guard units to see duty there . In 2003 , A Co 1-179 deployed to Saudi Arabia while B 1-179 deployed to Kuwait to provide security for Patriot missile sites . During the invasi</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>The Boat Race 2005 = The 151st Boat Race took place on 27 March 2005 . Oxford won the race by two lengths in a time of 16 minutes 41 seconds . The race , umpired by the six-time Boat Race winner Boris Rankov , featured seven Olympic rowers . It was the first time the event was broadcast in the United Kingdom on ITV . In the reserve race Goldie beat Isis and Cambridge won the Women 's race . = = Background = = The Boat Race is an annual rowing eight competition between the University of Oxford and the University of Cambridge . First held in 1829 , the competition is a 4.2-mile ( 6.8 km ) race along The Championship Course on the River Thames in southwest London . The rivalry is a major point of honour between the two universities and followed throughout the United Kingdom and worldwide . Cambridge went into the race as reigning champions , having won the 2004 race by six lengths , and led overall with 78 victories to Oxford 's 71 ( excluding the " dead heat " of 1877 ) . The race was sp</t>
+          <t>827th Tank Destroyer Battalion = The 827th Tank Destroyer Battalion was a tank destroyer battalion of the United States Army active during the Second World War . It was activated in April 1942 as a segregated African American unit , deploying to Europe at the end of 1944 and attached to 12th Armored Division . It saw action during Operation Nordwind in January 1945 , where elements of the battalion performed creditably . However , its overall combat record was marred by severe disciplinary problems and insufficient training . It was withdrawn in February , and assigned to rear-area duties ; while it nominally remained active for the remainder of the war , it had been effectively disbanded . = = Background = = The US Army 's basic wartime racial policy , established in 1937 , dictated that both whites and African Americans were to be inducted into the Army in equal proportions and strength , but that they were to be assigned to segregated units . Black soldiers could be led by white off</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>The Boat Race 1994 = The 140th Boat Race took place on 26 March 1994 . Held annually , the Boat Race is a side-by-side rowing race between crews from the Universities of Oxford and Cambridge along the River Thames . Cambridge won by six-and-a-half lengths . The race saw the first competitors from Norway in the history of the race , in brothers Snorre and Sverke Lorgen . It was also the first time that both competing coxes had previously won the event . In the reserve race , Cambridge 's Goldie defeated Oxford 's Isis , while Cambridge won the Women 's Boat Race . = = Background = = The Boat Race is a side-by-side rowing competition between the University of Oxford ( sometimes referred to as the " Dark Blues " ) and the University of Cambridge ( sometimes referred to as the " Light Blues " ) . First held in 1829 , the race takes place on the 4.2-mile ( 6.8 km ) Championship Course on the River Thames in southwest London . The rivalry is a major point of honour between the two universiti</t>
+          <t>RAAF area commands = Area commands were the major operational and administrative formations of the Royal Australian Air Force ( RAAF ) between 1940 and 1954 . Established in response to the outbreak of World War II , they underpinned the Air Force 's geographically based command-and-control system for the duration of the conflict and into the early years of the Cold War , until being superseded by a functional control system made up of Home , Training , and Maintenance Commands . The area commands and their responsibilities evolved over time according to changing circumstances . The RAAF established four commands to begin with in 1940 – 41 : Southern Area , Central Area , Western Area , and Northern Area . They oversaw almost all operations , training and maintenance within their boundaries . A concession to functional control occurred in mid-1941 , when the Air Force formed two groups that assumed the training role of the southern and eastern states ; Central Area itself was disbanded</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>The Boat Race 1962 = The 108th Boat Race took place on 7 April 1962 . Held annually , the Boat Race is a side-by-side rowing race between crews from the Universities of Oxford and Cambridge along the River Thames . Umpired by former Blue , Ran Laurie , it was won by Cambridge by five lengths in a time of 19 minutes 46 seconds . The race featured the heaviest oarsman since the 1829 race . = = Background = = The Boat Race is a side-by-side rowing competition between the University of Oxford ( sometimes referred to as the " Dark Blues " ) and the University of Cambridge ( sometimes referred to as the " Light Blues " ) . First held in 1829 , the race takes place on the 4.2-mile ( 6.8 km ) Championship Course on the River Thames in southwest London . The rivalry is a major point of honour between the two universities ; it is followed throughout the United Kingdom and , as of 2014 , broadcast worldwide . Cambridge went into the race as reigning champions , having won the 1961 race by four-an</t>
+          <t>32nd Battalion ( Australia ) = The 32nd Battalion was an infantry battalion of the Australian Army . It was first raised in 1915 as part of the Australian Imperial Force and was initially made up of personnel from South Australia and Western Australia . The battalion served in France and Belgium during the First World War before being disbanded in 1919 . It was re-raised in 1921 as the " 32nd Battalion ( Footscray Regiment ) " , a unit of the part-time Militia , and between the wars the battalion served as a home defence unit in Victoria . During the Second World War the battalion was merged with the 14th Battalion to become the 14th / 32nd Battalion ( Prahran / Footscray Regiment ) , serving firstly as garrison troops in Australia and New Guinea before taking part in the fighting during the New Britain campaign . In July 1945 , that battalion was disbanded . After the war , the battalion was not re-raised in its own right when the Citizens Military Force ( the forerunner to the Austra</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vanuatu at the 2008 Summer Olympics = Vanuatu competed at the 2008 Summer Olympics in Beijing , China . A total of three Vanuatuan athletes competed in two sports . Moses Kamut and Elis Lapenmal competed in , respectively , the men 's and women 's 100m sprints , and Priscilla Tommy competed in women 's singles table tennis after being selected by the IOC 's Tripartite Commission . Tommy 's appearance in particular was Vanuatu 's debut into table tennis . Tommy was also the country 's flagbearer during the opening ceremony . The Vanuatuan delegation to Beijing included the country 's head of state and prime minister , but only included Elis Lapenmal ; the other two athletes did not accompany the delegation and arrived in China at different times . None of the three Vanuatuan Olympians progressed past the first round in their events , and thus did not earn any medals . = = Background = = Vanuatu has participated in the Olympics since the 1988 Summer Olympics in Seoul , South Korea ; its </t>
+          <t>Special Troops Battalion , 173rd Airborne Brigade Combat Team ( United States ) = The Special Troops Battalion , 173rd Airborne Brigade Combat Team is a special troops battalion of the United States Army headquartered at Caserma Del Din in Vicenza , Italy . It is the organization for the command elements of the 173rd Airborne Brigade Combat Team . The battalion contains the brigade 's senior command structure , including its Headquarters and Headquarters Company , as well as communication and support elements . Activated in 2000 from inactivating support units , the Special Troops Battalion deployed with the 173rd Airborne Brigade Combat Team to Afghanistan in 2007 until 2008 and again in early 2010 . = = Organization = = The Special Troops Battalion is subordinate to the 173rd Airborne Brigade Combat Team and is a permanent formation of the brigade , as the 173rd 's command elements are all contained in the STB . The battalion consists of three companies and the brigade 's Headquarter</t>
         </is>
       </c>
     </row>
@@ -1071,32 +1071,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>album music songs rock recorded recording band beatles lyrics musicians george_harrison sound harrison song bands track release live things guitar version vocals apple musical 1970s psychedelic included cover written record like material studio group drums backing solo folk metal reissue love single released compositions guitarist genre sessions describes morrison 1960s john_lennon acoustic tour slide recordings bass playing composition musician writes inspired albums piano style author progressive paul_mccartney producer guitars played rolling_stone riff success bob_dylan audience wrote drummer writing particularly biographer popular let blues krishna rhythm jazz lord biographers early emi described sleeve living overdubbed remastered rolling_stones glam late mojo issued</t>
+          <t>['olympics', 'athletes', 'olympic', 'medal', 'meter', 'freestyle', 'championships', 'beijing', 'medals', 'seconds', 'relay', 'gold', 'competed', 'games', 'summer']</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>My Sweet Lord = " My Sweet Lord " is a song by English musician and former Beatle George Harrison that was released in November 1970 on his triple album All Things Must Pass . Also issued as a single , Harrison 's first as a solo artist , " My Sweet Lord " topped charts worldwide and was the biggest-selling single of 1971 in the UK . In America and Britain , the song was the first number 1 single by an ex-Beatle . Harrison originally gave the song to his fellow Apple Records artist Billy Preston to record ; this version , which Harrison co-produced , appeared on Preston 's Encouraging Words album in September 1970 . Harrison wrote " My Sweet Lord " in praise of the Hindu god Krishna , while at the same time intending the lyrics to serve as a call to abandon religious sectarianism through his deliberate blending of the Hebrew word hallelujah with chants of " Hare Krishna " and Vedic prayer . The recording features producer Phil Spector 's Wall of Sound treatment and heralded the arrival</t>
+          <t>Terry Bywater = Terrance " Terry " Bywater ( born 28 February 1983 ) is a British wheelchair basketball player . He participated in the 2000 Summer Paralympics , where his team came in fourth place ; in the 2004 Summer Paralympics , where he won a bronze medal and was the highest scorer for Great Britain ; the 2008 Summer Paralympics , winning another bronze medal ; and the 2012 Summer Paralympics , where his team again came in fourth place . = = Personal = = Bywater was born on 28 February 1983 in Dormanstown , England and currently lives in Cleveland , North Yorkshire . As of 2009 , he weighs 74 kilograms ( 11 st 9 lb ) and is 1.8 metres ( 5 ft 11 in ) tall . He was born without a tibia and a fibula in his left leg , which was amputated when he was two . He has a son , Benjamin Bywater . = = Wheelchair basketball = = Bywater began playing wheelchair basketball at the age of 13 at an open day in Middlesbrough with the Teesside Lions . He later played with them . After playing for a ye</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>All Things Must Pass = All Things Must Pass is a triple album by English musician George Harrison . Recorded and released in 1970 , the album was Harrison 's first solo work since the break-up of the Beatles in April that year , and his third solo album overall . It includes the hit singles " My Sweet Lord " and " What Is Life " , as well as songs such as " Isn 't It a Pity " and the title track that were turned down by the Beatles . The album reflects the influence of his musical activities with artists such as Bob Dylan , the Band , Delaney &amp; Bonnie and Billy Preston during 1968 – 70 , as well as Harrison 's growth as an artist beyond his supporting role to former bandmates John Lennon and Paul McCartney . All Things Must Pass introduced Harrison 's signature sound , the slide guitar , and the spiritual themes that would be present throughout his subsequent solo work . The original vinyl release consisted of two LPs of songs and a third disc of informal jams , titled Apple Jam . Comm</t>
+          <t>Snowflake = A snowflake is either a single ice crystal or an aggregation of ice crystals which falls through the Earth 's atmosphere . They begin as snow crystals which develop when microscopic supercooled cloud droplets freeze . Snowflakes come in a variety of sizes and shapes . Complex shapes emerge as the flake moves through differing temperature and humidity regions , such that individual snowflakes are almost always unique in structure . Snowflakes encapsulated in rime form balls known as graupel . Snowflakes appear white in color despite being made of clear ice . This is due to diffuse reflection of the whole spectrum of light by the small crystal facets . = = Formation = = In warmer clouds an aerosol particle or " ice nucleus " must be present in ( or in contact with ) the droplet to act as a nucleus . The particles that make ice nuclei are very rare compared to nuclei upon which liquid cloud droplets form ; however , it is not understood what makes them efficient . Clays , dese</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>All Things Must Pass ( song ) = " All Things Must Pass " is a song by English musician George Harrison , issued in November 1970 as the title track to his triple album of the same name . Billy Preston released the song originally – as " All Things ( Must ) Pass " – on his Apple Records album Encouraging Words ( 1970 ) , after the Beatles had rejected it for inclusion on their Let It Be album in January 1969 . The composition reflects the influence of the Band 's sound and communal music-making on Harrison , after he had spent time with the group in Woodstock , New York , in late 1968 , while Timothy Leary 's poem " All Things Pass " , a psychedelic adaptation of the Tao Te Ching , provided inspiration for his song lyrics . The subject matter deals with the transient nature of human existence , and in Harrison 's All Things Must Pass reading , words and music combine to reflect impressions of optimism against fatalism . On release , together with Barry Feinstein 's album cover image , c</t>
+          <t>Mikhail Suslov = Mikhail Andreyevich Suslov ( Russian : Михаи ́ л Андре ́ евич Су ́ слов ; 21 November [ O.S. 8 November ] 1902 – 25 January 1982 ) was a Soviet statesman during the Cold War . He served as Second Secretary of the Communist Party of the Soviet Union from 1965 , and as unofficial Chief Ideologue of the Party until his death in 1982 . Suslov was responsible for party democracy and the power separation within the Communist Party . His hardline attitude toward change made him one of the foremost anti-reformist Soviet leaders . Born in rural Russia in 1902 , Suslov became a member of the All-Union Communist Party ( Bolsheviks ) in 1921 and studied economics for much of the 1920s . He left his job as a teacher in 1931 to pursue politics full-time , becoming one of the many Soviet politicians who took part in the mass repression begun by Joseph Stalin 's regime . Suslov impressed the Soviet leadership to such an extent in the pre-Eastern Front Soviet Union that he was made Fir</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Progressive rock = Progressive rock ( first known as progressive pop , later prog rock , prog , and sometimes art rock ) is a rock music subgenre that originated in the United Kingdom and United States throughout the mid-to-late 1960s . It developed from psychedelic rock , and began as an attempt to give greater artistic weight and credibility to rock music . Songs were replaced by musical suites that often stretched to 20 or 40 minutes in length and contained symphonic influences , extended musical themes , fantasy-like ambience and lyrics , and complex orchestrations . The style was an outgrowth of retrospectively termed " proto-prog " bands who abandoned the short pop single in favor of instrumentation and compositional techniques more frequently associated with jazz or classical music as part of an effort to give rock music the same level of musical sophistication and critical respect . It saw a high level of popularity throughout the 1970s , especially in the middle of the decade </t>
+          <t>Little Athletics = Little Athletics is an Australian activity program that involves modified athletics events for children aged 5 to 15 ( or 16 in ACT , NSW , Qld and SA ) . More than 100,000 young Australians competed in the sport in the 2013 / 14 season . The competitions were founded by Trevor Billingham , a young Australian athletics enthusiast from Geelong , Victoria , in 1964 . By 1967 , there were more than 35 Little Athletics clubs in Victoria , and the decision was made to start the Victorian Little Athletics Association ( VLAA ) . Soon after the formation of the VLAA , other states expressed interest in Little Athletics . In February 1968 , a year after the formation of the VLAA , Western Australia held its first Little Athletics meet at Perry Lakes Stadium . In 1972 , the states of Victoria , New South Wales , Northern Territory and Western Australia became the founding members of The Australian Little Athletics Union ( ALAU ) , which was formed in Perth . By 1974 , Tasmania</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Living in the Material World = Living in the Material World is the fourth studio album by English musician George Harrison , released in 1973 on Apple Records . As the follow-up to 1970 's critically acclaimed All Things Must Pass and his pioneering charity project , the Concert for Bangladesh , it was among the most highly anticipated releases of that year . The album was certified gold by the Recording Industry Association of America two days after release , on its way to becoming Harrison 's second number 1 album in the United States , and produced the international hit " Give Me Love ( Give Me Peace on Earth ) " . It also topped albums charts in Canada and Australia , and reached number 2 in Britain . Living in the Material World is notable for the uncompromising lyrical content of its songs , reflecting Harrison 's struggle for spiritual enlightenment against his status as a superstar , as well as for what many commentators consider to be the finest guitar and vocal performances o</t>
+          <t>Priya Cooper = Priya Naree Cooper , OAM ( born 2 October 1974 ) is an Australian world champion disabled swimmer , winning nine Paralympic gold medals as well as world records and world championships . She competed in the Australian 1992 , 1996 and 2000 Summer Paralympics swimming team with an S8 classification . She was twice the co-captain of the Australian Paralympic team , including at the 2000 Paralympic Games in Sydney , and carried the Australian flag at the closing ceremonies for the 1992 and 1996 Summer Paralympics . Cooper has cerebral palsy and spends much of her time in a wheelchair . She attended university , working on a course in health management . After she ended her competitive Paralympic career , she became a commentator , and covered the swimming events at the 2002 Commonwealth Games . = = Early life = = Priya Naree Cooper was born on 2 October 1974 in Perth , Western Australia . She was born with cerebral palsy , and spends 75 % of her time in a wheelchair . As a y</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1106,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>song video number like performance tour music madonna performed best songs stage beyoncé week gaga single dance shows chart called wrote spears live audience said dancers singer million felt described noted tickets gave love sold way received included performances billboard hot version musical choreography critics concert fans glee album praised featured release pop released commented debuted according wearing saying list girl added night black kurt sang copies choreographed track wanted costumes onstage dancing britney dress scene interlude awards spectacle cyrus scenes look broadway total weeks cover end lady_gaga singing artist videos lyrics dates napoleon rachel set people mtv different covered</t>
+          <t>['oxford', 'cambridge', 'race', 'boat', 'blues', 'rowed', 'rowing', 'lengths', 'crews', 'rower', 'thames', 'races', 'crew', 'universities', 'umpired']</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Monster Ball Tour = The Monster Ball Tour was the second worldwide concert tour by American singer Lady Gaga . Staged in support of her extended play The Fame Monster ( 2009 ) and comprising a set list of songs from that and her debut album The Fame ( 2008 ) , the tour visited arenas and stadiums from 2009 through 2011 . Described as " the first-ever pop electro opera " by Gaga , the tour was announced in October 2009 after an intended joint concert tour with hip-hop artist Kanye West was suddenly canceled . The Monster Ball Tour commenced four days after the release of The Fame Monster in November 2009 . A revision of the tour occurred after only a few months of performances , due to Gaga 's concern that the original version was constructed within a very short span of time . The stage of the original show looked like a frame , comparable to that of a hollowed-out television set . Since The Fame Monster dealt with the paranoias Gaga had faced , the main theme of the original shows </t>
+          <t xml:space="preserve">Leo Ryan = Leo Joseph Ryan , Jr . ( May 5 , 1925 – November 18 , 1978 ) was an American teacher and politician . He served as a U.S. Representative as a member of the Democratic Party . He represented California 's 11th congressional district from 1973 until he was shot to death in Guyana by members of the Peoples Temple , shortly before the Jonestown mass suicide on November 18 , 1978 , just 11 days after Ryan 's election to a fourth term . He is the only sitting member of the U.S. House of Representatives to have been assassinated in office . After the Watts Riots of 1965 , Assemblyman Ryan took a job as a substitute school teacher to investigate and document conditions in the area . In 1970 , he investigated the conditions of California prisons by being held , under a pseudonym , as an inmate in Folsom Prison , while presiding as chairman of the Assembly committee that oversaw prison reform . During his time in Congress , Ryan traveled to Newfoundland to investigate the practice of </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Tabitha and Napoleon D 'umo = Tabitha A. D 'umo ( née Cortopassi ; born September 11 , 1973 ) and Napoleon Buddy D 'umo ( born October 17 , 1968 ) , known together as Nappytabs , are Emmy Award-winning married choreographers who are often credited with developing lyrical hip-hop . They are best known for their choreography on the television show So You Think You Can Dance and for being supervising choreographers and executive producers of America 's Best Dance Crew . Since being with the former , their choreography has received both praise and criticism . They own Nappytabs urban dancewear and have been working in the dance industry since 1996 . Tabitha and Napoleon grew up on opposite coasts of the United States and met in the early 1990s as students at the University of Nevada , Las Vegas . They began their dance career together while still in college by choreographing industrial musicals for large corporations with the hip-hop dance company Culture Shock . After moving to Los Angele</t>
+          <t>William Eustis = William Eustis ( June 10 , 1753 – February 6 , 1825 ) was an early American physician , politician , and statesman from Massachusetts . Trained in medicine , he served as a military surgeon during the American Revolutionary War , notably at the Battle of Bunker Hill . He resumed medical practice after the war , but soon entered politics . After several terms in the state legislature , Eustis won election to the United States Congress in 1800 , serving as a moderate Democratic-Republican . He briefly returned to state politics after losing reelection in 1804 , and was chosen to be Secretary of War in 1809 by President James Madison . Due in part to his inexperience at managing the army and a lack of preparedness , the military failures in the early months of the War of 1812 were laid on his shoulders , leading to his resignation . Madison then appointed Eustis Minister to the Netherlands , a post he held from 1814 until 1818 . After another period in Congress , he was e</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Run the World ( Girls ) = " Run the World ( Girls ) " is a song recorded by American recording artist Beyoncé , from her fourth studio album 4 ( 2011 ) , released as the lead single from the album on April 21 , 2011 . It was written by Terius " The-Dream " Nash , Beyoncé , Nick " Afrojack " van de Wall , Wesley " Diplo " Pentz , David " Switch " Taylor , and Adidja Palmer . Production was handled by Switch , The-Dream , Beyoncé , and Shea Taylor . The song 's development was motivated by the fact that Beyoncé wanted something different : a mixture of different cultures and eras , a new sound , and a message which would give women strength . An unedited demo of the song , then thought to be titled " Girls ( Who Run the World ) " , was leaked on the internet on April 18 , 2011 . " Run the World " premiered on US radio on April 21 , 2011 , and was digitally released the same day . " Run the World " is a electropop and R &amp; B song that heavily samples " Pon de Floor " by Major Lazer . The s</t>
+          <t>Ki ( Devin Townsend Project album ) = Ki ( / ˈkiː / KEE ) is the eleventh studio album by Canadian musician Devin Townsend , and the first of six albums in the Devin Townsend Project series . The album was released on May 25 , 2009 , on Townsend 's independent record label HevyDevy Records . Townsend , the founder , songwriter , and frontman of extreme metal band Strapping Young Lad and progressive metal group The Devin Townsend Band , dissolved both bands in 2006 to spend time with his family and avoid the burnout of touring and interviewing . After a period of self-discovery and a year-long break from songwriting , Townsend began work on a four-album series to clarify his identity as a musician . Ki includes themes of self-control and sobriety , and is musically subtler than much of the artist 's previous work , consisting of ambient rock music interlaced with tentative bursts of heavy metal . The album was written , produced , mixed , and co-engineered by Townsend , who also perform</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve">ArtRave : The Artpop Ball = ArtRave : The Artpop Ball ( stylized as artRAVE : The ARTPOP Ball ) was the fourth headlining concert tour by American singer Lady Gaga . Supporting her third studio album Artpop ( 2013 ) , the tour ran from May 4 , 2014 to November 24 , 2014 . The tour dates included cities where Gaga had canceled shows of her previous Born This Way Ball tour after suffering a hip injury . The ArtRave tour was preceded by a performance at the South by Southwest music festival , which drew controversy due to a segment where an artist vomited on Gaga , and a seven-day residency at the Roseland Ballroom in Manhattan , New York . ArtRave 's concept and name are derived from the similarly named release party for Artpop . The stage resembled a cave and consisted of two sections connected by catwalks made of translucent lucite , allowing the audience to move underneath the catwalks while still being able to watch the show . Gaga 's costumes in the show included one with tentacles </t>
+          <t>Alexander Berkman = Alexander Berkman ( November 21 , 1870 – June 28 , 1936 ) was a leading member of the anarchist movement in the early 20th century , famous for both his political activism and his writing . Berkman was born in Vilna in the Russian Empire ( present-day Vilnius , Lithuania ) and emigrated to the United States in 1888 . He lived in New York City , where he became involved in the anarchist movement . He was the one-time lover and lifelong friend of anarchist Emma Goldman . In 1892 , undertaking an act of propaganda of the deed , Berkman made an unsuccessful attempt to assassinate businessman Henry Clay Frick , for which he served 14 years in prison . His experience in prison was the basis for his first book , Prison Memoirs of an Anarchist . After his release from prison , Berkman served as editor of Goldman 's anarchist journal , Mother Earth , and later established his own journal , The Blast . In 1917 , Berkman and Goldman were sentenced to two years in jail for cons</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Who 's That Girl World Tour = Who 's That Girl World Tour was the second concert tour by American singer-songwriter Madonna . The tour supported her third studio album , True Blue ( 1986 ) , as well as the soundtrack Who 's That Girl ( 1987 ) . It was Madonna 's first world tour , reaching Asia , North America and Europe . Madonna 's 1987 film Who 's That Girl was a box office failure , but its soundtrack proved to be a commercial success . Warner Bros. felt that they could encache on Madonna 's success further and they sent her on a world tour . Musically and technically superior to her previous Virgin Tour , the Who 's That Girl Tour incorporated multimedia components to make the show more appealing . Madonna trained herself physically with aerobics , jogging and weight-lifting , to cope with the choreography and the dance routines . For the costumes , she collaborated with designer Marlene Stewart , expanding on the idea of bringing her popular video characters to life onstage , rew</t>
+          <t xml:space="preserve">William Edington = William Edington ( died 6 or 7 October 1366 ) was an English bishop and administrator . He served as bishop of Winchester from 1346 until his death , Keeper of the wardrobe from 1341 to 1344 , treasurer from 1344 to 1356 , and finally as chancellor from 1356 until he retired from royal administration in 1363 . Edington ’ s reforms of the administration — in particular of royal finances — had wide-ranging consequences , and contributed to the English military efficiency in the early stages of the Hundred Years ' War . As bishop of Winchester he was responsible for starting an extensive rebuilding of Winchester Cathedral , and for founding Edington Priory , the church of which still stands today . = = Royal service = = Edington 's parents were Roger and Amice of Edington near Westbury , Wiltshire . Though it has been claimed that he was educated at Oxford , there seems to be no support for this . His first patron , however , was the Oxford chancellor Gilbert Middleton </t>
         </is>
       </c>
     </row>
@@ -1141,32 +1141,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>class built main guns line castle new service use long locomotives london speed intended locomotive fire continued range gun designed high war increased ships end originally construction additional carried lines tons maximum railways railway turrets large extended station designs inch turret work design provided aircraft tower instead control steam defences remained decided initially forward mounted power passenger armour armament gauge services bailey artillery fitted castles trains replaced standard short fortification heavy light original south reduced existing required towers rounds ran running improved century mph opened converted belt allow period battlecruisers engines taken proved delivered better gatehouse platform early boiler need</t>
+          <t>['poem', 'poems', 'poetry', 'poet', 'han', 'shakespeare', 'ode', 'riley', 'text', 'sanskrit', 'texts', 'poetic', 'literary', 'works', 'smart']</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Great Western Railway = The Great Western Railway ( GWR ) was a British railway company that linked London with The Midlands , the south-west and west of England and most of Wales . It was founded in 1833 , received its enabling Act of Parliament in 1835 and ran its first trains in 1838 . It was engineered by Isambard Kingdom Brunel , who chose a broad gauge of 7 ft ( 2,134 mm ) but , from 1854 , a series of amalgamations saw it also operate 4 ft 8 1 ⁄ 2 in ( 1,435 mm ) standard-gauge trains ; the last broad-gauge services were operated in 1892 . The GWR was the only company to keep its identity through the Railways Act 1921 , which amalgamated it with the remaining independent railways within its territory , and it was finally merged at the end of 1947 when it was nationalised and became the Western Region of British Railways . The GWR was called by some " God 's Wonderful Railway " and by others the " Great Way Round " but it was famed as the " Holiday Line " , taking many people to </t>
+          <t xml:space="preserve">Madoc ( poem ) = Madoc is an 1805 epic poem composed by Robert Southey . It is based on the legend of Madoc , a supposed Welsh prince who fled internecine conflict and sailed to America in the 12th century . The origins of the poem can be traced to Southey 's schoolboy days when he completed a prose version of Madoc 's story . By the time Southey was in his twenties , he began to devote himself to working on the poem in hopes that he could sell it to raise money to fulfill his ambitions to start a new life in America , where he hoped to found Utopian commune or " Pantisocracy " . Southey finally completed the poem as a whole in 1799 , at the age of 25 . However , he began to devote his efforts into extensively editing the work , and Madoc was not ready for publication until 1805 . It was finally published in two volumes by the London publisher Longman with extensive footnotes . The first half of the poem , Madoc in Wales , describes Madoc , a young Welsh nobleman , whose family breaks </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SECR N1 class = The SECR N1 class was a type of 3-cylinder 2-6-0 ( ' mogul ' ) steam locomotive designed by Richard Maunsell for mixed traffic duties , initially on the South Eastern and Chatham Railway ( SECR ) , and later operated for the Southern Railway ( SR ) . The N1 was a development of the basic principles established by the Great Western Railway 's ( GWR ) Chief Mechanical Engineer ( CME ) George Jackson Churchward and by Maunsell 's previous N class design . The N1 prototype was the result of modifications made to N class No. 822 during construction in 1922 . The locomotive became operational in 1923 and used parts interchangeable with other Maunsell locomotive classes . The prototype N1 was the only member of the class constructed before the SECR became part of the Southern Railway at the Grouping in 1923 , and featured a variant of the Gresley conjugated valve gear designed by Harold Holcroft . The class set the precedent for the Southern Railway 's subsequent 3-cylinder de</t>
+          <t>Elias Abu Shabaki = Elias Abu Shabaki ( also spelled Ilyas Abu Shabaka ; Arabic : الياس أبو شبكة , May 3 , 1903 – January 27 , 1947 ) was a Lebanese writer , poet , editor , translator and literary critic , he was one of the founders of the literary League of Ten and is considered as one of the leading figures of the Arabic Nahda Movement . Born into a well-to-do Lebanese family , Abu Shabaki became interested in poetry at a young age . The son of a merchant , he was left fatherless in his youth , an experience that would mark his earlier works . Elias worked as a teacher , translator and _ in addition to publishing several volumes of poetry _ as a journalist writing for many Arabic newspapers and literary magazines . Being an adherent to the Romantic school , Abu Shabki believed in inspiration and denounced conscious control in poetry . His poems were gloomy , deeply personal and often contained biblical overtones centering on his internal moral conflicts . Some of Abu Shabaki 's work</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>LNER Gresley Classes A1 and A3 = The London and North Eastern Railway LNER Gresley Classes A1 and A3 locomotives represented two distinct stages in the history of the British 4-6-2 " Pacific " steam locomotives designed by Nigel Gresley . They were designed for main line passenger services , initially on the Great Northern Railway ( GNR ) , a constituent company of the London and North Eastern Railway after the amalgamation of 1923 , for which they became a standard design . The change in class designation to A3 reflected the fitting to the same chassis of a higher pressure boiler with a greater superheating surface and a small reduction in cylinder diameter , leading to an increase in locomotive weight . Eventually all of the A1 locomotives were rebuilt , most to A3 specifications , but no . 4470 was completely rebuilt as Class A1 / 1 . The names for the locomotives came from a variety of sources . The first , Great Northern , was named after its parent company . Others were given the</t>
+          <t xml:space="preserve">Adam Mickiewicz = Adam Bernard Mickiewicz ( [ mit ͡ sˈkʲɛvit ͡ ʂ ] ; 24 December 1798 – 26 November 1855 ) was a Polish poet , dramatist , essayist , publicist , translator , professor of Slavic literature , and political activist . He is regarded as national poet in Poland , Lithuania and Belarus . A principal figure in Polish Romanticism , he is counted one of Poland 's " Three Bards " ( " Trzej Wieszcze " ) and is widely regarded as Poland 's greatest poet . He is also considered one of the greatest Slavic and European poets and has been dubbed a " Slavic bard " . A leading Romantic dramatist , he has been compared in Poland and Europe to Byron and Goethe . He is known chiefly for the poetic drama Dziady ( Forefathers ' Eve ) and the national epic poem Pan Tadeusz . His other influential works include Konrad Wallenrod and Grażyna . All these served as inspiration for uprisings against the three imperial powers that had partitioned the Polish-Lithuanian Commonwealth out of existence </t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>British Rail Class 47 = The British Rail Class 47 is a class of British railway diesel-electric locomotive that was developed in the 1960s by Brush Traction . A total of 512 Class 47s were built at Crewe Works and Brush 's Falcon Works , Loughborough between 1962 and 1968 , which made them the most numerous class of British mainline diesel locomotive . They were fitted with the Sulzer 12LDA28C twin-bank twelve-cylinder unit producing 2,750 bhp ( 2,050 kW ) - though this was later derated to 2,580 bhp ( 1,920 kW ) to improve reliability - and have been used on both passenger and freight trains on Britain 's railways for over 50 years . Despite the introduction of more modern types of traction , a significant number are still in use , both on the mainline and on heritage railways . As of July 2015 , 82 locomotives still exist as Class 47s , with further examples having been converted to other classes ; approximately 30 retain " operational status " on the mainline . = = Origins = = The C</t>
+          <t>Battle of Brunanburh ( poem ) = The Battle of Brunanburh is an Old English poem . It is preserved in the Anglo-Saxon Chronicle , a historical record of events in Anglo-Saxon England which was kept from the late ninth to the mid-twelfth century . The poem records the Battle of Brunanburh , a battle fought in 937 between an English army and a combined army of Scots , Vikings , and Britons . The battle resulted in an English victory , celebrated by the poem in style and language like that of traditional Old English battle poetry . The poem is notable because of those traditional elements and has been praised for its authentic tone , but it is also remarkable for its fiercely nationalistic tone , which documents the development of a unified England ruled by the House of Wessex . = = Historical background = = The Battle of Brunanburh was a culmination of the conflict between King Æthelstan and the northern kings . After Æthelstan had defeated the Vikings at York in 928 , Constantine II , th</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Castles in Great Britain and Ireland = Castles have played an important military , economic and social role in Great Britain and Ireland since their introduction following the Norman invasion of England in 1066 . Although a small number of castles had been built in England in the 1050s the Normans began to build motte and bailey and ringworks castles in large numbers to control their newly occupied territories in England and the Welsh Marches . During the 12th century the Normans began to build more castles in stone , with characteristic square keeps that played both military and political roles . Royal castles were used to control key towns and the economically important forests , while baronial castles were used by the Norman lords to control their widespread estates . David I invited Anglo-Norman lords into Scotland in the early 12th century to help him colonise and control areas of his kingdom such as Galloway ; the new lords brought castle technologies with them and wooden castles</t>
+          <t>Frost at Midnight = Frost at Midnight is a poem by Samuel Taylor Coleridge , written in February 1798 . Part of the conversation poems , the poem discusses Coleridge 's childhood experience in a negative manner and emphasizes the need to be raised in the countryside . The poem expresses hope that Coleridge 's son , Hartley , would be able to experience a childhood that his father could not and become a true " child of nature " . The view of nature within the poem has a strong Christian element in that Coleridge believed that nature represents a physical presence of God 's word and that the poem is steeped in Coleridge 's understanding of Neoplatonism . Frost at Midnight has been well received by critics , and is seen as the best of the conversation poems . = = Background = = Frost at Midnight was written in February 1798 when he described to Thomas Poole aspects of his childhood at Christ 's Hospital grammar school that are similar to the content of the poem . The rest comes from Coler</t>
         </is>
       </c>
     </row>
@@ -1176,32 +1176,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>cap fruit color shaped spores bodies fungus stem mushroom spore taxonomy yellow diameter collected gill somewhat commonly hyphae bearing description typically colored epithet grow grows north_america slightly flesh smooth thin orange pale distinguished gills genus covered mushrooms scattered forests specific closely basidia taste whitish roughly measuring characteristics reddish margin attached caps growing dry connections wide brownish distinct clamp distributed odor mycologist similar distinctive specimens mature stipe microscopic translucent occasionally edible measure fine spored hollow hyaline cystidia tissue fungi habitat brown lacks ellipsoid layer yellowish produces broadly attachment narrow distribution maturity walled differences print cheilocystidia cuticle cylindrical cells pink rounded apex</t>
+          <t>['breed', 'horses', 'horse', 'breeds', 'dog', 'dogs', 'stud', 'breeding', 'bred', 'arabian', 'stallion', 'riding', 'breeders', 'pony', 'stakes']</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tylopilus alboater = Tylopilus alboater , commonly known as the black velvet bolete , is a bolete fungus in the Boletaceae family . The species is found in North America east of the Rocky Mountains , and in eastern Asia , including China , Japan , Taiwan , and Thailand . A mycorrhizal species , it grows solitarily , scattered , or in groups on the ground usually under deciduous trees , particularly oak , although it has been recorded from deciduous , coniferous , and mixed forests . The fruit bodies have a black to grayish-brown cap that measures up to 15 cm ( 5.9 in ) in diameter . The caps of young specimens have a velvety texture and are covered with a whitish to gray powdery coating ; this texture and coating is gradually lost as the mushroom matures , and the cap often develops cracks . The pores on the underside of the cap are small and pinkish . The stem is bluish-purple to black , and measures up to 10 cm ( 3.9 in ) long by 4 cm ( 1.6 in ) thick . Both the pore surface and the </t>
+          <t>Crested shelduck = The crested shelduck or Korean crested shelduck ( Tadorna cristata ) is a species of bird in the family Anatidae . It is critically endangered and may be extinct . The male crested shelduck has a greenish-black crown , breast , primaries , and tail , while the rest of its face , chin , and throat are brownish black . The male 's belly , undertail coverts , and flanks are a dark grey with black striations . The upper wing coverts are white , while its speculum is an iridescent green . The female has a white eye ring , black crest , white face , chin , throat , neck , and uppers wing coverts and a dark brown body with white striations . Additionally , both sexes have a distinctive green tuft of feathers protruding from the head . Very little is known about this bird because of the limited number of observations of this species . It apparently breeds in Korea and eastern Russia and is probably a relict species that had a wider distribution in prehistoric times . Some th</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Lactarius fallax = Lactarius fallax , commonly known as the velvety milk cap , is a species of fungus in the Russulaceae family . Found in both spruce and mixed conifer forests , it is a fairly common species in the Pacific Northwest region of North America , with a northerly range extending to Alaska . Its fruit bodies are medium-sized , with velvety , brown to blackish caps up to 3 – 9 cm ( 1.2 – 3.5 in ) in diameter bearing a distinct pointed umbo . The caps are supported by velvety stems up to 6 cm ( 2.4 in ) long and 1.5 cm ( 0.6 in ) thick . The mushroom oozes a whitish latex when it is cut , and injured tissue eventually turns a dull reddish color . The eastern North American and European species Lactarius lignyotus is closely similar in appearance , but can be distinguished by its differing range . = = Taxonomy and classification = = The species was originally described by American mycologists Alexander H. Smith and Lexemuel Ray Hesler in a 1962 publication . Smith made the ini</t>
+          <t>Welara = The Welara is a part-Arabian pony breed developed from the Arabian horse and the Welsh pony . It was originally bred in England by Lady Wentworth at the Crabbet Arabian Stud in the early 1900s from imported Arabian stallions and Welsh pony mares . Breeding then spread throughout North America . In 1981 , a breed registry was formed in the United States , and a studbook began to be published . They are used for many disciplines of English riding , and are known for their refinement , hardiness and spirit . = = Breed characteristics = = Welara stallions average 14 to 15 hands ( 56 to 60 inches , 142 to 152 cm ) and mares 13.1 to 14.3 hands ( 53 to 59 inches , 135 to 150 cm ) . To be registered , Welaras must stand between 11.2 and 15 hands ( 46 and 60 inches , 117 and 152 cm ) high . Crosses between Arabians and each of the four sections of Welsh Pony ( A , B , C and D ) tend to produce slightly different types of pony . Section A Welsh Pony crosses ( the smallest ) tend to be u</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Mycena lanuginosa = Mycena lanuginosa is a species of mushroom in the Mycenaceae family . First collected in 2000 and reported as a new species in 2007 , it is known only from lowland oak-dominated forests in central Honshu in Japan . The small mushroom is characterized by its grooved , grayish-brown to violet-brown cap up to 11 mm ( 0.43 in ) in diameter , and the slender grayish-brown to reddish-brown stem covered with minute , fine , soft hairs . The mushroom produces amyloid spores ( spores that stain when treated with Melzer 's reagent ) . Microscopic distinguishing features include the smooth , spindle-shaped cheilocystidia and pleurocystidia ( cystidia on the gill edge and face , respectively ) and the diverticulate elements in the outer layer of the cap and the stem . = = Taxonomy , naming , and classification = = Mycena lanuginosa was first collected by Haruki Takahashi in 2000 , and published as a new species in 2007 , along with seven other Japanese Mycena species . The spec</t>
+          <t>Buckeye chicken = The Buckeye is a breed of chicken originating in the U.S. state of Ohio . Created in the late 19th century , Buckeyes are the only American Poultry Association ( APA ) standard breed of chicken known to have been created by a woman , and the only one in the American Class to have a pea comb . As of 2014 , Buckeyes are listed as " Threatened " by The Livestock Conservancy . The breed 's name is derived from Ohio 's nickname of " Buckeye state " , and their mahogany color is said ideally to resemble the seeds of the Ohio Buckeye plant ( Aesculus glabra ) . They are a dual-purpose chicken that have a decent laying ability and strong meat production characteristics . Buckeyes are yellow skinned chickens that lay brown eggs . = = History = = The Buckeye was first bred and developed in 1896 , by a Warren , Ohio resident named Nettie Metcalf . They are the only American breed of chicken known to have been developed by a woman , despite the fact that women were customarily gi</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Boletus subluridellus = Boletus subluridellus is a species of bolete fungus in the family Boletaceae . Described as new to science in 1971 by American mycologists , the bolete is found in the eastern United States and Canada . It grows on the ground in coniferous and mixed forests in a mycorrhizal association with deciduous trees , especially oak . The fruit bodies ( mushrooms ) have orangish-red , broadly convex caps that are up to 10 cm ( 3.9 in ) in diameter , with small , dark reddish pores on the underside . The pale yellow stipe measures 4 – 9 cm ( 1.6 – 3.5 in ) long by 1.5 – 2.3 cm ( 0.6 – 0.9 in ) thick . All parts of the fruit body will quickly stain blue when injured or touched . = = Taxonomy = = The species was described by American mycologists Alexander H. Smith and Harry D. Thiers in their 1971 monograph on the bolete fungi of Michigan . The type collection was made by Smith on a golf course near Ypsilanti , Michigan in September 1961 ; it is kept at the University of Mic</t>
+          <t>Azteca horse = The Azteca is a horse breed from Mexico , with a subtype , called the " American Azteca " , found in the United States . They are well-muscled horses that may be of any solid color , and the American Azteca may also have pinto coloration . Aztecas are known to compete in many western riding and some English riding disciplines . The Mexican registry for the original Azteca and the United States registries for the American Azteca have registration rules that vary in several key aspects , including ancestral bloodlines and requirements for physical inspections . The Azteca was first developed in Mexico in 1972 , from a blend of Andalusian , American Quarter Horse and Mexican Criollo bloodlines . From there , they spread to the United States , where American Paint Horse blood was added . = = Breed characteristics = = The three foundation breeds of the Azteca are the Andalusian ( defined by the Mexican registry as either Pura Raza Española or Lusitano ) , American Quarter Hor</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Tricholoma vaccinum = Tricholoma vaccinum , commonly known as the russet scaly tricholoma , the scaly knight , or the fuzztop , is a fungus of the agaric genus Tricholoma . It produces medium-sized fruit bodies ( mushrooms ) that have a distinctive hairy reddish-brown cap with a shaggy margin when young . The cap , which can reach a diameter of up to 6.5 cm ( 2.6 in ) wide , breaks up into flattened scales in maturity . It has cream-buff to pinkish gills with brown spots . Its fibrous , hollow stipe is white above and reddish brown below , and measures 4 to 7.5 cm ( 1.6 to 3.0 in ) long . Although young fruit bodies have a partial veil , it does not leave a ring on the stipe . Widely distributed in the Northern Hemisphere , Tricholoma vaccinum is found in northern Asia , Europe and North America . The fungus grows in a mycorrhizal association with spruce or pine trees , and its mushrooms are found on the ground growing in groups or clusters in late summer and autumn . Although some con</t>
+          <t xml:space="preserve">Jutland horse = The Jutland horse ( Danish : Den jyske hest ) is a draft horse breed originating in Denmark , named after the Jutland Peninsula which forms the western part of the country . Usually chestnut , they are a compact , muscular breed known for their calm and willing temperament . The breed was originally developed for use in agriculture , but today is more often seen in urban settings and at horse shows . Some of the best known members of the breed pull beer wagons for the Carlsberg brewery around Copenhagen , as well as at competitions and for demonstrations . Images from the 9th century show a horse similar to the Jutland being used by Viking raiders in what is now Great Britain . The first written record is from the 12th century , when they were popular as war horses . Some infusion of bloodlines from other breeds occurred in the 18th century , but the modern Jutland type only began about 1850 with the addition of blood from several other breeds , mainly draft horses . A </t>
         </is>
       </c>
     </row>
@@ -1211,32 +1211,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>episode mulder plot find scully nielsen doctor files scene david_duchovny finds x-files filmed dana_scully enterprise gillian_anderson alien fox olivia filming agents fox_mulder previously fbi broadcast script paranormal man mythology fringe households agent planet watched chris_carter carter archer smoking viewers linked effects believe rating noting walter duchovny arrives kill frank_spotnitz zack_handlen episodes reception discover lars_pearson skinner trek monster star reviews thought bbc generation voyager cinefantastique tardis wanting robert_shearman producers special ratings stars rated lone paula_vitaris walter_skinner skeptical centers creature kim_manners television tucker amy story scenes aliens gunmen investigate starfleet aired unconnected finale believes mitch_pileggi tells household watching creator mixed reyes killing</t>
+          <t>['creek', 'watershed', 'dam', 'volcano', 'lava', 'pipeline', 'flows', 'volcanic', 'trout', 'mountain', 'park', 'eruption', 'river', 'feet', 'cubic']</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Redux ( The X-Files ) = " Redux " is the collective name for the two-part fifth season premiere of the science fiction television series The X-Files . " Redux I " first aired on November 2 , 1997 on Fox in the United States , with " Redux II " airing on November 9 . Both episodes subsequently aired in the United Kingdom and Ireland . Both episodes were written by series creator Chris Carter , with " Redux " directed by R. W. Goodwin and " Redux II " helmed by Kim Manners . " Redux " became the second-most-watched episode ever broadcast , earning more than 27 million viewers in the United States alone . The first part of the episode received mixed to negative reviews , whereas the second part received mixed to positive reviews from critics . The show centers on FBI special agents Fox Mulder ( David Duchovny ) and Dana Scully ( Gillian Anderson ) who work on cases linked to the paranormal , called X-Files . The episodes ' story continues on from the fourth season finale " Gethsemane " . </t>
+          <t>Mount Baker = Mount Baker ( Lummi : Qwú ’ mə Kwəlshéːn ; Nooksack : Kw ’ eq Smaenit or Kwelshán ) , also known as Koma Kulshan or simply Kulshan , is an active glaciated andesitic stratovolcano in the Cascade Volcanic Arc and the North Cascades of Washington in the United States . Mount Baker has the second-most thermally active crater in the Cascade Range after Mount Saint Helens . About 31 miles ( 50 km ) due east of the city of Bellingham , Whatcom County , Mount Baker is the youngest volcano in the Mount Baker volcanic field . While volcanism has persisted here for some 1.5 million years , the current glaciated cone is likely no more than 140,000 years old , and possibly no older than 80-90,000 years . Older volcanic edifices have mostly eroded away due to glaciation . After Mount Rainier , Mount Baker is the most heavily glaciated of the Cascade Range volcanoes ; the volume of snow and ice on Mount Baker , 0.43 cu mi ( 1.79 km3 ) is greater than that of all the other Cascades volc</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Requiem ( The X-Files ) = " Requiem " is the twenty-second episode and the finale of the seventh season the science fiction television series The X-Files , and the show 's 161st episode overall . It premiered on the Fox network in the United States on May 21 , 2000 . The episode was written by Chris Carter , and directed by Kim Manners . The episode helped to explore the series ' overarching mythology . " Requiem " earned a Nielsen household rating of 8.9 , being watched by 15.26 million viewers in its initial broadcast . The episode received mostly positive reviews from television critics . Many applauded the way it made the series ' increasingly marginalized alien mythology relevant again , although others lamented the partial loss of David Duchovny . The show centers on FBI special agents Fox Mulder ( Duchovny ) and Dana Scully ( Gillian Anderson ) who work on cases linked to the paranormal , called X-Files . Mulder is a believer in the paranormal , while the skeptical Scully has be</t>
+          <t>Amak Volcano = Amak Volcano is a basaltic andesite stratovolcano in the Aleutian Islands of Alaska , USA , 618 miles ( 995 km ) from Anchorage . It is located on the eponymous island , 31 miles ( 50 km ) from Frosty Volcano and near the edge of the Alaskan Peninsula 's western flank . Only boats are allowed to access the island with a certain permit . Blocky ( dotted with flat blocks of minerals and crystals ) lava flows stream from its summit to its flanks . Three historical eruptions have taken place – two within the 18th century , the first from 1700 – 1710 , and the latter in 1796 . The earliest prehistoric eruption was believed to have taken place between 3050 and 2050 BCE . = = Accessibility = = Cold Bay , the city nearest Amak , is easily accessible by plane . Amak is accessible only by boat ; airplanes are not permitted to land on the island . Private boat rides to Amak are available in Cold Bay , but for access to the Aleutian Islands , a permit is required from the United Sta</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>End Game ( The X-Files ) = " End Game " is the seventeenth episode of the second season of the American science fiction television series The X-Files . It premiered on the Fox network on February 17 , 1995 . It was directed by Rob Bowman , and written by Frank Spotnitz . " End Game " featured guest appearances by Megan Leitch , Peter Donat , Brian Thompson and saw Steven Williams reprise his role as X. The episode helped explore the series ' overarching mythology . " End Game " earned a Nielsen household rating of 11.2 , being watched by 10.7 million households in its initial broadcast . It received positive reviews from critics . The show centers on FBI special agents Fox Mulder ( David Duchovny ) and Dana Scully ( Gillian Anderson ) who work on cases linked to the paranormal , called X-Files . In this episode , Scully is kidnapped by an alien bounty hunter and Mulder offers his sister Samantha ( Leitch ) forward as ransom . However , Samantha is merely one of several clones created a</t>
+          <t>Mount Tehama = Mount Tehama ( also called Brokeoff Volcano or Brokeoff Mountain ) is an eroded andesitic stratovolcano in the Cascade Volcanic Arc and the Cascade Range in Northern California . Part of the Lassen volcanic center , its highest remaining remnant , Brokeoff Mountain , is itself the second highest peak in Lassen Volcanic National Park and connects to the park 's highest point , Lassen Peak . Located on the border of Tehama County and Shasta County , Tehama 's peak is the highest point in the former . The hikers that summit this mountain each year are treated to " exceptional " views of Lassen Peak , the Central Valley of California , and many of the park 's other features . On clear days , Mount Shasta can also be seen in the distance . Tehama started life some 600,000 years ago . At its peak activity , it reached approximately 3,350 meters ( 11,000 ft ) high , with a basal diameter of approximately 12 kilometers . Volcanic activity then declined 400,000 years ago , with o</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>The Gift ( The X-Files ) = " The Gift " is the eleventh episode of the eighth season of the American science fiction television series The X-Files . It premiered on the Fox network in the United States on February 4 , 2001 . The episode was written by Frank Spotnitz and directed by Kim Manners . " The Gift " has elements of both a " Monster-of-the-Week " episode , and an entry in the series ' mythology . The episode received a Nielsen rating of 8.8 and was viewed by 14.6 million viewers . Overall , the episode received largely mixed reviews from television critics ; while many appreciated the return focus on Fox Mulder 's ( David Duchovny ) absence , others felt that the plot revelations were unnaturally forced into the show . The season centers on FBI special agents Dana Scully ( Gillian Anderson ) and her new partner John Doggett ( Robert Patrick ) — following the alien abduction of her former partner , Mulder — who work on cases linked to the paranormal , called X-Files . In this ep</t>
+          <t>Mount Cleveland ( Alaska ) = Mount Cleveland ( also known as Cleveland Volcano ) is a nearly symmetrical stratovolcano on the western end of Chuginadak Island , which is part of the Islands of Four Mountains just west of Umnak Island in the Fox Islands of the Aleutian Islands of Alaska . Mt . Cleveland is 1,730 m ( 5,676 ft ) high , and one of the most active of the 75 or more volcanoes in the larger Aleutian Arc . Aleutian natives named the island after their fire goddess , Chuginadak , who they believed inhabited the volcano . In 1894 a team from the U.S. Coast and Geodetic Survey visited the island and gave Mount Cleveland its current name , after then-president Grover Cleveland . One of the most active volcanoes in the Aleutian Arc , Cleveland has erupted at least 22 times in the last 230 years . A VEI 3 eruption in 1944 produced the arc 's only known volcanic fatality . Most recently Mount Cleveland has erupted three times in 2009 , twice in 2010 , and once in 2011 . The volcano '</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Closure ( The X-Files ) = " Closure " is the eleventh episode of the seventh season of the science fiction television series The X-Files , and the 150th episode overall . It was directed by Kim Manners and written by series creator Chris Carter and Frank Spotnitz . The installment explores the series ' overarching mythology and is the conclusion of a two-part episode revolving around the final revelation of what really happened to Fox Mulder 's ( David Duchovny ) sister , Samantha . Originally aired by the Fox network on February 13 , 2000 , " Closure " received a Nielsen rating of 9.1 and was seen by 15.35 million viewers . The episode received mostly positive reviews from critics ; many felt that the final reveal was emotional and powerful , although some were unhappy with the resolution . The show centers on FBI special agents Fox Mulder ( Duchovny ) and Dana Scully ( Gillian Anderson ) who work on cases linked to the paranormal , called X-Files . Mulder is a believer in the paranor</t>
+          <t>Cibolo Creek = Cibolo Creek is a stream in South Central Texas , United States that runs approximately 96 miles ( 154 km ) from its source at Turkey Knob ( in the Texas Hill Country ) near Boerne , Texas , to its confluence with the San Antonio River in Karnes County . The creek serves as a tributary of the San Antonio River and forms the easternmost boundary of its watershed . The stream is used for both recreational and political purposes , serving as the eastern boundary of Bexar County , Texas . A wide variety of fish and other wildlife are known to occupy the waters , and several parks have been established along its banks , including Cibolo Nature Center , Boerne City Park and Jackson Nature Center . Additionally , numerous human settlements have been founded on the creek , such as Boerne , Fair Oaks Ranch , San Antonio , Bulverde , Bracken , Selma , Schertz , Universal City , Cibolo , Zuehl , New Berlin , La Vernia , Cestohowa , Kosciusko , Sutherland Springs and Panna Maria . =</t>
         </is>
       </c>
     </row>
@@ -1246,32 +1246,32 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>son king died brother death daughter father reign royal kings younger succeeded sons kingdom probably bishop brothers married claim according marriage appears granted wife mentioned lands emperor duke sources edward empire historians successor fortress hungary prince possibly ruler refused conflict account crown powerful stephen fled historian byzantine siege hungarian secure peace castle confirmed likely john invaded chronicle rome sent hands heir seized managed pope cousin surviving ill invasion eldest alexander buried authority crowned uncle records chronicler throne grandfather earl constantinople archbishop ruled nephew bishops william alliance imperial accepted tried papal iii rebellion succession ireland exile mac constantine certainly dublin persuaded</t>
+          <t>['aircraft', 'engine', 'flight', 'fuselage', 'wing', 'air', 'engines', 'prototype', 'radar', 'fighter', 'fuel', 'raf', 'speed', 'car', 'testing']</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Domnall mac Taidc = Domnall mac Taidc Uí Briain ( died 1115 ) , also known as Domnall Ua Briain , Domhnall Ua Briain , and Domhnall mac Taidhg , was the ruler of the Kingdom of the Isles , the Kingdom of Thomond , and perhaps the Kingdom of Dublin as well . His father was Tadc , son of Toirdelbach Ua Briain , King of Munster , which meant that Domnall was a member of the Meic Taidc , a branch of the Uí Briain . Domnall 's mother was Mór , daughter of Echmarcach mac Ragnaill , King of Dublin and the Isles , which may have given Domnall a stake to the kingship of the Isles . In 1094 , Domnall 's uncle , Muirchertach Ua Briain , High King of Ireland , drove Gofraid Crobán , King of Dublin and the Isles from Dublin , and may have replaced him with Domnall himself . Certainly at some point following Gofraid 's death in 1095 , Muirchertach installed Domnall as King of the Isles . The latter 's reign was short-lived however , and Domnall appears to have been forced from the Isles prior to its</t>
+          <t>Petlyakov Pe-8 = The Petlyakov Pe-8 was a Soviet heavy bomber designed before World War II , and the only four-engine bomber the USSR built during the war . Produced in limited numbers , it was used to bomb Berlin in August 1941 . It was also used for so-called " morale raids " designed to raise the spirit of the Soviet people by exposing Axis vulnerabilities . Its primary mission , however , was to attack German airfields , rail yards and other rear-area facilities at night , although one was used to fly the People 's Commissar of Foreign Affairs ( Foreign Minister ) Vyacheslav Molotov from Moscow to the United States in 1942 . Originally designated the TB-7 , the aircraft was renamed the Pe-8 after its primary designer , Vladimir Petlyakov , died in a plane crash in 1942 . Supply problems complicated the aircraft 's production and the Pe-8s also had engine problems . As Soviet morale boosters , they were also high-value targets for the Luftwaffe 's fighter pilots . The loss rate of t</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Andrew I of Hungary = Andrew I the White or the Catholic ( Hungarian : I. Fehér or Katolikus András or Endre ; c . 1015 – Zirc , before 6 December 1060 ) was King of Hungary from 1046 to 1060 . He descended from a younger branch of the Árpád dynasty . After spending fifteen years in exile , he ascended the throne during an extensive revolt of the pagan Hungarians . He strengthened the position of Christianity in the Kingdom of Hungary and successfully defended its independence against the Holy Roman Empire . His efforts to ensure the succession of his son , Solomon , resulted in the open revolt of his brother , Béla . Béla dethroned Andrew by force in 1060 . Andrew suffered severe injuries during the fighting and died before his brother was crowned king . = = Early life = = = = = Childhood ( c . 1015 – 1031 ) = = = Medieval sources provide two contradictory reports of the parents of Andrew , and his two brothers , Levente and Béla . For instance , the Chronicle of Zagreb and Saint Gera</t>
+          <t>North American AJ Savage = The North American AJ Savage ( later A-2 Savage ) was a carrier-based medium bomber built for the United States Navy by North American Aviation . The aircraft was designed shortly after World War II to carry atomic bombs and this meant that the bomber was the heaviest aircraft thus far designed to operate from an aircraft carrier . It was powered by two piston engines and a turbojet buried in the rear fuselage . The AJ-1 first became operational in 1950 and several were based in South Korea during 1953 as a deterrent against the Communists . Of the 140 built , plus three prototypes , 30 were reconnaissance aircraft . Inflight-refueling equipment was deployed on the Savage in the mid-1950s . The bomber was replaced by the Douglas A3D Skywarrior beginning in 1957 . = = Design and development = = At the end of World War II , the U.S. Navy began a design competition on 13 August 1945 for a carrier-based bomber which could carry a 10,000-pound ( 4,536 kg ) bomb th</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Andrew III of Hungary = Andrew III the Venetian ( Hungarian : III . Velencei András , Croatian : Andrija III . Mlečanin , Slovak : Ondrej III . ; c . 1265 – 14 January 1301 ) was King of Hungary and Croatia between 1290 and 1301 . His father , Stephen the Posthumous , was the posthumous son of Andrew II of Hungary although Stephen 's brothers considered him a bastard . Andrew grew up in Venice , and first arrived in Hungary upon the invitation of a rebellious baron , Ivan Kőszegi , in 1278 . Kőszegi tried to play Andrew off against Ladislaus IV of Hungary , but the conspiracy collapsed and Andrew returned to Venice . Being the last male member of the House of Árpád , Andrew was elected king after the death of King Ladislaus IV in 1290 . He was the first Hungarian monarch to issue a coronation diploma confirming the privileges of the noblemen and the clergy . At least three pretenders — Albert of Austria , Mary of Hungary , and an adventurer — challenged his claim to the throne . Andrew</t>
+          <t>Chase XCG-20 = The Chase XCG-20 , also known as the XG-20 and by the company designation MS-8 Avitruc , was a large assault glider developed immediately after World War II by the Chase Aircraft Company for the United States Air Force , and was the largest glider ever built in the United States . The XG-20 did not see production due to a change in USAF requirements , however , it was modified into the successful Fairchild C-123 Provider twin-engined transport aircraft which saw extensive service in the Vietnam War . = = Design and development = = Following the end of World War II , the United States Army Air Forces , which became the United States Air Force ( USAF ) in 1947 , developed a requirement for a new , large assault glider type to replace smaller types that were then in service , all existing gliders having been declared obsolete . The new gliders were to be constructed entirely of metal , and were also required to be easily adaptable to a powered configuration . As part of a f</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Andrew II of Hungary = Andrew II ( Hungarian : II . András , Croatian : Andrija II . , Slovak : Ondrej II . , Ukrainian : Андрій II ; c . 1177 – 21 September 1235 ) , also known as Andrew of Jerusalem , was King of Hungary and Croatia between 1205 and 1235 . He ruled the Principality of Halych from 1188 until 1189 / 1190 , and again between 1208 / 1209 and 1210 . He was the younger son of Béla III of Hungary , who entrusted him with the administration of the newly conquered Principality of Halych in 1188 . Andrew 's rule was unpopular , and the boyars expelled him . Béla III willed property and money to Andrew , obliging him to lead a crusade to the Holy Land . Instead , Andrew forced his elder brother , King Emeric of Hungary , to cede Croatia and Dalmatia as an appanage to him in 1197 . The following year , Andrew occupied Hum . Despite the fact that Andrew did not stop conspiring against Emeric , the dying king made Andrew guardian of his son , Ladislaus III , in 1204 . After the pr</t>
+          <t>Interstate TDR = The Interstate TDR was an early unmanned combat aerial vehicle — referred to at the time as an " assault drone " — developed by the Interstate Aircraft and Engineering Corporation during the Second World War for use by the United States Navy . Capable of being armed with bombs or torpedoes , 2000 aircraft were ordered , but only around 200 were built . The type saw some service in the Pacific Theater against the Japanese , but continuing developmental issues affecting the aircraft , along with the success of operations using more conventional weapons , led to the decision being made to cancel the assault drone program in October 1944 . = = Design and development = = In 1936 , Lieutenant Commander Delmar S. Fahrney proposed that unpiloted , remotely controlled aircraft had potential for use by the United States Navy in combat operations . Due to the limitations of the technology of the time , development of the " assault drone " project was given a low priority , but by</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Géza I of Hungary = Géza I ( Hungarian pronunciation : [ ˈɡeːzɒ ] ; Hungarian : I. Géza ; c . 1040 – 25 April 1077 ) was King of Hungary from 1074 until his death . He was the eldest son of King Béla I. His baptismal name was Magnus . When his father died in 1063 , Géza 's cousin Solomon acquired the crown with German assistance , forcing Géza to leave Hungary . Géza returned with Polish reinforcements and signed a treaty with Solomon in early 1064 . In the treaty , Géza and his brother , Ladislaus acknowledged the rule of Solomon , who granted them their father 's former duchy , which encompassed one-third of the Kingdom of Hungary . Géza closely cooperated with Solomon , but their relationship became tense from 1071 . The king invaded the duchy in February 1074 and defeated Géza in a battle . However , Géza was victorious at the decisive battle of Mogyoród on 14 March 1074 . He soon acquired the throne , although Solomon maintained his rule in the regions of Moson and Pressburg ( pre</t>
+          <t>Polikarpov TIS = The Polkarpov TIS was a heavily armed Soviet heavy fighter designed during the early 1940s . Only two prototypes were built because its intended engines proved to be too unreliable to be placed into production and the engines ' manufacturer lacked the resources to fix the problems . The second prototype crashed in September 1944 and the program was canceled after the death of Nikolai Nikolaevich Polikarpov , the chief designer of his eponymous OKB , earlier that year . = = Design and development = = The original request for proposals for a heavy escort fighter ( Tyazholyy Istrebitel ' Soprovozhdeniya ) was received at the Polikarpov OKB in November 1938 , but the press of work with the I-180 and SPB prototypes prevented any significant design work until the third quarter of 1940 . Mikhail Yangel was appointed head designer , but his job was complicated by multiple changes in the role of the aircraft from escort fighter to interceptor , dive bomber , and eventually reco</t>
         </is>
       </c>
     </row>
@@ -1281,32 +1281,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>text notes book bach sunday published setting edition movements describes publication bass read author magazine stories poem note books printed works tone editor ensemble instrumental instruments aria piece strings introduction orchestra melody painting die voices closing poet composed scholar narrative stanza accompanied edited jesus reading repeated movement soprano details conclusion editions format hymn recordings poetry structured praise tenor page writes comments issues god verse focus readers solo volume gospel chapters issue informed occasion leipzig themes violins verses und chorus publishing alto readings sung beginning dramatic contrast composer depiction luke tune argues choral publisher aspects symbol translation content poems pages adventures</t>
+          <t>['trains', 'locomotives', 'locomotive', 'oslo', 'line', 'nok', 'train', 'station', 'tunnel', 'railway', 'class', 'rail', 'railways', 'passenger', 'trondheim']</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Gleichwie der Regen und Schnee vom Himmel fällt , BWV 18 = Gleichwie der Regen und Schnee vom Himmel fällt ( Just as the rain and snow fall from heaven ) , BWV 18 , is an early church cantata by Johann Sebastian Bach . He composed it in Weimar for the Sunday Sexagesimae , the second Sunday before Lent , likely by 1713 . The cantata is based on a text by Erdmann Neumeister published in 1711 . It is one of Bach cantata texts of the Weimar period not written by the court poet Salomon Franck . The text cites Isaiah , related to the gospel , the parable of the Sower . The third movement is in the style of a sermon , combined with a litany by Martin Luther . The closing chorale is the eighth stanza of Lazarus Spengler 's hymn " Durch Adams Fall ist ganz verderbt " . The cantata falls relatively early in Bach 's chronology of cantata compositions . It was possibly composed for 24 February 1715 , but more likely a year or even two earlier . Bach structured the work in five movements , a sinfon</t>
+          <t>Tickle Cock Bridge = Tickle Cock Bridge is a pedestrian underpass in Castleford , England , under a railway line originally built by the York and North Midland Railway between York and Normanton . Built in 1890 , the thoroughfare now connects the town 's main residential area with the Carlton Lanes Shopping Centre , and is used by 50,000 pedestrians each week . The original Victorian structure , described by the shopping centre 's manager as " small , narrow , very low and gloomy " and " frightening to walk through " , was replaced in 2008 as part of an urban regeneration scheme . The replacement bridge was initially renamed Tittle Cott . After a protest organised by a local over-50s group , Wakefield Council reversed its decision and a plaque bearing the original name , Tickle Cock , was installed . = = Etymology = = The word cock was first recorded in use as a vulgar term for the penis in 1618 , perhaps deriving from one of the word 's other meanings " a spout or short pipe serving a</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Ich bin vergnügt mit meinem Glücke , BWV 84 = Ich bin vergnügt mit meinem Glücke ( I am content in my good fortune ) , BWV 84 , is a church cantata by Johann Sebastian Bach . He composed the solo cantata for soprano in Leipzig in 1727 for the Sunday Septuagesima , and led the first performance , probably on 9 February 1727 . Bach composed the work in his fourth year as Thomaskantor in Leipzig . The text is similar to a cantata text Ich bin vergnügt mit meinem Stande ( I am content with my position ) , which Picander published in 1728 , but it is not certain that he wrote also the cantata text . Its thoughts about being content are in the spirit of the beginning Enlightenment , expressed in simple language . The closing chorale is the 12th stanza of the hymn " Wer weiß , wie nahe mir mein Ende " by Ämilie Juliane von Schwarzburg-Rudolstadt . Ich bin vergnügt mit meinem Glücke is one of the few works which Bach called " Cantata " himself . Bach structured the work in five movements , alt</t>
+          <t>Somerset Coalfield = The Somerset Coalfield in northern Somerset , England is an area where coal was mined from the 15th century until 1973 . It is part of a larger coalfield which stretched into southern Gloucestershire . The Somerset coalfield stretched from Cromhall in the north to the Mendip Hills in the south , and from Bath in the east to Nailsea in the west , a total area of about 240 square miles ( 622 km2 ) . Most of the pits on the coalfield were concentrated in the Cam Brook , Wellow Brook and Nettlebridge Valleys and around Radstock and Farrington Gurney . The pits were grouped geographically , with clusters of pits close together working the same coal seams often under the same ownership . Many pits shared the trackways and tramways which connected them to the Somerset Coal Canal or railways for distribution . The early pits were adits where coal outcropped or bell pits where coal was close to the surface . These methods were abandoned when deep seams were mined . The deep</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Lobe den Herrn , meine Seele , BWV 143 = Lobe den Herrn , meine Seele ( Praise the Lord , my soul ) , BWV 143 , is an early cantata by Johann Sebastian Bach . It is not known if he composed the cantata for New Year 's Day in Mühlhausen or Weimar , as the date of composition is unclear . An unknown librettist drew mainly from Psalm 146 and from Jakob Ebert 's hymn " Du Friedefürst , Herr Jesu Christ " to develop seven movements , supplying only two of the movements himself . The text assembly is similar to Bach 's early cantatas . Bach 's authorship is doubted because the cantata has several features unusual for Bach 's later cantatas : it is the only Bach cantata to combine three corni da caccia with timpani . The cantata is in seven movements which combine the three major text sources : psalm , hymn and contemporary poetry . The opening chorus is based on a psalm verse , followed by the first hymn stanza and another psalm verse as a recitative . An aria on poetry is followed by a thir</t>
+          <t>SR Q1 class = The SR Q1 class is a type of austerity steam locomotive constructed during the Second World War . The class was designed by Oliver Bulleid for use on the intensive freight turns experienced during wartime on the Southern Railway network . A total of 40 locomotives were built . Bulleid incorporated many innovations and weight-saving concepts to produce a highly functional design . The class lasted in service until July 1966 , and the first member of the class , number C1 , has been preserved by the National Railway Museum . The highly unusual and controversial design represents the ultimate development of the British 0-6-0 freight engine , capable of hauling trains that were usually allocated to much larger locomotives on other railways . Nicknames for the class included " Ugly Ducklings " , " Coffee Pots " and " Charlies " . = = Background = = In late 1939 , the Southern Railway , until then primarily a high-density commuter railway serving London and South-East England ,</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Jauchzet Gott in allen Landen , BWV 51 = Jauchzet Gott in allen Landen ( " Exult in God in every land " or " Shout for joy to God in all lands " ) BWV 51 , is a church cantata by Johann Sebastian Bach . The work is Bach 's only church cantata scored for a solo soprano and trumpet . He composed it for general use ( ogni tempo ) , in other words not for a particular date in the church calendar , although he used it for the 15th Sunday after Trinity : the first known performance was on 17 September 1730 in Leipzig . The work may have been composed earlier , possibly for an occasion at the court of Christian , Duke of Saxe-Weissenfels , for whom Bach had composed the Hunting Cantata and the Shepherd Cantata . The text was written by an unknown poet who took inspiration from various biblical books , especially from psalms , and included as a closing chorale a stanza from the hymn " Nun lob , mein Seel , den Herren " . Bach structured the work in five movements , with the solo voice accompan</t>
+          <t xml:space="preserve">LSWR M7 class = The LSWR M7 class is a class of 0-4-4 passenger tank locomotive built between 1897 and 1911 . The class was designed by Dugald Drummond for use on the intensive London network of the London and South Western Railway ( LSWR ) , and performed well in such tasks . Because of their utility , 105 were built and the class went through several modifications over five production batches . For this reason there were detail variations such as frame length . Many of the class were fitted with push-pull operation gear that enabled efficient use on branch line duties without the need to change to the other end of its train at the end of a journey . Under LSWR and Southern Railway ownership they had been successful suburban passenger engines , although with the increased availability of newer , standard designs , many of the class were diagrammed to take on a new role as reliable branch line engines , especially in Southern England . Members of the class lasted in service until 1964 </t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Du wahrer Gott und Davids Sohn , BWV 23 = Du wahrer Gott und Davids Sohn ( You true God and Son of David ) , BWV 23 , is a church cantata by Johann Sebastian Bach . He composed it in Köthen between 1717 and 1723 for Quinquagesima Sunday and performed it as an audition piece for the position of Thomaskantor in Leipzig on 7 February 1723 . The Sunday was the last occasion for music at church before the quiet time of Lent . Bach had at least the first three movements ready for the audition in Leipzig and may have added the substantial last movement , derived from the lost Weimarer Passion , rather late . The cantata deals with healing the blind near Jericho . An anonymous author stayed close to the gospel , having the blind man call Jesus in the first movement , and begging Jesus not to pass in the second . In the last movement Bach presents an extended version of " Christe , du Lamm Gottes " , the German Agnus Dei of the Lutheran mass . He scored the cantata for three vocal soloists , a </t>
+          <t>Fairy Queen ( locomotive ) = The Fairy Queen is a steam locomotive , plying between the Indian capital of New Delhi and Alwar , in Rajasthan . It was certified by the Guinness Book of Records in 1998 as being the world 's oldest one in regular operation after being restored to haul a luxury train in order to boost tourism in Rajasthan . The Fairy Queen runs on the same basis as the Palace on Wheels , the tourist train launched in 1982 , and in 1999 was awarded a National Tourism Award . The 5 ft 6 in ( 1,676 mm ) Indian gauge locomotive was built in England in 1855 , and has a two-cylinder engine with a power output of 130 horsepower ( 97 kW ) , producing a top speed of 40 kilometres per hour ( 25 mph ) . It was placed in service by the East Indian Railway Company in West Bengal , where it hauled troop trains during the Indian Rebellion of 1857 , and was withdrawn from service in 1909 and displayed on a pedestal in Howrah until 1943 . Heritage status was accorded in 1972 and the locomo</t>
         </is>
       </c>
     </row>
@@ -1316,32 +1316,32 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>raaf flying wing combat unit training operational pilot officer aircraft flight pilots disbanded commanding squadron air fighter deployed awarded royal_australian_air_force promoted commander responsible missions prototype rank staff aviation flew squadrons bomber fighters weight posted bombing equipment fuselage enemy engine operations headquarters crashed operating mission deployment testing victoria powerplant nuclear nos retired aerial responsibility tactical maintenance bomb instructor bombs duty trained employed chief wingspan conducted flown newly headquartered graduated activated radar senior honor united_states_army air_force cockpit bombers fuel trainers task airmen technical specifications royal_air_force delivered lockheed reconnaissance assistant civilian new_south_wales nose cancelled targets melbourne wartime operated ace disbanding weapon korean piloted</t>
+          <t>['manga', 'anime', 'comics', 'stories', 'story', 'comic', 'magazine', 'volume', 'volumes', 'fiction', 'gay', 'characters', 'pulp', 'published', 'issue']</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">No. 84 Wing RAAF = No. 84 Wing is a Royal Australian Air Force ( RAAF ) transport wing . Coming under the control of Air Mobility Group ( AMG ) , it is headquartered at RAAF Base Richmond , New South Wales . The wing comprises No. 34 Squadron , operating Boeing 737 and Bombardier Challenger 604 VIP jets ; No. 37 Squadron , operating Lockheed Martin C-130J Super Hercules medium transports ; and a technical training unit , No. 285 Squadron . Formed in 1944 for army co-operation duties in the South West Pacific theatre of World War II , No. 84 Wing operated a mix of aircraft including CAC Boomerangs , CAC Wirraways , Auster AOPs and Bristol Beauforts , before disbanding in 1946 . It was re-formed in 1991 as a tactical transport wing headquartered at RAAF Base Townsville , Queensland , comprising Nos. 35 and 38 Squadrons operating de Havilland Canada DHC-4 Caribous . By 1996 , it had been augmented by No. 32 Squadron , operating Hawker Siddeley HS 748 trainer-transports . In 1998 , No. 84 </t>
+          <t>Mega Man : Dr. Wily 's Revenge = Mega Man : Dr. Wily 's Revenge , known as Rockman World ( ロックマンワールド , Rokkuman Wārudo ) in Japan , is a platform video game by Capcom for the Nintendo Game Boy . It is the first game in the handheld series of the Mega Man franchise . It was first released in Japan on July 26 , 1991 , and was localized in North America that December and in Europe the following year . The game continues the adventures of the android hero Mega Man as he once again confronts the evil Dr. Wily , who has recently dispatched his revived " Robot Masters " and a new " Mega Man Killer " named Enker . Dr. Wily 's Revenge is an action and platform game in same vein as the Nintendo Entertainment System ( NES ) Mega Man games . The player is tasked with completing a series of four stages in any order desired . Beating a stage 's boss will earn the player a special weapon that can be selected at will and used throughout the rest of the game . Dr. Wily 's Revenge specifically takes com</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>No. 1 Operational Conversion Unit RAAF = No. 1 Operational Conversion Unit ( No. 1 OCU ) was an operational training unit of the Royal Australian Air Force ( RAAF ) . Formed in January 1959 at RAAF Base Amberley , Queensland , its role was to convert pilots and navigators to the English Electric Canberra bombers flown by Nos. 1 , 2 and 6 Squadrons . The unit 's complement of Canberras included T.4 and Mk.21 dual-control trainers , and Mk.20 bombers . Originally a component of No. 82 Wing , No. 1 OCU became an independent unit at Amberley in April 1968 , its focus being the provision of operationally ready pilots for service with No. 2 Squadron in the Vietnam War . No. 1 OCU was disbanded in June 1971 , following the withdrawal of No. 2 Squadron from South-East Asia . By then the RAAF 's only Canberra unit , No. 2 Squadron ran its own conversion courses before disbanding in 1982 . = = History = = During World War II , the Royal Australian Air Force ( RAAF ) established several operation</t>
+          <t>Dynamic Science Stories = Dynamic Science Stories was a pulp magazine which published two issues , dated February and April 1939 . A companion to Marvel Science Stories , it was edited by Robert O. Erisman and published by Western Fiction Publishing . Among the better known authors who appeared in its pages were L. Sprague de Camp and Manly Wade Wellman . = = Publication history and contents = = Although science fiction had been published before the 1920s , it did not begin to coalesce into a separately marketed genre until the appearance in 1926 of Amazing Stories , a pulp magazine published by Hugo Gernsback . By the end of the 1930s the field was booming . In 1938 Abraham and Martin Goodman , two brothers who owned a publishing company with multiple imprints , launched Marvel Science Stories , edited by Robert O. Erisman . In February of the following year they added Dynamic Science Stories as a companion magazine intended to run longer stories . The contents were typical pulp scien</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>No. 486 Squadron RAAF = No. 486 Squadron was a maintenance unit of the Royal Australian Air Force ( RAAF ) . It was formed in August 1946 as part of No. 86 ( Transport ) Wing , which operated Douglas C-47 Dakotas out of RAAF Station Schofields , New South Wales . The squadron transferred to RAAF Station Richmond in June 1949 . It relocated again to RAAF Base Canberra in April 1954 , before returning to Richmond in August 1958 to commence maintenance of No. 86 Wing 's newly delivered Lockheed C-130 Hercules . The squadron was disbanded between August 1964 and March 1966 . In the 1980s and 1990s , it was responsible for servicing the RAAF 's Boeing 707 tanker / transports , as well as the Hercules . No. 486 Squadron was again disbanded at Richmond in October 1998 , and its functions handed over to No. 86 Wing 's Hercules squadrons . = = History = = No. 486 ( Maintenance ) Squadron was established at RAAF Station Schofields , New South Wales , on 26 August 1946 . Commanded by Wing Command</t>
+          <t>Tintin and the Picaros = Tintin and the Picaros ( French : Tintin et les Picaros ) is the twenty-third volume of The Adventures of Tintin , the comics series by Belgian cartoonist Hergé . The final instalment in the series to be completed by Hergé , in Belgium it was serialized in Tintin magazine from September 1975 to January 1976 before being published in a collected volume by Casterman in 1976 . The narrative follows the young reporter Tintin , his dog Snowy and his friends Captain Haddock and Professor Calculus as they travel to the ( fictional ) South American nation of San Theodoros to rescue their friend Bianca Castafiore , who has been imprisoned by the government of General Tapioca . Once there , they become involved in the anti-government revolutionary activities of Tintin 's old friend General Alcazar . Hergé began work on Tintin and the Picaros eight years after completing the previous volume in the series , Flight 714 , creating it with the aid of his team of artists at St</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>No. 2 Elementary Flying Training School RAAF = No. 2 Elementary Flying Training School ( No. 2 EFTS ) was a Royal Australian Air Force ( RAAF ) pilot training unit that operated during World War II . It was one of twelve elementary flying training schools employed by the RAAF to provide introductory flight instruction to new pilots as part of Australia 's contribution to the Empire Air Training Scheme . No. 2 EFTS was established in November 1939 as No. 3 Flying Training School at Archerfield , Queensland , and partially utilised aircraft and facilities of the civilian air training organisations based there . The school was renamed No. 2 EFTS in January 1940 . It was disbanded in March 1942 , and its operations transferred to No. 5 Elementary Flying School at Narromine , New South Wales , and No. 11 Elementary Flying School at Benalla , Victoria . = = History = = Flying instruction in the Royal Australian Air Force ( RAAF ) underwent major changes following the outbreak of World War II</t>
+          <t>Azumanga Daioh = Azumanga Daioh ( Japanese : あずまんが大王 , Hepburn : Azumanga Daiō , lit . " Great King Azumanga " ) is a Japanese yonkoma comedy manga series written and illustrated by Kiyohiko Azuma , which was serialized in MediaWorks ' Dengeki Daioh magazine between 1999 and 2002 . Three additional chapters were published in Shogakukan 's Monthly Shōnen Sunday in May 2009 to celebrate the manga 's tenth anniversary . The manga was first released in English by ADV Manga , and was later re-issued by Yen Press . A television anime adaptation titled Azumanga Daioh : the Animation was produced by J.C.Staff and aired in Japan between April and September 2002 , consisting of 130 five-minute segments compiled into 26 episodes . The compiled episodes were released on DVD and Universal Media Discs ( UMDs ) by Starchild Records , and an English-language version was produced by ADV Films . Prior to the series , a theatrical short and an original net animation were also produced . Several soundtrac</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>No. 1 Basic Flying Training School RAAF = No. 1 Basic Flying Training School ( No. 1 BFTS ) was a flying training school of the Royal Australian Air Force ( RAAF ) . Along with No. 1 Initial Flying Training School ( No. 1 IFTS ) , it was formed in response to increased demand for aircrew during the Korean War and Malayan Emergency . No. 1 BFTS was established in December 1951 at RAAF Base Uranquinty , New South Wales , where it operated de Havilland Tiger Moths and CAC Wirraways . The school absorbed the activities of No. 1 IFTS in January 1955 , as aircrew training requirements had ased following the end of the Korean War . No. 1 BFTS moved to RAAF Base Point Cook , Victoria , in May 1958 , by which time it was exclusively flying CAC Winjeels . Its training program expanded in the mid-1960s owing to Australia 's commitments in the Vietnam War . No. 1 BFTS was re-formed as No. 1 Flying Training School at Point Cook in January 1969 . = = History = = Prior to World War II , all pilot tra</t>
+          <t>Arisa ( manga ) = Arisa ( Japanese : アリサ ) is a Japanese mystery shōjo ( targeted towards girls ) manga series written and illustrated by Natsumi Ando . It appeared as a serial in the monthly manga magazine Nakayoshi from the February 2009 issue to the September 2012 issue . Kodansha published the chapters in twelve bound volumes , from April 2009 to September 2012 . Set in present-day Japan , it focuses on teenager Tsubasa Uehara , as she investigates the mystery surrounding her twin sister 's failed suicide attempt . With her sister left comatose , Tsubasa poses as her in the hopes of uncovering the identity of the King , a person who grants wishes to Arisa 's class , often resulting in violence . Del Rey licensed the series for an English-language translation in North America . It published the first volume in October 2010 , and shortly afterward , Kodansha Comics USA took over publishing , with the final volume published in January 2014 . The series was positively received by Engli</t>
         </is>
       </c>
     </row>
@@ -1351,32 +1351,32 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>took second played runs team tour england australia playing class run came score match taking day scored batsman bat series cricket ended victory won play somerset seven win bowling career total highest bowler season batsmen unbeaten despite india dismissed average cricketer captain wicket bowled opening debut final miller partnership balls reached harvey duck overs having draw test boycott south_africa west_indies best scoring leg international tests scores hit australian players ashes saw leading centuries yorkshire new_zealand half maiden captained tourists fourth fell went ball touring barnes making lost drawn century returned successful keeper hosts reply south_australia victoria trinidad minutes spin club</t>
+          <t>['lap', 'race', 'drivers', 'laps', 'pit', 'car', 'driver', 'ferrari', 'qualifying', 'prix', 'session', 'fastest', 'ahead', 'caution', 'hamilton']</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Irfan Pathan = Irfan Khan Pathan ( pronunciation ; born 27 October 1984 ) is an Indian cricketer who made his debut for India in the 2003 / 04 Border-Gavaskar Trophy , and was a core member of the national team until a decline in form set in during 2006 , forcing him out of the team . Since then , he has been in and out of the limited-overs teams ( ODIs and T20Is ) , and has only sporadic appearances in Test cricket . Pathan played his last Test in April , 2008 at the age of 24 . Beginning his career as a fast-medium swing and seam bowler , Pathan broke into the national team soon after turning 19 , and evoked comparisons with Pakistan 's Wasim Akram with his promising performances and prodigious swing . He cemented his position in the team and was named by the International Cricket Council as the 2004 Emerging Player of the Year . Pathan was instrumental in India 's One-day international and Test series wins in Pakistan in 2004 . He was described by the media as the " blue-eyed boy " </t>
+          <t xml:space="preserve">Love &amp; Monsters = " Love &amp; Monsters " is the tenth episode of the second series of the British science fiction television series Doctor Who , first broadcast on BBC One on 17 June 2006 . It was written by executive producer and lead writer Russell T Davies and directed by Dan Zeff . The series typically follows alien time traveller the Doctor ( in his tenth incarnation , played by David Tennant ) and his companion ( s ) ( at this time Rose Tyler , played by Billie Piper ) , who travel around time and space in a machine called the TARDIS . However , " Love &amp; Monsters " follows a contemporary ordinary man named Elton Pope ( Marc Warren ) who becomes obsessed with a man called the Doctor and his strange blue box , and joins a group of like-minded people in hopes of finding him . But when the mysterious Victor Kennedy ( Peter Kay ) joins the group , the fun stops and Elton discovers a darker side to his interests . Kennedy ultimately turns out to be a creature called the Abzorbaloff . Due </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Australian cricket team in England in 1948 = The Australian cricket team in England in 1948 was captained by Don Bradman , who was making his fourth and final tour of England . The team is famous for being the first Test match side to play an entire tour of England without losing a match . This feat earned them the nickname of The Invincibles , and they are regarded as one of the greatest cricket teams of all time . According to the Australian federal government the team " is one of Australia 's most cherished sporting legends " . Including five Test matches , Australia played a total of 31 first-class fixtures , plus three other games , two of the non-first-class matches being played in Scotland . They had a busy schedule , with 112 days of play scheduled in 144 days , meaning that they often played every day of the week except Sunday . Their record in the first-class games was 23 won and 8 drawn ; in all matches , they won 25 and drew 9 ; many of the victories were by large margins .</t>
+          <t>Hee Seo = Hee Seo ( Hangul : 서희 ; hanja : 徐姬 ; born 13 March 1986 ) is a South Korean principal dancer for American Ballet Theatre ( ABT ) , one of the three leading classical ballet companies in the United States . She became the company 's first Korean ballerina to be promoted to principal dancer in ABT 's 75-year history and is one of only three principal dancers in the company who have worked their way up the ranks from the American Ballet Theatre Studio Company . She is also one of the youngest dancers in ABT history to be promoted to principal at the age of twenty-six . The New York Times has described her style and dancing to " exude an unhurried purity that sums up all that is lovely about ballet " and by Vogue as " unspeakably lissome " . Several critics have noted her style as " lyrical and open " and she has been critically acclaimed for her " humility " and " unique feminine strength " . Seo began training in Russian ballet at the age of twelve ; a relatively late start for</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Neil Harvey = Robert Neil Harvey MBE ( born 8 October 1928 ) is a former Australian cricketer who represented the Australian cricket team between 1948 and 1963 , playing in 79 Test matches . He was the vice-captain of the team from 1957 until his retirement . An attacking left-handed batsman , sharp fielder and occasional off-spin bowler , Harvey was the senior batsman in the Australian team for much of the 1950s and was regarded by Wisden as the finest fielder of his era . Upon his retirement , Harvey was the second-most prolific Test run-scorer and century-maker for Australia . One of six cricketing brothers , four of whom represented Victoria , Harvey followed his elder brother Merv into Test cricket and made his debut in January 1948 , aged 19 and three months . In his second match , he became the youngest Australian to score a Test century , a record that still stands . Harvey was the youngest member of the 1948 Invincibles of Don Bradman to tour England , regarded as one of the f</t>
+          <t>The Getaway ( Dexter ) = " The Getaway " is the fourth season finale of the American television drama series Dexter , and the 48th overall episode of the series . It originally aired on Showtime on December 13 , 2009 . In the episode , Dexter goes to great lengths to stop Arthur , who now knows Dexter 's true identity . Meanwhile , Debra learns the truth about Dexter 's mother , the homicide division closes in on the Trinity Killer , and Rita reaffirms her support for Dexter , even as she acknowledges his hidden demons . The teleplay was written by Wendy West and Melissa Rosenberg , based on a story by Rosenberg and Scott Reynolds . Directed by Steve Shill , " The Getaway " marked the conclusion of the Trinity Killer plotline , as well as the final regular appearance of guest star John Lithgow , who portrayed Arthur Mitchell . The episode also included the death of Rita Morgan , Dexter 's wife , who had been portrayed by Julie Benz , a regular cast member since the beginning of the ser</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Bob Willis = Robert George Dylan Willis MBE ( born Robert George Willis on 30 May 1949 ) , known as Bob Willis , is an English former cricketer who played for Surrey , Warwickshire , Northern Transvaal and England . A right-handed and aggressive fast bowler with a notably long run-up , Willis spearheaded several England bowling attacks between 1971 and 1984 , across 90 Test matches in which he took 325 wickets at 25.20 runs per wicket , at the time second only to Dennis Lillee . He is currently England 's fourth leading wicket taker , behind James Anderson , Ian Botham , and Stuart Broad . Willis took 899 first-class wickets overall , although from 1975 onwards he bowled with constant pain , having had surgery on both knees . He nevertheless continued to find success , taking a Test career best eight wickets for 43 runs in the 1981 Ashes series against Australia , one of the all-time best Test bowling performances . He was Wisden Cricketer of the Year for 1978 . In addition to the Test</t>
+          <t>Magic Alex = Yanni ( later John ) Alexis Mardas ( Greek : Αλέξης Μάρδας ; born May 5 , 1942 ) is better known as Magic Alex , the nickname given to him by The Beatles when he was involved with the group between 1965 and 1969 , including being head of Apple Electronics . Mardas arrived in England in 1965 , exhibiting his Kinetic Light Sculptures at the Indica Gallery . He impressed John Lennon with the Nothing Box ; a small plastic box with randomly blinking lights , and allegedly said that he could build a 72-track tape machine . Mardas was then given the job of designing the new Apple Studio in Savile Row , and was in India with The Beatles at the Maharishi Mahesh Yogi 's ashram in India . In the 1970s , the anti-terrorism industry offered bullet-proof vehicles , bugging devices and security hardware , so Mardas set up various companies offering these products to royalty and VIPs . King Hussein of Jordan bought a fleet of cars that Mardas had customised . In 1987 , Mardas was a managi</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Leah Poulton = Leah Joy Poulton ( born 27 February 1984 ) is a female Australian cricketer who plays for New South Wales and Australia . She is a specialist batsman who usually opens the batting . Poulton came to prominence in youth cricket by captaining New South Wales to the Under-17 national championships in 2000 . In 2002 – 03 , she made her senior debut for New South Wales in the Women 's National Cricket League ( WNCL ) . She found runs hard to come by in her first three seasons and was in and out of the team frequently , aggregating only 24 runs in her second and third seasons combined . Despite this , she regularly captained Australia 's Under-19 and Under-23 teams during this time , leading the latter on a successful tour of Sri Lanka in 2004 . In 2005 – 06 , made a substantial impact on the WNCL for the first time , scoring 325 runs , more than twice her previous best season 's total , playing in the first of five consecutive WNCL triumphs for New South Wales . Poulton was re</t>
+          <t>Cindy McCain = Cindy Lou Hensley McCain ( born May 20 , 1954 ) is an American businesswoman , philanthropist , and humanitarian , and the wife of United States Senator and 2008 Republican presidential nominee John McCain of Arizona . She was born and raised in Phoenix , Arizona , as the daughter of wealthy beer distributor Jim Hensley . After receiving bachelor 's and master 's degrees from the University of Southern California , she became a special education teacher . She married John McCain in 1980 and they had three children together , in addition to adopting another . From 1988 to 1995 , she founded and operated a nonprofit organization , the American Voluntary Medical Team , which organized trips by medical personnel to disaster-stricken or war-torn third-world areas . During this time , she became addicted to painkillers for several years and resorted to having a physician write illegal prescriptions on her behalf . She reached an agreement with the government in which no charge</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>highway north road east route lane south intersection west continues interchange designated completed state passes divided southern freeway portion access turns street northern crosses extended terminus heads northeast past intersects near eastern crossing bus designation lanes segment residential follow exit enters downtown alignment meets comes begins passing concurrent entire business heading follows section southeast end cross concurrency southbound avenue northwest border rural northbound roadway rerouted town continuing bypass highways cloverleaf mile undivided traffic concurrently areas intersections routes constructed routing baltimore old western eastbound commercial delaware splits ends corridor existing widened roads interstate maryland ramp description remainder expressway construction junction expanded</t>
+          <t>['yard', 'yards', 'touchdown', 'tech', 'alabama', 'bowl', 'quarter', 'michigan', 'offense', 'football', 'pass', 'rushing', 'quarterback', 'conference', 'touchdowns']</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Business routes of Interstate 94 in Michigan = There are currently eight business routes of Interstate 94 ( I-94 ) in the US state of Michigan . These business routes connect I-94 to the downtown business districts of neighboring cities . These eight routes are all business loops which bear the Business Loop I-94 ( BL I-94 ) designation . These loops are former routings of I-94 's two predecessors in Michigan : US Highway 12 ( US 12 ) or US 25 . The westernmost BL I-94 runs through the twin cities of Benton Harbor and St. Joseph along the former routing of US 12 and US 31 / US 33 that now includes a section of the Lake Michigan Circle Tour in the state . The loops in Kalamazoo , Battle Creek , Marshall , Albion , and Jackson were also formerly segments of US 12 which were later designated as separate version of Business US Highway 12 ( Bus . US 12 ) through their respective cities before becoming BL I-94s in 1960 . The route of the business loop through Ann Arbor was previously US 12 a</t>
+          <t>The Spanish Teacher = " The Spanish Teacher " is the twelfth episode of the third season of the American musical television series Glee , and the fifty-sixth overall . Written by co-creator Ian Brennan and directed by Paris Barclay , the episode aired on Fox in the United States on February 7 , 2012 . It features special guest star Ricky Martin as a night-school Spanish teacher whom Will Schuester ( Matthew Morrison ) introduces to McKinley High , and shows several of McKinley 's teachers competing for a promotion when a tenured position unexpectedly becomes available . The episode received mixed to positive reviews , and many critics considered Martin to be a highlight . Reaction to the music as a whole was less enthusiastic than for the episode itself , though " La Isla Bonita " and " Don 't Wanna Lose You " were given a generally favorable reception . The former song charted on both the Billboard Hot 100 and the Billboard Canadian Hot 100 ; of the remaining four singles , " Sexy and</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Maryland Route 2 = Maryland Route 2 ( MD 2 ) is the longest state highway in the U.S. state of Maryland . The 79.24-mile ( 127.52 km ) route runs from Solomons Island in Calvert County north to an intersection with U.S. Route 1 ( US 1 ) and US 40 Truck ( North Avenue ) in Baltimore . The route runs concurrent with MD 4 through much of Calvert County along a four-lane divided highway known as Solomons Island Road , passing through rural areas as well as the communities of Lusby , Port Republic , Prince Frederick , and Huntingtown . In Sunderland , MD 2 splits from MD 4 and continues north as two-lane undivided Solomons Island Road into Anne Arundel County , still passing through rural areas . Upon reaching Annapolis , the route runs concurrent with US 50 and US 301 around the city . Between Annapolis and Baltimore , MD 2 runs along the Governor Ritchie Highway ( also known as the Ritchie Highway ) , a multilane divided highway that heads through suburban areas of businesses and residenc</t>
+          <t>The Fire ( The Office ) = " The Fire " is the fourth episode of the second season of the American comedy television series The Office , and the show 's tenth episode overall . Written by B. J. Novak and directed by Ken Kwapis , the episode first aired in the United States on October 11 , 2005 on NBC . The episode features Amy Adams as Jim 's girlfriend , Katy . The series depicts the everyday lives of office employees in the Scranton , Pennsylvania branch of the fictional Dunder Mifflin Paper Company . In the episode , Michael Scott ( Steve Carell ) takes it upon himself to teach Ryan Howard ( B.J. Novak ) about business , but soon everyone is forced to evacuate the office due to a fire . While outside , Michael continues to show an interest in Ryan , causing Dwight Schrute ( Rainn Wilson ) to be jealous . Meanwhile , Jim Halpert ( John Krasinski ) organizes games to play outside . According to B. J. Novak , the episode was " a fun one to film " . Although the cast and crew appear to b</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Maryland Route 32 = Maryland Route 32 ( MD 32 ) is a state highway in the U.S. state of Maryland . The road runs 51.79 miles ( 83.35 km ) from Interstate 97 ( I-97 ) and MD 3 in Millersville west and north to Washington Road in Westminster . The east – west portion of MD 32 is the Patuxent Freeway , a four- to six-lane freeway between I-97 and MD 108 in Clarksville . The freeway passes through Odenton and Fort Meade , the site of Fort George G. Meade and the National Security Agency ( NSA ) , in western Anne Arundel County and along the southern part of Columbia in Howard County . Via I-97 , MD 32 connects those communities with U.S. Route 50 and US 301 in Annapolis . The state highway also intersects the four primary highways connecting Baltimore and Washington : the Baltimore – Washington Parkway , US 1 , I-95 , and US 29 . MD 32 's north – south section , Sykesville Road , connects Clarksville and Westminster by way of Sykesville and Eldersburg in southern Carroll County . MD 32 was</t>
+          <t>Craigflower Manor and Schoolhouse = The Craigflower Manor and Craigflower Schoolhouse are National Historic Sites of Canada located in View Royal , British Columbia ( the Manor ) and Saanich ( the Schoolhouse ) near Victoria . The centerpiece of each historic site is a 19th-century building — a manor and schoolhouse commissioned by the Hudson 's Bay Company to provide education and lodging for their employees . Built as part of the agricultural community Craigflower Farm , the buildings served as a focal point for the community into the modern era ; they remain open to the public today as museums devoted to the colonial history of Victoria . The sites also have unique archaeological merit , encompassing three distinct periods , and types , of human habitation which span thousands of years . In addition , the existing structures have great historical and cultural value , remaining some of the best , and last , examples of their kind in Canada . These factors combine to make these two si</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Business routes of Interstate 75 in Michigan = There have been nine business routes for Interstate 75 in the US state of Michigan . Numbered either Business Loop Interstate 75 ( BL I-75 ) or Business Spur Interstate 75 ( BS I-75 ) depending if they are a full business loop or a business spur , these highways are former routings of I-75 's predecessor highways in the state . They were designated as I-75 was completed through the various areas of Michigan . The business loop in Pontiac runs through that city 's downtown along a section of Woodward Avenue and a segment of roadway formerly used by M-24 . The former Saginaw business loop was once a part of US Highway 23 ( US 23 ) , as was most of the original Bay City business loop . The roadways that make up the business loops in West Branch and Roscommon were previously part of M-76 , I-75 's predecessor through that part of the state . In Northern Michigan , the Grayling and Gaylord BL I-75s were part of US 27 , and the two business rout</t>
+          <t xml:space="preserve">Roy Riegels = Roy " Wrong Way " Riegels ( April 4 , 1908 – March 26 , 1993 ) played for the University of California , Berkeley football team from 1927 to 1929 . His wrong-way run in the 1929 Rose Bowl is often cited as the worst blunder in the history of college football . That one play overshadowed Riegels ' football talents , since he earned first team All-America honors and served as team captain for the Bears in 1929 . Riegels ' notability has been shared by motivational speakers who use his life as an example of overcoming setbacks . = = Background = = The 1920s saw the first golden age of California football , as the Golden Bears went 50 straight games without a defeat from 1920 to 1925 , with a record of 46 wins and 4 ties . As of 2010 , this is the 3rd longest unbeaten ( not to be confused with winning ) streak in NCAA history . The 1920 – 1924 squads were so dominant that they were nicknamed " The Wonder Teams , " and were coached by Andy Smith . One of the stars during this </t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Business routes of U.S. Route 127 in Michigan = There have been 10 business routes of US Highway 127 in the state of Michigan . The business routes are all sections of state trunkline highway that run through the central business districts of their respective towns connecting them to the mainline highway outside of those downtown areas . These various business routes were formerly part of the routing of US Highway 127 ( US 127 ) or its predecessor in Central Michigan , US 27 before the construction of highway bypasses . The southern two , in Jackson and Mason were previously parts of US 127 , while seven of the northern eight ( Lansing , St. Johns , Ithaca , St. Louis , Mount Pleasant , Clare and Harrison ) were originally part of US 27 , a highway which was replaced on its northern end by US 127 in 2002 . The business loop through Alma was once numbered US 27A . In the late 1920s , US 27 was shifted to run through St. Louis instead of Alma , and the former route was renumbered US 27A </t>
+          <t>Apiary Laboratory = The Apiary Laboratory , more often referred to as the Apiary , is a research laboratory at the University of Massachusetts Amherst . Originally built for the study of honey bees and apiculture , today it is primarily used to study native pollinator species and the chemicals and pathogens impacting their populations . This academic building is unique in that it is credited as being the first in the United States to be erected exclusively for the teaching of beekeeping . Prior to the construction of the building , the Massachusetts Agricultural College had maintained a beekeeping program for a number of years as one of the first land-grant agricultural colleges to teach the subject in the United States . In time , techniques in apiculture progressed , leaving beekeeping as no longer simply a hobby , but rather a viable agricultural business . The college 's program had remained limited to a single short-course for a number of years but was expanded however , when in 1</t>
         </is>
       </c>
     </row>
@@ -1421,32 +1421,32 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>game team play season second defense kick led lead week half record end football field named line year touchdowns players total yards ranked score completed fourth point goal drive quarterback big points head coach teams running remaining nfl punt conference defensive rushing halftime receiver player pass interception returned time offense attempt school loss offensive espn win regular quarter victory coaches plays coordinator national tackles alabama recovered tackle touchdown selected bowl linebacker yard tech passing michigan coaching sec turnover following notre dame played wide ncaa gain ball incomplete senior tennessee possession final passes preseason freshman nationally responded intercepted rushed ohio_state history</t>
+          <t>['wine', 'chicken', 'cheese', 'bacon', 'recipes', 'sandwich', 'fried', 'dish', 'dishes', 'cuisine', 'ingredients', 'cooking', 'beef', 'food', 'product']</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve">1997 Michigan Wolverines football team = The 1997 Michigan Wolverines football team represented the University of Michigan in the 1997 NCAA Division I-A football season . In its third year under head coach Lloyd Carr , Michigan compiled a perfect 12 – 0 record , won the Big Ten Conference championship , defeated Washington State in the 1998 Rose Bowl , and was declared the national champion by the Associated Press and numerous other polls . The Nebraska Cornhuskers , who also went undefeated and beat Tennessee in the Orange Bowl , captured the top spot in the final Coaches ' Poll . Michigan 's defense was led by cornerback and Heisman Trophy-winner Charles Woodson . Woodson , who intercepted eight passes and also scored touchdowns via pass receptions , runs from scrimmage and punt return , became the first primarily defensive player to win the Heisman . Woodson and defensive end Glen Steele were both first-team selections on the 1997 College Football All-America Team . Other standouts </t>
+          <t>Christian views on alcohol = Christian views on wine and alcohol are varied . Christians used " the fruit of the vine " in their central rite — the Eucharist or Lord 's Supper . Some Christian laymen ( e.g. Monica Of Hippo ) kept a strict rule of total abstinence , and the contrasting types of wine were distinguished : " not that wine which produces drunkenness , plots against the senses , and destroys the body , but such as gladdens the heart . " ( See Early Church section . ) Some consumed alcoholic beverages as a common part of everyday life . The latter held that alcohol is a gift from God that makes life more joyous , but that over-indulgence leading to drunkenness is sinful or at least a vice . The Bible indicates wine as a symbol of joy while " strong drink " is a euphemism for drunkenness . In the mid-19th century , some Protestant Christians moved from a position of allowing moderate use of alcohol ( sometimes called moderationism ) to either deciding that not imbibing was wis</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2012 Alabama Crimson Tide football team = The 2012 Alabama Crimson Tide football team ( variously " Alabama " , " UA " , " Bama " or " The Tide " ) represented the University of Alabama in the 2012 National Collegiate Athletic Association ( NCAA ) Division I Football Bowl Subdivision ( FBS ) football season . It marked the Crimson Tide 's 118th overall season of playing college football , 79th as a member of the Southeastern Conference ( SEC ) and 21st within the SEC Western Division . The team was led by head coach Nick Saban , in his sixth year , and played its home games at Bryant – Denny Stadium in Tuscaloosa , Alabama . They finished the season with a record of 13 wins and 1 loss ( 13 – 1 overall , 7 – 1 in the SEC ) , as SEC champions and as consensus national champions after they defeated Notre Dame in the Bowl Championship Series ( BCS ) National Championship Game . After they captured the 2011 national championship , the Crimson Tide signed a highly rated recruiting class in F</t>
+          <t>Avocado cake = Avocado cake is a cake prepared using avocado as a primary ingredient , together with other typical cake ingredients . The avocados may be mashed , and may be used as an ingredient in cake batter , in cake toppings and alone atop a cake . Cake variations include raw avocado cake , avocado brownies and avocado cheesecake . Raw , uncooked versions of avocado cake can be high in vitamin E and essential fatty acids , which are derived from avocado . Avocado-based cake toppings include avocado fool and avocado crazy . = = Overview = = Avocado is a main ingredient in avocado cake , along with other typical cake ingredients . Various varieties of avocados may be used . Avocado cake may have a subtle avocado flavor imbued in the dish . Mashed avocado may be used as an ingredient in the batter and in cake frostings and toppings . Sliced avocado may be used to top or garnish it , as may other ingredients such as the zest of citrus fruits . Additional ingredients used may include y</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2013 Alabama Crimson Tide football team = The 2013 Alabama Crimson Tide football team ( variously " Alabama " , " UA " , " Bama " or " The Tide " ) represented the University of Alabama in the 2013 NCAA Division I FBS football season . It was the Crimson Tide 's 119th overall season , 80th as a member of the Southeastern Conference ( SEC ) and its 22nd within the SEC Western Division . The team was led by head coach Nick Saban , in his seventh year , and played its home games at Bryant – Denny Stadium in Tuscaloosa , Alabama . They finished the season with a record of eleven wins and two losses ( 11 – 2 overall , 7 – 1 in the SEC ) and with a loss in the 2014 Sugar Bowl to Oklahoma . After they captured the 2012 national championship , the Crimson Tide signed a highly rated recruiting class in February 2013 and completed spring practice the following April . With thirteen returning starters from the previous season , Alabama entered the 2013 season as the two-time defending national ch</t>
+          <t xml:space="preserve">The Compleat Housewife = The Compleat Housewife , or , Accomplish 'd Gentlewoman 's Companion is a cookery book written by Eliza Smith and first published in London in 1727 . It became extremely popular , running through 18 editions in fifty years . It was the first cookery book to be published in the Thirteen Colonies of America : it was printed in Williamsburg , Virginia , in 1742 . It contained the first published recipe for " katchup " , and appears to be the earliest source for bread and butter pudding . The book includes recipes not only for foods but for wines , cordial-waters , medicines and salves . = = Book = = The title page describes The Compleat Housewife as a collection of several hundred of the most approved receipts , in cookery , pastry , confectionery , preserving , pickles , cakes , creams , jellies , made wines , cordials . And also bills of fare for every month of the year . To which is added , a collection of nearly two hundred family receipts of medicines ; viz. </t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t xml:space="preserve">2009 Alabama Crimson Tide football team = The 2009 Alabama Crimson Tide football team ( variously " Alabama " , " UA " , " Bama " or " The Tide " ) represented the University of Alabama in the 2009 NCAA Division I FBS football season . It was the Crimson Tide 's 115th overall season , 76th season as a member of the Southeastern Conference ( SEC ) and its 18th within the SEC Western Division . The team was led by head coach Nick Saban , in his third year , and played their home games at Bryant – Denny Stadium in Tuscaloosa , Alabama . They finished the season undefeated with a record of 14 – 0 ( 8 – 0 in the SEC ) and as national champions . Looking to build on the successes of the 2008 campaign , Alabama entered the 2009 season as the favorite to win the Western Division and meet the Florida Gators in the 2009 SEC Championship Game . Alabama closed the regular season with a 12 – 0 record including four wins against Top 25-ranked teams — and met the Gators for the SEC Championship in a </t>
+          <t xml:space="preserve">Ya Kun Kaya Toast = Ya Kun Kaya Toast ( Simplified Chinese : 亚坤加椰面包 ) is a Singaporean chain of mass-market , retro-ambience cafes selling toast products ( notably kaya toast ) , soft-boiled eggs and coffee . Founded by Loi Ah Koon in 1944 , Ya Kun remained a small family-run stall for decades , but have expanded rapidly since Loi 's youngest son headed the business in 1999 . They have over fifty outlets , mostly franchised , across six countries , and are a Singaporean cultural icon , known for their traditional brand identity and conservative , people-centric corporate culture . = = History = = In 1926 , Loi Ah Koon ( 黎亚坤 ) emigrated from Hainan to Singapore , where he worked as a coffee-stall assistant , then started a stall selling coffee , crackers and toast at Telok Ayer Basin , together with two other immigrants , who later dropped out , leaving him to run the stall alone . He married while visiting relatives in Hainan and after his wife settled down with him in Singapore , she </t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t xml:space="preserve">2001 Gator Bowl = The 2001 Gator Bowl was a post-season American college football bowl game between the Virginia Tech Hokies and the Clemson Tigers at Alltel Stadium in Jacksonville , Florida on January 1 , 2001 . The game was the final contest of the 2000 NCAA Division I-A football season for both teams , and ended in a 41 – 20 victory for Virginia Tech . Virginia Tech entered the game headed by star quarterback Michael Vick , who led the Hokies to a 10 – 1 regular-season record despite being injured for a part of the season . Clemson entered the game with a regular-season record of 9 – 2 under the command of head coach Tommy Bowden , who was in the second year of his tenure . The contest featured two high-scoring offenses that emphasized different aspects of the game . These aspects were exemplified in the game , which saw Clemson pass for more yards than Virginia Tech , while the Hokies ran for more yards than the Tigers . Virginia Tech jumped out to an early lead and maintained it </t>
+          <t>Radish = The radish ( Raphanus sativus ) is an edible root vegetable of the Brassicaceae family that was domesticated in Europe in pre-Roman times . Radishes are grown and consumed throughout the world , being mostly eaten raw as a crunchy salad vegetable . They have numerous varieties , varying in size , flavor , color , and length of time they take to mature . Radishes owe their sharp flavor to the various chemical compounds produced by the plants , including glucosinolate , myrosinase , and isothiocyanate . They are sometimes grown as companion plants and suffer from few pests and diseases . They germinate quickly and grow rapidly , smaller varieties being ready for consumption within a month , while larger daikon varieties take several months . Another use of radish is as cover or catch crop in winter or as a forage crop . Some radishes are grown for their seeds ; daikon , for instance , may be grown for oil production . Others are used for sprouting and both roots and leaves are s</t>
         </is>
       </c>
     </row>
@@ -1456,32 +1456,32 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>second place position race track car lead fifth fourth sixth pole passed championship ferrari stop grid qualifying practice points drivers prix williams start finished seventh standings held pit teammate ahead started driver positions session seconds tyre flag tyres grand caution laps leading maintained podium saturday stewart finish nascar racing gearbox spun tenth quickest pitted restart fastest button lap going stops chassis conditions able win grip collided moved problems ninth eighth penalty turn team overtake gap races cars retired retire overtaking followed corner engine failed faster meant overtook time final safety collision sessions finishers set reclaimed lotus chevrolet came failure winner</t>
+          <t>['persian', 'army', 'byzantine', 'athens', 'greeks', 'greece', 'battle', 'alexander', 'greek', 'siege', 'muslim', 'cavalry', 'byzantines', 'arab', 'ottoman']</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2010 Singapore Grand Prix = The 2010 Singapore Grand Prix ( formally the 2010 Formula 1 SingTel Singapore Grand Prix ) was a Formula One motor race held on 26 September 2010 at the Marina Bay Street Circuit , Marina Bay , Singapore . It was the fifteenth race of the 2010 Formula One season , and the third Singapore Grand Prix held as part of the Formula One World Championship . The 61-lap race was won by Ferrari driver Fernando Alonso who started in pole position . Sebastian Vettel finished second for Red Bull , his teammate Mark Webber was third . Alonso held off Vettel to maintain his start line advantage on the first lap . Lewis Hamilton , who started third , fought off teammate Jenson Button to retain his start position . The top two remained the same through the first and only round of pit stops . Webber 's team , Red Bull , opted to pit him early allowing him to move ahead of Hamilton . The race was neutralised by the deployment of the safety car after Kamui Kobayashi and Bruno S</t>
+          <t xml:space="preserve">Battle of Vaslui = The Battle of Vaslui ( also referred to as the Battle of Podul Înalt or the Battle of Racova ) was fought on January 10 , 1475 , between Stephen III of Moldavia and the Ottoman governor of Rumelia , Hadım Suleiman Pasha . The battle took place at Podul Înalt ( the High Bridge ) , near the town of Vaslui , in Moldavia ( now part of eastern Romania ) . The Ottoman troops numbered up to 120,000 , facing about 40,000 Moldavian troops , plus smaller numbers of allied and mercenary troops . Stephen inflicted a decisive defeat on the Ottomans , described as " the greatest ever secured by the Cross against Islam , " with casualties , according to Venetian and Polish records , reaching beyond 40,000 on the Ottoman side . Mara Brankovic ( Mara Hatun ) , the former younger wife of Murad II , told a Venetian envoy that the invasion had been worst ever defeat for the Ottomans . Stephen was later awarded the title " Athleta Christi " ( Champion of Christ ) by Pope Sixtus IV , who </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2010 Korean Grand Prix = The 2010 Korean Grand Prix ( formally the 2010 Formula 1 Korean Grand Prix ) was a Formula One motor race held on 24 October 2010 at the Korea International Circuit in Yeongam , South Jeolla , South Korea . It was the seventeenth round of the 2010 Formula One season and the first Korean Grand Prix . The 55-lap race was won by Ferrari driver Fernando Alonso , who started from third position . Lewis Hamilton finished second for McLaren and Alonso 's teammate Felipe Massa was third . The race began behind the safety car but was stopped after three laps because of a large amount of standing water on the circuit . After a 45-minute delay , the race was restarted and the safety car pulled into the pit lane after thirteen laps . Pole sitter Sebastian Vettel maintained his lead going into the first corner . A second safety car deployment caused by the collision of Mark Webber and Nico Rosberg on lap nineteen closed up the field but Vettel retained the lead . Alonso mai</t>
+          <t>Battle of Krasos = The Battle of Krasos was a battle in the Arab – Byzantine Wars that took place in August 804 , between the Byzantines under Emperor Nikephoros I ( r . 802 – 811 ) and an Abbasid army under Ibrahim ibn Jibril . Nikephoros ' accession in 802 resulted in a resumption of warfare between Byzantium and the Abbasid Caliphate . In late summer 804 , the Abbasids had invaded Byzantine Asia Minor for one of their customary raids , and Nikephoros set out to meet them . He was surprised , however , at Krasos and heavily defeated , barely escaping with his own life . A truce and prisoner exchange were afterwards arranged . Despite his defeat , and a massive Abbasid invasion the next year , Nikephoros persevered until troubles in the eastern provinces of the Caliphate forced the Abbasids to conclude a peace . = = Background = = The deposition of Empress Irene of Athens ( r . 797 – 802 ) , in October 802 , and subsequent accession of Nikephoros I signalled a more violent phase in th</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2001 German Grand Prix = The 2001 German Grand Prix ( formally the LXIII Großer Mobil 1 Preis von Deutschland ) was a Formula One motor race held on 29 July 2001 at the Hockenheimring , Baden-Württemberg , Germany . It was the twelfth round of the 2001 Formula One season and the 63rd German Grand Prix . The 45-lap race was won by Williams driver Ralf Schumacher after starting from the second position . Rubens Barrichello finished second for Ferrari with BAR driver Jacques Villeneuve third . Juan Pablo Montoya started from pole position alongside Ralf Schumacher . Michael Schumacher , the eventual Drivers ' Champion started fourth , behind Mika Häkkinen of McLaren . The race was marked by an airborne accident going into the first corner involving Michael Schumacher and Luciano Burti for Prost , which caused the track to be scattered with shreds of carbon fibre and the race restarted as a result . Both Williams drivers retained their positions at the end of the first lap , with Michael S</t>
+          <t xml:space="preserve">Siege of Tyana = A Siege of Tyana was carried out by the Umayyad Caliphate in 707 – 708 / 708 – 709 in retaliation for a heavy defeat of an Umayyad army under Maimun the Mardaite by the Byzantine Empire in c . 706 . The Arab army invaded Byzantine territory and laid siege to the city in summer 707 or 708 . In fact virtually each of the extant Greek , Arabic and Syriac parallel sources has in this respect a different date . Tyana initially withstood the siege with success , and the Arab army faced great hardship during the ensuing winter . Emperor Justinian II sent a relief army in the next spring , but the Umayyads defeated them , whereupon the inhabitants of the city were forced to surrender . Despite the agreement of terms , the city was plundered and largely destroyed , and according to Byzantine sources its people were made captive and deported , leaving the city deserted . = = Background = = In 692 / 693 , the Byzantine emperor Justinian II ( reigned 685 – 695 and 705 – 711 ) and </t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1995 British Grand Prix = The 1995 British Grand Prix ( formally the XLVIII British Grand Prix ) was a Formula One motor race held on 16 July 1995 at Silverstone Circuit , Silverstone , Northamptonshire , England . It was the eighth round of the 1995 Formula One season . The 61-lap race was won by Johnny Herbert for the Benetton team after he started from fifth position . Jean Alesi finished second in a Ferrari , with David Coulthard third in a Williams car . The remaining points-scoring positions were filled by Olivier Panis ( Ligier ) , Mark Blundell ( McLaren ) and Heinz-Harald Frentzen ( Sauber ) . Herbert 's victory was his first in Formula One , and the Benetton team 's fifth of the season . The race was dominated , however , by the fight between World Drivers ' Championship protagonists , Michael Schumacher ( Benetton ) and Damon Hill ( Williams ) . Hill , who started from a pole position achieved during qualifying sessions held in variable weather conditions , retained his lead</t>
+          <t>Battle of Bathys Ryax = The Battle of Bathys Ryax was fought in 872 or 878 between the Byzantine Empire and the Paulicians . The Paulicians were a Christian sect which — persecuted by the Byzantine state — had established a separate principality at Tephrike on Byzantium 's eastern border and collaborated with the Muslim emirates of the Thughur , the Abbasid Caliphate 's borderlands , against the Empire . The battle was a decisive Byzantine victory , resulting in the rout of the Paulician army and the death of its leader , Chrysocheir . This event destroyed the power of the Paulician state and removed a major threat to Byzantium , heralding the fall of Tephrike itself and the annexation of the Paulician principality shortly after . = = Background = = The Paulicians were a Christian sect whose precise origins and beliefs are somewhat obscure : Byzantine sources portray them as dualists , while Armenian sources maintain that they were an adoptionist sect . The Paulicians were fiercely ico</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2006 Bank of America 500 = The 2006 Bank of America 500 was the 31st stock car race of the 2006 NASCAR Nextel Cup Series and the fifth in the ten-race season-ending Chase for the Nextel Cup . It was held on October 14 , 2006 , before a crowd of 175,000 in Concord , North Carolina , at Lowe 's Motor Speedway , one of ten intermediate tracks to hold NASCAR races . The 334-lap race was won by Kasey Kahne of the Evernham Motorsports team , who started from second position . Jimmie Johnson finished second and Jeff Burton came in third . Although Scott Riggs won the pole position , he was immediately passed by teammate Kahne at the start of the race . Riggs regained the lap twelve laps later , only to lose it to Tony Raines on the 19th lap . Riggs retook the lead on lap 31 and maintained it for the following sixteen laps , until he was passed by Dale Earnhardt , Jr. who led the next 31 laps . Kahne moved back into the first position on lap 96 , with Raines moving back into the lead on the 12</t>
+          <t xml:space="preserve">Battle of Torvioll = The Battle of Torvioll , also known as the Battle of Lower Dibra , was fought on 29 June 1444 on the Plain of Torvioll , in what is modern-day Albania . Skanderbeg was an Ottoman Albanian captain who decided to go back to his native land and take the reins of a new Albanian rebellion . He , along with 300 other Albanians fighting at the Battle of Niš , deserted the Ottoman army to head towards Krujë , which fell quickly through a subversion . He then formed the League of Lezhë , a confederation of Albanian princes united in war against the Ottoman Empire . Murad II , realizing the threat , sent one of his most experienced captains , Ali Pasha , to crush the rebellion with a force of 25,000 men . Skanderbeg expected a reaction so he moved with 15,000 of his own men to defeat Ali Pasha 's army . The two met in the Plain of Torvioll where they camped opposite of each other . The following day , 29 June , Ali came out of his camp and saw that Skanderbeg had positioned </t>
         </is>
       </c>
     </row>
@@ -1491,32 +1491,32 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>episode viewers glee club watched relationship finn rating rachel character tells kurt storyline share demographic television ratings broadcast plot creator aired guest enjoyed reception viewership quinn sue south_park praised vanderwerff storylines gave emma deemed felt think cast received tries nielsen cory_monteith commented kyle liz brittany fun rendition appearance know airing neighbours asks leave reviewers good lea_michele want ign episodes musical said nbc gets going help decides performances attracted scene tina moments houston_chronicle premiere recurring finale canning entertainment_weekly getting job wants previous mash lynch nice funny originally gives comedy cheerleader returns didn james_poniewozik logan perform characters producer reveals friends emotional mike</t>
+          <t>['bach', 'text', 'movements', 'movement', 'soprano', 'gospel', 'jesus', 'hebrew', 'aria', 'alto', 'manuscripts', 'leipzig', 'tenor', 'hymn', 'matthew']</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>I Am Unicorn = " I Am Unicorn " is the second episode of the third season of the American musical television series Glee , and the forty-sixth overall . The episode was written by series co-creator Ryan Murphy , directed by series co-creator Brad Falchuk , and first aired on September 27 , 2011 on Fox in the United States . It features the return of Shelby Corcoran ( Idina Menzel ) to the show to direct a rival glee club at William McKinley High even while New Directions , the current club , is having trouble recruiting members . Shelby also wants Quinn ( Dianna Agron ) and Puck ( Mark Salling ) , the biological parents of her adopted daughter Beth , to be a part of Beth 's life . The director of New Directions , Will Schuester ( Matthew Morrison ) sets up a " booty camp " for the less capable dancers in the club , and auditions for the school musical , West Side Story , begin . The episode received mostly positive reviews , which ranged from okay to fabulous , with approval being give</t>
+          <t>Gottes Zeit ist die allerbeste Zeit , BWV 106 = Gottes Zeit ist die allerbeste Zeit ( God 's time is the very best time ) , BWV 106 , also known as Actus tragicus , is an early sacred cantata composed by Johann Sebastian Bach in Mühlhausen , intended for a funeral . The earliest source for the composition is a copied manuscript dated 1768 , therefore the date of the composition is not certain . Research leads to a funeral of a former mayor of Mühlhausen on 16 September 1708 . The text is a carefully compiled juxtaposition of biblical texts , three quotations from the Old Testament and four from the New Testament , combined with funeral hymns , of which two are sung and one is quoted instrumentally , and some additions by an anonymous author . Bach scored the work for four vocal parts and a small ensemble of Baroque instruments , two recorders , two violas da gamba and continuo . The work is opened by an instrumental Sonatina , followed by through-composed sections which have been assig</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Furt = " Furt " is the eighth episode of the second season of the American musical television series Glee , and the thirtieth episode overall . It was written by series creator Ryan Murphy , directed by Carol Banker , and premiered on Fox in the United States on November 23 , 2010 . The episode features a guest appearance by actress Carol Burnett as a Nazi hunter and mother of cheerleading coach Sue Sylvester ( Jane Lynch ) , who shows up for the first time in years , just in time to attend Sue 's wedding to herself . The long-anticipated wedding of Burt Hummel ( Mike O 'Malley ) and Carole Hudson ( Romy Rosemont ) is also featured , and the bullying storyline reaches a climax that results in Kurt ( Chris Colfer ) transferring from McKinley High to Dalton Academy at the end of the episode . The episode features covers of four songs ; they received generally favorable reviews . Three were featured during the Hummel – Hudson wedding sequence , and the two songs by Bruno Mars , " Marry Yo</t>
+          <t>Was willst du dich betrüben , BWV 107 = Was willst du dich betrüben ( Why would you grieve ) , BWV 107 , is a church cantata by Johann Sebastian Bach . It was composed in Leipzig for the seventh Sunday after Trinity and first performed on 23 July 1724 . The chorale cantata is based on the words of Johann Heermann 's hymn in seven stanzas " Was willst du dich betrüben " ( 1630 ) . Bach structured the cantata , the seventh work in his chorale cantata cycle , in seven movements : two framing choral movements , a recitative and an unusual sequence of four bipartite arias . He scored the work for three vocal soloists , a four-part choir , and a Baroque chamber ensemble of a horn to reinforce the hymn tune in the outer movements , two transverse flutes , two oboes d 'amore , strings and continuo . It is the only known work from his chorale cantata cycle that kept the original words unchanged . = = History and words = = Bach composed the chorale cantata in Leipzig for the Seventh Sunday after</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Props ( Glee ) = " Props " is the twentieth episode of the third season of the American musical television series Glee , and the sixty-fourth overall . Written and directed by Ian Brennan , the episode is the first of two new episodes that aired back-to-back on Fox in the United States on May 15 , 2012 . It features New Directions preparing a new performance routine for the impending Nationals competition , an extended sequence in which Tina ( Jenna Ushkowitz ) has a vision of the glee club having swapped roles , including herself as Rachel , and an appearance by special guest star Whoopi Goldberg as NYADA dean Carmen Tibideaux . The episode received mostly positive reviews overall , though reaction to the musical performances was not as strong . The body-swap sequence was given an enthusiastic reception . The scenes featuring Coach Beiste ( Dot-Marie Jones ) and Puck ( Mark Salling ) were also much praised , and in particular the pair 's acting was highlighted . Their performance of t</t>
+          <t>Die Himmel erzählen die Ehre Gottes , BWV 76 = Die Himmel erzählen die Ehre Gottes ( English : The heavens are telling the glory of God ) , BWV 76 , is a cantata by Johann Sebastian Bach . He composed the church cantata in Leipzig for the second Sunday after Trinity within the liturgical year and first performed it on 6 June 1723 . Bach composed the cantata at a decisive turning point in his career . Moving from posts in the service of churches and courts to the town of Leipzig on the first Sunday after Trinity , 30 May 1723 , he began the project of composing a new cantata for every occasion of the liturgical year . He began his first annual cycle of cantatas ambitiously with Die Elenden sollen essen , BWV 75 , in an unusual layout of 14 movements in two symmetrical parts , to be performed before and after the sermon . Die Himmel erzählen die Ehre Gottes has the same structure . The unknown poet begins his text with a quotation from Psalm 19 and refers to both prescribed readings from</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Audition ( Glee ) = " Audition " is the second season premiere and twenty-third episode overall of the American television series Glee . The episode was written by Ian Brennan , directed by Brad Falchuk , and premiered on the Fox network on September 21 , 2010 . In " Audition " , the glee club members attempt to attract new recruits , including foreign exchange student Sunshine Corazon ( Charice ) and transfer student Sam Evans ( Chord Overstreet ) . A new football coach , Shannon Beiste ( Dot-Marie Jones ) , arrives at McKinley High , and school blogger Jacob Ben Israel ( Josh Sussman ) provides updates on the glee club 's summer break . The episode features eight musical and dance performances , five of which were released as singles , available for download . Musical performances attracted mixed reviews from critics . Lea Michele 's rendition of " What I Did for Love " from A Chorus Line was described by Robert Bianco of USA Today as putting " every amateur musical performance on ev</t>
+          <t>Outrageous Betrayal = Outrageous Betrayal : The Dark Journey of Werner Erhard from est to Exile is a non-fiction book written by freelance journalist Steven Pressman and first published in 1993 by St. Martin 's Press . The book gives an account of Werner H. Erhard 's early life as Jack Rosenberg , his exploration of various forms of self-improvement techniques , and his foundation of Erhard Seminars Training " est " and later of Werner Erhard and Associates and of the Est successor course , " The Forum " . Pressman details the rapid financial success Erhard had with these companies , as well as controversies relating to litigation involving former participants in his courses . The work concludes by going over the impact of a March 3 , 1991 60 Minutes broadcast on CBS where members of Erhard 's family made allegations against him , and Erhard 's decision to leave the United States . Representatives of Werner Erhard and of Landmark Education , the successor company to The Forum , regarde</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Substitute ( Glee ) = " The Substitute " is the seventh episode of the second season of the American television series Glee , and the twenty-ninth episode overall . It was written by Ian Brennan , directed by Ryan Murphy , and premiered on Fox on November 16 , 2010 . The episode guest stars Gwyneth Paltrow as Holly Holliday , a substitute teacher who takes the place of glee club director Will Schuester ( Matthew Morrison ) while he is ill . Cheerleading coach Sue Sylvester ( Jane Lynch ) becomes principal of William McKinley High School , and glee club members Mercedes Jones ( Amber Riley ) and Kurt Hummel ( Chris Colfer ) experience tension in their friendship . The episode features cover versions of six songs , which received mixed reviews from critics . While the Glee cover of Cee Lo Green 's " Forget You " and mash-up of " Singin ' in the Rain " with Rihanna 's " Umbrella " attracted critical praise and charted both on the Billboard Hot 100 and internationally , the episode 's </t>
+          <t>Threni ( Stravinsky ) = Threni : id est Lamentationes Jeremiae Prophetae , usually referred to simply as Threni , is a musical setting by Igor Stravinsky of verses from the Book of Lamentations in the Latin of the Vulgate , for solo singers , chorus and orchestra . It is important among Stravinsky 's compositions as his first and longest completely dodecaphonic work , but is not often performed . It has been described as " austere " but also as a " culminating point " in his career as an artist , " important both spiritually and stylistically " and " the most ambitious and structurally the most complex " of all his religious compositions , and even " among Stravinsky 's greatest works " . Stravinsky composed Threni in 1957 – 1958 for the Venice Biennale , and it was first performed there in September 1958 . A performance in Paris two months later was a disaster , attributed to inadequate performers and insufficient rehearsals . It led to mutual recriminations between Stravinsky , Pierr</t>
         </is>
       </c>
     </row>
@@ -1526,32 +1526,32 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>time year world won games record team years title season final second player win best set open game played career players defeated singles round lost gold sets tournament medal murray said events july olympic history later olympics championships april winning play including reached seed summer march times major following met chess series nba semifinals tournaments tennis august straight november chamberlain event american finals men titles place championship semifinal february june january records doubles slam received silver medals points playing match champion beat bolt high meter fischer masters fight losing clay madrid french relay defeating despite ranked began end freestyle reach</t>
+          <t>['coaster', 'ride', 'roller', 'riders', 'train', 'coasters', 'flags', 'park', 'lift', 'cedar', 'drop', 'brake', 'trains', 'steel', 'hill']</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Big Four ( tennis ) = In tennis , the term Big Four refers to the quartet of men 's singles players Roger Federer , Rafael Nadal , Novak Djokovic , and Andy Murray . They reigned as the four best players in the world every season from 2008 – 2016 . These players were considered dominant in terms of ranking and tournament victories , including Grand Slam tournaments and ATP Masters 1000 events , as well as the ATP World Tour Finals and Olympic Games . Federer was the first to come to prominence after winning Wimbledon in 2003 and established himself as the world No. 1 by the beginning of 2004 . Nadal followed in 2005 after a French Open triumph including a win over Federer , and they occupied the top two places in the ATP rankings for 211 consecutive weeks from July 2005 to August 2009 . Djokovic , from 2007 , and later Murray , from 2009 , increasingly challenged Federer 's and Nadal 's dominance with seasonal consistency : Djokovic captured three of the four major tournaments in 2011 </t>
+          <t>BuzzSaw ( roller coaster ) = BuzzSaw is a Maurer Söhne SkyLoop roller coaster located within the Town of Gold Rush section of the Dreamworld amusement park on the Gold Coast of Australia . The ride began operation on 17 September 2011 as part of Dreamworld 's 30th birthday celebrations . BuzzSaw is one of Dreamworld 's " Big 9 " thrill rides and has a track length of 150 metres ( 490 ft ) . The steel ride consists of a single train which holds 12 riders and lasts approximately 50 seconds . BuzzSaw features the tallest inversion in the Southern Hemisphere and is currently the second-highest inversion of its type in the world . The ride is themed around a series of unexplainable occurrences in the Town of Gold Rush which date back to the late 1800s . The setting is based on encounters with the ghost of one Jack Darke , who was killed by a buzz saw at a sawmill built after the gold rush ended . = = History = = In December 2009 , a Gold Coast Bulletin report detailed a variety of new attra</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Andy Murray = Andrew Barron " Andy " Murray , OBE ( born 15 May 1987 ) is a Scottish professional tennis player currently ranked world No. 2 in singles . Murray represents Great Britain in his sporting activities and is a three-time Grand Slam tournament winner , Olympic champion and Davis Cup champion . His elder brother is former world No. 1 doubles player Jamie Murray . Murray has reached at least the quarterfinals of all Grand Slam tournaments he has participated in since 2011 , with the exception of the 2015 US Open . He was first ranked as British No. 1 on 27 February 2006 . He achieved a top-10 ranking by the ATP for the first time on 16 April 2007 , and reached a career peak of world No. 2 on 17 August 2009 . Murray is the 2012 Olympic Gold Medalist , having defeated Roger Federer to become the first British singles champion in over 100 years . He won a silver medal in the 2012 mixed doubles with Laura Robson . At the 2012 US Open , Murray became the first British player since </t>
+          <t>York Community Stadium = The York Community Stadium is a proposed multi-purpose stadium in Huntington , York , England . It will be owned by City of York Council , and be shared by York City Football Club and York City Knights Rugby League Football Club . The projected capacity of the all-seater stadium is 8,005 . The move to a new stadium was necessitated by the terms of the loan York City secured from the Football Stadia Improvement Fund to purchase their Bootham Crescent ground . Planning permission for the current design , put forward by Greenwich Leisure Ltd , was granted in March 2015 . Construction is expected to begin in the summer of 2016 , for completion in early 2018 . In addition to the stadium , the site will house a leisure complex and a community hub . = = Background = = York City F.C. ceased ownership of their Bootham Crescent ground in the summer of 1999 , after the club 's real property assets were transferred to a holding company called Bootham Crescent Holdings . Th</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Roger Federer = Roger Federer ( German : [ ˈfeːdərər ] born 8 August 1981 ) is a Swiss professional tennis player who is currently ranked world No. 3 by the Association of Tennis Professionals ( ATP ) . His accomplishments in professional tennis have led to him being regarded by many as the greatest tennis player of all time . Federer turned professional in 1998 and has been continuously ranked in the top 10 since October 2002 . Federer holds several records of the Open Era : holding the world No. 1 position for 302 weeks ( including 237 consecutive weeks ) ; winning 17 Grand Slam singles titles ; reaching each Grand Slam final at least five times ( an all-time record ) ; and reaching the Wimbledon final ten times . He is among the eight men ( and among the five in Open Era ) to capture a career Grand Slam . Federer shares an Open Era record for most titles at Wimbledon with Pete Sampras ( seven ) and at the US Open with Jimmy Connors and Sampras ( five ) . He is the only male player t</t>
+          <t>The Wiggles Pty Ltd = The Wiggles Pty Ltd is the business created by the founders of the Australian children 's music group The Wiggles . The group was protective of their brand , and adopted many of the same business practices as The Cockroaches , the former band of Anthony Field and Jeff Fatt , two of their founding members . They remained as independent as possible , and retained full creative control and ownership of every aspect of their business . As Field stated , The Wiggles Pty Ltd was " not your regular ' corporate culture ' . " The group made decisions by consensus and made business decisions based upon their experience as performers and their knowledge of early childhood education . They did not tour with a large troupe of dancers , cast , and crew until the late 1990s , and had high expectations regarding the behaviour and attitude of everyone associated with the group . They made careful decisions regarding their endorsements of toys and other products , and avoided over-</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Usain Bolt = Usain St. Leo Bolt , OJ , CD ( / ˈjuːseɪn / ; born 21 August 1986 ) , is a Jamaican sprinter . Regarded as the fastest person ever timed , he is the first man to hold both the 100 metres and 200 metres world records since fully automatic time measurements became mandatory in 1977 . Along with his teammates , he also set the world record in the 4 × 100 metres relay . He is the reigning Olympic champion in these three events , and the first man at the modern Olympic Games to win six gold medals in sprinting , and an eleven-time World champion . He was the first in the modern Olympics era to achieve the " double double " of winning 100 m and 200 m titles at consecutive games ( 2008 and 2012 ) , and topped this through the first " double triple " ( including 4 × 100 m relays ) . Although gaining worldwide popularity for a sprint double victory at the Beijing Games , Bolt has had more victories as a 200 m runner . While he had not won any significant 100 m title prior to the 20</t>
+          <t>Pancake machine = A pancake machine is an electrically-powered machine that automatically produces cooked pancakes . It is believed that the earliest known pancake machine was invented in the United States in 1928 . Several types of pancake machines exist that perform in various manners , for both commercial and home use . Some are fully automatic in operation , while others are semi-automatic . Some companies mass-produce pancake machines , and some have been homemade . The Happy Egg Company constructed a novelty pancake machine in 2013 in commemoration of Pancake Day in the United Kingdom . = = History = = In 1928 , a man in Portland , Oregon , invented an electric pancake machine that operated by the process of batter being dropped onto a revolving heated flattop grill from a storage cylinder atop the grill . The grill was heated using electricity . The amount of batter dropped was controlled by using controlled amounts of compressed air , which pushed batter out of the storage cyli</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Svetlana Kuznetsova = Svetlana Aleksandrovna Kuznetsova ( Russian : Светла ́ на Алекса ́ ндровна Кузнецо ́ ва ; IPA : [ svʲɪtˈlanə ɐlʲɪkˈsandrəvnə kʊznʲɪˈtsovə ] ; born 27 June 1985 ) is a Russian professional tennis player . Kuznetsova has appeared in four Grand Slam singles finals , winning two , and has also appeared in seven doubles finals , winning twice . As a doubles player , Kuznetsova has reached the finals of each Grand Slam at least once , winning the Australian Open twice . She has qualified five times for the round-robin stage of the WTA Tour Championships but has never reached the semifinals . Born to an athletic family , Kuznetsova moved at the age of seven to Spain to attend the Sanchez-Casal Academy . In 2001 she first took part on a WTA tournament , the Madrid Open , and a year later won her first WTA title at the Nordea Nordic Light Open in Helsinki , Finland . Her first appearance in a Grand Slam was at the 2002 Australian Open and her first Grand Slam title came at</t>
+          <t>Alisia Dragoon = Alisia Dragoon ( Japanese : アリシアドラグーン , Hepburn : Arishia Doragūn ) is a 1992 platform game developed by Game Arts for the Sega Genesis . The player controls Alisia , a young woman who is on a quest to avenge her father and save the world . She can fire lightning from her hands and summon four faithful beasts to aid her . The game was released outside of Japan by Sega , who packaged the heroine as a rugged gladiator instead of the dainty-looking sorceress she originally was . Due to the lack of publicity for the game internationally , Alisia Dragoon did not make a big impact on the video game market , despite the critical acclaim it received . = = Gameplay = = In Alisia Dragoon , the player controls the female protagonist , Alisia , in her quest to save the world by defeating the evil forces that killed her father . The game consists of eight levels of side-scrolling environments ; Alisia has to jump across gaps and kill the enemies that stand in her way . Each stage i</t>
         </is>
       </c>
     </row>
@@ -1561,32 +1561,32 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>game player mario mega gameplay graphics praised enemies players ign controls gaming sonic arcade console levels development gamespot mode nintendo screen nes adventure features reviewers version games gamepro scrolling developers super boy gamecube multiplayer rare sega ups robot crash graphical bosses items wii gamespy eurogamer reception weapon nintendo_power reviewer difficulty available visuals japan virtual weapons informer lack puzzles metacritic level ported shooter gamers feature collect xbox gamerankings gamesradar handheld north_america enemy puzzle characters allows modes obstacles stages developed criticized sequel creatures gamer abilities predecessor sprites lauded nintendo_entertainment_system hidden ability consoles evil addictive takes playable stating developer online shoot genre cartridge</t>
+          <t>['formula', 'function', 'matrix', 'linear', 'functions', 'space', 'constant', 'defined', 'language', 'filter', 'frequency', 'mass', 'derivative', 'kilogram', 'units']</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Super Mario Land = Super Mario Land is a 1989 side-scrolling platform video game , the first in the Super Mario Land series , developed and published by Nintendo as a launch title for their Game Boy handheld game console . In gameplay similar to that of the 1985 Super Mario Bros. , but resized for the smaller device 's screen , the player advances Mario to the end of 12 levels by moving to the right and jumping across platforms to avoid enemies and pitfalls . Unlike other Mario games , Super Mario Land is set in Sarasaland , a new environment depicted in line art , and Mario pursues Princess Daisy . The game introduces two Gradius-style shooter levels . At Nintendo CEO Hiroshi Yamauchi 's request , Game Boy creator Gunpei Yokoi 's Nintendo R &amp; D1 developed a Mario game to sell the new console . It was the first portable version of Mario and the first to be made without Mario creator and Yokoi protégé Shigeru Miyamoto . Accordingly , the development team shrunk Mario gameplay elements f</t>
+          <t>Mayer – Vietoris sequence = In mathematics , particularly algebraic topology and homology theory , the Mayer – Vietoris sequence is an algebraic tool to help compute algebraic invariants of topological spaces , known as their homology and cohomology groups . The result is due to two Austrian mathematicians , Walther Mayer and Leopold Vietoris . The method consists of splitting a space into subspaces , for which the homology or cohomology groups may be easier to compute . The sequence relates the ( co ) homology groups of the space to the ( co ) homology groups of the subspaces . It is a natural long exact sequence , whose entries are the ( co ) homology groups of the whole space , the direct sum of the ( co ) homology groups of the subspaces , and the ( co ) homology groups of the intersection of the subspaces . The Mayer – Vietoris sequence holds for a variety of cohomology and homology theories , including singular homology and singular cohomology . In general , the sequence holds fo</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Paper Mario = Paper Mario , known in Japanese as Mario Story ( マリオストーリー , Mario Sutōrī ) and originally known as Super Mario RPG 2 , is a role-playing video game developed by Intelligent Systems and published by Nintendo for the Nintendo 64 game console . It was first released in Japan on August 11 , 2000 , in North America on February 5 , 2001 , and in Europe and Australia on October 5 , 2001 . Paper Mario was re-released for Nintendo 's Wii Virtual Console in July 2007 as well as Wii U Virtual Console in 2015 . Paper Mario is set in the Mushroom Kingdom as the protagonist Mario tries to rescue Princess Peach from Bowser , who has imprisoned the seven " Star Spirits " , lifted her castle into the sky and has successfully defeated his foe after stealing the Star Rod from Star Haven and making himself invulnerable to any attacks . To save Mushroom Kingdom , rescue Peach , get the castle back , and defeat Bowser , Mario must locate the Star Spirits , who can negate the effects of the sto</t>
+          <t>Curve-shortening flow = In mathematics , the curve-shortening flow is a process that modifies a smooth curve in the Euclidean plane by moving its points perpendicularly to the curve at a speed proportional to the curvature . The curve-shortening flow is an example of a geometric flow , and is the one-dimensional case of the mean curvature flow . Other names for the same process include the Euclidean shortening flow , geometric heat flow , and arc length evolution . As the points of any smooth simple closed curve move in this way , the curve remains simple and smooth . It loses area at a constant rate , and its perimeter decreases as quickly as possible for any continuous curve evolution . If the curve is non-convex , its total absolute curvature decreases monotonically , until it becomes convex . Once convex , the isoperimetric ratio of the curve decreases as the curve converges to a circular shape , before collapsing to a single point of singularity . If two disjoint simple smooth clo</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Super Punch-Out ! ! = Super Punch-Out ! ! ( スーパーパンチアウト ！ ！ , Sūpā Panchi-Auto ! ! ) is a boxing video game developed and published by Nintendo for the SNES . It was released on September 14 , 1994 in North America and again in the same region in 1996 . It was released in Europe on January 26 , 1995 for the same console and in Japan in 1998 for the Nintendo Power flash RAM cartridge series and the Super Famicom . The game was released for the Wii 's Virtual Console in Europe on March 20 , 2009 , in North America on March 30 , 2009 , and in Japan on July 7 , 2009 . The game was also released on the New Nintendo 3ds eShop on May 5 , 2016 . It is the fourth game in the Punch-Out ! ! series , taking place after the Punch-Out ! ! game for the NES . In Super Punch-Out ! ! the player controls Little Mac , as he fights his way to become the World Video Boxing Association champion . Players , fighting from a " behind the back " perspective , must knockout their opponent in three minutes to win .</t>
+          <t>Znám 's problem = In number theory , Znám 's problem asks which sets of k integers have the property that each integer in the set is a proper divisor of the product of the other integers in the set , plus 1 . Znám 's problem is named after the Slovak mathematician Štefan Znám , who suggested it in 1972 , although other mathematicians had considered similar problems around the same time . One closely related problem drops the assumption of properness of the divisor , and will be called the improper Znám problem hereafter . One solution to the improper Znám problem is easily provided for any k : the first k terms of Sylvester 's sequence have the required property . Sun ( 1983 ) showed that there is at least one solution to the ( proper ) Znám problem for each k ≥ 5 . Sun 's solution is based on a recurrence similar to that for Sylvester 's sequence , but with a different set of initial values . The Znám problem is closely related to Egyptian fractions . It is known that there are only f</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Metroid Prime Pinball = Metroid Prime Pinball is a pinball video game themed after the Metroid series . The game uses the graphical style and various story elements from Metroid Prime . It was developed by Fuse Games for the Nintendo DS handheld game console , and released by Nintendo in North America and Australia in 2005 , in Japan in 2006 , and in Europe in 2007 . Metroid Prime Pinball uses the basic mechanics of pinball , along with typical pinball items . New mechanics are introduced , such as wall jumping and the ability to fire weapons . The Nintendo DS 's touchscreen can be nudged with a finger to alter the pinball 's trajectory while in motion . The initial idea for a video game that presented the Metroid series in a pinball setting came to Kensuke Tanabe after he learned that Fuse Games had previously worked on Mario Pinball Land , another pinball video game . Recalling that the series ' protagonist , Samus , can morph into a ball , Tanabe was convinced that the Metroid unive</t>
+          <t>Addition = Addition ( often signified by the plus symbol " + " ) is one of the four basic operations of arithmetic , with the others being subtraction , multiplication and division . The addition of two whole numbers is the total amount of those quantities combined . For example , in the picture on the right , there is a combination of three apples and two apples together , making a total of five apples . This observation is equivalent to the mathematical expression " 3 + 2 = 5 " i.e. , " 3 add 2 is equal to 5 " . Besides counting fruits , addition can also represent combining other physical objects . Using systematic generalizations , addition can also be defined on more abstract quantities , such as integers , rational numbers , real numbers and complex numbers and other abstract objects such as vectors and matrices . In arithmetic , rules for addition involving fractions and negative numbers have been devised amongst others . In algebra , addition is studied more abstractly . Additi</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Mario &amp; Luigi : Superstar Saga = Mario &amp; Luigi : Superstar Saga , known in Japan as Mario &amp; Luigi RPG ( マリオ ＆ ルイージRPG , Mario ando Ruīji Aru Pī Jī ) , is a role-playing video game developed by AlphaDream and published by Nintendo for the Game Boy Advance in 2003 . The first game in the Mario &amp; Luigi RPG series , Superstar Saga was followed by four sequels : Mario &amp; Luigi : Partners in Time and Mario &amp; Luigi : Bowser 's Inside Story for the Nintendo DS , Mario &amp; Luigi : Dream Team for the Nintendo 3DS and Mario &amp; Luigi : Paper Jam also for the Nintendo 3DS . The game was later re-released for the Wii U Virtual Console on the Nintendo eShop in 2014 . The setting of the game begins in the Mushroom Kingdom , but progresses to the Beanbean Kingdom for the majority of the game . In the game , Mario and Luigi combat Cackletta , the primary antagonist . The quest begins when Cackletta , with the aid of her assistant Fawful , steals Princess Peach 's voice after adopting the guise of an ambassa</t>
+          <t>Negative resistance = In electronics , negative resistance ( NR ) is a property of some electrical circuits and devices in which an increase in voltage across the device 's terminals results in a decrease in electric current through it . This is in contrast to an ordinary resistor in which an increase of applied voltage causes a proportional increase in current due to Ohm 's law , resulting in a positive resistance . While a positive resistance consumes power from current passing through it , a negative resistance produces power . Under certain conditions it can increase the power of an electrical signal , amplifying it . Negative resistance is an uncommon property which occurs in a few nonlinear electronic components . In a nonlinear device , two types of resistance can be defined : ' static ' or ' absolute resistance ' , the ratio of voltage to current &lt;formula&gt; , and differential resistance , the ratio of a change in voltage to the resulting change in current &lt;formula&gt; . The term ne</t>
         </is>
       </c>
     </row>
@@ -1596,32 +1596,32 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>series character television season episodes episode characters story cast dvd aired doctor viewers producer seasons awards broadcast voice producers finale ratings star writing trek original bbc fans relationship enterprise writer comic simpsons anime south_park role writers nominated drama clark homer manga created appeared pilot premiere production gwen voiced animated wanted felt actors animation award emmy nickelodeon voyager executive recurring lisa released airing audience script comedy produced best outstanding shows arc idea portrayed written adventures scripts primetime davies featured spin filmed showrunner scenes adam kenny plot sitcom programme tardis comics main friends life angel volumes fringe fan described actor crew originally</t>
+          <t>['amendment', 'constitution', 'singapore', 'law', 'court', 'courts', 'judicial', 'parliament', 'article', 'constitutional', 'justice', 'shall', 'clause', 'act', 'rights']</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Doctor Who ( series 5 ) = The fifth series of British science fiction television programme Doctor Who began on 3 April 2010 with " The Eleventh Hour " and ended with " The Big Bang " on 26 June 2010 . The series was led by head writer and executive producer Steven Moffat , who took over after Russell T Davies , who ended his involvement with the show after The End of Time . The series comprises 13 episodes , six of which Moffat wrote . Piers Wenger and Beth Willis served with Moffat as executive producers , while Tracie Simpson and Peter Bennett served as producers . Though it is the fifth series since the show 's revival in 2005 and the thirty-first since it began in 1963 , the largely new production team led to the series production codes being reset . This is the first series to feature Matt Smith as the eleventh incarnation of the Doctor , an alien Time Lord who travels through time and space in his TARDIS , which appears to be a British police box on the outside . It also introduc</t>
+          <t xml:space="preserve">Kim Davis ( county clerk ) = Kimberly Jean Davis ( née Bailey ; born September 17 , 1965 ) is the county clerk for Rowan County , Kentucky who gained international attention in August 2015 when she defied a U.S. federal court order to issue marriage licenses to same-sex couples , following the June 26 , 2015 , U.S. Supreme Court decision in Obergefell v. Hodges . Kim Davis reacted to the decision by denying marriage licenses to all couples , saying she was acting " under God 's authority " . Her defiance led to her jail sentence , while both supporters and detractors hotly debated her stance in the national media . Marriage licenses in Rowan County are now being issued to all citizens as required by law . Davis was born in Jackson , Kentucky . By 1991 , Davis was serving as chief deputy clerk of Rowan County , reporting to her mother , the Rowan County clerk . Davis ' first three marriages ended in divorce in 1994 , 2006 , and 2008 ; she then remarried her second husband in 2009 . She </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Star Trek = Star Trek is an American science fiction entertainment franchise created by Gene Roddenberry and owned by CBS and Paramount Pictures . The television series Star Trek : The Original Series , Star Trek : The Animated Series , Star Trek : The Next Generation , Star Trek : Deep Space Nine , Star Trek : Voyager , Star Trek : Enterprise , Star Trek : Discovery as well as the Star Trek film franchise make up the franchise 's canon . The first series , now referred to as The Original Series , debuted in 1966 and ran for three seasons on NBC . It followed the galactic adventures of James T. Kirk and the crew of the starship Enterprise , an exploration vessel of a 23rd-century interstellar " United Federation of Planets " . In creating the first Star Trek , Roddenberry was inspired by Westerns such as Wagon Train , the Horatio Hornblower novels and Gulliver 's Travels . In fact , the original series was originally described as Wagon Train to the Stars . These adventures continued in</t>
+          <t>Article 15 of the Constitution of Singapore = Article 15 of the Constitution of the Republic of Singapore guarantees freedom of religion in Singapore . Specifically , Article 15 ( 1 ) states : " Every person has the right to profess and practise his religion and to propagate it . " The terms profess , practise and propagate are not defined in the Constitution , but cases from Singapore and other jurisdictions may shed light on their meaning . The word profess in relation to a religion was defined in a 1964 Singapore case not involving the Constitution as meaning " to affirm , or declare one 's faith in or allegiance to " . A 2001 Malaysian decision suggested that the profession of religion does not encompass the renunciation of a religion or the profession of an irreligious viewpoint . As regards the word propagate , in 1977 the Supreme Court of India held that it confers on an individual the right to transmit or spread his or her religion by an exposition of its tenets , but not the r</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>The Sarah Jane Adventures = The Sarah Jane Adventures is a British science fiction television programme , that was produced by BBC Cymru Wales for CBBC , created by Russell T Davies starring Elisabeth Sladen . The programme is a spin-off of the long-running BBC science fiction programme Doctor Who and is aimed at a younger audience than Doctor Who . It focuses on the adventures of Sarah Jane Smith , an investigative journalist who , as a young woman , had numerous adventures across time and space . The series debuted on BBC One with a 60-minute special , " Invasion of the Bane " , on 1 January 2007 , and broadcast through to 2011 . It was nominated for a British Academy Children 's Award in 2008 in the Drama category , and for a BAFTA Cymru in 2009 in the Children 's Drama category . The programme won a Royal Television Society 2010 award for Best Children 's Drama . = = Series = = A full series of ten 25-minute episodes began on 24 September 2007 . The first series consisted of five t</t>
+          <t>History of slavery in Indiana = Slavery in Indiana occurred between the time of French rule during late seventeenth century and 1826 , with a few traces of slavery afterward . When the United States first forcibly removed the Native Americans from the region , slavery was accepted as a necessity to keep peace with the Indians and the French . When the Indiana Territory was established in 1800 , William Henry Harrison , a former slaveholder , was appointed governor and slavery continued to be tolerated through a series of laws enacted by the appointed legislature . Opposition against slavery began to organize in Indiana around 1805 , and in 1809 abolitionists took control of the territorial legislature and overturned many of the laws permitting retaining of slaves . By the time Indiana was granted statehood in 1816 , the abolitionists were in firm control and slavery was banned in the constitution . In 1820 , an Supreme Court of Indiana ruling in Polly v. Lasselle freed all the remainin</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lisa Simpson = Lisa Marie Simpson is a fictional character in the animated television series The Simpsons . She is the middle child and most intelligent of the Simpson family . Voiced by Yeardley Smith , Lisa first appeared on television in The Tracey Ullman Show short " Good Night " on April 19 , 1987 . Cartoonist Matt Groening created and designed her while waiting to meet James L. Brooks . Groening had been invited to pitch a series of shorts based on his comic Life in Hell , but instead decided to create a new set of characters . He named the elder Simpson daughter after his younger sister Lisa Groening . After appearing on The Tracey Ullman Show for three years , the Simpson family were moved to their own series on Fox , which debuted on December 17 , 1989 . Intelligent , passionate , and the moral centre of the family , Lisa Simpson , at eight years old , is the second child of Homer and Marge , younger sister of Bart , and older sister of Maggie . Lisa 's high intellect and libe</t>
+          <t>Beriah Magoffin = Beriah Magoffin ( April 18 , 1815 – February 28 , 1885 ) was the 21st Governor of Kentucky , serving during the early part of the Civil War . Personally , Magoffin adhered to a states ' rights position , including the right of a state to secede from the Union , and he sympathized with the Confederate cause . Nevertheless , when the Kentucky General Assembly adopted a position of neutrality in the war , Magoffin ardently held to it , refusing calls for aid from both the Union and Confederate governments . In special elections held in June 1861 , Unionists captured nine of Kentucky 's ten congressional seats and obtained two-thirds majorities in both houses of the state legislature . Despite Magoffin 's strict adherence to the policy of neutrality , the Unionist legislature did not trust him and routinely overrode his vetoes . Unable to provide effective leadership due to a hostile legislature , Magoffin agreed to resign as governor in 1862 , provided he could choose hi</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Justice League ( Smallville ) = The Justice League is a fictional group of superheroes on the television series , Smallville , who were adapted for television by Alfred Gough and Miles Millar . The Justice League originally included Oliver Queen , Bart Allen , Victor Stone , and Arthur Curry ; Clark Kent did not accept a role until three seasons later . As the team continued to appear in the series , new characters were introduced and subsequently joined the team . The original Justice League first appeared in the DC comic book The Brave and the Bold # 28 ( 1960 ) , and consisted of members Superman , Batman , Wonder Woman , Flash , Green Lantern , Aquaman , and the Martian Manhunter . In Smallville , the team did not make its first official appearance until the season six episode " Justice " , although each member had been previously introduced individually on various episodes since season four . In the series , the team never formalized a name for themselves , although the cast and c</t>
+          <t>Legal system of Saudi Arabia = The legal system of Saudi Arabia is based on Sharia , Islamic law derived from the Qu 'ran and the Sunnah ( the traditions ) of the Islamic prophet Muhammad . The sources of Sharia also include Islamic scholarly consensus developed after Muhammad 's death . Its interpretation by judges in Saudi Arabia is influenced by the medieval ( Islamic Golden Age ) texts of the literalist Hanbali school of Islamic jurisprudence . Uniquely in the Muslim world , Sharia has been adopted by Saudi Arabia in an uncodified form . This , and the lack of judicial precedent , has resulted in considerable uncertainty in the scope and content of the country 's laws . The government therefore announced its intention to codify Sharia in 2010 , but this is yet to be implemented . Sharia has also been supplemented by regulations issued by royal decree covering modern issues such as intellectual property and corporate law . Nevertheless , Sharia remains the primary source of law , es</t>
         </is>
       </c>
     </row>
@@ -1631,32 +1631,32 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>campaign said announced stated saying support election media party political criticized government president leader presidential republican nomination polls campaigning debate bush january interview primary candidacy candidate issues poll senator democratic policy reagan stating nixon asked people conservative nominee vote percent mccarthy kennedy democrats run obama candidates hillary_clinton running state press barack_obama march november cuts issue public voters iraq brown labour told endorsement endorsed general campaigned supported member contest liberal conservatives votes police polling vice harper opposition february white_house gravel cnn budget allegations leadership ballot ronald_reagan senate minister clinton announcement incumbent news showed investigation politics gore received republican_party controversial spending members</t>
+          <t>['management', 'twitter', 'investment', 'bank', 'billion', 'equity', 'watson', 'design', 'banking', 'company', 'users', 'firm', 'business', 'merger', 'assets']</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Stephen Harper = Stephen Joseph Harper PC MP ( born April 30 , 1959 ) is a Canadian politician and member of Parliament who served as the 22nd Prime Minister of Canada , from February 6 , 2006 to November 4 , 2015 . He was the first prime minister to come from the modern Conservative Party of Canada , which was formed by a merger of the Progressive Conservative Party and the Canadian Alliance . Harper has been the member of parliament for the riding of Calgary Heritage in Alberta , since 2002 ( previously known as Calgary Southwest from 2002 to 2015 ) . Earlier , from 1993 to 1997 , he was the MP for Calgary West , representing the Reform Party of Canada . He was one of the founding members of the Reform Party , but did not seek re-election in the 1997 federal election . Harper instead joined and later led the National Citizens Coalition , a conservative lobbyist group . In 2002 , he succeeded Stockwell Day as leader of the Canadian Alliance , the successor to the Reform Party and retu</t>
+          <t xml:space="preserve">Dean Witter Reynolds = Dean Witter Reynolds was an American stock brokerage and securities firm catering to retail clients . Prior to its acquisition , it was among the largest retail firms in the securities industry with over 9,000 account executives ( ranking third in the US in 1996 ) and was among the largest members of the New York Stock Exchange . The company served over 3.2 million clients primarily in the U.S. Dean Witter provided debt and equity underwriting and brokerage as well as mutual funds and other saving and investment products for individual investors . The company 's asset management arm , Dean Witter InterCapital , with total assets of $ 90.0 billion prior to acquisition , was one of the largest asset management operations in the U.S. In 1997 , Dean Witter 's parent company Dean Witter , Discover , Inc . , which also owned Discover Card , merged with investment banking house Morgan Stanley to form Morgan Stanley Dean Witter . The combined firm later dropped the Dean </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Richard Nixon presidential campaign , 1968 = The 1968 presidential campaign of Richard Nixon , the 36th Vice President of the United States , began when Nixon , the Republican nominee of 1960 , formally announced his candidacy following a year 's preparation and five years ' political reorganization following defeats in the 1960 presidential election , and the 1962 California gubernatorial election . En route to the Republican Party 's presidential nomination , Nixon faced challenges from Governor George Romney of Michigan , Governor Nelson Rockefeller of New York , Governor Ronald Reagan of California , and Senator Charles Percy of Illinois . Nixon won nine of the thirteen state primaries held that season , although due to the population of his state , Governor Reagan won the popular vote while carrying only California . These victories , along with pledged delegate support from states not holding primaries , secured Nixon the nomination on the first ballot of the Republican National </t>
+          <t>Water supply and sanitation in Colombia = This article was last updated on substance in August 2012 . However , sections of this article are older and may need to be updated . Feel free to update this article wherever needed . Water supply and sanitation in Colombia has been improved in many ways over the past decades . Between 1990 and 2010 , access to improved sanitation increased from 67 % to 82 % , but access to improved water source 's increased only slightly from 89 % to 94 % . In particular , coverage in rural areas lags behind . Furthermore , despite improvements , the quality of water and sanitation services remains inadequate . For example , only 73 % of those receiving public services receive water of potable quality and in 2006 only 25 % of the wastewater generated in the country underwent any kind of treatment . = = Overview = = A comprehensive sector policy , introduced in 1994 , aimed at increasing water and sanitation investments through targeted transfers to municipali</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Al Gore = Albert Arnold " Al " Gore Jr . ( born March 31 , 1948 ) is an American politician and environmentalist who served as the 45th Vice President of the United States from 1993 to 2001 under President Bill Clinton . Chosen as Clinton 's running mate in their successful 1992 campaign , he was reelected in 1996 . At the end of Clinton 's second term , Gore was the Democratic Party 's nominee for President in 2000 . After leaving office , Gore remained prominent as an author and environmental activist , whose work in climate change activism earned him ( jointly with the IPCC ) the Nobel Peace Prize in 2007 . Gore was an elected official for 24 years . He was a Congressman from Tennessee ( 1977 – 85 ) and from 1985 to 1993 served as one of the state 's Senators . He served as Vice President during the Clinton administration from 1993 to 2001 . In the 2000 presidential election , in what was one of the closest presidential races in history , Gore won the popular vote but lost in the El</t>
+          <t>Design management = Design management is a business discipline that uses project management , design , strategy , and supply chain techniques to control a creative process , support a culture of creativity , and build a structure and organization for design . The objective of design management is to develop and maintain a business environment in which an organization can achieve its strategic and mission goals through design , and by establishing and managing an efficient and effective system . Design management is a comprehensive activity at all levels of business ( operational to strategic ) , from the discovery phase to the execution phase . " Simply put , design management is the business side of design . Design management encompasses the ongoing processes , business decisions , and strategies that enable innovation and create effectively-designed products , services , communications , environments , and brands that enhance our quality of life and provide organizational success . "</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Hubert Humphrey presidential campaign , 1968 = The Hubert Humphrey presidential campaign of 1968 began when Vice President of the United States Hubert Humphrey of Minnesota decided to seek the Democratic Party nomination for President of the United States following the announcement by President Lyndon B. Johnson that he would not seek the party 's nomination . Johnson had been stalled by the anti-Vietnam War candidacy of Senator Eugene McCarthy of Minnesota , who along with Senator Robert F. Kennedy of New York , became the main opponents for Humphrey . The contest between the men featured a battle for control of the Democratic Party , and cast Humphrey 's " old politics " , against the " new politics " of McCarthy and Kennedy . The main cause of the division was the Vietnam War , which intensified during Humphrey 's tenure as Vice President and grew increasingly unpopular . Humphrey entered the race too late to participate in any primaries , and relied on " favorite son " candidates t</t>
+          <t xml:space="preserve">Smartsheet = Smartsheet is a software as a service ( SaaS ) application for collaboration and work management that is developed and marketed by Smartsheet.com , Inc . It is used to assign tasks , track project progress , manage calendars , share documents and manage other work . It has a spreadsheet-like user interface . As of November 2014 , Smartsheet is used by 5 million people at 55,000 organizations . It was initially unpopular until a redesign in 2010 , which was followed by an increase in adoption and larger funding rounds . = = Smartsheet service = = Smartsheet is used to collaborate on project timelines , documents , calendars , tasks and other work . It combines some of the functionality of Microsoft Excel , Project , Access and Sharepoint . It competes with Microsoft Project . As of November 2014 , there are 5 million users of Smartsheet at 55,000 organizations . = = = Features = = = According to Forbes , Smartsheet has " a relatively simple " user interface . The interface </t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Gary Johnson = Gary Earl Johnson ( born January 1 , 1953 ) is an American businessman , politician and the Libertarian Party nominee for President of the United States in the 2016 election . He served as the 29th Governor of New Mexico from 1995 to 2003 as a member of the Republican Party . He was the Libertarian Party 's nominee for President of the United States in the 2012 election . Johnson announced his candidacy for president on April 21 , 2011 , as a Republican , on a libertarian platform emphasizing the United States public debt and a balanced budget through a 43 % reduction of all federal government spending , protection of civil liberties , an immediate end to the War in Afghanistan and his advocacy of the FairTax . On December 28 , 2011 , after being excluded from the majority of the Republican Party 's presidential debates and failing to gain traction while campaigning for the New Hampshire primary , he withdrew his candidacy for the Republican nomination and announced that</t>
+          <t>Kohlberg Kravis Roberts = KKR &amp; Co . L.P. ( formerly known as Kohlberg Kravis Roberts &amp; Co . ) is an American multinational private equity firm , specializing in leveraged buyouts , headquartered in New York City . The firm sponsors and manages private equity investment funds . A pioneer in the leveraged buyout industry , the firm has completed over $ 400 billion of private equity transactions since its inception . The firm was founded in 1976 by Jerome Kohlberg , Jr . , and cousins Henry Kravis and George R. Roberts , all of whom had previously worked together at Bear Stearns , where they completed some of the earliest leveraged buyout transactions . Since its founding , KKR has completed a number of landmark transactions including the 1989 leveraged buyout of RJR Nabisco , which was the largest buyout in history to that point , as well as the 2007 buyout of TXU , which is currently the largest buyout completed to date . KKR has completed investments in over 160 companies since 1977 ,</t>
         </is>
       </c>
     </row>
@@ -1666,32 +1666,32 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>member served elected governor committee serving worked election appointed kentucky married resigned attended born fellow legislature term opposed president massachusetts politics died secretary commission virginia admitted serve chairman votes tenure professor graduated candidate politician education buried attorney retirement helped honor seat degree chosen judge republican vote assistant wife senate democratic prominent union political studied legacy lived practice bill mayor rank board lieutenant deputy lawyer estate majority efforts senator honorary taught retired survived resign vice congress health administration post legislation appointment session delegate west_virginia voted sought refused jones opposition representing candidates daughter reform enrolled democrat master interred graduating establishing parsons attending</t>
+          <t>['mosque', 'temple', 'congregation', 'wall', 'palace', 'hall', 'jewish', 'jews', 'shrine', 'tomb', 'temples', 'cave', 'jerusalem', 'christians', 'dome']</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Gabriel Slaughter = Gabriel Slaughter ( December 12 , 1767 – September 19 , 1830 ) was the seventh Governor of Kentucky and was the first person to ascend to that office upon the death of the sitting governor . His family moved to Kentucky from Virginia when he was very young . He became a member of the Kentucky militia , serving throughout his political career . He received a citation from the state legislature in recognition of his service at the Battle of New Orleans . After spending a decade in the state legislature , Slaughter was elected the fourth Lieutenant Governor , serving under Charles Scott . With the War of 1812 looming at the end of his tenure , Slaughter ran for governor against Isaac Shelby , the state 's first governor and a noted military leader . Shelby beat Slaughter soundly . Four years later , Slaughter was again elected as lieutenant governor , serving under George Madison . Madison died a short time into his term , whereupon Slaughter became acting governor . H</t>
+          <t>Vimala Temple = The Vimala Temple or Bimala Temple is a Hindu temple dedicated to goddess Vimala ( Bimala ) , located within the Jagannath Temple complex in Puri in the Indian state of Orissa . It is generally regarded as a Shakti Pitha , among the holiest temples dedicated to the Hindu Goddess . The temple is located in the south-west corner of the inner enclosure of the Jagannath temple complex and on the western corner of the tower of Jagannath , next to the sacred pond Rohini kunda . The temple faces east and is built of sandstone and laterite . It is built in the Deula style with four components ; vimana ( structure containing the sanctum ) , jagamohana ( assembly hall ) , nata-mandapa ( festival hall ) and bhoga-mandapa ( hall of offerings ) . The temple was renovated around 2005 and is maintained by the Archaeological Survey of India , Bhubaneswar Circle . Though a small shrine in the temple complex , the Vimala temple is important to the Goddess-oriented Shakta and Tantric wors</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thomas E. Bramlette = Thomas Elliott Bramlette ( January 3 , 1817 – January 12 , 1875 ) was the 23rd Governor of Kentucky . He was elected in 1863 and guided the state through the latter part of the Civil War and the beginning of Reconstruction . At the outbreak of the war , Bramlette put his promising political career on hold and enlisted in the Union Army , raising and commanding the 3rd Kentucky Infantry . In 1862 , President Abraham Lincoln appointed him district attorney for Kentucky . A year later , he was the Union Democrats ' nominee for governor . Election interference by the Union Army gave him a landslide victory over his opponent , Charles A. Wickliffe . Within a year , however , federal policies such as recruiting Kentucky Negroes for the Union Army and suspending the writ of habeas corpus for Kentucky citizens caused Bramlette to abandon his support of the Lincoln administration and declare that he would " bloodily baptize the state into the Confederacy " . After the war </t>
+          <t>Beiyue Temple = Beiyue Temple ( Chinese : 北岳庙 ) is a Daoist temple located in Quyang , Hebei Province , China . The temple was used to make sacrifices to Mount Heng by the emperors of the Song Dynasty while the mountain was occupied by the Liao Dynasty . The Dening Hall of the temple is the largest , earliest and one of the most important extant wooden buildings built in the Yuan Dynasty . The temple also contains three gates , an octagonal pavilion and many ancient stelae . = = History = = The Beiyue Temple was first established either during the Northern Wei Dynasty ( 386-584 ) or the Tang Dynasty ( 618-907 ) , but the site may have been in use as early as the 2nd century BCE of the Han Dynasty . The temple has been rebuilt twice , first in 991 after having been destroyed by the Khitan during the 950s , and then in 1270 . According to a surviving image of the temple dating from a local history of Quyang written in 1672 , the temple had by this time achieved its present layout . Durin</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Herbert Charles Wilson = Herbert Charles Wilson ( December 7 , 1859 – December 17 , 1909 ) was a Canadian politician and physician . He served as mayor of the Town of Edmonton and Speaker of the Legislative Assembly of the North-West Territories . Wilson was born in 1859 in what would become the province of Ontario . The son of a manufacturer , Wilson 's family had extensive business interests in the area of Picton , Ontario . Wilson studied medicine and moved to Edmonton in 1882 , one of the first physicians to settle there . He was appointed to official medical positions and , for several years , owned a drugstore in town . He served as a consultant to First Nations reserves near Edmonton and also became a director of many local corporations . He was elected to the Territorial council in 1885 , and soon became its speaker . During his speakership , he helped to change the council 's rules and procedures . He left territorial politics after six years , citing health reasons . He maint</t>
+          <t>Agudath Israel Etz Ahayem = Agudath Israel Etz Ahayem ( " Congregation of Israel Tree of Life " ) is a Conservative Jewish congregation located at 3525 Cloverdale Road in Montgomery , Alabama . Agudath Israel was established as an Orthodox synagogue in 1902 by Yiddish speaking Ashkenazi Jews , recent Eastern European immigrants who rejected the Reform practices of Montgomery 's established Congregation Kahl Montgomery / Temple Beth Or . After renting quarters for a number of years , the congregation purchased its first permanent building on Monroe Street in 1914 , and constructed a new building at McDonough and High Street in 1928 . Agudath Israel came to national attention in 1955 because of the Civil rights movement activism of then-rabbi Seymour Atlas , who eventually left the synagogue as a result of it . In 1957 it constructed its current building on Cloverdale Road , and joined the United Synagogue of Conservative Judaism , though it subsequently hired several Orthodox rabbis . C</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Henry Bell Gilkeson = Henry Bell Gilkeson ( June 6 , 1850 – September 29 , 1921 ) was an American lawyer , politician , school administrator , and banker in West Virginia . Gilkeson was born in Moorefield , Virginia ( now West Virginia ) , the eldest child of a dry goods merchant , and was raised in Romney . Following his graduation from Hampden – Sydney College , Gilkeson became a schoolteacher and served as superintendent of the Hampshire County Schools district from 1877 to 1879 . Gilkeson later studied law and started a law practice in Romney . Following the death of John Collins Covell in 1887 , Gilkeson served as the principal of the West Virginia Schools for the Deaf and Blind until 1888 . Gilkeson served in the West Virginia Legislature as a state senator representing the 12th District in the West Virginia Senate ( 1890 – 93 ) and as a member of the West Virginia House of Delegates ( 1883 – 85 and 1909 – 11 ) . Gilkeson served as the mayor of Romney beginning in 1885 , and the </t>
+          <t>Baths of Zeuxippus = The Baths of Zeuxippus were popular public baths in the city of Constantinople , the capital of the Byzantine Empire . They were built between 100 to 200 , destroyed by the Nika revolt of 532 and then rebuilt several years later . They were so called because they were built upon the site where a Temple of Jupiter ( Zeus ) had formerly existed . They were built around 500 yards south of the much older baths of Achilles of the earlier Greek Acropolis in Byzantion . The baths were famed primarily for the many statues that were built within , and the famous people they each represented . However , they were later used for military purposes , during the seventh century . Excavations of the site and the Baths were made in 1928 . = = Description = = The original baths , which were founded and built by Septimius Severus , and decorated under Constantine I were adorned with numerous mosaics and over eighty statues , mostly those of historical figures , with Homer , Hesiod ,</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t xml:space="preserve">James D. Black = James Dixon Black ( September 24 , 1849 – August 5 , 1938 ) was the 39th Governor of Kentucky , serving for seven months in 1919 . He ascended to the office when Governor Augustus O. Stanley was elected to the U.S. Senate . Black graduated from Tusculum College in 1872 and taught school while studying law . He was admitted to the bar in 1874 and opened his legal practice in Barbourville , Kentucky . Eventually , his son , Pitzer Dixon , and his son-in-law , Hiram H. Owens , became partners in his practice , called Black , Black and Owens . Deeply interested in education , he served as superintendent of the Knox County public schools for two years , and was instrumental in the founding of Union College in Barbourville . He served as president of the college from 1910 to 1912 . Black was chosen as the Democratic nominee for lieutenant governor in 1915 , despite having only meager previous political experience . He was elected on a ticket with Augustus O. Stanley and was </t>
+          <t>Durga Shakti Nagpal = Durga Shakti Nagpal ( born 25 June 1985 ) is an Indian bureaucrat , civil servant and officer in the Uttar Pradesh cadre of the Indian Administrative Service . She is posted as Joint Magistrate of Kanpur ( Rural ) . She came into public view after launching a massive drive against corruption and illegal sand mining within her jurisdiction of Gautam Budh Nagar . She was later suspended by the Uttar Pradesh government for allegedly demolishing an illegal mosque wall in a village in Greater Noida , which resulted in severe opposition as it was perceived to be based on flimsy grounds . There was a growing demand from various political parties , associations of Indian bureaucrats , and by the general public on online social media for her suspension to be revoked . Her suspension was revoked by the Uttar Pradesh government on 22 September 2013 . Nagpal was appointed OSD ( Officer on Special Duty ) in the Agriculture Ministry in January 2015 , a post that she currently h</t>
         </is>
       </c>
     </row>
@@ -1701,32 +1701,32 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>daily trunkline roadway national_highway_system travels designated surveys entire paved intersections designation traveling terminus rural mdot existed crosses intersection aadt continuing mobility turns calculated segment renumbering connecting routing michigan_department_of_transportation continues description connects vehicles annual intersects highways 1930s economy extended concurrency passes turning junction entirely farmland truncated alignment spur racially concurrent concurrently shortened flamboyant responsibilities heading traveled courted terminates buddy continuation calculation meets 1940s mile subtitles enters shifted limits route defied replacing rerouted rampant profanity highway entertained unchanged conducts academically portion statistical ferry lowest undivided oppressed frantic psychologically stretch altogether interstate entering counts bitterness connect reliant heads sacrificing ethnicity realigned exit apocalyptic</t>
+          <t>['scotland', 'scottish', 'island', 'islands', 'norse', 'century', 'edinburgh', 'isles', 'houses', 'architecture', 'mainland', 'scots', 'glasgow', 'highlands', 'churches']</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delaware Route 44 = Delaware Route 44 ( DE 44 ) is a state highway in Kent County , Delaware . It runs from DE 300 in Everetts Corner southeast to DE 8 in Pearsons Corner . The route passes through rural areas of western Kent County as well as the town of Hartly . In Hartly , it intersects DE 11 . The route was built as a state highway east of Hartly by 1924 and west of Hartly by 1932 , receiving the DE 44 designation by 1936 . = = Route description = = Delaware Route 44 heads to the southeast of DE 300 on Everetts Corner Road . It passes through a mix of woodland and farmland before reaching the town of Hartly . In Hartly , the route intersects DE 11 , where it becomes Main Street , and passes by homes . It then heads to the east out of Hartly on Hartly Road , passing through more rural areas . The route continues to its eastern terminus at DE 8 near Pearsons Corner . DE 44 has an annual average daily traffic count ranging from a high of 4,478 vehicles at the eastern terminus at DE 8 </t>
+          <t xml:space="preserve">John Gregorson Campbell = John Gregorson Campbell ( 1836 – 22 November 1891 ) was a Scottish folklorist and Free Church Minister at the Tiree and Coll parishes in Argyll , Scotland . An avid collector of traditional stories , in 1831 he became Secretary to the Ossianic Society of Glasgow University . Ill health had prevented him taking up employment as a Minister when he was initially approved to preach by the Presbytery of Glasgow in 1858 and later after he was appointed to Tiree by the Duke of Argyll in 1861 , parishioners objected to his manner of preaching . Several of the anecdotes he amassed were published in magazines and , just before his death , work began on collating the first of four compendiums of the tales ; three were published a few years after his death . He was fluent in several languages , including Scottish Gaelic , and transcribed the legends precisely as dictated by the narrators . = = Early life and education = = John Gregorson Campbell was born near Loch Linnhe </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>M-100 ( Michigan highway ) = M-100 is a north – south state trunkline highway in the central region of the U.S. state of Michigan . It runs between Potterville and Grand Ledge , connecting Interstate 69 ( I-69 ) and I-96 west of the state capital , Lansing . The highway was previously a section of M-16 . After M-16 was realigned , M-100 was created by 1927 . Three extensions in the 1930s , 1950s and 1990s resulted in the current highway routing . = = Route description = = M-100 starts at exit 66 on I-69 in Potterville . The highway runs north along Hartel Road , intersecting Lansing Road , the former route of US Highway 27 ( US 27 ) south of downtown . Hartel Road runs due north from Potterville to Grand Ledge . North of M-43 ( Saginaw Highway ) , M-100 follows Clinton Street , jogging northwest along Jefferson Street north of Willow Highway . Crossing the Grand River on Bridge Street , M-100 returns to Clinton Street north of the river . North of town , the roadway is once again known</t>
+          <t>Thomas de Rossy = Thomas de Rossy ( de Rossi ) O. F. M. was a late 14th century Scottish Franciscan friar , papal penitentiary , bishop and theologian . Of unknown , or at least unclear origin , he embarked on a religious career in his early years , entering the Franciscan Order , studying in England and at the University of Paris . He preached and lectured on the Immaculate Conception , and rose to seniority under the patronage of the Avignon Papacy and King Robert II of Scotland , becoming Bishop of Galloway and the only Franciscan to hold a Scottish bishopric . Thereafter he was a staunch advocate of Avignon Pope Clement VII against the English-backed Urban VI , for whom he engaged in partisan preaching and writing , famously challenging any English bishop to settle the issue by single combat . = = Early years = = There is not enough evidence to detail Rossy 's early life and career . His name indicates a family origin from Rossie , but many locations have this name , including Ross</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Nebraska Highway 88 = Nebraska Highway 88 ( N-88 ) is a highway in northwestern Nebraska . It has a western terminus at Wyoming Highway 151 ( WYO 151 ) at the Wyoming – Nebraska state line . The road travels eastward to N-71 , where it turns south . N-88 continues east to south of Bridgeport . The road turns north , ends at an intersection with U.S. Highway 385 ( US 385 ) and N-92 in Bridgeport . The route was designated in 1937 , before the official state highway system was created . It was extended to the state line in 1986 . = = Route description = = N-88 starts at the Nebraska – Wyoming state line in Banner County , where WYO 151 ends , and travels northeast . The road quickly bends east after less than one mile ( 1.6 km ) , and continues in a straight line . For the next twenty miles ( 32 km ) , N-88 intersects minor streets , through rural farmland . The route turns south at N-71 , and becomes concurrent . Four miles ( 6.4 km ) later , N-88 turns east , ending the concurrency wit</t>
+          <t>Death of Linda Norgrove = On 26 September 2010 , Scottish aid worker Linda Norgrove and three Afghan colleagues were kidnapped by members of the Taliban in the Kunar Province of eastern Afghanistan . At the time , she was working in the country as regional director for Development Alternatives Incorporated , a contractor for U.S. and other government agencies . After their capture , the group was taken to the nearby Dewegal Valley area . United States and Afghan forces began a search of the area , placing roadblocks to prevent the group from being moved east into Pakistan . Norgrove 's captors demanded the release of Aafia Siddiqui in exchange for her return . During negotiations , on 3 October 2010 the Taliban released the three Afghans . Five days later , amid concerns that Norgrove would be killed or moved by her kidnappers , the United States Naval Special Warfare Development Group conducted a predawn rescue attempt on the Taliban mountain hideout where she was held captive . US fo</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t xml:space="preserve">M-61 ( Michigan highway ) = M-61 is a state trunkline highway in the US state of Michigan that runs between Marion and Standish . The highway runs along the boundary area between Northern Michigan and Central Michigan in the Lower Peninsula . M-61 runs through rural forestland connecting several smaller communities together as it connects M-115 , US Highway 127 ( US 127 ) , Interstate 75 ( I-75 ) and US 23 . Less than 10,000 vehicles a day use various segments of the roadway on average . The trunkline was first designated along a portion of its current alignment by 1919 . M-61 was extended in segments through 1940 , with a truncation at the end of the 1950s . One change in routing in the 1970s resulted in the current routing of the highway . = = Route description = = M-61 starts in eastern Osceola County south of Marion at an intersection with M-115 . It runs eastward and meets M-66 before crossing into Clare County . The highway runs along the boundary between the regions of Northern </t>
+          <t>Leod = Leod ( Scottish Gaelic : Leòd ; Old Norse : Ljótr ) ( c . 1200 – 1280 ) is considered the eponymous ancestor and founder of Clan MacLeod and Clan MacLeod of Lewis . Almost nothing is known about him and he does not appear in any contemporary records . Tradition dating to the late 18th century made him a son of Olaf the Black who was King of Man ( r . 1225 – 1237 ) . Heraldic evidence , dating to the late 17th century , is considered to be the earliest evidence of descent from Olaf the Black . However , in recent years , this traditional lineage has been challenged and is no longer considered fact by historians . According to Clan MacLeod tradition , Leod inherited some of his lands from a foster father , who was a sheriff of the Hebridean island of Skye ; other lands he inherited from his father-in-law , who was also a lord on Skye . MacLeod tradition also states that Leod was the father of four sons and two daughters . Two of these sons founded the two main branches of MacLeods</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ohio State Route 249 = State Route 249 ( SR 249 ) is an Ohio State Route that runs between the Indiana state line and Ney in the US state of Ohio . The 14.45 miles ( 23.26 km ) of SR 249 that lie within the state serve as a minor highway . None of the highway is listed on the National Highway System . The whole route is a rural two-lane highway and passes through farmland . The highway was first signed in 1925 and was a north – south route , a route that later became U.S. Route 127 ( US 127 ) . SR 249 was given its current route in 1927 , as a replacement for SR 22 . The route was completely paved by 1942 . = = Route description = = SR 249 heads southeast from the Indiana – Ohio state line , as a two-lane highway passing through farmland , with some houses . The route passes over the St. Joseph River and turns due east . The highway has an intersection at SR 49 , in rural Defiance County . After the intersection with SR 49 the highway enters farmland and woodland , with a few houses . </t>
+          <t>Dutch brick = Dutch brick is a type of brick made in the Netherlands , or similar brick , and an architectural style of building with brick developed by the Dutch . The brick , made from clay dug from river banks or dredged from river beds and fired over a long period of time , was known for its durability and appearance . Traditional Dutch brick architecture is characterized by rounded or stepped gables . The brick was imported as ballast into Great Britain and the colonies in the east of America . Trinity College , Dublin , Ireland , founded in 1591 , was originally built of red Dutch brick . Dutch brickmakers emigrated to New Netherland in America , where they built kilns for firing bricks locally . Bricks were being burned in New Amsterdam ( New York ) by 1628 , but the imported bricks were of better quality . At first the bricks were used only for chimneys , but they were later used to face the lower story of the house , and then the entire house . Most of the surviving " Dutch Co</t>
         </is>
       </c>
     </row>
@@ -1736,32 +1736,32 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>song video number single chart performed peaked weeks carey debuted rihanna hot background week girl performance charts pop madonna swift chorus love billboard dance singer lyrics commented live singles vocals wearing united_kingdom beats ballad tempo digital jackson composition don music credits dancing track usher remix vocal accompanying directed mtv critics certified singing dancers compared entered spears artist mtv_news certifications ending formats listings progression scenes version mariah sings reception chord know downloads radio belgium verse charted videos shown premiered peak dress lyrically platinum beat dressed airplay feel peaking perry australian_recording_industry_association boyfriend songwriting hook written critical begins wore awards idolator filmed songwriter</t>
+          <t>['croatian', 'yugoslav', 'partisans', 'serbian', 'croatia', 'yugoslavia', 'partisan', 'serbs', 'bosnia', 'belgrade', 'serbia', 'germans', 'civilians', 'division', 'forces']</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Take a Bow ( Rihanna song ) = " Take a Bow " is a song recorded by Barbadian singer Rihanna for Good Girl Gone Bad : Reloaded ( 2008 ) , the re-release of her third studio album Good Girl Gone Bad ( 2007 ) . The song was written and produced by Tor Erik Hermansen , Mikkel Eriksen , and Shaffer Smith under their stage names StarGate and Ne-Yo . " Take a Bow " was released as the first single from the re-release and the fifth single overall from the two releases . It is an R &amp; B song that contains elements of dance-pop . Critical reception of " Take a Bow " was mixed , with some critics praising the song 's lyrics and powerful balladry impact , while others criticized the lack of originality with regard to StarGate 's production . In the US , the song peaked at number one on the Billboard Hot 100 chart and became Rihanna 's third song to do so . " Take a Bow " also peaked at number one on the US Hot R &amp; B / Hip-Hop Songs chart and US Pop Songs chart , and has been certified quadruple pla</t>
+          <t>An Unforgettable Summer = An Unforgettable Summer ( French : Un été inoubliable ; Romanian : O vară de neuitat ) is a 1994 drama film directed and produced by Lucian Pintilie . A Romanian-French co-production based on a chapter from a novel by Petru Dumitriu , it stars British actress Kristin Scott Thomas as the Hungarian-born aristocrat Marie-Thérèse Von Debretsy . Her marriage with Romanian Land Forces captain Petre Dumitriu brings her to Southern Dobruja ( present-day northeastern Bulgaria ) , where they settle in 1925 . There , she witnesses first-hand the violent clashes between , on one hand , the Greater Romanian administration , and , on the other , komitadji brigands of Macedonian origin and ethnic Bulgarian locals . The film shows her failed attempt to rescue Bulgarians held hostage by the Romanian soldiers , and who are destined for execution . An Unforgettable Summer also stars Claudiu Bleonţ as Captain Dumitriu and Marcel Iureş as Ipsilanti , a general whose unsuccessful a</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Hate That I Love You = " Hate That I Love You " is a song recorded by Barbadian singer Rihanna for her third studio album , Good Girl Gone Bad ( 2007 ) . It features vocals by American singer and songwriter Ne-Yo , who co-wrote the song with its producers StarGate . Def Jam Recordings released the song on August 21 , 2007 , as the third single from Good Girl Gone Bad . A Spanglish version featuring David Bisbal was made available on April 28 , 2008 . " Hate That I Love You " is a mid-tempo R &amp; B song about the power of love , with influences of folk music . " Hate That I Love You " received generally positive reviews from critics , many of whom compared it to previous works by Ne-Yo . The song achieved moderate success in comparison to other singles from the album , reaching the top twenty in thirteen countries . It reached number 15 on the UK Singles Chart , and number seven on the US Billboard Hot 100 chart . " Hate That I Love You " was certified platinum by the Recording Industry A</t>
+          <t>The Utility of Force = The Utility of Force : The Art of War in the Modern World is a treatise on modern warfare written by General Sir Rupert Smith and published in 2005 . Smith is a retired general who spent 40 years in the British Army ; he commanded the 1st Armoured Division in the First Gulf War and served as General Officer Commanding Northern Ireland at the end of the Troubles . He was motivated to write the book by his experiences in the Balkans . He commanded the United Nations Protection Force ( UNPROFOR ) in Bosnia from 1995 to 1996 , during which time the Srebrenica massacre occurred and the capital , Sarajevo , was under siege by Serb forces . Smith was instrumental in the lifting of the siege by arranging for NATO air strikes and an artillery barrage . This enabled a ground assault by Bosnian and Croatian forces that ended the siege and led to the Dayton Agreement . Smith 's second involvement with the Balkans was in 1999 during the Kosovo War , when he was serving as NAT</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>California King Bed = " California King Bed " is a song by Barbadian singer Rihanna from her fifth studio album , Loud ( 2010 ) . The sixth single from the album , it was released on May 13 , 2011 , by Def Jam . Priscilla Renea and Alex Delicata wrote the song with its main producers , Jermaine Jackson and Andrew Harr of The Runners . Its recording took place in 2010 in the studios We The Best in Miami and Burst HQ in Wisconsin . Released digitally on iTunes Store May 13 , 2011 , it began to be played on April 4 in Australian radios and May 31 in the US . Later , after their impact on radio areas , the song was also issued on CD single format in Europe and also an extended play ( EP ) digital with nine remixes from the original track . The song had a moderate effect on music charts , leading the tables Slovakia , Poland and reaching the five best-selling bands in Germany , Australia , Austria , New Zealand and Portugal , while on the Billboard Hot 100 reached the 37th position . = = Ba</t>
+          <t>The Lion , the Fox &amp; the Eagle = The Lion , the Fox &amp; the Eagle : A Story of Generals and Justice in Rwanda and Yugoslavia is a non-fiction book by Canadian journalist Carol Off . The hardcover edition was published in November 2000 by Random House Canada . The writing was favourably received and the book was short-listed for the Shaughnessy Cohen Award for Political Writing . With numerous interviews and extensive research behind it , the book presents biographies of three Canadians in United Nations roles in the 1990s : Roméo Dallaire ( the " lion " ) , Lewis MacKenzie ( the " fox " ) , and Louise Arbour ( the " eagle " ) . The book praises Dallaire 's commitment to his peacekeeping mission , but is critical of MacKenzie , who is depicted as being ignorant of the Bosnian political situation . In response to Off 's portrayal of him , MacKenzie considered sue for libel , but opted not to . The book praises Arbour 's efforts at building the legitimacy of International Criminal Tribunals</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rude Boy ( Rihanna song ) = " Rude Boy " is a song by Barbadian singer Rihanna , taken from her fourth studio album , Rated R ( 2009 ) . It was released as the album 's third single on February 19 , 2010 , through Def Jam . Rihanna co-wrote the song with StarGate , Ester Dean , Makeba Riddick , and Rob Swire , with Swire also co-producing it with StarGate . " Rude Boy " is an up-tempo dancehall song which incorporates elements of raggamuffin . The song received mixed to positive reviews from critics ; some called it is the highlight of the album , but others criticized Rihanna 's " monotone " and " icy " vocal performance . " Rude Boy " peaked at number one on the US Billboard Hot 100 in its fourth week for five consecutive weeks , and was Rihanna 's sixth US number one single . It was a commercial success globally , peaked at number one in Australia and attained top five positions in Germany , Hungary , Ireland , New Zealand , Norway , Poland , Slovakia , and the United Kingdom . The </t>
+          <t>Jovan Babunski = Jovan Stojković ( Serbian Cyrillic : Јован Стојковић ; 25 December 1878 – 17 February 1920 ) , known as Jovan Babunski ( Јован Бабунски ) , was a Serbian Chetnik commander ( Serbian : vojvoda , вoјвода ) during the Balkan Wars and World War I. Following the murder of his brother and nephew by the Internal Macedonian Revolutionary Organization ( IMRO ) , he joined a Chetnik band and took command of Chetnik units on the Vardar River , where he and his men often engaged Bulgarian and Ottoman forces . With the outbreak of the First Balkan War he joined the Serbian Army and was wounded while fighting in the village of Strevica . During the Second Balkan War , he joined a Serbian volunteer detachment and fought at the Battle of Bregalnica . During World War I , Babunski and his Chetnik detachment fought Austro-Hungarian forces in the summer of 1914 and later fought on the Salonika Front , where Babunski was ordained by French General Louis Franchet d 'Espèrey after he and hi</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Te Amo ( Rihanna song ) = " Te Amo " ( English : " I Love You " ) is a song by Barbadian recording artist Rihanna from her fourth studio album , Rated R ( 2009 ) . The electro-Latin song was written by Mikkel S. Eriksen , Tor Erik Hermansen , James Fauntleroy II and Rihanna , with production helmed by Eriksen and Hermansen under their production name , Stargate . " Te Amo " impacted radio in Canada on June 7 , 2010 , and was released via digital download on June 8 , 2010 , in Australia , Italy and New Zealand , as the album 's third international and fifth overall single . " Te Amo " incorporates elements of Latin American music and conveys Rihanna 's struggles as the object of another woman 's desires . Music critics praised the song for its lyrics and for a less futuristic sound than other songs on Rated R. " Te Amo " peaked inside the top ten of national charts , including the Czech Republic , Hungary and Poland . The song also attained top forty positions in Australia , The Netherl</t>
+          <t xml:space="preserve">Marburg 's Bloody Sunday = Marburg 's Bloody Sunday ( German : Marburger Blutsonntag , Slovene : Mariborska krvava nedelja ) is the name of a massacre that took place on Monday , 27 January 1919 in the city of Maribor ( German : Marburg an der Drau ) in Slovenia . Soldiers from the army of the Kingdom of Serbs , Croats and Slovenes ( later Yugoslavia ) , under the command of Slovene officer Rudolf Maister , killed between 9 and 13 civilians of German ethnic origin , wounding a further 60 , during a protest in a city centre square . Estimates of casualties differ between Slovene and Austrian sources . In November 1918 , after the First World War ended , the territories of southern Carinthia and southern Styria , which had been claimed by the Republic of German Austria , were captured by military units under Maister 's command . Maribor was the largest city of southern Styria , and had a predominately German population . A US delegation led by Sherman Miles visited Maribor on 27 January </t>
         </is>
       </c>
     </row>
@@ -1771,32 +1771,32 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>war following german april training japanese division attack march assigned transferred november december command commander 2nd august battalion remained 1st personnel october heavy february service awarded fighting officer september june support july killed men machine raised honours 5th days 6th australian unit combat formed january offensive units germans officers staff formation commanding advance operation 7th positions action battalions moved reserve operations period patrols brigade infantry rest middle_east divisions casualties subsequently world overseas new_zealand returned relieved disbanded squadron 3rd headquarters forces strength elements australia undertook 4th divisional general new_guinea north_africa duties served involved germany lieutenant korean wounded artillery fire gallipoli advancing</t>
+          <t>['plants', 'plant', 'botanical', 'tree', 'camouflage', 'animals', 'organisms', 'animal', 'gardens', 'species', 'garden', 'tea', 'trees', 'ecology', 'predators']</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>27th Battalion ( Australia ) = The 27th Battalion was an infantry battalion of the Australian Army . It was initially raised in 1915 as part of the First Australian Imperial Force for service during World War I. During the conflict , the battalion saw action briefly at Gallipoli before later fighting on the Western Front between 1916 and 1918 . It was disbanded in 1919 , but was re-raised in 1921 as part of the Citizens Force , which later became the " Militia " . During World War II the battalion was used mainly in a garrison role until the last year of the war when it was committed to the fighting against the Japanese during the Bougainville campaign . Following the end of hostilities it was disbanded in May 1946 . Between 1948 and 1965 the battalion was re-raised and disbanded a number of times before eventually becoming part of the Royal South Australia Regiment . It was disbanded for a final time in 1987 , when it was amalgamated with the 10th Battalion , Royal South Australia Reg</t>
+          <t>Written Chinese = Written Chinese ( Chinese : 中文 ; pinyin : zhōngwén ) comprises Chinese characters ( 汉字 / 漢字 ; pinyin : Hànzì , literally " Han characters " ) used to represent the Chinese language . Chinese characters do not constitute an alphabet or a compact syllabary . Rather , the writing system is roughly logosyllabic ; that is , a character generally represents one syllable of spoken Chinese and may be a word on its own or a part of a polysyllabic word . The characters themselves are often composed of parts that may represent physical objects , abstract notions , or pronunciation . Literacy requires the memorization of a great many characters : educated Chinese know about 4,000 . The large number of Chinese characters has in part led to the adoption of Western alphabets as an auxiliary means of representing Chinese . Various current Chinese characters have been traced back to the late Shang Dynasty about 1200 – 1050 BC , but the process of creating characters is thought to have</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>6th Division ( Australia ) = The 6th Division was an infantry division of the Australian Army . It was raised briefly in 1917 during World War I , but was broken up to provide reinforcements before seeing action . It was not re-raised until the outbreak of World War II , when it was formed as a unit of the Second Australian Imperial Force ( 2nd AIF ) . Throughout 1940 – 41 it served in the North African Campaign , the Greek campaign , on Crete and in Syria , fighting against the Germans , Italians and Vichy French . In 1942 , the division left the Middle East and returned to Australia to meet the threat of Japan 's entry into the war . Part of the division garrisoned Ceylon for a short period of time , before the division was committed to the New Guinea campaign . In New Guinea , its component brigades had a major role in the successful counter-offensive along the Kokoda Track , at Buna – Gona and around Salamaua – Lae in 1942 – 43 . Throughout late 1943 – 44 , the division was re-orga</t>
+          <t>Castle Lake ( California ) = Castle Lake is a glacial lake ( cirque lake or tarn ) located in the Trinity Mountains , in Siskiyou County of northern California . It is west of Mount Shasta City and Mount Shasta peak . The outlet of the lake drains into Castle Lake Creek , and then into Lake Siskiyou reservoir , part of the headwaters of the Sacramento River . Nearly all of the lake 's 47 acres ( 19 ha ) are within the Shasta-Trinity National Forest . Trails lead from Castle Lake into the adjacent Castle Crags Wilderness area , and on to Castle Crags State Park , including trails to Little Castle Lake and Heart Lake . Fishing , camping , and hiking are also available at or near the lake . = = Natural history = = Castle Lake and the surrounding area contain a wide variety of animals and plants including trout , bears , deer , otters , frogs , and osprey . The area is also well-known for early summer displays of flowers , including red Columbine ( Aquilegia truncata ) , fawn lily ( Erythr</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve">15th Battalion ( Australia ) = The 15th Battalion was an infantry battalion of the Australian Army . Formed in 1914 as part of the all-volunteer Australian Imperial Force from Queensland and Tasmanian recruits , the battalion fought during the Gallipoli Campaign and on the Western Front during the First World War . It was disbanded after the war in 1919 , but later re-raised as a part-time Citizens Forces unit based in Queensland in 1921 , consisting of a mixture of volunteers and conscripts . Economic pressures and limited manpower resulted in the battalion being amalgamated with other battalions a couple of times during the inter-war years . In mid-1939 , as rising tensions in Europe led to an expansion of the Australian military , the battalion was re-formed in its own right . During the Second World War the 15th Battalion was mobilised for wartime service and initially undertook defensive duties in Australia before taking part in the fighting against the Japanese in New Guinea and </t>
+          <t>Group 12 element = Group 12 , by modern IUPAC numbering , is a group of chemical elements in the periodic table . It includes zinc ( Zn ) , cadmium ( Cd ) and mercury ( Hg ) . The further inclusion of copernicium ( Cn ) in group 12 is supported by recent experiments on individual copernicium atoms . Group 12 is also known as the volatile metals , although this can also more generally refer to any metal ( which need not be in group 12 ) that has high volatility , such as polonium or flerovium . Formerly this group was named IIB ( pronounced as " group two B " , as the " II " is a Roman numeral ) by CAS and old IUPAC system . The three group 12 elements that occur naturally are zinc , cadmium and mercury . They are all widely used in electric and electronic applications , as well as in various alloys . The first two members of the group share similar properties as they are solid metals under standard conditions . Mercury is the only metal that is a liquid at room temperature . While zinc</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>10th Battalion ( Australia ) = The 10th Battalion was an infantry battalion of the Australian Army that served as part of the Australian Imperial Force during World War I. Among the first units raised in Australia during the war , the battalion was recruited from South Australia in August 1914 and along with the 9th , 11th and 12th Battalions , it formed part of the 3rd Brigade , 1st Division . After its personnel completed basic training , the battalion embarked for the Middle East , where further training was undertaken in Egypt before the battalion was committed to the Gallipoli Campaign . On 25 April 1915 , the 10th Battalion took part in the Landing at Anzac Cove , coming ashore during the initial stages of the operation as part of the covering force . Members from the 10th Battalion penetrated the furthest inland of any Australian troops during the initial fighting , before the Allied advance inland was checked . After this , the battalion helped defend the beachhead against a Tu</t>
+          <t>Halfbeak = The halfbeaks ( family Hemiramphidae ) are a geographically widespread and numerically abundant family of epipelagic fish inhabiting warm waters around the world . The halfbeaks are named for their distinctive jaws , in which the lower jaws are significantly longer than the upper jaws . The similar viviparous halfbeaks ( family Zenarchopteridae ) have often been included in this family . Though not commercially important themselves , these forage fish support artisanal fisheries and local markets worldwide . They are also fed upon by other commercially important predatory fishes , such as billfishes , mackerels , and sharks . = = Taxonomy = = In 1775 , Carl Linnaeus was the first to scientifically describe a halfbeak , Esox brasiliensis . In 1775 Peter Forsskål described two more species as Esox , Esox far and Esox marginatus . It was not until 1816 that Georges Cuvier created the genus Hemiramphus ; from then on , all three were classified as Hemiramphus . In 1859 , Gill er</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2 / 15th Battalion ( Australia ) = The 2 / 15th Battalion was an infantry battalion of the Australian Army that served during World War II . Formed in May 1940 primarily from Queensland volunteers , the battalion saw action in North Africa in 1941 – 42 as part of the 20th Brigade , which was part of the 7th Division before being reassigned to the 9th Division . After completing training in Palestine , in early 1941 , the 2 / 15th took up positions along the front line in the Western Desert , before being pushed back to Tobruk . Between April and October 1941 , along with a garrison of British and other Australian personnel , the battalion helped to hold the strategically important port , which had been surrounded following the landing of German troops at Tripoli . It was withdrawn by sea in late October 1941 as the 9th Division was relieved by the British 70th Division . Following its withdrawal from Tobruk , the battalion re-formed at Gaza before undertaking garrison duties in Syria .</t>
+          <t xml:space="preserve">Brown thrasher = The brown thrasher ( Toxostoma rufum ) is a bird in the family Mimidae , which also includes the New World catbirds and mockingbirds . The dispersal of the brown thrasher is abundant throughout the eastern and central United States , southern and central Canada , and is the only thrasher to live primarily east of the Rockies and central Texas . It is the state bird of Georgia . As a member of the genus Toxostoma , the bird is a large-sized thrasher . It has brown upper parts with a white under part with dark streaks . Because of this , it is often confused with the smaller wood thrush ( Hylocichla mustelina ) , among other species . The brown thrasher is noted for having over 1000 song types , and the largest song repertoire of birds . However , each note is usually repeated in two or three phrases . The brown thrasher is an omnivore , with its diet ranging from insects to fruits and nuts . The usual nesting areas are shrubs , small trees , or at times on ground level </t>
         </is>
       </c>
     </row>
@@ -1806,32 +1806,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>rainfall meteorological preparations watch florida flooding damage winds hurricane issued reported rain landfall mexico usd rains warnings sustained caused wave homes category storm national_hurricane_center flooded flash affected mbar heavy louisiana tides waves hours causing occurred inland gulf_of_mexico evacuated washed shelters warning nhc caribbean_sea saffir offshore eye mph gusts gale estimated remnants watches crops coast destroyed intensity attained ashore downed totaled minimal advised beach coastline reports southeastern strong status portions hundreds tracked surge inhg weakened disaster utc simpson atlantic_ocean impact rapidly rough gradually damaged extratropical coastal drowned hpa bahamas worst wind bermuda evacuation seas peak strongest circulation moderate resulting dropped northwestward</t>
+          <t>['phillies', 'inning', 'yankees', 'dodgers', 'teams', 'breaker', 'giants', 'mlb', 'tie', 'yankee', 'postseason', 'game', 'run', 'pitcher', 'baseball']</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Hurricane Baker ( 1950 ) = Hurricane Baker was a major hurricane that affected the Leeward Islands , Greater Antilles , and the Gulf Coast of the United States . The tropical cyclone was the second intense hurricane , second hurricane , and second tropical storm of the 1950 Atlantic hurricane season . Hurricane Baker attained peak winds of 120 mph ( 195 km / h ) near the Leeward Islands , traversed Antigua , and weakened to a tropical depression southwest of Puerto Rico . It re-intensified south of Cuba , strengthened to a strong Category 2 hurricane in the Gulf of Mexico , and hit the United States near Gulf Shores , Alabama , with winds of 85 mph ( 140 km / h ) . Hurricane Baker produced extensive damage in the Lesser Antilles and Cuba , but impacts were minimal in the United States . = = Meteorological history = = On the morning of August 20 , a strong tropical storm developed about 446 miles ( 718 km ) east of Basse-Terre , Guadeloupe . The tropical storm deepened to hurricane inte</t>
+          <t>Unearthed ( Fringe ) = " Unearthed " is the 11th episode of the second season of the American science fiction drama television series Fringe . While the body of a young , recently deceased girl is being harvested of its organs , she suddenly comes back to life yelling classified naval launch codes and Russian phrases , leading the Fringe Division to a recently murdered naval officer . The episode was written by co-executive producers David H. Goodman and Andrew Kreisberg , and was directed by producer Frederick E. O. Toye . Though the episode was produced at the end of the first season " Unearthed " first aired during the second season , on January 11 , 2010 , in a one-time timeslot . An estimated 7.79 million viewers tuned into the episode , giving it a " whopping " ratings improvement over its best ratings of the season . It was included in the second season 's DVD release as a special feature . The episode was almost unanimously disliked by critics , with one reviewer calling it " a</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Tropical Storm Barbara ( 2007 ) = Tropical Storm Barbara was the first tropical cyclone to make landfall during the 2007 Pacific hurricane season . The second storm of the season , Barbara developed from a small low pressure area on May 29 about 235 miles ( 380 km ) southeast of Acapulco , Mexico . The system drifted southward before turning to a steadily eastward motion , and quickly intensified into a tropical storm . Increased wind shear weakened Barbara , though it re-organized to attain peak winds of 50 mph ( 85 km / h ) before moving ashore just west of the border of Mexico and Guatemala . It rapidly weakened over land , and on June 2 the National Hurricane Center discontinued advisories on the storm . Despite expectations that the storm would attain hurricane status , Barbara moved ashore as a small , weak tropical storm . It produced locally heavy rainfall and gusty winds , and in most locations damage was minor . However , in southern Mexico , the rainfall destroyed large area</t>
+          <t xml:space="preserve">Rockstar Games Presents Table Tennis = Rockstar Games Presents Table Tennis is a table tennis simulation video game developed by Rockstar San Diego and published by Rockstar Games . The game was first released for the Xbox 360 on May 23 , 2006 in North America , and on May 26 , 2006 in Europe . It was later released for the Wii on October 17 , 2007 in North America , and on October 19 , 2007 in Europe . The game is a realistic simulation of the sport table tennis , with the main objective to make the opponent fail to hit the ball . The game features various methods of serving and returning the ball , designed for players to beat their opponent . Players can compete against the game 's artificial intelligence , while the game 's multiplayer mode lets two players compete in matches , either through local multiplayer or online . Initially developed specifically for the Xbox 360 console , the development team took advantage of the hardware 's graphical power , allowing the game to play at </t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Tropical Depression One ( 1992 ) = Tropical Depression One in June 1992 produced 100-year floods in portions of southwestern Florida . The first tropical depression and second tropical cyclone of the 1992 Atlantic hurricane season , the depression developed on June 25 from a tropical wave . Located in an environment of strong wind shear , much of the convection in the system was located well to the southeast of the poorly defined center of circulation . The depression moved northeastward and made landfall near Tampa , Florida on June 26 shortly before dissipating over land . The depression , in combination with an upper-level trough to its west , produced heavy rainfall to the east of its path , peaking at 33.43 inches ( 849 mm ) in Cuba and 25 inches ( 635 mm ) in Florida . In Cuba , the rainfall destroyed hundreds of homes and caused two fatalities . In Florida , particularly in Sarasota and Manatee counties , the rainfall caused severe flooding . 4,000 houses were affected , forcing</t>
+          <t>2008 American League Central tie-breaker game = The 2008 American League Central tie-breaker game was a one-game extension to Major League Baseball 's ( MLB ) 2008 regular season , played between the Chicago White Sox and Minnesota Twins to determine the champion of the American League 's ( AL ) Central Division . It was played at US Cellular Field in Chicago , Illinois , on September 30 , 2008 . The White Sox won the game , 1 – 0 , on a home run by Jim Thome , the lowest-scoring game in MLB tie-breaker history . The Sox advanced to the 2008 AL Division Series , where they lost to the Tampa Bay Rays , three games to one ; the Twins failed to qualify for the postseason . The game was necessary after both teams finished the season with identical win – loss records of 88 – 74 . The White Sox won a coin flip late in the season which , by rule , awarded them home field in the game . In baseball statistics , the tie-breaker counted as the 163rd regular season game by both teams , with all ev</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Hurricane Henriette ( 1995 ) = Hurricane Henriette was the ninth tropical cyclone , eight named storm and fifth hurricane of the 1995 Pacific hurricane season . Henriette developed from a tropical wave that emerged from the west coast of Africa on August 15 . After crossing the Atlantic and moving into the eastern Pacific on August 29 , it developed a low-level circulation that was designated a tropical depression on September 1 . The next day , the depression was upgraded to Tropical Storm Henriette , and it was further upgraded to a hurricane on September 3 . The storm peaked as a Category 2 hurricane on the Saffir-Simpson Hurricane Scale , and crossed the southern tip of Baja California Peninsula . On land , wind gusts of 100 mph ( 160 km / h ) were reported , knocking out power and water supplies . Heavy rainfall and strong storm surge contributed to flooding that damaged many roads ; throughout the region , 800 people were forced from their homes . = = Meteorological history = = A</t>
+          <t>Strike Back : Project Dawn = Strike Back : Project Dawn , as it is known in the United Kingdom is a ten-part British-American action television serial and is the second series of Strike Back . However , the only cast member to return from the first series was Richard Armitage in the first episode . The main cast for the series includes Philip Winchester , Sullivan Stapleton , Amanda Mealing , Eva Birthistle , Michelle Lukes and Rhashan Stone . The series follows the actions of Section 20 , a secret branch of the British Secret Intelligence Service ( MI6 ) , particularly two of its officers , Michael Stonebridge ( Winchester ) and former American Delta Force operative Damian Scott ( Stapleton ) . Section 20 leads a worldwide manhunt to find and capture Pakistani terrorist Latif , who is plotting an operation of his known as " Project Dawn " . Sky announced Strike Back would be returning for a third series after the first aired . They entered a co-production deal with the American premiu</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Subtropical Storm One ( 1974 ) = Subtropical Storm One was a short-lived subtropical cyclone that brought copious amounts of rainfall to central Florida in late June 1974 . The storm originated in an area of convection that detached from a tropical depression over the southwestern Gulf of Mexico on June 24 . A new area of low pressure developed underneath the convection and the system began to intensify . Later that day , the storm had become sufficiently organized to be classified as a subtropical depression . Early on June 25 , it made landfall near Clearwater , Florida with winds of 50 mph ( 85 km / h ) and later attained its peak intensity over eastern Florida with winds of 65 mph ( 100 km / h ) . After reemerging into the Atlantic Ocean , the system began to weaken as it underwent an extratropical transition . The storm ultimately dissipated off the coast of North Carolina early on June 26 . Despite its relatively weak strength , the system produced nearly 12 in ( 300 mm ) of rain</t>
+          <t>Search Committee = " Search Committee " is the hour-long finale of the seventh season of the American television comedy series The Office . It comprises the 151st and 152nd episodes of the series overall and the 25th and 26th episodes of the seventh season . It originally aired on NBC on May 19 , 2011 in the United States . In the episode , Deangelo 's new replacement is sought out through a search committee process led by Jim ( John Krasinski ) . Meanwhile , Angela becomes engaged to her state senator boyfriend , Robert ( Jack Coleman ) , while the rest of the office believes he is gay . The episode was written by show runner and executive producer Paul Lieberstein and was directed by Jeffrey Blitz . The episode featured several guest appearances including one from The Office co-creator Ricky Gervais , his second appearance on the series . The episode also marks the first appearance of James Spader and Catherine Tate , the former of whom was a series regular in the eighth season while</t>
         </is>
       </c>
     </row>
@@ -1841,32 +1841,32 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>rating office jim dwight episode aired nbc watching nielsen michael pam share rated viewed ratings andy directed broadcast mulder viewers noting guest references files demographic scully agents olds plot tells tries enjoyed television liz households ages employees ign david_duchovny angela rainn_wilson scranton gets fictional dana_scully steve_carell john_krasinski funny comedy lives watched reviews dunder mifflin fbi paranormal credit fox_mulder ultimately trying gillian_anderson jenna deleted camera jenna_fischer documentary says stars talking x-files getting realizes mifflin_paper_company moments finds job michael_scott linked ed_helms calling everyday jim_halpert guide saturday reference aged entry asks depicts favorite cbs dwight_schrute ryan calls decides adults creator alan_sepinwall jan oscar</t>
+          <t>['painting', 'paintings', 'art', 'artist', 'serbian', 'works', 'marie', 'exhibition', 'copenhagen', 'photography', 'photographers', 'canvas', 'painted', 'symphony', 'portrait']</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Christmas Wishes ( The Office ) = " Christmas Wishes " is the tenth episode of the eighth season of the American comedy television series The Office , and the show 's 162nd episode overall . The episode originally aired on NBC in the United States on December 8 , 2011 . It was written by executive producer Mindy Kaling and was directed by Ed Helms in his directorial debut . The episode guest starred Lindsey Broad , Ameenah Kaplan , and Eleanor Seigler . The series — presented as if it were a real documentary — depicts the everyday lives of office employees in the Scranton , Pennsylvania , branch of the fictional Dunder Mifflin Paper Company . In this episode , Andy Bernard ( Ed Helms ) attempts to make everyone 's Christmas wishes come true , including those of a drunken Erin Hannon ( Ellie Kemper ) . Meanwhile , Dwight Schrute ( Rainn Wilson ) and Jim Halpert ( John Krasinski ) are entangled in an escalating prank war wherein one attempts to frame the other . " Christmas Wishes " rece</t>
+          <t>The Nightmare = The Nightmare is a 1781 oil painting by Anglo-Swiss artist Henry Fuseli ( 1741 – 1825 ) . Since its creation , it has remained Fuseli 's best-known work . With its first exhibition in 1782 at the Royal Academy of London , the image became famous ; an engraved version was widely distributed and the painting was parodied in political satire . Due to its fame , Fuseli painted at least three other versions of the painting . Interpretations of The Nightmare have varied widely . The canvas seems to portray simultaneously a dreaming woman and the content of her nightmare . The incubus and the horse 's head refer to contemporary belief and folklore about nightmares , but have been ascribed more specific meanings by some theorists . Contemporary critics were taken aback by the overt sexuality of the painting , which has since been interpreted by some scholars as anticipating Jungian ideas about the unconscious . = = Description and history = = The Nightmare simultaneously offers</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Conflict Resolution ( The Office ) = " Conflict Resolution " is the twenty-first and penultimate episode of the second season of the American comedy television series The Office , the show 's twenty-seventh episode overall . Written by executive producer and show runner Greg Daniels and directed by Charles McDougall , " Conflict Resolution " first aired in the United States on May 4 , 2006 on NBC . The episode guest stars Scott Adsit , from Moral Orel and 30 Rock , as a photographer . The series depicts the everyday lives of office employees in the Scranton , Pennsylvania branch of the fictional Dunder Mifflin Paper Company . In the episode , Michael Scott ( Steve Carell ) resolves a conflict between Oscar Martinez ( Oscar Nunez ) and Angela Martin ( Angela Kinsey ) , and then discovers a file of other unresolved complaints between staff members and he determines to resolve them . But Michael 's attempts actually unearth old tensions and create new ones between the office employees . M</t>
+          <t xml:space="preserve">Martinique macaw = The Martinique macaw or orange-bellied macaw ( Ara martinicus ) is a hypothetical extinct species of macaw which may have been endemic to the Lesser Antillean island of Martinique , in the eastern Caribbean Sea . It was scientifically named by Walter Rothschild in 1905 , based on a 1630s description of " blue and orange-yellow " macaws by Père Jacques Bouton . No other evidence of its existence is known , but it may have been identified in contemporary artwork . Some writers have suggested that the birds observed were actually blue-and-yellow macaws ( Ara ararauna ) . The " red-tailed blue-and-yellow macaw " ( Ara erythrura ) , another species described by Rothschild in 1907 based on a 1658 account , is thought to be identical to the Martinique macaw , if either has ever existed . The Martinique macaw is one of thirteen extinct macaw species that have been proposed to have lived in the Caribbean islands . Many of these species are now considered dubious because only </t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Viewing Party = " Viewing Party " is the eighth episode of seventh season of the American comedy television series The Office , and the show 's 134th episode overall . Written by Jon Vitti and directed by Ken Whittingham , the episode aired on NBC in the United States on November 11 , 2010 . The series — presented as if it were a real documentary — depicts the everyday lives of office employees in the Scranton , Pennsylvania , branch of the fictional Dunder Mifflin Paper Company . In the episode , Erin Hannon ( Ellie Kemper ) and Gabe Lewis ( Zach Woods ) invite the office over to Gabe 's house for a Glee viewing party . Michael Scott cannot handle the fact that the office workers think of Gabe as their boss instead of him . Growing more jealous of Gabe and Erin 's relationship , Andy Bernard ( Ed Helms ) goes to extremes in order to impress her . Dwight Schrute ( Rainn Wilson ) helps Pam Halpert ( Jenna Fischer ) with Cece , much to her husband Jim 's chagrin . The episode featured se</t>
+          <t>Jackie Hudson = Jacqueline Marie " Jackie " Hudson , O.P. , ( November 19 , 1934 – August 3 , 2011 ) was an American Dominican Sister and anti-nuclear activist . She spent the first 29 years of her working career as a music teacher . After her retirement from education , she dedicated her life to anti-war activism , during the course of which her actions led her to be arrested several times . In 2011 , after a decline in her health in prison , Hudson died from multiple myeloma at the age of 76 . = = Early life , education , and career = = Born in Saginaw , Michigan , she was the youngest of two children . Her father had studied in a seminary for a time and both her parents were very religious . Hudson was raised in the Roman Catholic faith and attended Catholic schools for her entire education . In 1952 , at the age of 18 , she decided to join the Dominican Sisters of Grand Rapids . After her initial formation as a member of her religious congregation , Hudson was permitted to attend V</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>The Target ( The Office ) = " The Target " is the eighth episode of the ninth season of the American comedy television series The Office and the 184th episode overall . The episode originally aired on NBC on November 29 , 2012 . It features guest star Chris Gethard as Trevor . The series depicts the everyday lives of office employees in the Scranton , Pennsylvania branch of the fictional Dunder Mifflin Paper Company . In the episode , Angela Lipton ( Angela Kinsey ) goes to Dwight Schrute ( Rainn Wilson ) for help when she learns that her husband is having an affair . Stanley Hudson ( Leslie David Baker ) and Phyllis Vance ( Phyllis Smith ) take advantage of Jim Halpert ( John Krasinski ) when he needs a favor , and Pete ( Jake Lacy ) distracts Pam Halpert ( Jenna Fischer ) as she begins painting her mural . " The Target " received positive reviews from critics , with many commenting on Nunez and Kinsey 's performances . The episode was viewed by 3.88 million viewers and received 1.9 /</t>
+          <t xml:space="preserve">Changi Murals = The Changi Murals are a set of five paintings of biblical theme painted by Stanley Warren , a British bombardier and prisoner-of-war ( POW ) interned at the Changi Prison , during the Japanese occupation of Singapore in World War II ( WWII ) . His murals were completed under difficult conditions of sickness , limited materials and hardships . With a message of universal love and forgiveness , they helped to uplift the spirits of the POWs and sick when they sought refuge in the prison chapel . After the war , the walls of the chapel were distempered over , hiding the murals from view . They were forgotten until its rediscovery in 1958 . Due to their historical significance , an international search was conducted to locate the original painter in helping to restore the damaged and faded murals . Stanley was eventually found in 1959 and , after much persuasion , agreed to assist in the restoration project . He made three trips to Singapore between 1963 and 1988 to restore </t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>The Merger ( The Office ) = " The Merger " is the eighth episode of the third season of the American comedy television series The Office and the show 's 36th overall . It was written by consulting producer Brent Forrester and directed by Ken Whittingham . It first aired on November 16 , 2006 , as a special " super-sized " 40-minute ( including commercials ) episode on NBC . The series depicts the everyday lives of office employees in the Scranton and Stamford branches of the fictional Dunder Mifflin Paper Company . In this episode , the two branches are merged . Jim Halpert ( John Krasinski ) and Pam Beesley ( Jenna Fischer ) have an awkward reunion , Michael Scott ( Steve Carell ) tries to make his new employees feel welcome , and a rivalry begins between Dwight Schrute ( Rainn Wilson ) and Andy Bernard ( Ed Helms ) . The episode featured recurring guest stars Helms , Creed Bratton , Rashida Jones , Wayne Wilderson , Mike Bruner , and Ursula Burton . According to Nielsen Media Researc</t>
+          <t>Tamerlane and Other Poems = Tamerlane and Other Poems is the first published work by American writer Edgar Allan Poe . The short collection of poems was first published in 1827 . Today , it is believed only 12 copies of the collection still exist . Poe abandoned his foster family , the Allans , and moved to Boston to find work in 1827 . Having only minor success , he enlisted in the United States Army . He brought with him several manuscripts , which he paid a printer named Calvin F. S. Thomas to publish . The 40-page collection was called Tamerlane and Other Poems and did not include Poe 's name . Distribution was limited to 50 copies and it received no critical attention . The poems were largely inspired by Lord Byron , including the long title poem " Tamerlane " , which depicts an historical conqueror who laments the loss of his first romance . Like much of Poe 's future work , the poems in Tamerlane and Other Poems include themes of love , death , and pride . Poe 's first published</t>
         </is>
       </c>
     </row>
@@ -1876,32 +1876,32 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>species small female large male found larger size long shark dorsal head adult waters body range eyes sharks females males fins fin mainly upper feeding caught eggs adults prey black predators length lower genus populations tail habitat pectoral shallow fisheries reef bird fishes juveniles individuals marine birds water teeth sea food likely fish common skin taxonomy highly concern nest spots tip fishing mouth egg feeds reproductive snout ray assessed mating smaller jaw occurs bony animals sexual feed caudal aggressive juvenile predator pairs threatened reproduction threat tooth relatively description embryos ventral mature jaws animal subspecies usually observed anal yolk habitats catch</t>
+          <t>['spacecraft', 'apollo', 'nasa', 'orbit', 'mission', 'lunar', 'launch', 'saturn', 'docking', 'flight', 'manned', 'module', 'space', 'landing', 'earth']</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Whitetip reef shark = The whitetip reef shark ( Triaenodon obesus ) is a species of requiem shark , in the family Carcharhinidae , and the only member of its genus . A small shark usually not exceeding 1.6 m ( 5.2 ft ) in length , this species is easily recognizable by its slender body and short but broad head , as well as tubular skin flaps beside the nostrils , oval eyes with vertical pupils , and white-tipped dorsal and caudal fins . One of the most common sharks found on Indo-Pacific coral reefs , the whitetip reef shark occurs as far east as South Africa and as far west as Central America . It is typically found on or near the bottom in clear water , at a depth of 8 – 40 m ( 26 – 131 ft ) . During the day , whitetip reef sharks spend much of their time resting inside caves . Unlike other requiem sharks , which rely on ram ventilation and must constantly swim to breathe , this shark can pump water over its gills and lie still on the bottom . At night , whitetip reef sharks emerge t</t>
+          <t>STS-74 = STS-74 was the fourth mission of the US / Russian Shuttle-Mir Program , and the second docking of the Space Shuttle with Mir . Space Shuttle Atlantis lifted off from Kennedy Space Center launch pad 39A on 12 November 1995 . The mission ended 8 days later with the landing of Atlantis back at Kennedy . It was the second in a series of seven straight missions to the station flown by Atlantis . The shuttle delivered a pair of solar arrays along with the Russian-built Mir Docking Module to allow docking with the station by the space shuttle without moving Mir 's Kristall module . During the three-day docking , the Russian , Canadian , and American crew transferred supplies and equipment between Atlantis and Mir , moved several long-term experiments , and upgraded the station with new equipment , particularly during the installation of the docking module . = = Crew = = = = Mission background = = The crew 's preparation for the mission had begun some thirteen months earlier in 1994 ,</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Dusky shark = The dusky shark ( Carcharhinus obscurus ) is a species of requiem shark , in the family Carcharhinidae , occurring in tropical and warm-temperate continental seas worldwide . A generalist apex predator , the dusky shark can be found from the coast to the outer continental shelf and adjacent pelagic waters , and has been recorded from a depth of 400 m ( 1,300 ft ) . Populations migrate seasonally towards the poles in the summer and towards the equator in the winter , traveling hundreds to thousands of kilometers . One of the largest members of its genus , the dusky shark reaches 4.2 m ( 14 ft ) in length and 347 kg ( 765 lb ) in weight . It has a slender , streamlined body and can be identified by its short round snout , long sickle-shaped pectoral fins , ridge between the first and second dorsal fins , and faintly marked fins . Adult dusky sharks have a broad and varied diet , consisting mostly of bony fishes , sharks and rays , and cephalopods , but also occasionally cru</t>
+          <t>Granat = The International Astrophysical Observatory " GRANAT " ( usually known as Granat ; Russian : Гранат ) , was a Soviet ( later Russian ) space observatory developed in collaboration with France , Denmark and Bulgaria . It was launched on 1 December 1989 aboard a Proton rocket and placed in a highly eccentric four-day orbit , of which three were devoted to observations . It operated for almost nine years . In September 1994 , after nearly five years of directed observations , the gas supply for its attitude control was exhausted and the observatory was placed in a non-directed survey mode . Transmissions finally ceased on 27 November 1998 . With seven different instruments on board , Granat was designed to observe the universe at energies ranging from X-ray to gamma ray . Its main instrument , SIGMA , was capable of imaging both hard X-ray and soft gamma-ray sources . The PHEBUS instrument was meant to study gamma-ray bursts and other transient X-Ray sources . Other experiments s</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Tiger shark = The tiger shark ( Galeocerdo cuvier ) is a species of requiem shark and the only extant member of the genus Galeocerdo . Commonly known as the " Sea Tiger " , the tiger shark is a relatively large macropredator , capable of attaining a length over 5 m ( 16 ft 5 in ) . It is found in many tropical and temperate waters , and it is especially common around central Pacific islands . Its name derives from the dark stripes down its body which resemble a tiger 's pattern , which fade as the shark matures . The tiger shark is a solitary , mostly nocturnal hunter and is notable for having the widest food spectrum of all sharks , consuming a variety of prey ranging from crustaceans , fish , seals , birds , squid , turtles and sea snakes to dolphins and even other smaller sharks . The tiger shark has been known to eat inedible manmade objects that linger in its stomach , and it has a reputation as a " garbage eater " . While the tiger shark sits atop the food chain as an apex predat</t>
+          <t>Svalbard Satellite Station = Svalbard Satellite Station ( Norwegian : Svalbard satelittstasjon ) or SvalSat is a satellite ground station located on Platåberget near Longyearbyen in Svalbard , Norway . Opened in 1997 , it is operated by Kongsberg Satellite Services ( KSAT ) , a joint venture between Kongsberg Defence &amp; Aerospace and the Norwegian Space Centre ( NSC ) . SvalSat and KSAT 's Troll Satellite Station ( TrollSat ) in Antarctica are the only ground stations that can see a low altitude polar orbiting satellite ( e.g. , in sun-synchronous orbit ) on every revolution as the earth rotates . The facility consists of 31 multi-mission and customer-dedicated antennas which operate in the C , L , S and X bands . The station provides ground services to more satellites than any other facility in the world . Customers with their own installations include the European Organisation for the Exploitation of Meteorological Satellites ( EUMETSAT ) , the National Aeronautics and Space Administr</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Shark = Sharks are a group of fish characterized by a cartilaginous skeleton , five to seven gill slits on the sides of the head , and pectoral fins that are not fused to the head . Modern sharks are classified within the clade Selachimorpha ( or Selachii ) and are the sister group to the rays . However , the term " shark " has also been used for extinct members of the subclass Elasmobranchii outside the Selachimorpha , such as Cladoselache and Xenacanthus , as well as other Chondrichthyes such as the holocephalid eugenedontidans . Under this broader definition , the earliest known sharks date back to more than 420 million years ago . Acanthodians are often referred to as " spiny sharks " ; though they are not part of Chondrichthyes proper , they are a paraphyletic assemblage leading to cartilaginous fish as a whole . Since then , sharks have diversified into over 500 species . They range in size from the small dwarf lanternshark ( Etmopterus perryi ) , a deep sea species of only 17 ce</t>
+          <t>1966 NASA T-38 crash = The 1966 NASA T-38 crash occurred when a NASA Northrop T-38 Talon crashed at Lambert Field in St. Louis , Missouri , on February 28 , 1966 , killing two Project Gemini astronauts , Elliot See and Charles Bassett . The aircraft , piloted by See , crashed into the McDonnell Aircraft building where their Gemini 9 spacecraft was being assembled . The weather was poor with rain , snow , fog , and low clouds . A NASA panel , headed by the Chief of the Astronaut Office , Alan Shepard , investigated the crash . While the panel considered possible medical issues or aircraft maintenance problems , in addition to the weather and air traffic control factors , the end verdict was that the crash was caused by pilot error . In the aftermath of the crash , the backup crew of Thomas Stafford and Eugene Cernan were moved up to the primary position for the Gemini 9 mission , scheduled for early June . Jim Lovell and Buzz Aldrin , who had formerly been the backup for Gemini 10 , bec</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Grey reef shark = The grey reef shark ( Carcharhinus amblyrhynchos , sometimes misspelled amblyrhynchus or amblyrhinchos ) is a species of requiem shark , in the family Carcharhinidae . One of the most common reef sharks in the Indo-Pacific , it is found as far east as Easter Island and as far west as South Africa . This species is most often seen in shallow water near the drop-offs of coral reefs . The grey reef shark has the typical " reef shark " shape , with a broad , round snout and large eyes . This species can be distinguished from similar species by the plain or white-tipped first dorsal fin , the dark tips on the other fins , the broad , black rear margin on the tail fin , and the lack of a ridge between the dorsal fins . Most individuals are less than 1.9 m ( 6.2 ft ) long . Grey reef sharks are fast-swimming , agile predators that feed primarily on free-swimming bony fishes and cephalopods . Their aggressive demeanor enables them to dominate many other shark species on the r</t>
+          <t>STS-8 = STS-8 was the eighth NASA Space Shuttle mission and the third flight of the Space Shuttle Challenger . It launched on August 30 , 1983 and landed on September 5 , conducting the first night launch and night landing of the Space Shuttle program . It also carried the first African-American astronaut , Guion Bluford . The mission successfully achieved all of its planned research objectives , but was marred by the subsequent discovery that a solid-fuel rocket booster had almost malfunctioned catastrophically during the launch . The mission 's primary payload was INSAT-1B , an Indian communications and weather observation satellite , which was released by the orbiter and boosted into a geostationary orbit . The secondary payload , replacing a delayed NASA communications satellite , was a four-metric-ton dummy payload , intended to test the use of the shuttle 's " Canadarm " remote manipulator system . Scientific experiments carried onboard Challenger included the environmental testi</t>
         </is>
       </c>
     </row>
@@ -1911,32 +1911,32 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ride train coaster roller riders station steel trains lift operate hour brake drop themed officially cars passengers roll opened passenger foot operated attraction chain oslo norwegian services hill guests locomotive owned market rides locomotives plans height build tall flags amusement nok railway platform shoulder manufactured longest operating adventure car supports park planning travel layout tallest tunnel experience pier coasters queue bought ticket cedar poll seating attractions capacity vertical operates stock delivered announcement platforms purchase acquired norway facilities railways brand approximately opening installation drops attendance loop purchased products restraints installed freight seats allow reopened manufacturer store banked stations venue express axle</t>
+          <t>['contest', 'broadcaster', 'semi', 'countries', 'jury', 'final', 'participating', 'greece', 'voting', 'host', 'idol', 'entry', 'philippine', 'song', 'country']</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Phantom 's Revenge = Phantom 's Revenge ( formerly known as Steel Phantom ) is a steel roller coaster at Kennywood . When it opened in 1991 , it was the fastest roller coaster and had the longest drop of any roller coaster in the world . The ride was originally manufactured by Arrow Dynamics . After the 2000 season , D.H. Morgan Manufacturing was brought in to renovate the ride , most notably to remove the four inversions . Unlike most roller coasters , the ride 's second drop through Thunderbolt 's structure is longer than its first drop . The ride has been ranked in the Golden Ticket Awards every year since 2000 . It was ranked in the top 10 every year from 2002 - 2011 . In addition , it has been ranked in the top 25 of Mitch Hawker 's Best Steel Roller Coaster Poll every year since 2001 and in the top 5 of the National Amusement Park Historical Association Favorite Steel Roller Coaster poll every year except 2008 . = = History = = Henry Henniger , the president of Kennywood Entertai</t>
+          <t>Joseph Massino = Joseph Charles Massino ( born January 10 , 1943 ) is an American former mobster . He was a member of the Mafia ( Cosa Nostra ) and was the boss of the Bonanno crime family from 1991 until 2004 , when he became the first boss of one of the Five Families in New York City to turn state 's evidence . Massino was a protégé of Philip Rastelli , who took control of the troubled Bonanno family after the assassination of Carmine Galante . Originally a truck hijacker , Massino secured his own power after arranging two 1981 gang murders , first a triple murder of three rebel captains , then his rival Dominick Napolitano . In 1991 , while Massino was in prison for a 1986 labor racketeering conviction , Rastelli died and Massino succeeded him . Upon his release the following year he set about rebuilding a family that had been in turmoil for almost a quarter-century . By the dawn of the new millennium , he was reckoned as the most powerful Mafia leader in the nation . Massino became</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bolliger &amp; Mabillard = Bolliger &amp; Mabillard , abbreviated B &amp; M and formally known as Bolliger &amp; Mabillard Consulting Engineers Inc . , is a roller coaster design consultancy based in Monthey , Switzerland . The company was founded in 1988 by Walter Bolliger and Claude Mabillard , with Bolliger as president and Mabillard as vice-president . Since 1988 , B &amp; M has built 100 roller coasters around the world and have pioneered several new ride technologies , most notably the inverted roller coaster . Since 1990 , all coasters designed by B &amp; M that have been built within North America have been manufactured by Clermont Steel Fabricators which is located in Batavia , Ohio , United States . B &amp; M started with four employees and has since grown ; as of 2012 it employs 37 people , mostly engineers and draftsmen . In 2016 the company completed its 100th coaster . = = History = = Walter Bolliger and Claude Mabillard starting working for Giovanola , a manufacturing company who supplied rides to </t>
+          <t xml:space="preserve">Mara Carfagna = Maria Rosaria " Mara " Carfagna ( born December 18 , 1975 ) is an Italian politician and former showgirl and model . After obtaining a degree in law , Carfagna worked for several years on Italian television shows and as a model . She later entered politics and was elected to the Chamber of Deputies for Forza Italia party in 2006 . From 2008 to 2011 she served as Minister for Equal Opportunity in Berlusconi IV Cabinet . Carfagna had been named " the most beautiful minister in the world " , and was ranked number one on Maxim 's " World ´ s Hottest Politicians " . = = Background = = Carfagna was born in Salerno , where she attended the Liceo scientifico Giovanni da Procida . In 2001 she graduated in law from the University of Salerno , with a thesis on information law and broadcasting systems . = = Career as showgirl and model = = After having studied dance and piano , she participated in the Miss Italy contest in 1997 , finishing in sixth place . About the experience she </t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Superman : Escape from Krypton = Superman : Escape from Krypton ( originally known as Superman : The Escape ) is a steel shuttle roller coaster located at Six Flags Magic Mountain in Valencia , California . When it opened in 1997 , it was the tallest roller coaster in the world , and its speed of 100 mph ( 160 km / h ) was tied for the fastest with Tower of Terror II , a similar roller coaster which opened two months earlier at Dreamworld in Australia . These two coasters were the first to utilize Linear Synchronous Motor ( LSM ) technology to propel vehicles to top speed . The park originally intended to open the ride in 1996 , but the opening was delayed because of several issues with the launch system . The ride was closed in late 2010 for refurbishment , and it emerged in 2011 as " Superman : Escape from Krypton " . The refurbished ride featured new trains which face backward , and it was painted with a new color scheme . As of 2013 , Superman : Escape from Krypton has the third-ta</t>
+          <t>Saw 3D = Saw 3D ( also known as Saw : The Final Chapter , or simply Saw VII ) is a 2010 American 3D horror film directed by Kevin Greutert , written by Patrick Melton and Marcus Dunstan , and starring Tobin Bell , Costas Mandylor , Betsy Russell , Sean Patrick Flanery and Cary Elwes . It is the seventh ( and originally intended final ) installment of the Saw franchise , and the only film in the series to be in 3D . The film focuses on a man who falsely claims to be a Jigsaw survivor , becoming a local celebrity . However , he soon finds himself part of a real Jigsaw game where he must ultimately save his wife . Meanwhile , Jill Tuck reveals to an internal affairs officer that rogue Detective Mark Hoffman is the man responsible for the recent Jigsaw games , and Hoffman hunts her down . An eighth installment was planned , but the decrease in the box office performance for Saw VI compared to previous installments led to Saw 3D being the final planned film in the series , and the plot conc</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Superman : Krypton Coaster = Superman : Krypton Coaster is a Bolliger &amp; Mabillard Floorless Coaster at the Six Flags Fiesta Texas amusement park in San Antonio , Texas , USA . Opened in 2000 , Superman : Krypton Coaster was one of the first floorless roller coasters in the world . The well-received ride held the title for the world 's tallest vertical loop ( 145 feet ) from its opening until 2013 . It is also known as for being the world 's tallest and fastest floorless coaster at 168 ft ( 51 m ) high and a top speed of 70 mph ( 110 km / h ) . Six Flags describes the coaster Thrill Level at MAXIMUM . Six Flags has announced plans to add Virtual Reality to Superman : Krypton Coaster to enchance the experience . = = History = = In 1999 , Six Flags Great Adventure spent $ 42 million on new attractions including a prototype Floorless Coaster by Bolliger &amp; Mabillard , Medusa ( later Bizarro ) . The immediate popularity of the ride , led to Six Flags Fiesta Texas and three other amusement pa</t>
+          <t xml:space="preserve">The Quick and the Dead ( 1995 film ) = The Quick and the Dead is a 1995 American western film directed by Sam Raimi , and starring Sharon Stone , Gene Hackman , Russell Crowe and Leonardo DiCaprio . The screenplay was written by Simon Moore but includes contributions from Joss Whedon . The story focuses on " The Lady " ( Stone ) , a gunfighter who rides into the frontier town of Redemption , controlled by John Herod ( Hackman ) . The Lady joins a deadly dueling competition in an attempt to exact revenge for her father 's death . Simon Moore 's script was purchased by Sony Pictures Entertainment in May 1993 , and actress Sharon Stone signed on as both star and co-producer . Development was fast tracked after director Sam Raimi 's hiring , and principal photography began in Old Tucson Studios in Arizona on November 21 , 1993 . The film was distributed by TriStar Pictures and was released in the US on February 10 , 1995 to a dismal box office performance , receiving lukewarm reviews from </t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Maverick ( roller coaster ) = Maverick is a steel roller coaster built by Intamin at Cedar Point in Sandusky , Ohio , United States . It was the seventeenth roller coaster built at the park since Blue Streak in 1964 . It is notable as being the 500th roller coaster designed by German engineer Werner Stengel and the first roller coaster featuring a Twisted Horseshoe Roll . Maverick 's US $ 21-million price tag makes it Cedar Point 's third most expensive roller coaster . The 4,450-foot ( 1,360 m ) course makes it the fourth longest roller coaster at Cedar Point . Maverick was scheduled to open on May 12 , 2007 , but opening was delayed until May 26 , 2007 after testing revealed the heartline roll element to be too intense . Continued use of the element would have put excessive stress on trains . At a drop angle of 95 degrees , Maverick is Cedar Point 's steepest roller coaster . The ride 's tagline is " The Old West Was Never This Wild . " = = History = = Maverick sits on the former sit</t>
+          <t>Dead Celebrities = " Dead Celebrities " is the eighth episode of the thirteenth season of the American animated television series South Park . The 189th overall episode of the series , it originally aired on Comedy Central in the United States on October 7 , 2009 . In the episode , Ike is haunted by the ghosts of dead celebrities until Michael Jackson , who refuses to accept death , possesses him . The episode was written and directed by series co-creator Trey Parker , and was rated TV-MA L in the United States ( specifically for adults , with coarse language ) . " Dead Celebrities " included references to several actors , singers and famous people who died in the summer of 2009 , when South Park was on a mid-season hiatus . Among the celebrities featured in the episode were Billy Mays , Ed McMahon , Farrah Fawcett , Patrick Swayze , Walter Cronkite , Dom DeLuise , Ted Kennedy , Natasha Richardson , Bea Arthur , David Carradine , DJ AM , Ricardo Montalbán , and Steve McNair . " Dead Ce</t>
         </is>
       </c>
     </row>
@@ -1946,32 +1946,32 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>building church stone wall built site listed roof windows century walls buildings tower 19th restoration corner chapel entrance interior structure memorial architect parish window constructed location house hall architecture floor grade temple decorated architectural nave designed surrounding monument chancel rebuilt remains exterior dedicated towers bell demolished sir room 16th brick 18th door castle arches erected masonry facing cathedral rooms carved stands style pier medieval date glass statue rector houses restored mosque surrounded oldest centuries originally cross foundation centre rectangular arch nearby metres square occupied dating block storey 17th stained topped marble altar structures housed architects porch installed slate font depicting</t>
+          <t>['lighthouse', 'light', 'keeper', 'tower', 'lens', 'keepers', 'concrete', 'connecticut', 'lamp', 'cottages', 'installed', 'constructed', 'lamps', 'island', 'iron']</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>St Mary 's Church , Astbury = St Mary 's Church is an Anglican parish church in the village of Newbold Astbury , Cheshire , England . It is recorded in the National Heritage List for England as a designated Grade I listed building , and its architecture has been praised by a number of writers . It is possible that a church was present on the site in the Saxon era , although the earliest fabric in the church is Norman . The present ground plan was established in the 13th and 14th centuries , from which time the church 's external appearance dates , apart from a major rebuilding in the later part of the 15th century , when the range of high windows or clerestory was added . All styles of English Gothic architecture , are represented in the church : Early English , Decorated , and Perpendicular . During the civil war , a group of Roundheads stabled their horses in the church . In the 19th century the interior of the church was restored by George Gilbert Scott ; some wall paintings were re</t>
+          <t>Henry Martin Tupper = Henry Martin Tupper D.D. ( April 11 , 1831 – November 12 , 1893 ) was a Baptist minister who founded Shaw University in Raleigh , North Carolina . Beginning with bible and literacy classes in December 1865 , it was the first university established for African Americans following the end of the civil war , and the oldest historically black college and university ( HBCU ) in the Southern United States , as well as one of the oldest co-educational universities in the country . When the institute moved into a new building in 1871 , it was renamed as Shaw Collegiate Institute in honor of a major donor . Tupper served as the University 's first president from its founding until his death in 1893 . = = Early life and military career = = Henry Martin Tupper was born on April 11 , 1831 to Earl and Permellia Norris Tupper and raised on a farm in Monson , Massachusetts . He was the eldest of nine children . His grandfather , Ezra Tupper , and great-grandfather , William Tupp</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">St Margaret 's Church , Ifield = St Margaret 's Church is an Anglican church in the Ifield neighbourhood of Crawley , a town and borough in West Sussex , England . It is the ancient parish church of the village of Ifield ; the medieval settlement was expanded to form one of the New Town of Crawley 's 13 neighbourhoods , and the church 's modern parish now serves several other neighbourhoods as well . The present building incorporates the chancel from a 13th-century church which may have replaced a wooden building of two or three centuries earlier . Additions in the 14th century included stone effigies representing a knight and his wife , considered to be excellent examples of such sculptures . More structural changes took place at regular intervals , and a major Victorian restoration by architect Somers Clarke included an extension to the nave and a new tower . English Heritage has listed the church at Grade I because of its architectural and historical importance . The churchyard has </t>
+          <t>British Library Philatelic Collections = The British Library Philatelic Collections is the national philatelic collection of the United Kingdom with over 8 million items from around the world . It was established in 1891 as part of the British Museum Library , later to become the British Library , with the collection of Thomas Tapling . In addition to bequests and continuing donations , the library received consistent deposits by the Crown Agency and has become a primary research collection for British Empire and international history . The collections contain a wide range of artefacts in addition to postage stamps , from newspaper stamps to a press used to print the first British postage stamps . = = History = = The first notable philatelic donation was in 1890 by Hubert Haes of two albums of postage stamps collected by himself and Walter Van Noorden . It was donated with the request that the British Museum library ( now the British Library ) would create a philatelic collection . The</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>St Eugrad 's Church , Llaneugrad = St Eugrad 's Church , Llaneugrad is an isolated church near the village of Marian-glas , in Anglesey , north Wales . A church was supposedly founded here by St Eugrad in about 605 , although the earliest parts of the present structure are the nave , chancel and chancel arch , which date from the 12th century . A side chapel was added to the north in the 16th century , and some moderate restoration work was carried out in the 19th century . It contains a 12th-century font , a 13th-century carved stone depicting the crucifixion , and a memorial to one of the officers killed when the Royal Charter sank off Anglesey in 1859 . The church is still used for worship by the Church in Wales , one of four in a combined parish ; one of the others is St Gallgo 's Church , Llanallgo , founded by Eugrad 's brother . As of 2012 , the parish does not have an incumbent priest . St Eugrad 's is a Grade II * listed building , a national designation given to " particularl</t>
+          <t xml:space="preserve">Briarcliff Lodge = The Briarcliff Lodge was a luxury resort in the village of Briarcliff Manor , New York . It was a notable example of Tudor Revival architecture , and was one of the largest wooden structures in the United States . It was also the first hotel in Westchester County . Walter William Law had it built on his estate , and the Law family owned it until 1937 . When the lodge opened in 1902 , it was one of the largest resort hotels in the world . The lodge hosted presidents , royalty , and celebrities , and was the scene of numerous memorable occasions for visitors and local residents who attended weddings , receptions , and dances in the ballroom and dining room . For a long time , the lodge was situated among other businesses of Walter Law , including the Briarcliff Farms and Briarcliff Table Water Company . In 1933 , the lodge ended year-round service and housed a " health-diet sanitarium " until the Edgewood Park School for Girls began operation there from 1937 to 1954 . </t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t xml:space="preserve">St Peter 's Church , Llanbedrgoch = St Peter 's Church , Llanbedrgoch , is a small medieval parish church near the village of Llanbedrgoch in Anglesey , north Wales . The oldest parts of the building date from the 15th century ; it was extended in the 17th century and restored twice in the 19th century . The doorway is decorated with carvings of two human heads , one wearing a mitre . The church contains a reading desk made from 15th-century bench ends , one carved with a mermaid holding a mirror and comb . The church is still used for worship by the Church in Wales , as of 2013 , and is one of three in a group of parishes . It is a Grade II * listed building , a national designation given to " particularly important buildings of more than special interest " , because of its " substantial medieval fabric " . = = History and location = = St Peter 's Church is in a rural location along a narrow lane near the village of Llanbedrgoch in Anglesey , north Wales . The village itself is about </t>
+          <t>Cine City , Withington = Cine City was a cinema in Withington , Manchester , England located at 494 Wilmslow Road , Withington , Manchester , M20 3BG . It opened in 1912 as The Scala , and was the third cinema to open in Britain . During the 1930s , cinemas became increasingly popular ; The Scala was one of 109 cinemas in Manchester at its peak . The road outside was hit by a small bomb during the Second World War , but the cinema ( which was showing several films at the time ) survived with only minor damage . After the war , television led to a decline in cinema attendances , and by 1965 , only 40 cinemas remained in Manchester . Cine City closed in July 2001 , making it the third-longest running cinema in England . By 2005 the building was in a bad state of repair , and was threatened with demolition . Although heritage groups won a stay of execution , the cinema was demolished in spring 2008 . A replacement building is planned for the site . = = History = = The cinema opened in 191</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t xml:space="preserve">St Mary 's Church , Nantwich = St Mary 's Church is in the centre of the market town of Nantwich , Cheshire , England . The church is recorded in the National Heritage List for England as a designated Grade I listed building . It has been called the " Cathedral of South Cheshire " and it is considered by some to be one of the finest medieval churches , not only in Cheshire , but in the whole of England . The architectural writer Raymond Richards described it as " one of the great architectural treasures of Cheshire " , and Alec Clifton-Taylor included it in his list of " outstanding " English parish churches . The building dates from the 14th century , although a number of changes have since been made , particularly a substantial 19th-century restoration by Sir George Gilbert Scott . The church and its octagonal tower are built in red sandstone . Features of the church 's interior include the lierne-vaulted ceiling of the choir , the carved stone canopies of the sedilia in the chancel </t>
+          <t>Goathouse Refuge = The Goathouse Refuge in Pittsboro , North Carolina , is a nonprofit no-kill animal sanctuary for cats that is run on a volunteer-basis . The refuge is cage-free so the cats can freely roam around within the boundaries of the property . Founded in 2007 by Italian-born artist Siglinda Scarpa , the refuge can hold up to 300 cats on a 16-acre farm . There is an art gallery located on the first floor of the house where Scarpa sells her handmade art such as pottery , sculptures , and cookware to help support the refuge . = = Founding = = Siglinda Scarpa says she had issues with communication as a child , stating that “ people were not seeing me , that they were talking , but never to me . ” It was not until her father brought a stray kitten home and placed it under her sheets that Scarpa felt she could communicate with someone . The kitten was a year old when he became very ill and died . After his death , Scarpa decided to take in as many cats as possible , with the hopes</t>
         </is>
       </c>
     </row>
@@ -1981,32 +1981,32 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>battle men army troops french command general british sent attack soldiers forces wounded killed commanded camp siege retreat captured advance garrison arrived aftermath retreated supplies expedition ordered casualties force fire cavalry capture americans fort losses militia colonel news arrival fought flank fleet advanced wars armies surrender action marched infantry continental_army commander captain orders withdrew artillery occupied reinforcements suffered howe companies new_york enemy led guard battles defeat engagement crossed washington persian frigate revolutionary austrians left assault sailed surrendered regiments raid marching rhine learned defenders retreating allies fight column invasion musket engaged eventually hms quebec surprise loyalist attempt taken frigates decided landed</t>
+          <t>['ben', 'survivors', 'shannon', 'island', 'freighter', 'charlotte', 'bernard', 'michael', 'plane', 'daniel', 'tom', 'frank', 'dave', 'kate', 'oceanic']</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Battle of the Lippe = The Battle of the Lippe was a cavalry action fought on 2 September 1595 on the banks of the Lippe river , in Germany , between a corps of Spanish cavalry led by Juan de Córdoba and a corps of Dutch cavalry , supported by English troops , led by Philip of Nassau . The Dutch statholder Maurice of Nassau , taking advantage of the fact that the bulk of the Spanish army was busied in operations in France , besieged the town of Groenlo in Gelderland , but the elderly governor of the citadel of Antwerp , Cristóbal de Mondragón , organized a relief army and forced Maurice to lift the siege . Mondragón next moved to Wesel , positioning his troops on the southern bank of the Lippe river to cover Rheinberg from a Dutch attack . Maurice aimed then , relying on his superior army , to entice Mondragón into a pitched battle , planning to use an ambush to draw the Spanish army into a trap . However , the plan was discovered by the Spanish commander , who organized a counter-ambus</t>
+          <t>Kimberley Joseph = Kimberley Joseph ( born August 30 , 1973 ) is a Canadian Australian actress who is based in the United States . Joseph was born in Canada , raised on the Gold Coast in Australia , and educated in Switzerland . After returning to Australia , she began a degree at Bond University but dropped out at the age of 19 when she was cast in the soap opera Paradise Beach . She had no formal acting training but appeared in the soap for the 18 months it was produced . After Paradise Beach ended , she had casual work on Hey Hey It 's Saturday before co-hosting the popular Seven Network series Gladiators . After two series of Gladiators , Joseph was eager to return to acting , so took the role of villain Joanne Brennan in Home and Away from 1995 to 1996 . In 1999 , she moved to the United States to study acting at the Atlantic Theater Company in New York City , then spent 18 months unsuccessfully auditioning for roles in Los Angeles . In 2001 , she was cast as Jo Ellison in the Bri</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Battle of White Plains = The Battle of White Plains was a battle in the New York and New Jersey campaign of the American Revolutionary War fought on October 28 , 1776 , near White Plains , New York . Following the retreat of George Washington 's Continental Army northward from New York City , British General William Howe landed troops in Westchester County , intending to cut off Washington 's escape route . Alerted to this move , Washington retreated farther , establishing a position in the village of White Plains but failed to establish firm control over local high ground . Howe 's troops drove Washington 's troops from a hill near the village ; following this loss , Washington ordered the Americans to retreat farther north . Later British movements chased Washington across New Jersey and into Pennsylvania . Washington then crossed the Delaware and surprised a brigade of Hessian troops in the December 26 Battle of Trenton . = = Background = = British General William Howe , after evacu</t>
+          <t xml:space="preserve">Secrets That I Never Want to Know = " Secrets That I Never Want to Know " is the eighth-season premiere episode of the American comedy-drama television series Desperate Housewives , and the 158th overall episode of the series . It was originally broadcast in the United States on September 25 , 2011 , on the American Broadcasting Company ( ABC ) . The episode focuses on the aftermath and cover-up of an accidental killing . The episode was written by executive producer Bob Daily and directed by David Grossman . In the episode , Bree ( Marcia Cross ) and Gabrielle ( Eva Longoria ) work together to conceal the death of Gabrielle 's stepfather ( Tony Plana ) while Susan ( Teri Hatcher ) and Carlos ( Ricardo Antonio Chavira ) struggle with their guilt over the cover-up . Meanwhile , Lynette ( Felicity Huffman ) and Tom ( Doug Savant ) deal with their separation . " Secrets That I Never Want to Know " received generally positive reviews from critics , most of whom agreed the episode provided </t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Battle of Harlem Heights = The Battle of Harlem Heights was fought during the New York and New Jersey campaign of the American Revolutionary War . The action took place in what is now the Morningside Heights and east into the future Harlem neighborhoods of northwestern Manhattan Island in what is now New York City on September 16 , 1776 . The Continental Army , under Commander-in-Chief General George Washington , Major General Nathanael Greene , and Major General Israel Putnam , totaling around 9,000 men , held a series of high ground positions in upper Manhattan . Immediately opposite was the vanguard of the British Army totaling around 5,000 men under the command of Major General Henry Clinton . An early morning skirmish between a patrol of Knowlton 's Rangers and British light infantry piquets developed into a running fight as the British pursued the Americans back through woods towards Washington 's position on Harlem Heights . The overconfident British light troops , having advanc</t>
+          <t xml:space="preserve">Abergil crime family = The Abergil crime family ( Hebrew : משפחת הפשע אברג 'יל ) is a Moroccan-Jewish crime organization based in Israel , and located around the world , founded by Ya 'akov Abergil . The group was headed by Ya 'akov Abergil ( Hebrew : יעקב אברג 'יל ) until his death in 2002 , and is now run under the auspices of Itzhak ( Itzik ) Abergil ( Hebrew : יצחק ( איציק ) אברג 'יל ) , and his brothers Meir Abergil ( Hebrew : מאיר אברג 'יל ) and Avraham ( Ibi ) Abergil ( Hebrew : אייבי אברג 'יל ) . Its illicit activities include drug trafficking , both in Israel and the US , murder , extortion , embezzlement , money laundering , the control of illegal casinos and other crimes . Considered one of the six major organized-crime cells in Israel , and one of the world ’ s top 40 biggest drug importers to the United States , the Abergils have been arrested and detained multiple times worldwide . Avraham Abergil is currently incarcerated on a slew of drug and attempted murder charges . </t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Battle of Kings Mountain = The Battle of Kings Mountain was a decisive victory in South Carolina for the Patriot militia over the Loyalist militia in the Southern campaign of the American Revolutionary War . The battle took place on October 7 , 1780 , 9 miles ( 14 km ) south of the present-day town of Kings Mountain , North Carolina in rural Cherokee County , South Carolina , where the Patriot militia defeated the Loyalist militia commanded by British Major Patrick Ferguson of the 71st Foot . Ferguson had arrived in North Carolina in early September 1780 to recruit troops for the Loyalist militia and protect the flank of Lord Cornwallis ' main force . Ferguson issued a challenge to the rebel militias to lay down their arms or suffer the consequences . In response , the Patriot militias led by Benjamin Cleveland , James Johnston , William Campbell , John Sevier , Joseph McDowell and Isaac Shelby rallied for an attack on Ferguson . Receiving intelligence on the oncoming attack , Ferguson</t>
+          <t>Adam Carter = Adam Henry Carter is a fictional character from the BBC espionage television series Spooks , which follows the exploits of Section D , a counter-terrorism division of MI5 . He is portrayed by British actor Rupert Penry-Jones . The character is a former MI6 officer who takes charge as the chief of Section D , and hence the head protagonist following the departure of Tom Quinn in series three . Adam Carter was created with the knowledge that Matthew Macfadyen , who played Tom Quinn , would leave the series . The intention was that Adam would be different from Tom ; the producers wanted a character who was a husband with an MI6 background . Rupert Penry-Jones was cast after three auditions . Before the sixth series finale aired , it was announced that Penry-Jones would leave the series . In the premiere episode of series seven , Carter is killed in a car bomb . His death was voted the fourth most shocking death in the series . Rupert Penry-Jones was awarded " Best Actor " at</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Battle of Staten Island = The Battle of Staten Island was a raid by Continental Army troops under Major General John Sullivan against British forces on Staten Island on August 22 , 1777 , during the American Revolutionary War . After British Lieutenant General William Howe sailed with most of his army from New York in July , the Americans recognized that the British position on Staten Island was vulnerable , and planned an attack . Sullivan 's raid was well-executed , but it suffered from a shortage of boats to effect the crossing , and one of its detachments was misled by its guide to the front of the enemy position rather than its rear . As a result , Sullivan did not take as many prisoners as expected , and had about 200 of his own men taken prisoner due in part to the lack of boats . Although Sullivan was accused of mismanaging the raid , a court martial held later in 1777 exonerated Sullivan of all charges . = = Background = = In March 1776 the British forces of General William Ho</t>
+          <t>Angel One = This article is for the Star Trek : The Next Generation episode . For the cable channel known as " Angel One " , see Sky Angel . " Angel One " is the 14th episode of the first season of the American science fiction television series Star Trek : The Next Generation . It was first broadcast on January 25 , 1988 , in the United States in broadcast syndication . It was written by Patrick Barry and was directed by Michael Ray Rhodes . Set in the 24th century , the series follows the adventures of the crew of the Starfleet starship Enterprise-D. In this episode , an away team visits a world dominated by women to search for survivors of a downed freighter , while the crew of the Enterprise suffer from the effects of a debilitating virus . The episode was intended to be commentary on Apartheid in South Africa , using gender role reversal . However , there were problems between the cast and director during filming , and Patrick Stewart sought to have the sexist nature of the episode</t>
         </is>
       </c>
     </row>
@@ -2016,32 +2016,32 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>championship match title defeated event team face won night following kane attacked main wrestler win referee rope professional view pay heavyweight wrestlers champion survivor announced pinfall pin contest michaels interfered rematch cage ring retain pinned undertaker pinning wrestlemania shawn_michaels smackdown john_cena wrestled wrestling featured backstage wwf ecw randy_orton feud contender bout storyline summerslam teamed ringside elimination eliminated superstars faced fight heel began submission world_wrestling_entertainment involved ladder joe wwe disqualification stipulation nwa mat rumble signature retained feuds challenged versus defended lost intercontinental raw divas maneuver fan feuded hart promotion flair scripted royal_rumble world teaming attacking hold edge triple tag wrestle impact</t>
+          <t>['motorway', 'croatia', 'adriatic', 'croatian', 'toll', 'traffic', 'interchanges', 'kilometre', 'route', 'interchange', 'kilometres', 'section', 'areas', 'rest', 'yugoslavia']</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>TNA Unbreakable = Unbreakable was a professional wrestling pay-per-view ( PPV ) event produced by the Total Nonstop Action Wrestling ( TNA ) promotion that took place on September 11 , 2005 at the TNA Impact ! Zone in Orlando , Florida . It was the first and only show under the Unbreakable name and ninth event in the 2005 TNA PPV schedule . Nine professional wrestling matches and two pre-show matches were featured on the card , three of which were for championships . The main event at Unbreakable was a Three Way match for the TNA X Division Championship , in which then-champion Christopher Daniels defended the title against the challengers A.J. Styles and Samoa Joe . Styles ended up gaining the pinfall in the bout , thus winning the title . The NWA World Heavyweight Championship was defended in a Raven 's Rules match between then-champion Raven and the challenger Rhino . Raven pinned Rhino in the encounter to retain the championship . A Four Way Elimination Tag Team match for the NWA W</t>
+          <t>River Frome , Bristol = The River Frome / ˈfruːm / , historically the River Froom , is a river in South Gloucestershire and Bristol , England . It is approximately 20 miles ( 32 km ) long , rises in Dodington Park , South Gloucestershire , and flows in a south westerly direction through Bristol , joining the former course of the river Avon in Bristol 's Floating Harbour . The mean flow at Frenchay is 60 cubic feet per second ( 1.7 m3 / s ) The name Frome is shared with several other rivers in South West England and means ' fair , fine , brisk ’ . The river is familiarly known in east Bristol as the Danny . Originally the Frome joined the Avon downstream of Bristol Bridge , and formed part of the city defences , but in the thirteenth century the river was diverted through marshland belonging to St Augustine 's Abbey ( now Bristol Cathedral ) , as part of major port improvement works . In the late nineteenth and early twentieth centuries , the lower reaches of the river were culverted an</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Night of Champions ( 2008 ) = Night of Champions ( 2008 ) was a professional wrestling pay-per-view event produced by World Wrestling Entertainment ( WWE ) and presented by P &amp; G 's Gillette Fusion Power , which took place on June 29 , 2008 , at the American Airlines Center in Dallas , Texas . It was the first annual event to be promoted solely under the Night of Champions name and the eighth annual event under the Vengeance / Night of Champions chronology . It starred wrestlers from the Raw , SmackDown , and ECW brands . Like the previous year before , every match on the card was contested for a championship ; three were won and five were retained . The main event was an interpromotional match for the WWE Championship between SmackDown representative , Triple H , and Raw representative , John Cena ; Triple H won the match and retained the championship . The main match was also an interpromotional match for the World Heavyweight Championship between SmackDown representative , Edge , an</t>
+          <t>MediaCityUK = MediaCityUK is a 200-acre ( 81 ha ) mixed-use property development site on the banks of the Manchester Ship Canal in Salford and Trafford , Greater Manchester , England . The project is being developed by Peel Media , and its principal tenants are media organisations and the University of Salford . The land occupied by the development was part of the Port of Manchester and Manchester Docks . The BBC signalled its intention to move jobs to Manchester in 2004 , and the Salford Quays site was chosen in 2006 . The Peel Group was granted planning permission to develop the site in 2007 , and construction of the development , with its own energy generation plant and communications network , began the same year . Based in Quay House , the principal tenant is the BBC , whose move marks a large-scale decentralisation from London . ITV Granada completed the first phase of its move to MediaCityUK on 25 March 2013 , followed in two stages by the northern arm of ITV Studios : the secon</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve">WrestleMania XXIV = WrestleMania XXIV was the twenty-fourth annual WrestleMania professional wrestling pay-per-view event produced by World Wrestling Entertainment ( WWE ) . The event took place on March 30 , 2008 , at the Florida Citrus Bowl in Orlando , Florida and was the first WrestleMania to be held in the state of Florida . WrestleMania XXIV was the second WrestleMania to be held outdoors , with the first being WrestleMania IX , held in Caesars Palace in Las Vegas , Nevada . Nine professional wrestling matches were scheduled for the event , which featured a supercard , a scheduling of more than one main bout . The first of these matches was a Singles match from the SmackDown brand that featured The Undertaker defeating World Heavyweight Champion Edge to win the title . The second was a Triple Threat match from the Raw brand , in which WWE Champion Randy Orton defeated challengers Triple H and John Cena to retain the championship . The other was a singles match from the ECW brand </t>
+          <t>Mehmed II 's first Albanian campaign = In 1452 , the newly acceded Ottoman Sultan Mehmed II ordered his first campaign against Skanderbeg , the chief of the League of Lezhë . Shortly after the First Siege of Krujë , Murad II died in Edirne , only to be succeeded by his son Mehmed II . Mehmed always supported more aggressive strategies of conquest which his father had continually rejected . Once in power , Mehmed ordered nearly annual invasions of Albania which often resulted in multiple battles in one year . The first of these expeditions was sent in 1452 under the dual-command of Hamza Pasha and Tahip Pasha , with an army of approximately 25,000 men . This campaign was the first major test for the new Sultan against western Europe and a high point of a diplomatic struggle between the major Mediterranean powers . Albania at the time was suffering a crisis of power as Skanderbeg , the chief of the League of Lezhë , became a vassal of Alfonso the Magnanimous , the king of Aragon . Worrie</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Backlash ( 2003 ) = Backlash ( 2003 ) was the fifth annual Backlash professional wrestling pay-per-view event produced by the World Wrestling Entertainment ( WWE ) . It was presented by Castrol GTX , and took place on April 27 , 2003 , at the Worcester Centrum in Worcester , Massachusetts and starred talent from the promotion 's Raw and SmackDown ! brands . The main event and featured match of the Raw brand was the encounter of Goldberg and The Rock , where Goldberg , in his first WWE Pay-Per-View , defeated Rock by pinfall , following a spear and a Jackhammer . The featured match on the undercard was a WWE Championship match from the SmackDown ! brand , between John Cena and the reigning champion , Brock Lesnar , where Lesnar defeated Cena by pinfall after an F-5 . The other predominant match on the undercard was a six-man tag team match from the Raw brand , between the team of Triple H , Ric Flair , and Chris Jericho facing Shawn Michaels , Kevin Nash , and Booker T. Triple H , Flair</t>
+          <t xml:space="preserve">Theodoxus fluviatilis = Theodoxus fluviatilis , common name the river nerite , is a species of small freshwater and brackish water snail with a gill and an operculum , an aquatic gastropod mollusk in the family Neritidae , the nerites . This widely distributed neritid snail species occurs from Europe to Central Asia . It has a thick shell with a calcified operculum . The coloration pattern on the shell is very variable . Theodoxus fluviatilis lives in freshwater and in brackish water , in rivers and lakes on stones . It feeds mainly by grazing on biofilms and diatoms . Some of the populations of this species are spreading , and these can reach densities up to thousands of snails per square meter . Females lay egg capsules , each of which contains a large number of eggs , but only one snail hatches from the capsule . The snails reach sexual maturity in a year , and the total lifespan is 2 or 3 years . = = Taxonomy = = Theodoxus fluviatilis was originally described under the name Nerita </t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vengeance ( 2006 ) = Vengeance ( 2006 ) was a professional wrestling pay-per-view event produced by World Wrestling Entertainment ( WWE ) , which took place on June 25 , 2006 , at the Charlotte Bobcats Arena in Charlotte , North Carolina . It was the sixth annual Vengeance event . Eight professional wrestling matches were featured on the event 's card . The buildup to the matches and the scenarios that took place before , during , and after the event were planned by WWE 's script writers . The event starred wrestlers from the Raw brand : a storyline expansion of the promotion where employees are assigned to a wrestling brand under the WWE banner . The card featured eight televised matches , including two main events which resulted in Rob Van Dam defeating Edge to retain the WWE Championship and D-Generation X ( DX ) ( Triple H and Shawn Michaels ) defeating Spirit Squad ( Kenny , Johnny , Mitch , Nicky , and Mikey ) in a 5-on-2 Handicap match . One bout was featured on the undercard . </t>
+          <t xml:space="preserve">Spanish conquest of Chiapas = The Spanish conquest of Chiapas was the campaign undertaken by the Spanish conquistadores against the Late Postclassic Mesoamerican polities in the territory that is now incorporated into the modern Mexican state of Chiapas . The region is physically diverse , featuring a number of highland areas , including the Sierra Madre de Chiapas and the Montañas Centrales ( Central Highlands ) , a southern littoral plain known as Soconusco and a central depression formed by the drainage of the Grijalva River . Before the Spanish conquest , Chiapas was inhabited by a variety of indigenous peoples , including the Zoques , various Maya peoples , such as the Lakandon Ch 'ol and the Tzotzil , and an unidentified group referred to as the Chiapanecas . Soconusco had been incorporated into the Aztec Empire , centred in Valley of Mexico , and paid the Aztecs tribute . News of strangers first arrived in the region as the Spanish penetrated and overthrew the Aztec Empire . In </t>
         </is>
       </c>
     </row>
@@ -2051,32 +2051,32 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>entertain entertained buddy profanity flamboyant racially courted rampant subtitles bishop psychologically app oppressed horrific bother sacrificing unconventional bitterness pencil backgrounds academically format infamous predecessor dos manipulate ethnicity preparation longstanding oppressive physique fortunes balloons defied revamped denominations passport onscreen monstrous odyssey proficient apocalyptic dump laborers surpass misunderstood masks frantic promoting reliant headline economies packages dictated virtually slump professed massively dialog exchanges fascinated revolutions adapting variations solidified awakened prepared challenging stirred injustice healed opt verbally reconsider apologized dealt irresponsible replicated exams endorsing despised portrayals manage promoter hugely multinational repercussions reviewed eyewitness lifestyles inherently adversary famously certificates irregularities hoc frequented improves instalment resorted</t>
+          <t>['rockets', 'nba', 'arena', 'playoffs', 'houston', 'team', 'franchise', 'ownership', 'finals', 'relocation', 'toronto', 'draft', 'games', 'pick', 'season']</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Pomeroy State Park = Pomeroy State Park is an undeveloped and unmarked Connecticut state park located in the town of Lebanon just south of Willimantic . Established around 1955 on the estate of Charles Pomeroy , the park has grown to be 200 acres in total , but lacks an entrance or parking . Activities in the park include hiking and hunting with bows . The park is accessed by parking off the roadside of Connecticut Route 289 . = = History = = Located on the top of Bush Hill , south of Hosmer Mountain , Pomeroy State Park that is named for Charles Pomeroy , a textile manufacturer . The park preserves a forested area that shares a boundary with preserved farmland . The natural setting of the park is undisturbed by development of even an entrance to the park . The park consists of 200 acres of land , of which 90 acres were previously part of the Pomeroy estate before the establishment of the state park . Established circa 1955 , the park was listed as containing 99 acres in the Connecticu</t>
+          <t>SS Fort Stikine = Fort Stikine was a British Fort ship which was built in Canada in 1942 . Owned by the American War Shipping Administration , she was leased under charter to the Ministry of War Transport under the Lend-Lease scheme and operated under the management of the Port Line . Fort Stikine only had a short career , and was destroyed in an explosion at Bombay , India , in April 1944 that caused the loss of a further thirteen ships . = = Construction = = Fort Stikine was 441 feet 5 inches ( 134.54 m ) long , with a beam of 57 feet 2 inches ( 17.42 m ) . She had a depth of 35 feet 0 inches ( 10.67 m ) and a draught of 26 feet 11.5 inches ( 8.22 m ) . The ship was propelled by a 505 NHP triple expansion steam engine which was built by the Dominion Engineering Works , Montreal , Quebec , Canada . It had cylinders of 241 ⁄ 2 inches ( 62 cm ) , 37 inches ( 94 cm ) and 70 inches ( 180 cm ) bore by 48 inches ( 120 cm ) stroke . = = History = = Fort Stikine was built by Prince Rupert Dry</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Applesauce cake = Applesauce cake is a dessert cake prepared using apple sauce , flour and sugar as primary ingredients . Various spices are typically used , and it tends to be a moist cake . Applesauce cake prepared with chunky-style apple sauce may be less moist . Several additional ingredients may also be used in its preparation , and it is sometimes prepared and served as a coffee cake . The cake dates back to early colonial times in the United States . National Applesauce Cake Day occurs annually on June 6 in the U.S. = = History = = The preparation of applesauce cake dates back to early colonial times in the New England Colonies of the northeastern United States . From 1900 to the 1950s , recipes for applesauce cake frequently appeared in American cookbooks . In the United States , National Applesauce Cake Day occurs annually on June 6 . = = Ingredients and preparation = = Applesauce cake is a dessert cake prepared using apple sauce , flour and sugar as main ingredients . Store-b</t>
+          <t xml:space="preserve">Desert Strike = Desert Strike : Return to the Gulf , commonly known as Desert Strike , is a shoot ' em up video game released by Electronic Arts ( EA ) in February 1992 for the Sega Genesis . The game was later released on several other formats such as the Super Nintendo Entertainment System , including a much upgraded version for the Amiga home computer . The game was inspired by the Gulf War and depicts a conflict between an insane Middle Eastern dictator , General Kilbaba , and the United States . The player controls a lone Apache helicopter and attempts to destroy enemy weapons and installations , rescue hostages and capture enemy personnel , while managing supplies of fuel and ammunition . The lead designer , Mike Posehn , had no video game experience prior to developing Desert Strike . Inspired by Choplifter , he aimed to create a nonlinear game with smoothly animated vehicles . Posehn , a PhD in Mechanical Engineering , developed a camera system with momentum to mimic realistic </t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Romanus ( bishop of Rochester ) = Romanus ( died before 627 ) was the second bishop of Rochester and presumably was a member of the Gregorian mission sent to Kent to Christianize the Anglo-Saxons from their native Anglo-Saxon paganism . Romanus was consecrated bishop around 624 and died before 627 by drowning . Little is known of his life beyond these facts . = = Career = = Presumably Romanus came to England with Augustine of Canterbury 's mission to Kent , He would have arrived either in 597 with the first group of missionaries , or in 601 with the second group . He was consecrated as bishop by his predecessor Justus in 624 , after Justus became Archbishop of Canterbury . He was the second bishop at Rochester . Romanus died before 627 , probably about 625 . He drowned in the Mediterranean Sea off Italy while on a mission to Rome for Justus . Presumably this happened before Justus ' death in 627 . He was certainly dead by 633 , when Paulinus of York became bishop at Rochester after fle</t>
+          <t>Jungle Strike = Jungle Strike is a video game developed and published by Electronic Arts in 1993 for the Sega Mega Drive . The game was later released on several other consoles such as the Super Nintendo Entertainment System ( SNES ) , and an upgraded version was made for the Amiga . The Amiga and other home computer conversions were the responsibility of Ocean Software while the SNES version was that of Gremlin Interactive . It is the direct sequel to Desert Strike : Return to the Gulf ( a best-seller released the previous year ) and is the second instalment in the Strike series . The game is a helicopter based shoot ' em up , mixing action and strategy . The plot concerns two villains intent on destroying Washington , D.C .. The player must use the helicopter and occasionally other vehicles to thwart their plans . Its game engine was carried over from a failed attempt at a flight simulator and was inspired by Matchbox toys and Choplifter . Jungle Strike retained its predecessor 's co</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Avocado cake = Avocado cake is a cake prepared using avocado as a primary ingredient , together with other typical cake ingredients . The avocados may be mashed , and may be used as an ingredient in cake batter , in cake toppings and alone atop a cake . Cake variations include raw avocado cake , avocado brownies and avocado cheesecake . Raw , uncooked versions of avocado cake can be high in vitamin E and essential fatty acids , which are derived from avocado . Avocado-based cake toppings include avocado fool and avocado crazy . = = Overview = = Avocado is a main ingredient in avocado cake , along with other typical cake ingredients . Various varieties of avocados may be used . Avocado cake may have a subtle avocado flavor imbued in the dish . Mashed avocado may be used as an ingredient in the batter and in cake frostings and toppings . Sliced avocado may be used to top or garnish it , as may other ingredients such as the zest of citrus fruits . Additional ingredients used may include y</t>
+          <t>Destruction of Syria 's chemical weapons = The destruction of Syria 's chemical weapons began with several international agreements that were arrived at with Syria , with an initial destruction deadline of 30 June 2014 . United Nations Security Council Resolution 2118 imposed on Syria responsibilities and a timeline for the destruction of its chemical weapons and chemical weapons production facilities . The Security Council resolution incorporated and bound Syria to an implementation plan enacted in an Organisation for the Prohibition of Chemical Weapons ( OPCW ) Executive Council Decision . On 23 June 2014 , the last declared chemical weapons were shipped out of Syria for destruction . The destruction of the most dangerous chemical weapons began at sea aboard the Maritime Administration Ready Reserve Force vessel CAPE RAY crewed with U.S. civilian merchant mariners . It took 42 days aboard ship to destroy 600 metric tons of chemical agents that would have been used to make deadly Sari</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Beurre Maître d 'Hôtel = Beurre Maître d 'Hôtel , also referred to as Maître d 'Hôtel butter , is a type of compound butter ( French : " Beurre composé " ) of French origin , prepared with butter , parsley , lemon juice , salt and pepper . It is a savory butter that is used on meats such as steak ( including the chateaubriand sauce for chateaubriand steak ) , fish , vegetables and other foods . It may be used in place of a sauce , and can significantly enhance a dish 's flavor . Some variations with a sweet flavor exist . It is usually served cold as sliced disks on foods , and is sometimes served as a side condiment . = = Etymology = = The name of Beurre Maître d 'Hôtel is derived from the manner in which it was commonly prepared from scratch by a restaurant 's maître d 'hôtel at diners ' tables . It is also referred to as Maître d 'Hôtel butter . = = Preparation = = Beurre Maître d 'Hôtel is a savory butter prepared by mixing softened butter with very finely minced parsley , lemon ju</t>
+          <t>Bill Cunningham ( rugby union ) = William " Bill " Cunningham ( 8 July 1874 – 3 September 1927 ) was a New Zealand rugby union player who represented New Zealand — known as the All Blacks — between 1901 and 1908 . Most notably he toured with the Original All Blacks on their 1905 – 06 tour of the British Isles , France and North America . They were the first New Zealand representative team to visit the British Isles , and of their 32 matches there Cunningham played in 23 . He played mainly at lock , and was added to the touring party due to his strong scrummaging ability . He played in three Test matches during the trip : against Scotland , Ireland and France , but did not play in the loss to Wales due to injury , the All Blacks ' only defeat on tour . Born near Te Awamutu , Cunningham originally played club rugby in Waihi , in the Coromandel region . Lying within the Auckland Rugby Football Union 's boundaries , he was selected to play for Auckland province in 1899 and continued to rep</t>
         </is>
       </c>
     </row>
@@ -2086,32 +2086,32 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>production system crew mission use development based high million aircraft engine control announced new flight launch including spacecraft range program speed time nasa vehicle apollo missions sales fuel ground air lunar market low project moon performance twitter launched landing pilot developed car flights engines cost version available models orbit designed weapons level hours saturn technology vehicles toyota began capability june manned march service testing missile altitude module radar total united_states combat tested december earth produced capabilities company stage model thrust billion rocket systems cabin january missiles planned oxygen price equipment flew nuclear industry april stated design reported increased year software</t>
+          <t>['clark', 'superman', 'oliver', 'finale', 'season', 'comic', 'character', 'relationship', 'whitney', 'metropolis', 'believes', 'discovers', 'secret', 'martha', 'series']</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Apollo program = The Apollo program , also known as Project Apollo , was the third United States human spaceflight program carried out by the National Aeronautics and Space Administration ( NASA ) , which accomplished landing the first humans on the Moon from 1969 to 1972 . First conceived during Dwight D. Eisenhower 's administration as a three-man spacecraft to follow the one-man Project Mercury which put the first Americans in space , Apollo was later dedicated to President John F. Kennedy 's national goal of " landing a man on the Moon and returning him safely to the Earth " by the end of the 1960s , which he proposed in an address to Congress on May 25 , 1961 . Kennedy 's goal was accomplished on the Apollo 11 mission when astronauts Neil Armstrong and Buzz Aldrin landed their Lunar Module ( LM ) on July 20 , 1969 , and walked on the lunar surface , while Michael Collins remained in lunar orbit in the Command / Service Module ( CSM ) , and all three landed safely on Earth on July </t>
+          <t>Adam ( Buffy the Vampire Slayer ) = Adam is a fictional character in the fourth season of the fantasy television series Buffy the Vampire Slayer . Portrayed by George Hertzberg , he is a monster created from a man and the collected parts of demons , vampires , and technology : the product of a perverse experiment carried out by military scientists . The series ' main character , Buffy Summers , encounters and ultimately defeats him in the fourth season . Adam is the creation of Dr. Maggie Walsh ( Lindsay Crouse ) , the head of a military-like organization called The Initiative that studies how to alter the harmful behavior inherent to demons . Adam and the Initiative are the fourth season 's primary antagonists , or Big Bad . The premise of the series is that Buffy ( Sarah Michelle Gellar ) is a Slayer , endowed with superhuman strength to fight vampires and evil creatures in the fictional town of Sunnydale . In the fourth season , Buffy begins attending college , where she discovers t</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Apollo program = The Apollo program , also known as Project Apollo , was the third United States human spaceflight program carried out by the National Aeronautics and Space Administration ( NASA ) , which accomplished landing the first humans on the Moon from 1969 to 1972 . First conceived during Dwight D. Eisenhower 's administration as a three-man spacecraft to follow the one-man Project Mercury which put the first Americans in space , Apollo was later dedicated to President John F. Kennedy 's national goal of " landing a man on the Moon and returning him safely to the Earth " by the end of the 1960s , which he proposed in an address to Congress on May 25 , 1961 . Kennedy 's goal was accomplished on the Apollo 11 mission when astronauts Neil Armstrong and Buzz Aldrin landed their Lunar Module ( LM ) on July 20 , 1969 , and walked on the lunar surface , while Michael Collins remained in lunar orbit in the Command / Service Module ( CSM ) , and all three landed safely on Earth on July </t>
+          <t>Jimmy Frise = The Canadian cartoonist James Llewellyn " Jimmy " Frise ( / fraɪz / , 16 October 1891 – 13 June 1948 ) is best known for his work on the comic strip Birdseye Center and his illustrations of humorous prose pieces by Greg Clark . Born in Scugog Island , Ontario , Frise moved to Toronto at 19 and found illustration work on the Toronto Star 's Star Weekly supplement . His left hand was severely injured at the Battle of Vimy Ridge in 1917 during World War I , but his drawing hand was unhurt , and he continued cartooning at the Star upon his return . In 1919 he began his first weekly comic strip , Life 's Little Comedies , which evolved into the rural-centred humorous Birdseye Center in 1923 . He moved to the Montreal Standard in 1947 , but as the Star kept publication rights to Birdseye Center , Frise continued it as Juniper Junction with strongly similar characters and situations . Doug Wright took over the strip after Frise 's sudden death from a heart attack in 1948 , and i</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>SpaceX reusable launch system development program = The SpaceX reusable launch system development program is a privately funded program to develop a set of new technologies for an orbital launch system that may be reused many times in a manner similar to the reusability of aircraft . The company SpaceX is developing the technologies over a number of years to facilitate full and rapid reusability of space launch vehicles . The project 's long-term objectives include returning a launch vehicle first stage to the launch site in minutes and to return a second stage to the launch pad following orbital realignment with the launch site and atmospheric reentry in up to 24 hours . SpaceX 's long term goal is that both stages of their orbital launch vehicle will be designed to allow reuse a few hours after return . The program was publicly announced in 2011 and the design for returning the rocket to its launchpad using only its own propulsion systems was completed in February 2012 . SpaceX 's ac</t>
+          <t>John Harrison Clark = John Harrison Clark or Changa-Changa ( c . 1860 – 1927 ) effectively ruled much of what is today southern Zambia from the early 1890s to 1902 . Alone and unassisted , he arrived from South Africa in about 1887 , reputedly as an outlaw , and assembled and trained a private army of Senga natives , which he used to drive off various bands of slave-raiders . He took control of a swathe of territory on the north bank of the Zambezi river called Mashukulumbwe , became known as Chief " Changa-Changa " and , through a series of treaties with local chiefs , gained mineral and labour concessions covering much of the region . Starting in 1897 , Clark attempted to secure protection for his holdings from the British South Africa Company . The Company took little notice of him . When a local chief , Chintanda , complained to the Company in 1899 that Clark had secured his concessions while passing himself off as a Company official and had been collecting hut tax for at least two</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Apollo 1 = Apollo 1 , initially designated AS-204 , was the first manned mission of the United States Apollo program , which had as its ultimate goal a manned lunar landing . The low Earth orbital test of the Apollo Command / Service Module never made its target launch date of February 21 , 1967 . A cabin fire during a launch rehearsal test on January 27 at Cape Kennedy Air Force Station Launch Complex 34 killed all three crew members — Command Pilot Virgil I. " Gus " Grissom , Senior Pilot Edward H. White II , and Pilot Roger B. Chaffee — and destroyed the Command Module ( CM ) . The name Apollo 1 , chosen by the crew , was officially retired by NASA in commemoration of them on April 24 , 1967 . Immediately after the fire , NASA convened the Apollo 204 Accident Review Board to determine the cause of the fire , and both houses of the United States Congress conducted their own committee inquiries to oversee NASA 's investigation . The ignition source of the fire was determined to be ele</t>
+          <t xml:space="preserve">Polikarpov I-6 = The Polikarpov I-6 was a Soviet biplane fighter prototype of the late 1920s . It was designed with traditional wooden construction in comparison with the wood and steel tube construction Polikarpov I-5 . Its development took longer than planned and the lead designer , Nikolai Polikarpov , was arrested for industrial sabotage , which only further delayed the project . Only two prototypes were built , as the I-5 was selected for production . = = Design and development = = Development of the I-6 ( Istrebitel ' — fighter ) began in September 1928 with a deadline for delivery for the first prototype of 1 August 1929 after the first prototypes of the Polikarpov I-3 were completed . Although the new fighter shared many of the characteristics of the earlier design , including the staggered sesquiplane , single-bay , layout of the wings , it was a new design which used a nine-cylinder , single-row , air-cooled Bristol Jupiter radial engine rather the water-cooled inline engine </t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Advanced Gemini = Advanced Gemini is a number of proposals that would have extended the Gemini program by the addition of various missions , including manned low Earth orbit , circumlunar and lunar landing missions . Gemini was the second manned spaceflight program operated by NASA , and consisted of a two-seat spacecraft capable of maneuvering in orbit , docking with unmanned spacecraft such as Agena Target Vehicles , and allowing the crew to perform tethered extra-vehicular activities . A range of applications were considered for Advanced Gemini missions , including military flights , space station crew and logistics delivery , and lunar flights . The Lunar proposals ranged from reusing the docking systems developed for the Agena target vehicle on more powerful upper stages such as the Centaur , which could propel the spacecraft to the Moon , to complete modifications of the Gemini to enable it to land on the Lunar surface . Its applications would have ranged from manned lunar flybys</t>
+          <t>John D. Rockefeller = John Davison Rockefeller Sr. ( July 8 , 1839 – May 23 , 1937 ) was an American industrialist and philanthropist . He was a co-founder of the Standard Oil Company , which dominated the oil industry and was the first great U.S. business trust . Rockefeller revolutionized the petroleum industry , and along with other key contemporary industrialists such as Andrew Carnegie , defined the structure of modern philanthropy . In 1870 , he founded Standard Oil Company and actively ran it until he officially retired in 1897 . Rockefeller founded Standard Oil as an Ohio partnership with his brother William along with Henry Flagler , Jabez A. Bostwick , chemist Samuel Andrews , and a silent partner , Stephen V. Harkness . As kerosene and gasoline grew in importance , Rockefeller 's wealth soared and he became the world 's richest man and the first American worth more than a billion dollars , controlling 90 % of all oil in the United States at his peak . His fortune upon his de</t>
         </is>
       </c>
     </row>
@@ -2121,32 +2121,32 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>album songs number band release single music track copies released chart billboard tracks sound recording albums record week features reviews lyrics critics soundtrack studio debuted pop charts peaked vocals carey sold previous selling albums_chart contains certified producer performed singles cover platinum recorded felt listing song rock metacritic allmusic debut sales best label stars live hip sample hot hop rap shipments inspired promotion fans awards riaa promotional interview featuring drake grammy united_kingdom feel additional want jay-z written itunes assigns samples weeks bonus piano charting featured arranged writing arrangements sessions produced artist garbage recording_industry_association_of_america charted tour mixed wanted praised composed sounds rapper</t>
+          <t>['grammy', 'neo', 'hawaiian', 'soul', 'nominees', 'category', 'awards', 'rap', 'award', 'presented', 'categories', 'artists', 'recipients', 'academy', 'disco']</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Hall of Fame ( Big Sean album ) = Hall of Fame is the second studio album by American hip hop recording artist Big Sean . It was released on August 27 , 2013 , by GOOD Music and Def Jam Recordings . Recording sessions took place from 2011 to 2013 , at the variety of the recording studios ; primarily in Los Angeles , California . The album features guest appearances from Nas , 2 Chainz , Nicki Minaj and Jeezy , while the production on the album was primarily handled by No I.D. , Key Wane , Da Internz , Mano , Young Chop and Hey DJ among others . The album was supported by six singles : " Guap " , " Switch Up " , " Beware " , " Fire " , " Ashley " and " You Don 't Know " . Hall of Fame received generally positive reviews from critics . At Metacritic , the album received an average score of 72 , based on 14 reviews . The album debuted at number 3 on the US Billboard 200 , selling 72,000 copies in its first week . As of February 2015 , the album has sold 155,000 copies in the United States</t>
+          <t>Reformed baptismal theology = In Reformed theology , baptism is a sacrament signifying the baptized person 's union with Christ , or becoming part of Christ and being treated as if they had done everything Christ had . Sacraments , along with preaching of God 's word , are means of grace through which God offers Christ to people . Sacraments are believed to have their effect through the Holy Spirit , but these effects are only believed to be beneficial to those who have faith in Christ . In Reformed theology , baptism is the sacrament of initiation into the visible church , or body of people who publicly claim faith in Christ . Baptism also signifies regeneration and remission of sin . Reformed Christians believe that the children of those who express faith in Christ should be baptized . Because baptism is believed to be beneficial only to those who have faith in Christ , infants are baptized on the basis of the promise of faith which will come to fruition later in life . = = History =</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Paramore ( album ) = Paramore is the self-titled fourth studio album by the American rock band Paramore . It was released on April 5 , 2013 , through Fueled by Ramen as a follow-up to Brand New Eyes ( 2009 ) . It is their first full-length album released after the departure of co-founders Josh and Zac Farro in 2010 . Recorded between April and November 1 , 2012 , the album was described by the band as being a " statement " and a reintroduction of the band to the world and to themselves . The album was the final one recorded with bassist Jeremy Davis before departing the band in 2015 . The album was produced by Justin Meldal-Johnsen , with lead guitarist Taylor York co-producing on four tracks . In contrast to band 's previous work , the production of Paramore contains the band 's experimentation with new musical genres , such as new wave and funk rock , and features three acoustic interludes . Paramore received acclaim from music critics , who praised the band 's maturity and experimen</t>
+          <t>Amanda Seyfried = Amanda Michelle Seyfried ( / ˈsaɪfrɛd / SY-fred ; born December 3 , 1985 ) is an American actress , model , and singer . She began her career as a model when she was 11 , then her acting career at 15 began an acting career with recurring parts on the soap operas As the World Turns and All My Children . In 2004 , Seyfried made her film debut in the teen comedy Mean Girls . Her subsequent supporting roles were in independent films , such as the drama Nine Lives ( 2005 ) and the crime drama Alpha Dog ( 2006 ) , she also had a recurring role in the UPN drama show Veronica Mars ( 2004 – 06 ) . Between 2006 and 2011 , she starred on the HBO drama series Big Love and appeared in the 2008 musical feature film Mamma Mia ! . Her other appearances include leading roles in the black comedy horror film Jennifer 's Body ( 2009 ) , as a call girl in the erotic thriller Chloe ( 2009 ) , the romantic drama-war film Dear John ( 2010 ) , and the romantic drama Letters to Juliet ( 2010 )</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>American Tragedy ( album ) = American Tragedy is the second studio album by American rap rock band Hollywood Undead . Production for the album began following the induction of Daniel Murillo into the band in early 2010 and lasted until December . Don Gilmore and Ben Grosse , who helped produce the band 's debut album , Swan Songs ( 2008 ) , also returned to produce the album along with several other producers including Kevin Rudolf , Sam Hollander , Dave Katz , Griffin Boice , Jeff Halavacs , and Jacob Kasher . The album is musically heavier and features darker lyrical content than the band 's previous effort . Originally set to release in March , American Tragedy was released on April 5 , 2011 in the United States and was released on various other dates that month in other countries . A remix of the album , American Tragedy Redux , was released on November 21 , 2011 . The album debuted at number four on the US Billboard 200 , selling approximately 67,000 copies in its first week in th</t>
+          <t>Mélanie Laurent = Mélanie Laurent ( French pronunciation : [ melani loʁɑ ̃ ] ; born 21 February 1983 ) is a French actress , singer , screenwriter and director . Born in Paris to a Jewish family , she was introduced to acting at the age of sixteen by French filmmaker Gérard Depardieu , who cast her in a minor role in the romantic drama The Bridge ( 1999 ) . The recipient of two César Awards , a Étoiles d 'or du cinéma français , and a Lumières Award , Laurent has established herself as an accomplished actress in the French film industry . Laurent gained recognition for her supporting work in several French films , most notably the 2006 Franco-Belgian comedy Dikkenek for which she won Étoiles d 'Or for Best Female Newcomer . Her breakthrough role came in the 2006 French drama film Don 't Worry , I 'm Fine for which she later won the César Award for Most Promising Actress , and the Prix Romy Schneider . Laurent made her Hollywood debut in 2009 with the starring role as Shosanna Dreyfus i</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Thank Me Later = Thank Me Later is the debut studio album by Canadian recording artist Drake , released on June 15 , 2010 , by Aspire Music Group , Young Money Entertainment , Cash Money Records , and Universal Motown Records . Production for the album took place at various recording studios during 2009 to 2010 and was mostly produced by longtime collaborators Noah " 40 " Shebib and Boi-1da . It also featured contributions from Timbaland , Swizz Beatz , Nicki Minaj , Lil Wayne , The-Dream , and Kanye West , among others . Thank Me Later has a languorous , ambient production that incorporates moody synthesizers , sparse beats , obscured keyboards , minor keys , and subtle arrangements . Thematically , the album focuses on Drake 's introduction to fame and his romances over the course of confessional , club-oriented , and sexual songs . Drake 's emotionally transparent , self-deprecating lyrics are delivered in both rapped and subtly sung verses , and explore feelings of doubt , insecuri</t>
+          <t>Life Is Good ( Nas album ) = Life Is Good is the eleventh studio album by American rapper Nas . It was recorded at various studios in New York and California , and produced primarily by No I.D. and Salaam Remi . Nas wrote the album after his divorce from recording artist Kelis and compared it to Marvin Gaye 's 1978 record Here , My Dear . He wanted to vent personal feelings and address moments in his life in his songs , while drawing on 1980s hip hop influences for the album 's production in order to complement its nostalgic tone . Life Is Good features personal subject matter , themes of adulthood and nostalgia , and reflections on Nas ' personal life and experience in hip hop . His rapping is characterized by a relaxed , plainspoken flow , internal rhymes , and a tone that veers from malicious to nostalgic and introspective . The album 's production incorporates orchestral elements and musical references to both contemporary and golden age hip hop , including boom bap beats and old s</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Gravity ( Lecrae album ) = Gravity is the sixth studio album by American Christian hip hop artist Lecrae , released on September 4 , 2012 . The album features appearances from Big K.R.I.T. , Mathai , Ashthon Jones , and Mali Music , along with labelmates Trip Lee , Andy Mineo , Derek Minor , who was formerly known as PRo , and Tedashii . Producers on the album include DJ Khalil , Street Symphony 's Heat Academy , and The Watchmen . The first single off the album , " I Know " , was released on July 24 , 2012 , and was followed by " Tell the World " featuring Mali Music on August 15 , 2012 , and " Mayday " featuring Big K.R.I.T. and Ashthon Jones on August 30 , 2012 . Reach Records released five music videos for the album : " Lord Have Mercy " , featuring Tedashii along with No Malice of Clipse , on August 1 , 2012 , " Tell the World " , featuring Mali Music , on October 19 , 2012 , " Mayday " , featuring Big K.R.I.T. and Ashthon Jones , on December 13 , 2012 , " Fakin ' " , featuring Th</t>
+          <t>Good Kid , M.A.A.D City = Good Kid , M.A.A.D City ( stylized as good kid , m.A.A.d city ) is the second studio album by American rapper Kendrick Lamar . The album was released on October 22 , 2012 , by Top Dawg Entertainment , Aftermath Entertainment , and was distributed by Interscope Records . The album serves as Lamar 's major label debut , after his signing to Aftermath and Interscope in early 2012 . It was preceded by the release of Kendrick 's debut studio album Section.80 ( 2011 ) , released exclusively through the iTunes Store independently . The album was recorded mostly at several studios in California with producers such as Dr. Dre , Just Blaze , Pharrell Williams , Hit-Boy , Scoop DeVille , Jack Splash and T-Minus , among others . Billed as a " short film by Kendrick Lamar " on the album cover , the concept album follows the story of Lamar 's teenage experiences in the drug-infested streets and gang lifestyle of his native Compton , California . Good Kid , M.A.A.D City rece</t>
         </is>
       </c>
     </row>
@@ -2156,67 +2156,32 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ship ships torpedo tons guns admiral cruiser fleet submarine sank laid sinking convoy german destroyer destroyers ordered boats damaged deck naval sunk knots escorted gun mounts repairs flagship torpedoes assigned stern shaft british flotilla vessels nautical escort transferred hms admiralty fire battleship aboard boilers cruisers beam hull convoys shipyard port malta april crew captain armament aft returning bow vessel horsepower sailed commissioned turbines french north_sea merchant royal_navy launched engagement submarines tubes range frigate escorting carried refit shipping inch displaced turrets kiel twin submerged engaged survivors warships wreck sms sea joined consisted battleships blockade departed fired maximum hipper thick sister returned</t>
+          <t>['euro', 'coins', 'currency', 'note', 'notes', 'denominations', 'dollar', 'value', 'stripe', 'tender', 'silver', 'thread', 'ink', 'issued', 'signature']</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>German cruiser Admiral Hipper = Admiral Hipper , the first of five ships of her class , was the lead ship of the Admiral Hipper class of heavy cruisers which served with Nazi Germany 's Kriegsmarine during World War II . The ship was laid down at the Blohm &amp; Voss shipyard in Hamburg in July 1935 and launched February 1937 ; Admiral Hipper entered service shortly before the outbreak of war , in April 1939 . The ship was named after Admiral Franz von Hipper , commander of the German battlecruiser squadron during the Battle of Jutland in 1916 and later commander-in-chief of the German High Seas Fleet . Admiral Hipper saw a significant amount of action during the war . She led the assault on Trondheim during Operation Weserübung ; while en route to her objective , she sank the British destroyer HMS Glowworm . In December 1940 , she broke out into the Atlantic Ocean to operate against Allied merchant shipping , though this operation ended without significant success . In February 1941 , Adm</t>
+          <t xml:space="preserve">Never Too Far / Hero Medley = " Never Too Far / Hero Medley " is a medley recorded by American singer-songwriter Mariah Carey , first released as a charity single on December 11 , 2001 through Virgin Records America and serving as the lead single for Carey 's second compilation album , Greatest Hits ( 2001 ) . The medley combines the first verse of " Never Too Far " , co-written and co-produced by Carey and Jimmy Jam and Terry Lewis , with a re-recorded version of the first verse and bridge of " Hero " , written and produced by Carey and Walter Afanasieff . As the latter did not receive co-production credits due to the change in instrumentation , Randy Jackson was named as producer alongside Carey instead . The single was meant to express a message of unity and love in the aftermath of the September 11 attacks . Though Carey did not promote Glitter ( 2001 ) , due to her hospitalization , she embarked on a short promotional tour for the single , and attended several charitable events . </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>German destroyer Z4 Richard Beitzen = The German destroyer Z4 Richard Beitzen was a Type 1934 destroyer built for the Kriegsmarine during the 1930s . At the beginning of World War II in September 1939 , the ship was initially deployed to blockade the Polish coast , but she was soon transferred to the Kattegat where she inspected neutral shipping for contraband goods . In late 1939 and early 1940 , the ship laid two offensive minefields off the English coast that claimed 17 merchant ships . Richard Beitzen was in reserve during the Norwegian Campaign of early 1940 and was transferred to France later that year where she made several attacks on British shipping . The ship returned to Germany in early 1941 for a refit and was transferred to Norway in June 1941 as part of the preparations for Operation Barbarossa , the German invasion of the Soviet Union . Richard Beitzen spent some time at the beginning of the campaign conducting anti-shipping patrols in Soviet waters , but these were gene</t>
+          <t>Joran van der Sloot = Joran Andreas Petrus van der Sloot ( Dutch pronunciation : [ ˈjoːrɑn vɑn dεr ˈsloːt ] ; born 6 August 1987 ) is a Dutch citizen , the murderer of Stephany Flores Ramírez in Lima , in 2010 , and the primary suspect in the 2005 disappearance of Natalee Holloway , in Aruba . After Flores Ramírez 's murder on 30 May 2010 van der Sloot fled to Chile , where he was arrested and extradited back to Peru for questioning regarding the murder . On 7 June 2010 , he confessed to bludgeoning Flores . He later tried to formally retract his confession , claiming that he had been intimidated by the National Police of Peru and framed by the FBI . A Peruvian judge ruled on 25 June 2010 that the confession was valid and on 13 January 2012 , Van der Sloot was sentenced to 28 years imprisonment for Flores ' murder . Five years earlier , while living in Aruba , van der Sloot had been the primary suspect in the disappearance of American teenager Natalee Holloway , who disappeared in Arub</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve">G and H-class destroyer = The G- and H-class destroyers were a group of 18 destroyers built for the Royal Navy during the 1930s . Six additional ships being built for the Brazilian Navy when World War II began in 1939 were purchased by the British and named the Havant class . The design was a major export success with other ships built for the Argentine and Royal Hellenic Navies . They were assigned to the Mediterranean Fleet upon completion and enforced the Non-Intervention Agreement during the Spanish Civil War of 1936 – 39 . Most ships were recalled home or were sent to the North Atlantic from October – November 1939 , after it became clear that Fascist Italy was not going to intervene in World War II . Then they began to escort convoys and patrol for German submarines and commerce raiders . Two ships were lost to German mines in the first six months of the war . Three more were lost during the Norwegian Campaign , one in combat with a German cruiser and two during the First Battle </t>
+          <t>William B. Washburn = William Barrett Washburn ( January 31 , 1820 – October 5 , 1887 ) was an American businessman and politician from Massachusetts . Washburn served several terms in the United States House of Representatives ( 1863 – 71 ) and as the 28th Governor of Massachusetts from 1872 to 1874 , when he won election to the United States Senate in a special election to succeed the recently deceased Charles Sumner . A moderate Republican , Washburn only partially supported the Radical Republican agenda during the American Civil War and the Reconstruction Era that followed . A Yale graduate , Washburn parlayed early business success in furniture manufacture into banking and railroads , based in the Connecticut River valley town of Greenfield . He was a major proponent of a railroads in northern and western Massachusetts , sitting on the board of the Connecticut River Railroad for many years , and playing an oversight role in the construction of the Hoosac Tunnel . He has been descr</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t xml:space="preserve">German destroyer Z16 Friedrich Eckoldt = Z16 Friedrich Eckoldt was a Type 1934A-class destroyer built for Nazi Germany 's Kriegsmarine in the late 1930s . It was named after Kapitänleutnant Friedrich Eckoldt ( 1887-1916 ) , the commander of torpedo boat V 48 , who was killed when his boat was sunk during the Battle of Jutland on 31 May 1916 . At the beginning of World War II , the ship was initially deployed to blockade the Polish coast , but she was quickly transferred to the German Bight to lay minefields in German waters . In late 1939 and 1940 the ship made multiple successful minelaying sorties off the English coast that claimed 21 merchant ships . Eckoldt participated in the early stages of the Norwegian Campaign by transporting troops to the Trondheim area in early April 1940 . The ship was transferred to France later in the year . Eckoldt returned to Germany in late 1940 for a refit and was transferred to Norway in June 1941 as part of the preparations for Operation Barbarossa </t>
+          <t>Legal history of cannabis in the United States = The legal history of cannabis in the United States relates to the regulation of cannabis ( legal term marijuana ) use for medical , recreational or industrial purposes in the United States . Increased restrictions and labeling of cannabis as a poison began in many states from 1906 onward , and outright prohibitions began in the 1920s . By the mid-1930s marijuana was regulated as a drug in every state , including 35 states that adopted the Uniform State Narcotic Drug Act . The first national regulation was the Marihuana Tax Act of 1937 . Multiple efforts to reschedule cannabis under the Act have failed , and the United States Supreme Court has ruled in United States v. Oakland Cannabis Buyers ' Cooperative and Gonzales v. Raich that the federal government has a right to regulate and criminalize cannabis , even for medical purposes . = = Early history ( pre-1850s ) = = The Virgnia Company , by decree of King James I in 1619 , ordered every</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>SMS Pillau = SMS Pillau was a light cruiser ordered by the Imperial Russian navy under the name Maraviev Amurskyy from the Schichau-Werke shipyard in Danzig in 1913 and launched in April 1914 . Following the outbreak of World War I , the ship was confiscated in August 1914 and renamed SMS Pillau in honor of the East Prussian port of Pillau ( now Baltiysk , Russia ) . The ship was commissioned into the High Seas Fleet in December 1914 . The lead ship of her class , she had one sister ship , Elbing . She was armed with a main battery of eight 15 cm SK L / 45 guns and had a top speed of 27.5 kn ( 50.9 km / h ; 31.6 mph ) . Pillau spent the majority of her career in the II Scouting Group , and saw service in both the Baltic and North Seas . In August 1915 , she participated in the Battle of the Gulf of Riga against the Russian Navy , and on 31 May – 1 June 1916 , she saw significant action at the Battle of Jutland . She was hit by a large-caliber shell once in the engagement , but suffered</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>government war military led political country party support polish foreign soviet revolution leader russian members alliance army influence forces russia france poland coup leaders german independence economic minister arab regime germany nationalist according established power people communist soviet_union reforms policies control european death western official ties conflict lithuanian diplomatic commonwealth relations leadership french general exile empire countries hitler peasants authorities local remained appointed uprising agreed faction moscow lithuania armed central anti new struggle nationalists sent troops supported syria emperor jewish national jews prime policy nationalism commander austria egypt armenian increasingly years international despite socialist revolt member ethnic china monarchy governments</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Polish Underground State = The Polish Underground State ( Polish : Polskie Państwo Podziemne , also known as the Polish Secret State ) is a collective term for the underground resistance organizations in Poland during World War II , both military and civilian , that were loyal to the Government of the Republic of Poland in exile in London . The first elements of the Underground State were established in the final days of the German invasion of Poland that began in September 1939 . The Underground State was perceived by supporters as a legal continuation of the pre-war Republic of Poland ( and its institutions ) that waged an armed struggle against the country 's occupying powers : Nazi Germany and the Soviet Union . The Underground State encompassed not only military resistance , one of the largest in the world , but also civilian structures , such as education , culture and social services . Although the Underground State enjoyed broad support throughout much of the war , it was not s</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Shukri al-Quwatli = Shukri al-Quwatli ( 1891 – 30 June 1967 ; Arabic : شكري القوتلي ) was the first president of post-independence Syria . He began his career as a dissident working towards the independence and unity of the Ottoman Empire 's Arab territories and was consequently imprisoned and tortured for his activism . When the Kingdom of Syria was established , Quwatli became a government official , though he was disillusioned with monarchism and co-founded the republican Independence Party . Quwatli was immediately sentenced to death by the French who took control over Syria in 1920 . Afterward , he based himself in Cairo where he served as the chief ambassador of the Syrian-Palestinian Congress , cultivating particularly strong ties with Saudi Arabia . He used these connections to help finance the Great Syrian Revolt ( 1925 – 1927 ) . In 1930 , the French authorities pardoned Quwatli and thereafter , he returned to Syria , where he gradually became a principal leader of the Nation</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Michel Aflaq = Michel Aflaq ( Arabic : ميشيل عفلق , 1910 – 23 June 1989 ) was a Syrian philosopher , sociologist and Arab nationalist . His ideas played a significant role in the development of Ba 'athism and its political movement ; he is considered by several Ba 'athists to be the principal founder of Ba 'athist thought . He published various books during his lifetime , the most notable being The Battle for One Destiny ( 1958 ) and The Struggle Against Distorting the Movement of Arab Revolution ( 1975 ) . Born into a middle-class family in Damascus , Syria , Aflaq studied at the Sorbonne , where he met his future political companion Salah al-Din al-Bitar . He returned to Syria in 1932 , and began his political career in communist politics . Aflaq became a communist activist , but broke his ties with the communist movement when the Syrian – Lebanese Communist Party supported France 's colonial policies . Later in 1940 Aflaq and al-Bitar established the Arab Ihya Movement ( later renam</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Roman Dmowski = Roman Stanisław Dmowski [ ˈrɔman staˈɲiswaf ˈdmɔfski ] ( 9 August 1864 – 2 January 1939 ) was a Polish politician , statesman , and co-founder and chief ideologue of the right-wing National Democracy ( " ND " : in Polish , " Endecja " ) political movement . He saw the aggressive Germanization of Polish territories controlled by the German Empire as the major threat to Polish culture and therefore advocated a degree of accommodation with another power that had partitioned Poland , the Russian Empire . He favored the re-establishment of Polish independence by nonviolent means , and supported policies favorable to the Polish middle class . During World War I , in Paris , through his Polish National Committee he was a prominent spokesman , to the Allies , for Polish aspirations . He was a principal figure instrumental in the postwar restoration of Poland 's independent existence . Dmowski never wielded official political power , except for a brief period in 1923 as minister</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">German nationalism in Austria = German nationalism ( German : Deutschnationalismus ) is a political ideology and historical current in Austrian politics . It arose in the 19th century as a nationalist movement amongst the German-speaking population of the Austro-Hungarian Empire . It favours close ties with Germany , which it views as the nation-state for all ethnic Germans , and the possibility of the incorporation of Austria into a Greater Germany . Over the course of Austrian history , from the Austrian Empire , to Austria-Hungary , and the First and the Second Austrian Republics , several political parties and groups have expressed pan-German nationalist sentiment . National liberal and pan-Germanist parties have been termed the " Third Camp " ( German : Drittes Lager ) of Austrian politics , as they have traditionally been ranked behind mainstream Catholic conservatives and socialists . The Freedom Party of Austria , a far-right political party with representation in the Austrian </t>
+          <t xml:space="preserve">Thomas Cushing = Thomas Cushing III ( March 24 , 1725 – February 28 , 1788 ) was an American lawyer , merchant , and statesman from Boston , Massachusetts . Active in Boston politics , he represented the city in the provincial assembly from 1761 to its dissolution in 1774 , serving as the lower house 's speaker for most of those years . Because of his role as speaker , his signature was affixed to many documents protesting British policies , leading officials in London to consider him a dangerous radical . He engaged in extended communications with Benjamin Franklin who at times lobbied on behalf of the legislature 's interests in London , seeking ways to reduce the rising tensions of the American Revolution . Cushing represented Massachusetts in the First and Second Continental Congresses , but was voted out when he opposed independence . Despite this , he remained politically active after independence , continuing to serve in the state government . During the war he was a commissary </t>
         </is>
       </c>
     </row>

--- a/data/top_docs/ctm/thetas_top_docs.xlsx
+++ b/data/top_docs/ctm/thetas_top_docs.xlsx
@@ -476,32 +476,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['episode', 'mulder', 'doctor', 'scully', 'viewers', 'episodes', 'series', 'television', 'character', 'season', 'watched', 'dwight', 'broadcast', 'trek', 'jack']</t>
+          <t>['album', 'song', 'chart', 'music', 'video', 'band', 'songs', 'madonna', 'track', 'pop', 'single', 'recording', 'lyrics', 'vocals', 'billboard']</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t>Lo Mejor de Mí ( song ) = " Lo Mejor de Mí " ( " All My Best " ) is a song written and produced by Rudy Pérez and first recorded by Spanish singer Juan Ramon for his second studio album Por Haberte Amado Tanto ( 1990 ) . In the song , the protagonist tells his lover how he gave his best despite not meeting his lover 's expectation . In 1997 , Mexican recording artist Cristian Castro covered the song for his fifth studio album Lo Mejor de Mí which Pérez also produced and arranged . Castro 's version peaked at number-one on the Billboard Hot Latin Songs and the Billboard Latin Pop Songs charts in the United States . The song received a Billboard Latin Music Awards and a Lo Nuestro nomination for Pop Song of the Year . Pérez earned the American Society of Composers , Authors and Publishers award in the Pop / Ballad field . = = Background = = In 1990 , Spanish recording artist Juan Ramon released his second studio album Por Haberte Amado Tanto which was arranged and produced by Cuban-Ameri</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t xml:space="preserve">Enamorada de Ti ( song ) = " Enamorada de Ti " ( English : " In Love With You " ) is a song recorded by American Tejano recording artist Selena and originally written for her second studio album , Ven Conmigo ( 1990 ) . The song was written by Selena y Los Dinos band member Pete Astudillo and her brother , A.B. Quintanilla III , and produced by Quintanilla . " Enamorada de Ti " is a freestyle song , a musical genre popular during the late 1980s . The recording was remixed by Juan Magan for the eponymous album in 2012 , a project headed by Humberto Gatica . Although the song was moderately successful during the early 1990s , it was exposed to a wider audience in the remix album Enamorada de Ti . Because of this , the song peaked at number 17 on the US Billboard Regional Mexican Digital Songs chart that year . In 1997 , the posthumously-released single " Is It the Beat ? " adopted the rap verse found in " Enamorada de Ti " . In the lyrics the protagonist sings to her love interest about </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t>Hot Tottie = " Hot Tottie " is a song by recording artist Usher . It was written by Usher , Ester Dean , Jay-Z and Polow da Don , with the latter producing it . The song features guest vocals from rapper Jay-Z and background vocals by Ester Dean . It is the second single in the United States and Canada from his EP , Versus , which is an extension of his sixth studio album , Raymond v. Raymond . The song was sent to rhythmic and urban airplay on August 9 , 2010 . " Hot Tottie " samples Big Tymers 's " Big Ballin ' " off their 1998 album How You Luv That Vol . 2 . " Hot Tottie " is an R &amp; B song with hip hop tones , accompanied by strobing , electronic beats . It received positive reviews , with many critics noting it as a standout from the EP . It peaked at number twenty-one on the US Billboard Hot 100 , and was a top ten hit on the US Hot R &amp; B / Hip-Hop Songs chart . Usher performed the song on The Early Show and on his OMG Tour . = = Background and composition = = The song was leaked</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t xml:space="preserve">Joyas Prestadas = Joyas Prestadas : Pop and Joyas Prestadas : Banda ( English : Borrowed Jewels ) are the twelfth and final studio albums released by American recording artist Jenni Rivera on November 21 , 2011 by Fonovisa Records . Joyas Prestadas consists of eleven cover versions , with the first album being recorded in Latin pop , while the second was recorded in banda . Both albums were produced by Enrique Martinez . According to Rivera , the songs she chose to cover were those she was enamored with while working as a cashier in a record store . It was her first production to include ballad recordings . Joyas Prestadas : Pop reached number one on the Mexican Albums Chart and number one on the Billboard Top Latin Albums chart in the United States while Joyas Prestadas : Banda peaked at number three on the Mexican Albums Chart and number two on the Billboard Top Latin Albums chart . Three singles were released from the album : " ¡ Basta Ya ! " , " A Cambio de Qué " , and " Detrás de </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t>A + No Poder = A + No Poder ( English : " To the Max " ) is the fourteenth studio album by Mexican recording artist Alejandra Guzmán . It was released on September 11 , 2015 , by Sony Music Latin . After the success of her previous live album , Primera Fila ( 2013 ) and its promotional tour , Guzmán recorded the album with original songs , composed and produced by her and Argentinian musician José Luis Pagán . After its release , A + No Poder received favorable reviews from music critics , with one expressing appreciation for the balance between ballads and rock songs . The record peaked at number twelve on the US Billboard Latin Pop Albums and number six in Mexico . To promote the album , three singles were released : " Adiós " featuring reggaeton performer Farruko , which peaked at number 26 on the Billboard Latin Pop Songs chart , " Qué Ironía " and " Esta Noche " . = = Background = = In 2013 , Alejandra Guzmán released her fourth live album titled Primera Fila , selling 90,000 unit</t>
         </is>
       </c>
     </row>
@@ -511,32 +511,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['album', 'song', 'madonna', 'chart', 'video', 'music', 'harrison', 'songs', 'carey', 'band', 'pop', 'track', 'recording', 'billboard', 'number']</t>
+          <t>['tropical', 'storm', 'hurricane', 'winds', 'depression', 'cyclone', 'mph', 'damage', 'rainfall', 'landfall', 'utc', 'wind', 'weakened', 'flooding', 'intensity']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Gravity the Seducer = Gravity the Seducer is the fifth studio album by electronic music band Ladytron . The album was released by Nettwerk in the United Kingdom on 12 September 2011 and in the United States , a day later . Recorded in Kent , England , the album has been described as " haunted , evocative , romantic " , and having " a feminine warmth " . Three singles have been released from the album , " White Elephant " , " Ambulances " and " Mirage " . The song " Ace of Hz " had previously been released as a single from the greatest hits album Best of 00 – 10 before appearing on Gravity the Seducer . Release of the album coincided with a tour across Canada and the United States . Gravity the Seducer earned generally positive reviews and reached number seventy-two on the UK Albums Chart , the group 's highest-peaking album in their home country as of September 2012 . = = Production = = Gravity the Seducer was Ladytron 's second studio album produced for record label Nettwerk , with wh</t>
+          <t xml:space="preserve">1949 Pacific hurricane season = The 1949 Pacific hurricane season was the first hurricane season in the Eastern Pacific hurricane database . Six tropical cyclones were known to have existed during the season , of which the first formed on June 11 and the final dissipated on September 30 . Another tropical cyclone had formed within the basin in 1949 , but was included in the Atlantic hurricane database , had it been classified operationally in the Eastern Pacific basin , would have tallied the overall season to seven tropical cyclones . In addition , there were two tropical cyclones that attained hurricane status , but none of them reached major hurricane intensity ( Category 3 or higher on the Saffir-Simpson Hurricane Scale ) . Tropical Storm Three threatened the Baja California Peninsula , while an unnumbered hurricane crossed into the Atlantic , later becoming the 1949 Texas hurricane . = = Season summary = = Tropical cyclones were recorded in the Eastern Pacific best track database </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Mulder and Scully ( song ) = " Mulder and Scully " is a song by Catatonia , released as a single from their 1998 album , International Velvet . The song makes direct reference to fictional FBI special agents Fox Mulder ( David Duchovny ) and Dana Scully ( Gillian Anderson ) , the two main characters of the popular sci-fi TV series The X-Files who work on cases linked to the paranormal , called X-Files . In an interview Cerys Matthews , co-writer of the song , explained that while she was not a serious fan of the show , the basic premise of the series matched the conceit of what she was trying to express . " Mulder and Scully " was released as the second single from the band 's album International Velvet . Originally , it was supposed to be the first single , but was delayed due to circumstances beyond the band 's control . The song was Catatonia 's first single in the United States . " Mulder and Scully " became the group 's break-out hit and received a mixed to positive from the music</t>
+          <t>1852 Atlantic hurricane season = The 1852 Atlantic hurricane season was one of only three Atlantic hurricane seasons in which every known tropical cyclone attained hurricane status . Five tropical cyclones were reported during the season , which lasted from late August through the middle of October ; these dates fall within the range of most Atlantic tropical cyclone activity , and none of the cyclones coexisted with another . Though there were officially five tropical cyclones in the season , hurricane scholar Michael Chenoweth assessed two of the cyclones as being the same storm . There may have been other unconfirmed tropical cyclones during the season , as meteorologist Christopher Landsea estimated that up to six storms were missed each year from the official database ; this estimate was due to small tropical cyclone size , sparse ship reports , and relatively unpopulated coastlines . = = Season summary = = Every tropical cyclone in the season was of hurricane status , or with win</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Tabloid Junkie = " Tabloid Junkie " is a pop song performed by American recording artist Michael Jackson . The song appeared as the eleventh track on Jackson 's ninth studio album , entitled HIStory : Past , Present and Future , Book I , which was released in 1995 as a two-disc set . The song was written , composed , and produced by Michael Jackson , Jimmy Jam ( James Harris III ) and Terry Lewis . The song received generally positive reviews from music critics . " Tabloid Junkie " is a pop-rock song , with lyrics that pertain to media bias and negative coverage of rumors about Jackson and his personal life , similar to previous songs recorded by Jackson . " Tabloid Junkie " is the seventh song on HIStory : Past , Present And Future , Book I to be aimed at the media . The track was not released as a single . = = Background = = Similarly to " Leave Me Alone " ( 1987 ) and HIStory : Past , Present and Future , Book I album tracks , " They Don 't Care About Us " , " Scream " and " This Ti</t>
+          <t xml:space="preserve">1868 Atlantic hurricane season = The 1868 Atlantic hurricane season was among the quietest on record , with only four tropical cyclones recorded . Only three seasons had fewer storms than in 1868 , and seven had the same number of storms . Initially , there were no known storms during the season , although a re-analysis confirmed the activity . All tropical activity occurred within a 45 day span . There may have been other unconfirmed tropical cyclones during the season . Meteorologist Christopher Landsea estimates up to six storms were missed from the official database , due to small tropical cyclone size , sparse ship reports , and relatively unpopulated coastlines . Only one of the storms , the second , made landfall , doing so near Apalachicola , Florida . It produced heavy rainfall and gusty winds across the southeastern United States , although there was no severe damage associated with the storm . The first hurricane killed two people when a ship passed through its winds for 14 </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Cafe Disco = " Cafe Disco " is the twenty-seventh episode of the fifth season of the American comedy television series The Office , and the 99th overall episode of the series . It originally aired on NBC in the United States on May 7 , 2009 . Feeling the office is overworked after the recent reign of Charles Miner , Michael sets up a " cafe disco " in his old Michael Scott Paper Company office . Phyllis injures her back dancing at the cafe disco and bonds with Dwight as he tries to relieve her back . Meanwhile , Jim and Pam plan to elope . The episode was written by Warren Lieberstein &amp; Halsted Sullivan and directed by Randall Einhorn . Several songs are featured in the episode , including " Car Wash " by Rose Royce , " Cat People " by David Bowie , " Everybody Dance Now " by C + C Music Factory and " Y.M.C.A. " by Village People . The episode received generally positive reviews and , according to Nielsen ratings , was watched by 7.71 million viewers during its original broadcast . = =</t>
+          <t>1884 Atlantic hurricane season = The 1884 Atlantic hurricane season was one of only three Atlantic hurricane seasons , along with 1852 and 1858 , in which every known tropical cyclone attained hurricane status . Overall , four tropical cyclones developed , three of which made landfall . The first system was initially observed over the northwestern Atlantic Ocean on September 1 . It struck Newfoundland the following day , but impact there is unknown . On September 3 , the next hurricane developed , though it did not effect land in its duration . The third hurricane struck Georgia , accompanied by damaging waves in north Florida . The final storm was last noted on October 17 . These dates fall within the period with the most tropical cyclone activity in the Atlantic . Only two tropical cyclones during the season existed simultaneously . The hurricane brought heavy rainfall to Jamaica , resulting in eight deaths . This storm also left damage to crops and vessels in portions of the Bahamas</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Who Really Cares ( Featuring the Sound of Insanity ) = " Who Really Cares ( Featuring the Sound of Insanity ) " is a song by Powderfinger from their sixth album Dream Days at the Hotel Existence . It is the fourth single from the album and was released in Australia in March 2008 . The band 's publicist , Ms. Fanclub , announced on 27 February that the single would be released to radioplay in the following week , without specifying a date . In her announcement , she also noted that a music video will be released at about the same time . The music video was then released in mid-March ; however , the single 's release was then announced as 31 March . A music video was released for the song ; however , it features the live version of the song taken from the DVD for the Across the Great Divide tour , whereas the radio single for the song is a radio edit of the studio album version . The music video is directly taken from the DVD ; however , it is altered optically with filters and converted</t>
+          <t xml:space="preserve">1930 Atlantic hurricane season = The 1930 Atlantic hurricane season was the second least active Atlantic hurricane season on record – behind only 1914 – with only three systems reaching tropical storm intensity . Of those three , two reached hurricane status , both of which also became major hurricanes , Category 3 or higher storms on the Saffir – Simpson hurricane wind scale . The first system developed in the central Atlantic Ocean on August 21 . Later that month , a second storm , the Dominican Republic hurricane , formed on August 29 . It peaked as a Category 4 hurricane with winds of 155 mph ( 250 km / h ) . The third and final storm dissipated on October 21 . Due to the lack of systems that developed , only one tropical cyclone , the second hurricane , managed to make landfall during the season . It severely impacted areas of the Greater Antilles , particularly the Dominican Republic , before making subsequent landfalls on Cuba and the U.S. states of Florida and North Carolina , </t>
         </is>
       </c>
     </row>
@@ -546,32 +546,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['ship', 'guns', 'ships', 'tons', 'torpedo', 'knots', 'inch', 'cruiser', 'fleet', 'gun', 'deck', 'admiral', 'german', 'turrets', 'cruisers']</t>
+          <t>['episode', 'mulder', 'scully', 'doctor', 'episodes', 'trek', 'files', 'series', 'character', 'enterprise', 'viewers', 'television', 'season', 'broadcast', 'star']</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Regioni-class cruiser = The Regioni class was a group of six protected cruisers built for the Italian Regia Marina ( Royal Navy ) in the late 1880s through the early 1900s . The class comprised Umbria , Lombardia , Etruria , Liguria , Elba , and Puglia , all of which were named for regions of Italy with the exception of Elba , which was named for the island . The class is sometimes referred as the Umbria class , for the first ship to be laid down . The ships , built by four different shipyards , varied slightly in their size , speed , and armament , but all could steam at about 18 kn ( 33 km / h ; 21 mph ) and their main armament consisted of four 15-centimeter ( 5.9 in ) guns and six 12 cm ( 4.7 in ) guns . The ships served in a variety of roles throughout their careers , including scouts for the main fleet , colonial cruisers , and representatives of Italy at major foreign events . Elba observed the Russo-Japanese War , including the Battle of Chemulpo Bay in 1904 , where she picked </t>
+          <t>Per Manum = " Per Manum " is the thirteenth episode of the eighth season of the American science fiction television series The X-Files . It premiered on the Fox network on February 18 , 2001 . Written by Frank Spotnitz and series creator Chris Carter , and directed by Kim Manners , the episode helps to explore the series ' overarching mythology . " Per Manum " received a Nielsen rating of 9.4 and was watched by 9.61 million households . Overall , the episode received mostly positive reviews from critics . The series centers on FBI special agents Dana Scully ( Gillian Anderson ) and her new partner John Doggett ( Robert Patrick ) — following the alien abduction of her former partner , Fox Mulder ( David Duchovny ) — who work on cases linked to the paranormal , called X-Files . In this episode , Scully and Doggett investigate several women who had no way of naturally conceiving but who claim to have been abducted and impregnated with alien babies . Soon , Scully begins to worry about the</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Italian ironclad Re d 'Italia = Re d 'Italia ( King of Italy ) was the lead ship of the Re d 'Italia-class armored frigates built in the United States for the Italian Regia Marina ( Royal Navy ) in the early 1860s . She was laid down at the William H. Webb Shipyard in New York in November 1861 , was launched in April 1863 , and was completed a year later in September 1864 ; the two Re d 'Italia-class ships were the only Italian ironclads built in the United States . The ships were broadside ironclads , armed with a battery of six 72-pounder guns and thirty-two 164 mm ( 6.5 in ) guns . Re d 'Italia initially served as the flagship of the Italian fleet , though she was replaced by the turret ship Affondatore shortly before the Battle of Lissa in 1866 . During that battle , Re d 'Italia was at the center of the melee . After her rudder was disabled by an Austrian vessel , the Austrian flagship , Erzherzog Ferdinand Max rammed her and tore a large hole in her hull . Re d 'Italia quickly ro</t>
+          <t>This Is Not Happening = " This Is Not Happening " is the fourteenth episode of the eighth season and the 175th episode overall of the science fiction television series The X-Files . The episode first aired in the United States on February 25 , 2001 on the Fox Network , and subsequently aired in the United Kingdom . It was written by executive producers Chris Carter and Frank Spotnitz , and directed by Kim Manners . The episode received a Nielsen household rating of 9.7 and was watched by 16.9 million viewers , making it the highest-rated episode of the season . " This Is Not Happening " was received positively by television critics . The series centers on FBI special agents Dana Scully ( Gillian Anderson ) and her new partner John Doggett ( Robert Patrick ) — following the alien abduction of her former partner , Fox Mulder ( David Duchovny ) — who work on cases linked to the paranormal , called X-Files . In this episode , Scully , Doggett , and Walter Skinner ( Mitch Pileggi ) discover</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ruggiero di Lauria-class ironclad = The Ruggiero di Lauria class was a class of ironclad battleships built for the Italian Regia Marina ( Royal Navy ) during the late 19th century . The three ships — Ruggiero di Lauria , Francesco Morosini , and Andrea Doria — were improved versions of the earlier Caio Duilio-class battleships . The primary improvements were new breech-loading guns , better armor protection , and more powerful machinery . The ships , designed by Giuseppe Micheli , marked a temporary diversion from the ideas of Benedetto Brin , who had designed the two preceding classes along with the following class . Construction of the ships was very lengthy , and by the time they were completed , the first pre-dreadnought battleships were being built . Rendered obsolescent by these new ships , the Ruggiero di Laurias had limited careers . The spent their time in service alternating between the Active and Reserve Squadrons , and they were primarily occupied with conducting training e</t>
+          <t>The X-Files ( season 2 ) = The second season of the science fiction television series The X-Files commenced airing on the Fox network in the United States on September 16 , 1994 , concluded on the same channel on May 19 , 1995 , after airing all 25 episodes . The series follows Federal Bureau of Investigation special agents Fox Mulder and Dana Scully , portrayed by David Duchovny and Gillian Anderson respectively , who investigate paranormal or supernatural cases , known as X-Files by the FBI . The second season of The X-Files takes place after the closure of the department following the events of the first season finale . In addition to stand-alone " Monster-of-the-Week " episodes , several episodes also furthered the alien conspiracy mythology that had begun to form . Season two introduced several recurring characters — X ( Steven Williams ) , an informant to Mulder ; Alex Krycek ( Nicholas Lea ) , Mulder 's partner-turned-enemy ; and the Alien Bounty Hunter ( Brian Thompson ) , a sh</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Italian cruiser Francesco Ferruccio = Francesco Ferruccio was a Giuseppe Garibaldi-class armored cruiser built for the Royal Italian Navy ( Regia Marina ) in the first decade of the 20th century . The ship made several deployments to the Eastern Mediterranean and the Levant during her career . At the beginning of the Italo-Turkish War of 1911 – 12 she bombarded Tripoli and then Beirut in early 1912 before being transferred to Libya . During World War I , Francesco Ferruccio 's activities were limited by the threat of Austro-Hungarian submarines and she became a training ship in 1919 . The ship was struck from the naval register in 1930 and subsequently scrapped . = = Design and description = = Francesco Ferruccio had an overall length of 111.8 meters ( 366 ft 10 in ) , a beam of 18.2 meters ( 59 ft 9 in ) and a deep draft ( ship ) of 7.3 meters ( 23 ft 11 in ) . She displaced 7,350 metric tons ( 7,230 long tons ) at normal load . The ship was powered by two vertical triple-expansion st</t>
+          <t>Wetwired = " Wetwired " is the twenty-third episode of the third season and the 72nd episode overall of the science fiction television series The X-Files . The episode first aired in the United States on May 10 , 1996 on Fox . It was written by the show 's visual effect designer Mat Beck , and directed by Rob Bowman . The episode earned a Nielsen rating of 9.7 and was viewed by 14.48 million people . The episode received mostly positive reviews from television critics . The show centers on FBI special agents Fox Mulder ( David Duchovny ) and Dana Scully ( Gillian Anderson ) who work on cases linked to the paranormal , called X-Files . Mulder is a believer in the paranormal , while the skeptical Scully has been assigned to debunk his work . In this episode , Mulder and Scully investigate a series of murders committed by ordinary citizens angered after seeing illusory images . Scully 's trust in Mulder is put to the ultimate test . " Wetwired " was written by Mat Beck , the show 's visua</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Italian cruiser Dogali = Dogali was a unique protected cruiser built for the Italian Regia Marina ( Royal Navy ) in the 1880s . Notably , she was the first warship equipped with triple-expansion engines . The ship was originally ordered by the Greek Navy and named Salamis , but she was sold to the Regia Marina before she was completed and renamed for the Battle of Dogali . She was armed with a main battery of six 15-centimeter ( 5.9 in ) guns and reached a speed of 19.66 knots ( 36.41 km / h ; 22.62 mph ) on her sea trials , making her one of the fastest cruisers at the time . Dogali 's career was uneventful ; she served with the main Italian fleet for the first few years of her career and visited the United States in 1893 for the start of the World 's Columbian Exposition . In January 1908 , the ship was sold to Uruguay and renamed 25 de Agosto and later Montevideo . In 1914 , the cruiser was withdrawn from service , but she was not disposed of until 1932 when she was sold for scrap .</t>
+          <t>The X-Files ( season 8 ) = The eighth season of the American science fiction television series The X-Files commenced airing in the United States on November 5 , 2000 , concluded on May 20 , 2001 , and consisted of twenty-one episodes . Season eight takes place after Fox Mulder 's ( David Duchovny ) alien abduction in the seventh season . The story arc for the search of Mulder continues until the second half of the season , while a new arc about Dana Scully 's ( Gillian Anderson ) pregnancy is formed . This arc would continue , and end , with the next season . The season explores various themes such as life , death , and belief . For this season , Duchovny elected to return only as an intermittent main character , appearing in only half of the episodes . Actor Robert Patrick was hired as a replacement for Mulder , playing John Doggett . The season also marked the first appearance of Annabeth Gish as Monica Reyes , who would become a main character in the ninth season . In addition to th</t>
         </is>
       </c>
     </row>
@@ -581,32 +581,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['highway', 'route', 'road', 'freeway', 'interchange', 'intersection', 'terminus', 'north', 'east', 'lane', 'continues', 'state', 'avenue', 'passes', 'traffic']</t>
+          <t>['ship', 'guns', 'ships', 'tons', 'torpedo', 'knots', 'cruiser', 'inch', 'fleet', 'cruisers', 'deck', 'gun', 'turrets', 'admiral', 'steam']</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">M-40 ( Michigan highway ) = M-40 is a north – south state trunkline highway in the Lower Peninsula of the US state of Michigan . The highway runs from US Highway 12 ( US 12 ) near the Indiana state line in Porter Township north through Paw Paw and Allegan to end in the outskirts of Holland . The current northern end is near Interstate 196 ( I-196 ) at an intersection with US 31 / Business Loop I-196 ( BL 196 ) . In between , M-40 runs through mixed agricultural and forest lands and along lakes and rivers through Southwest Michigan . The trunkline was designated by July 1 , 1919 along with the rest of the original state highway system along a route that is different that of today . South of Paw Paw , the original M-40 reached Niles and even the Indiana state line for a time . The northern end was extended in stages to Holland . The southern end was shifted in the 1970s , resulting in the current routing . = = Route description = = M-40 starts at an intersection with US 12 in rural Cass </t>
+          <t>I-351-class submarine = The I-351-class submarine ( 伊三百五十一型潜水艦 , I-san-byaku-go-jū-ichi-gata sensuikan ) was a class of tanker / transport submarines built for the Imperial Japanese Navy ( IJN ) during World War II . The IJN called this type of submarine Senho type submarine ( 潜補型潜水艦 , Sen-Ho-gata sensuikan ) . The type name , was shortened to Hokyū Sensuikan ( 補給潜水艦 , Submarine Tanker ) . The IJN designed these submarines to support flying boats in forward areas . By the time the first submarine was finished , this capability was no longer needed and she was converted into an oil tanker . That boat , I-351 , was sunk on the return leg of her second voyage in 1945 ; the second boat was destroyed by an American air raid before she was completed . Four additional submarines were planned , but were cancelled before they were laid down . = = Design and description = = The I-351-class submarines were ordered under the 5th Fleet Replenishment Program of 1942 to support IJN flying boats in ar</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Forest Highway 16 = Federal Forest Highway 16 ( FFH 16 ) is a forest highway in the western Upper Peninsula of the US state of Michigan . This road runs through the Ottawa National Forest in Iron , Houghton and Ontonagon counties . The Michigan Department of Transportation ( MDOT ) has erroneously marked it as H-16 on their official state map . FFH 16 is designated by the US Forest Service ( USFS ) with maintenance shared by the county road commissions ( ICRC , HCRC , OCRC , respectively ) . Although the MDOT maps would suggest that it is a part of the County-Designated Highway System ( CDH system ) , it is not . The three counties in question do not participate in the system , and the roadway falls in the middle of the G zone for numbering purposes . = = Route description = = FFH 16 starts at an intersection with County Road 436 ( CR 436 , Smokey Lake Road ) near Horseshoe Lake in rural Iron County 's Stambaugh Township . The roadway runs north from this location east of Smokey Lake t</t>
+          <t>HMS Unrivalled ( P45 ) = HMS Unrivalled ( P45 ) was a U-class submarine built for the Royal Navy during World War II . So far she has been the only ship of the Royal Navy to bear the name Unrivalled . Completed in 1942 , the boat spent most of the war in the Mediterranean . She sank a number of small merchant ships and naval auxiliaries , but major success eluded her during the war . Too small and slow for the post-war environment , Unrivalled was scrapped in 1946 . = = Design and description = = HMS Unrivalled was one of the second group of U-class submarines ordered on 23 August 1940 . These submarines differed from their predecessors in that they were lengthened by 5 feet ( 1.5 m ) " to give a more streamlined shape aft and to improve the flow of water over the propellers . " The submarine was 195 feet 6 inches ( 59.6 m ) long and 15 feet 9 inches ( 4.80 m ) abeam . Unrivalled had a single hull with internal ballast tanks and had a draft of 15 feet 19 inches ( 5.05 m ) when surfaced</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">U.S. Route 161 = U.S. Highway 161 ( US 161 ) was a U.S. Highway in Iowa that ran from Keokuk to Dubuque by way of Cedar Rapids . It was designated in 1925 and signed in 1926 along two primary highways . The route began at the Missouri River with US 61 southwest of Keokuk ran north through Mount Pleasant and Iowa City to Cedar Rapids . There , it turned to the northeast through Anamosa and Monticello towards Dubuque . The route ended at US 61 in Key West , a few miles west of Dubuque . The route changed very little while it was in service . It was paved from end to end by the summer of 1932 . In January 1938 , it was removed from the US Highway System . From Keokuk to Cedar Rapids , it was replaced by US 218 , which was extended southward . From Cedar Rapids to Key West it was replaced by US 151 , which was extended westward . = = Route description = = US 161 began on the US 61 bridge over the Des Moines River , which represents the border between Missouri and Iowa . The two routes ran </t>
+          <t>German aircraft carrier I ( 1915 ) = The aircraft carrier I was the first planned aircraft carrier conversion project of the German Imperial Navy ( Kaiserliche Marine ) during World War I. The Imperial Navy had experimented previously with seaplane carriers , though these earlier conversions were too slow to operate with the High Seas Fleet and carried an insufficient number of aircraft . I was intended to carry between 23 and 30 aircraft , including fighters , bombers , and torpedo-bombers . The ship was based on the incomplete hull of the Italian passenger ship Ausonia , which was being built in Hamburg . The conversion was proposed by the Air Department of the Reichs Navy Office , but it was abandoned after negotiations within the German Navy over a proposed moratorium on new ships at the end of the war . After World War I ended , high inflation in Germany added to the cost of the ship , and as a result , the Italian shipping company for whom the ship was originally built , declined</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">M-59 ( Michigan highway ) = M-59 is an east – west state trunkline highway that crosses the northern part of Metropolitan Detroit in the US state of Michigan . It runs between Howell at Interstate 96 ( I-96 ) and I-94 on the Chesterfield – Harrison township line near the Selfridge Air National Guard Base . While primarily a multi-lane surface highway , it is a full freeway from just east of the Pontiac downtown near Opdyke Road to just east of the Mound Road / Merrill Road exit in Utica . The various surface highway segments are named either Highland Road , Huron Street or Hall Road , with the latter known as an area for shopping and dining . The rural sections west of Pontiac pass through Oakland County lake country crossing through two state recreational areas . M-59 was first designated with the rest of the original state trunkline highway system by July 1 , 1919 between Pontiac and Mt . Clemens . Extensions on both ends brought the termini as far as Howell and New Baltimore before </t>
+          <t xml:space="preserve">French battlecruiser proposals = In the years before the outbreak of World War I in 1914 , the French Navy considered several proposals for battlecruisers . The Navy issued specifications for a battlecruiser design to complete part of the 28 capital ships to be built by 1920 . Three designs , one by P. Gille and two by Lieutenant Durand-Viel , were completed in 1913 . All three designs were similar to contemporary battleship designs , specifically the Normandie class , which introduced a quadruple gun turret for the main battery , which was adopted for all three proposals . The first two called for the same 340 mm ( 13 in ) gun used on all French dreadnoughts , though the third proposed a much more powerful 370 mm ( 15 in ) gun . Though the design studies were complete , the French Navy did not authorize or begin construction of any battlecruisers before the start of the war . = = Background = = In the Naval Law of 30 March 1912 , the French Navy called for a total force of 20 capital </t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>M-28 Business ( Newberry , Michigan ) = Business M-28 ( Bus . M-28 ) was a state trunkline highway in the Upper Peninsula of Michigan . It served as a business route running for 9.010 miles ( 14.500 km ) through the Newberry area . The business loop followed a U-shaped routing to connect downtown Newberry with M-28 south of town . It ran west of the city of Newberry , passing through the community of Dollarville before entering downtown , turning south and ending near the county airport . Bus . M-28 was originally a section of M-28 before the latter was realigned in the late 1930s . The highway carried the M-28A designation before it was redesignated as Bus . M-28 in 1950 . The trunkline was partially turned back to local control in 1953 , and the business loop designation was removed at that time . The section of the roadway in downtown Newberry has carried several different designations in addition to the original M-28 . = = Route description = = Bus . M-28 started at the top of a sm</t>
+          <t>Blitz-class aviso = The Blitz class was a pair of avisos built by the Imperial German Navy ( Kaiserliche Marine ) in the 1880s . The ships , Blitz and Pfeil , were the first steel-hulled ships of any kind built by the German Navy , and the progenitors of the later light cruisers of the Gazelle type . They were armed with a 12.5 cm ( 4.9 in ) gun and one 35 cm ( 14 in ) torpedo tube as their principal armament , and were capable of a top speed in excess of 15 knots ( 28 km / h ; 17 mph ) . Blitz and Pfeil served extensively in various roles , including as flotilla leaders for torpedo boats . Pfeil was deployed to German East Africa in 1889 to suppress an anti-colonial revolt , and after 1899 , was used for fishery protection . They were both reduced to tenders by 1912 . Blitz was briefly used as a coastal patrol vessel early in World War I before returning to tender duties by 1915 . Both ships survived the war , and were sold for scrap in the early 1920s . = = Design = = The Blitz class</t>
         </is>
       </c>
     </row>
@@ -616,32 +616,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['election', 'hitler', 'campaign', 'party', 'bush', 'republican', 'political', 'vote', 'labour', 'president', 'presidential', 'democratic', 'war', 'government', 'senate']</t>
+          <t>['species', 'genus', 'shark', 'females', 'prey', 'eggs', 'males', 'cap', 'sharks', 'fruit', 'stem', 'brown', 'habitat', 'birds', 'specimens']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t>Myco-heterotrophy = Myco-heterotrophy ( Greek : μυκός mykós , " fungus " , ἕτερος heteros = " another " , " different " and τροφή trophe = " nutrition " ) is a symbiotic relationship between certain kinds of plants and fungi , in which the plant gets all or part of its food from parasitism upon fungi rather than from photosynthesis . A myco-heterotroph is the parasitic plant partner in this relationship . Myco-heterotrophy is considered a kind of cheating relationship and myco-heterotrophs are sometimes informally referred to as " mycorrhizal cheaters " . This relationship is sometimes referred to as mycotrophy , though this term is also used for plants that engage in mutualistic mycorrhizal relationships . = = Relationship between myco-heterotrophs and host fungi = = Full ( or obligate ) myco-heterotrophy exists when a non-photosynthetic plant ( a plant largely lacking in chlorophyll or otherwise lacking a functional photosystem ) gets all of its food from the fungi that it parasitize</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t xml:space="preserve">Ramariopsis kunzei = Ramariopsis kunzei is an edible species of coral fungi in the Clavariaceae family , and the type species of the genus Ramariopsis . It is commonly known as white coral because of the branched structure of the fruit bodies that resemble marine coral . The fruit bodies are up to 5 cm ( 2.0 in ) tall by 4 cm ( 1.6 in ) wide , with numerous branches originating from a short rudimentary stem . The branches are one to two millimeters thick , smooth , and white , sometimes with yellowish tips in age . Ramariopsis kunzei has a widespread distribution , and is found in North America , Europe , Asia , and Australia . = = Taxonomy and phylogeny = = The species was first described as Clavaria kunzei by pioneer mycologist Elias Magnus Fries in 1821 . E.J.H. Corner transferred the species to Ramariopsis in 1950 , and made it the type species . In general , coral fungi often have extensive taxonomic histories , as mycologists have not agreed on the best way to classify them . In </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t>Clavaria fragilis = Clavaria fragilis , commonly known as fairy fingers , white worm coral , or white spindles , is a species of fungus in the family Clavariaceae . It is synonymous with Clavaria vermicularis . The fungus is the type species of the genus Clavaria and is a typical member of the clavarioid or club fungi . It produces tubular , unbranched , white basidiocarps ( fruit bodies ) that typically grow in clusters . The fruit bodies can reach dimensions of 15 cm ( 5.9 in ) tall by 0.5 cm ( 0.2 in ) thick . Clavaria fragilis is a saprobic species , growing in woodland litter or in old , unimproved grassland . It is widespread throughout temperate regions in the Northern Hemisphere , but has also been reported from Australia and South Africa . The fungus is edible , but insubstantial and flavorless . There are several other small white coral-like fungi with which C. fragilis may be confused . = = History and taxonomy = = Clavaria fragilis was originally described from Denmark in 1</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t>Cortinarius iodes = Cortinarius iodes , commonly known as the spotted cort or the viscid violet cort , is a species of agaric fungus in the family Cortinariaceae . The fruit bodies have small , slimy , purple caps up to 6 cm ( 2.4 in ) in diameter that develop yellowish spots and streaks in maturity . The gill color changes from violet to rusty or grayish brown as the mushroom matures . The species range includes the eastern North America , Central America , northern South America , and northern Asia , where it grows on the ground in a mycorrhizal association with deciduous trees . Although edible , the mushroom is not recommended for consumption . Cortinarius iodeoides , one of several potential lookalike species , can be distinguished from C. iodes by its bitter-tasting cap cuticle . = = Taxonomy = = The species was first described scientifically by Miles Joseph Berkeley and Moses Ashley Curtis in 1853 . The type collection was made by American botanist Henry William Ravenel in South</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t>Mycena multiplicata = Mycena multiplicata is a species of mushroom in the Mycenaceae family . First described as a new species in 2007 , the mushroom is known only from Kanagawa , Japan , where it grows on dead fallen twigs in lowland forests dominated by oak . The mushroom has a whitish cap that reaches up to 13 mm ( 0.51 in ) in diameter atop a slender stem 15 to 20 mm ( 0.59 to 0.79 in ) long by 1 to 1.3 mm ( 0.039 to 0.051 in ) thick . On the underside of the cap are whitish , distantly spaced gills that are narrowly attached to the stem . Microscopic characteristics of the mushroom include the amyloid spores ( turning bluish-black to black in the presence of Melzer 's reagent ) , the pear-shaped to broadly club-shaped cheilocystidia ( cystidia found on the gill edge ) covered with a few to numerous , unevenly spaced , cylindrical protuberances , the lack of pleurocystidia ( cystidia on the gill face ) , and the diverticulate hyphae in the outer layer of the cap and stem . The edib</t>
         </is>
       </c>
     </row>
@@ -651,32 +651,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['tropical', 'storm', 'hurricane', 'winds', 'depression', 'cyclone', 'mph', 'rainfall', 'damage', 'landfall', 'wind', 'utc', 'flooding', 'weakened', 'intensity']</t>
+          <t>['highway', 'route', 'road', 'interchange', 'freeway', 'intersection', 'east', 'north', 'terminus', 'lane', 'continues', 'passes', 'avenue', 'state', 'highways']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">1956 Atlantic hurricane season = The 1956 Atlantic hurricane season featured a low number of tropical cyclones , although every tropical storm and hurricane affected land . There were twelve tropical storms , a third of which became hurricanes . One of the hurricanes strengthened to the equivalent of a major hurricane , which is a Category 3 or greater on the Saffir-Simpson scale . The strongest hurricane of the season was Betsy , which was also the most damaging storm of the season : it destroyed 15,000 houses and left $ 40 million in damage in Puerto Rico . Betsy was also the deadliest of the season , having killed 18 people in the French West Indies , two from a shipwreck in the Caribbean Sea , and 16 in Puerto Rico . Tropical Storm Dora struck Mexico in September and killed 27 people . The season officially started on June 15 , although an unnamed storm developed about a week prior over the western North Atlantic Ocean . A later storm that formed over the Gulf of Mexico on June 12 </t>
+          <t xml:space="preserve">New Brunswick Route 95 = Route 95 is a 14.5-kilometre-long ( 9.0 mi ) provincial highway in New Brunswick , which serves a connector route between Interstate 95 ( I-95 ) and U.S. Route 2 ( US 2 ) at the Houlton – Woodstock Border Crossing near Houlton , Maine , United States to Route 2 , which is part of the Trans-Canada Highway , in Woodstock , New Brunswick , Canada . Prior to the construction of Route 95 , the connection between the two cities was served by Route 5 . In 2007 the New Brunswick government completed a roadworks project to turn Route 95 into a full freeway for its entire length . = = Route description = = Route 95 begins at the Houlton – Woodstock Border Crossing on the Maine – New Brunswick border as an extension of I-95 and US 2 . The border between the two countries also marks the border between the Eastern Time Zone and the Atlantic Time Zone . The highway travels northeast through woodlands as it approaches its first interchange with Route 540 via a hybrid diamond </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2009 Atlantic hurricane season = The 2009 Atlantic hurricane season was a below-average Atlantic hurricane season that produced eleven tropical cyclones , nine named storms , three hurricanes , and two major hurricanes . It officially began on June 1 and ended on November 30 , dates that conventionally delimit the period of each year when most tropical cyclones develop in the Atlantic basin . The season 's first tropical cyclone , Tropical Depression One , developed on May 28 , while the final storm , Hurricane Ida , dissipated on November 10 . The most intense hurricane , Bill , was a powerful Cape Verde-type hurricane that affected areas from the Leeward Islands to Newfoundland . The season featured the lowest number of tropical cyclones since the 1997 season , and only one system , Claudette , made landfall in the United States . Forming from the interaction of a tropical wave and an upper level low , Claudette made landfall on the Florida Panhandle with maximum sustained winds of 4</t>
+          <t>Missouri Route 108 = Route 108 is a short highway in the Bootheel of southeastern Missouri . Its eastern terminus is the Arkansas state line at Arkansas Highway 77 , about six miles ( 10 km ) south of Arbyrd , the only town on the route . Its western terminus is at U.S. Route 412 ( US 412 ) about two miles ( 3 km ) north of Arbyrd . Although signed as an east – west route , the route follows mostly north – south roadways . The route was designated in 1930 , and was extended east in 1972 . = = Route description = = Route 108 begins at the Arkansas state line in Arkmo , Dunklin County , where the road continues south into that state as Highway 77 . From the Arkansas-Missouri state line , the route heads north as a two-lane undivided road , passing a few homes and businesses in Arkmo before running through farmland . The road continues through rural areas to the southern edge of Arbyrd , where it reaches an intersection with Route 164 . At this point , Route 108 turns east to form a concu</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1970 North Indian Ocean cyclone season = The 1970 North Indian Ocean cyclone season had no bounds , but tropical cyclones in the North Indian Ocean tend to form between April and December , with peaks in May and November . The 1970 season saw a total of seven cyclonic storms , of which three developed into severe cyclonic storms . The Bay of Bengal was more active than the Arabian Sea during 1970 , with all of the three severe cyclonic storms in the season forming there . Unusually , none of the storms in the Arabian Sea made landfall this year . The most significant storm of the season was the Bhola cyclone , which formed in the Bay of Bengal and hit Bangladesh on November 12 . The storm killed at least 300,000 and possibly even over half a million people , making it the deadliest tropical cyclone in recorded history . = = Storms = = = = = Very Severe Cyclonic Storm One = = = A low pressure area that developed over the southern Andaman Sea late in April moved north into the Bay of Ben</t>
+          <t>Ontario Highway 400A = King 's Highway 400A , once known as the Highway 400 Extension , is an unsigned 400-series highway in the Canadian province of Ontario . The short 1.1-kilometre ( 0.7 mi ) freeway stub connects Highway 400 with Highway 11 and Simcoe County Road 93 , formerly Highway 93 . The highway was created in late 1959 by the opening of Highway 400 to Coldwater , although it has always featured Highway 400 signage along the southbound lanes and Highway 11 signage northbound . = = Route description = = Highway 400A is a 1.1-kilometre ( 0.7 mi ) 400-series highway located in the Canadian province of Ontario . The unisigned freeway includes a narrow grass median for the majority of its length , and features a speed limit of 100 kilometres per hour ( 62 mph ) . On average , the highway is used by approximately 11 , 900 vehicles daily . The route begins as Highway 400 exits on the right , with the northbound lanes rising up on an embankment and crossing Highway 400A . After the b</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1939 Atlantic hurricane season = The 1939 Atlantic hurricane season officially began on June 12 , 1939 , and lasted until November 7 , 1939 . These dates mark the period of each year when most tropical cyclones form in the Atlantic basin . The 1939 season had below normal activity , with only six tropical storms , of which two became hurricanes and one became a major hurricane , equivalent to Category 3 status or higher on the modern-day Saffir-Simpson Hurricane Scale . The first tropical cyclone formed on June 12 , and the last dissipated on November 6 . All of the storms affected land to some extent . The first two cyclones of the season made landfall along the coast of the United States , collectively causing only minor damage . Hurricane Five , the strongest of the year , took a northeastern path through the western Atlantic , striking Bermuda on October 16 . The fifth and final storm was a minimal hurricane that wrought damage throughout the western Caribbean Sea , most notably in</t>
+          <t>Illinois Route 98 = Illinois Route 98 ( IL 98 , Route 98 ) is a 8.36-mile ( 13.45 km ) east – west state highway located entirely within Tazewell County in central Illinois . The route runs from Route 29 on the border of Pekin and North Pekin east to Interstate 155 ( I-155 ) in Morton . The highway connects Pekin , North Pekin , Morton , and the community of Groveland ; it passes through a variety of landscapes between the towns . Route 98 is maintained by the Illinois Department of Transportation . The state of Illinois created Route 98 in 1924 ; the original route connected several cities in western Illinois . The eastern section of this route appeared on maps by 1928 , and the highway was completed in 1929 . In 1939 , Route 98 moved to its current alignment ; it has not changed since . = = Route description = = Route 98 begins at an intersection with Route 29 on the border of Pekin and North Pekin ; Worley Lake and the Illinois River lie to the west . The route heads east as a divid</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Effects of Hurricane Charley in North Carolina = The effects of Hurricane Charley in North Carolina were minor to moderate and included $ 25 million ( 2004 USD ) in damage . Hurricane Charley lasted from August 9 to August 15 , 2004 , and at peak intensity it attained 150 miles per hour ( 240 km / h ) winds , making it a strong Category 4 hurricane on the Saffir-Simpson Hurricane Scale . The storm made landfall in southwestern Florida at maximum strength , and moved northward , parallel to the U.S. East Coast before moving ashore on northeastern South Carolina . The storm caused flooding in seven counties within the state as a result of 5.05 inches ( 128 mm ) of rainfall . Winds peaked at 85 miles per hour ( 137 km / h ) which downed trees and power lines , and left 65,000 homes without power . A storm surge of 2 feet ( 0.61 m ) to 3 feet ( 0.91 m ) was reported , along with moderate waves that caused minor beach erosion . No deaths are attributed to the storm . = = Preparations = = On</t>
+          <t xml:space="preserve">Delaware Route 44 = Delaware Route 44 ( DE 44 ) is a state highway in Kent County , Delaware . It runs from DE 300 in Everetts Corner southeast to DE 8 in Pearsons Corner . The route passes through rural areas of western Kent County as well as the town of Hartly . In Hartly , it intersects DE 11 . The route was built as a state highway east of Hartly by 1924 and west of Hartly by 1932 , receiving the DE 44 designation by 1936 . = = Route description = = Delaware Route 44 heads to the southeast of DE 300 on Everetts Corner Road . It passes through a mix of woodland and farmland before reaching the town of Hartly . In Hartly , the route intersects DE 11 , where it becomes Main Street , and passes by homes . It then heads to the east out of Hartly on Hartly Road , passing through more rural areas . The route continues to its eastern terminus at DE 8 near Pearsons Corner . DE 44 has an annual average daily traffic count ranging from a high of 4,478 vehicles at the eastern terminus at DE 8 </t>
         </is>
       </c>
     </row>
@@ -686,32 +686,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['king', 'government', 'polish', 'political', 'emperor', 'son', 'arab', 'death', 'military', 'army', 'died', 'pope', 'poland', 'reign', 'byzantine']</t>
+          <t>['game', 'player', 'gameplay', 'games', 'players', 'playstation', 'nintendo', 'released', 'xbox', 'characters', 'graphics', 'soundtrack', 'mode', 'version', 'mario']</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t>Fighting game = Fighting game is a video game genre in which the player controls an on-screen character and engages in close combat with an opponent . These characters tend to be of equal power and fight matches consisting of several rounds , which take place in an arena . Players must master techniques such as blocking , counter-attacking , and chaining together sequences of attacks known as " combos " . Since the early 1990s , most fighting games allow the player to execute special attacks by performing specific button combinations . The genre is related to but distinct from beat ' em ups , which involve large numbers of antagonists . The first video game to feature fist fighting was arcade game Heavyweight Champ in 1976 , but it was Karate Champ which popularized one-on-one martial arts games in arcades in 1984 . In 1985 , Yie Ar Kung-Fu featured antagonists with differing fighting styles , while The Way of the Exploding Fist further popularized the genre on home systems . In 1987 ,</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t>Dr. Mario = Dr. Mario ( Japanese : ドクターマリオ , Hepburn : Dokutā Mario , often stylized as D ℞ . Mario ) is a 1990 Mario arcade-style action puzzle video game designed by Gunpei Yokoi and produced by Takahiro Harada . Nintendo developed and published the game for the Nintendo Entertainment System and Game Boy consoles . The game 's soundtrack was composed by Hirokazu Tanaka . The game focuses on the player character Mario , who assumes the role of a doctor and is tasked with eradicating deadly viruses . In this falling block puzzle game , the player 's objective is to destroy the viruses populating the on-screen playing field by using colored capsules that are dropped into the field . The player manipulates the capsules as they fall so that they are aligned with viruses of matching colors , which removes them from play . The player progresses through the game by eliminating all the viruses on the screen in each level . Dr. Mario received positive reception , appearing on several " Best Ni</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t>CD-i games from The Legend of Zelda series = Link : The Faces of Evil , Zelda : The Wand of Gamelon and Zelda 's Adventure are three action-adventure games produced by Philips for the CD-i as part of Nintendo 's The Legend of Zelda video game series . Not designed for Nintendo platforms , the games owe their existence to negotiations related to Nintendo 's decision not to have Philips create a CD add-on to the Super NES . During these negotiations , Philips secured the rights to use Nintendo characters in CD-i third-party developer games . The Faces of Evil and The Wand of Gamelon were developed by Animation Magic and were both released in North America on October 10 , 1993 , and Zelda 's Adventure was developed by Viridis and was released in North America on June 5 , 1994 . The games were given little funding or time for completion , and Nintendo provided only cursory input . The Philips CD-i did not sell well and the games saw relatively small sales figures . Critical reception for a</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t>Beat ' em up = Beat ' em up ( also known as brawler ) is a video game genre featuring hand-to-hand combat between the protagonist and an improbably large number of opponents . These games typically take place in urban settings and feature crime-fighting and revenge-based plots , though some games may employ historical , sci-fi or fantasy themes . Traditional beat ' em ups take place in scrolling , two-dimensional ( 2D ) levels , though some later games feature more open three-dimensional ( 3D ) environments with yet larger numbers of enemies . These games are noted for their simple gameplay , a source of both critical acclaim and derision . Two-player cooperative gameplay and multiple player characters are also hallmarks of the genre . The first influential beat ' em up was 1984 's Kung-Fu Master , with 1986 's Renegade introducing the urban settings and underworld revenge themes employed extensively by later games . The genre then saw a period of high popularity between the release of</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t>Blazing Lazers = Blazing Lazers , known in Japan as Gunhed ( ガンヘッド ) , is a 1989 sci-fi shoot ' em up video game developed by Hudson Soft and Compile . It was released in Japan on July 7 , 1989 ( 1989-07-07 ) for the PC Engine , and it was released in North America in November 1989 for the TurboGrafx-16 . It was later released on the Wii 's Virtual Console in North America on May 21 , 2007 ( 2007-05-21 ) , in Europe on May 25 , 2007 ( 2007-05-25 ) , in Australia on July 30 , 2007 ( 2007-07-30 ) , and in Japan on June 17 , 2008 ( 2008-06-17 ) . It was released for the PlayStation Network on July 21 , 2010 ( 2010-07-21 ) and on the Wii U 's Virtual Console on June 11 , 2014 ( 2014-06-11 ) both in Japan . It is based on the Japanese film Gunhed ( only referenced in the Japanese version ) . In the game , a fictional galaxy is under attack by an enemy space armada called the Dark Squadron , and this galaxy 's only chance for survival is the Gunhed Advanced Star Fighter , who must destroy th</t>
         </is>
       </c>
     </row>
@@ -721,32 +721,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['species', 'shark', 'genus', 'sharks', 'females', 'prey', 'eggs', 'males', 'cap', 'birds', 'nest', 'habitat', 'fin', 'brown', 'stem']</t>
+          <t>['film', 'films', 'bond', 'disney', 'movie', 'role', 'actor', 'director', 'cast', 'filming', 'script', 'production', 'starred', 'grossing', 'batman']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Bramble shark = The bramble shark ( Echinorhinus brucus ) is one of the two species of sharks in the family Echinorhinidae . Aside from the eastern Pacific Ocean , it is found in tropical and temperate waters worldwide . This rarely encountered shark swims close to the bottom of the seafloor , typically at depths of 400 – 900 m ( 1,300 – 3,000 ft ) , though it may enter much shallower water . The bramble shark has a stout body with two small dorsal fins positioned far back and no anal fin . It can be readily identified by the large , thorn-like dermal denticles scattered over its body , some of which may be fused together . It is purplish brown or black in color and grows up to 3.1 m ( 10 ft ) long . The diet of the bramble shark includes smaller sharks , bony fishes , and crabs , which this slow-moving species may capture via suction . It is aplacental viviparous , with females producing litters of 15 – 52 pups . Harmless to humans , it is an occasional bycatch of commercial and recre</t>
+          <t>Taapsee Pannu = Taapsee Pannu ( born 1 August 1987 ) is an Indian model and actress , who mainly works in the South Indian film industry , though she has also appeared in Bollywood films . Taapsee worked as a software professional and also pursued a career in modelling before becoming an actress . During her modelling career , she appeared in a number of commercials and won titles such as " Pantaloons Femina Miss Fresh Face " and " Safi Femina Miss Beautiful Skin " in 2008 . After a short stint with modelling , Taapsee made her acting debut with the 2010 Telugu film Jhummandi Naadam directed by Raghavendra Rao . Since then , she has appeared in a number of critically acclaimed films such as Aadukalam , Vastadu Naa Raju and Mr. Perfect . Her Tamil film Aadukalam won six National Film Awards at the 58th National Film Awards . She has also worked in a Malayalam film and has been signed on for three Telugu films and a Hindi film . She was awarded Most Enthusiastic Performer-Female Award at</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Cyathus stercoreus = Cyathus stercoreus , commonly known as the dung-loving bird 's nest , is a species of fungus in the genus Cyathus , family Nidulariaceae . Like other species in the Nidulariaceae , the fruiting bodies of C. stercoreus resemble tiny bird 's nests filled with eggs . The fruiting bodies are referred to as splash cups , because they are designed to use the force of falling drops of water to dislodge and disperse their spores . The species has a worldwide distribution , and prefers growing on dung , or soil containing dung ; the specific epithet is derived from the Latin word stercorarius , meaning " of dung " . = = Description = = The fruiting bodies , or perida , are funnel- or barrel-shaped , 6 – 15 mm tall , 4 – 8 mm wide at the mouth , sometimes short-stalked , golden brown to blackish brown in age . The outside wall of the peridium , the ectoperidium , is covered with tufts of fungal hyphae that resembles shaggy , untidy hair . However , in older specimens this ou</t>
+          <t>Richard Smith ( silent film director ) = Richard Smith ( September 17 , 1886 – 1937 ) , also known as Dick Smith , was a screenwriter , actor , and film director . Smith was born in Cleveland , Ohio , and became a comedian active in the vaudeville era . He met his wife Alice Howell in 1910 and the two performed together as Howell and Howell . After working under direction of Mack Sennett at the American Mutoscope and Biograph Company in New York , Smith moved to Los Angeles , California . Smith and his wife starred in reels together produced by L-KO Kompany . While Howell was contracted at Universal Studios , Smith directed her in films described in the book Clown Princes and Court Jesters as , " some of Universal 's most memorable comedies of the twenties " . With colleague Vin Moore , Smith directed actor Oliver Hardy in the 1920 film Distilled Love . Smith directed the Marx Brothers in 1921 in their first film , titled Humor Risk , which has since been lost . In 1925 , Smith 's dire</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Cookiecutter shark = Cookiecutter shark ( Isistius brasiliensis ) , also called the cigar shark , is a species of small dogfish shark in the family Dalatiidae . This shark occurs in warm , oceanic waters worldwide , particularly near islands , and has been recorded as deep as 3.7 km ( 2.3 mi ) . It migrates vertically up to 3 km ( 1.9 mi ) every day , approaching the surface at dusk and descending with the dawn . Reaching only 42 – 56 cm ( 16.5 – 22 in ) in length , the cookiecutter shark has a long , cylindrical body with a short , blunt snout , large eyes , two tiny spineless dorsal fins , and a large caudal fin . It is dark brown , with light-emitting photophores covering its underside except for a dark " collar " around its throat and gill slits . The name " cookiecutter shark " refers to its feeding habit of gouging round plugs , as if cut out with a cookie cutter , out of larger animals . Marks made by cookiecutter sharks have been found on a wide variety of marine mammals and fi</t>
+          <t>Manoj Bajpayee = Manoj Bajpayee ( born 23 April 1969 ) , also credited as Manoj Bajpai , is an Indian film actor who predominantly works in Hindi cinema and has also done some Telugu and Tamil language films . He is the recipient of two National Film Awards and two Filmfare Awards . Born in Belwa , a small village in Narkatiaganj , Bihar , Bajpayee aspired to become an actor since childhood . He relocated to Delhi at the age of seventeen , and applied for National School of Drama , only to be rejected for three times . He continued to do theatre while studying in the college . Bajpayee made his feature film debut with the one-minute role in Drohkaal ( 1994 ) , and a minor role of a dacoit in Shekhar Kapur 's Bandit Queen ( 1994 ) . After few unnoticed roles , he played gangster Bhiku Mhatre in Ram Gopal Varma 's 1998 crime drama Satya , which proved to be a breakthrough . Bajpayee received the National Film Award for Best Supporting Actor and Filmfare Critics Award for Best Actor for t</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Smooth hammerhead = The smooth hammerhead ( Sphyrna zygaena ) is a species of hammerhead shark , and part of the family Sphyrnidae . This species is named " smooth hammerhead " because of the distinctive shape of the head , which is flattened and laterally extended into a hammer shape ( called the " cephalofoil " ) , without an indentation in the middle of the front margin ( hence " smooth " ) . Unlike other hammerheads , this species prefers temperate waters and occurs worldwide at medium latitudes . In the summer , these sharks migrate towards the poles following cool water masses , sometimes forming schools numbering in the hundreds to thousands . The second-largest hammerhead shark after the great hammerhead shark , the smooth hammerhead can measure up to 5 m ( 16 ft ) long . It is an active predator that takes a wide variety of bony fishes and invertebrates , with larger individuals also feeding on sharks and rays . As in the rest of its family , this shark is viviparous and gives</t>
+          <t>Paresh Mokashi = Paresh Mokashi ( born 6 February 1969 ) is an Indian filmmaker , producer , actor and Theatre director-producer ; working predominantly in Marathi cinema and Marathi theatre . He started working as a backstage worker for theatre and did few minor roles for plays as well as films . Mokashi made his directorial debut for theatre with the Marathi play , Sangeet Debuchya Mulee in 1999 . He continued to work for theatre and made his directorial debut for cinema with the 2009 Marathi feature film , Harishchandrachi Factory . The film depicts the making of India 's first full-length feature film , Raja Harishchandra ( 1913 ) , made by Dadasaheb Phalke . The film was acclaimed critically and won several awards . It was also selected as India 's official entry to 82nd Academy Awards in the Best Foreign Language Film category . = = Personal life = = Paresh Mokashi was born to a Maharashtrian family in Pune and was brought up in Lonavla . He is a grandson of a noted Marathi write</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Squatina squatina = Squatina squatina , the angelshark or monkfish , is a species of shark in the family Squatinidae ( known generally also as angel sharks ) , once widespread in the coastal waters of the northeastern Atlantic Ocean . Well-adapted for camouflaging itself on the sea floor , the angelshark has a flattened form with enlarged pectoral and pelvic fins , giving it a superficial resemblance to a ray . This species can be identified by its broad and stout body , conical barbels , thornless back ( in larger individuals ) , and grayish or brownish dorsal coloration with a pattern of numerous small light and dark markings ( that is more vivid in juveniles ) . It measures up to 2.4 m ( 7.9 ft ) long . Like other members of its family , the angelshark is a nocturnal ambush predator that buries itself in sediment and waits for passing prey , mostly benthic bony fishes , but also skates and invertebrates . An aplacental viviparous species , females bear litters of seven to 25 pups ev</t>
+          <t>Mani Ratnam = Gopala Ratnam Subramaniam ( born 2 June 1955 ) , commonly known by his screen name Mani Ratnam , is an Indian film director , screenwriter , and producer who predominantly works in Tamil cinema . Cited by the media as one of India 's most acclaimed and influential filmmakers , Mani Ratnam is widely credited with revolutionising the Tamil film industry and altering the profile of Indian cinema . Although working in the mainstream medium , his films are noted for their realism , technical finesse , and craft . The Government of India honoured him with the Padma Shri , acknowledging his contributions to film in 2002 . Despite being born into a film family , Mani Ratnam did not develop any interest towards films when he was young . Upon completion of his post graduation in management , he started his career as a consultant . He entered the film industry through the 1983 Kannada film Pallavi Anu Pallavi . The failure of his subsequent films would mean that he was left with lit</t>
         </is>
       </c>
     </row>
@@ -756,32 +756,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['game', 'player', 'gameplay', 'games', 'players', 'soundtrack', 'mario', 'playstation', 'graphics', 'mode', 'hero', 'nintendo', 'characters', 'released', 'version']</t>
+          <t>['army', 'persian', 'byzantine', 'arab', 'syria', 'emperor', 'polish', 'muslim', 'byzantines', 'constantine', 'battle', 'hungary', 'ottoman', 'king', 'forces']</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Donkey Kong Jr . Math = Donkey Kong Jr . Math , originally released in Japan as Donkey Kong Jr . ' s Math Play ( Japanese : ドンキーコングJR.の算数遊び , Hepburn : Donkī Kongu Junia no Sansū Asobi ) ( sometimes released as Jr . Math Lesson ( JR.算数レッスン , Junia Sansū Ressun ) ) , is a Nintendo edutainment video game where players must solve math problems in order to win . It was released in Japan in 1983 for the Family Computer , in North America for the NES 's nationwide launch in 1986 , and in PAL regions in 1986 . It is the only game in the " Education Series " of NES games in North America . Donkey Kong Jr . Math was made available in the video game Animal Crossing ( along with several other NES titles ) . Donkey Kong Jr . Math was re-released on the Wii 's Virtual Console in 2007 and on the Wii U 's Virtual Console in 2014 . Since its release , Donkey Kong Jr . Math has received very negative reception ; Nintendo spokesman Tom Sarris commented that it was not well received , resulting in Ninten</t>
+          <t>Battle of Pegae = The Battle of Pegae ( Bulgarian : битка при Пиги ) was fought between 11 and 18 March 921 in the outskirts of Constantinople between the forces of the Bulgarian Empire and the Byzantine Empire during the Byzantine – Bulgarian war of 913 – 927 . The battle took place in a locality called Pegae ( i.e. " the spring " ) , named after the nearby Church of St. Mary of the Spring . The Byzantine lines collapsed at the very first Bulgarian attack and their commanders fled the battlefield . In the subsequent rout most Byzantine soldiers were killed by the sword , drowned or were captured . In 922 the Bulgarians continued their successful campaigns in Byzantine Thrace , capturing a number of towns and fortresses , including Adrianople , Thrace 's the most important city , and Bizye . In June 922 they engaged and defeated yet another Byzantine army at Constantinople , confirming the Bulgarian domination of the Balkans . However , Constantinople itself remained outside their reac</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Neverwinter Nights 2 : Mask of the Betrayer = Neverwinter Nights 2 : Mask of the Betrayer is a role-playing video game developed by Obsidian Entertainment and published by Atari . It is an expansion pack for Neverwinter Nights 2 . It was released in Autumn 2007 for the PC in North America , Europe , and Australia . Like the first game , Mask of the Betrayer is set in the Forgotten Realms campaign setting of the paper and pencil role-playing game Dungeons &amp; Dragons and employs the 3.5 edition rules . Mask of the Betrayer continues the story of Neverwinter Nights 2 by following the fictional main character , the Shard-bearer , who is afflicted by a curse that requires the devouring of spirits ( and occasionally souls ) to survive , and the character 's quest to determine the nature of the curse . The game takes place in two nations of the Forgotten Realms , Rashemen and Thay , which are considered part of Faerûn 's " Unapproachable East . " The expansion received generally favorable revi</t>
+          <t>Siege of Klis = The Siege of Klis or Battle of Klis ( Croatian : Opsada Klisa or Bitka kod Klisa , Turkish : Klise Kuşatması ) was a siege of Klis Fortress in the Kingdom of Croatia within Habsburg Monarchy . The siege of the fortress , which lasted for more than two decades , and the final battle near Klis in 1537 , were fought as a part of the Ottoman – Habsburg wars between the defending Croatian-Habsburg forces under the leadership of Croatian feudal lord Petar Kružić , and the attacking Ottoman army under the leadership of the Ottoman general Murat-beg Tardić . After decisive Ottoman victory at the Battle of Krbava field in 1493 , and especially after the Battle of Mohács in 1526 , the Croats continued defending themselves against the Ottoman attacks . The Ottoman conquest during the early years of the 16th century prompted the formation of the Uskoks , which were led by Croatian captain Petar Kružić , also called ( Prince of Klis ) . As a part of the Habsburg defensive system , U</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Guitar Hero Smash Hits = Guitar Hero Smash Hits ( titled Guitar Hero Greatest Hits in Europe and Australia ) is a music rhythm game and the fourth expansion game to the Guitar Hero series . The game features 48 songs originally featured in five previous games in the series — Guitar Hero , Guitar Hero II , Guitar Hero Encore : Rocks the 80s , Guitar Hero III : Legends of Rock and Guitar Hero : Aerosmith — redesigning the songs to be based on master recordings and to include support for full band play first introduced to the series in Guitar Hero World Tour . The game was developed by Beenox , published by Activision and distributed by RedOctane for release on the PlayStation 2 , PlayStation 3 , Wii , and Xbox 360 systems and was released around the world in the second half of June 2009 . The game reuses many elements from previous titles in the series , including Guitar Hero World Tour and Guitar Hero : Metallica . Beenox designed the game around playing the greatest songs of the series</t>
+          <t>Ivan the Russian = Ivan the Russian ( Bulgarian : Иван Русина , Ivan Rusina ; Hungarian : Orosz Iván ) ( fl . 1288 / 1323 – 1332 ) was a 14th-century Bulgarian military leader of Russian origin who served Bulgarian tsars Michael Shishman and Ivan Alexander . Prior to joining the armed forces of the Second Bulgarian Empire , Ivan the Russian may have been a military commander in the service of the Hungarian governor of Severin . Ivan the Russian rose to a high rank in the Bulgarian military in the wake of the accession of Michael Shishman to the throne . In 1323 , he was in charge of the Bulgarian defence of Plovdiv during the prolonged and ultimately successful Byzantine siege of the city . In 1328 , he was involved in a failed Bulgarian attempt to capture the Byzantine capital Constantinople from within . Probably taking part in the turbulent events that surrounded and followed Michael Shishman 's death , Ivan the Russian was last mentioned as a representative of Ivan Alexander in 133</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Barbarian : The Ultimate Warrior = Barbarian : The Ultimate Warrior is a video game first released for Commodore 64 personal computers in 1987 ; the title was developed and published by Palace Software , and ported to other computers in the following months . The developers licensed the game to Epyx , who published it as Death Sword in the United States . Barbarian is a fighting game that gives players control over sword-wielding barbarians . In the game 's two-player mode , players pit their characters against each other . Barbarian also has a single-player mode , in which the player 's barbarian braves a series of challenges set by an evil wizard to rescue a princess . Instead of using painted artwork for the game 's box , Palace Software used photos of hired models . The photos , also used in advertising campaigns , featured Michael Van Wijk ( who would later become famous as ' Wolf ' in the TV series Gladiators ) as the hero and bikini-clad Maria Whittaker , a model who was then as</t>
+          <t>Cutzinas = Cutzinas or Koutzinas ( Greek : Κουτζίνας ) was a Berber tribal leader who played a major role in the wars of the East Roman or Byzantine Empire against the Berber tribes in Africa in the middle of the 6th century , fighting both against and for the Byzantines . A staunch Byzantine ally during the latter stages of the Berber rebellion , he remained an imperial vassal until his murder in 563 by the new Byzantine governor . = = Life = = Cutzinas was of mixed stock : his father was a Berber , while his mother came from the Romanized population of North Africa . Following the reconquest of North Africa by the East Roman ( Byzantine ) Empire in the Vandalic War ( 533 – 534 ) , several uprisings by the native Berber tribes occurred in the North African provinces . Cutzinas is mentioned by the eyewitness historian Procopius of Caesarea as one of the leaders of the rebellion in the province of Byzacena , alongside Esdilasas , Medisinissas and Iourphouthes . In spring 535 , however ,</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Guitar Hero II = Guitar Hero II is a music rhythm game developed by Harmonix , published by Activision and distributed by RedOctane . It is the second installment in the Guitar Hero series and is the sequel to Guitar Hero . It was first released for the PlayStation 2 in November 2006 , and then for the Xbox 360 in April 2007 , with additional content not originally in the PlayStation 2 version . Like in the original Guitar Hero , the player uses a peripheral in the shape of a solid-body electric guitar to simulate playing rock music as notes scroll towards the player . Most of the gameplay from the original game remains intact , and provides new modes and note combinations . The game features more than 40 popular licensed songs , many of them cover versions recorded for the game , spanning five decades ( from the 1960s to the 2000s ) . The PlayStation 2 version of Guitar Hero II can be purchased individually or in a bundle that packages the game with a cherry red Gibson SG guitar contr</t>
+          <t xml:space="preserve">Siege of Güns = The Siege of Güns or Siege of Kőszeg ( Turkish : Güns Kuşatması ) was a siege of Kőszeg ( German : Güns ) in the Kingdom of Hungary within the Habsburg Empire , that took place in 1532 . In the siege , the defending forces of the Austrian Habsburg Monarchy under the leadership of Croatian Captain Nikola Jurišić ( Hungarian : Miklós Jurisics ) , defended the small border fort of Kőszeg with only 700 – 800 Croatian soldiers , with no cannons and few guns . The defenders prevented the advance of the Ottoman army of 120,000 – 200,000 toward Vienna , under the leadership of Sultan Suleiman the Magnificent ( Ottoman Turkish : سليمان Süleymān ) and Pargalı Ibrahim Pasha . The exact outcome is unknown , since it has two versions which differ depending on the source . In the first version Nikola Jurišić rejected the offer to surrender on favourable terms , and in the second version , the city was offered terms for a nominal surrender . Suleiman , having been delayed nearly four </t>
         </is>
       </c>
     </row>
@@ -791,32 +791,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['innings', 'runs', 'league', 'baseball', 'nba', 'batting', 'season', 'career', 'team', 'scored', 'wickets', 'basketball', 'games', 'rebounds', 'batted']</t>
+          <t>['trains', 'station', 'railway', 'building', 'line', 'tunnel', 'bridge', 'rail', 'services', 'train', 'oslo', 'passenger', 'stations', 'river', 'built']</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Leverett George DeVeber = Leverett George DeVeber ( sometimes spelled De Veber ) ( February 10 , 1849 – July 9 , 1925 ) was a Canadian politician who served as Member of the Legislative Assemblies of Alberta and the North-West Territories , minister in the government of Alberta , and member of the Senate of Canada . Born in New Brunswick and trained as a physician , he joined the North-West Mounted Police and came west , eventually settling in Lethbridge after leaving the police force . He represented Lethbridge in the North-West Legislative Assembly from 1898 until 1905 , when Lethbridge became part of the new province of Alberta . He was appointed Minister without Portfolio in Alberta 's first government , but resigned four months later to accept an appointment to the Senate , where he remained until his death . = = Early life = = DeVeber was born February 10 , 1849 , in Saint John , New Brunswick . His great-grandfather , Gabriel DeVeber , had been a British army officer who was rew</t>
+          <t>Eidsvoll Verk Station = Eidsvoll Verk Station ( Norwegian : Eidsvoll Verk stasjon ) is a railway station located on the Gardermoen Line at Råholt near Eidsvoll Verk in Eidsvoll , Norway . The station was taken into use in 1999 when the commuter trains to Eidsvoll started using the Gardermoen Line . It was designed by Arkitektskap and built in concrete , with details in metal and wood , and is sunk into the ground . = = Service = = The Oslo Commuter Rail , operated by the Norwegian State Railways , serves Eidsvoll Verk twice per hour with lines L12 Eidsvoll - Oslo S - Drammen - Kongsberg , and R11 Eidsvoll - Oslo S - Larvik / Skien . The service has only one northbound station , Eidsvoll , 5 minutes away . Travel time to Oslo Airport is 5 minutes , and to Oslo Central Station , 30 minutes . The public transport authority Ruter operates bus services to the station , including a correspondence from Eidsvoll Verk via the station to Dal . There is also a taxi stand at the station . = = Faci</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Salil Ankola = Salil Ashok Ankola ( born 1 March 1968 , Solapur , Maharashtra ) is a former Indian international cricketer who played one Test match and 20 One Day Internationals ( ODIs ) from 1989 to 1997 for India . A right-arm fast-medium bowler , he played first-class cricket for Maharashtra , regularly opening the bowling . Ankola 's consistent performances for Maharashtra earned him a call for representing India during their tour of Pakistan in 1989 – 90 . After the first Test match at Karachi , he was dropped for the subsequent matches in the series owing to injuries . After a brief phase of playing first-class cricket , Ankola was called for the Indian ODI team during 1993 , eventually led to being a part of the 1996 Cricket World Cup . At age 28 , Ankola retired due to a sudden development of bone tumor in his left shin bone ( osteoid osteoma ) because of which he could not run for 2 years . Since then he went on to appear in a number of Indian soap operas and a few Hindi film</t>
+          <t>Oslo Airport Station = Oslo Airport Station ( Norwegian : Oslo lufthavn stasjon ) , also known as Gardermoen Station , is a railway station located in the airport terminal building of Oslo Airport , Gardermoen in Norway . Located on the Gardermoen Line , it is served by the Airport Express Trains , express trains to Trondheim and Oslo , regional trains to Lillehammer and Skien ( via Oslo ) and commuter trains to Eidsvoll and Kongsberg ( via Oslo ) . The station is located 48 kilometres ( 30 mi ) from Oslo Central Station . The station is manned , and there is a single bus route , and several coach services , to and from the airport . It opened in 1998 , along with the new airport . During 2000 – 2001 , there were several derailments at the station . South of the station is a terminal for unloading freight trains carrying aviation fuel . = = Location = = Gardermoen is at kilometer marker 51.85 ( 32.22 mi ) from Oslo S , but the actual distance is only 48.07 km ( 29.87 mi ) . This is bec</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Dorothy McKibbin = Dorothy McKibbin ( December 12 , 1897 – December 17 , 1985 ) worked on the Manhattan Project during World War II . She ran the project 's office at 109 East Palace in Santa Fe , through which staff moving to the Los Alamos Laboratory passed . She was known as the " first lady of Los Alamos " , and was often the first point of contact for new arrivals . She retired when the Santa Fe office closed in 1963 . = = Early life = = Dorothy Ann Scarritt was born in Kansas City , Missouri , on December 12 , 1897 , the fourth of five children of William Chick Scarritt , a corporate lawyer , and his wife Frances Virginia née Davis . She had two older brothers , William Hendrix ( known as Bill ) and Arthur Davis ( known as A.D. ) , and an older sister , Frances . A younger sister , Virginia , died in 1907 . Dorothy was known as Dink to her family and close friends . Her father was active in political and social life in Kansas City , serving as its police commissioner from 1896 to</t>
+          <t>Åndalsnes Station = Åndalsnes Station ( Norwegian : Åndalsnes stasjon ) is a railway station in the town of Åndalsnes , the administrative centre of Rauma Municipality in Møre og Romsdal county , Norway . It has been the terminal station of the Raumabanen railway line since the line was extended to Åndalsnes on 30 November 1924 . The station was designed by Gudmund Hoel and is located on reclaimed land along the Isfjorden . To get the line to the station , a cutting had to be built . In addition to a station building , the station has an engine shed and a bus station ; the station building is next to a cruise ship port . It serves four passenger trains per day , and has correspondence by bus onwards to the nearby towns of Molde and Ålesund . The station is manned and features a chapel within a retired train carriage . = = History = = The area where the station is located is built on reclaimed land , as the Åndalsnes side of Isfjorden is sufficiently shallow . The earthwork for the recl</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Colin McCool = Colin Leslie McCool ( 9 December 1916 – 5 April 1986 ) was an Australian cricketer who played in 14 Tests from 1946 to 1950 . McCool , born in Paddington , New South Wales , was an all-rounder who bowled leg spin and googlies with a round arm action and as a lower order batsman was regarded as effective square of the wicket and against spin bowling . He made his Test début against New Zealand in 1946 , taking a wicket with his second delivery . He was part of Donald Bradman 's Invincibles team that toured England in 1948 but injury saw him miss selection in any of the Test matches . A good tour of South Africa in 1949 – 50 was followed by a lack of opportunity in the next two seasons , leading McCool to sign a contract to play professional cricket in the Lancashire League in 1953 . Three years later , Somerset County Cricket Club recruited McCool where he was a success , especially as a middle-order batsman ; he played five seasons and saw the club achieve its highest pl</t>
+          <t>Upminster Bridge tube station = Upminster Bridge is a London Underground station on Upminster Road in the Upminster Bridge neighbourhood of the London Borough of Havering in northeast London , England . The station is on the District line and is the penultimate station on the eastern extremity of that line . The station was opened on 17 December 1934 by the London , Midland and Scottish Railway on the local electrified tracks between Upminster and Barking that were constructed in 1932 . The main station building is of a distinctive polygonal design . It has relatively low usage for a suburban station with approximately 1 million entries and exits during 2011 . = = History = = The London , Tilbury and Southend Railway from Fenchurch Street and Barking was constructed through the Upminster Bridge area in 1885 , with stations at Hornchurch and Upminster . The Whitechapel and Bow Railway opened in 1902 and allowed through services of the District Railway to operate to Upminster . The Metro</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Munir Malik = Munir Malik ( Urdu : منيرملک ; 10 July 1934 – 30 November 2012 ) was a Pakistani cricketer who played three Tests for Pakistan between 1959 and 1962 . A right-arm fast-medium bowler , he took nine wickets in Test cricket at an average of 39.77 , including a five-wicket haul against England . During his first-class career , he took 197 wickets at the average of 21.75 . = = First-class career = = Malik played 49 first-class matches for Karachi , Punjab , Rawalpindi and Services teams during 1956 – 66 . During his first-class career , he achieved five or more wickets in an innings on fourteen occasions , and ten or more wickets in a match four times . Malik made his first-class debut for Punjab B during the Quaid-e-Azam Trophy , against Bahawalpur in 1956 – 57 . He finished the season taking 13 wickets at an average of 8.30 . His 5 wickets for 19 runs for Punjab B , against Punjab , was his best performance in the season . Malik played three matches during 1957 – 58 and his </t>
+          <t xml:space="preserve">Winschoten railway station = Winschoten ( Dutch pronunciation : [ ˈʋɪnsxoːtən ] ; abbreviation : Ws ) is an unstaffed railway station in Winschoten in the Netherlands . It is located on the Harlingen – Nieuweschans railway between Scheemda and Bad Nieuweschans in the province of Groningen . The station building , designed by Karel Hendrik van Brederode , was completed in 1865 and expanded in 1904 . Train services started on 1 May 1868 and have since been provided by Maatschappij tot Exploitatie van Staatsspoorwegen ( 1868 – 1937 ) , Nederlandse Spoorwegen ( 1938 – 2000 ) , NoordNed ( 2000 – 2005 ) , and Arriva ( 2005 – present ) . During World War II , 500 Jews were transported from the station via the Westerbork transit camp to Nazi concentration camps , where most of them were killed . The station has three tracks and two platforms . As of 2016 there are two local train services with trains every half an hour to and from Groningen , and trains every hour to and from Bad Nieuweschans </t>
         </is>
       </c>
     </row>
@@ -826,32 +826,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['film', 'films', 'bond', 'disney', 'role', 'movie', 'actor', 'starred', 'cast', 'box', 'tamil', 'director', 'filming', 'grossing', 'production']</t>
+          <t>['battalion', 'brigade', 'aircraft', 'division', 'regiment', 'squadron', 'wing', 'infantry', 'training', 'battalions', 'unit', 'units', 'flight', 'air', 'australian']</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Iron Man 3 = Iron Man 3 ( stylized onscreen as Iron Man Three ) is a 2013 American superhero film featuring the Marvel Comics character Iron Man , produced by Marvel Studios and distributed by Walt Disney Studios Motion Pictures.1 It is the sequel to 2008 's Iron Man and 2010 's Iron Man 2 , and the seventh film in the Marvel Cinematic Universe . Shane Black directed a screenplay he co-wrote with Drew Pearce , which uses concepts from the " Extremis " story arc by Warren Ellis . The film stars Robert Downey Jr . , Gwyneth Paltrow , Don Cheadle , Guy Pearce , Rebecca Hall , Stephanie Szostak , James Badge Dale , Jon Favreau , and Ben Kingsley . In Iron Man 3 , Tony Stark deals with posttraumatic stress disorder caused by the events of The Avengers , while investigating the reemergence of the Ten Rings , led by the mysterious Mandarin and comes into a conflict with old enemy ; Aldrich Killian . After the release of Iron Man 2 in May 2010 , Favreau , who served as director , decided not t</t>
+          <t>No. 77 Wing RAAF = No. 77 Wing was a Royal Australian Air Force ( RAAF ) wing of World War II . It formed part of No. 10 Operational Group ( later the Australian First Tactical Air Force ) at its establishment in November 1943 , when it comprised three squadrons equipped with Vultee Vengeance dive bombers . No. 77 Wing commenced operations in early 1944 , flying out of Nadzab , Papua New Guinea . Soon afterwards , however , the Vengeance units were withdrawn from combat and replaced with squadrons flying Douglas Bostons , Bristol Beaufighters and Bristol Beauforts . The wing saw action in the assaults on Noemfoor , Tarakan , and North Borneo , by which time it was an all-Beaufighter formation made up of Nos. 22 , 30 and 31 Squadrons . It was to have taken part in the Battle of Balikpapan in June 1945 , but unsuitable landing grounds meant that the Beaufighter units were withdrawn to Morotai , sitting out the remainder of the war before returning to Australia , where they disbanded , al</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delhi Daredevils in 2012 = The Delhi Daredevils ( DD ) is a franchise cricket team based in Delhi , India , which plays in the Indian Premier League ( IPL ) . The team competed in the 2012 IPL and finished at the third place , thus qualified for the 2012 Champions League Twenty20 ( CLT20 ) . It topped the league and the group stage in the IPL and the CLT20 respectively ; however , it failed to win any match in the playoffs . After finishing last in the previous season , the Daredevils added players such as Mahela Jayawardene , Andre Russell , Kevin Pietersen and Ross Taylor to the squad . Eric Simons succeeded Greg Shipperd as the head coach and T. A. Sekhar took the mentorship . The team won 11 of the 16 matches played in the league stage of the IPL and topped the point table . However , it lost both its two matches in the playoffs and finished at the third place . In the CLT20 , they won two of its four group stage matches , while the other two were abandoned due to rain . It topped </t>
+          <t>No. 73 Wing RAAF = No. 73 Wing was a Royal Australian Air Force ( RAAF ) wing of World War II . It was formed in February 1943 at Port Moresby , Papua New Guinea , as part of No. 9 Operational Group . The wing initially comprised three attack squadrons flying CAC Wirraways , Douglas Bostons , and Bristol Beaufighters , with which it took part in the New Guinea campaign until mid-year . It was then reorganised with three fighter squadrons operating P-40 Kittyhawks and Supermarine Spitfires ; in this form it saw action in the New Britain and Admiralty Islands campaigns through 1943 – 44 . The wing was disbanded at Los Negros in August 1944 , and by the beginning of 1945 its squadrons had been absorbed into other RAAF wings under No. 10 Operational Group ( later the Australian First Tactical Air Force ) . = = History = = = = = New Guinea campaign = = = Formed in February 1943 , No. 73 Wing consisted of No. 4 Squadron ( flying CAC Wirraways ) , No. 22 Squadron ( Douglas Bostons ) and No. 3</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Curtly Ambrose = Sir Curtly Elconn Lynwall Ambrose , KCN ( born 21 September 1963 ) is a former cricketer from Antigua who played 98 Test matches for the West Indies . A fast bowler , he took 405 Test wickets at an average of 20.99 and topped the ICC Player Rankings for much of his career to be rated the best bowler in the world . His great height — he is 6 feet 7 inches ( 2.01 m ) tall — allowed him to make the ball bounce unusually high after he delivered it ; allied to his pace and accuracy , it made him a difficult bowler for batsmen to face . A man of few words during his career , he was notoriously reluctant to speak to journalists . He was chosen as one of the Wisden Cricketers of the Year in 1992 ; after he retired he was entered into the International Cricket Council Hall of Fame and selected as one of West Indies all-time XI by a panel of experts . Born in Swetes , Antigua , Ambrose came to cricket at a relatively late age , having preferred basketball in his youth , but quic</t>
+          <t>10th Combat Aviation Brigade ( United States ) = The Combat Aviation Brigade , 10th Mountain Division is a combat aviation brigade of the United States Army based at Fort Drum , New York . It is a subordinate unit of the 10th Mountain Division . Reactivated in 1988 , the 10th Mountain Division 's Combat Aviation Brigade supported the division as it undertook numerous operations and overseas contingencies in the 1990s , including Operation Restore Hope , Operation Uphold Democracy , and Task Force Eagle , as well as disaster relief following Hurricane Andrew . The brigade has since become involved in the War on Terrorism , seeing four deployments to Afghanistan to support Operation Enduring Freedom and a deployment to Iraq to support Operation Iraqi Freedom . The brigade is currently on its fourth deployment to Afghanistan and is serving in Regional Command - East under Combined Joint Task Force 101 in support of Operation Enduring Freedom . = = Organization = = The Combat Aviation Brig</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Irfan Pathan = Irfan Khan Pathan ( pronunciation ; born 27 October 1984 ) is an Indian cricketer who made his debut for India in the 2003 / 04 Border-Gavaskar Trophy , and was a core member of the national team until a decline in form set in during 2006 , forcing him out of the team . Since then , he has been in and out of the limited-overs teams ( ODIs and T20Is ) , and has only sporadic appearances in Test cricket . Pathan played his last Test in April , 2008 at the age of 24 . Beginning his career as a fast-medium swing and seam bowler , Pathan broke into the national team soon after turning 19 , and evoked comparisons with Pakistan 's Wasim Akram with his promising performances and prodigious swing . He cemented his position in the team and was named by the International Cricket Council as the 2004 Emerging Player of the Year . Pathan was instrumental in India 's One-day international and Test series wins in Pakistan in 2004 . He was described by the media as the " blue-eyed boy " </t>
+          <t xml:space="preserve">No. 78 Wing RAAF = No. 78 Wing is a Royal Australian Air Force ( RAAF ) operational training wing , headquartered at RAAF Base Williamtown , New South Wales . It comprises Nos. 76 and 79 Squadrons , operating the BAE Hawk 127 lead-in fighter , and No. 278 Squadron , a technical training unit . No. 79 Squadron , located at RAAF Base Pearce , Western Australia , is responsible for converting new pilots to fast jets , while No. 76 Squadron at Williamtown conducts introductory fighter courses ; both units also fly support missions for the Royal Australian Navy and the Australian Army . Formed as a fighter wing in November 1943 , No. 78 Wing comprised three flying units , Nos. 75 , 78 and 80 Squadrons , operating P-40 Kittyhawks in the South West Pacific theatre of World War II . After the war , it re-equipped with P-51 Mustangs at Williamtown . During the early 1950s , the wing was based at Malta on garrison duties with the Royal Air Force , operating two squadrons of De Havilland Vampire </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Norm O 'Neill = Norman Clifford Louis O 'Neill OAM ( 19 February 1937 – 3 March 2008 ) was a cricketer who played for New South Wales and Australia . A right-handed batsman known for his back foot strokeplay , O 'Neill made his state debut aged 18 , before progressing to Test selection aged 21 in late 1958 . Early in his career , O 'Neill was one of the foremost batsmen in the Australian team , scoring three Test centuries and topping the run scoring aggregates on a 1959 – 60 tour of the Indian subcontinent which helped Australia win its last Test and series on Pakistani soil for 39 years , as well as another series in India . His career peaked in 1960 – 61 when he scored 181 in the Tied Test against the West Indies , and at the end of the series , had a career average of 58.25 . His performances on the 1961 tour of England saw him named as one of the Wisden Cricketers of the Year . Thereafter his form was less formidable , characterised by nervousness and fidgeting at the start of his</t>
+          <t>166th Aviation Brigade ( United States ) = The 166th Aviation Brigade was an aviation training brigade of the United States Army headquartered at Fort Hood , Texas . It was a subordinate unit of First Army - Division West . An " AC / RC " ( Active Component / Reserve Component ) formation , the 166th Aviation Brigade was the sole organization responsible for the post-mobilization training of United States Army Reserve &amp; National Guard aviation units . The unit was formerly designated as 3rd Brigade , 75th Division . From 1997 , the 166th Aviation Brigade has trained other aviation units for front-line service . As such , it has never seen combat , and has thus never earned any campaign streamers or unit awards . As the only brigade in the First Army responsible for training aviation units , the 166th Aviation Brigade is the principal unit for training Army Reserve and Army National Guard assets preparing to deploy to contingencies around the world , which means it is responsible for 47</t>
         </is>
       </c>
     </row>
@@ -861,32 +861,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['french', 'british', 'governor', 'militia', 'troops', 'battle', 'massachusetts', 'boston', 'command', 'kentucky', 'fort', 'men', 'army', 'fleet', 'general']</t>
+          <t>['election', 'governor', 'bush', 'republican', 'senate', 'president', 'democratic', 'massachusetts', 'campaign', 'presidential', 'elected', 'kentucky', 'lincoln', 'senator', 'vote']</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t>Edwin Maxwell ( attorney general ) = Edwin Maxwell ( July 16 , 1825 – February 5 , 1903 ) was an American lawyer , judge , and politician in the U.S. state of West Virginia . Maxwell served as Attorney General of West Virginia in 1866 and was an Associate Justice of the Supreme Court of Appeals of West Virginia from 1867 until 1872 . He was elected to the West Virginia Senate ( 1863 – 1866 ; 1886 – 1893 ) and the West Virginia House of Delegates ( 1893 – 1895 ; 1903 ) . Maxwell was born in 1825 in Weston , Virginia ( present-day West Virginia ) and raised on a farm until the age of 21 . Despite his father 's plans for him to become a carpenter , Maxwell studied jurisprudence under his uncle Lewis Maxwell , a U.S. Representative . Maxwell was admitted to the bar in 1848 , and relocated to West Union , where he served two terms as the Commonwealth 's attorney for Doddridge County . In 1857 , Maxwell moved to Clarksburg and established a law partnership with Burton Despard , which was lat</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t>Mary Isenhour = Mary Isenhour is an American political strategist , campaign manager , and government official , currently serving as Chief of Staff for Pennsylvania Governor Tom Wolf . Prior to the Wolf administration , Isenhour served executive director of the Pennsylvania Democratic Party , was state director of Hillary Clinton 's 2008 presidential campaign , and assisted with the successful campaigns of U.S. Senator Bob Casey , Jr. and Pennsylvania Governor Ed Rendell . Isenhour also previously worked as executive director of the Pennsylvania House Democratic Campaign Committee , and started a political consulting firm with former state party chairman T.J. Rooney . In 2010 , PoliticsPA called her " one of the top consultants in the state " , and said , " few can move between the strategy of campaigning and its mechanics with the ease that she does " . Starting her career working on the Kansas House of Representatives staff , Isenhour eventually becoming chief of staff to House Mino</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t>James Fisher Robinson = James Fisher Robinson ( October 4 , 1800 – October 31 , 1882 ) was the 22nd Governor of Kentucky , serving the remainder of the unfinished term of Governor Beriah Magoffin . Magoffin , a Confederate sympathizer , became increasingly ineffective after the elections of 1861 yielded a supermajority to pro-Union forces in both houses of the Kentucky General Assembly . Magoffin agreed to resign the governorship , provided he could select his successor . He selected Robinson . Politically , Robinson opposed both secession and abolition . Though he had Union sympathies , he was considered a moderate , opposing both fugitive slave laws and the enlistment of black soldiers . As a state senator , he supported the Crittenden Compromise and opposed the Civil War . As governor , he drew criticism from the administration of President Abraham Lincoln for opposing the Emancipation Proclamation . = = Early life = = Robinson was born to Jonathan and Jane Black Robinson in Scott C</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t xml:space="preserve">Christopher Greenup = Christopher Greenup ( c . 1750 – April 27 , 1818 ) was an American politician who served as a U.S. Representative and the third Governor of Kentucky . Little is known about his early life ; the first reliable records about him are documents recording his service in the Revolutionary War where he served as a lieutenant in the Continental Army and a colonel in the Virginia militia . After his service in the war , Greenup helped settle the trans-Appalachian regions of Virginia . He became involved in politics , and played an active role in three of the ten statehood conventions that secured the separation of Kentucky from Virginia in 1792 . He became one of the state 's first representatives , and served in the Kentucky General Assembly before being elected governor in a race where , due to his immense popularity , he ran unopposed . Greenup 's term in office was marred by accusations that he had participated in the Burr Conspiracy to align Kentucky with Spain prior </t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t>John Breathitt = John Breathitt ( September 9 , 1786 – February 21 , 1834 ) was the 11th Governor of Kentucky . He was the first Democrat to hold this office and was the second Kentucky governor to die in office . Shortly after his death , Breathitt County , Kentucky was created and named in his honor . Early in life , Breathitt was appointed a deputy surveyor in Illinois Territory . On his return to Kentucky , he taught at a country school , and through wise investments , amassed enough wealth to sustain him while he studied law with Judge Caleb Wallace . In 1811 , he was elected to the first of several terms in the Kentucky House of Representatives . He was the Democratic nominee for lieutenant governor in 1828 . Although his running mate William T. Barry lost the office of governor to Thomas Metcalfe , Breathitt defeated his opponent for lieutenant governor . During his term as lieutenant governor , Breathitt was one of several proposed candidates to succeed John Rowan in the United</t>
         </is>
       </c>
     </row>
@@ -896,32 +896,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['castle', 'century', 'station', 'church', 'castles', 'built', 'bridge', 'tower', 'pier', 'railway', 'bailey', 'river', 'building', 'trains', 'bristol']</t>
+          <t>['castle', 'church', 'century', 'castles', 'king', 'cathedral', 'tower', 'medieval', 'earl', 'england', 'nave', 'bishop', 'edward', 'chancel', 'built']</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Caerphilly Castle = Caerphilly Castle ( Welsh : Castell Caerffili ) is a medieval fortification in Caerphilly in South Wales . The castle was constructed by Gilbert de Clare in the 13th century as part of his campaign to conquer Glamorgan , and saw extensive fighting between Gilbert and his descendants and the native Welsh rulers . Surrounded by extensive artificial lakes – considered by historian Allen Brown to be " the most elaborate water defences in all Britain " – it occupies around 30 acres ( 12 ha ) and is the second largest castle in Britain . It is famous for having introduced concentric castle defences to Britain and for its large gatehouses . Gilbert began work on the castle in 1268 following his occupation of the north of Glamorgan , with the majority of the construction occurring over the next three years at a considerable cost . The project was opposed by Gilbert 's Welsh rival Llywelyn ap Gruffudd , leading to the site being burnt in 1270 and taken over by royal official</t>
+          <t>Nidan = Nidan ( sometimes known as Midan or Idan ) was a Welsh priest and , according to some sources , a bishop , in the 6th and 7th centuries . He is now commemorated as a saint . He was the confessor for the monastery headed by St Seiriol at Penmon , and established a church at what is now known as Llanidan , which are both places on the Welsh island of Anglesey . He is the patron saint of two churches in Anglesey : St Nidan 's Church , Llanidan , built in the 19th century , and its medieval predecessor , the Old Church of St Nidan , Llanidan . Midmar Old Kirk in Aberdeenshire , Scotland , is also dedicated to him : Nidan is said to have helped to establish Christianity in that area as a companion of St Kentigern . St Nidan 's , Llanidan , has a reliquary dating from the 14th or 16th century , which is said to house his relics . = = Life = = Little is known in detail about Nidan 's life , and his year and place of birth are unknown . He is sometimes referred to as " Midan " or " Ida</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Josce de Dinan = Josce de Dinan ( sometimes Joce de Dinan , Josselin de Dinan , Joce de Dynan ; Jocelin de Dinan , Joyce de Dinan , or Joceas de Dinan ; died 1166 ) was an Anglo-Norman nobleman who lived during and after the civil war between King Stephen of England and his cousin Matilda over the throne of England . He was a landholder in the Welsh Marches when he was married by Stephen to the widow of Pain fitzJohn , a union that gave Josce control of Ludlow Castle . Control of the castle was contested by other noblemen , and the resulting warfare between the nobles forms the background to a late medieval romance known as Fouke le Fitz Waryn , which is mainly concerned with the actions of Josce 's grandson , but also includes some material on Josce 's lifetime . Josce eventually lost control of Ludlow and was granted lands in compensation by Matilda and her son , King Henry II of England , who succeeded Stephen in 1154 . = = Background and early life = = Following King Henry I 's dea</t>
+          <t>Bowes Castle = Bowes Castle was a medieval castle in the village of Bowes in County Durham , England . Built within the perimeter of the former Roman fort of Lavatrae , the early timber castle on the site was replaced by a more substantial stone structure between 1170 and 1174 on the orders of Henry II . A planned village was built alongside the castle . Bowes Castle withstood Scottish attack during the Great Revolt of 1173-74 but was successfully looted by rebels in 1322 . The castle went into decline and was largely dismantled after the English Civil War . The ruins are now owned by English Heritage and run as a tourist attraction . = = History = = = = = 12th century = = = Bowes Castle was built within the ruins of the Roman fort of Lavatrae . The route was one of the few upland passes to link England and Scotland and had remained strategically important during the medieval period . The castle site lay within the Honour of Richmond , a grouping of lands traditionally owned by the Cou</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Beeston Castle = Beeston Castle is a former Royal castle in Beeston , Cheshire , England ( grid reference SJ537593 ) , perched on a rocky sandstone crag 350 feet ( 107 m ) above the Cheshire Plain . It was built in the 1220s by Ranulf de Blondeville , 6th Earl of Chester , ( 1170 – 1232 ) , on his return from the Crusades . In 1237 , Henry III took over the ownership of Beeston , and it was kept in good repair until the 16th century , when it was considered to be of no further military use , although it was pressed into service again in 1643 , during the English Civil War . The castle was slighted ( partly demolished ) in 1646 , in accordance with Cromwell 's destruction order , to prevent its further use as a stronghold . During the 18th century the site was used as a quarry . It is rumoured that treasure belonging to Richard II lies undiscovered in the castle grounds , but the many searches that have been carried out have failed to find any trace of it . The castle is now in ruins . </t>
+          <t>Cynfarwy = Cynfarwy was a Christian in the 7th century about whom little is known . He was venerated by the early church in Wales as a saint , although he was never formally canonised . St Cynfarwy 's Church in Anglesey is dedicated to him , and his name is also preserved in the name of the settlement around the church , Llechgynfarwy ( or sometimes " Llechcynfarwy " ) . His feast day is in November , although the date varies between sources . = = Life and commemoration = = Little is known for certain about Cynfarwy ; his dates of birth and death are not given in the Bonedd y Saint ( a Welsh genealogical tract compiled in the late 18th century using material from older manuscripts ) . According to the 19th-century Celtic scholar Robert Williams , Cynfarwy was active in the 7th century . According to the Bonedd y Saint , he was the son of the otherwise unknown " Awy ab Llehenog , Lord of Cornwall " . Cynfarwy is venerated as a saint , although he was never canonized by a pope : as the h</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Bowes Castle = Bowes Castle was a medieval castle in the village of Bowes in County Durham , England . Built within the perimeter of the former Roman fort of Lavatrae , the early timber castle on the site was replaced by a more substantial stone structure between 1170 and 1174 on the orders of Henry II . A planned village was built alongside the castle . Bowes Castle withstood Scottish attack during the Great Revolt of 1173-74 but was successfully looted by rebels in 1322 . The castle went into decline and was largely dismantled after the English Civil War . The ruins are now owned by English Heritage and run as a tourist attraction . = = History = = = = = 12th century = = = Bowes Castle was built within the ruins of the Roman fort of Lavatrae . The route was one of the few upland passes to link England and Scotland and had remained strategically important during the medieval period . The castle site lay within the Honour of Richmond , a grouping of lands traditionally owned by the Cou</t>
+          <t>Æthelric II = Æthelric ( called Æthelric II to distinguish him from an earlier Æthelric who was also bishop of Selsey and also spelled Ethelric ; died c . 1076 ) was the second to last medieval Bishop of Selsey in England before the see was moved to Chichester . Consecrated a bishop in 1058 , he was deposed in 1070 for unknown reasons and then imprisoned by King William I of England . He was considered one of the best legal experts of his time , and was even brought from his prison to attend the trial on Penenden Heath where he gave testimony about English law before the Norman Conquest of England . = = Early life = = Æthelric was a monk at Christ Church Priory at Canterbury prior to his becoming a bishop . Several historians opine that he might have been the same as the Æthelric who was a monk of Canterbury and a relative of Godwin , Earl of Wessex . That Æthelric was elected by the monks of Canterbury to be Archbishop of Canterbury in 1050 , but was not confirmed by King Edward the C</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Halton Castle = Not to be confused with Alton Castle . Halton Castle is in the former village of Halton which is now part of the town of Runcorn , Cheshire , England . The castle is situated on the top of Halton Hill , a sandstone prominence overlooking the village . It is recorded in the National Heritage List for England as a designated Grade I listed building , and a scheduled ancient monument . It was the seat of the Barons of Halton from the 11th century until the 14th century and it then passed to the Duchy of Lancaster . It was besieged twice in the Civil War after which its structure deteriorated . In the 18th century a new courthouse was built on the site of the previous gatehouse . The castle lies in ruins apart from the courthouse which has been converted into a public house . = = History = = = = = Building and administration = = = Although there is no surviving evidence , it is likely that Halton Hill was a settlement in prehistoric times . Following the Norman conquest , t</t>
+          <t>Robert Bloet = Robert Bloet ( sometimes Robert Bloett ; died 1123 ) was Bishop of Lincoln 1093-1123 and Chancellor of England . Born into a noble Norman family , he became a royal clerk under King William I. Under William I 's son and successor King William II , Bloet was first named chancellor then appointed to the See of Lincoln . Continuing to serve the king while bishop , Bloet remained a close royal councillor to William II 's successor , King Henry I. He did much to embellish Lincoln Cathedral , and gave generously to his cathedral and other religious houses . He educated a number of noblemen , including illegitimate children of Henry I. He also was the patron of the medieval chronicler Henry of Huntingdon , and was an early patron of Gilbert of Sempringham , the founder of the Gilbertine monastic order . = = Early life = = Bloet was a member of the Norman noble family that held Ivry in Normandy . Bloet was related in some manner to Hugh , the Bishop of Bayeux from 1015 to 1049 ,</t>
         </is>
       </c>
     </row>
@@ -931,32 +931,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['match', 'wrestling', 'championship', 'wwe', 'tag', 'raw', 'ring', 'smackdown', 'defeated', 'heavyweight', 'feud', 'event', 'wwf', 'michaels', 'title']</t>
+          <t>['yard', 'yards', 'touchdown', 'season', 'michigan', 'team', 'nba', 'league', 'coach', 'tech', 'alabama', 'football', 'points', 'quarter', 'games']</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Bobby Kay = Romeo Cormier is a retired Canadian professional wrestler best known by the ring name Bobby Kay . He is a member of the Cormier wrestling family , a group of four brothers who were all successful professional wrestlers . Romeo Cormier competed in Canada and the United States from 1967 to the mid-1980s . He also worked as a wrestling promoter . After retiring from wrestling , Cormier began performing country music professionally before taking a job with Loblaws . = = Career = = Cormier grew up with eight brothers and four sisters on the family 's farm in what is now Memramcook , New Brunswick . He became interested in professional wrestling because of his older brothers Jean-Louis , Yvon , and Leonce , who competed under the ring names Rudy Kay , The Beast , and Leo Burke , respectively . At age 17 , Yvon took Romeo to Calgary , Alberta to train under Stu Hart . Cormier made his professional debut in 1967 and wrestled in several countries . While touring the world as a compe</t>
+          <t>Chad Mottola = Charles Edward " Chad " Mottola ( born October 15 , 1971 ) is an American retired professional baseball player who played five seasons in Major League Baseball ( MLB ) as an outfielder . Considered a journeyman , Mottola played professionally from 1992 through 2007 , appearing in 59 MLB games and 1,801 minor league games . He was the hitting coach for the Toronto Blue Jays during the 2013 season , but his contract was not renewed for 2014 . Mottola is an alumnus of the University of Central Florida ( UCF ) , where he played college baseball for the UCF Knights baseball team . A highly regarded prospect , Mottola was selected by the Cincinnati Reds with the fifth overall selection of the 1992 MLB Draft . Mottola played in minor league baseball for different organizations , receiving major league playing time with the Cincinnati Reds in 1996 , the Toronto Blue Jays in 2000 and 2006 , the Florida Marlins in 2001 and the Baltimore Orioles in 2004 . As he received less playin</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tekno Team 2000 = Tekno Team 2000 was a professional wrestling tag team that competed in the World Wrestling Federation ( WWF ) from 1995 to 1996 . The team was composed of Travis and Troy . Although the team started off with a strong push from the WWF , they did not continue their initial success . Tekno Team 2000 also left the WWF temporarily to make several appearances in the United States Wrestling Association ( USWA ) . After returning to the WWF , the team continued to lose matches and was eventually disbanded . = = History = = Originally Chad Fortune and Erik Watts were football teammates for the University of Louisville . In 1994 , they reunited and began wrestling as a tag team . They would debut in Minnesota for the AWA losing to Wayne Bloom and Mike Enos . = = = World Wrestling Federation = = = Wearing " futuristic " silver and maroon ring outfits , they debuted in the WWF as a babyface tag team that was " ahead of its time " . As part of the " New Generation " of the WWF , </t>
+          <t>Mickey Micelotta = Robert Peter " Mickey " Micelotta ( born October 20 , 1928 ) is a former American shortstop in Major League Baseball ( MLB ) . He played 13 total seasons of professional baseball , two of which were spent in the National League with the Philadelphia Phillies . In 17 career MLB games , Micelotta posted a batting average of .000 and had two runs in nine plate appearances . Born and raised in Wisconsin , Micelotta first played professionally with the Dayton Indians and Carbondale Pioneers in 1947 . Over the next three seasons , he played for various minor league teams in the Phillies organization before missing the 1951 and 1952 seasons , serving in the Korean War . He returned and played for the Terre Haute Phillies in 1953 and the Syracuse Chiefs from 1954 to 1955 , splitting time between the Chiefs and the Phillies ' major league squad . Micelotta spent the next three seasons with the Miami Marlins and three seasons after that with the Birmingham Barons before retiri</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>TNA World Heavyweight Championship = The TNA World Heavyweight Championship is a professional wrestling world heavyweight championship owned by Total Nonstop Action Wrestling ( TNA ) . It is currently the highest ranked championship in TNA and is primarily defended in TNA 's heavyweight division . It was unveiled on May 14 , 2007 , at the taping of TNA 's primary television program , TNA Impact ! ; this episode of Impact ! did not air until May 17 , 2007 . The inaugural champion was Kurt Angle . Like most professional wrestling championships , the title is won via the result of a scripted match . Before the TNA World Heavyweight Championship was created , TNA held control over the NWA World Heavyweight Championship due to an agreement between TNA and the National Wrestling Alliance ( NWA ) , the organization which owned the NWA Championship . In 2007 , the agreement between TNA and the NWA ended , leading to the creation of the TNA World Heavyweight Championship . = = History = = The T</t>
+          <t>Dan Meyer ( first baseman ) = Daniel Thomas Meyer ( born August 3 , 1952 in Hamilton , Ohio ) is a retired professional baseball player whose career spanned 15 seasons , 12 of which were played in Major League Baseball ( MLB ) with the Detroit Tigers ( 1974 – 76 ) , the Seattle Mariners ( 1977 – 81 ) , and the Oakland Athletics ( 1982 – 85 ) . Meyer primarily played first base , but also played left field , third base , and right field . He batted left-handed while throwing right-handed . During his playing career , Meyer was listed at 5 feet 11 inches ( 180 cm ) and weighed 180 pounds ( 82 kg ) . After attending the University of Arizona and Santa Ana College , Meyer was drafted by the Detroit Tigers during the 1972 Major League Baseball draft . He began his career in the minor leagues with the Bristol Tigers . Meyer made his major league debut in 1974 . Over his career in the majors , Meyer compiled a .253 batting average with 411 runs scored , 944 hits , 153 doubles , 31 triples , 8</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>All Star Pro-Wrestling = All Star Pro-Wrestling ( オールスター ・ プロレスリング ) is a Japan-exclusive professional wrestling video game developed and published by Square on June 8 , 2000 for the PlayStation 2 . It was the first wrestling game published on this platform . All Star Pro-Wrestling was released in a period in which Square sought to diversify its catalog by producing various non-role-playing games for the PlayStation 2 . The game was notable for its control relying exclusively on the DualShock 2 's analog sticks , although a second mode using the normal buttons was also available . While the quality of the game 's graphics was lauded and sales were good during its month of release , the control was received negatively by critics , who felt it was awkward and unintuitive . Nevertheless , the game spawned two sequels , released in 2001 and 2003 . = = Gameplay = = All Star Pro-Wrestling is based on Japanese wrestling rather than American . The game can be played in several modes selected i</t>
+          <t xml:space="preserve">J. T. White = John T. " J.T. " White ( July 10 , 1920 – November 21 , 2005 ) was a college football assistant coach , and a second-team 1947 College Football All-American center who played for national championship teams at both the University of Michigan and Ohio State University . White also played basketball for the Ohio State Buckeyes men 's basketball team . Although White was drafted to play professional football , he chose to pursue a career as an assistant football coach for both the Michigan Wolverines and Penn State Nittany Lions football teams . He served as an assistant coach for a national champion at Michigan and three undefeated and untied seasons at Penn State . White served in the United States Army during World War II causing a break in his collegiate education . = = Personal = = White was born in Wadley , Georgia and raised in River Rouge , Michigan . White earned his bachelor 's degree in education from Michigan in 1948 . He earned his master 's degree in education </t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Mega Bucks = The Mega Bucks was a professional wrestling tag team that competed in the World Wrestling Federation ( WWF ) in 1988 . The team , consisting of " The Million Dollar Man " Ted DiBiase and André the Giant , was formed in a storyline that saw DiBiase purchase André 's contract from fellow manager Bobby Heenan . André was to win the WWF World Heavyweight Championship from Hulk Hogan , but then he attempted to sell the belt to DiBiase . The title was vacated , but DiBiase and André were then scheduled to face Hogan and Macho Man Randy Savage in a match at SummerSlam , which Hogan and Savage won . After the match , DiBiase and André went their separate ways and the team was dissolved . = = History = = = = = Formation = = = Prior to the formation of the team , André the Giant had been engaged in a feud with Hulk Hogan . According to the storyline , André was tired of Hogan being the top wrestler in the WWF and was jealous of Hogan 's reign as WWF World Heavyweight Champion . </t>
+          <t xml:space="preserve">Dave Martinez = David Martinez ( born September 26 , 1964 ) is an American professional baseball coach and former outfielder . He is the bench coach for the Chicago Cubs of Major League Baseball ( MLB ) . He played in MLB for the Cubs , Montreal Expos , Cincinnati Reds , San Francisco Giants , Chicago White Sox , Tampa Bay Devil Rays , Texas Rangers , Toronto Blue Jays , and Atlanta Braves from 1986 to 2001 . Martinez had a .276 career batting average , 1,599 hits , 91 home runs , 795 runs scored , and 580 runs batted in . Martinez became the bench coach for the Tampa Bay Rays in 2008 , during which time he became a candidate for several managerial positions in MLB . After Rays ' manager Joe Maddon became manager of the Cubs after the 2014 season , Martinez joined the Cubs as their bench coach . = = Early life = = Martinez was born in Brooklyn , New York , to Puerto Rican parents . He lived at East 93rd Street and Lexington Avenue in Manhattan . At age 13 , his family moved to Orlando </t>
         </is>
       </c>
     </row>
@@ -966,32 +966,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['building', 'city', 'park', 'chicago', 'memorial', 'memorials', 'library', 'fountain', 'indiana', 'square', 'galveston', 'street', 'buildings', 'bay', 'courthouse']</t>
+          <t>['olympics', 'olympic', 'athletes', 'medal', 'championships', 'murray', 'meter', 'freestyle', 'round', 'beijing', 'medals', 'games', 'gold', 'seconds', 'relay']</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Millennium Stadium = The Millennium Stadium ( Welsh : Stadiwm y Mileniwm ) , currently named the Principality Stadium ( Welsh : Stadiwm Principality ) for sponsorship purposes , is the national stadium of Wales , located in Cardiff . It is the home of the Wales national rugby union team and has also staged games of the Wales national football team . Initially built to host the 1999 Rugby World Cup , it has gone on to host many other large-scale events , such as the Tsunami Relief concert , the Super Special Stage of Wales Rally Great Britain , the Speedway Grand Prix of Great Britain and various music concerts . It also hosted six FA Cup finals and several other high profile football fixtures whilst Wembley Stadium was being redeveloped . The stadium is owned by Millennium Stadium plc , a subsidiary company of the Welsh Rugby Union ( WRU ) . The stadium was designed by a team led by architects Bligh Lobb Sports Architecture . WS Atkins were the structural engineers , and the building c</t>
+          <t>Cape Verde at the 2008 Summer Olympics = Cape Verde competed at the 2008 Summer Olympics in Beijing , China . Their participation marked their fourth Olympic appearance . Two Cape Verdeans competed in the Olympic games : Nelson Cruz participated as a marathon runner , and Wania Monteiro participated in gymnastics . Another athlete , Lenira Santos , was selected to compete in athletics but was forced to pull out due to injury . Monteiro was selected as the flag bearer for both the opening and closing ceremonies . Neither of the Cape Verdeans progressed beyond the first round . = = Background = = Cape Verde had participated in three previous Summer Olympics , between its debut in the 1996 Summer Olympics in Atlanta , United States and the 2008 Summer Olympics in Beijing . At their debut , the country sent three athletes to the games , all in athletics . The most number of Cape Verde athletes participating in a summer games , is three in 1996 , 2004 and 2012 . No Cape Verde athlete has ev</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delhi Daredevils in 2012 = The Delhi Daredevils ( DD ) is a franchise cricket team based in Delhi , India , which plays in the Indian Premier League ( IPL ) . The team competed in the 2012 IPL and finished at the third place , thus qualified for the 2012 Champions League Twenty20 ( CLT20 ) . It topped the league and the group stage in the IPL and the CLT20 respectively ; however , it failed to win any match in the playoffs . After finishing last in the previous season , the Daredevils added players such as Mahela Jayawardene , Andre Russell , Kevin Pietersen and Ross Taylor to the squad . Eric Simons succeeded Greg Shipperd as the head coach and T. A. Sekhar took the mentorship . The team won 11 of the 16 matches played in the league stage of the IPL and topped the point table . However , it lost both its two matches in the playoffs and finished at the third place . In the CLT20 , they won two of its four group stage matches , while the other two were abandoned due to rain . It topped </t>
+          <t>Jon Pollock = Jon Pollock ( born 11 May 1977 ) is a British wheelchair basketball player . He was selected to train with the British wheelchair basketball squad in 1992 . Pollock has played at four Paralympic games : the 2000 Summer Paralympics in Sydney , the 2004 Summer Paralympics in Athens , the 2008 Summer Paralympics in Beijing and the 2012 Summer Paralympics in London . He won a bronze medal at the 2004 Paralympics and the 2008 Paralympic Games . = = Personal life = = Pollock was born on 11 May 1977 in Liverpool , England with Spina bifida , a developmental congenital disorder caused by the incomplete closing of the embryonic neural tube . He currently lives in Wigan , Greater Manchester in north west England . = = Wheelchair basketball = = Pollock is a class 2.5 wheelchair basketball player and currently plays for the RGK TCAT Rhinos of Wolverhampton . He has been competing in wheelchair basketball for over twenty years . In his twenty-year career , he has represented Team GB a</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Curtly Ambrose = Sir Curtly Elconn Lynwall Ambrose , KCN ( born 21 September 1963 ) is a former cricketer from Antigua who played 98 Test matches for the West Indies . A fast bowler , he took 405 Test wickets at an average of 20.99 and topped the ICC Player Rankings for much of his career to be rated the best bowler in the world . His great height — he is 6 feet 7 inches ( 2.01 m ) tall — allowed him to make the ball bounce unusually high after he delivered it ; allied to his pace and accuracy , it made him a difficult bowler for batsmen to face . A man of few words during his career , he was notoriously reluctant to speak to journalists . He was chosen as one of the Wisden Cricketers of the Year in 1992 ; after he retired he was entered into the International Cricket Council Hall of Fame and selected as one of West Indies all-time XI by a panel of experts . Born in Swetes , Antigua , Ambrose came to cricket at a relatively late age , having preferred basketball in his youth , but quic</t>
+          <t>Benin at the 2008 Summer Olympics = Benin took part in the 2008 Summer Olympics , which were held in Beijing , China from 8 to 24 August 2008 . The country 's participation at Beijing marked its eighth consecutive appearance in the summer Olympics since its debut in 1972 , and its ninth Olympic appearance ever . The Benin delegation included five athletes in 2008 , participating in three sports : athletics , swimming and taekwondo . Fabienne Feraez , a sprinter , was selected as the flag bearer for the opening ceremony . None of the Benin athletes progressed further than the heat round . = = Background = = Benin participated in eight summer Olympic games between its debut in the 1972 Summer Olympics in Munich and the 2008 Summer Olympics in Beijing . Competing under the name Dahomey , Benin made their Olympic debut in 1972 , sending two athletes to the games . The most number of Benin athletes participating in a summer games , is 16 in the 1980 games in Moscow . Five athletes from Beni</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Irfan Pathan = Irfan Khan Pathan ( pronunciation ; born 27 October 1984 ) is an Indian cricketer who made his debut for India in the 2003 / 04 Border-Gavaskar Trophy , and was a core member of the national team until a decline in form set in during 2006 , forcing him out of the team . Since then , he has been in and out of the limited-overs teams ( ODIs and T20Is ) , and has only sporadic appearances in Test cricket . Pathan played his last Test in April , 2008 at the age of 24 . Beginning his career as a fast-medium swing and seam bowler , Pathan broke into the national team soon after turning 19 , and evoked comparisons with Pakistan 's Wasim Akram with his promising performances and prodigious swing . He cemented his position in the team and was named by the International Cricket Council as the 2004 Emerging Player of the Year . Pathan was instrumental in India 's One-day international and Test series wins in Pakistan in 2004 . He was described by the media as the " blue-eyed boy " </t>
+          <t>Suriname at the 2008 Summer Olympics = Suriname sent a delegation of four people to compete at the 2008 Summer Olympics in Beijing , China : two athletes ( Jurgen Themen and Kirsten Nieuwendam and two swimmers ( Gordon Touw Ngie Tjouw and Chinyere Pigot ) who participated in four distinct events . The appearance of Suriname at Beijing marked its tenth Olympic appearance , which included every Olympic games since the 1968 Summer Olympics in Mexico City and excluded the 1980 Summer Olympics in Moscow . Its four athletes did not advance past the first round in each of their events . The Surinamese flag bearer in Beijing was not an athlete , but Anthony Nesty , the only medalist in Surinamese history ( as of the Beijing Olympics ) and the nation 's Olympic swimming coach . = = Background = = Up to and including its participation in the Beijing Games , Surinamese athletes participated in ten Olympic games , all of which were summer Games . The first case of a Surinamese athlete 's participa</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Norm O 'Neill = Norman Clifford Louis O 'Neill OAM ( 19 February 1937 – 3 March 2008 ) was a cricketer who played for New South Wales and Australia . A right-handed batsman known for his back foot strokeplay , O 'Neill made his state debut aged 18 , before progressing to Test selection aged 21 in late 1958 . Early in his career , O 'Neill was one of the foremost batsmen in the Australian team , scoring three Test centuries and topping the run scoring aggregates on a 1959 – 60 tour of the Indian subcontinent which helped Australia win its last Test and series on Pakistani soil for 39 years , as well as another series in India . His career peaked in 1960 – 61 when he scored 181 in the Tied Test against the West Indies , and at the end of the series , had a career average of 58.25 . His performances on the 1961 tour of England saw him named as one of the Wisden Cricketers of the Year . Thereafter his form was less formidable , characterised by nervousness and fidgeting at the start of his</t>
+          <t>São Tomé and Príncipe at the 2012 Summer Olympics = The African island nation of São Tomé and Príncipe competed at the 2012 Summer Olympic Games in London , United Kingdom from 27 July to 12 August 2012 . This was the nation 's fifth appearance at the Olympics since its debut in 1996 . Two track and field athletes , Christopher Lima da Costa and Lecabela Quaresma were selected to the team by wildcard places , without having qualified at any sporting event . Quaresma was selected as flag bearer for the opening and closing ceremonies . Neither of the two athletes progressed beyond the first round of their respective events . = = Background = = São Tomé and Príncipe participated in five Summer Olympic games between its debut in the 1996 Summer Olympics in Atlanta and the 2012 Summer Olympics in London . The highest number of São Tomé and Príncipe athletes participating in a summer games is three in the 2008 games in Beijing , China . No São Tomé and Príncipe athlete has ever won a medal a</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1001,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>['simpsons', 'episodes', 'episode', 'homer', 'stan', 'parker', 'kenny', 'animated', 'kyle', 'nickelodeon', 'voice', 'lisa', 'jake', 'television', 'voiced']</t>
+          <t>['match', 'tag', 'wrestling', 'championship', 'wwe', 'ring', 'raw', 'event', 'michaels', 'defeated', 'heavyweight', 'smackdown', 'feud', 'wwf', 'angle']</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>The Coon = " The Coon " is the second episode of the thirteenth season of the American animated television series South Park . The 183rd episode of the series , it originally aired on Comedy Central in the United States on March 18 , 2009 . In the episode , Cartman poses as a superhero vigilante named " The Coon " , who grows increasingly jealous of the popularity and success of a rival superhero named " Mysterion " . The episode was written and directed by series co-founder Trey Parker , and was rated TV-MA L in the United States . It was originally conceived as an episode about the economic recession , but those elements were later adapted into the future episode , " Margaritaville " . " The Coon " generated a great deal of speculation about the true identity of Mysterion . Parker and Stone originally said there was no specific answer to the question . However , his identity is finally revealed in the fourteenth season episode " Mysterion Rises " . The episode parodied several dark-t</t>
+          <t>Backlash ( 2007 ) = Backlash ( 2007 ) was a professional wrestling pay-per-view event produced by World Wrestling Entertainment ( WWE ) , which took place on April 29 , 2007 , at the Philips Arena in Atlanta , Georgia . Following WrestleMania , all pay-per-views became tri-branded . It was the ninth annual event under the Backlash name and starred talent from Raw , SmackDown ! , and ECW . The main match on the Raw brand was a Fatal Four-Way match for the WWE Championship involving champion John Cena , Randy Orton , Edge , and Shawn Michaels . Cena won the match and retained the championship after pinning Orton . The primary match on the SmackDown ! brand was a Last Man Standing match for the World Heavyweight Championship between The Undertaker and Batista , which ended in a no-contest after both men failed get to their feet before the referee counted to ten . The featured match on the ECW brand was Bobby Lashley versus Team McMahon ( Umaga , Vince and Shane McMahon ) in a Handicap mat</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>The Price of Gold = " The Price of Gold " is the fourth episode of the American fairy tale / drama television series Once Upon a Time . The series takes place in the fictional seaside town of Storybrooke , Maine , in which the residents are actually characters from various fairy tales that were transported to the " real world " town by a powerful curse . This episode centers on Emma Swan ( Jennifer Morrison ) coming to the aid of a young pregnant woman ( Jessy Schram ) who is trying to escape from Storybrooke and Mr. Gold ( Robert Carlyle ) , which parallels with Cinderella 's ( Schram ) regrettable deal she made with Rumpelstiltskin ( Carlyle ) . The episode was written by co-executive producer David H. Goodman , while being directed by David Solomon . Goodman used the newly introduced character of Cinderella to reveal more of Emma 's backstory , as she had no flashbacks to draw upon . Schram 's casting was confirmed in August 2011 , when it was revealed that Cinderella 's storyline w</t>
+          <t>Survivor Series ( 2007 ) = Survivor Series ( 2007 ) was a professional wrestling pay-per-view ( PPV ) event produced by World Wrestling Entertainment ( WWE ) , which took place on November 18 , 2007 , at the American Airlines Arena in Miami , Florida . It was presented by THQ 's WWE SmackDown vs. Raw 2008 . It was the 21st annual Survivor Series and starred wrestlers from the Raw , SmackDown ! , and ECW brands . The show 's seven matches showcased prominent WWE wrestlers , who acted out the franchise 's stories in and out of the ring . The main event featured SmackDown wrestlers in a Hell in a Cell match , in which the ring was surrounded by a roofed steel structure . In this match , World Heavyweight Champion Batista defeated The Undertaker to retain his title . In Raw 's main match , Randy Orton defeated Shawn Michaels in a singles match , while in ECW 's prime match , ECW Champion CM Punk defeated John Morrison and The Miz in a Triple Threat match to retain the title . Two matches w</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>That Still Small Voice = " That Still Small Voice " is the fifth episode of the American fairy tale / drama television series Once Upon a Time . The series takes place in the fictional seaside town of Storybrooke , Maine , in which the residents are actually characters from various fairy tales that were transported to the " real world " town by a powerful curse . In this episode , Henry ( Jared S. Gilmore ) becomes upset when told by Archie ( Raphael Sbarge ) that his fairy tale theories are delusions ; Henry places himself in danger when he investigates a mysterious sinkhole , forcing a regretful Archie to save him . Meanwhile , the backstory of Jiminy Cricket ( Sbarge ) is revealed – he yearns to leave his con artist parents and become a good person , but accidentally hurts an innocent couple along the way . It was the first Once Upon a Time episode to be written by consulting producer Jane Espenson , while being directed by Paul Edwards . Espenson was " thrilled " to be assigned the</t>
+          <t xml:space="preserve">World Heavyweight Championship ( WWE ) = The World Heavyweight Championship was a professional wrestling world heavyweight championship owned by WWE . It was one of two top championships in WWE , complementing the WWE World Championship . It was established under the Raw brand in 2002 , after Raw and SmackDown ! became distinct brands under WWE , and moved between both brands on different occasions ( mainly as a result of the WWE draft ) until August 29 , 2011 when all programming became full roster " supershows " . The World Heavyweight Championship was retired at the WWE PPV TLC : Tables , Ladders , and Chairs on December 15 , 2013 when it was unified with the WWE Championship . The title was one of six to be represented by the historic Big Gold Belt , first introduced in 1986 . Its heritage can be traced back to the first world heavyweight championship , thereby giving the belt a legacy over 100 years old , the oldest in the world . = = History = = = = = Origin = = = WWE introduced </t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>The Tale of Scrotie McBoogerballs = " The Tale of Scrotie McBoogerballs " is the second episode of the fourteenth season of the American animated television series South Park , and the 197th overall episode of the series . It originally aired on Comedy Central in the United States on March 24 , 2010 . In the episode , the South Park boys write a vulgar book with the sole intention of getting it banned . When Stan 's parents discover the manuscript , the boys accuse Butters of writing it , then are enraged when it is hailed as a literary masterpiece . The episode was written and directed by series co-creator Trey Parker , and was rated TV-MA L in the United States . It serves as a satire of pop culture criticism , and mocks people who find hidden messages in works where there are none . The episode includes other themes , including the lack of interest in reading among American youths , and mocks the idea that a book alone causes people to commit violent crimes . The novel The Catcher i</t>
+          <t xml:space="preserve">Survivor Series ( 2004 ) = Survivor Series ( 2004 ) was the 18th annual Survivor Series professional wrestling pay-per-view event produced by World Wrestling Entertainment ( WWE ) . It was presented by Microsoft 's Xbox and took place on November 14 , 2004 , at the Gund Arena in Cleveland , Ohio and starred talent from both the Raw and SmackDown ! brands . The main match on the Raw brand was a 4 on 4 Survivor Series match , a type of elimination match , between Team Orton ( Randy Orton , Chris Benoit , Chris Jericho , and Maven ) and Team Triple H ( Triple H , Edge , Batista , and Snitsky ) , which Team Orton won after Orton last eliminated Triple H. The predominant match on the SmackDown ! brand was John " Bradshaw " Layfield ( JBL ) versus Booker T for the WWE Championship , which JBL won by pinfall after hitting Booker with the title belt . The primary match on the undercard was a 4 on 4 Survivor Series match between Team Guerrero ( Eddie Guerrero , The Big Show , Rob Van Dam , and </t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>The Simpsons : An Uncensored , Unauthorized History = The Simpsons : An Uncensored , Unauthorized History is a non-fiction book about the American animated television series The Simpsons . It was written by John Ortved , and first published in October 2009 by Faber and Faber . In the United Kingdom , the book is called Simpsons Confidential : The uncensored , totally unauthorised history of the world 's greatest TV show by the people that made it . The book is an oral history of the show , and concentrates particularly on the writers and producers of the show . The book includes entire chapters devoted to key figures such as creator Matt Groening and James L. Brooks and Sam Simon , who helped develop the series . According to National Public Radio reviewer Linda Holmes , " Ortved 's thesis , essentially , is that lots of people are responsible for the success of The Simpsons , and their creator , Matt Groening , has too often been viewed as the sole source to the detriment of others wh</t>
+          <t xml:space="preserve">Royal Rumble ( 2005 ) = Royal Rumble ( 2005 ) was the eighteenth annual Royal Rumble professional wrestling pay-per-view event produced by World Wrestling Entertainment ( WWE ) . It was presented by PlayStation 2 and took place on January 30 , 2005 , at the Save Mart Center in Fresno , California and featured talent from both the Raw and SmackDown ! brands . As has been customary since 1993 , the Royal Rumble match winner received a match at that year 's WrestleMania , ( in this instance : WrestleMania 21 ) for his choice at either the WWE Championship or the World Heavyweight Championship . Five professional wrestling matches were featured on the event 's supercard , a scheduling of more than one main event . The main event was the annual 30-man Royal Rumble match , which featured wrestlers from both brands . Batista , the twenty-eighth entrant , won the match by last eliminating John Cena , the twenty-fifth entrant . The primary match on the Raw brand was Triple H versus Randy Orton </t>
         </is>
       </c>
     </row>
@@ -1036,32 +1036,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>['battalion', 'brigade', 'division', 'regiment', 'infantry', 'battalions', 'squadron', 'training', 'unit', 'units', 'raaf', 'australian', '2nd', 'japanese', '1st']</t>
+          <t>['watershed', 'creek', 'dam', 'island', 'population', 'city', 'area', 'river', 'volcano', 'volcanic', 'flows', 'lighthouse', 'lava', 'bay', 'water']</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>45th Infantry Brigade Combat Team ( United States ) = The 45th Infantry Brigade Combat Team ( " Thunderbird " ) is a modular infantry brigade combat team of the United States Army headquartered in Norman , Oklahoma . It is a part of the Oklahoma Army National Guard . Formed from elements of the disbanded 45th Infantry Division which saw action during World War II and the Korean War , along with the 45th Field Artillery Group ( today 's 45th Fires Brigade ) and 90th Troop Command , the 45th Infantry Brigade was activated in 1968 and assigned to training duties for active duty army units until 1994 when the 45th was selected as one of 15 " enhanced brigades " . The brigade deployed as part of the UN peacekeeping force in the wake of the Bosnian War , with C Company , 1-179th Infantry being among the first National Guard units to see duty there . In 2003 , A Co 1-179 deployed to Saudi Arabia while B 1-179 deployed to Kuwait to provide security for Patriot missile sites . During the invasi</t>
+          <t>Little Catawissa Creek = Little Catawissa Creek is a tributary of Catawissa Creek in Columbia County and Schuylkill County , in Pennsylvania , in the United States . It is approximately 10.8 miles ( 17.4 km ) long and flows through Conyngham Township in Columbia County and Union Township and North Union Township in Schuylkill County . The named tributaries of the creek include Stony Run and Trexler Run . The creek has some alkalinity and is slightly acidic . The main rock formations in the watershed of it are the Mauch Chunk Formation , the Pocono Formation , and the Pottsville Formation . A number of other rock formations occur in small areas of the watershed as well . The main soils in the watershed are the Leck Kill soil and the Hazleton soil . The watershed of Little Catawissa Creek has an area of 16.70 square miles ( 43.3 km2 ) . A number of bridges cross the creek . There are a number of major roads in the watershed of the creek and most of the creek is within several hundred met</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>827th Tank Destroyer Battalion = The 827th Tank Destroyer Battalion was a tank destroyer battalion of the United States Army active during the Second World War . It was activated in April 1942 as a segregated African American unit , deploying to Europe at the end of 1944 and attached to 12th Armored Division . It saw action during Operation Nordwind in January 1945 , where elements of the battalion performed creditably . However , its overall combat record was marred by severe disciplinary problems and insufficient training . It was withdrawn in February , and assigned to rear-area duties ; while it nominally remained active for the remainder of the war , it had been effectively disbanded . = = Background = = The US Army 's basic wartime racial policy , established in 1937 , dictated that both whites and African Americans were to be inducted into the Army in equal proportions and strength , but that they were to be assigned to segregated units . Black soldiers could be led by white off</t>
+          <t xml:space="preserve">Muncy Creek = Muncy Creek ( also known as Big Muncy Creek ) is a tributary of the West Branch Susquehanna River in Sullivan County and Lycoming County , in Pennsylvania , in the United States . It is approximately 34.5 miles ( 55.5 km ) long . The watershed of the creek has an area of 216 square miles ( 560 km2 ) . The creek 's discharge averages 49 cubic feet per second ( 1.4 m3 / s ) at Sonestown , but can be up to a thousand times higher at Muncy . The headwaters of the creek are on the Allegheny Plateau . Rock formations in the watershed include the Chemung Formation and the Catskill Formation . There are a number of lakes in the watershed of Muncy Creek , including Eagles Mere Lake , Highland Lake , and Beaver Lake . The creek was known as Occohpocheny to Native Americans . The area in its vicinity was settled in 1783 . Various other industries and mills were constructed in the creek 's vicinity from the late 18th century to the early 20th century . Wild trout naturally reproduce </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>RAAF area commands = Area commands were the major operational and administrative formations of the Royal Australian Air Force ( RAAF ) between 1940 and 1954 . Established in response to the outbreak of World War II , they underpinned the Air Force 's geographically based command-and-control system for the duration of the conflict and into the early years of the Cold War , until being superseded by a functional control system made up of Home , Training , and Maintenance Commands . The area commands and their responsibilities evolved over time according to changing circumstances . The RAAF established four commands to begin with in 1940 – 41 : Southern Area , Central Area , Western Area , and Northern Area . They oversaw almost all operations , training and maintenance within their boundaries . A concession to functional control occurred in mid-1941 , when the Air Force formed two groups that assumed the training role of the southern and eastern states ; Central Area itself was disbanded</t>
+          <t xml:space="preserve">Lake Neepaulin = Lake Neepaulin is a small man-made freshwater lake located in Wantage Township in Sussex County , New Jersey in the United States . Located in the watershed of Papakating Creek , a tributary of the Wallkill River , the lake was created in the 1950s by damming an unnamed mountain stream as the feature of a private residential development . The stream , now known as Neepaulakating Creek , did not receive a name until 2002 . = = Description = = Lake Neepaulin is a man-made lake created from the damming of Neepaulakating Creek , a small mountain stream that was not named until 2002 . The creek 's headwaters are located approximately 0.4 miles ( 0.6 km ) northwest of the north end of Lake Neepaulin . These headwaters are located a short distance south of County Route 650 ( Libertyville Road ) roughly halfway between the hamlet of Libertville in Wantage Township and Sussex Borough . Lake Neepaulin 's elevation is 509 feet ( 155m ) above sea level . The lake is the center of </t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>32nd Battalion ( Australia ) = The 32nd Battalion was an infantry battalion of the Australian Army . It was first raised in 1915 as part of the Australian Imperial Force and was initially made up of personnel from South Australia and Western Australia . The battalion served in France and Belgium during the First World War before being disbanded in 1919 . It was re-raised in 1921 as the " 32nd Battalion ( Footscray Regiment ) " , a unit of the part-time Militia , and between the wars the battalion served as a home defence unit in Victoria . During the Second World War the battalion was merged with the 14th Battalion to become the 14th / 32nd Battalion ( Prahran / Footscray Regiment ) , serving firstly as garrison troops in Australia and New Guinea before taking part in the fighting during the New Britain campaign . In July 1945 , that battalion was disbanded . After the war , the battalion was not re-raised in its own right when the Citizens Military Force ( the forerunner to the Austra</t>
+          <t xml:space="preserve">West Branch Fishing Creek = West Branch Fishing Creek is one of the northernmost major tributaries of Fishing Creek in Sullivan County , Pennsylvania and Columbia County , Pennsylvania , in the United States . It is 11.1 miles ( 17.9 km ) long and flows through Davidson Township , Sullivan County and Sugarloaf Township , Columbia County . The creek 's watershed has an area of 33.5 square miles , nearly all of which is forested land . Rock formations in the watershed of West Branch Fishing Creek include the Catskill Formation , the Huntley Mountain Formation , and the Burgoon Sandstone . North Mountain , Huckleberry Mountain , and Central Mountain are all in the creek 's vicinity . The temperature of the creek 's waters ranges from − 2 ° C ( 28 ° F ) to 23 ° C ( 73 ° F ) and its pH ranges from approximately 5.5 to just under 7.0 . The creek 's discharge ranges from nearly 0 cubic meters per second to approximately 25 cubic meters per second . Communities in the watershed of West Branch </t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Special Troops Battalion , 173rd Airborne Brigade Combat Team ( United States ) = The Special Troops Battalion , 173rd Airborne Brigade Combat Team is a special troops battalion of the United States Army headquartered at Caserma Del Din in Vicenza , Italy . It is the organization for the command elements of the 173rd Airborne Brigade Combat Team . The battalion contains the brigade 's senior command structure , including its Headquarters and Headquarters Company , as well as communication and support elements . Activated in 2000 from inactivating support units , the Special Troops Battalion deployed with the 173rd Airborne Brigade Combat Team to Afghanistan in 2007 until 2008 and again in early 2010 . = = Organization = = The Special Troops Battalion is subordinate to the 173rd Airborne Brigade Combat Team and is a permanent formation of the brigade , as the 173rd 's command elements are all contained in the STB . The battalion consists of three companies and the brigade 's Headquarter</t>
+          <t>Mahanoy Creek = Mahanoy Creek is a 51.6-mile-long ( 83.0 km ) tributary of the Susquehanna River in Northumberland and Schuylkill counties , Pennsylvania . There are at least 35 sources of acid mine drainage in the creek 's watershed . Anthracite was mined in the upper part of the Mahanoy Creek watershed in the 19th and 20th centuries . Mahanoy Creek 's tributaries include Schwaben Creek , Zerbe Run , Little Mahanoy Creek , Shenandoah Creek , and North Mahanoy Creek . Little Mahanoy Creek and Schwaben Creek are two streams in the watershed that are unaffected by acid mine drainage . Schwaben Creek has a higher number and diversity of fish species than the main stem . There are two passive treatment systems in the Mahanoy Creek watershed by the Mahanoy Creek Watershed Association . Coal mining has been done in the watershed since the 19th century and continues to some extent in the 21st century . The watershed is in the Western Middle Anthracite Coal Field . = = Course = = Mahanoy Creek</t>
         </is>
       </c>
     </row>
@@ -1071,32 +1071,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['olympics', 'athletes', 'olympic', 'medal', 'meter', 'freestyle', 'championships', 'beijing', 'medals', 'seconds', 'relay', 'gold', 'competed', 'games', 'summer']</t>
+          <t>['liz', 'dwight', 'jim', 'pam', 'michael', 'episode', 'nbc', 'jack', 'fey', 'jenna', 'andy', 'office', 'tracy', 'kenneth', 'tgs']</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Terry Bywater = Terrance " Terry " Bywater ( born 28 February 1983 ) is a British wheelchair basketball player . He participated in the 2000 Summer Paralympics , where his team came in fourth place ; in the 2004 Summer Paralympics , where he won a bronze medal and was the highest scorer for Great Britain ; the 2008 Summer Paralympics , winning another bronze medal ; and the 2012 Summer Paralympics , where his team again came in fourth place . = = Personal = = Bywater was born on 28 February 1983 in Dormanstown , England and currently lives in Cleveland , North Yorkshire . As of 2009 , he weighs 74 kilograms ( 11 st 9 lb ) and is 1.8 metres ( 5 ft 11 in ) tall . He was born without a tibia and a fibula in his left leg , which was amputated when he was two . He has a son , Benjamin Bywater . = = Wheelchair basketball = = Bywater began playing wheelchair basketball at the age of 13 at an open day in Middlesbrough with the Teesside Lions . He later played with them . After playing for a ye</t>
+          <t>Tracy Does Conan = " Tracy Does Conan " is the seventh episode of NBC 's first season of 30 Rock . It was written by the series ' creator and executive producer , Tina Fey and it was directed by one of the season 's supervising producers , Adam Bernstein . It first aired on December 7 , 2006 in the United States and November 29 , 2007 in the United Kingdom . Guest stars in the episode included Katrina Bowden , Kevin Brown , Grizz Chapman , Rachel Dratch , Dave Finkel , Steve Hollander , Johnnie May , Maulik Pancholy , Chris Parnell , Aubrey Plaza , Keith Powell , R. N. Rao and Dean Winters . Conan O 'Brien appeared as himself in this episode . The episode marks the first appearance of Chris Parnell as recurring character , Dr. Leo Spaceman . This episode revolves around Liz Lemon ( played by Tina Fey ) and Pete Hornberger ( Scott Adsit ) trying to get Tracy Jordan ( Tracy Morgan ) to make a successful appearance on Late Night with Conan O 'Brien , a late night talk show . These attempt</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Snowflake = A snowflake is either a single ice crystal or an aggregation of ice crystals which falls through the Earth 's atmosphere . They begin as snow crystals which develop when microscopic supercooled cloud droplets freeze . Snowflakes come in a variety of sizes and shapes . Complex shapes emerge as the flake moves through differing temperature and humidity regions , such that individual snowflakes are almost always unique in structure . Snowflakes encapsulated in rime form balls known as graupel . Snowflakes appear white in color despite being made of clear ice . This is due to diffuse reflection of the whole spectrum of light by the small crystal facets . = = Formation = = In warmer clouds an aerosol particle or " ice nucleus " must be present in ( or in contact with ) the droplet to act as a nucleus . The particles that make ice nuclei are very rare compared to nuclei upon which liquid cloud droplets form ; however , it is not understood what makes them efficient . Clays , dese</t>
+          <t>Pilot ( 30 Rock ) = The pilot episode of the American situation comedy series 30 Rock premiered on October 10 , 2006 on the CTV Television Network in Canada , and October 11 , 2006 on NBC in the United States . The episode was directed by Adam Bernstein and written by Tina Fey , the series ' creator , executive producer , and lead actor . In 2002 , Tina Fey , then head writer of Saturday Night Live ( SNL ) , pitched the idea for a series about a cable news network to NBC , who rejected it . Two years later , Fey approached NBC with a similar idea : a behind-the-scenes look at The Girlie Show , a television show similar to SNL . NBC approved the series in May 2006 and production began shortly after . Although the episode received generally positive reviews , it finished third in its timeslot among all viewers and among adults aged 18 to 49 . Critics praised the performances of Jack McBrayer and Jane Krakowski , who played Kenneth Parcell and Jenna Maroney , respectively . Several charac</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Mikhail Suslov = Mikhail Andreyevich Suslov ( Russian : Михаи ́ л Андре ́ евич Су ́ слов ; 21 November [ O.S. 8 November ] 1902 – 25 January 1982 ) was a Soviet statesman during the Cold War . He served as Second Secretary of the Communist Party of the Soviet Union from 1965 , and as unofficial Chief Ideologue of the Party until his death in 1982 . Suslov was responsible for party democracy and the power separation within the Communist Party . His hardline attitude toward change made him one of the foremost anti-reformist Soviet leaders . Born in rural Russia in 1902 , Suslov became a member of the All-Union Communist Party ( Bolsheviks ) in 1921 and studied economics for much of the 1920s . He left his job as a teacher in 1931 to pursue politics full-time , becoming one of the many Soviet politicians who took part in the mass repression begun by Joseph Stalin 's regime . Suslov impressed the Soviet leadership to such an extent in the pre-Eastern Front Soviet Union that he was made Fir</t>
+          <t>The Convention ( The Office ) = " The Convention " is the second episode of the third season of the American comedy television series The Office , and the show 's thirtieth episode overall . Written by the writing team of Gene Stupnitsky and Lee Eisenberg , and directed by Ken Whittingham , the episode originally aired in the United States on September 28 , 2006 on NBC . In the episode , Josh and Jim from Dunder Mifflin Stamford , as well as Michael and Dwight from Dunder Mifflin Scranton leave for Philadelphia for the annual office supply convention . Michael , angry at both Jim for leaving the Scranton branch , as well as Josh for being superior to him , tries to one-up both Jim and Josh at every opportunity . Meanwhile , Kelly sets up Pam on a double date with one of her friends which goes nowhere . Toby 's interest in Pam is piqued , beginning an unrequited crush on his part . = = Plot = = Michael Scott ( Steve Carell ) and Dwight Schrute ( Rainn Wilson ) from the Scranton branch o</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Little Athletics = Little Athletics is an Australian activity program that involves modified athletics events for children aged 5 to 15 ( or 16 in ACT , NSW , Qld and SA ) . More than 100,000 young Australians competed in the sport in the 2013 / 14 season . The competitions were founded by Trevor Billingham , a young Australian athletics enthusiast from Geelong , Victoria , in 1964 . By 1967 , there were more than 35 Little Athletics clubs in Victoria , and the decision was made to start the Victorian Little Athletics Association ( VLAA ) . Soon after the formation of the VLAA , other states expressed interest in Little Athletics . In February 1968 , a year after the formation of the VLAA , Western Australia held its first Little Athletics meet at Perry Lakes Stadium . In 1972 , the states of Victoria , New South Wales , Northern Territory and Western Australia became the founding members of The Australian Little Athletics Union ( ALAU ) , which was formed in Perth . By 1974 , Tasmania</t>
+          <t>The Coup ( The Office ) = " The Coup " is the third episode of the third season of the American comedy television series The Office . It first aired on October 5 , 2006 on NBC in the United States . The series depicts the everyday lives of office employees in the Scranton , Pennsylvania branch of the fictional Dunder Mifflin Paper Company . In this episode , Jan Levenson ( Melora Hardin ) becomes unimpressed with how Michael Scott ( Steve Carell ) is controlling his branch , so Dwight Schrute ( Rainn Wilson ) tries to take his job and an office power play ensues . Meanwhile , Pam Beesly ( Jenna Fischer ) conducts a lunchtime fashion show , and the Stamford branch plays Call of Duty as a team-building exercise , something Jim Halpert ( John Krasinski ) does not do well in . The episode was written by co-executive producer Paul Lieberstein and directed by executive producer Greg Daniels . Several cast members noted that the episode contained Shakespearean elements , such as Angela Martin</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Priya Cooper = Priya Naree Cooper , OAM ( born 2 October 1974 ) is an Australian world champion disabled swimmer , winning nine Paralympic gold medals as well as world records and world championships . She competed in the Australian 1992 , 1996 and 2000 Summer Paralympics swimming team with an S8 classification . She was twice the co-captain of the Australian Paralympic team , including at the 2000 Paralympic Games in Sydney , and carried the Australian flag at the closing ceremonies for the 1992 and 1996 Summer Paralympics . Cooper has cerebral palsy and spends much of her time in a wheelchair . She attended university , working on a course in health management . After she ended her competitive Paralympic career , she became a commentator , and covered the swimming events at the 2002 Commonwealth Games . = = Early life = = Priya Naree Cooper was born on 2 October 1974 in Perth , Western Australia . She was born with cerebral palsy , and spends 75 % of her time in a wheelchair . As a y</t>
+          <t>Sandwich Day = " Sandwich Day " is the fourteenth episode of the second season of 30 Rock and the thirty-fifth episode overall . It was written by one of the season 's executive producers , Robert Carlock , and one of the season 's co-executive producers , Jack Burditt . The episode was directed by one of the season 's producers , Don Scardino . The episode first aired on May 1 , 2008 on the NBC network in the United States . Guest stars in this episode included Bill Cwikowski , Brian Dennehy , Marceline Hugot , Johnnie May , Jason Sudeikis , Miriam Tolan and Rip Torn . The episode earned Tina Fey the Primetime Emmy Award for Outstanding Lead Actress in a Comedy Series . Unusually this episode begins on the 30 Rock title sequence - there is no cold open as is normally the case . This episode begins on the annual TGS with Tracy Jordan ( a fictional sketch comedy series ) Sandwich Day . Liz Lemon ( Tina Fey ) receives a phone call from her ex-boyfriend , Floyd ( Jason Sudeikis ) , asking</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1106,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['oxford', 'cambridge', 'race', 'boat', 'blues', 'rowed', 'rowing', 'lengths', 'crews', 'rower', 'thames', 'races', 'crew', 'universities', 'umpired']</t>
+          <t>['oxford', 'cambridge', 'race', 'boat', 'blues', 'rowed', 'rowing', 'lengths', 'crews', 'rower', 'thames', 'races', 'crew', 'universities', 'university_of_cambridge']</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Leo Ryan = Leo Joseph Ryan , Jr . ( May 5 , 1925 – November 18 , 1978 ) was an American teacher and politician . He served as a U.S. Representative as a member of the Democratic Party . He represented California 's 11th congressional district from 1973 until he was shot to death in Guyana by members of the Peoples Temple , shortly before the Jonestown mass suicide on November 18 , 1978 , just 11 days after Ryan 's election to a fourth term . He is the only sitting member of the U.S. House of Representatives to have been assassinated in office . After the Watts Riots of 1965 , Assemblyman Ryan took a job as a substitute school teacher to investigate and document conditions in the area . In 1970 , he investigated the conditions of California prisons by being held , under a pseudonym , as an inmate in Folsom Prison , while presiding as chairman of the Assembly committee that oversaw prison reform . During his time in Congress , Ryan traveled to Newfoundland to investigate the practice of </t>
+          <t>The Boat Race 1873 = The 30th Boat Race took place on the 29 March 1873 . The Boat Race is an annual side-by-side rowing race between crews from the Universities of Oxford and Cambridge along the River Thames . In a race umpired by former Oxford rower Joseph William Chitty , Cambridge won by three lengths in a time of 19 minutes and 35 seconds , the fastest time in the history of the event . It was the first time that rowers raced on sliding seats . = = Background = = The Boat Race is a side-by-side rowing competition between the University of Oxford ( sometimes referred to as the " Dark Blues " ) and the University of Cambridge ( sometimes referred to as the " Light Blues " ) . The race was first held in 1829 , and since 1845 has taken place on the 4.2-mile ( 6.8 km ) Championship Course on the River Thames in southwest London . Cambridge went into the race as reigning champions , having defeated Oxford by two lengths in the previous year 's race , while Oxford led overall with sixtee</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>William Eustis = William Eustis ( June 10 , 1753 – February 6 , 1825 ) was an early American physician , politician , and statesman from Massachusetts . Trained in medicine , he served as a military surgeon during the American Revolutionary War , notably at the Battle of Bunker Hill . He resumed medical practice after the war , but soon entered politics . After several terms in the state legislature , Eustis won election to the United States Congress in 1800 , serving as a moderate Democratic-Republican . He briefly returned to state politics after losing reelection in 1804 , and was chosen to be Secretary of War in 1809 by President James Madison . Due in part to his inexperience at managing the army and a lack of preparedness , the military failures in the early months of the War of 1812 were laid on his shoulders , leading to his resignation . Madison then appointed Eustis Minister to the Netherlands , a post he held from 1814 until 1818 . After another period in Congress , he was e</t>
+          <t xml:space="preserve">The Boat Race 1874 = The 31st Boat Race took place on the 28 March 1874 . The Boat Race is an annual side-by-side rowing race between crews from the Universities of Oxford and Cambridge along the River Thames . In a race umpired by former Oxford rower Joseph William Chitty , Cambridge won by three and a half lengths in their fifth consecutive victory . = = Background = = The Boat Race is a side-by-side rowing competition between the University of Oxford ( sometimes referred to as the " Dark Blues " ) and the University of Cambridge ( sometimes referred to as the " Light Blues " ) . The race was first held in 1829 , and since 1845 has taken place on the 4.2-mile ( 6.8 km ) Championship Course on the River Thames in southwest London . Cambridge went into the race as reigning champions , having defeated Oxford by three lengths in the previous year 's race , while Oxford led overall with sixteen wins to Cambridge 's fourteen . Cambridge were coached by John Graham Chambers ( who rowed for </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Ki ( Devin Townsend Project album ) = Ki ( / ˈkiː / KEE ) is the eleventh studio album by Canadian musician Devin Townsend , and the first of six albums in the Devin Townsend Project series . The album was released on May 25 , 2009 , on Townsend 's independent record label HevyDevy Records . Townsend , the founder , songwriter , and frontman of extreme metal band Strapping Young Lad and progressive metal group The Devin Townsend Band , dissolved both bands in 2006 to spend time with his family and avoid the burnout of touring and interviewing . After a period of self-discovery and a year-long break from songwriting , Townsend began work on a four-album series to clarify his identity as a musician . Ki includes themes of self-control and sobriety , and is musically subtler than much of the artist 's previous work , consisting of ambient rock music interlaced with tentative bursts of heavy metal . The album was written , produced , mixed , and co-engineered by Townsend , who also perform</t>
+          <t xml:space="preserve">The Boat Race 1852 = The 11th Boat Race took place on the River Thames on 3 April 1852 . Typically held annually , the event is a side-by-side rowing race between crews from the Universities of Oxford and Cambridge . Former Cambridge cox Thomas Selby Egan coached Oxford , the first time that either crew had been trained by a member of the opposing university . The race was won by Oxford , their first Boat Race victory at Easter , who triumphed over Cambridge by nine lengths . = = Background = = The Boat Race is a side-by-side rowing competition between the University of Oxford ( sometimes referred to as the " Dark Blues " ) and the University of Cambridge ( sometimes referred to as the " Light Blues " ) . The race was first held in 1829 , and since 1845 has taken place on the 4.2-mile ( 6.8 km ) Championship Course on the River Thames in southwest London . Oxford went into the race as reigning champions , having defeated Cambridge , who were disqualified , in the previous race held in </t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Alexander Berkman = Alexander Berkman ( November 21 , 1870 – June 28 , 1936 ) was a leading member of the anarchist movement in the early 20th century , famous for both his political activism and his writing . Berkman was born in Vilna in the Russian Empire ( present-day Vilnius , Lithuania ) and emigrated to the United States in 1888 . He lived in New York City , where he became involved in the anarchist movement . He was the one-time lover and lifelong friend of anarchist Emma Goldman . In 1892 , undertaking an act of propaganda of the deed , Berkman made an unsuccessful attempt to assassinate businessman Henry Clay Frick , for which he served 14 years in prison . His experience in prison was the basis for his first book , Prison Memoirs of an Anarchist . After his release from prison , Berkman served as editor of Goldman 's anarchist journal , Mother Earth , and later established his own journal , The Blast . In 1917 , Berkman and Goldman were sentenced to two years in jail for cons</t>
+          <t>The Boat Race 1896 = The 53rd Boat Race took place on 28 March 1896 . The Boat Race is an annual side-by-side rowing race between crews from the Universities of Oxford and Cambridge along the River Thames . In a race umpired by former rower Frank Willan , Oxford won by two-fifths of a length in a time of 20 minutes 1 second , taking the overall record in the event to 30 – 22 in their favour . It was their seventh consecutive victory and the narrowest winning margin since 1877 . = = Background = = The Boat Race is a side-by-side rowing competition between the boat clubs of University of Oxford ( sometimes referred to as the " Dark Blues " ) and the University of Cambridge ( sometimes referred to as the " Light Blues " ) . The race was first held in 1829 , and since 1845 has taken place on the 4.2-mile ( 6.8 km ) Championship Course on the River Thames in southwest London . The rivalry is a major point of honour between the two universities , as of 2014 it is followed throughout the Unit</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve">William Edington = William Edington ( died 6 or 7 October 1366 ) was an English bishop and administrator . He served as bishop of Winchester from 1346 until his death , Keeper of the wardrobe from 1341 to 1344 , treasurer from 1344 to 1356 , and finally as chancellor from 1356 until he retired from royal administration in 1363 . Edington ’ s reforms of the administration — in particular of royal finances — had wide-ranging consequences , and contributed to the English military efficiency in the early stages of the Hundred Years ' War . As bishop of Winchester he was responsible for starting an extensive rebuilding of Winchester Cathedral , and for founding Edington Priory , the church of which still stands today . = = Royal service = = Edington 's parents were Roger and Amice of Edington near Westbury , Wiltshire . Though it has been claimed that he was educated at Oxford , there seems to be no support for this . His first patron , however , was the Oxford chancellor Gilbert Middleton </t>
+          <t xml:space="preserve">The Boat Race 1879 = The 36th Boat Race took place on 5 April 1879 . The Boat Race is an annual side-by-side rowing race between crews from the Universities of Oxford and Cambridge along the River Thames . Each crew contained four Blues . In a race umpired by former Oxford rower Joseph William Chitty , Cambridge led all the way , and won by a margin of three lengths in a time of 21 minutes 18 seconds . The victory took the overall record to 18 – 17 in Oxford 's favour . = = Background = = The Boat Race is a side-by-side rowing competition between the University of Oxford ( sometimes referred to as the " Dark Blues " ) and the University of Cambridge ( sometimes referred to as the " Light Blues " ) . The race was first held in 1829 , and since 1845 has taken place on the 4.2-mile ( 6.8 km ) Championship Course on the River Thames in southwest London . Cambridge went into the race as reigning champions having won the previous year 's race by ten lengths . However Oxford held the overall </t>
         </is>
       </c>
     </row>
@@ -1141,32 +1141,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['poem', 'poems', 'poetry', 'poet', 'han', 'shakespeare', 'ode', 'riley', 'text', 'sanskrit', 'texts', 'poetic', 'literary', 'works', 'smart']</t>
+          <t>['women', 'party', 'police', 'labour', 'book', 'rights', 'suffrage', 'government', 'feminist', 'political', 'feminism', 'murder', 'case', 'minister', 'trial']</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Madoc ( poem ) = Madoc is an 1805 epic poem composed by Robert Southey . It is based on the legend of Madoc , a supposed Welsh prince who fled internecine conflict and sailed to America in the 12th century . The origins of the poem can be traced to Southey 's schoolboy days when he completed a prose version of Madoc 's story . By the time Southey was in his twenties , he began to devote himself to working on the poem in hopes that he could sell it to raise money to fulfill his ambitions to start a new life in America , where he hoped to found Utopian commune or " Pantisocracy " . Southey finally completed the poem as a whole in 1799 , at the age of 25 . However , he began to devote his efforts into extensively editing the work , and Madoc was not ready for publication until 1805 . It was finally published in two volumes by the London publisher Longman with extensive footnotes . The first half of the poem , Madoc in Wales , describes Madoc , a young Welsh nobleman , whose family breaks </t>
+          <t xml:space="preserve">Feminism = Feminism is a range of political movements , ideologies , and social movements that share a common goal : to define , establish , and achieve political , economic , personal , and social rights for women that are equal to those of men . This includes seeking to establish equal opportunities for women in education and employment . Feminists typically advocate or support the rights and equality of women . Feminist movements have campaigned and continue to campaign for women 's rights , including the right to vote , to hold public office , to work , to earn fair wages or equal pay , to own property , to receive education , to enter contracts , to have equal rights within marriage , and to have maternity leave . Feminists have also worked to promote bodily autonomy and integrity , and to protect women and girls from rape , sexual harassment , and domestic violence . Feminist campaigns are generally considered to be one of the main forces behind major historical societal changes </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Elias Abu Shabaki = Elias Abu Shabaki ( also spelled Ilyas Abu Shabaka ; Arabic : الياس أبو شبكة , May 3 , 1903 – January 27 , 1947 ) was a Lebanese writer , poet , editor , translator and literary critic , he was one of the founders of the literary League of Ten and is considered as one of the leading figures of the Arabic Nahda Movement . Born into a well-to-do Lebanese family , Abu Shabaki became interested in poetry at a young age . The son of a merchant , he was left fatherless in his youth , an experience that would mark his earlier works . Elias worked as a teacher , translator and _ in addition to publishing several volumes of poetry _ as a journalist writing for many Arabic newspapers and literary magazines . Being an adherent to the Romantic school , Abu Shabki believed in inspiration and denounced conscious control in poetry . His poems were gloomy , deeply personal and often contained biblical overtones centering on his internal moral conflicts . Some of Abu Shabaki 's work</t>
+          <t xml:space="preserve">Free Expression Policy Project = The Free Expression Policy Project ( FEPP ) is an organization devoted to assisting researchers with assembling information related to freedom of speech , media democracy , and copyright , and advocating for these issues . Civil liberties lawyer Marjorie Heins founded the nonprofit organization in 2000 . Based in Manhattan , New York , it was initially associated with the National Coalition Against Censorship , and subsequently operated as part of the Democracy Program of the Brennan Center for Justice at New York University Law School . The FEPP conducted a survey in 2001 which revealed that online monitoring software , including Net Nanny , SurfWatch , and Cybersitter , cast too broad a net and often blocked legitimate educational websites in their attempts to censor material from youths . In 2003 , the organization assisted 33 academics in filing a friend-of-the-court brief challenging a law which restricted the sale of violent video games to minors </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Adam Mickiewicz = Adam Bernard Mickiewicz ( [ mit ͡ sˈkʲɛvit ͡ ʂ ] ; 24 December 1798 – 26 November 1855 ) was a Polish poet , dramatist , essayist , publicist , translator , professor of Slavic literature , and political activist . He is regarded as national poet in Poland , Lithuania and Belarus . A principal figure in Polish Romanticism , he is counted one of Poland 's " Three Bards " ( " Trzej Wieszcze " ) and is widely regarded as Poland 's greatest poet . He is also considered one of the greatest Slavic and European poets and has been dubbed a " Slavic bard " . A leading Romantic dramatist , he has been compared in Poland and Europe to Byron and Goethe . He is known chiefly for the poetic drama Dziady ( Forefathers ' Eve ) and the national epic poem Pan Tadeusz . His other influential works include Konrad Wallenrod and Grażyna . All these served as inspiration for uprisings against the three imperial powers that had partitioned the Polish-Lithuanian Commonwealth out of existence </t>
+          <t>Weiquan movement = The Weiquan movement is a non-centralized group of lawyers , legal experts , and intellectuals in China who seek to protect and defend the civil rights of the citizenry through litigation and legal activism . The movement , which began in the early 2000s , has organized demonstrations , sought reform via the legal system and media , defended victims of human rights abuses , and written appeal letters , despite opposition from Communist Party authorities . Among the issues adopted by Weiquan lawyers are property and housing rights , protection for AIDS victims , environmental damage , religious freedom , freedom of speech and the press , and defending the rights of other lawyers facing disbarment or imprisonment . Individuals involved in the Weiquan movement have met with occasionally harsh reprisals from Chinese officials , including disbarment , detention , harassment , and , in extreme instances , torture . Authorities have also responded to the movement with the l</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Battle of Brunanburh ( poem ) = The Battle of Brunanburh is an Old English poem . It is preserved in the Anglo-Saxon Chronicle , a historical record of events in Anglo-Saxon England which was kept from the late ninth to the mid-twelfth century . The poem records the Battle of Brunanburh , a battle fought in 937 between an English army and a combined army of Scots , Vikings , and Britons . The battle resulted in an English victory , celebrated by the poem in style and language like that of traditional Old English battle poetry . The poem is notable because of those traditional elements and has been praised for its authentic tone , but it is also remarkable for its fiercely nationalistic tone , which documents the development of a unified England ruled by the House of Wessex . = = Historical background = = The Battle of Brunanburh was a culmination of the conflict between King Æthelstan and the northern kings . After Æthelstan had defeated the Vikings at York in 928 , Constantine II , th</t>
+          <t xml:space="preserve">Feminism in Russia = Feminism in Russia originated in the 18th century , influenced by the Western European Enlightenment and mostly confined to the aristocracy . Throughout the 19th century , the idea of feminism remained closely tied to revolutionary politics and to social reform . In the 20th century Russian feminists , inspired by socialist doctrine , shifted their focus from philanthropic works to organizing among peasants and factory workers . After the February Revolution of 1917 , feminist lobbying gained suffrage and nominal equality for women in education and the workplace ; however , in the 1960s and 1970s , women continued to experience discrimination in certain career-paths ( including politics ) as well as income inequality and a greater burden of household work . In spite of this , the concern with feminism waned during this period . After the fall of the Soviet Union in 1991 , feminist circles arose among the intelligentsia , though the term continues to carry negative </t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Frost at Midnight = Frost at Midnight is a poem by Samuel Taylor Coleridge , written in February 1798 . Part of the conversation poems , the poem discusses Coleridge 's childhood experience in a negative manner and emphasizes the need to be raised in the countryside . The poem expresses hope that Coleridge 's son , Hartley , would be able to experience a childhood that his father could not and become a true " child of nature " . The view of nature within the poem has a strong Christian element in that Coleridge believed that nature represents a physical presence of God 's word and that the poem is steeped in Coleridge 's understanding of Neoplatonism . Frost at Midnight has been well received by critics , and is seen as the best of the conversation poems . = = Background = = Frost at Midnight was written in February 1798 when he described to Thomas Poole aspects of his childhood at Christ 's Hospital grammar school that are similar to the content of the poem . The rest comes from Coler</t>
+          <t>Azimzhan Askarov = Azimzhan Askarov ( Uzbek : Azimjon Asqarov , Азимжон Асқаров ; born 1951 ) is an ethnically Uzbek Kyrgyzstani political activist who founded the group Vozduh in 2002 to investigate police brutality . During the 2010 South Kyrgyzstan ethnic clashes , which primarily targeted people of the Uzbek nationality , Askarov worked to document the violence . He was subsequently arrested and prosecuted on charges of creating mass disturbances , incitement of ethnic hatred , and complicity in murder . Following a trial protested by several international human rights groups for irregularities — including alleged torture and the courtroom intimidation of witnesses by police — Askarov was given a life sentence , which he is currently serving . In November 2010 , Askarov 's health was reported to be rapidly deteriorating as a result of his confinement . Numerous groups have advocated on his behalf , including Human Rights Watch , Reporters Without Borders , People In Need , the Comm</t>
         </is>
       </c>
     </row>
@@ -1176,32 +1176,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>['breed', 'horses', 'horse', 'breeds', 'dog', 'dogs', 'stud', 'breeding', 'bred', 'arabian', 'stallion', 'riding', 'breeders', 'pony', 'stakes']</t>
+          <t>['officer', 'commander', 'lieutenant', 'command', 'fighter', 'promoted', 'victories', 'war', 'aircraft', 'flying', 'squadron', 'enemy', 'rank', 'medal', 'training']</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Crested shelduck = The crested shelduck or Korean crested shelduck ( Tadorna cristata ) is a species of bird in the family Anatidae . It is critically endangered and may be extinct . The male crested shelduck has a greenish-black crown , breast , primaries , and tail , while the rest of its face , chin , and throat are brownish black . The male 's belly , undertail coverts , and flanks are a dark grey with black striations . The upper wing coverts are white , while its speculum is an iridescent green . The female has a white eye ring , black crest , white face , chin , throat , neck , and uppers wing coverts and a dark brown body with white striations . Additionally , both sexes have a distinctive green tuft of feathers protruding from the head . Very little is known about this bird because of the limited number of observations of this species . It apparently breeds in Korea and eastern Russia and is probably a relict species that had a wider distribution in prehistoric times . Some th</t>
+          <t xml:space="preserve">Benjamin Freakley = Benjamin C. Freakley ( born 21 August 1953 ) is a retired United States Army lieutenant general , and a professor &amp; policy advisor at Arizona State University . From Woodstock , Virginia , Freakley was commissioned as an infantry officer in 1975 , and served in Operation Desert Storm , Operation Iraqi Freedom , and Operation Enduring Freedom - Afghanistan before retiring in 2012 . After retirement Freakley began a career in education . = = Early life = = Originally from Woodstock , Virginia , he graduated from Central High School in Woodstock in 1971 . Freakley also became an Eagle Scout . Applying for admission to three military schools ( Virginia Military Institute , The Citadel , and West Point ) , he ended up graduating from West Point with the Class of 1975 . = = Military career = = Being commissioned as a second lieutenant of infantry in 1975 , he was assigned to the 506th Infantry Regiment until 1979 . He then was an aide-de-camp to the commanding general of </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Welara = The Welara is a part-Arabian pony breed developed from the Arabian horse and the Welsh pony . It was originally bred in England by Lady Wentworth at the Crabbet Arabian Stud in the early 1900s from imported Arabian stallions and Welsh pony mares . Breeding then spread throughout North America . In 1981 , a breed registry was formed in the United States , and a studbook began to be published . They are used for many disciplines of English riding , and are known for their refinement , hardiness and spirit . = = Breed characteristics = = Welara stallions average 14 to 15 hands ( 56 to 60 inches , 142 to 152 cm ) and mares 13.1 to 14.3 hands ( 53 to 59 inches , 135 to 150 cm ) . To be registered , Welaras must stand between 11.2 and 15 hands ( 46 and 60 inches , 117 and 152 cm ) high . Crosses between Arabians and each of the four sections of Welsh Pony ( A , B , C and D ) tend to produce slightly different types of pony . Section A Welsh Pony crosses ( the smallest ) tend to be u</t>
+          <t>Neville McNamara = Air Chief Marshal Sir Neville Patrick McNamara , KBE , AO , AFC , AE ( 17 April 1923 – 7 May 2014 ) was a senior commander of the Royal Australian Air Force ( RAAF ) . He served as Chief of the Air Staff ( CAS ) , the RAAF 's highest-ranking position , from 1979 until 1982 , and as Chief of the Defence Force Staff ( CDFS ) , Australia 's top military role at the time , from 1982 until 1984 . He was the second RAAF officer to hold the rank of air chief marshal . Born in Queensland , McNamara joined the RAAF during World War II and saw action in the South West Pacific , flying P-40 Kittyhawks . He also flew combat missions in Gloster Meteors during the Korean War . In 1961 , he was awarded the Air Force Cross for his leadership of No. 2 Operational Conversion Unit . He gained further operational experience heading the RAAF presence in Ubon , Thailand , in the late 1960s . Promoted to air commodore , McNamara was Commander RAAF Forces Vietnam , and Deputy Commander Aust</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Buckeye chicken = The Buckeye is a breed of chicken originating in the U.S. state of Ohio . Created in the late 19th century , Buckeyes are the only American Poultry Association ( APA ) standard breed of chicken known to have been created by a woman , and the only one in the American Class to have a pea comb . As of 2014 , Buckeyes are listed as " Threatened " by The Livestock Conservancy . The breed 's name is derived from Ohio 's nickname of " Buckeye state " , and their mahogany color is said ideally to resemble the seeds of the Ohio Buckeye plant ( Aesculus glabra ) . They are a dual-purpose chicken that have a decent laying ability and strong meat production characteristics . Buckeyes are yellow skinned chickens that lay brown eggs . = = History = = The Buckeye was first bred and developed in 1896 , by a Warren , Ohio resident named Nettie Metcalf . They are the only American breed of chicken known to have been developed by a woman , despite the fact that women were customarily gi</t>
+          <t>Richard Barrons = General Sir Richard Lawson Barrons KCB , CBE , ADC Gen ( born 17 May 1959 ) is a retired British Army officer . He was Commander Joint Forces Command from April 2013 until his retirement in April 2016 . Barrons ' early career was spent in various staff and field posts in the UK , across Europe , and in the Far East . He also spent time working at the Ministry of Defence and in education . Sent to Germany in 1991 , Barrons then served his first tour of duty in the Balkans in 1993 . Returning to the UK , Barrons took up a staff position and went on to do a tour in Northern Ireland and then to become a Military Assistant , first to the High Representative for Bosnia and Herzegovina and then to the Chief of the General Staff . Between 2000 and 2003 , Barrons served again in the Balkans , in Afghanistan during the early days of International Security Assistance Force , and then in a staff position in Basra , Iraq . As a brigadier in 2003 , Barrons served his second tour in</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Azteca horse = The Azteca is a horse breed from Mexico , with a subtype , called the " American Azteca " , found in the United States . They are well-muscled horses that may be of any solid color , and the American Azteca may also have pinto coloration . Aztecas are known to compete in many western riding and some English riding disciplines . The Mexican registry for the original Azteca and the United States registries for the American Azteca have registration rules that vary in several key aspects , including ancestral bloodlines and requirements for physical inspections . The Azteca was first developed in Mexico in 1972 , from a blend of Andalusian , American Quarter Horse and Mexican Criollo bloodlines . From there , they spread to the United States , where American Paint Horse blood was added . = = Breed characteristics = = The three foundation breeds of the Azteca are the Andalusian ( defined by the Mexican registry as either Pura Raza Española or Lusitano ) , American Quarter Hor</t>
+          <t>John Emilius Fauquier = Air Commodore John Emilius " Johnny " Fauquier DSO &amp; Two Bars , DFC ( March 19 , 1909 – April 3 , 1981 ) was a Canadian aviator and Second World War Bomber Command leader . He commanded No. 405 Squadron RCAF and later No. 617 Squadron RAF ( the Dambusters ) over the course of the war . A bush pilot , prior to the war , he joined the Royal Canadian Air Force as a flight instructor in 1939 . He then joined 405 Squadron in 1941 and would fly operationally for the rest of the war , taking a drop in rank on one occasion to return to active command . During his three tours of operation he participated in Operation Hydra and dozens of other sorties over Europe . = = Early years = = John Emilius " Johnny " Fauquier was born at Ottawa , Ontario on March 19 , 1909 , educated at Ashbury College and then entered the investment business at Montreal , Quebec where he joined a flying club . After earning his commercial pilot 's licence he formed Commercial Airways at Noranda ,</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jutland horse = The Jutland horse ( Danish : Den jyske hest ) is a draft horse breed originating in Denmark , named after the Jutland Peninsula which forms the western part of the country . Usually chestnut , they are a compact , muscular breed known for their calm and willing temperament . The breed was originally developed for use in agriculture , but today is more often seen in urban settings and at horse shows . Some of the best known members of the breed pull beer wagons for the Carlsberg brewery around Copenhagen , as well as at competitions and for demonstrations . Images from the 9th century show a horse similar to the Jutland being used by Viking raiders in what is now Great Britain . The first written record is from the 12th century , when they were popular as war horses . Some infusion of bloodlines from other breeds occurred in the 18th century , but the modern Jutland type only began about 1850 with the addition of blood from several other breeds , mainly draft horses . A </t>
+          <t>William Garnett Braithwaite = Brigadier General William Garnett Braithwaite , CB , CMG , DSO ( 21 October 1870 – 15 October 1937 ) was a British Army officer who participated in the Boer War and the First World War . Born in England in 1870 , he joined the British Army in 1891 . He served with the Royal Welsh Fusiliers during the Boer War , during which he received the Distinguished Service Order . After the war he was an instructor at the Royal Military College . In 1911 , he went to New Zealand on secondment to help with the training and administration of the New Zealand Military Forces . Following the outbreak of the First World War , he served as a staff officer in the New Zealand Expeditionary Force . He commanded the New Zealand Division 's 2nd Infantry Brigade for nearly two years on the Western Front and on occasion was acting commander of the division . In December 1917 , he was medically evacuated to England . After a period of rest , he returned to military duty with the Bri</t>
         </is>
       </c>
     </row>
@@ -1211,32 +1211,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>['creek', 'watershed', 'dam', 'volcano', 'lava', 'pipeline', 'flows', 'volcanic', 'trout', 'mountain', 'park', 'eruption', 'river', 'feet', 'cubic']</t>
+          <t>['breed', 'horses', 'horse', 'breeds', 'dog', 'dogs', 'arabian', 'bred', 'breeding', 'stud', 'stallion', 'breeders', 'pony', 'registered', 'hair']</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Mount Baker = Mount Baker ( Lummi : Qwú ’ mə Kwəlshéːn ; Nooksack : Kw ’ eq Smaenit or Kwelshán ) , also known as Koma Kulshan or simply Kulshan , is an active glaciated andesitic stratovolcano in the Cascade Volcanic Arc and the North Cascades of Washington in the United States . Mount Baker has the second-most thermally active crater in the Cascade Range after Mount Saint Helens . About 31 miles ( 50 km ) due east of the city of Bellingham , Whatcom County , Mount Baker is the youngest volcano in the Mount Baker volcanic field . While volcanism has persisted here for some 1.5 million years , the current glaciated cone is likely no more than 140,000 years old , and possibly no older than 80-90,000 years . Older volcanic edifices have mostly eroded away due to glaciation . After Mount Rainier , Mount Baker is the most heavily glaciated of the Cascade Range volcanoes ; the volume of snow and ice on Mount Baker , 0.43 cu mi ( 1.79 km3 ) is greater than that of all the other Cascades volc</t>
+          <t>Heck horse = The Heck horse is a horse breed that is claimed to resemble the tarpan ( Equus ferus ferus ) , an extinct wild equine . The breed was created by the German zoologist brothers Heinz Heck and Lutz Heck in an attempt to breed back the tarpan . Although unsuccessful at creating a genetic copy of the extinct species , they developed a breed with grullo coloration and primitive markings . After the Nazi invasion of Poland , they were introduced to the Białowieża Forest , where a small herd still survives . Heck horses were subsequently exported to the United States , where a breed association was created in the 1960s . = = Breed characteristics = = Heck horses are dun or grullo ( a dun variant ) in color , with no white markings . The breed has primitive markings , including a dorsal stripe and horizontal striping on the legs . Heck horses generally stand between 12.2 and 13.2 hands ( 50 and 54 inches , 127 and 137 cm ) tall . The head is large , the withers low , and the legs a</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Amak Volcano = Amak Volcano is a basaltic andesite stratovolcano in the Aleutian Islands of Alaska , USA , 618 miles ( 995 km ) from Anchorage . It is located on the eponymous island , 31 miles ( 50 km ) from Frosty Volcano and near the edge of the Alaskan Peninsula 's western flank . Only boats are allowed to access the island with a certain permit . Blocky ( dotted with flat blocks of minerals and crystals ) lava flows stream from its summit to its flanks . Three historical eruptions have taken place – two within the 18th century , the first from 1700 – 1710 , and the latter in 1796 . The earliest prehistoric eruption was believed to have taken place between 3050 and 2050 BCE . = = Accessibility = = Cold Bay , the city nearest Amak , is easily accessible by plane . Amak is accessible only by boat ; airplanes are not permitted to land on the island . Private boat rides to Amak are available in Cold Bay , but for access to the Aleutian Islands , a permit is required from the United Sta</t>
+          <t>Florida Cracker Horse = The Florida Cracker Horse is a breed of horse from Florida in the United States . It is genetically and physically similar to many other Spanish-style horses , especially those from the Spanish Colonial Horse group . The Florida Cracker is a gaited breed known for its agility and speed . The Spanish first brought horses to Florida with their expeditions in the early 16th century ; as colonial settlement progressed , they used the horses for herding cattle . These horses developed into the Florida Cracker type seen today , and continued to be used by Florida cowboys ( known as " crackers " ) until the 1930s . At this point they were superseded by American Quarter Horses needed to work larger cattle brought to Florida during the Dust Bowl , and population numbers declined precipitously . Through the efforts of several private families and the Florida government , the breed was saved from extinction , but there is still concern about its low numbers . Both The Live</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Mount Tehama = Mount Tehama ( also called Brokeoff Volcano or Brokeoff Mountain ) is an eroded andesitic stratovolcano in the Cascade Volcanic Arc and the Cascade Range in Northern California . Part of the Lassen volcanic center , its highest remaining remnant , Brokeoff Mountain , is itself the second highest peak in Lassen Volcanic National Park and connects to the park 's highest point , Lassen Peak . Located on the border of Tehama County and Shasta County , Tehama 's peak is the highest point in the former . The hikers that summit this mountain each year are treated to " exceptional " views of Lassen Peak , the Central Valley of California , and many of the park 's other features . On clear days , Mount Shasta can also be seen in the distance . Tehama started life some 600,000 years ago . At its peak activity , it reached approximately 3,350 meters ( 11,000 ft ) high , with a basal diameter of approximately 12 kilometers . Volcanic activity then declined 400,000 years ago , with o</t>
+          <t>Pony of the Americas = The Pony of the Americas ( POA ) is a pony breed developed in the state of Iowa in the United States . The foundation stallion was an Arabian / Appaloosa / Shetland pony cross . A breed registry was founded in 1954 , and within 15 years had registered 12,500 ponies . Today , the Pony of the Americas Club is one of the largest and most active youth-oriented horse breed registries in the US . Although called ponies , POAs have the phenotype of a small horse , combining mainly Arabian and American Quarter Horse attributes . The registry is open , allowing blood from many other breeds , but has strict criteria for entry , including Appaloosa coloration , specified height and other physical characteristics . Although mainly bred for Western riding , the breed has been used for many other disciplines , including driving , endurance riding and some English disciplines . = = Breed characteristics = = Ponies are only registered with the Pony of the Americas club if they h</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Mount Cleveland ( Alaska ) = Mount Cleveland ( also known as Cleveland Volcano ) is a nearly symmetrical stratovolcano on the western end of Chuginadak Island , which is part of the Islands of Four Mountains just west of Umnak Island in the Fox Islands of the Aleutian Islands of Alaska . Mt . Cleveland is 1,730 m ( 5,676 ft ) high , and one of the most active of the 75 or more volcanoes in the larger Aleutian Arc . Aleutian natives named the island after their fire goddess , Chuginadak , who they believed inhabited the volcano . In 1894 a team from the U.S. Coast and Geodetic Survey visited the island and gave Mount Cleveland its current name , after then-president Grover Cleveland . One of the most active volcanoes in the Aleutian Arc , Cleveland has erupted at least 22 times in the last 230 years . A VEI 3 eruption in 1944 produced the arc 's only known volcanic fatality . Most recently Mount Cleveland has erupted three times in 2009 , twice in 2010 , and once in 2011 . The volcano '</t>
+          <t>Castillonnais = The Castillonais or Cheval Ariègeois de Castillon , once called the cheval du Biros or Saint-Gironnais , is an ancient breed of small riding horse from the Ariège département of southwestern France . The breed 's phenotype is currently in flux , but overall it resembles ( and is sometimes confused with ) the more common Merens horse . Members of the breed are either dark bay or black , and all have pangare color modification , which results in paler color around the eyes and muzzle and on the underside of the body . Today it is used principally for pleasure riding ( including equine tourism ) and driving . The Castillonnais probably descends from the horses that inspired the Magdalenian-era paintings found , for example , at the Cave of Niaux , with Oriental and Iberian blood added later . Originally bred as a multipurpose breed used for cavalry , agriculture and driving , the breed declined in population during the 20th century , and almost became extinct . In 1980 , a</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Cibolo Creek = Cibolo Creek is a stream in South Central Texas , United States that runs approximately 96 miles ( 154 km ) from its source at Turkey Knob ( in the Texas Hill Country ) near Boerne , Texas , to its confluence with the San Antonio River in Karnes County . The creek serves as a tributary of the San Antonio River and forms the easternmost boundary of its watershed . The stream is used for both recreational and political purposes , serving as the eastern boundary of Bexar County , Texas . A wide variety of fish and other wildlife are known to occupy the waters , and several parks have been established along its banks , including Cibolo Nature Center , Boerne City Park and Jackson Nature Center . Additionally , numerous human settlements have been founded on the creek , such as Boerne , Fair Oaks Ranch , San Antonio , Bulverde , Bracken , Selma , Schertz , Universal City , Cibolo , Zuehl , New Berlin , La Vernia , Cestohowa , Kosciusko , Sutherland Springs and Panna Maria . =</t>
+          <t xml:space="preserve">Colorado Ranger = The Colorado Ranger is a horse breed from the Colorado High Plains in the United States . The breed is descended from two stallions imported from Turkey to the US state of Virginia in the late 1800s . These stallions were then bred to ranch horses in Nebraska and Colorado , and in the early 1900s the two stallions who every registered Colorado Ranger traces to , Patches # 1 and Max # 2 , were foaled . The breed was championed by rancher Mike Ruby , who founded the Colorado Ranger Horse Association in 1935 . Original registry membership limits resulted in many Colorado Ranger horses being registered instead as Appaloosas , but pedigree research is ongoing to discover additional horses who trace their ancestry back to the original stallions . By 2005 , more than 6,000 Colorado Ranger horses had been registered . Colorado Rangers may be any solid color or carry leopard spotting patterns . Pinto coloration and American Paint Horse breeding are not allowed , nor are draft </t>
         </is>
       </c>
     </row>
@@ -1246,32 +1246,32 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>['aircraft', 'engine', 'flight', 'fuselage', 'wing', 'air', 'engines', 'prototype', 'radar', 'fighter', 'fuel', 'raf', 'speed', 'car', 'testing']</t>
+          <t>['british', 'french', 'militia', 'troops', 'fort', 'howe', 'battle', 'frigate', 'spanish', 'men', 'washington', 'fleet', 'expedition', 'continental_army', 'wounded']</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Petlyakov Pe-8 = The Petlyakov Pe-8 was a Soviet heavy bomber designed before World War II , and the only four-engine bomber the USSR built during the war . Produced in limited numbers , it was used to bomb Berlin in August 1941 . It was also used for so-called " morale raids " designed to raise the spirit of the Soviet people by exposing Axis vulnerabilities . Its primary mission , however , was to attack German airfields , rail yards and other rear-area facilities at night , although one was used to fly the People 's Commissar of Foreign Affairs ( Foreign Minister ) Vyacheslav Molotov from Moscow to the United States in 1942 . Originally designated the TB-7 , the aircraft was renamed the Pe-8 after its primary designer , Vladimir Petlyakov , died in a plane crash in 1942 . Supply problems complicated the aircraft 's production and the Pe-8s also had engine problems . As Soviet morale boosters , they were also high-value targets for the Luftwaffe 's fighter pilots . The loss rate of t</t>
+          <t xml:space="preserve">Battle of Bonchurch = The Battle of Bonchurch took place sometime in late July 1545 at Bonchurch on the Isle of Wight . No source of information states a specific date , although it could have happened on 21 July . The battle was a part of the wider Italian War of 1542 – 1546 , and took place during the 1545 French invasion of the Isle of Wight . Several landings were made by the French during the invasion of the Isle of Wight , including the one at Bonchurch . The two combatants were the Kingdom of England and the Kingdom of France . England won the battle , and the French advance across the Isle of Wight was halted . The battle was fought between French regular soldiers , and English militiamen . The number of French soldiers involved is believed to be around 500 . The number of English militiamen is uncertain , with one source of information stating 300 , and another stating 2800 . English forces at the battle are understood to have been commanded by Captain Robert Fyssher , whilst </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>North American AJ Savage = The North American AJ Savage ( later A-2 Savage ) was a carrier-based medium bomber built for the United States Navy by North American Aviation . The aircraft was designed shortly after World War II to carry atomic bombs and this meant that the bomber was the heaviest aircraft thus far designed to operate from an aircraft carrier . It was powered by two piston engines and a turbojet buried in the rear fuselage . The AJ-1 first became operational in 1950 and several were based in South Korea during 1953 as a deterrent against the Communists . Of the 140 built , plus three prototypes , 30 were reconnaissance aircraft . Inflight-refueling equipment was deployed on the Savage in the mid-1950s . The bomber was replaced by the Douglas A3D Skywarrior beginning in 1957 . = = Design and development = = At the end of World War II , the U.S. Navy began a design competition on 13 August 1945 for a carrier-based bomber which could carry a 10,000-pound ( 4,536 kg ) bomb th</t>
+          <t>Boston campaign = The Boston campaign was the opening campaign of the American Revolutionary War , taking place primarily in the Province of Massachusetts Bay . The campaign began with the Battles of Lexington and Concord on April 19 , 1775 , in which the local colonial militias interdicted a British government attempt to seize military stores and leaders in Concord , Massachusetts . The entire British expedition suffered significant casualties during a running battle back to Charlestown against an ever-growing number of militia . Subsequently , accumulated militia forces surrounded the city of Boston , beginning the Siege of Boston . The main action during the siege , the Battle of Bunker Hill on June 17 , 1775 , was one of the bloodiest encounters of the war , an resulted in a Pyrrhic British victory . There were also numerous skirmishes near Boston and the coastal areas of Boston , resulting in loss of life , military supplies , or both . In July 1775 , George Washington took comman</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Chase XCG-20 = The Chase XCG-20 , also known as the XG-20 and by the company designation MS-8 Avitruc , was a large assault glider developed immediately after World War II by the Chase Aircraft Company for the United States Air Force , and was the largest glider ever built in the United States . The XG-20 did not see production due to a change in USAF requirements , however , it was modified into the successful Fairchild C-123 Provider twin-engined transport aircraft which saw extensive service in the Vietnam War . = = Design and development = = Following the end of World War II , the United States Army Air Forces , which became the United States Air Force ( USAF ) in 1947 , developed a requirement for a new , large assault glider type to replace smaller types that were then in service , all existing gliders having been declared obsolete . The new gliders were to be constructed entirely of metal , and were also required to be easily adaptable to a powered configuration . As part of a f</t>
+          <t>Meigs Raid = The Meigs Raid ( also known as the Battle of Sag Harbor ) was a military raid by American Continental Army forces , under the command of Connecticut Colonel Return Jonathan Meigs , on a British Loyalist foraging party at Sag Harbor , New York on May 24 , 1777 during the American Revolutionary War . Six Loyalists were killed and 90 captured while the Americans suffered no casualties . The raid was made in response to a successful British raid on Danbury , Connecticut in late April that was opposed by American forces in the Battle of Ridgefield . Organized in New Haven , Connecticut by Brigadier General Samuel Holden Parsons , the expedition crossed Long Island Sound from Guilford on May 23 , dragged whaleboats across the North Fork of Long Island , and raided Sag Harbor early the next morning , destroying boats and supplies . The battle marked the first American victory in the state of New York after New York City and Long Island had fallen in the British campaign for the c</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Interstate TDR = The Interstate TDR was an early unmanned combat aerial vehicle — referred to at the time as an " assault drone " — developed by the Interstate Aircraft and Engineering Corporation during the Second World War for use by the United States Navy . Capable of being armed with bombs or torpedoes , 2000 aircraft were ordered , but only around 200 were built . The type saw some service in the Pacific Theater against the Japanese , but continuing developmental issues affecting the aircraft , along with the success of operations using more conventional weapons , led to the decision being made to cancel the assault drone program in October 1944 . = = Design and development = = In 1936 , Lieutenant Commander Delmar S. Fahrney proposed that unpiloted , remotely controlled aircraft had potential for use by the United States Navy in combat operations . Due to the limitations of the technology of the time , development of the " assault drone " project was given a low priority , but by</t>
+          <t>Battle of Pell 's Point = The Battle of Pell 's Point ( October 18 , 1776 ) , also known as the Battle of Pelham , was a skirmish fought between British and American troops during the New York and New Jersey campaign of the American Revolutionary War . The conflict took place in what is now part of Pelham Bay Park in the Bronx , New York City . On October 12 , British forces landed at Throgs Neck in order to execute a flanking maneuver that would trap Gen. George Washington , commander-in-chief of the American revolutionary forces , and the main body of the Continental Army on the island of Manhattan . The Americans thwarted the landing , and Gen. Sir William Howe , commander-in-chief of British forces in North America , looked for another location along Long Island Sound to disembark his troops . On October 18 , he landed 4,000 men at Pelham , 3 miles ( 4.8 km ) north of Throgs Neck . Inland were 750 men of a brigade under the command of the American Col. John Glover . Glover position</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Polikarpov TIS = The Polkarpov TIS was a heavily armed Soviet heavy fighter designed during the early 1940s . Only two prototypes were built because its intended engines proved to be too unreliable to be placed into production and the engines ' manufacturer lacked the resources to fix the problems . The second prototype crashed in September 1944 and the program was canceled after the death of Nikolai Nikolaevich Polikarpov , the chief designer of his eponymous OKB , earlier that year . = = Design and development = = The original request for proposals for a heavy escort fighter ( Tyazholyy Istrebitel ' Soprovozhdeniya ) was received at the Polikarpov OKB in November 1938 , but the press of work with the I-180 and SPB prototypes prevented any significant design work until the third quarter of 1940 . Mikhail Yangel was appointed head designer , but his job was complicated by multiple changes in the role of the aircraft from escort fighter to interceptor , dive bomber , and eventually reco</t>
+          <t>Battle of Roatán = The Battle of Roatán ( sometimes spelled " Rattan " ) was an American War of Independence battle fought on March 16 , 1782 , between British and Spanish forces for control of Roatán , an island off the Caribbean coast of present-day Honduras . A Spanish expeditionary force under Matías de Gálvez , the Captain General of Spanish Guatemala , gained control of the British-held island after bombarding its main defences . The British garrison surrendered the next day . The Spanish evacuated the captured soldiers , 135 civilians and 300 slaves , and destroyed their settlement , which they claimed had been used as a base for piracy and privateering . The assault was part of a larger plan by Gálvez to eliminate British influence in Central America . Although he met with temporary successes , the British were able to maintain a colonial presence in the area . = = Background = = Following the entry of Spain into the American War of Independence in 1779 , both Spain and Great B</t>
         </is>
       </c>
     </row>
@@ -1281,32 +1281,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>['trains', 'locomotives', 'locomotive', 'oslo', 'line', 'nok', 'train', 'station', 'tunnel', 'railway', 'class', 'rail', 'railways', 'passenger', 'trondheim']</t>
+          <t>['lap', 'race', 'drivers', 'laps', 'pit', 'car', 'ferrari', 'prix', 'driver', 'qualifying', 'session', 'fastest', 'ahead', 'hamilton', 'points']</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Tickle Cock Bridge = Tickle Cock Bridge is a pedestrian underpass in Castleford , England , under a railway line originally built by the York and North Midland Railway between York and Normanton . Built in 1890 , the thoroughfare now connects the town 's main residential area with the Carlton Lanes Shopping Centre , and is used by 50,000 pedestrians each week . The original Victorian structure , described by the shopping centre 's manager as " small , narrow , very low and gloomy " and " frightening to walk through " , was replaced in 2008 as part of an urban regeneration scheme . The replacement bridge was initially renamed Tittle Cott . After a protest organised by a local over-50s group , Wakefield Council reversed its decision and a plaque bearing the original name , Tickle Cock , was installed . = = Etymology = = The word cock was first recorded in use as a vulgar term for the penis in 1618 , perhaps deriving from one of the word 's other meanings " a spout or short pipe serving a</t>
+          <t>2010 Showtime Southern 500 = The 2010 Showtime Southern 500 , 61st running of the event , was a NASCAR Sprint Cup Series motor race that was held on May 8 , 2010 at Darlington Raceway in Darlington , South Carolina . It was the eleventh race of the 2010 NASCAR Sprint Cup Series season . The event began at 7 : 30 p.m. EDT . It was televised live in the United States on Fox and its U.S. radio coverage was broadcast on Motor Racing Network starting at 6 p.m. EDT . The 367-lap race was won by Denny Hamlin for Joe Gibbs Racing after starting seven positions behind polesitter Jamie McMurray . McMurray finished second in a Chevrolet , and Kurt Busch finished third in a Dodge . The race had a total of 11 cautions and 22 lead changes among 11 different drivers . Kevin Harvick remained the point leader after finishing the race in the sixth position . = = Background = = Coming into the race , Richard Childress Racing driver Kevin Harvick led the Drivers ' Championship with 1,467 points , with Hen</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Somerset Coalfield = The Somerset Coalfield in northern Somerset , England is an area where coal was mined from the 15th century until 1973 . It is part of a larger coalfield which stretched into southern Gloucestershire . The Somerset coalfield stretched from Cromhall in the north to the Mendip Hills in the south , and from Bath in the east to Nailsea in the west , a total area of about 240 square miles ( 622 km2 ) . Most of the pits on the coalfield were concentrated in the Cam Brook , Wellow Brook and Nettlebridge Valleys and around Radstock and Farrington Gurney . The pits were grouped geographically , with clusters of pits close together working the same coal seams often under the same ownership . Many pits shared the trackways and tramways which connected them to the Somerset Coal Canal or railways for distribution . The early pits were adits where coal outcropped or bell pits where coal was close to the surface . These methods were abandoned when deep seams were mined . The deep</t>
+          <t>2013 Mudsummer Classic = The 2013 Mudsummer Classic ( formally the CarCash Mudsummer Classic presented by CNBC Prime 's The Profit ) was a NASCAR Camping World Truck Series stock car race held on July 24 , 2013 at Eldora Speedway in New Weston , Ohio . The race was the first dirt track race held by a NASCAR national touring series ( Cup , Xfinity , Trucks ) since 1970 . Contested over 150 laps , the race was the tenth of the 2013 NASCAR Camping World Truck Series season . Ken Schrader of self-owned Ken Schrader Racing won the pole position , and became the oldest pole sitter in NASCAR history at 58 years of age . Austin Dillon of Richard Childress Racing won the race , while Kyle Larson and Ryan Newman finished second and third , respectively . The qualifying procedure was unique for the race ; drivers ' qualifying times set the starting grids for five heat races to determine the feature race 's starting lineup , while the top five of a last chance qualifier ( LCQ ) advance to the feat</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SR Q1 class = The SR Q1 class is a type of austerity steam locomotive constructed during the Second World War . The class was designed by Oliver Bulleid for use on the intensive freight turns experienced during wartime on the Southern Railway network . A total of 40 locomotives were built . Bulleid incorporated many innovations and weight-saving concepts to produce a highly functional design . The class lasted in service until July 1966 , and the first member of the class , number C1 , has been preserved by the National Railway Museum . The highly unusual and controversial design represents the ultimate development of the British 0-6-0 freight engine , capable of hauling trains that were usually allocated to much larger locomotives on other railways . Nicknames for the class included " Ugly Ducklings " , " Coffee Pots " and " Charlies " . = = Background = = In late 1939 , the Southern Railway , until then primarily a high-density commuter railway serving London and South-East England ,</t>
+          <t>2011 Subway Fresh Fit 500 = The 2011 Subway Fresh Fit 500 was a NASCAR Sprint Cup Series stock car race held on February 27 , 2011 at Phoenix International Raceway in Avondale , Arizona . Contested over 312 laps , it was the second race of the 2011 season and was won by Jeff Gordon for Hendrick Motorsports . Kyle Busch of Joe Gibbs Racing finished in second , while Gordon 's teammate , Jimmie Johnson , finished third . Carl Edwards led the first lap from pole position ahead of Kurt Busch who started second on the grid . The race was caution free until lap 29 ( debris ) , and then 48 laps later a multiple crash occurred involving 13 drivers . Later there were several lead changes , and another four cautions . With nine laps remaining , Gordon took the lead from Kyle Busch to win his first race of the season , his first in more than 60 races . There were eight cautions and 29 lead changes among 12 different drivers during the race . Gordon 's win moved him to sixth position in the driver</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t xml:space="preserve">LSWR M7 class = The LSWR M7 class is a class of 0-4-4 passenger tank locomotive built between 1897 and 1911 . The class was designed by Dugald Drummond for use on the intensive London network of the London and South Western Railway ( LSWR ) , and performed well in such tasks . Because of their utility , 105 were built and the class went through several modifications over five production batches . For this reason there were detail variations such as frame length . Many of the class were fitted with push-pull operation gear that enabled efficient use on branch line duties without the need to change to the other end of its train at the end of a journey . Under LSWR and Southern Railway ownership they had been successful suburban passenger engines , although with the increased availability of newer , standard designs , many of the class were diagrammed to take on a new role as reliable branch line engines , especially in Southern England . Members of the class lasted in service until 1964 </t>
+          <t>2009 Samsung 500 = The 2009 Samsung 500 was the seventh stock car race of the 2009 NASCAR Sprint Cup Series . It was held on April 5 , 2009 at Texas Motor Speedway in Fort Worth , Texas before a crowd of 176,300 people . The 334-lap race was won by Jeff Gordon of the Hendrick Motorsports team after starting from second position . His teammate Jimmie Johnson finished second and Greg Biffle came in third . David Reutimann won the pole position , and maintained his lead going into the first corner to begin the race , but Gordon took over the lead before the first lap was over . Afterward , Reutimann took back the lead , holding it until Matt Kenseth passed him on lap 47 . Gordon led after the final pit stops . In the final laps , Johnson was gaining on Gordon , but Gordon maintained his position to win . There were six cautions and twenty-eight lead changes among thirteen different drivers during the race . The race was Gordon 's first win of the 2009 season , and the eighty-second of his</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Fairy Queen ( locomotive ) = The Fairy Queen is a steam locomotive , plying between the Indian capital of New Delhi and Alwar , in Rajasthan . It was certified by the Guinness Book of Records in 1998 as being the world 's oldest one in regular operation after being restored to haul a luxury train in order to boost tourism in Rajasthan . The Fairy Queen runs on the same basis as the Palace on Wheels , the tourist train launched in 1982 , and in 1999 was awarded a National Tourism Award . The 5 ft 6 in ( 1,676 mm ) Indian gauge locomotive was built in England in 1855 , and has a two-cylinder engine with a power output of 130 horsepower ( 97 kW ) , producing a top speed of 40 kilometres per hour ( 25 mph ) . It was placed in service by the East Indian Railway Company in West Bengal , where it hauled troop trains during the Indian Rebellion of 1857 , and was withdrawn from service in 1909 and displayed on a pedestal in Howrah until 1943 . Heritage status was accorded in 1972 and the locomo</t>
+          <t>BMW M1 Procar Championship = For the later German touring car series , see ADAC Procar Series . The BMW M1 Procar Championship , sometimes known simply as Procar , was a one-make auto racing series created by Jochen Neerpasch , head of BMW Motorsport GmbH , the racing division of automobile manufacturer BMW . The series pitted professional drivers from the Formula One World Championship , World Sportscar Championship , European Touring Car Championship , and other international series against one another using identically modified BMW M1 sports cars . Billed as an opportunity to see a mix of drivers from various motorsport disciplines , the championship served as support races for various European rounds of the 1979 Formula One season , with Formula One drivers earning automatic entry into the Procar event based on their performance in their Formula One cars . Austrian Niki Lauda won the inaugural championship . In 1980 , the series held some events outside of Formula One schedule , an</t>
         </is>
       </c>
     </row>
@@ -1316,32 +1316,32 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>['manga', 'anime', 'comics', 'stories', 'story', 'comic', 'magazine', 'volume', 'volumes', 'fiction', 'gay', 'characters', 'pulp', 'published', 'issue']</t>
+          <t>['temple', 'mosque', 'han', 'dynasty', 'sanskrit', 'buddhist', 'hindu', 'chinese', 'bce', 'texts', 'monastery', 'buddhism', 'temples', 'wall', 'text']</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Mega Man : Dr. Wily 's Revenge = Mega Man : Dr. Wily 's Revenge , known as Rockman World ( ロックマンワールド , Rokkuman Wārudo ) in Japan , is a platform video game by Capcom for the Nintendo Game Boy . It is the first game in the handheld series of the Mega Man franchise . It was first released in Japan on July 26 , 1991 , and was localized in North America that December and in Europe the following year . The game continues the adventures of the android hero Mega Man as he once again confronts the evil Dr. Wily , who has recently dispatched his revived " Robot Masters " and a new " Mega Man Killer " named Enker . Dr. Wily 's Revenge is an action and platform game in same vein as the Nintendo Entertainment System ( NES ) Mega Man games . The player is tasked with completing a series of four stages in any order desired . Beating a stage 's boss will earn the player a special weapon that can be selected at will and used throughout the rest of the game . Dr. Wily 's Revenge specifically takes com</t>
+          <t>Pundarikakshan Perumal Temple = Pundarikakshan Perumal Temple or Thiruvellarai a in Thiruvellarai , a village in the outskirts of Tiruchirappalli in the South Indian state of Tamil Nadu , is dedicated to the Hindu god Vishnu . Constructed in the Dravidian style of architecture , the temple is glorified in the Divya Prabandha , the early medieval Tamil canon of the Azhwar saints from the 6th – 9th centuries AD . It is one of the 108 Divyadesam dedicated to Vishnu , who is worshipped as Pundarikakshan and his consort Lakshmi as Pankajavalli . The temple was built by Shivi Chakravarthy , king of Ayodhya in Treta Yuga 15 lakh years ago . This temple is older than Srirangam temple.The temple has three inscriptions in its two rock-cut caves , two dating from the period of Nandivarman II ( 732 – 796 AD ) and the other to that of Dantivarman ( 796 – 847 ) . It also has Pallava sculptural depictions of Narasimha and Varaha , two of the ten avatars of Vishnu . A granite wall surrounds the temple</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Dynamic Science Stories = Dynamic Science Stories was a pulp magazine which published two issues , dated February and April 1939 . A companion to Marvel Science Stories , it was edited by Robert O. Erisman and published by Western Fiction Publishing . Among the better known authors who appeared in its pages were L. Sprague de Camp and Manly Wade Wellman . = = Publication history and contents = = Although science fiction had been published before the 1920s , it did not begin to coalesce into a separately marketed genre until the appearance in 1926 of Amazing Stories , a pulp magazine published by Hugo Gernsback . By the end of the 1930s the field was booming . In 1938 Abraham and Martin Goodman , two brothers who owned a publishing company with multiple imprints , launched Marvel Science Stories , edited by Robert O. Erisman . In February of the following year they added Dynamic Science Stories as a companion magazine intended to run longer stories . The contents were typical pulp scien</t>
+          <t>Munneswaram temple = Munneswaram temple ( Sinhalese : මුන ් නේශ ් වරම ් කෝවිල , Tamil : முன ் னேசுவரம ் கோயில ் ) is an important regional Hindu temple complex in Sri Lanka . It has been in existence at least since 1000 CE , although myths surrounding the temple associate it with the popular Indian epic Ramayana , and its legendary hero-king Rama . The temple is one of the ancient Pancha Ishwarams dedicated to Shiva in the region . The temple complex is a collection of five temples , including a Buddhist temple . The central temple dedicated to Shiva ( Siva ) is the most prestigious and biggest , and is popular amongst Hindus . The other temples are dedicated to Ganesha , Ayyanayake and Kali . The Kali temple is also popular with Buddhists , who frequent the complex . Post-19th century , most of the devotees of all temples in the complex belong to the majority Sinhala Buddhist ethnic group ; the temples , excluding the Ayyanayake and the Buddhist temple , are administered by families b</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Tintin and the Picaros = Tintin and the Picaros ( French : Tintin et les Picaros ) is the twenty-third volume of The Adventures of Tintin , the comics series by Belgian cartoonist Hergé . The final instalment in the series to be completed by Hergé , in Belgium it was serialized in Tintin magazine from September 1975 to January 1976 before being published in a collected volume by Casterman in 1976 . The narrative follows the young reporter Tintin , his dog Snowy and his friends Captain Haddock and Professor Calculus as they travel to the ( fictional ) South American nation of San Theodoros to rescue their friend Bianca Castafiore , who has been imprisoned by the government of General Tapioca . Once there , they become involved in the anti-government revolutionary activities of Tintin 's old friend General Alcazar . Hergé began work on Tintin and the Picaros eight years after completing the previous volume in the series , Flight 714 , creating it with the aid of his team of artists at St</t>
+          <t>Kataragama temple = Kataragamam temple ( Sinhalese Katharagama ; Tamil Katirkāmam ) in Kataragama , Sri Lanka , is a temple complex dedicated to Kataragama deviyo . It is one of the few religious sites in Sri Lanka that is venerated by the Sinhala Buddhists , Hindu Sri Lankan Tamils , Sri Lankan Moors and the Vedda people . It is a collection of modest shrines , of which the one dedicated to Kataragama deviyo , is the most important . For most of the past millennia , it was a jungle shrine very difficult to access ; today it is accessible by an all-weather road . Almost all the shrines — and the nearby Kiri Vehera — are managed by Buddhists , apart from shrines dedicated to Teyvāṉai and Shiva and mosques . Up until the 1940s a majority of the pilgrims were Tamil Hindus from Sri Lanka and South India who undertook an arduous padayatra or " pilgrimage on foot " . Since then most pilgrims tend to be Sinhala Buddhists and the cult of Kataragama deviyo has become the most popular amongst th</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Azumanga Daioh = Azumanga Daioh ( Japanese : あずまんが大王 , Hepburn : Azumanga Daiō , lit . " Great King Azumanga " ) is a Japanese yonkoma comedy manga series written and illustrated by Kiyohiko Azuma , which was serialized in MediaWorks ' Dengeki Daioh magazine between 1999 and 2002 . Three additional chapters were published in Shogakukan 's Monthly Shōnen Sunday in May 2009 to celebrate the manga 's tenth anniversary . The manga was first released in English by ADV Manga , and was later re-issued by Yen Press . A television anime adaptation titled Azumanga Daioh : the Animation was produced by J.C.Staff and aired in Japan between April and September 2002 , consisting of 130 five-minute segments compiled into 26 episodes . The compiled episodes were released on DVD and Universal Media Discs ( UMDs ) by Starchild Records , and an English-language version was produced by ADV Films . Prior to the series , a theatrical short and an original net animation were also produced . Several soundtrac</t>
+          <t>Badrinath Temple = Badrinath or Badrinarayan Temple is a Hindu temple dedicated to Vishnu which is situated in the town of Badrinath in Uttarakhand , India . The temple and town form one of the four Char Dham and Chota Char Dham pilgrimage sites . The temple is also one of the 108 Divya Desams dedicated to Vishnu , who is worshipped as Badrinath — holy shrines for Vaishnavites . It is open for six months every year ( between the end of April and the beginning of November ) , because of extreme weather conditions in the Himalayan region . The temple is located in Garhwal hill tracks in Chamoli district along the banks of Alaknanda River at an elevation of 3,133 m ( 10,279 ft ) above the mean sea level . It is one of the most visited pilgrimage centres of India , having recorded 1,060,000 visits . The image of the presiding deity worshipped in the temple is a 1 m ( 3.3 ft ) tall , black stone statue of Vishnu in the form of Badrinarayan . The statue is considered by many Hindus to be one</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Arisa ( manga ) = Arisa ( Japanese : アリサ ) is a Japanese mystery shōjo ( targeted towards girls ) manga series written and illustrated by Natsumi Ando . It appeared as a serial in the monthly manga magazine Nakayoshi from the February 2009 issue to the September 2012 issue . Kodansha published the chapters in twelve bound volumes , from April 2009 to September 2012 . Set in present-day Japan , it focuses on teenager Tsubasa Uehara , as she investigates the mystery surrounding her twin sister 's failed suicide attempt . With her sister left comatose , Tsubasa poses as her in the hopes of uncovering the identity of the King , a person who grants wishes to Arisa 's class , often resulting in violence . Del Rey licensed the series for an English-language translation in North America . It published the first volume in October 2010 , and shortly afterward , Kodansha Comics USA took over publishing , with the final volume published in January 2014 . The series was positively received by Engli</t>
+          <t xml:space="preserve">Kandariya Mahadeva Temple = The Kandariya Mahadeva Temple ( Devanagari : कंदारिया महादेव मंदिर , Kaṇḍāriyā Mahādeva Mandir ) , meaning " the Great God of the Cave " , is the largest and most ornate Hindu temple in the medieval temple group found at Khajuraho in Madhya Pradesh , India . It is considered one of the best examples of temples preserved from the medieval period in India . = = Location = = Kaṇḍāriyā Mahādeva Temple is located in the Chhatarpur district of Madhya Pradesh in Central India . It is in the Khajuraho village , and the temple complex is spread over an area of 6 square kilometres ( 2.3 sq mi ) . It is in the western part of the village to the west of the Vishnu temple . The temple complex , in the Khajuraho village at an elevation of 282 metres ( 925 ft ) , is well connected by road , rail and air services . Khajuraho is 34 miles ( 55 km ) to the south of Mahoba , 29 miles ( 47 km ) away from the Chhatarpur city to its east , 27 miles ( 43 km ) away from Panna , 400 </t>
         </is>
       </c>
     </row>
@@ -1351,32 +1351,32 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>['lap', 'race', 'drivers', 'laps', 'pit', 'car', 'driver', 'ferrari', 'qualifying', 'prix', 'session', 'fastest', 'ahead', 'caution', 'hamilton']</t>
+          <t>['simpsons', 'south_park', 'homer', 'lisa', 'episode', 'episodes', 'kenny', 'jake', 'stan', 'kyle', 'finn', 'animated', 'parker', 'voice', 'voiced']</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Love &amp; Monsters = " Love &amp; Monsters " is the tenth episode of the second series of the British science fiction television series Doctor Who , first broadcast on BBC One on 17 June 2006 . It was written by executive producer and lead writer Russell T Davies and directed by Dan Zeff . The series typically follows alien time traveller the Doctor ( in his tenth incarnation , played by David Tennant ) and his companion ( s ) ( at this time Rose Tyler , played by Billie Piper ) , who travel around time and space in a machine called the TARDIS . However , " Love &amp; Monsters " follows a contemporary ordinary man named Elton Pope ( Marc Warren ) who becomes obsessed with a man called the Doctor and his strange blue box , and joins a group of like-minded people in hopes of finding him . But when the mysterious Victor Kennedy ( Peter Kay ) joins the group , the fun stops and Elton discovers a darker side to his interests . Kennedy ultimately turns out to be a creature called the Abzorbaloff . Due </t>
+          <t>The Itchy &amp; Scratchy Show = The Itchy &amp; Scratchy Show ( often shortened as Itchy &amp; Scratchy ) is a running gag and fictional animated television series featured in the animated television series The Simpsons . It usually appears as a part of The Krusty the Clown Show , watched regularly by Bart and Lisa Simpson . Itself an animated cartoon , The Itchy &amp; Scratchy Show depicts a sadistic anthropomorphic blue mouse , Itchy ( voiced by Dan Castellaneta ) , who repeatedly maims and kills an anthropomorphic , hapless threadbare black cat , Scratchy ( voiced by Harry Shearer ) . The cartoon first appeared in the Tracey Ullman Show short " The Bart Simpson Show " , which originally aired November 20 , 1988 . The cartoon 's first appearance in The Simpsons was in the 1990 episode " There 's No Disgrace Like Home " . Typically presented as 15-to-60-second-long cartoons , the show is filled with gratuitous violence . The Simpsons also occasionally features characters who are involved with the pro</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Hee Seo = Hee Seo ( Hangul : 서희 ; hanja : 徐姬 ; born 13 March 1986 ) is a South Korean principal dancer for American Ballet Theatre ( ABT ) , one of the three leading classical ballet companies in the United States . She became the company 's first Korean ballerina to be promoted to principal dancer in ABT 's 75-year history and is one of only three principal dancers in the company who have worked their way up the ranks from the American Ballet Theatre Studio Company . She is also one of the youngest dancers in ABT history to be promoted to principal at the age of twenty-six . The New York Times has described her style and dancing to " exude an unhurried purity that sums up all that is lovely about ballet " and by Vogue as " unspeakably lissome " . Several critics have noted her style as " lyrical and open " and she has been critically acclaimed for her " humility " and " unique feminine strength " . Seo began training in Russian ballet at the age of twelve ; a relatively late start for</t>
+          <t>Santa 's Little Helper = Santa 's Little Helper is a recurring character in the American animated television series The Simpsons . He is the pet greyhound of the Simpson family . The dog was introduced in the first episode of the show , the 1989 Christmas special " Simpsons Roasting on an Open Fire " , in which his owner abandons him for finishing last in a greyhound race . Homer Simpson and his son Bart , who are at the race track in hope of winning some money for Christmas presents , see this and decide to adopt the dog . Santa 's Little Helper has since appeared frequently on The Simpsons and the plots of many episodes center on him . During the course of the show , he has , for example , fathered litters of puppies , passed obedience school , had surgery for bloat , replaced Duffman as the mascot for Duff Beer , and been trained as a police dog at Springfield 's Animal Police Academy . Some of the episodes that focus on Santa 's Little Helper have been inspired by popular culture o</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>The Getaway ( Dexter ) = " The Getaway " is the fourth season finale of the American television drama series Dexter , and the 48th overall episode of the series . It originally aired on Showtime on December 13 , 2009 . In the episode , Dexter goes to great lengths to stop Arthur , who now knows Dexter 's true identity . Meanwhile , Debra learns the truth about Dexter 's mother , the homicide division closes in on the Trinity Killer , and Rita reaffirms her support for Dexter , even as she acknowledges his hidden demons . The teleplay was written by Wendy West and Melissa Rosenberg , based on a story by Rosenberg and Scott Reynolds . Directed by Steve Shill , " The Getaway " marked the conclusion of the Trinity Killer plotline , as well as the final regular appearance of guest star John Lithgow , who portrayed Arthur Mitchell . The episode also included the death of Rita Morgan , Dexter 's wife , who had been portrayed by Julie Benz , a regular cast member since the beginning of the ser</t>
+          <t>Dan Castellaneta = Daniel Louis " Dan " Castellaneta ( born October 29 , 1957 ) is an American actor , voice actor , comedian , singer and screenwriter . Noted for his long-running role as Homer Simpson on the animated television series The Simpsons , he voices many other characters on the show , including Abraham " Grampa " Simpson , Barney Gumble , Krusty the Clown , Sideshow Mel , Groundskeeper Willie , Mayor Quimby and Hans Moleman . Born in Oak Park , Illinois , a suburb of Chicago , Castellaneta started taking acting classes at a young age . He would listen to his father 's comedy records and do impressions of the artists . After graduating from Northern Illinois University , Castellaneta joined Chicago 's Second City in 1983 , and performed with the troupe until 1987 . He was cast in The Tracey Ullman Show , which debuted in 1987 . The Tracey Ullman Show included a series of animated shorts about a dysfunctional family . Voices were needed for the shorts , so the producers decid</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Magic Alex = Yanni ( later John ) Alexis Mardas ( Greek : Αλέξης Μάρδας ; born May 5 , 1942 ) is better known as Magic Alex , the nickname given to him by The Beatles when he was involved with the group between 1965 and 1969 , including being head of Apple Electronics . Mardas arrived in England in 1965 , exhibiting his Kinetic Light Sculptures at the Indica Gallery . He impressed John Lennon with the Nothing Box ; a small plastic box with randomly blinking lights , and allegedly said that he could build a 72-track tape machine . Mardas was then given the job of designing the new Apple Studio in Savile Row , and was in India with The Beatles at the Maharishi Mahesh Yogi 's ashram in India . In the 1970s , the anti-terrorism industry offered bullet-proof vehicles , bugging devices and security hardware , so Mardas set up various companies offering these products to royalty and VIPs . King Hussein of Jordan bought a fleet of cars that Mardas had customised . In 1987 , Mardas was a managi</t>
+          <t>SpongeBob SquarePants ( season 7 ) = The seventh season of the American animated television series SpongeBob SquarePants , created by marine biologist and animator Stephen Hillenburg , originally aired on Nickelodeon in the United States from July 19 , 2009 to June 11 , 2011 . It contained 26 episodes , beginning with the episodes " Tentacle Vision " and " I Heart Dancing " . The series chronicles the exploits and adventures of the title character and his various friends in the fictional underwater city of Bikini Bottom . The season was executive produced by series creator Hillenburg and writer Paul Tibbitt , who also acted as the showrunner . In 2011 , Legends of Bikini Bottom , an anthology series consists of five episodes from the season , was launched . A number of guest stars appeared on the season 's episodes . Several compilation DVDs that contained episodes from the season were released . The SpongeBob SquarePants : Complete Seventh Season DVD was released in Region 1 on Decemb</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Cindy McCain = Cindy Lou Hensley McCain ( born May 20 , 1954 ) is an American businesswoman , philanthropist , and humanitarian , and the wife of United States Senator and 2008 Republican presidential nominee John McCain of Arizona . She was born and raised in Phoenix , Arizona , as the daughter of wealthy beer distributor Jim Hensley . After receiving bachelor 's and master 's degrees from the University of Southern California , she became a special education teacher . She married John McCain in 1980 and they had three children together , in addition to adopting another . From 1988 to 1995 , she founded and operated a nonprofit organization , the American Voluntary Medical Team , which organized trips by medical personnel to disaster-stricken or war-torn third-world areas . During this time , she became addicted to painkillers for several years and resorted to having a physician write illegal prescriptions on her behalf . She reached an agreement with the government in which no charge</t>
+          <t>Cartman 's Mom Is a Dirty Slut = " Cartman 's Mom Is a Dirty Slut " is the first season finale of the American animated television series South Park . It originally aired on Comedy Central in the United States on February 25 , 1998 . The episode is the highest viewed episode in the entire South Park series , with 6.4 million views . It is part one of a two-episode story arc , which concluded with " Cartman 's Mom Is Still a Dirty Slut " . The episode follows Eric Cartman , one of the show 's child protagonists , becoming curious about the identity of his father . He discovers that his father is most likely a man his mother had sexual intercourse with during an annual party called " The Drunken Barn Dance " . Meanwhile , his friends Stan , Kyle and Kenny participate on America 's Stupidest Home Videos , after filming Cartman playing in his yard with plush toys . The episode was written by Trey Parker and staff writer David A. Goodman , and directed by Parker . It featured a guest appear</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>['yard', 'yards', 'touchdown', 'tech', 'alabama', 'bowl', 'quarter', 'michigan', 'offense', 'football', 'pass', 'rushing', 'quarterback', 'conference', 'touchdowns']</t>
+          <t>['formula', 'matrix', 'function', 'newton', 'linear', 'plants', 'constant', 'language', 'defined', 'theory', 'functions', 'example', 'consciousness', 'space', 'derivative']</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>The Spanish Teacher = " The Spanish Teacher " is the twelfth episode of the third season of the American musical television series Glee , and the fifty-sixth overall . Written by co-creator Ian Brennan and directed by Paris Barclay , the episode aired on Fox in the United States on February 7 , 2012 . It features special guest star Ricky Martin as a night-school Spanish teacher whom Will Schuester ( Matthew Morrison ) introduces to McKinley High , and shows several of McKinley 's teachers competing for a promotion when a tenured position unexpectedly becomes available . The episode received mixed to positive reviews , and many critics considered Martin to be a highlight . Reaction to the music as a whole was less enthusiastic than for the episode itself , though " La Isla Bonita " and " Don 't Wanna Lose You " were given a generally favorable reception . The former song charted on both the Billboard Hot 100 and the Billboard Canadian Hot 100 ; of the remaining four singles , " Sexy and</t>
+          <t>Biology = Biology is a natural science concerned with the study of life and living organisms , including their structure , function , growth , evolution , distribution , identification and taxonomy . Modern biology is a vast and eclectic field , composed of many branches and subdisciplines . However , despite the broad scope of biology , there are certain general and unifying concepts within it that govern all study and research , consolidating it into single , coherent field . In general , biology recognizes the cell as the basic unit of life , genes as the basic unit of heredity , and evolution as the engine that propels the synthesis and creation of new species . It is also understood today that all the organisms survive by consuming and transforming energy and by regulating their internal environment to maintain a stable and vital condition known as homeostasis . Sub-disciplines of biology are defined by the scale at which organisms are studied , the kinds of organisms studied , an</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>The Fire ( The Office ) = " The Fire " is the fourth episode of the second season of the American comedy television series The Office , and the show 's tenth episode overall . Written by B. J. Novak and directed by Ken Kwapis , the episode first aired in the United States on October 11 , 2005 on NBC . The episode features Amy Adams as Jim 's girlfriend , Katy . The series depicts the everyday lives of office employees in the Scranton , Pennsylvania branch of the fictional Dunder Mifflin Paper Company . In the episode , Michael Scott ( Steve Carell ) takes it upon himself to teach Ryan Howard ( B.J. Novak ) about business , but soon everyone is forced to evacuate the office due to a fire . While outside , Michael continues to show an interest in Ryan , causing Dwight Schrute ( Rainn Wilson ) to be jealous . Meanwhile , Jim Halpert ( John Krasinski ) organizes games to play outside . According to B. J. Novak , the episode was " a fun one to film " . Although the cast and crew appear to b</t>
+          <t>Myco-heterotrophy = Myco-heterotrophy ( Greek : μυκός mykós , " fungus " , ἕτερος heteros = " another " , " different " and τροφή trophe = " nutrition " ) is a symbiotic relationship between certain kinds of plants and fungi , in which the plant gets all or part of its food from parasitism upon fungi rather than from photosynthesis . A myco-heterotroph is the parasitic plant partner in this relationship . Myco-heterotrophy is considered a kind of cheating relationship and myco-heterotrophs are sometimes informally referred to as " mycorrhizal cheaters " . This relationship is sometimes referred to as mycotrophy , though this term is also used for plants that engage in mutualistic mycorrhizal relationships . = = Relationship between myco-heterotrophs and host fungi = = Full ( or obligate ) myco-heterotrophy exists when a non-photosynthetic plant ( a plant largely lacking in chlorophyll or otherwise lacking a functional photosystem ) gets all of its food from the fungi that it parasitize</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Craigflower Manor and Schoolhouse = The Craigflower Manor and Craigflower Schoolhouse are National Historic Sites of Canada located in View Royal , British Columbia ( the Manor ) and Saanich ( the Schoolhouse ) near Victoria . The centerpiece of each historic site is a 19th-century building — a manor and schoolhouse commissioned by the Hudson 's Bay Company to provide education and lodging for their employees . Built as part of the agricultural community Craigflower Farm , the buildings served as a focal point for the community into the modern era ; they remain open to the public today as museums devoted to the colonial history of Victoria . The sites also have unique archaeological merit , encompassing three distinct periods , and types , of human habitation which span thousands of years . In addition , the existing structures have great historical and cultural value , remaining some of the best , and last , examples of their kind in Canada . These factors combine to make these two si</t>
+          <t>Botany = Botany , also called plant science ( s ) , plant biology or phytology , is the science of plant life and a branch of biology . A botanist or plant scientist is a scientist who specializes in this field . The term " botany " comes from the Ancient Greek word βοτάνη ( botanē ) meaning " pasture " , " grass " , or " fodder " ; βοτάνη is in turn derived from βόσκειν ( boskein ) , " to feed " or " to graze " . Traditionally , botany has also included the study of fungi and algae by mycologists and phycologists respectively , with the study of these three groups of organisms remaining within the sphere of interest of the International Botanical Congress . Nowadays , botanists study approximately 400,000 species of living organisms of which some 260,000 species are vascular plants and about 248,000 are flowering plants . Botany originated in prehistory as herbalism with the efforts of early humans to identify – and later cultivate – edible , medicinal and poisonous plants , making it</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Roy Riegels = Roy " Wrong Way " Riegels ( April 4 , 1908 – March 26 , 1993 ) played for the University of California , Berkeley football team from 1927 to 1929 . His wrong-way run in the 1929 Rose Bowl is often cited as the worst blunder in the history of college football . That one play overshadowed Riegels ' football talents , since he earned first team All-America honors and served as team captain for the Bears in 1929 . Riegels ' notability has been shared by motivational speakers who use his life as an example of overcoming setbacks . = = Background = = The 1920s saw the first golden age of California football , as the Golden Bears went 50 straight games without a defeat from 1920 to 1925 , with a record of 46 wins and 4 ties . As of 2010 , this is the 3rd longest unbeaten ( not to be confused with winning ) streak in NCAA history . The 1920 – 1924 squads were so dominant that they were nicknamed " The Wonder Teams , " and were coached by Andy Smith . One of the stars during this </t>
+          <t>Avogadro constant = In chemistry and physics , the Avogadro constant ( named after the scientist Amedeo Avogadro ) is the number of constituent particles , usually atoms or molecules , that are contained in the amount of substance given by one mole . Thus , it is the proportionality factor that relates the molar mass of a compound to the mass of a sample . Avogadro 's constant , often designated with the symbol NA or L , has the value 6.022140857 ( 74 ) × 1023 mol − 1 in the International System of Units ( SI ) . Previous definitions of chemical quantity involved Avogadro 's number , a historical term closely related to the Avogadro constant , but defined differently : Avogadro 's number was initially defined by Jean Baptiste Perrin as the number of atoms in one gram-molecule of atomic hydrogen , meaning one gram of hydrogen . This number is also known as Loschmidt constant in German literature . The constant was later redefined as the number of atoms in 12 grams of the isotope carbon-</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Apiary Laboratory = The Apiary Laboratory , more often referred to as the Apiary , is a research laboratory at the University of Massachusetts Amherst . Originally built for the study of honey bees and apiculture , today it is primarily used to study native pollinator species and the chemicals and pathogens impacting their populations . This academic building is unique in that it is credited as being the first in the United States to be erected exclusively for the teaching of beekeeping . Prior to the construction of the building , the Massachusetts Agricultural College had maintained a beekeeping program for a number of years as one of the first land-grant agricultural colleges to teach the subject in the United States . In time , techniques in apiculture progressed , leaving beekeeping as no longer simply a hobby , but rather a viable agricultural business . The college 's program had remained limited to a single short-course for a number of years but was expanded however , when in 1</t>
+          <t>Philosophy of science = Philosophy of science is a branch of philosophy concerned with the foundations , methods , and implications of science . The central questions of this study concern what qualifies as science , the reliability of scientific theories , and the ultimate purpose of science . This discipline overlaps with metaphysics , ontology , and epistemology , for example , when it explores the relationship between science and truth . There is no consensus among philosophers about many of the central problems concerned with the philosophy of science , including whether science can reveal the truth about unobservable things and whether scientific reasoning can be justified at all . In addition to these general questions about science as a whole , philosophers of science consider problems that apply to particular sciences ( such as biology or physics ) . Some philosophers of science also use contemporary results in science to reach conclusions about philosophy itself . While philo</t>
         </is>
       </c>
     </row>
@@ -1421,32 +1421,32 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>['wine', 'chicken', 'cheese', 'bacon', 'recipes', 'sandwich', 'fried', 'dish', 'dishes', 'cuisine', 'ingredients', 'cooking', 'beef', 'food', 'product']</t>
+          <t>['glee', 'kurt', 'rachel', 'meredith', 'finn', 'episode', 'grey', 'quinn', 'anatomy', 'viewers', 'sue', 'watched', 'yang', 'club', 'grace']</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Christian views on alcohol = Christian views on wine and alcohol are varied . Christians used " the fruit of the vine " in their central rite — the Eucharist or Lord 's Supper . Some Christian laymen ( e.g. Monica Of Hippo ) kept a strict rule of total abstinence , and the contrasting types of wine were distinguished : " not that wine which produces drunkenness , plots against the senses , and destroys the body , but such as gladdens the heart . " ( See Early Church section . ) Some consumed alcoholic beverages as a common part of everyday life . The latter held that alcohol is a gift from God that makes life more joyous , but that over-indulgence leading to drunkenness is sinful or at least a vice . The Bible indicates wine as a symbol of joy while " strong drink " is a euphemism for drunkenness . In the mid-19th century , some Protestant Christians moved from a position of allowing moderate use of alcohol ( sometimes called moderationism ) to either deciding that not imbibing was wis</t>
+          <t xml:space="preserve">Ballad ( Glee ) = " Ballad " is the tenth episode of the American television series Glee . The episode premiered on the Fox network on November 18 , 2009 , and was written and directed by series creator Brad Falchuk . " Ballad " sees the glee club split into pairs to sing ballads to one another . Rachel ( Lea Michele ) is paired with club director Will ( Matthew Morrison ) and develops a crush on him . Quinn 's ( Dianna Agron ) parents learn that Quinn is pregnant , and she moves in with Finn ( Cory Monteith ) and his mother when her own parents evict her . Gregg Henry and Charlotte Ross guest-star as Quinn 's parents Russell and Judy Fabray , and Sarah Drew appears as Suzy Pepper , a student with a former crush on Will . Romy Rosemont returns as Finn 's mother , Carole Hudson . The episode features covers of seven songs , including a mash-up of " Don 't Stand So Close to Me " by The Police and " Young Girl " by Gary Puckett and The Union Gap . Studio recordings of all songs performed </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Avocado cake = Avocado cake is a cake prepared using avocado as a primary ingredient , together with other typical cake ingredients . The avocados may be mashed , and may be used as an ingredient in cake batter , in cake toppings and alone atop a cake . Cake variations include raw avocado cake , avocado brownies and avocado cheesecake . Raw , uncooked versions of avocado cake can be high in vitamin E and essential fatty acids , which are derived from avocado . Avocado-based cake toppings include avocado fool and avocado crazy . = = Overview = = Avocado is a main ingredient in avocado cake , along with other typical cake ingredients . Various varieties of avocados may be used . Avocado cake may have a subtle avocado flavor imbued in the dish . Mashed avocado may be used as an ingredient in the batter and in cake frostings and toppings . Sliced avocado may be used to top or garnish it , as may other ingredients such as the zest of citrus fruits . Additional ingredients used may include y</t>
+          <t>The Power of Madonna = " The Power of Madonna " is the fifteenth episode of the American television series Glee . The episode premiered on the Fox network on April 20 , 2010 . When cheerleading coach Sue Sylvester ( Jane Lynch ) demands that Madonna 's music be played over the school intercom system , glee club director Will Schuester ( Matthew Morrison ) sets the club a Madonna-themed assignment , hoping to empower the female club members . " The Power of Madonna " was written and directed by series creator Ryan Murphy , and serves as a musical tribute to Madonna , featuring cover versions of eight of her songs , with the singer having granted Glee the rights to her entire catalogue of music . Glee : The Music , The Power of Madonna , an album containing studio recordings of songs performed in the episode , was released on April 20 , 2010 . The episode was watched by 12.98 million American viewers , and was generally well received by critics . Tim Stack of Entertainment Weekly and Aly</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Compleat Housewife = The Compleat Housewife , or , Accomplish 'd Gentlewoman 's Companion is a cookery book written by Eliza Smith and first published in London in 1727 . It became extremely popular , running through 18 editions in fifty years . It was the first cookery book to be published in the Thirteen Colonies of America : it was printed in Williamsburg , Virginia , in 1742 . It contained the first published recipe for " katchup " , and appears to be the earliest source for bread and butter pudding . The book includes recipes not only for foods but for wines , cordial-waters , medicines and salves . = = Book = = The title page describes The Compleat Housewife as a collection of several hundred of the most approved receipts , in cookery , pastry , confectionery , preserving , pickles , cakes , creams , jellies , made wines , cordials . And also bills of fare for every month of the year . To which is added , a collection of nearly two hundred family receipts of medicines ; viz. </t>
+          <t>The Rhodes Not Taken = " The Rhodes Not Taken " is the fifth episode of the American television series Glee . It premiered on the Fox network on September 30 , 2009 and was written by series co-creator Ian Brennan and directed by John Scott . The episode features glee club director Will Schuester ( Matthew Morrison ) recruiting former star April Rhodes ( Kristin Chenoweth ) , hoping to improve the club 's chances in the wake of Rachel 's ( Lea Michele ) defection to the school musical . Finn ( Cory Monteith ) flirts with Rachel in an attempt to convince her to return , and although Rachel is angry when she discovers Finn 's girlfriend is pregnant , she ultimately rejoins the club . Special guest star Kristin Chenoweth played April , and performed on three of the episode 's six musical tracks . Studio recordings of four of the songs performed in the episode were released as singles , available for digital download , and two appear on the album Glee : The Music , Volume 1 . The episode w</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ya Kun Kaya Toast = Ya Kun Kaya Toast ( Simplified Chinese : 亚坤加椰面包 ) is a Singaporean chain of mass-market , retro-ambience cafes selling toast products ( notably kaya toast ) , soft-boiled eggs and coffee . Founded by Loi Ah Koon in 1944 , Ya Kun remained a small family-run stall for decades , but have expanded rapidly since Loi 's youngest son headed the business in 1999 . They have over fifty outlets , mostly franchised , across six countries , and are a Singaporean cultural icon , known for their traditional brand identity and conservative , people-centric corporate culture . = = History = = In 1926 , Loi Ah Koon ( 黎亚坤 ) emigrated from Hainan to Singapore , where he worked as a coffee-stall assistant , then started a stall selling coffee , crackers and toast at Telok Ayer Basin , together with two other immigrants , who later dropped out , leaving him to run the stall alone . He married while visiting relatives in Hainan and after his wife settled down with him in Singapore , she </t>
+          <t>Laryngitis ( Glee ) = " Laryngitis " is the eighteenth episode of the American television series Glee . The episode premiered on the Fox network on May 11 , 2010 . It was directed by Alfonso Gomez-Rejon and written by series creator Ryan Murphy . In " Laryngitis " , glee club member Puck ( Mark Salling ) dates Mercedes ( Amber Riley ) in an attempt to raise his social status . Kurt ( Chris Colfer ) is jealous of the time his father is spending with Finn ( Cory Monteith ) , and Rachel ( Lea Michele ) worries about her future when she is diagnosed with tonsillitis . Mike O 'Malley guest-stars as Kurt 's father Burt , and Zack Weinstein appears as disabled former football player Sean Fretthold . The episode features cover versions of seven songs , five of which were released as singles , available for digital download , and three of which are included on the soundtrack album Glee : The Music , Volume 3 – Showstoppers . " Laryngitis " was watched by 11.57 million American viewers and recei</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Radish = The radish ( Raphanus sativus ) is an edible root vegetable of the Brassicaceae family that was domesticated in Europe in pre-Roman times . Radishes are grown and consumed throughout the world , being mostly eaten raw as a crunchy salad vegetable . They have numerous varieties , varying in size , flavor , color , and length of time they take to mature . Radishes owe their sharp flavor to the various chemical compounds produced by the plants , including glucosinolate , myrosinase , and isothiocyanate . They are sometimes grown as companion plants and suffer from few pests and diseases . They germinate quickly and grow rapidly , smaller varieties being ready for consumption within a month , while larger daikon varieties take several months . Another use of radish is as cover or catch crop in winter or as a forage crop . Some radishes are grown for their seeds ; daikon , for instance , may be grown for oil production . Others are used for sprouting and both roots and leaves are s</t>
+          <t>Get It Right ( Glee cast song ) = " Get It Right " is a song performed by the cast of American television series Glee , taken from their sixth soundtrack album , Glee : The Music , Volume 5 . It is sung by Lea Michele who portrays the series ' lead character , Rachel Berry . The song was written by the series ' music producer Adam Anders , who created the song with his wife Nikki Hassman , and writing partner Peer Åström . Anders and company wrote the song specifically for Michele , and based the lyrics on the storyline of Rachel . The song was released with a number of Glee songs on the iTunes Store on March 15 , 2011 . Musically , " Get It Right " is a piano-driven pop ballad , with mild country influences . According to MTV 's Aly Semigran , the song has similarities to Britney Spears ' Everytime " ( 2004 ) . While critics praised Michele 's vocals in the song , they were not as receptive to the song itself with it being coined as " dull " and " boring . " The lyrics of the song rev</t>
         </is>
       </c>
     </row>
@@ -1456,32 +1456,32 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>['persian', 'army', 'byzantine', 'athens', 'greeks', 'greece', 'battle', 'alexander', 'greek', 'siege', 'muslim', 'cavalry', 'byzantines', 'arab', 'ottoman']</t>
+          <t>['bach', 'poem', 'poems', 'shakespeare', 'poet', 'poetry', 'movement', 'ode', 'movements', 'soprano', 'text', 'alto', 'aria', 'stanza', 'narrator']</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Battle of Vaslui = The Battle of Vaslui ( also referred to as the Battle of Podul Înalt or the Battle of Racova ) was fought on January 10 , 1475 , between Stephen III of Moldavia and the Ottoman governor of Rumelia , Hadım Suleiman Pasha . The battle took place at Podul Înalt ( the High Bridge ) , near the town of Vaslui , in Moldavia ( now part of eastern Romania ) . The Ottoman troops numbered up to 120,000 , facing about 40,000 Moldavian troops , plus smaller numbers of allied and mercenary troops . Stephen inflicted a decisive defeat on the Ottomans , described as " the greatest ever secured by the Cross against Islam , " with casualties , according to Venetian and Polish records , reaching beyond 40,000 on the Ottoman side . Mara Brankovic ( Mara Hatun ) , the former younger wife of Murad II , told a Venetian envoy that the invasion had been worst ever defeat for the Ottomans . Stephen was later awarded the title " Athleta Christi " ( Champion of Christ ) by Pope Sixtus IV , who </t>
+          <t xml:space="preserve">Der Herr ist mein getreuer Hirt , BWV 112 = Der Herr ist mein getreuer Hirt ( The Lord is my faithful Shepherd ) , BWV 112 , is a cantata by Johann Sebastian Bach , a church cantata for the second Sunday after Easter . Bach composed the chorale cantata in Leipzig and first performed it on 8 April 1731 . It is based on the hymn by Wolfgang Meuslin , a paraphrase of Psalm 23 written in 1530 , sung to a melody by Nikolaus Decius . Bach , the Thomaskantor in Leipzig from May 1723 , composed this cantata to complete his second cantata cycle of chorale cantatas , begun in 1724 . He used the lyrics of the hymn unchanged , which reflect the psalm and Jesus as the Good Shepherd . Bach structured the work in five movements . The outer choral movements are a chorale fantasia and a four-part closing chorale , both on the hymn tune . Bach set the inner stanzas as aria – recitative – aria , with music unrelated to the hymn tune . He scored the cantata for four vocal soloists , a four-part choir and </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Battle of Krasos = The Battle of Krasos was a battle in the Arab – Byzantine Wars that took place in August 804 , between the Byzantines under Emperor Nikephoros I ( r . 802 – 811 ) and an Abbasid army under Ibrahim ibn Jibril . Nikephoros ' accession in 802 resulted in a resumption of warfare between Byzantium and the Abbasid Caliphate . In late summer 804 , the Abbasids had invaded Byzantine Asia Minor for one of their customary raids , and Nikephoros set out to meet them . He was surprised , however , at Krasos and heavily defeated , barely escaping with his own life . A truce and prisoner exchange were afterwards arranged . Despite his defeat , and a massive Abbasid invasion the next year , Nikephoros persevered until troubles in the eastern provinces of the Caliphate forced the Abbasids to conclude a peace . = = Background = = The deposition of Empress Irene of Athens ( r . 797 – 802 ) , in October 802 , and subsequent accession of Nikephoros I signalled a more violent phase in th</t>
+          <t>Lobe den Herrn , meine Seele , BWV 143 = Lobe den Herrn , meine Seele ( Praise the Lord , my soul ) , BWV 143 , is an early cantata by Johann Sebastian Bach . It is not known if he composed the cantata for New Year 's Day in Mühlhausen or Weimar , as the date of composition is unclear . An unknown librettist drew mainly from Psalm 146 and from Jakob Ebert 's hymn " Du Friedefürst , Herr Jesu Christ " to develop seven movements , supplying only two of the movements himself . The text assembly is similar to Bach 's early cantatas . Bach 's authorship is doubted because the cantata has several features unusual for Bach 's later cantatas : it is the only Bach cantata to combine three corni da caccia with timpani . The cantata is in seven movements which combine the three major text sources : psalm , hymn and contemporary poetry . The opening chorus is based on a psalm verse , followed by the first hymn stanza and another psalm verse as a recitative . An aria on poetry is followed by a thir</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Siege of Tyana = A Siege of Tyana was carried out by the Umayyad Caliphate in 707 – 708 / 708 – 709 in retaliation for a heavy defeat of an Umayyad army under Maimun the Mardaite by the Byzantine Empire in c . 706 . The Arab army invaded Byzantine territory and laid siege to the city in summer 707 or 708 . In fact virtually each of the extant Greek , Arabic and Syriac parallel sources has in this respect a different date . Tyana initially withstood the siege with success , and the Arab army faced great hardship during the ensuing winter . Emperor Justinian II sent a relief army in the next spring , but the Umayyads defeated them , whereupon the inhabitants of the city were forced to surrender . Despite the agreement of terms , the city was plundered and largely destroyed , and according to Byzantine sources its people were made captive and deported , leaving the city deserted . = = Background = = In 692 / 693 , the Byzantine emperor Justinian II ( reigned 685 – 695 and 705 – 711 ) and </t>
+          <t>Ach Gott , wie manches Herzeleid , BWV 3 = Ach Gott , wie manches Herzeleid ( Oh God , how much heartache ) , BWV 3 , is a church cantata by Johann Sebastian Bach . He composed the chorale cantata in Leipzig for the Second Sunday after Epiphany and first performed it on 14 January 1725 . It is based on the hymn published by Martin Moller in 1587 . Bach composed the cantata in his second year as Thomaskantor in Leipzig as part of cantata cycle of chorale cantatas , for the second Sunday after Epiphany . The work is based on a hymn without evident connection to the prescribed readings . It is a meditation on Jesus as a comforter in distress , based on a medieval model . An unknown librettist reworked the ideas of the 18 stanzas in six movements , retaining the words of stanzas 1 , 2 and 18 as movements 1 , 2 and 6 . Similarly , Bach retained the choral melody in three movements , set as a chorale fantasia in the opening chorus with the bass singing the cantus firmus , as a four-part sett</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Battle of Bathys Ryax = The Battle of Bathys Ryax was fought in 872 or 878 between the Byzantine Empire and the Paulicians . The Paulicians were a Christian sect which — persecuted by the Byzantine state — had established a separate principality at Tephrike on Byzantium 's eastern border and collaborated with the Muslim emirates of the Thughur , the Abbasid Caliphate 's borderlands , against the Empire . The battle was a decisive Byzantine victory , resulting in the rout of the Paulician army and the death of its leader , Chrysocheir . This event destroyed the power of the Paulician state and removed a major threat to Byzantium , heralding the fall of Tephrike itself and the annexation of the Paulician principality shortly after . = = Background = = The Paulicians were a Christian sect whose precise origins and beliefs are somewhat obscure : Byzantine sources portray them as dualists , while Armenian sources maintain that they were an adoptionist sect . The Paulicians were fiercely ico</t>
+          <t>Unser Mund sei voll Lachens , BWV 110 = Unser Mund sei voll Lachens ( May our mouth be full of laughter ) , BWV 110 , is a church cantata by Johann Sebastian Bach . He composed the Christmas cantata in Leipzig for Christmas Day and first performed it on 25 December 1725 . Bach composed the cantata in his third year as Thomaskantor in Leipzig . He used a text by Georg Christian Lehms , which was published already in 1711 . The text has no recitatives alternating with arias , but instead three biblical quotations , opening with verses from Psalm 26 , then a verse from the Book of Jeremiah about God 's greatness , and finally the angels ' song from the Nativity according to the Gospel of Luke . The closing chorale is taken from Caspar Füger 's " Wir Christenleut " . Bach scored the work festively for four vocal soloists , a four-part choir and a Baroque instrumental ensemble of trumpets and timpani , transverse flutes , different kinds of oboe , strings and basso continuo including bassoo</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Battle of Torvioll = The Battle of Torvioll , also known as the Battle of Lower Dibra , was fought on 29 June 1444 on the Plain of Torvioll , in what is modern-day Albania . Skanderbeg was an Ottoman Albanian captain who decided to go back to his native land and take the reins of a new Albanian rebellion . He , along with 300 other Albanians fighting at the Battle of Niš , deserted the Ottoman army to head towards Krujë , which fell quickly through a subversion . He then formed the League of Lezhë , a confederation of Albanian princes united in war against the Ottoman Empire . Murad II , realizing the threat , sent one of his most experienced captains , Ali Pasha , to crush the rebellion with a force of 25,000 men . Skanderbeg expected a reaction so he moved with 15,000 of his own men to defeat Ali Pasha 's army . The two met in the Plain of Torvioll where they camped opposite of each other . The following day , 29 June , Ali came out of his camp and saw that Skanderbeg had positioned </t>
+          <t>Nach dir , Herr , verlanget mich , BWV 150 = Nach dir , Herr , verlanget mich ( For Thee , O Lord , I long ) , BWV 150 , is an early church cantata by Johann Sebastian Bach composed for an unknown occasion . It is unique among Bach 's cantatas in its sparse orchestration and in the independence and prominence of the chorus , which is featured in four out of seven movements . The text alternates verses from Psalm 25 and poetry by an unknown librettist . Bach scored the work for four vocal parts and a small Baroque instrumental ensemble of two violins , bassoon and basso continuo . Many scholars think that it may be the earliest extant cantata by Bach , possibly composed in Arnstadt in 1707 . = = History and text = = Bach 's original score is lost . The music survives in a copy made by C F Penzel , one of Bach 's last pupils , after the composer 's death . Although the date of composition is not known , this is one of Bach 's earliest surviving cantatas . Sources differ as to when and wh</t>
         </is>
       </c>
     </row>
@@ -1491,32 +1491,32 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>['bach', 'text', 'movements', 'movement', 'soprano', 'gospel', 'jesus', 'hebrew', 'aria', 'alto', 'manuscripts', 'leipzig', 'tenor', 'hymn', 'matthew']</t>
+          <t>['wickets', 'innings', 'test', 'cricket', 'wicket', 'runs', 'matches', 'australia', 'england', 'scored', 'bowling', 'match', 'bowled', 'overs', 'miller']</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Gottes Zeit ist die allerbeste Zeit , BWV 106 = Gottes Zeit ist die allerbeste Zeit ( God 's time is the very best time ) , BWV 106 , also known as Actus tragicus , is an early sacred cantata composed by Johann Sebastian Bach in Mühlhausen , intended for a funeral . The earliest source for the composition is a copied manuscript dated 1768 , therefore the date of the composition is not certain . Research leads to a funeral of a former mayor of Mühlhausen on 16 September 1708 . The text is a carefully compiled juxtaposition of biblical texts , three quotations from the Old Testament and four from the New Testament , combined with funeral hymns , of which two are sung and one is quoted instrumentally , and some additions by an anonymous author . Bach scored the work for four vocal parts and a small ensemble of Baroque instruments , two recorders , two violas da gamba and continuo . The work is opened by an instrumental Sonatina , followed by through-composed sections which have been assig</t>
+          <t xml:space="preserve">Munir Malik = Munir Malik ( Urdu : منيرملک ; 10 July 1934 – 30 November 2012 ) was a Pakistani cricketer who played three Tests for Pakistan between 1959 and 1962 . A right-arm fast-medium bowler , he took nine wickets in Test cricket at an average of 39.77 , including a five-wicket haul against England . During his first-class career , he took 197 wickets at the average of 21.75 . = = First-class career = = Malik played 49 first-class matches for Karachi , Punjab , Rawalpindi and Services teams during 1956 – 66 . During his first-class career , he achieved five or more wickets in an innings on fourteen occasions , and ten or more wickets in a match four times . Malik made his first-class debut for Punjab B during the Quaid-e-Azam Trophy , against Bahawalpur in 1956 – 57 . He finished the season taking 13 wickets at an average of 8.30 . His 5 wickets for 19 runs for Punjab B , against Punjab , was his best performance in the season . Malik played three matches during 1957 – 58 and his </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Was willst du dich betrüben , BWV 107 = Was willst du dich betrüben ( Why would you grieve ) , BWV 107 , is a church cantata by Johann Sebastian Bach . It was composed in Leipzig for the seventh Sunday after Trinity and first performed on 23 July 1724 . The chorale cantata is based on the words of Johann Heermann 's hymn in seven stanzas " Was willst du dich betrüben " ( 1630 ) . Bach structured the cantata , the seventh work in his chorale cantata cycle , in seven movements : two framing choral movements , a recitative and an unusual sequence of four bipartite arias . He scored the work for three vocal soloists , a four-part choir , and a Baroque chamber ensemble of a horn to reinforce the hymn tune in the outer movements , two transverse flutes , two oboes d 'amore , strings and continuo . It is the only known work from his chorale cantata cycle that kept the original words unchanged . = = History and words = = Bach composed the chorale cantata in Leipzig for the Seventh Sunday after</t>
+          <t>Alimuddin ( cricketer ) = Alimuddin ( Urdu : علیم الدین ; 15 December 1930 – 12 July 2012 ) was a Pakistani cricketer who played 25 Tests for Pakistan between 1954 and 1962 . A fast-scoring , right-handed opening batsman and occasional right-arm leg break bowler , he was the youngest player ever to appear in first-class cricket , aged 12 years and 73 days . In international cricket , he scored 1,091 runs at the average of 25.37 , including two centuries and seven fifties . In 1954 , he was a member of the Pakistani squad which toured England and recorded Pakistan 's first Test match win . Former Pakistani captain Mushtaq Mohammad said about him that he was " a thorough gentleman as well as a great cricketer for Pakistan " . = = First-class career = = During his career Alimuddin played 140 first-class matches and scored 7,275 runs , with the average of 32.77 , including 14 centuries and 38 fifties ; he also took 40 wickets . Critics considered him to be an excellent fielder . He made hi</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Die Himmel erzählen die Ehre Gottes , BWV 76 = Die Himmel erzählen die Ehre Gottes ( English : The heavens are telling the glory of God ) , BWV 76 , is a cantata by Johann Sebastian Bach . He composed the church cantata in Leipzig for the second Sunday after Trinity within the liturgical year and first performed it on 6 June 1723 . Bach composed the cantata at a decisive turning point in his career . Moving from posts in the service of churches and courts to the town of Leipzig on the first Sunday after Trinity , 30 May 1723 , he began the project of composing a new cantata for every occasion of the liturgical year . He began his first annual cycle of cantatas ambitiously with Die Elenden sollen essen , BWV 75 , in an unusual layout of 14 movements in two symmetrical parts , to be performed before and after the sermon . Die Himmel erzählen die Ehre Gottes has the same structure . The unknown poet begins his text with a quotation from Psalm 19 and refers to both prescribed readings from</t>
+          <t>1889 – 90 Currie Cup = The 1889 – 90 Currie Cup was the inaugural edition of the Currie Cup , the premier first-class cricket tournament in South Africa . The 1889 – 90 competition involved just two teams , Transvaal and Kimberley . The two sides played a single , three-day match , which was won by Transvaal by six wickets . Both sides made low scores in their first innings ; Kimberley , who had opted to bat first , were dismissed for 98 runs , and in their reply Transvaal reached 117 , a lead of just 19 runs . In the second innings , they both fared better ; a century from Bernard Tancred helped Kimberley to a total of 235 , but Transvaal reached their total in 38 five-ball overs , helped by a century from Monty Bowden . = = Background = = First-class cricket was first played in South Africa in the previous 1888 – 89 season , when Robert Warton managed a side which toured the country , playing against representative teams from each of the provinces , and two matches against South Afri</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Outrageous Betrayal = Outrageous Betrayal : The Dark Journey of Werner Erhard from est to Exile is a non-fiction book written by freelance journalist Steven Pressman and first published in 1993 by St. Martin 's Press . The book gives an account of Werner H. Erhard 's early life as Jack Rosenberg , his exploration of various forms of self-improvement techniques , and his foundation of Erhard Seminars Training " est " and later of Werner Erhard and Associates and of the Est successor course , " The Forum " . Pressman details the rapid financial success Erhard had with these companies , as well as controversies relating to litigation involving former participants in his courses . The work concludes by going over the impact of a March 3 , 1991 60 Minutes broadcast on CBS where members of Erhard 's family made allegations against him , and Erhard 's decision to leave the United States . Representatives of Werner Erhard and of Landmark Education , the successor company to The Forum , regarde</t>
+          <t>Maurice Fernandes = Maurius Pacheco " Maurice " Fernandes , ( 12 August 1897 – 8 May 1981 ) was a West Indian Test cricketer who played first-class cricket for British Guiana between 1922 and 1932 . He made two Test appearances for the West Indies , in 1928 and 1930 . Fernandes played as a right-handed top-order batsman and occasional wicket-keeper . He scored 2,087 first-class runs in 46 appearances at an average of 28.20 . Graduating from playing at the Demerara Cricket Club as a teenager , to play for British Guiana in 1922 , Fernandes took part in tours of England in 1923 and 1928 . He made his debut Test appearance during the 1928 tour , playing in the first of the three Tests . His next , and final Test match came during the English tour of the West Indies in 1930 . At the time , the West Indies had a practice of picking their captain from the colony that the match was being played in , and Fernandes was granted the honour for the match in British Guiana . The West Indies won the</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Threni ( Stravinsky ) = Threni : id est Lamentationes Jeremiae Prophetae , usually referred to simply as Threni , is a musical setting by Igor Stravinsky of verses from the Book of Lamentations in the Latin of the Vulgate , for solo singers , chorus and orchestra . It is important among Stravinsky 's compositions as his first and longest completely dodecaphonic work , but is not often performed . It has been described as " austere " but also as a " culminating point " in his career as an artist , " important both spiritually and stylistically " and " the most ambitious and structurally the most complex " of all his religious compositions , and even " among Stravinsky 's greatest works " . Stravinsky composed Threni in 1957 – 1958 for the Venice Biennale , and it was first performed there in September 1958 . A performance in Paris two months later was a disaster , attributed to inadequate performers and insufficient rehearsals . It led to mutual recriminations between Stravinsky , Pierr</t>
+          <t>Haseeb Ahsan = Haseeb Ahsan ( Urdu : حسيب احسن ; 15 July 1939 – 8 March 2013 ) was a Pakistani cricketer who played 12 Tests for Pakistan between 1958 and 1962 . He was born in Peshawar , Khyber Pakhtunkhwa . A right-arm off spinner , he took 27 wickets in Test cricket at an average of 49.25 , including two five-wicket hauls . During his first-class career , he played 49 matches and took 142 wickets at an average of 27.71 . Former Pakistan cricketer Waqar Hasan said about him that he " was a fighter to the core and served Pakistan cricket with honour and dignity . " Ahsan had conflicts with former Pakistan captain Javed Burki . A controversy regarding his bowling action resulted in the premature end of his international career when he was only 23 . He worked as chief selector , team manager of Pakistan , and member of the 1987 Cricket World Cup organising committee . He died in Karachi on 8 March 2013 , aged 73 . = = Cricketing career = = Ahsan played 49 first-class matches for Pakista</t>
         </is>
       </c>
     </row>
@@ -1526,32 +1526,32 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>['coaster', 'ride', 'roller', 'riders', 'train', 'coasters', 'flags', 'park', 'lift', 'cedar', 'drop', 'brake', 'trains', 'steel', 'hill']</t>
+          <t>['hitler', 'holocaust', 'physics', 'jews', 'nazi', 'nuclear', 'germany', 'manhattan_project', 'atomic', 'berlin', 'jewish', 'nobel', 'german', 'munich', 'research']</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>BuzzSaw ( roller coaster ) = BuzzSaw is a Maurer Söhne SkyLoop roller coaster located within the Town of Gold Rush section of the Dreamworld amusement park on the Gold Coast of Australia . The ride began operation on 17 September 2011 as part of Dreamworld 's 30th birthday celebrations . BuzzSaw is one of Dreamworld 's " Big 9 " thrill rides and has a track length of 150 metres ( 490 ft ) . The steel ride consists of a single train which holds 12 riders and lasts approximately 50 seconds . BuzzSaw features the tallest inversion in the Southern Hemisphere and is currently the second-highest inversion of its type in the world . The ride is themed around a series of unexplainable occurrences in the Town of Gold Rush which date back to the late 1800s . The setting is based on encounters with the ghost of one Jack Darke , who was killed by a buzz saw at a sawmill built after the gold rush ended . = = History = = In December 2009 , a Gold Coast Bulletin report detailed a variety of new attra</t>
+          <t>Henry DeWolf Smyth = Henry DeWolf " Harry " Smyth ( / ˈhɛnri dəˈwʊlf ˈsmaɪθ / ; May 1 , 1898 – September 11 , 1986 ) was an American physicist , diplomat , and bureaucrat . He played a number of key roles in the early development of nuclear energy , as a participant in the Manhattan Project , a member of the U.S. Atomic Energy Commission ( AEC ) , and U.S. ambassador to the International Atomic Energy Agency ( IAEA ) . Educated at Princeton University and the University of Cambridge , he was a faculty member in Princeton 's Department of Physics from 1924 to 1966 . He chaired the department from 1935 to 1949 . His early research was on the ionization of gases , but his interests shifted toward nuclear physics beginning in the mid-1930s . During World War II he was a member of the National Defense Research Committee 's Uranium Section and a consultant on the Manhattan Project . He wrote the Manhattan Project 's first public official history , which came to be known as the Smyth Report .</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>York Community Stadium = The York Community Stadium is a proposed multi-purpose stadium in Huntington , York , England . It will be owned by City of York Council , and be shared by York City Football Club and York City Knights Rugby League Football Club . The projected capacity of the all-seater stadium is 8,005 . The move to a new stadium was necessitated by the terms of the loan York City secured from the Football Stadia Improvement Fund to purchase their Bootham Crescent ground . Planning permission for the current design , put forward by Greenwich Leisure Ltd , was granted in March 2015 . Construction is expected to begin in the summer of 2016 , for completion in early 2018 . In addition to the stadium , the site will house a leisure complex and a community hub . = = Background = = York City F.C. ceased ownership of their Bootham Crescent ground in the summer of 1999 , after the club 's real property assets were transferred to a holding company called Bootham Crescent Holdings . Th</t>
+          <t xml:space="preserve">George T. Reynolds = George Thomas Reynolds ( May 27 , 1917 – April 19 , 2005 ) was an American physicist best known for his accomplishments in particle physics , biophysics and environmental science . Reynolds received his PhD in physics from Princeton in 1943 , writing a thesis of the propagation of shock waves . During World War II , he joined the United States Navy , and served with the Manhattan Project . He worked with George Kistiakowsky on the design of the explosive lenses required by the implosion-type nuclear weapon . He was involved in the investigation of the Port Chicago disaster , served with Project Alberta on Tinian , and was part of the Manhattan Project team sent to Hiroshima and Nagasaki to inspect the bomb damage . After the war , Reynolds began a long academic career at Princeton University . He was director of the Princeton 's High Energy Physics Program from 1948 until 1970 , when he became the first director of Princeton 's new Center for Environmental Studies </t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>The Wiggles Pty Ltd = The Wiggles Pty Ltd is the business created by the founders of the Australian children 's music group The Wiggles . The group was protective of their brand , and adopted many of the same business practices as The Cockroaches , the former band of Anthony Field and Jeff Fatt , two of their founding members . They remained as independent as possible , and retained full creative control and ownership of every aspect of their business . As Field stated , The Wiggles Pty Ltd was " not your regular ' corporate culture ' . " The group made decisions by consensus and made business decisions based upon their experience as performers and their knowledge of early childhood education . They did not tour with a large troupe of dancers , cast , and crew until the late 1990s , and had high expectations regarding the behaviour and attitude of everyone associated with the group . They made careful decisions regarding their endorsements of toys and other products , and avoided over-</t>
+          <t xml:space="preserve">Julius Schreck = Julius Schreck ( 13 July 1898 – 16 May 1936 ) was a senior Nazi official and close confidant of Adolf Hitler . Born on 13 July 1898 in Munich , Schreck served in World War I and shortly afterwards joined right-wing paramilitary units . He joined the Nazi Party in 1920 and developed a close friendship with Adolf Hitler . Schreck was a founding member of the Sturmabteilung ( " Storm Department " ; SA ) and was active in its development . Later in 1925 , he became the first leader of the Schutzstaffel ( " Protection Squadron " ; SS ) . He then served for a time as a chauffeur for Hitler . Schreck developed meningitis in 1936 and died on 16 May . Hitler gave him a state funeral which was attended by several members of the Nazi elite with Hitler delivering the eulogy . = = Early life = = Julius Schreck was born on 13 July 1898 in Munich , a largely Catholic city in Bavaria . He served in the German Army during World War I. After the war ended in November 1918 , he became a </t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Pancake machine = A pancake machine is an electrically-powered machine that automatically produces cooked pancakes . It is believed that the earliest known pancake machine was invented in the United States in 1928 . Several types of pancake machines exist that perform in various manners , for both commercial and home use . Some are fully automatic in operation , while others are semi-automatic . Some companies mass-produce pancake machines , and some have been homemade . The Happy Egg Company constructed a novelty pancake machine in 2013 in commemoration of Pancake Day in the United Kingdom . = = History = = In 1928 , a man in Portland , Oregon , invented an electric pancake machine that operated by the process of batter being dropped onto a revolving heated flattop grill from a storage cylinder atop the grill . The grill was heated using electricity . The amount of batter dropped was controlled by using controlled amounts of compressed air , which pushed batter out of the storage cyli</t>
+          <t>Robert Brode = Robert Bigham Brode ( June 12 , 1900 – February 19 , 1986 ) was an American physicist , who during World War II led the group at the Manhattan Project 's Los Alamos laboratory that developed the fuses used in the atomic bombing of Hiroshima and Nagasaki . A graduate of the California Institute of Technology , where he earned his doctorate in 1924 , Brode attended Oxford University on a Rhodes Scholarship and the University of Göttingen on a National Research Council Fellowship . During World War II , Brode worked at Applied Physics Laboratory at Johns Hopkins University , where he helped develop the proximity fuse , and then as a group leader at the Los Alamos Laboratory . In 1950 he was one of a dozen prominent scientists who petitioned President Harry S. Truman to declare that the United States would never be the first to use the hydrogen bomb . After the war , Brode returned to teaching at Berkeley . Between 1930 and 1957 he supervised 37 graduate students . In additi</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alisia Dragoon = Alisia Dragoon ( Japanese : アリシアドラグーン , Hepburn : Arishia Doragūn ) is a 1992 platform game developed by Game Arts for the Sega Genesis . The player controls Alisia , a young woman who is on a quest to avenge her father and save the world . She can fire lightning from her hands and summon four faithful beasts to aid her . The game was released outside of Japan by Sega , who packaged the heroine as a rugged gladiator instead of the dainty-looking sorceress she originally was . Due to the lack of publicity for the game internationally , Alisia Dragoon did not make a big impact on the video game market , despite the critical acclaim it received . = = Gameplay = = In Alisia Dragoon , the player controls the female protagonist , Alisia , in her quest to save the world by defeating the evil forces that killed her father . The game consists of eight levels of side-scrolling environments ; Alisia has to jump across gaps and kill the enemies that stand in her way . Each stage i</t>
+          <t>Sexuality of Adolf Hitler = Adolf Hitler 's sexuality has long been a matter of historical and scholarly debate . There is evidence that he had romantic encounters with a number of women during his lifetime , as well as evidence of his antipathy to homosexuality , and no evidence of homosexual encounters . His name has been linked to a number of possible female lovers , two of whom committed suicide . Another died of complications eight years after a suicide attempt , and one made a failed suicide attempt . Hitler created a public image as a celibate man without a domestic life , dedicated entirely to his political mission and the nation . His relationship with Eva Braun , which lasted nearly 14 years , was hidden from the public and all but his inner circle . Braun biographer Heike Görtemaker notes that the couple enjoyed a normal sex life . Hitler and Braun married in late April 1945 , less than 40 hours before committing suicide together . Two wartime reports by the Allies attempted</t>
         </is>
       </c>
     </row>
@@ -1561,32 +1561,32 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>['formula', 'function', 'matrix', 'linear', 'functions', 'space', 'constant', 'defined', 'language', 'filter', 'frequency', 'mass', 'derivative', 'kilogram', 'units']</t>
+          <t>['ride', 'coaster', 'roller', 'riders', 'train', 'flags', 'coasters', 'park', 'cedar', 'lift', 'attraction', 'drop', 'queue', 'trains', 'rides']</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Mayer – Vietoris sequence = In mathematics , particularly algebraic topology and homology theory , the Mayer – Vietoris sequence is an algebraic tool to help compute algebraic invariants of topological spaces , known as their homology and cohomology groups . The result is due to two Austrian mathematicians , Walther Mayer and Leopold Vietoris . The method consists of splitting a space into subspaces , for which the homology or cohomology groups may be easier to compute . The sequence relates the ( co ) homology groups of the space to the ( co ) homology groups of the subspaces . It is a natural long exact sequence , whose entries are the ( co ) homology groups of the whole space , the direct sum of the ( co ) homology groups of the subspaces , and the ( co ) homology groups of the intersection of the subspaces . The Mayer – Vietoris sequence holds for a variety of cohomology and homology theories , including singular homology and singular cohomology . In general , the sequence holds fo</t>
+          <t xml:space="preserve">Floorless Coaster = A Floorless Coaster is a type of steel roller coaster manufactured by Bolliger &amp; Mabillard where riders sit with no floor underneath them allowing their feet to swing freely just above the track . Development of the Floorless Coaster began between 1995 and 1996 with Medusa ( now known as Bizarro ) at Six Flags Great Adventure opening on April 2 , 1999 , making it the world 's first Floorless Coaster . Floorless Coasters also tend to have 3 to 7 inversions incorporated in the layout of the coaster . Recently , Bolliger &amp; Mabillard have used floorless trains on their Dive Coasters , such as Griffon and SheiKra . Though they contain floorless trains , the coasters are still not considered Floorless Coasters as B &amp; M classifies them as another model . Also , Maurer Söhne have designed their own version of the Floorless Coaster , a variant of their X-Car called X-Car Floorless , but currently do not have any installations . = = History = = According to Walter Bolliger , </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Curve-shortening flow = In mathematics , the curve-shortening flow is a process that modifies a smooth curve in the Euclidean plane by moving its points perpendicularly to the curve at a speed proportional to the curvature . The curve-shortening flow is an example of a geometric flow , and is the one-dimensional case of the mean curvature flow . Other names for the same process include the Euclidean shortening flow , geometric heat flow , and arc length evolution . As the points of any smooth simple closed curve move in this way , the curve remains simple and smooth . It loses area at a constant rate , and its perimeter decreases as quickly as possible for any continuous curve evolution . If the curve is non-convex , its total absolute curvature decreases monotonically , until it becomes convex . Once convex , the isoperimetric ratio of the curve decreases as the curve converges to a circular shape , before collapsing to a single point of singularity . If two disjoint simple smooth clo</t>
+          <t>Wing Coaster = A Wing Coaster is a type of steel roller coaster manufactured by Bolliger &amp; Mabillard where pairs of riders sit on either side of a roller coaster track in which nothing is above or below the riders . Development of the Wing Coaster began between 2007 and 2008 leading to the opening of Raptor at Gardaland , the world 's first Wing Coaster , on 1 April 2011 . There are currently eight Wing Coasters operating worldwide . = = History = = According to Walter Bolliger , development of the Wing Coaster began between 2007 and 2008 . In 2010 , Bolliger &amp; Mabillard announced a prototype Wing Coaster design that would be built at Merlin Entertainments ' Gardaland . It became known as Raptor , which opened on 1 April 2011 . A year later , Merlin Entertainments opened a second Wing Coaster on 15 March 2012 , called The Swarm at Thorpe Park . In the United States , the first Wing Coaster to be announced was X-Flight , which opened at Six Flags Great America on 16 May 2012 . Dollywood</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Znám 's problem = In number theory , Znám 's problem asks which sets of k integers have the property that each integer in the set is a proper divisor of the product of the other integers in the set , plus 1 . Znám 's problem is named after the Slovak mathematician Štefan Znám , who suggested it in 1972 , although other mathematicians had considered similar problems around the same time . One closely related problem drops the assumption of properness of the divisor , and will be called the improper Znám problem hereafter . One solution to the improper Znám problem is easily provided for any k : the first k terms of Sylvester 's sequence have the required property . Sun ( 1983 ) showed that there is at least one solution to the ( proper ) Znám problem for each k ≥ 5 . Sun 's solution is based on a recurrence similar to that for Sylvester 's sequence , but with a different set of initial values . The Znám problem is closely related to Egyptian fractions . It is known that there are only f</t>
+          <t>Dive Coaster = The Dive Coaster is a steel roller coaster manufactured by Bolliger &amp; Mabillard where riders experience a moment of free-falling with at least one 90-degree drop . Unlike other roller coasters where the lift hill takes the train directly to the first drop , a Dive Coaster lift hill leads to a flat section of track followed by a holding brake which stops the train just as it enters the vertical drop . After a few seconds , the train is released into the drop . Development of the Dive Coaster began between 1994 and 1995 with Oblivion at Alton Towers opening on March 14 , 1998 , making it the world 's first Dive Coaster . The trains for this type of coaster are relatively short consisting of two to three cars . Bolliger &amp; Mabillard have recently begun to also use floorless trains on this model to enhance the experience . As of May 2016 , ten Dive Coasters have been built , with the newest being Valravn at Cedar Point . = = History = = According to Walter Bolliger , developm</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Addition = Addition ( often signified by the plus symbol " + " ) is one of the four basic operations of arithmetic , with the others being subtraction , multiplication and division . The addition of two whole numbers is the total amount of those quantities combined . For example , in the picture on the right , there is a combination of three apples and two apples together , making a total of five apples . This observation is equivalent to the mathematical expression " 3 + 2 = 5 " i.e. , " 3 add 2 is equal to 5 " . Besides counting fruits , addition can also represent combining other physical objects . Using systematic generalizations , addition can also be defined on more abstract quantities , such as integers , rational numbers , real numbers and complex numbers and other abstract objects such as vectors and matrices . In arithmetic , rules for addition involving fractions and negative numbers have been devised amongst others . In algebra , addition is studied more abstractly . Additi</t>
+          <t>Outlaw Run = Outlaw Run is a wooden roller coaster located at the Silver Dollar City amusement park in Branson , Missouri . The ride was the first wooden roller coaster manufactured by Rocky Mountain Construction and the first wooden roller coaster with multiple inversions , in which riders are turned upside-down and then back upright . The 2,937-foot-long ( 895 m ) ride features three inversions and a top speed of 68 miles per hour ( 109 km / h ) , making Outlaw Run the fourth-fastest wooden roller coaster in the world . The 162-foot-tall ( 49 m ) first drop of the ride is the second steepest in the world among wooden roller coasters , at 81 ° beyond horizontal . Planning for Outlaw Run began in 2009 , three years before its official announcement in August 2012 . Rocky Mountain Construction were contracted to manufacture the ride as their proposal best suited Silver Dollar City 's available space and budget . The ride 's track layout was designed by Alan Schilke . Outlaw Run opened to</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Negative resistance = In electronics , negative resistance ( NR ) is a property of some electrical circuits and devices in which an increase in voltage across the device 's terminals results in a decrease in electric current through it . This is in contrast to an ordinary resistor in which an increase of applied voltage causes a proportional increase in current due to Ohm 's law , resulting in a positive resistance . While a positive resistance consumes power from current passing through it , a negative resistance produces power . Under certain conditions it can increase the power of an electrical signal , amplifying it . Negative resistance is an uncommon property which occurs in a few nonlinear electronic components . In a nonlinear device , two types of resistance can be defined : ' static ' or ' absolute resistance ' , the ratio of voltage to current &lt;formula&gt; , and differential resistance , the ratio of a change in voltage to the resulting change in current &lt;formula&gt; . The term ne</t>
+          <t>Superman : Escape from Krypton = Superman : Escape from Krypton ( originally known as Superman : The Escape ) is a steel shuttle roller coaster located at Six Flags Magic Mountain in Valencia , California . When it opened in 1997 , it was the tallest roller coaster in the world , and its speed of 100 mph ( 160 km / h ) was tied for the fastest with Tower of Terror II , a similar roller coaster which opened two months earlier at Dreamworld in Australia . These two coasters were the first to utilize Linear Synchronous Motor ( LSM ) technology to propel vehicles to top speed . The park originally intended to open the ride in 1996 , but the opening was delayed because of several issues with the launch system . The ride was closed in late 2010 for refurbishment , and it emerged in 2011 as " Superman : Escape from Krypton " . The refurbished ride featured new trains which face backward , and it was painted with a new color scheme . As of 2013 , Superman : Escape from Krypton has the third-ta</t>
         </is>
       </c>
     </row>
@@ -1596,32 +1596,32 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>['amendment', 'constitution', 'singapore', 'law', 'court', 'courts', 'judicial', 'parliament', 'article', 'constitutional', 'justice', 'shall', 'clause', 'act', 'rights']</t>
+          <t>['chicken', 'cheese', 'fried', 'sandwich', 'wine', 'dishes', 'recipes', 'dish', 'cream', 'cuisine', 'cooking', 'food', 'ingredients', 'bacon', 'meat']</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kim Davis ( county clerk ) = Kimberly Jean Davis ( née Bailey ; born September 17 , 1965 ) is the county clerk for Rowan County , Kentucky who gained international attention in August 2015 when she defied a U.S. federal court order to issue marriage licenses to same-sex couples , following the June 26 , 2015 , U.S. Supreme Court decision in Obergefell v. Hodges . Kim Davis reacted to the decision by denying marriage licenses to all couples , saying she was acting " under God 's authority " . Her defiance led to her jail sentence , while both supporters and detractors hotly debated her stance in the national media . Marriage licenses in Rowan County are now being issued to all citizens as required by law . Davis was born in Jackson , Kentucky . By 1991 , Davis was serving as chief deputy clerk of Rowan County , reporting to her mother , the Rowan County clerk . Davis ' first three marriages ended in divorce in 1994 , 2006 , and 2008 ; she then remarried her second husband in 2009 . She </t>
+          <t>Beurre Maître d 'Hôtel = Beurre Maître d 'Hôtel , also referred to as Maître d 'Hôtel butter , is a type of compound butter ( French : " Beurre composé " ) of French origin , prepared with butter , parsley , lemon juice , salt and pepper . It is a savory butter that is used on meats such as steak ( including the chateaubriand sauce for chateaubriand steak ) , fish , vegetables and other foods . It may be used in place of a sauce , and can significantly enhance a dish 's flavor . Some variations with a sweet flavor exist . It is usually served cold as sliced disks on foods , and is sometimes served as a side condiment . = = Etymology = = The name of Beurre Maître d 'Hôtel is derived from the manner in which it was commonly prepared from scratch by a restaurant 's maître d 'hôtel at diners ' tables . It is also referred to as Maître d 'Hôtel butter . = = Preparation = = Beurre Maître d 'Hôtel is a savory butter prepared by mixing softened butter with very finely minced parsley , lemon ju</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Article 15 of the Constitution of Singapore = Article 15 of the Constitution of the Republic of Singapore guarantees freedom of religion in Singapore . Specifically , Article 15 ( 1 ) states : " Every person has the right to profess and practise his religion and to propagate it . " The terms profess , practise and propagate are not defined in the Constitution , but cases from Singapore and other jurisdictions may shed light on their meaning . The word profess in relation to a religion was defined in a 1964 Singapore case not involving the Constitution as meaning " to affirm , or declare one 's faith in or allegiance to " . A 2001 Malaysian decision suggested that the profession of religion does not encompass the renunciation of a religion or the profession of an irreligious viewpoint . As regards the word propagate , in 1977 the Supreme Court of India held that it confers on an individual the right to transmit or spread his or her religion by an exposition of its tenets , but not the r</t>
+          <t>Applesauce cake = Applesauce cake is a dessert cake prepared using apple sauce , flour and sugar as primary ingredients . Various spices are typically used , and it tends to be a moist cake . Applesauce cake prepared with chunky-style apple sauce may be less moist . Several additional ingredients may also be used in its preparation , and it is sometimes prepared and served as a coffee cake . The cake dates back to early colonial times in the United States . National Applesauce Cake Day occurs annually on June 6 in the U.S. = = History = = The preparation of applesauce cake dates back to early colonial times in the New England Colonies of the northeastern United States . From 1900 to the 1950s , recipes for applesauce cake frequently appeared in American cookbooks . In the United States , National Applesauce Cake Day occurs annually on June 6 . = = Ingredients and preparation = = Applesauce cake is a dessert cake prepared using apple sauce , flour and sugar as main ingredients . Store-b</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>History of slavery in Indiana = Slavery in Indiana occurred between the time of French rule during late seventeenth century and 1826 , with a few traces of slavery afterward . When the United States first forcibly removed the Native Americans from the region , slavery was accepted as a necessity to keep peace with the Indians and the French . When the Indiana Territory was established in 1800 , William Henry Harrison , a former slaveholder , was appointed governor and slavery continued to be tolerated through a series of laws enacted by the appointed legislature . Opposition against slavery began to organize in Indiana around 1805 , and in 1809 abolitionists took control of the territorial legislature and overturned many of the laws permitting retaining of slaves . By the time Indiana was granted statehood in 1816 , the abolitionists were in firm control and slavery was banned in the constitution . In 1820 , an Supreme Court of Indiana ruling in Polly v. Lasselle freed all the remainin</t>
+          <t>Avocado cake = Avocado cake is a cake prepared using avocado as a primary ingredient , together with other typical cake ingredients . The avocados may be mashed , and may be used as an ingredient in cake batter , in cake toppings and alone atop a cake . Cake variations include raw avocado cake , avocado brownies and avocado cheesecake . Raw , uncooked versions of avocado cake can be high in vitamin E and essential fatty acids , which are derived from avocado . Avocado-based cake toppings include avocado fool and avocado crazy . = = Overview = = Avocado is a main ingredient in avocado cake , along with other typical cake ingredients . Various varieties of avocados may be used . Avocado cake may have a subtle avocado flavor imbued in the dish . Mashed avocado may be used as an ingredient in the batter and in cake frostings and toppings . Sliced avocado may be used to top or garnish it , as may other ingredients such as the zest of citrus fruits . Additional ingredients used may include y</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Beriah Magoffin = Beriah Magoffin ( April 18 , 1815 – February 28 , 1885 ) was the 21st Governor of Kentucky , serving during the early part of the Civil War . Personally , Magoffin adhered to a states ' rights position , including the right of a state to secede from the Union , and he sympathized with the Confederate cause . Nevertheless , when the Kentucky General Assembly adopted a position of neutrality in the war , Magoffin ardently held to it , refusing calls for aid from both the Union and Confederate governments . In special elections held in June 1861 , Unionists captured nine of Kentucky 's ten congressional seats and obtained two-thirds majorities in both houses of the state legislature . Despite Magoffin 's strict adherence to the policy of neutrality , the Unionist legislature did not trust him and routinely overrode his vetoes . Unable to provide effective leadership due to a hostile legislature , Magoffin agreed to resign as governor in 1862 , provided he could choose hi</t>
+          <t>Crab dip = Crab dip , sometimes referred to as Maryland crab dip , is a thick , creamy dip that is typically prepared from cream cheese and lump crab meat . Other primary ingredients such as mayonnaise may be used . Various types of crab preparations , species and superfamilies are used , as are a variety of added ingredients . It is typically served hot , although cold versions also exist . Hot versions are typically baked or broiled . It is sometimes served as an appetizer . Accompaniments may include crackers and various breads . Some U.S. restaurants offer crab dip , commercially produced varieties exist , and some stadiums offer it as a part of their concessions . = = Ingredients = = Fresh , frozen or canned crab meat may be used in the preparation of crab dip . Different types of crab meat may be used , such as jumbo lump , lump backfin , leg and claw , among others . Various types of crab species and superfamilies are also used , such as blue crab , Dungeness crab and Alaska kin</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Legal system of Saudi Arabia = The legal system of Saudi Arabia is based on Sharia , Islamic law derived from the Qu 'ran and the Sunnah ( the traditions ) of the Islamic prophet Muhammad . The sources of Sharia also include Islamic scholarly consensus developed after Muhammad 's death . Its interpretation by judges in Saudi Arabia is influenced by the medieval ( Islamic Golden Age ) texts of the literalist Hanbali school of Islamic jurisprudence . Uniquely in the Muslim world , Sharia has been adopted by Saudi Arabia in an uncodified form . This , and the lack of judicial precedent , has resulted in considerable uncertainty in the scope and content of the country 's laws . The government therefore announced its intention to codify Sharia in 2010 , but this is yet to be implemented . Sharia has also been supplemented by regulations issued by royal decree covering modern issues such as intellectual property and corporate law . Nevertheless , Sharia remains the primary source of law , es</t>
+          <t>Clam dip = Clam dip is a dipping sauce and condiment prepared with clams , sour cream or cream cheese , and seasonings as primary ingredients . Various additional ingredients can be used . It is usually served chilled , although it is sometimes served hot or at room temperature . It is used as a dip for potato chips , crackers , bread , and crudités . After a recipe for the dip was presented during a popular U.S. radio show , canned clams in New York City sold out in 24 hours . Commercial varieties of clam dip are mass-produced by some companies and marketed to consumers in grocery stores and supermarkets . = = History = = In the early 1950s in the United States , the first televised recipe for clam dip appeared on the Kraft Music Hall show , a well-known and popular radio and television variety program that ran from 1933 to 1971 . After the recipe segment aired , canned clams in New York City sold out within 24 hours . The ingredients used in this recipe were minced , canned clams , c</t>
         </is>
       </c>
     </row>
@@ -1631,32 +1631,32 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>['management', 'twitter', 'investment', 'bank', 'billion', 'equity', 'watson', 'design', 'banking', 'company', 'users', 'firm', 'business', 'merger', 'assets']</t>
+          <t>['buenos_aires', 'soviet', 'argentina', 'argentine', 'revolution', 'cuban', 'dictator', 'drug', 'government', 'soviet_union', 'mafia', 'cuba', 'spanish', 'political', 'spain']</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dean Witter Reynolds = Dean Witter Reynolds was an American stock brokerage and securities firm catering to retail clients . Prior to its acquisition , it was among the largest retail firms in the securities industry with over 9,000 account executives ( ranking third in the US in 1996 ) and was among the largest members of the New York Stock Exchange . The company served over 3.2 million clients primarily in the U.S. Dean Witter provided debt and equity underwriting and brokerage as well as mutual funds and other saving and investment products for individual investors . The company 's asset management arm , Dean Witter InterCapital , with total assets of $ 90.0 billion prior to acquisition , was one of the largest asset management operations in the U.S. In 1997 , Dean Witter 's parent company Dean Witter , Discover , Inc . , which also owned Discover Card , merged with investment banking house Morgan Stanley to form Morgan Stanley Dean Witter . The combined firm later dropped the Dean </t>
+          <t>Last use of capital punishment in Spain = The last use of capital punishment in Spain took place on 27 September 1975 when two members of the armed Basque nationalist and separatist group ETA political-military and three members of the Revolutionary Antifascist Patriotic Front ( FRAP ) were shot dead by firing squads after having been convicted and sentenced to death by military tribunals for the murder of policemen and civil guards . Spain was Western Europe 's last dictatorship at this time and had been unpopular and internationally isolated in the post-war period due to its relations with Nazi Germany in the 1930s and the fact that the authoritarian Spanish leader , Francisco Franco , had come to power by overthrowing a democratically elected government . As a result , the executions resulted in substantial criticism of the Spanish government , both domestically and abroad . Reactions included street protests , attacks on Spanish embassies , international criticism of the Spanish go</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Water supply and sanitation in Colombia = This article was last updated on substance in August 2012 . However , sections of this article are older and may need to be updated . Feel free to update this article wherever needed . Water supply and sanitation in Colombia has been improved in many ways over the past decades . Between 1990 and 2010 , access to improved sanitation increased from 67 % to 82 % , but access to improved water source 's increased only slightly from 89 % to 94 % . In particular , coverage in rural areas lags behind . Furthermore , despite improvements , the quality of water and sanitation services remains inadequate . For example , only 73 % of those receiving public services receive water of potable quality and in 2006 only 25 % of the wastewater generated in the country underwent any kind of treatment . = = Overview = = A comprehensive sector policy , introduced in 1994 , aimed at increasing water and sanitation investments through targeted transfers to municipali</t>
+          <t xml:space="preserve">Ricardo Arias Calderón = Ricardo Arias Calderón ( born 4 May 1933 ) is a Panamanian politician who served as First Vice President from 1989 to 1992 . A Roman Catholic who studied at Yale and the Sorbonne , Arias returned to Panama in the 1960s to work for political reform . He went on to become the president of the Christian Democratic Party of Panama and a leading opponent of the military government of Manuel Noriega . In 1984 , he ran as a candidate for Second Vice President on the ticket of three-time former president Arnulfo Arias , but they were defeated by pro-Noriega candidate Nicolás Ardito Barletta . Following an annulled 1989 election and the US invasion of Panama later in the same year , Arias Calderón was sworn in as First Vice President of Panama under President Guillermo Endara . After growing tensions in the ruling coalition , Arias resigned his position on December 17 , 1992 , stating that the government had not done enough to help Panama 's people . He continued to be </t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Design management = Design management is a business discipline that uses project management , design , strategy , and supply chain techniques to control a creative process , support a culture of creativity , and build a structure and organization for design . The objective of design management is to develop and maintain a business environment in which an organization can achieve its strategic and mission goals through design , and by establishing and managing an efficient and effective system . Design management is a comprehensive activity at all levels of business ( operational to strategic ) , from the discovery phase to the execution phase . " Simply put , design management is the business side of design . Design management encompasses the ongoing processes , business decisions , and strategies that enable innovation and create effectively-designed products , services , communications , environments , and brands that enhance our quality of life and provide organizational success . "</t>
+          <t>Adolfo Rodríguez Saá = Adolfo Rodríguez Saá ( born July 25 , 1947 ) is an Argentine Peronist politician . Born in a family that was highly influential in the history of the San Luis Province , he became governor in 1983 , after the end of the National Reorganization Process military dictatorship . He remained governor up to 2001 , being re-elected in successive elections . President Fernando de la Rúa resigned in that year , amid the December 2001 riots , and the Congress appointed Rodríguez Saá as president of Argentina . In response to the 1998 – 2002 Argentine great depression , he declared the highest sovereign default in history and resigned days later amid civil unrest . The Congress appointed a new president , Eduardo Duhalde , who completed the term of office of De la Rúa . Rodríguez Saá ran for the 2003 and 2015 presidential elections but did not win . = = Early life = = Rodríguez Saá was born to an important political family in San Luis . The Rodriguez Saá family is well know</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Smartsheet = Smartsheet is a software as a service ( SaaS ) application for collaboration and work management that is developed and marketed by Smartsheet.com , Inc . It is used to assign tasks , track project progress , manage calendars , share documents and manage other work . It has a spreadsheet-like user interface . As of November 2014 , Smartsheet is used by 5 million people at 55,000 organizations . It was initially unpopular until a redesign in 2010 , which was followed by an increase in adoption and larger funding rounds . = = Smartsheet service = = Smartsheet is used to collaborate on project timelines , documents , calendars , tasks and other work . It combines some of the functionality of Microsoft Excel , Project , Access and Sharepoint . It competes with Microsoft Project . As of November 2014 , there are 5 million users of Smartsheet at 55,000 organizations . = = = Features = = = According to Forbes , Smartsheet has " a relatively simple " user interface . The interface </t>
+          <t>Lev Chernyi = Lev Chernyi ( Russian : Лев Чёрный ; IPA : [ ˈlʲɛf ˈtɕɵrnɨj ] ; died September 21 , 1921 ) was a Russian individualist anarchist theorist , activist and poet , and a leading figure of the Third Russian Revolution . In 1917 , Chernyi was released from his political imprisonment by the Imperial Russian regime , and swiftly became one of the leading figures in Russian anarchism . After strongly denouncing the new Bolshevik government in various anarchist publications and joining several underground resistance movements , Chernyi was arrested by the Cheka on a charge of counterfeiting and in 1921 was executed without trial . = = Early life , philosophy and imprisonment = = Chernyi was born Pavel Dimitrievich Turchaninov ( Russian : Па ́ вел Дми ́ триевич Турчани ́ нов ; IPA : [ ˈpavʲɪl ˈdmʲitrʲɪjɪvʲɪt ͡ ɕ tʊrt ͡ ɕɐˈnʲinəf ] ) to an army colonel father . A " déclassé intellectual " whom anarchist historian Paul Avrich compares with Volin , Chernyi advocated a Nietzschean overt</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Kohlberg Kravis Roberts = KKR &amp; Co . L.P. ( formerly known as Kohlberg Kravis Roberts &amp; Co . ) is an American multinational private equity firm , specializing in leveraged buyouts , headquartered in New York City . The firm sponsors and manages private equity investment funds . A pioneer in the leveraged buyout industry , the firm has completed over $ 400 billion of private equity transactions since its inception . The firm was founded in 1976 by Jerome Kohlberg , Jr . , and cousins Henry Kravis and George R. Roberts , all of whom had previously worked together at Bear Stearns , where they completed some of the earliest leveraged buyout transactions . Since its founding , KKR has completed a number of landmark transactions including the 1989 leveraged buyout of RJR Nabisco , which was the largest buyout in history to that point , as well as the 2007 buyout of TXU , which is currently the largest buyout completed to date . KKR has completed investments in over 160 companies since 1977 ,</t>
+          <t>Early life of Fidel Castro = The early life of Cuban revolutionary and politician Fidel Castro , born Lina Castro , spans the first 26 years of his life , from 1926 to 1952 . Born in Birán , Oriente Province , Castro was the illegitimate son of Ángel Castro y Argiz , a wealthy farmer and landowner , and his mistress Lina Ruz González . First educated by a tutor in Santiago de Cuba , Fidel Castro then attended two boarding schools before being sent to El Colegio de Belén , a school run by Jesuits in Havana . In 1945 he began studying law at the University of Havana , where he first became politically conscious , becoming a staunch anti-imperialist and critic of United States involvement in the Caribbean . Involved in student politics , he was affiliated to Eduardo Chibás and his Partido Ortodoxo , achieving publicity as a vocal critic of the pro-U.S. administration of President Ramón Grau and his Partido Auténtico . Immersed in the university 's violent gang culture , in 1947 he took pa</t>
         </is>
       </c>
     </row>
@@ -1666,32 +1666,32 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>['mosque', 'temple', 'congregation', 'wall', 'palace', 'hall', 'jewish', 'jews', 'shrine', 'tomb', 'temples', 'cave', 'jerusalem', 'christians', 'dome']</t>
+          <t>['twitter', 'cylinder', 'cylinders', 'vehicle', 'watson', 'vehicles', 'toyota', 'users', 'model', 'models', 'gas', 'car', 'electric', 'engine', 'valve']</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Vimala Temple = The Vimala Temple or Bimala Temple is a Hindu temple dedicated to goddess Vimala ( Bimala ) , located within the Jagannath Temple complex in Puri in the Indian state of Orissa . It is generally regarded as a Shakti Pitha , among the holiest temples dedicated to the Hindu Goddess . The temple is located in the south-west corner of the inner enclosure of the Jagannath temple complex and on the western corner of the tower of Jagannath , next to the sacred pond Rohini kunda . The temple faces east and is built of sandstone and laterite . It is built in the Deula style with four components ; vimana ( structure containing the sanctum ) , jagamohana ( assembly hall ) , nata-mandapa ( festival hall ) and bhoga-mandapa ( hall of offerings ) . The temple was renovated around 2005 and is maintained by the Archaeological Survey of India , Bhubaneswar Circle . Though a small shrine in the temple complex , the Vimala temple is important to the Goddess-oriented Shakta and Tantric wors</t>
+          <t>Saviem = The Société Anonyme de Véhicules Industriels et d 'Equipements Mécaniques ( French pronunciation : ​ [ sɔsjete də vɛikyl ɛ ̃ dystʁijɛl e dəkipəmɑ ̃ mekanik ] ) , commonly known by the acronym Saviem ( French pronunciation : ​ [ savjɛ ̃ ] ) , was a French manufacturer of trucks and buses / coaches part of the Renault group , headquartered in Suresnes . The company was established in 1955 by merging Renault heavy vehicle operations with Somua and Latil and disappeared in 1978 when was merged with former rival Berliet to form Renault Véhicules Industriels . The company initially had various factories for vehicle production around France ( mainly at the Paris area ) which came from its predecessors and Chausson , but it soon centred assembly on Blainville-sur-Orne ( trucks ) and Annonay ( buses and coaches ) . Saviem formed partnerships with other manufacturers , leading to technology-sharing agreements . = = History = = = = = Early years = = = At the end of 1946 , Renault abandon</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Beiyue Temple = Beiyue Temple ( Chinese : 北岳庙 ) is a Daoist temple located in Quyang , Hebei Province , China . The temple was used to make sacrifices to Mount Heng by the emperors of the Song Dynasty while the mountain was occupied by the Liao Dynasty . The Dening Hall of the temple is the largest , earliest and one of the most important extant wooden buildings built in the Yuan Dynasty . The temple also contains three gates , an octagonal pavilion and many ancient stelae . = = History = = The Beiyue Temple was first established either during the Northern Wei Dynasty ( 386-584 ) or the Tang Dynasty ( 618-907 ) , but the site may have been in use as early as the 2nd century BCE of the Han Dynasty . The temple has been rebuilt twice , first in 991 after having been destroyed by the Khitan during the 950s , and then in 1270 . According to a surviving image of the temple dating from a local history of Quyang written in 1672 , the temple had by this time achieved its present layout . Durin</t>
+          <t>Renault Agriculture = Renault Agriculture S.A.S. ( French pronunciation : ​ [ ʁəno aɡʁikyltyʁ ( ə ) ] ) was the agricultural machinery division of the French car manufacturer Renault established in 1918 from its armored military vehicles division . While in operation , Renault Agriculture had various partnerships with major manufacturers and focussed production on tractors . The company was sold between 2003 and 2008 to German rival Claas . Renault Agriculture was dissolved in 2008 and its facilities became part of Claas ' tractor division . Claas ' tractor division and Renault 's Auto Châssis International are Renault Agriculture successors . = = History = = After the end of World War I , the Renault company used its experience in armored tanks to devise agricultural vehicles . The Renault 's Department 14 ( responsible for the FT tank ) developed the first tractor of the company , the Type GP , which was powered by an engine similar to that of the FT ( a four-cylinder ) and had track</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Agudath Israel Etz Ahayem = Agudath Israel Etz Ahayem ( " Congregation of Israel Tree of Life " ) is a Conservative Jewish congregation located at 3525 Cloverdale Road in Montgomery , Alabama . Agudath Israel was established as an Orthodox synagogue in 1902 by Yiddish speaking Ashkenazi Jews , recent Eastern European immigrants who rejected the Reform practices of Montgomery 's established Congregation Kahl Montgomery / Temple Beth Or . After renting quarters for a number of years , the congregation purchased its first permanent building on Monroe Street in 1914 , and constructed a new building at McDonough and High Street in 1928 . Agudath Israel came to national attention in 1955 because of the Civil rights movement activism of then-rabbi Seymour Atlas , who eventually left the synagogue as a result of it . In 1957 it constructed its current building on Cloverdale Road , and joined the United Synagogue of Conservative Judaism , though it subsequently hired several Orthodox rabbis . C</t>
+          <t xml:space="preserve">TouchWave = TouchWave , Inc . ( now WebCom ) , was a privately held Palo Alto , California IP-telephony network switch provider founded in 1997 . TouchWave developed a product line called WebSwitch that was designed to replace traditional private telephone exchange systems in small-to-medium-sized companies . WebSwitch was part of a phone system that incorporates communication features provided by the Internet . The rapid success of TouchWave was memorialized with awards and an acquisition by Ericsson Communications for $ 46M two years after TouchWave was founded . Ericsson continued the TouchWave product line under the name WebCom , but its efforts have been viewed as less than successful . = = History = = In 1997 , TouchWave was a privately held , venture-backed startup company in Palo Alto , California , with future entrepreneur Oliver Muoto as its marketing director . Co-founded by CEO Bo Larsson , Jeff Snider , David F. Wittenkamp , and Jesper Stroe , TouchWave released its first </t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Baths of Zeuxippus = The Baths of Zeuxippus were popular public baths in the city of Constantinople , the capital of the Byzantine Empire . They were built between 100 to 200 , destroyed by the Nika revolt of 532 and then rebuilt several years later . They were so called because they were built upon the site where a Temple of Jupiter ( Zeus ) had formerly existed . They were built around 500 yards south of the much older baths of Achilles of the earlier Greek Acropolis in Byzantion . The baths were famed primarily for the many statues that were built within , and the famous people they each represented . However , they were later used for military purposes , during the seventh century . Excavations of the site and the Baths were made in 1928 . = = Description = = The original baths , which were founded and built by Septimius Severus , and decorated under Constantine I were adorned with numerous mosaics and over eighty statues , mostly those of historical figures , with Homer , Hesiod ,</t>
+          <t>Renault Samsung Motors = Renault Samsung Motors ( Korean : 르노삼성자동차 , IPA : [ ɾɯnoː sʰamsʰʌŋ dʑadoŋtɕʰa ] ) , also known by the acronym RSM , is a South Korean car manufacturer headquartered in Busan where its single assembly site is also located , with additional facilities at Seoul ( administration ) and Giheung ( research and development ) . It was first established as Samsung Motors in 1994 by the chaebol Samsung , with technical assistance from Nissan . The company started selling cars in 1998 , just before South Korea was hit by the Asian financial crisis . In September 2000 , it became a subsidiary of Renault and adopted its present name , although Samsung maintained a minority ownership . RSM markets a range of cars , including electric models and crossovers . = = History = = = = = Beginnings : Samsung Group era ( 1994 – 2000 ) = = = In the early 1990s , Samsung 's Chairman Kun Hee Lee recognised the automotive industry as the culmination of several others . For the Samsung Grou</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Durga Shakti Nagpal = Durga Shakti Nagpal ( born 25 June 1985 ) is an Indian bureaucrat , civil servant and officer in the Uttar Pradesh cadre of the Indian Administrative Service . She is posted as Joint Magistrate of Kanpur ( Rural ) . She came into public view after launching a massive drive against corruption and illegal sand mining within her jurisdiction of Gautam Budh Nagar . She was later suspended by the Uttar Pradesh government for allegedly demolishing an illegal mosque wall in a village in Greater Noida , which resulted in severe opposition as it was perceived to be based on flimsy grounds . There was a growing demand from various political parties , associations of Indian bureaucrats , and by the general public on online social media for her suspension to be revoked . Her suspension was revoked by the Uttar Pradesh government on 22 September 2013 . Nagpal was appointed OSD ( Officer on Special Duty ) in the Agriculture Ministry in January 2015 , a post that she currently h</t>
+          <t>Electric vehicle warning sounds = Electric vehicle warning sounds are a series of sounds designed to alert pedestrians to the presence of electric drive vehicles such as hybrid electric vehicles ( HEVs ) , plug-in hybrid electric vehicles ( PHEVs ) , and all-electric vehicles ( EVs ) travelling at low speeds . Warning sound devices were deemed necessary because vehicles operating in all-electric mode produce less noise than traditional combustion engine vehicles and can make it more difficult for pedestrians , the blind , cyclists , and others , to be aware of their presence . Warning sounds may be driver triggered ( as in a horn but less urgent ) or automatic at low speeds ; in type , they vary from clearly artificial ( beeps , chimes ) to those that mimic engine sounds and those of tires moving over gravel . Japan issued guidelines for such warning devices in January 2010 and the U.S. approved legislation on December 2010 . The European Parliament approved legislation that requires t</t>
         </is>
       </c>
     </row>
@@ -1701,32 +1701,32 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>['scotland', 'scottish', 'island', 'islands', 'norse', 'century', 'edinburgh', 'isles', 'houses', 'architecture', 'mainland', 'scots', 'glasgow', 'highlands', 'churches']</t>
+          <t>['fiction', 'gay', 'stories', 'pulp', 'lgbt', 'science', 'magazine', 'lesbian', 'comics', 'fantasy', 'issue', 'magazines', 'comic', 'hugo', 'published']</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">John Gregorson Campbell = John Gregorson Campbell ( 1836 – 22 November 1891 ) was a Scottish folklorist and Free Church Minister at the Tiree and Coll parishes in Argyll , Scotland . An avid collector of traditional stories , in 1831 he became Secretary to the Ossianic Society of Glasgow University . Ill health had prevented him taking up employment as a Minister when he was initially approved to preach by the Presbytery of Glasgow in 1858 and later after he was appointed to Tiree by the Duke of Argyll in 1861 , parishioners objected to his manner of preaching . Several of the anecdotes he amassed were published in magazines and , just before his death , work began on collating the first of four compendiums of the tales ; three were published a few years after his death . He was fluent in several languages , including Scottish Gaelic , and transcribed the legends precisely as dictated by the narrators . = = Early life and education = = John Gregorson Campbell was born near Loch Linnhe </t>
+          <t>Uncanny Stories ( magazine ) = Uncanny Stories was a pulp magazine which published a single issue , dated April 1941 . It was published by Abraham and Martin Goodman , who were better known for " weird-menace " pulp magazines that included much more sex in the fiction than was usual in science fiction of that era . The Goodmans published Marvel Science Stories from 1938 to 1941 , and Uncanny Stories appeared just as Marvel Science Stories ceased publication , perhaps in order to use up the material in inventory acquired by Marvel Science Stories . The fiction was poor quality ; the lead story , Ray Cummings ' " Coming of the Giant Germs " , has been described as " one of his most appalling stories " . = = Publication history = = Although science fiction had been published before the 1920s , it did not begin to coalesce into a separately marketed genre until the appearance in 1926 of Amazing Stories , a pulp magazine published by Hugo Gernsback . After 1931 , when Miracle Science and Fa</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Thomas de Rossy = Thomas de Rossy ( de Rossi ) O. F. M. was a late 14th century Scottish Franciscan friar , papal penitentiary , bishop and theologian . Of unknown , or at least unclear origin , he embarked on a religious career in his early years , entering the Franciscan Order , studying in England and at the University of Paris . He preached and lectured on the Immaculate Conception , and rose to seniority under the patronage of the Avignon Papacy and King Robert II of Scotland , becoming Bishop of Galloway and the only Franciscan to hold a Scottish bishopric . Thereafter he was a staunch advocate of Avignon Pope Clement VII against the English-backed Urban VI , for whom he engaged in partisan preaching and writing , famously challenging any English bishop to settle the issue by single combat . = = Early years = = There is not enough evidence to detail Rossy 's early life and career . His name indicates a family origin from Rossie , but many locations have this name , including Ross</t>
+          <t>A. Merritt 's Fantasy Magazine = A. Merritt 's Fantasy Magazine was a pulp magazine which published five issues from December 1949 to October 1950 . It took its name from fantasy writer A. Merritt , who had died in 1943 , and it aimed to capitalize on Merritt 's popularity . It was published by Popular Publications , alternating months with Fantastic Novels , another title of theirs . It may have been edited by Mary Gnaedinger , who also edited Fantastic Novels and Famous Fantastic Mysteries . It was a companion to Famous Fantastic Mysteries , and like that magazine mostly reprinted science-fiction and fantasy classics from earlier decades . = = Publication history and contents = = In 1942 , Popular Publications acquired Famous Fantastic Mysteries and Fantastic Novels , both of them pulp magazines specializing in reprints of fantasy , from the Munsey Company . Fantastic Novels had ceased publication in April 1941 , but was relaunched by Popular in early 1948 as a companion to Famous Fa</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Death of Linda Norgrove = On 26 September 2010 , Scottish aid worker Linda Norgrove and three Afghan colleagues were kidnapped by members of the Taliban in the Kunar Province of eastern Afghanistan . At the time , she was working in the country as regional director for Development Alternatives Incorporated , a contractor for U.S. and other government agencies . After their capture , the group was taken to the nearby Dewegal Valley area . United States and Afghan forces began a search of the area , placing roadblocks to prevent the group from being moved east into Pakistan . Norgrove 's captors demanded the release of Aafia Siddiqui in exchange for her return . During negotiations , on 3 October 2010 the Taliban released the three Afghans . Five days later , amid concerns that Norgrove would be killed or moved by her kidnappers , the United States Naval Special Warfare Development Group conducted a predawn rescue attempt on the Taliban mountain hideout where she was held captive . US fo</t>
+          <t>Out of This World Adventures = Out of This World Adventures was a pulp magazine which published two issues , in July and December 1950 . It included several pages of comics as well as science fiction stories . It was edited by Donald A. Wollheim and published by Avon . Sales were weak , and after two issues Avon decided to cancel it . = = Publication history = = The early 1950s saw dramatic changes in the world of U.S. science fiction publishing . At the start of 1949 , all but one of the major magazines in the field were in pulp format ; by the end of 1955 , almost all had either ceased publication or switched to digest format . Despite the rapid decline of the pulp market , several new science fiction magazines were launched in pulp format during these years ; Out of This World Adventures was one of these . In 1947 Avon Books launched the Avon Fantasy Reader , a series of fantasy anthologies in digest format , edited by Donald A. Wollheim . Two years later , Joseph Meyers , Avon 's p</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Leod = Leod ( Scottish Gaelic : Leòd ; Old Norse : Ljótr ) ( c . 1200 – 1280 ) is considered the eponymous ancestor and founder of Clan MacLeod and Clan MacLeod of Lewis . Almost nothing is known about him and he does not appear in any contemporary records . Tradition dating to the late 18th century made him a son of Olaf the Black who was King of Man ( r . 1225 – 1237 ) . Heraldic evidence , dating to the late 17th century , is considered to be the earliest evidence of descent from Olaf the Black . However , in recent years , this traditional lineage has been challenged and is no longer considered fact by historians . According to Clan MacLeod tradition , Leod inherited some of his lands from a foster father , who was a sheriff of the Hebridean island of Skye ; other lands he inherited from his father-in-law , who was also a lord on Skye . MacLeod tradition also states that Leod was the father of four sons and two daughters . Two of these sons founded the two main branches of MacLeods</t>
+          <t>Dynamic Science Stories = Dynamic Science Stories was a pulp magazine which published two issues , dated February and April 1939 . A companion to Marvel Science Stories , it was edited by Robert O. Erisman and published by Western Fiction Publishing . Among the better known authors who appeared in its pages were L. Sprague de Camp and Manly Wade Wellman . = = Publication history and contents = = Although science fiction had been published before the 1920s , it did not begin to coalesce into a separately marketed genre until the appearance in 1926 of Amazing Stories , a pulp magazine published by Hugo Gernsback . By the end of the 1930s the field was booming . In 1938 Abraham and Martin Goodman , two brothers who owned a publishing company with multiple imprints , launched Marvel Science Stories , edited by Robert O. Erisman . In February of the following year they added Dynamic Science Stories as a companion magazine intended to run longer stories . The contents were typical pulp scien</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Dutch brick = Dutch brick is a type of brick made in the Netherlands , or similar brick , and an architectural style of building with brick developed by the Dutch . The brick , made from clay dug from river banks or dredged from river beds and fired over a long period of time , was known for its durability and appearance . Traditional Dutch brick architecture is characterized by rounded or stepped gables . The brick was imported as ballast into Great Britain and the colonies in the east of America . Trinity College , Dublin , Ireland , founded in 1591 , was originally built of red Dutch brick . Dutch brickmakers emigrated to New Netherland in America , where they built kilns for firing bricks locally . Bricks were being burned in New Amsterdam ( New York ) by 1628 , but the imported bricks were of better quality . At first the bricks were used only for chimneys , but they were later used to face the lower story of the house , and then the entire house . Most of the surviving " Dutch Co</t>
+          <t>Wonder Story Annual = Wonder Story Annual was a science fiction pulp magazine which was launched in 1950 by Standard Magazines . It was created as a vehicle to reprint stories from early issues of Wonder Stories , Startling Stories , and Wonder Stories Quarterly , which were owned by the same publisher . It lasted for four issues , succumbing in 1953 to competition from the growing market for paperback science fiction . Reprinted stories included Twice in Time , by Manly Wade Wellman , and " The Brain-Stealers of Mars " , by John W. Campbell . = = Publication history and contents = = The first science fiction ( sf ) magazine , Amazing Stories , was launched in 1926 by Hugo Gernsback at the height of the pulp magazine era . It helped to form science fiction as a separately marketed genre , and by the mid-1930s several more sf magazines had appeared , including Wonder Stories , also published by Gernsback . In 1936 , Ned Pines of Beacon Publications bought Wonder Stories from Gernsback ,</t>
         </is>
       </c>
     </row>
@@ -1736,32 +1736,32 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>['croatian', 'yugoslav', 'partisans', 'serbian', 'croatia', 'yugoslavia', 'partisan', 'serbs', 'bosnia', 'belgrade', 'serbia', 'germans', 'civilians', 'division', 'forces']</t>
+          <t>['nickelodeon', 'patrick', 'dvd', 'bikini', 'episodes', 'animation', 'kenny', 'voice', 'kids', 'storyboard', 'episode', 'animated', 'lawrence', 'character', 'television']</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>An Unforgettable Summer = An Unforgettable Summer ( French : Un été inoubliable ; Romanian : O vară de neuitat ) is a 1994 drama film directed and produced by Lucian Pintilie . A Romanian-French co-production based on a chapter from a novel by Petru Dumitriu , it stars British actress Kristin Scott Thomas as the Hungarian-born aristocrat Marie-Thérèse Von Debretsy . Her marriage with Romanian Land Forces captain Petre Dumitriu brings her to Southern Dobruja ( present-day northeastern Bulgaria ) , where they settle in 1925 . There , she witnesses first-hand the violent clashes between , on one hand , the Greater Romanian administration , and , on the other , komitadji brigands of Macedonian origin and ethnic Bulgarian locals . The film shows her failed attempt to rescue Bulgarians held hostage by the Romanian soldiers , and who are destined for execution . An Unforgettable Summer also stars Claudiu Bleonţ as Captain Dumitriu and Marcel Iureş as Ipsilanti , a general whose unsuccessful a</t>
+          <t>Crab dip = Crab dip , sometimes referred to as Maryland crab dip , is a thick , creamy dip that is typically prepared from cream cheese and lump crab meat . Other primary ingredients such as mayonnaise may be used . Various types of crab preparations , species and superfamilies are used , as are a variety of added ingredients . It is typically served hot , although cold versions also exist . Hot versions are typically baked or broiled . It is sometimes served as an appetizer . Accompaniments may include crackers and various breads . Some U.S. restaurants offer crab dip , commercially produced varieties exist , and some stadiums offer it as a part of their concessions . = = Ingredients = = Fresh , frozen or canned crab meat may be used in the preparation of crab dip . Different types of crab meat may be used , such as jumbo lump , lump backfin , leg and claw , among others . Various types of crab species and superfamilies are also used , such as blue crab , Dungeness crab and Alaska kin</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>The Utility of Force = The Utility of Force : The Art of War in the Modern World is a treatise on modern warfare written by General Sir Rupert Smith and published in 2005 . Smith is a retired general who spent 40 years in the British Army ; he commanded the 1st Armoured Division in the First Gulf War and served as General Officer Commanding Northern Ireland at the end of the Troubles . He was motivated to write the book by his experiences in the Balkans . He commanded the United Nations Protection Force ( UNPROFOR ) in Bosnia from 1995 to 1996 , during which time the Srebrenica massacre occurred and the capital , Sarajevo , was under siege by Serb forces . Smith was instrumental in the lifting of the siege by arranging for NATO air strikes and an artillery barrage . This enabled a ground assault by Bosnian and Croatian forces that ended the siege and led to the Dayton Agreement . Smith 's second involvement with the Balkans was in 1999 during the Kosovo War , when he was serving as NAT</t>
+          <t>SpongeBob SquarePants ( season 7 ) = The seventh season of the American animated television series SpongeBob SquarePants , created by marine biologist and animator Stephen Hillenburg , originally aired on Nickelodeon in the United States from July 19 , 2009 to June 11 , 2011 . It contained 26 episodes , beginning with the episodes " Tentacle Vision " and " I Heart Dancing " . The series chronicles the exploits and adventures of the title character and his various friends in the fictional underwater city of Bikini Bottom . The season was executive produced by series creator Hillenburg and writer Paul Tibbitt , who also acted as the showrunner . In 2011 , Legends of Bikini Bottom , an anthology series consists of five episodes from the season , was launched . A number of guest stars appeared on the season 's episodes . Several compilation DVDs that contained episodes from the season were released . The SpongeBob SquarePants : Complete Seventh Season DVD was released in Region 1 on Decemb</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>The Lion , the Fox &amp; the Eagle = The Lion , the Fox &amp; the Eagle : A Story of Generals and Justice in Rwanda and Yugoslavia is a non-fiction book by Canadian journalist Carol Off . The hardcover edition was published in November 2000 by Random House Canada . The writing was favourably received and the book was short-listed for the Shaughnessy Cohen Award for Political Writing . With numerous interviews and extensive research behind it , the book presents biographies of three Canadians in United Nations roles in the 1990s : Roméo Dallaire ( the " lion " ) , Lewis MacKenzie ( the " fox " ) , and Louise Arbour ( the " eagle " ) . The book praises Dallaire 's commitment to his peacekeeping mission , but is critical of MacKenzie , who is depicted as being ignorant of the Bosnian political situation . In response to Off 's portrayal of him , MacKenzie considered sue for libel , but opted not to . The book praises Arbour 's efforts at building the legitimacy of International Criminal Tribunals</t>
+          <t>SpongeBob SquarePants vs. The Big One = " SpongeBob SquarePants vs. The Big One " is the 5th episode of the sixth season and the 105th overall episode of the American animated television series SpongeBob SquarePants . The episode was written by Aaron Springer , Paul Tibbitt , and Steven Banks , and was directed by Andrew Overtoom and Alan Smart . The episode was part of the series ' tenth anniversary celebration in 2009 . It features guest appearances by Johnny Depp as the voice of Jack Kahuna Laguna , Bruce Brown as the narrator , and Davy Jones as himself . It originally aired on Nickelodeon in the United States on April 17 , 2009 . The series follows the adventures and endeavors of the title character and his various friends in the underwater city of Bikini Bottom . In this episode , SpongeBob and his friends — Patrick , Squidward , Mr. Krabs , and Sandy — are swept away by a giant wave . They get separated from each other ; SpongeBob , Patrick , and Squidward find themselves strand</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Jovan Babunski = Jovan Stojković ( Serbian Cyrillic : Јован Стојковић ; 25 December 1878 – 17 February 1920 ) , known as Jovan Babunski ( Јован Бабунски ) , was a Serbian Chetnik commander ( Serbian : vojvoda , вoјвода ) during the Balkan Wars and World War I. Following the murder of his brother and nephew by the Internal Macedonian Revolutionary Organization ( IMRO ) , he joined a Chetnik band and took command of Chetnik units on the Vardar River , where he and his men often engaged Bulgarian and Ottoman forces . With the outbreak of the First Balkan War he joined the Serbian Army and was wounded while fighting in the village of Strevica . During the Second Balkan War , he joined a Serbian volunteer detachment and fought at the Battle of Bregalnica . During World War I , Babunski and his Chetnik detachment fought Austro-Hungarian forces in the summer of 1914 and later fought on the Salonika Front , where Babunski was ordained by French General Louis Franchet d 'Espèrey after he and hi</t>
+          <t>The Itchy &amp; Scratchy Show = The Itchy &amp; Scratchy Show ( often shortened as Itchy &amp; Scratchy ) is a running gag and fictional animated television series featured in the animated television series The Simpsons . It usually appears as a part of The Krusty the Clown Show , watched regularly by Bart and Lisa Simpson . Itself an animated cartoon , The Itchy &amp; Scratchy Show depicts a sadistic anthropomorphic blue mouse , Itchy ( voiced by Dan Castellaneta ) , who repeatedly maims and kills an anthropomorphic , hapless threadbare black cat , Scratchy ( voiced by Harry Shearer ) . The cartoon first appeared in the Tracey Ullman Show short " The Bart Simpson Show " , which originally aired November 20 , 1988 . The cartoon 's first appearance in The Simpsons was in the 1990 episode " There 's No Disgrace Like Home " . Typically presented as 15-to-60-second-long cartoons , the show is filled with gratuitous violence . The Simpsons also occasionally features characters who are involved with the pro</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Marburg 's Bloody Sunday = Marburg 's Bloody Sunday ( German : Marburger Blutsonntag , Slovene : Mariborska krvava nedelja ) is the name of a massacre that took place on Monday , 27 January 1919 in the city of Maribor ( German : Marburg an der Drau ) in Slovenia . Soldiers from the army of the Kingdom of Serbs , Croats and Slovenes ( later Yugoslavia ) , under the command of Slovene officer Rudolf Maister , killed between 9 and 13 civilians of German ethnic origin , wounding a further 60 , during a protest in a city centre square . Estimates of casualties differ between Slovene and Austrian sources . In November 1918 , after the First World War ended , the territories of southern Carinthia and southern Styria , which had been claimed by the Republic of German Austria , were captured by military units under Maister 's command . Maribor was the largest city of southern Styria , and had a predominately German population . A US delegation led by Sherman Miles visited Maribor on 27 January </t>
+          <t>SpongeBob SquarePants ( season 6 ) = The sixth season of the American animated television series SpongeBob SquarePants , created by former marine biologist and animator Stephen Hillenburg , aired on Nickelodeon from March 3 , 2008 to July 5 , 2010 , and contained 26 episodes , beginning with the episode " Krabby Road " . The series chronicles the exploits and adventures of the title character and his various friends in the fictional underwater city of Bikini Bottom . The season was executive produced by series creator Hillenburg , who also acted as the showrunner . In 2009 , the show celebrated its tenth anniversary on television . The documentary film titled Square Roots : The Story of SpongeBob SquarePants premiered on July 17 , 2009 , and marked the anniversary . SpongeBob 's Truth or Square , a television film , and the special episode " To SquarePants or Not to SquarePants " were broadcast on Nickelodeon , as part of the celebration . The show itself received several recognition ,</t>
         </is>
       </c>
     </row>
@@ -1771,32 +1771,32 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>['plants', 'plant', 'botanical', 'tree', 'camouflage', 'animals', 'organisms', 'animal', 'gardens', 'species', 'garden', 'tea', 'trees', 'ecology', 'predators']</t>
+          <t>['scottish', 'scotland', 'painting', 'edinburgh', 'architecture', 'houses', 'century', 'churches', 'scots', 'bricks', 'portrait', 'highlands', 'glasgow', 'brick', 'portraits']</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Written Chinese = Written Chinese ( Chinese : 中文 ; pinyin : zhōngwén ) comprises Chinese characters ( 汉字 / 漢字 ; pinyin : Hànzì , literally " Han characters " ) used to represent the Chinese language . Chinese characters do not constitute an alphabet or a compact syllabary . Rather , the writing system is roughly logosyllabic ; that is , a character generally represents one syllable of spoken Chinese and may be a word on its own or a part of a polysyllabic word . The characters themselves are often composed of parts that may represent physical objects , abstract notions , or pronunciation . Literacy requires the memorization of a great many characters : educated Chinese know about 4,000 . The large number of Chinese characters has in part led to the adoption of Western alphabets as an auxiliary means of representing Chinese . Various current Chinese characters have been traced back to the late Shang Dynasty about 1200 – 1050 BC , but the process of creating characters is thought to have</t>
+          <t>Architecture of Scotland in the Middle Ages = The architecture of Scotland in the Middle Ages includes all building within the modern borders of Scotland , between the departure of the Romans from Northern Britain in the early fifth century and the adoption of the Renaissance in the early sixteenth century , and includes vernacular , ecclesiastical , royal , aristocratic and military constructions . The first surviving houses in Scotland go back 9500 years . There is evidence of different forms of stone and wooden houses exist and earthwork hill forts from the Iron Age . The arrival of the Romans from about led to the abandonment of many of these forts . After the departure of the Romans in the fifth century , there evidence their reoccupation and of the building of a series of smaller " nucleated " constructions sometimes utilising major geographical features , as at Dunadd and Dumbarton . In the following centuries new forms of construction emerged throughout Scotland that would come</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Castle Lake ( California ) = Castle Lake is a glacial lake ( cirque lake or tarn ) located in the Trinity Mountains , in Siskiyou County of northern California . It is west of Mount Shasta City and Mount Shasta peak . The outlet of the lake drains into Castle Lake Creek , and then into Lake Siskiyou reservoir , part of the headwaters of the Sacramento River . Nearly all of the lake 's 47 acres ( 19 ha ) are within the Shasta-Trinity National Forest . Trails lead from Castle Lake into the adjacent Castle Crags Wilderness area , and on to Castle Crags State Park , including trails to Little Castle Lake and Heart Lake . Fishing , camping , and hiking are also available at or near the lake . = = Natural history = = Castle Lake and the surrounding area contain a wide variety of animals and plants including trout , bears , deer , otters , frogs , and osprey . The area is also well-known for early summer displays of flowers , including red Columbine ( Aquilegia truncata ) , fawn lily ( Erythr</t>
+          <t>Landscape painting in Scotland = Landscape painting in Scotland includes all forms of painting of landscapes in Scotland since its origins in the sixteenth century to the present day . The earliest examples of Scottish landscape painting are in the tradition of Scottish house decoration that arose in the sixteenth century . Often said to be the earliest surviving painted landscape created in Scotland is a depiction by the Flemish artist Alexander Keirincx undertaken for Charles I. The capriccios of Italian and Dutch landscapes undertaken as house decoration by James Norie and his sons in the eighteenth century brought the influence of French artists such as Claude Lorrain and Nicolas Poussin . Students of the Nories included Jacob More whose produced Claudian-inspired landscapes . This period saw a shift in attitudes to the Highlands and mountain landscapes to interpreting them as aesthetically pleasing exemplars of nature . Watercolours were pioneered in Scotland by Paul Sandby and Al</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Group 12 element = Group 12 , by modern IUPAC numbering , is a group of chemical elements in the periodic table . It includes zinc ( Zn ) , cadmium ( Cd ) and mercury ( Hg ) . The further inclusion of copernicium ( Cn ) in group 12 is supported by recent experiments on individual copernicium atoms . Group 12 is also known as the volatile metals , although this can also more generally refer to any metal ( which need not be in group 12 ) that has high volatility , such as polonium or flerovium . Formerly this group was named IIB ( pronounced as " group two B " , as the " II " is a Roman numeral ) by CAS and old IUPAC system . The three group 12 elements that occur naturally are zinc , cadmium and mercury . They are all widely used in electric and electronic applications , as well as in various alloys . The first two members of the group share similar properties as they are solid metals under standard conditions . Mercury is the only metal that is a liquid at room temperature . While zinc</t>
+          <t>Architecture of Scotland = The architecture of Scotland includes all human building within the modern borders of Scotland , from the Neolithic era to the present day . The earliest surviving houses go back around 9500 years , and the first villages 6000 years : Skara Brae on the Mainland of Orkney being the earliest preserved example in Europe . Crannogs , roundhouses , each built on an artificial island , date from the Bronze Age and stone buildings called Atlantic roundhouses and larger earthwork hill forts from the Iron Age . The arrival of the Romans from about 71 AD led to the creation of forts like that at Trimontium , and a continuous fortification between the Firth of Forth and the Firth of Clyde known as the Antonine Wall , built in the second century AD . Beyond Roman influence , there is evidence of wheelhouses and underground souterrains . After the departure of the Romans there were a series of nucleated hill forts , often utilising major geographical features , as at Duna</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Halfbeak = The halfbeaks ( family Hemiramphidae ) are a geographically widespread and numerically abundant family of epipelagic fish inhabiting warm waters around the world . The halfbeaks are named for their distinctive jaws , in which the lower jaws are significantly longer than the upper jaws . The similar viviparous halfbeaks ( family Zenarchopteridae ) have often been included in this family . Though not commercially important themselves , these forage fish support artisanal fisheries and local markets worldwide . They are also fed upon by other commercially important predatory fishes , such as billfishes , mackerels , and sharks . = = Taxonomy = = In 1775 , Carl Linnaeus was the first to scientifically describe a halfbeak , Esox brasiliensis . In 1775 Peter Forsskål described two more species as Esox , Esox far and Esox marginatus . It was not until 1816 that Georges Cuvier created the genus Hemiramphus ; from then on , all three were classified as Hemiramphus . In 1859 , Gill er</t>
+          <t>Architecture in early modern Scotland = Architecture in early modern Scotland encompasses all building within the borders of the kingdom of Scotland , from the early sixteenth century to the mid-eighteenth century . The time period roughly corresponds to the early modern era in Europe , beginning with the Renaissance and Reformation and ending with the start of the Enlightenment and Industrialisation . Vernacular architecture made use of local materials such as stone , turf and , where available , wood . Most of the population was housed in small hamlets and isolated dwellings . The most common form of dwelling throughout Scotland was the long house , shared by humans and animals . About ten per cent of the population lived in the burghs , in a mixture of half-timbered and stone houses . The impact of the Renaissance on Scottish architecture began in the reign of James III in the late fifteenth century with the rebuilding of royal palaces such as Linlithgow , and reached its peak under</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brown thrasher = The brown thrasher ( Toxostoma rufum ) is a bird in the family Mimidae , which also includes the New World catbirds and mockingbirds . The dispersal of the brown thrasher is abundant throughout the eastern and central United States , southern and central Canada , and is the only thrasher to live primarily east of the Rockies and central Texas . It is the state bird of Georgia . As a member of the genus Toxostoma , the bird is a large-sized thrasher . It has brown upper parts with a white under part with dark streaks . Because of this , it is often confused with the smaller wood thrush ( Hylocichla mustelina ) , among other species . The brown thrasher is noted for having over 1000 song types , and the largest song repertoire of birds . However , each note is usually repeated in two or three phrases . The brown thrasher is an omnivore , with its diet ranging from insects to fruits and nuts . The usual nesting areas are shrubs , small trees , or at times on ground level </t>
+          <t xml:space="preserve">Scottish castles = Scottish castles are buildings that combine fortifications and residence , built within the borders of modern Scotland . Castles arrived in Scotland with the introduction of feudalism in the twelfth century . Initially these were wooden motte-and-bailey constructions , but many were replaced by stone castles with a high curtain wall . During the Wars of Independence , Robert the Bruce pursued a policy of castle slighting . In the late Middle Ages new castles were built , some on a grander scale as " livery and maintenance " castles that could support a large garrison . Gunpowder weaponry led to the use of gun ports , platforms to mount guns and walls adapted to resist bombardment . Many of the late Medieval castles built in the borders were in the form of tower houses , smaller pele towers or simpler bastle houses . From the fifteenth century there was a phase of Renaissance palace building , which restructured them as castle-type palaces , beginning at Linlithgow . </t>
         </is>
       </c>
     </row>
@@ -1806,32 +1806,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>['phillies', 'inning', 'yankees', 'dodgers', 'teams', 'breaker', 'giants', 'mlb', 'tie', 'yankee', 'postseason', 'game', 'run', 'pitcher', 'baseball']</t>
+          <t>['hebrew', 'text', 'manuscripts', 'gospel', 'jesus', 'manuscript', 'matthew', 'john', 'biblical', 'luke', 'greek', 'printing', 'readings', 'scholars', 'letters']</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Unearthed ( Fringe ) = " Unearthed " is the 11th episode of the second season of the American science fiction drama television series Fringe . While the body of a young , recently deceased girl is being harvested of its organs , she suddenly comes back to life yelling classified naval launch codes and Russian phrases , leading the Fringe Division to a recently murdered naval officer . The episode was written by co-executive producers David H. Goodman and Andrew Kreisberg , and was directed by producer Frederick E. O. Toye . Though the episode was produced at the end of the first season " Unearthed " first aired during the second season , on January 11 , 2010 , in a one-time timeslot . An estimated 7.79 million viewers tuned into the episode , giving it a " whopping " ratings improvement over its best ratings of the season . It was included in the second season 's DVD release as a special feature . The episode was almost unanimously disliked by critics , with one reviewer calling it " a</t>
+          <t>Codex Carolinus = Codex Carolinus is a Gothic-Latin diglot uncial manuscript of the New Testament on parchment , dated to the 6th or 7th century . The Gothic text is designated by siglum Car , the Latin text is designated by siglum gue ( traditional system ) or by 79 ( on the list of Beuron ) , it represents the Old Latin translation of the New Testament . It is housed in the Herzog August Bibliothek . It is one of very few manuscripts of Wulfilas Gothic Bible . The manuscript is fragmentary . The four leaves of the codex were used as raw material for the production of another manuscript – Codex Guelferbytanus 64 Weissenburgensis . It is a palimpsest , and its text was reconstructed several times . Franz Anton Knittel was the first to examine it and decipher its text . = = Description = = The codex has survived to the present day in a very fragmentary condition . It contains only the text of the Epistle to the Romans 11-15 on four parchment leaves ( size 26.5 cm by 21.5 cm ) . The text</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rockstar Games Presents Table Tennis = Rockstar Games Presents Table Tennis is a table tennis simulation video game developed by Rockstar San Diego and published by Rockstar Games . The game was first released for the Xbox 360 on May 23 , 2006 in North America , and on May 26 , 2006 in Europe . It was later released for the Wii on October 17 , 2007 in North America , and on October 19 , 2007 in Europe . The game is a realistic simulation of the sport table tennis , with the main objective to make the opponent fail to hit the ball . The game features various methods of serving and returning the ball , designed for players to beat their opponent . Players can compete against the game 's artificial intelligence , while the game 's multiplayer mode lets two players compete in matches , either through local multiplayer or online . Initially developed specifically for the Xbox 360 console , the development team took advantage of the hardware 's graphical power , allowing the game to play at </t>
+          <t xml:space="preserve">Codex Ephraemi Rescriptus = Codex Ephraemi Rescriptus ( Paris , National Library of France , Greek 9 ; Gregory-Aland no . C or 04 , von Soden δ 3 ) is a fifth-century Greek manuscript of the Bible , sometimes referred to as one of the four great uncials ( see Codex Sinaiticus , Alexandrinus and Vaticanus ) . The manuscript is not intact : in its current condition , Codex C contains material from every New Testament book except Second Thessalonians and Second John ; however , only six books of the Greek Old Testament are represented . The manuscript is called Codex Ephraemi Rescriptus because ( a ) it is a codex , i.e. , a handmade book ; ( b ) its parchment has been recycled ; originally inscribed with Scriptural texts , the pages were washed ( removing most of the ink ) and reused for another text , and ( c ) the text that was written on the recycled pages , in the 12th century , consisted of Greek translations of 38 treatises composed by Ephrem the Syrian , a prominent theologian of </t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2008 American League Central tie-breaker game = The 2008 American League Central tie-breaker game was a one-game extension to Major League Baseball 's ( MLB ) 2008 regular season , played between the Chicago White Sox and Minnesota Twins to determine the champion of the American League 's ( AL ) Central Division . It was played at US Cellular Field in Chicago , Illinois , on September 30 , 2008 . The White Sox won the game , 1 – 0 , on a home run by Jim Thome , the lowest-scoring game in MLB tie-breaker history . The Sox advanced to the 2008 AL Division Series , where they lost to the Tampa Bay Rays , three games to one ; the Twins failed to qualify for the postseason . The game was necessary after both teams finished the season with identical win – loss records of 88 – 74 . The White Sox won a coin flip late in the season which , by rule , awarded them home field in the game . In baseball statistics , the tie-breaker counted as the 163rd regular season game by both teams , with all ev</t>
+          <t>Codex Basilensis A. N. IV . 2 = Codex Basilensis A. N. IV . 2 , Minuscule 1 ( on the list of Gregory-Aland ) , δ 254 ( in von Soden 's numbering ) and formerly designated by 1eap to distinguish it from minuscule 1rK ( which previously used number 1 ) is a Greek minuscule manuscript of the New Testament , usually dated palaeographically to the 12th century AD . It is written on 297 parchment leaves and contains the entire New Testament except the Book of Revelation . The codex was prepared for liturgical use with marginalia ( text 's division ) , and has almost completely survived ; it was used by Erasmus for his Novum Instrumentum omne . The text of the manuscript has been cited in all critical editions of the Greek New Testament ; in this codex , the text of the Gospels is more highly esteemed by scholars than that of the remaining New Testament books . The codex is housed at the Basel University Library , with shelf number A. N. IV , 2 ( earlier B. VI . 27 ) . = = Description = = The</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Strike Back : Project Dawn = Strike Back : Project Dawn , as it is known in the United Kingdom is a ten-part British-American action television serial and is the second series of Strike Back . However , the only cast member to return from the first series was Richard Armitage in the first episode . The main cast for the series includes Philip Winchester , Sullivan Stapleton , Amanda Mealing , Eva Birthistle , Michelle Lukes and Rhashan Stone . The series follows the actions of Section 20 , a secret branch of the British Secret Intelligence Service ( MI6 ) , particularly two of its officers , Michael Stonebridge ( Winchester ) and former American Delta Force operative Damian Scott ( Stapleton ) . Section 20 leads a worldwide manhunt to find and capture Pakistani terrorist Latif , who is plotting an operation of his known as " Project Dawn " . Sky announced Strike Back would be returning for a third series after the first aired . They entered a co-production deal with the American premiu</t>
+          <t>Gospel of the Hebrews = The Gospel of the Hebrews ( Greek : τὸ καθ ' Ἑβραίους εὐαγγέλιον ) , or Gospel according to the Hebrews , was a syncretic Jewish – Christian gospel , the text of which is lost ; only fragments of it survive as brief quotations by the early Church Fathers and apocryphal writings such as reference table in The Lost Books of the Bible in Table 1 ( as The Gospel According to the Hebrews ) . The fragments contain traditions of Jesus ' pre-existence , incarnation , baptism , and probable temptation , along with some of his sayings . Distinctive features include a Christology characterized by the belief that the Holy Spirit is Jesus ' Divine Mother and a first resurrection appearance to James , the brother of Jesus , showing a high regard for James as the leader of the Jewish Christian church in Jerusalem . It was probably composed in Greek in the first decades of the 2nd century , and is believed to have been used by Greek-speaking Jewish Christians in Egypt during th</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Search Committee = " Search Committee " is the hour-long finale of the seventh season of the American television comedy series The Office . It comprises the 151st and 152nd episodes of the series overall and the 25th and 26th episodes of the seventh season . It originally aired on NBC on May 19 , 2011 in the United States . In the episode , Deangelo 's new replacement is sought out through a search committee process led by Jim ( John Krasinski ) . Meanwhile , Angela becomes engaged to her state senator boyfriend , Robert ( Jack Coleman ) , while the rest of the office believes he is gay . The episode was written by show runner and executive producer Paul Lieberstein and was directed by Jeffrey Blitz . The episode featured several guest appearances including one from The Office co-creator Ricky Gervais , his second appearance on the series . The episode also marks the first appearance of James Spader and Catherine Tate , the former of whom was a series regular in the eighth season while</t>
+          <t>Codex Boreelianus = Codex Boreelianus , Codex Boreelianus Rheno-Trajectinus ( full name ) , designated by Fe or 09 in the Gregory-Aland numbering and ε 86 in von Soden numbering , is a 9th ( or 10th ) century uncial manuscript of the four Gospels in Greek . The manuscript , written on parchment , is full of lacunae ( or gaps ) , many of which arose between 1751 and 1830 . The codex was named Boreelianus after Johannes Boreel ( 1577 – 1629 ) , who brought it from the East . The text of the codex represents the majority of the text ( Byzantine text-type ) , but with numerous alien readings ( non-Byzantine ) . Some of its readings do not occur in any other manuscript ( so called singular readings ) . According to the present textual critics its text is not a very important manuscript , but it is quoted in all modern editions of the Greek New Testament . The manuscript was brought from the East at the beginning of the 17th century . It was in private hands for over 100 years . Since 1830 i</t>
         </is>
       </c>
     </row>
@@ -1841,32 +1841,32 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>['painting', 'paintings', 'art', 'artist', 'serbian', 'works', 'marie', 'exhibition', 'copenhagen', 'photography', 'photographers', 'canvas', 'painted', 'symphony', 'portrait']</t>
+          <t>['comics', 'story', 'belgian', 'adventures', 'snowy', 'moon', 'brussels', 'cartoonist', 'comic', 'depiction', 'belgium', 'adventure', 'sun', 'explorers', 'book']</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>The Nightmare = The Nightmare is a 1781 oil painting by Anglo-Swiss artist Henry Fuseli ( 1741 – 1825 ) . Since its creation , it has remained Fuseli 's best-known work . With its first exhibition in 1782 at the Royal Academy of London , the image became famous ; an engraved version was widely distributed and the painting was parodied in political satire . Due to its fame , Fuseli painted at least three other versions of the painting . Interpretations of The Nightmare have varied widely . The canvas seems to portray simultaneously a dreaming woman and the content of her nightmare . The incubus and the horse 's head refer to contemporary belief and folklore about nightmares , but have been ascribed more specific meanings by some theorists . Contemporary critics were taken aback by the overt sexuality of the painting , which has since been interpreted by some scholars as anticipating Jungian ideas about the unconscious . = = Description and history = = The Nightmare simultaneously offers</t>
+          <t>Comics = Comics is a medium used to express ideas by images , often combined with text or other visual information . Comics frequently takes the form of juxtaposed sequences of panels of images . Often textual devices such as speech balloons , captions , and onomatopoeia indicate dialogue , narration , sound effects , or other information . Size and arrangement of panels contribute to narrative pacing . Cartooning and similar forms of illustration are the most common image-making means in comics ; fumetti is a form which uses photographic images . Common forms of comics include comic strips , editorial and gag cartoons , and comic books . Since the late 20th century , bound volumes such as graphic novels , comic albums , and tankōbon have become increasingly common , and online webcomics have proliferated in the 21st century . The history of comics has followed different paths in different cultures . Scholars have posited a pre-history as far back as the Lascaux cave paintings . By the</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Martinique macaw = The Martinique macaw or orange-bellied macaw ( Ara martinicus ) is a hypothetical extinct species of macaw which may have been endemic to the Lesser Antillean island of Martinique , in the eastern Caribbean Sea . It was scientifically named by Walter Rothschild in 1905 , based on a 1630s description of " blue and orange-yellow " macaws by Père Jacques Bouton . No other evidence of its existence is known , but it may have been identified in contemporary artwork . Some writers have suggested that the birds observed were actually blue-and-yellow macaws ( Ara ararauna ) . The " red-tailed blue-and-yellow macaw " ( Ara erythrura ) , another species described by Rothschild in 1907 based on a 1658 account , is thought to be identical to the Martinique macaw , if either has ever existed . The Martinique macaw is one of thirteen extinct macaw species that have been proposed to have lived in the Caribbean islands . Many of these species are now considered dubious because only </t>
+          <t>Out of This World Adventures = Out of This World Adventures was a pulp magazine which published two issues , in July and December 1950 . It included several pages of comics as well as science fiction stories . It was edited by Donald A. Wollheim and published by Avon . Sales were weak , and after two issues Avon decided to cancel it . = = Publication history = = The early 1950s saw dramatic changes in the world of U.S. science fiction publishing . At the start of 1949 , all but one of the major magazines in the field were in pulp format ; by the end of 1955 , almost all had either ceased publication or switched to digest format . Despite the rapid decline of the pulp market , several new science fiction magazines were launched in pulp format during these years ; Out of This World Adventures was one of these . In 1947 Avon Books launched the Avon Fantasy Reader , a series of fantasy anthologies in digest format , edited by Donald A. Wollheim . Two years later , Joseph Meyers , Avon 's p</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Jackie Hudson = Jacqueline Marie " Jackie " Hudson , O.P. , ( November 19 , 1934 – August 3 , 2011 ) was an American Dominican Sister and anti-nuclear activist . She spent the first 29 years of her working career as a music teacher . After her retirement from education , she dedicated her life to anti-war activism , during the course of which her actions led her to be arrested several times . In 2011 , after a decline in her health in prison , Hudson died from multiple myeloma at the age of 76 . = = Early life , education , and career = = Born in Saginaw , Michigan , she was the youngest of two children . Her father had studied in a seminary for a time and both her parents were very religious . Hudson was raised in the Roman Catholic faith and attended Catholic schools for her entire education . In 1952 , at the age of 18 , she decided to join the Dominican Sisters of Grand Rapids . After her initial formation as a member of her religious congregation , Hudson was permitted to attend V</t>
+          <t>Flash Gordon Strange Adventure Magazine = Flash Gordon Strange Adventure Magazine was a pulp magazine which was launched in December 1936 . It was published by Harold Hersey , and was an attempt to cash in on the growing comics boom , and the popularity of the Flash Gordon comic strip in particular . The magazine contained a novel about Flash Gordon and three unrelated stories ; there were also eight full-page color illustrations . The quality of both the artwork and the fiction was low , and the magazine only saw a single issue . It is now extremely rare . = = Publication history and contents = = Although science fiction ( sf ) had been published before the 1920s , it did not begin to coalesce into a separately marketed genre until the appearance in 1926 of Amazing Stories , a pulp magazine published by Hugo Gernsback . After 1931 , when Miracle Science and Fantasy Stories was launched , no new science fiction magazines appeared for several years . In 1934 a science fiction comic stri</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Changi Murals = The Changi Murals are a set of five paintings of biblical theme painted by Stanley Warren , a British bombardier and prisoner-of-war ( POW ) interned at the Changi Prison , during the Japanese occupation of Singapore in World War II ( WWII ) . His murals were completed under difficult conditions of sickness , limited materials and hardships . With a message of universal love and forgiveness , they helped to uplift the spirits of the POWs and sick when they sought refuge in the prison chapel . After the war , the walls of the chapel were distempered over , hiding the murals from view . They were forgotten until its rediscovery in 1958 . Due to their historical significance , an international search was conducted to locate the original painter in helping to restore the damaged and faded murals . Stanley was eventually found in 1959 and , after much persuasion , agreed to assist in the restoration project . He made three trips to Singapore between 1963 and 1988 to restore </t>
+          <t>Canadian comics = Canadian comics refers to comics and cartooning by citizens of Canada or permanent residents of Canada regardless of residence . Canada has two official languages , and distinct comics cultures have developed in English and French Canada . The English tends to follow American trends , and the French Franco-Belgian ones , with little crossover between the two cultures . Canadian comics run the gamut of comics forms , including editorial cartooning , comic strips , comic books , graphic novels , and webcomics , and are published in newspapers , magazines , books , and online . They have received attention in international comics communities and have received support from the federal and provincial governments , including grants from the Canada Council for the Arts . There are a comics publishers throughout the country , as well as large small press , self-publishing , and minicomics communities . In English Canada many cartoonists , from Hal Foster to Todd McFarlane , h</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Tamerlane and Other Poems = Tamerlane and Other Poems is the first published work by American writer Edgar Allan Poe . The short collection of poems was first published in 1827 . Today , it is believed only 12 copies of the collection still exist . Poe abandoned his foster family , the Allans , and moved to Boston to find work in 1827 . Having only minor success , he enlisted in the United States Army . He brought with him several manuscripts , which he paid a printer named Calvin F. S. Thomas to publish . The 40-page collection was called Tamerlane and Other Poems and did not include Poe 's name . Distribution was limited to 50 copies and it received no critical attention . The poems were largely inspired by Lord Byron , including the long title poem " Tamerlane " , which depicts an historical conqueror who laments the loss of his first romance . Like much of Poe 's future work , the poems in Tamerlane and Other Poems include themes of love , death , and pride . Poe 's first published</t>
+          <t>Miracle Science and Fantasy Stories = Miracle Science and Fantasy Stories was a pulp science fiction magazine which published two issues in 1931 . The fiction was unremarkable , but the cover art and illustrations , by Elliott Dold , were high quality , and have made the magazine a collector 's item . The magazine ceased publication when Dold became ill and was unable to continue his duties both as editor and artist . = = Publication history = = In 1931 , Harold Hersey , who had been working in the pulp magazine field for over a decade , decided to launch a new science fiction ( sf ) and fantasy magazine . Hersey had been the editor for the first half of The Thrill Book 's run of 16 issues in 1919 , and had also worked for Clayton Magazines , where in 1928 he had proposed a sf magazine to William Clayton . Clayton turned down the idea , but the following year changed his mind and launched Astounding Stories of Super Science , with Harry Bates as editor . After Hersey left Clayton and s</t>
         </is>
       </c>
     </row>
@@ -1876,32 +1876,32 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>['spacecraft', 'apollo', 'nasa', 'orbit', 'mission', 'lunar', 'launch', 'saturn', 'docking', 'flight', 'manned', 'module', 'space', 'landing', 'earth']</t>
+          <t>['spacecraft', 'apollo', 'nasa', 'lunar', 'mission', 'orbit', 'launch', 'moon', 'saturn', 'module', 'manned', 'docking', 'landing', 'flight', 'space']</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>STS-74 = STS-74 was the fourth mission of the US / Russian Shuttle-Mir Program , and the second docking of the Space Shuttle with Mir . Space Shuttle Atlantis lifted off from Kennedy Space Center launch pad 39A on 12 November 1995 . The mission ended 8 days later with the landing of Atlantis back at Kennedy . It was the second in a series of seven straight missions to the station flown by Atlantis . The shuttle delivered a pair of solar arrays along with the Russian-built Mir Docking Module to allow docking with the station by the space shuttle without moving Mir 's Kristall module . During the three-day docking , the Russian , Canadian , and American crew transferred supplies and equipment between Atlantis and Mir , moved several long-term experiments , and upgraded the station with new equipment , particularly during the installation of the docking module . = = Crew = = = = Mission background = = The crew 's preparation for the mission had begun some thirteen months earlier in 1994 ,</t>
+          <t>Advanced Gemini = Advanced Gemini is a number of proposals that would have extended the Gemini program by the addition of various missions , including manned low Earth orbit , circumlunar and lunar landing missions . Gemini was the second manned spaceflight program operated by NASA , and consisted of a two-seat spacecraft capable of maneuvering in orbit , docking with unmanned spacecraft such as Agena Target Vehicles , and allowing the crew to perform tethered extra-vehicular activities . A range of applications were considered for Advanced Gemini missions , including military flights , space station crew and logistics delivery , and lunar flights . The Lunar proposals ranged from reusing the docking systems developed for the Agena target vehicle on more powerful upper stages such as the Centaur , which could propel the spacecraft to the Moon , to complete modifications of the Gemini to enable it to land on the Lunar surface . Its applications would have ranged from manned lunar flybys</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Granat = The International Astrophysical Observatory " GRANAT " ( usually known as Granat ; Russian : Гранат ) , was a Soviet ( later Russian ) space observatory developed in collaboration with France , Denmark and Bulgaria . It was launched on 1 December 1989 aboard a Proton rocket and placed in a highly eccentric four-day orbit , of which three were devoted to observations . It operated for almost nine years . In September 1994 , after nearly five years of directed observations , the gas supply for its attitude control was exhausted and the observatory was placed in a non-directed survey mode . Transmissions finally ceased on 27 November 1998 . With seven different instruments on board , Granat was designed to observe the universe at energies ranging from X-ray to gamma ray . Its main instrument , SIGMA , was capable of imaging both hard X-ray and soft gamma-ray sources . The PHEBUS instrument was meant to study gamma-ray bursts and other transient X-Ray sources . Other experiments s</t>
+          <t>Soyuz TM-30 = Soyuz TM-30 ( Russian : Союз ТМ-30 , Union TM-30 ) , also known as Mir EO-28 , was a Soyuz mission , the 39th and final human spaceflight to the Mir space station . The crew of the mission was sent by MirCorp , a privately funded company , to reactivate and repair the station . The crew also resupplied the station and boosted the station to an orbit with a low point ( perigee ) of 360 and a high point ( apogee ) of 378 kilometers ( 223 and 235 miles , respectively ) . The boost in the station 's orbit , which was done by utilizing the engines of the Progress M1-1 and M1-2 spacecraft , made transit between Mir and the International Space Station impossible , as desired by NASA . The mission was the first privately funded mission to a space station . The mission was part of an effort by MirCorp to refurbish and privatize the aging Mir space station , which was nearing the end of its operational life . Further commercially funded missions beyond Soyuz TM-30 were originally p</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Svalbard Satellite Station = Svalbard Satellite Station ( Norwegian : Svalbard satelittstasjon ) or SvalSat is a satellite ground station located on Platåberget near Longyearbyen in Svalbard , Norway . Opened in 1997 , it is operated by Kongsberg Satellite Services ( KSAT ) , a joint venture between Kongsberg Defence &amp; Aerospace and the Norwegian Space Centre ( NSC ) . SvalSat and KSAT 's Troll Satellite Station ( TrollSat ) in Antarctica are the only ground stations that can see a low altitude polar orbiting satellite ( e.g. , in sun-synchronous orbit ) on every revolution as the earth rotates . The facility consists of 31 multi-mission and customer-dedicated antennas which operate in the C , L , S and X bands . The station provides ground services to more satellites than any other facility in the world . Customers with their own installations include the European Organisation for the Exploitation of Meteorological Satellites ( EUMETSAT ) , the National Aeronautics and Space Administr</t>
+          <t>Mir EO-19 = Mir EO-19 ( Russian : Мир ЭО-19 , also known as Principal Expedition 19 ) was the nineteenth manned expedition to the space station Mir , lasting from June to September 1995 . The crew , consisting of Russian cosmonauts Anatoly Solovyev and Nikolai Budarin , launched on June 27 , 1995 aboard the Space Shuttle Atlantis on the STS-71 mission . After remaining aboard Mir for approximately 75 days , Solovyev and Budarin returned aboard the Soyuz TM-21 spacecraft on September 11 , 1995 . EO-19 lasted just under three months and was the only complete all-Russian crewed expedition to Mir in 1995 and was the first Mir expedition launched on an American Space Shuttle . The mission that launched EO-19 , STS-71 , was the first Space Shuttle docking to Mir . = = Crew = = Antatoly Solovyev served as a crew member on three spaceflights prior to EO-19 : Mir EP-2 , Soyuz TM-9 , and Soyuz TM-15 . This flight was his first aboard a Space Shuttle , with his three previous flights being on the</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1966 NASA T-38 crash = The 1966 NASA T-38 crash occurred when a NASA Northrop T-38 Talon crashed at Lambert Field in St. Louis , Missouri , on February 28 , 1966 , killing two Project Gemini astronauts , Elliot See and Charles Bassett . The aircraft , piloted by See , crashed into the McDonnell Aircraft building where their Gemini 9 spacecraft was being assembled . The weather was poor with rain , snow , fog , and low clouds . A NASA panel , headed by the Chief of the Astronaut Office , Alan Shepard , investigated the crash . While the panel considered possible medical issues or aircraft maintenance problems , in addition to the weather and air traffic control factors , the end verdict was that the crash was caused by pilot error . In the aftermath of the crash , the backup crew of Thomas Stafford and Eugene Cernan were moved up to the primary position for the Gemini 9 mission , scheduled for early June . Jim Lovell and Buzz Aldrin , who had formerly been the backup for Gemini 10 , bec</t>
+          <t xml:space="preserve">Apollo program = The Apollo program , also known as Project Apollo , was the third United States human spaceflight program carried out by the National Aeronautics and Space Administration ( NASA ) , which accomplished landing the first humans on the Moon from 1969 to 1972 . First conceived during Dwight D. Eisenhower 's administration as a three-man spacecraft to follow the one-man Project Mercury which put the first Americans in space , Apollo was later dedicated to President John F. Kennedy 's national goal of " landing a man on the Moon and returning him safely to the Earth " by the end of the 1960s , which he proposed in an address to Congress on May 25 , 1961 . Kennedy 's goal was accomplished on the Apollo 11 mission when astronauts Neil Armstrong and Buzz Aldrin landed their Lunar Module ( LM ) on July 20 , 1969 , and walked on the lunar surface , while Michael Collins remained in lunar orbit in the Command / Service Module ( CSM ) , and all three landed safely on Earth on July </t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>STS-8 = STS-8 was the eighth NASA Space Shuttle mission and the third flight of the Space Shuttle Challenger . It launched on August 30 , 1983 and landed on September 5 , conducting the first night launch and night landing of the Space Shuttle program . It also carried the first African-American astronaut , Guion Bluford . The mission successfully achieved all of its planned research objectives , but was marred by the subsequent discovery that a solid-fuel rocket booster had almost malfunctioned catastrophically during the launch . The mission 's primary payload was INSAT-1B , an Indian communications and weather observation satellite , which was released by the orbiter and boosted into a geostationary orbit . The secondary payload , replacing a delayed NASA communications satellite , was a four-metric-ton dummy payload , intended to test the use of the shuttle 's " Canadarm " remote manipulator system . Scientific experiments carried onboard Challenger included the environmental testi</t>
+          <t xml:space="preserve">Apollo program = The Apollo program , also known as Project Apollo , was the third United States human spaceflight program carried out by the National Aeronautics and Space Administration ( NASA ) , which accomplished landing the first humans on the Moon from 1969 to 1972 . First conceived during Dwight D. Eisenhower 's administration as a three-man spacecraft to follow the one-man Project Mercury which put the first Americans in space , Apollo was later dedicated to President John F. Kennedy 's national goal of " landing a man on the Moon and returning him safely to the Earth " by the end of the 1960s , which he proposed in an address to Congress on May 25 , 1961 . Kennedy 's goal was accomplished on the Apollo 11 mission when astronauts Neil Armstrong and Buzz Aldrin landed their Lunar Module ( LM ) on July 20 , 1969 , and walked on the lunar surface , while Michael Collins remained in lunar orbit in the Command / Service Module ( CSM ) , and all three landed safely on Earth on July </t>
         </is>
       </c>
     </row>
@@ -1911,32 +1911,32 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>['contest', 'broadcaster', 'semi', 'countries', 'jury', 'final', 'participating', 'greece', 'voting', 'host', 'idol', 'entry', 'philippine', 'song', 'country']</t>
+          <t>['phillies', 'inning', 'yankees', 'dodgers', 'giants', 'yankee', 'breaker', 'innings', 'tie', 'pitcher', 'run', 'braves', 'game', 'runs', 'pennant']</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Joseph Massino = Joseph Charles Massino ( born January 10 , 1943 ) is an American former mobster . He was a member of the Mafia ( Cosa Nostra ) and was the boss of the Bonanno crime family from 1991 until 2004 , when he became the first boss of one of the Five Families in New York City to turn state 's evidence . Massino was a protégé of Philip Rastelli , who took control of the troubled Bonanno family after the assassination of Carmine Galante . Originally a truck hijacker , Massino secured his own power after arranging two 1981 gang murders , first a triple murder of three rebel captains , then his rival Dominick Napolitano . In 1991 , while Massino was in prison for a 1986 labor racketeering conviction , Rastelli died and Massino succeeded him . Upon his release the following year he set about rebuilding a family that had been in turmoil for almost a quarter-century . By the dawn of the new millennium , he was reckoned as the most powerful Mafia leader in the nation . Massino became</t>
+          <t>2013 American League Wild Card tie-breaker game = The 2013 American League Wild Card tie-breaker game was a one-game extension to Major League Baseball 's ( MLB ) 2013 regular season , played between the Texas Rangers and Tampa Bay Rays to determine the second participant in the 2013 American League ( AL ) Wild Card Game . It was played at the Rangers Ballpark in Arlington on September 30 , 2013 . The Rays defeated the Rangers , 5 – 2 , and advanced to the AL Wild Card Game against the Cleveland Indians at Progressive Field , which they won 4 – 0 ; the Rangers failed to qualify for the postseason . The tie-breaker game was necessary after both teams finished the season with win – loss records of 91 – 71 and thus tied for the second Wild Card position in the AL . The Rangers were awarded home field for the game , as they won the regular season series against the Rays , four-games-to-three . The game was televised on TBS . It was the fourth tie-breaker in MLB history for a Wild Card spot</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mara Carfagna = Maria Rosaria " Mara " Carfagna ( born December 18 , 1975 ) is an Italian politician and former showgirl and model . After obtaining a degree in law , Carfagna worked for several years on Italian television shows and as a model . She later entered politics and was elected to the Chamber of Deputies for Forza Italia party in 2006 . From 2008 to 2011 she served as Minister for Equal Opportunity in Berlusconi IV Cabinet . Carfagna had been named " the most beautiful minister in the world " , and was ranked number one on Maxim 's " World ´ s Hottest Politicians " . = = Background = = Carfagna was born in Salerno , where she attended the Liceo scientifico Giovanni da Procida . In 2001 she graduated in law from the University of Salerno , with a thesis on information law and broadcasting systems . = = Career as showgirl and model = = After having studied dance and piano , she participated in the Miss Italy contest in 1997 , finishing in sixth place . About the experience she </t>
+          <t>2014 National League Wild Card Game = The 2014 National League Wild Card Game was a play-in game during Major League Baseball 's ( MLB ) 2014 postseason played between the National League 's ( NL ) two wild card teams , the San Francisco Giants and the Pittsburgh Pirates . It was held at PNC Park in Pittsburgh , Pennsylvania , on October 1 , 2014 , starting at 8 : 07 p.m. EDT . After both teams finished the regular season with identical records of 88 – 74 , the Pirates were awarded home field for the game , as they won the season series against the Giants , four games to two . Despite this advantage , the Giants won by a score of 8 – 0 and advanced to play the Washington Nationals in the NL Division Series ( NLDS ) . In addition to being the third NL Wild Card Game played , it is notable for the first postseason grand slam hit by a shortstop . The game was televised on ESPN , and was also broadcast on ESPN Radio . = = Background = = In Major League Baseball , the two teams with the bes</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Saw 3D = Saw 3D ( also known as Saw : The Final Chapter , or simply Saw VII ) is a 2010 American 3D horror film directed by Kevin Greutert , written by Patrick Melton and Marcus Dunstan , and starring Tobin Bell , Costas Mandylor , Betsy Russell , Sean Patrick Flanery and Cary Elwes . It is the seventh ( and originally intended final ) installment of the Saw franchise , and the only film in the series to be in 3D . The film focuses on a man who falsely claims to be a Jigsaw survivor , becoming a local celebrity . However , he soon finds himself part of a real Jigsaw game where he must ultimately save his wife . Meanwhile , Jill Tuck reveals to an internal affairs officer that rogue Detective Mark Hoffman is the man responsible for the recent Jigsaw games , and Hoffman hunts her down . An eighth installment was planned , but the decrease in the box office performance for Saw VI compared to previous installments led to Saw 3D being the final planned film in the series , and the plot conc</t>
+          <t>1980 National League West tie-breaker game = The 1980 National League West tie-breaker game was a one-game extension to Major League Baseball 's ( MLB ) 1980 regular season , played between the Houston Astros and the Los Angeles Dodgers to decide the winner of the National League 's ( NL ) West Division . The game was played on October 6 , 1980 , at Dodger Stadium in Los Angeles , California . It was necessary after the Dodgers overcame a three-game deficit in the final three games of the season and both teams finished with identical win – loss records of 92 – 70 . The Dodgers won a coin flip late in the season which , by rule at the time , awarded them home field for the game . The Astros won the game , 7 – 1 , with Houston starter Joe Niekro throwing a complete game . This victory advanced the Astros to the 1980 NL Championship Series ( NLCS ) , in which they lost to the Philadelphia Phillies , ending the Astros ' season . In baseball statistics , the tie-breaker counted as the 163rd</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Quick and the Dead ( 1995 film ) = The Quick and the Dead is a 1995 American western film directed by Sam Raimi , and starring Sharon Stone , Gene Hackman , Russell Crowe and Leonardo DiCaprio . The screenplay was written by Simon Moore but includes contributions from Joss Whedon . The story focuses on " The Lady " ( Stone ) , a gunfighter who rides into the frontier town of Redemption , controlled by John Herod ( Hackman ) . The Lady joins a deadly dueling competition in an attempt to exact revenge for her father 's death . Simon Moore 's script was purchased by Sony Pictures Entertainment in May 1993 , and actress Sharon Stone signed on as both star and co-producer . Development was fast tracked after director Sam Raimi 's hiring , and principal photography began in Old Tucson Studios in Arizona on November 21 , 1993 . The film was distributed by TriStar Pictures and was released in the US on February 10 , 1995 to a dismal box office performance , receiving lukewarm reviews from </t>
+          <t>1951 National League tie-breaker series = The 1951 National League tie-breaker series was a best-of-three playoff series at the conclusion of Major League Baseball 's ( MLB ) 1951 regular season to decide the winner of the National League ( NL ) pennant . The games were played on October 1 , 2 , and 3 , 1951 , between the New York Giants and Brooklyn Dodgers . It was necessary after both teams finished the season with identical win – loss records of 96 – 58 . It is most famous for the walk-off home run hit by Bobby Thomson of the Giants in the deciding game , which has come to be known as baseball 's " Shot Heard ' Round the World " . This was the second three-game playoff in NL history . After no tiebreakers had been needed since the American League ( AL ) became a major league in 1901 , this was the third such tie in the previous six seasons . The Dodgers had been involved in the previous one as well , losing to the St. Louis Cardinals during the 1946 season in two straight games . I</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Dead Celebrities = " Dead Celebrities " is the eighth episode of the thirteenth season of the American animated television series South Park . The 189th overall episode of the series , it originally aired on Comedy Central in the United States on October 7 , 2009 . In the episode , Ike is haunted by the ghosts of dead celebrities until Michael Jackson , who refuses to accept death , possesses him . The episode was written and directed by series co-creator Trey Parker , and was rated TV-MA L in the United States ( specifically for adults , with coarse language ) . " Dead Celebrities " included references to several actors , singers and famous people who died in the summer of 2009 , when South Park was on a mid-season hiatus . Among the celebrities featured in the episode were Billy Mays , Ed McMahon , Farrah Fawcett , Patrick Swayze , Walter Cronkite , Dom DeLuise , Ted Kennedy , Natasha Richardson , Bea Arthur , David Carradine , DJ AM , Ricardo Montalbán , and Steve McNair . " Dead Ce</t>
+          <t>2009 Philadelphia Phillies season = The Philadelphia Phillies ' 2009 season was the 127th season in the history of the franchise . The team , managed by Charlie Manuel , began their sixth season at Citizens Bank Park and defense of their 2008 World Series championship on April 5 . After collecting a third straight Eastern Division championship , the Phillies won their second consecutive National League pennant for the first time in franchise history ; they were defeated by the New York Yankees in the 2009 World Series . The Phillies posted a second consecutive winning April to open the season with an 11 – 9 record , but the month was marred by the death of " legendary " broadcaster Harry Kalas . After opening the month of May against the rival New York Mets , the Phillies met President Barack Obama to celebrate their World Series victory the previous season , and had two rookie pitchers win consecutive starts for the first time since 2007 . Starting pitcher Jamie Moyer earned his 250th</t>
         </is>
       </c>
     </row>
@@ -1946,32 +1946,32 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>['lighthouse', 'light', 'keeper', 'tower', 'lens', 'keepers', 'concrete', 'connecticut', 'lamp', 'cottages', 'installed', 'constructed', 'lamps', 'island', 'iron']</t>
+          <t>['amendment', 'shall', 'constitution', 'clause', 'defendant', 'states', 'rights', 'congress', 'jury', 'amendments', 'ratification', 'constitutional', 'supreme_court', 'senate', 'convention']</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Henry Martin Tupper = Henry Martin Tupper D.D. ( April 11 , 1831 – November 12 , 1893 ) was a Baptist minister who founded Shaw University in Raleigh , North Carolina . Beginning with bible and literacy classes in December 1865 , it was the first university established for African Americans following the end of the civil war , and the oldest historically black college and university ( HBCU ) in the Southern United States , as well as one of the oldest co-educational universities in the country . When the institute moved into a new building in 1871 , it was renamed as Shaw Collegiate Institute in honor of a major donor . Tupper served as the University 's first president from its founding until his death in 1893 . = = Early life and military career = = Henry Martin Tupper was born on April 11 , 1831 to Earl and Permellia Norris Tupper and raised on a farm in Monson , Massachusetts . He was the eldest of nine children . His grandfather , Ezra Tupper , and great-grandfather , William Tupp</t>
+          <t>United States Bill of Rights = The Bill of Rights is the collective name for the first ten amendments to the United States Constitution . Proposed following the oftentimes bitter 1787 – 88 battle over ratification of the U.S. Constitution , and crafted to address the objections raised by Anti-Federalists , the Bill of Rights amendments add to the Constitution specific guarantees of personal freedoms and rights , clear limitations on the government 's power in judicial and other proceedings , and explicit declarations that all powers not specifically delegated to Congress by the Constitution are reserved for the states or the people . The concepts codified in these amendments are built upon those found in several earlier documents , including the Virginia Declaration of Rights and the English Bill of Rights 1689 , along with earlier documents such as Magna Carta ( 1215 ) . On June 8 , 1789 , Representative James Madison introduced nine amendments to the constitution in the House of Repr</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>British Library Philatelic Collections = The British Library Philatelic Collections is the national philatelic collection of the United Kingdom with over 8 million items from around the world . It was established in 1891 as part of the British Museum Library , later to become the British Library , with the collection of Thomas Tapling . In addition to bequests and continuing donations , the library received consistent deposits by the Crown Agency and has become a primary research collection for British Empire and international history . The collections contain a wide range of artefacts in addition to postage stamps , from newspaper stamps to a press used to print the first British postage stamps . = = History = = The first notable philatelic donation was in 1890 by Hubert Haes of two albums of postage stamps collected by himself and Walter Van Noorden . It was donated with the request that the British Museum library ( now the British Library ) would create a philatelic collection . The</t>
+          <t>Constitution of Virginia = The Constitution of the Commonwealth of Virginia is the document that defines and limits the powers of the state government and the basic rights of the citizens of the U.S. Commonwealth of Virginia . Like all other state constitutions , it is supreme over Virginia 's laws and acts of government , though it may be superseded by the United States Constitution and U.S. federal law as per the Supremacy Clause . The original Virginia Constitution of 1776 was enacted in conjunction with the Declaration of Independence by the first thirteen states of the United States of America . Virginia was an early state to adopt its own Constitution on June 29 , 1776 , and the document was widely influential both in the United States and abroad . In addition to frequent amendments , there have been six major subsequent revisions of the constitution ( by Conventions for the constitutions of 1830 , 1851 , 1864 , 1870 , 1902 , and by commission for 1971 amendments ) . These new co</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Briarcliff Lodge = The Briarcliff Lodge was a luxury resort in the village of Briarcliff Manor , New York . It was a notable example of Tudor Revival architecture , and was one of the largest wooden structures in the United States . It was also the first hotel in Westchester County . Walter William Law had it built on his estate , and the Law family owned it until 1937 . When the lodge opened in 1902 , it was one of the largest resort hotels in the world . The lodge hosted presidents , royalty , and celebrities , and was the scene of numerous memorable occasions for visitors and local residents who attended weddings , receptions , and dances in the ballroom and dining room . For a long time , the lodge was situated among other businesses of Walter Law , including the Briarcliff Farms and Briarcliff Table Water Company . In 1933 , the lodge ended year-round service and housed a " health-diet sanitarium " until the Edgewood Park School for Girls began operation there from 1937 to 1954 . </t>
+          <t>Crimes Act of 1790 = The Crimes Act of 1790 ( or the Federal Criminal Code of 1790 ) , formally titled An Act for the Punishment of Certain Crimes Against the United States , defined some of the first federal crimes in the United States and expanded on the criminal procedure provisions of the Judiciary Act of 1789 . The Crimes Act was a " comprehensive statute defining an impressive variety of federal crimes . " As an enactment of the First Congress , the Crimes Act is often regarded as a quasi-constitutional text . The punishment of treason , piracy , counterfeiting , as well as crimes committed on the high seas or against the law of nations , followed from relatively explicit constitutional authority . The creation of crimes within areas under exclusive federal jurisdiction followed from the plenary power of Congress over the " Seat of the Government , " federal enclaves , and federal territories . The creation of crimes involving the integrity of the judicial process derived from Co</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Cine City , Withington = Cine City was a cinema in Withington , Manchester , England located at 494 Wilmslow Road , Withington , Manchester , M20 3BG . It opened in 1912 as The Scala , and was the third cinema to open in Britain . During the 1930s , cinemas became increasingly popular ; The Scala was one of 109 cinemas in Manchester at its peak . The road outside was hit by a small bomb during the Second World War , but the cinema ( which was showing several films at the time ) survived with only minor damage . After the war , television led to a decline in cinema attendances , and by 1965 , only 40 cinemas remained in Manchester . Cine City closed in July 2001 , making it the third-longest running cinema in England . By 2005 the building was in a bad state of repair , and was threatened with demolition . Although heritage groups won a stay of execution , the cinema was demolished in spring 2008 . A replacement building is planned for the site . = = History = = The cinema opened in 191</t>
+          <t>Fourteenth Amendment to the United States Constitution = The Fourteenth Amendment ( Amendment XIV ) to the United States Constitution was adopted on July 9 , 1868 , as one of the Reconstruction Amendments . The amendment addresses citizenship rights and equal protection of the laws , and was proposed in response to issues related to former slaves following the American Civil War . The amendment was bitterly contested , particularly by Southern states , which were forced to ratify it in order for them to regain representation in Congress . The Fourteenth Amendment , particularly its first section , is one of the most litigated parts of the Constitution , forming the basis for landmark decisions such as Roe v. Wade ( 1973 ) regarding abortion , Bush v. Gore ( 2000 ) regarding the 2000 presidential election , and Obergefell v. Hodges ( 2015 ) regarding same-sex marriage . The amendment limits the actions of all state and local officials , including those acting on behalf of such an offici</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Goathouse Refuge = The Goathouse Refuge in Pittsboro , North Carolina , is a nonprofit no-kill animal sanctuary for cats that is run on a volunteer-basis . The refuge is cage-free so the cats can freely roam around within the boundaries of the property . Founded in 2007 by Italian-born artist Siglinda Scarpa , the refuge can hold up to 300 cats on a 16-acre farm . There is an art gallery located on the first floor of the house where Scarpa sells her handmade art such as pottery , sculptures , and cookware to help support the refuge . = = Founding = = Siglinda Scarpa says she had issues with communication as a child , stating that “ people were not seeing me , that they were talking , but never to me . ” It was not until her father brought a stray kitten home and placed it under her sheets that Scarpa felt she could communicate with someone . The kitten was a year old when he became very ill and died . After his death , Scarpa decided to take in as many cats as possible , with the hopes</t>
+          <t>United States v. More = United States v. More , 7 U.S. 159 ( 1805 ) , was a United States Supreme Court case in which the Court held that it had no jurisdiction to hear appeals from criminal cases in the circuit courts by writs of error . Relying on the Exceptions Clause , More held that Congress 's enumerated grants of appellate jurisdiction to the Court operated as an exercise of Congress 's power to eliminate all other forms of appellate jurisdiction . The second of forty-one criminal cases heard by the Marshall Court , More ensured that the Court 's criminal jurisprudence would be limited to writs of error from the state ( and later , territorial ) courts , original habeas petitions and writs of error from habeas petitions in the circuit courts , and certificates of division and mandamus from the circuit courts . Congress did not grant the Court jurisdiction to hear writs of error from the circuit courts in criminal cases until 1889 , for capital crimes , and 1891 , for other " inf</t>
         </is>
       </c>
     </row>
@@ -1981,32 +1981,32 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>['ben', 'survivors', 'shannon', 'island', 'freighter', 'charlotte', 'bernard', 'michael', 'plane', 'daniel', 'tom', 'frank', 'dave', 'kate', 'oceanic']</t>
+          <t>['singapore', 'law', 'judicial', 'parliament', 'constitution', 'article', 'courts', 'minister', 'court', 'constitutional', 'high_court', 'persons', 'public', 'tribunal', 'act']</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Kimberley Joseph = Kimberley Joseph ( born August 30 , 1973 ) is a Canadian Australian actress who is based in the United States . Joseph was born in Canada , raised on the Gold Coast in Australia , and educated in Switzerland . After returning to Australia , she began a degree at Bond University but dropped out at the age of 19 when she was cast in the soap opera Paradise Beach . She had no formal acting training but appeared in the soap for the 18 months it was produced . After Paradise Beach ended , she had casual work on Hey Hey It 's Saturday before co-hosting the popular Seven Network series Gladiators . After two series of Gladiators , Joseph was eager to return to acting , so took the role of villain Joanne Brennan in Home and Away from 1995 to 1996 . In 1999 , she moved to the United States to study acting at the Atlantic Theater Company in New York City , then spent 18 months unsuccessfully auditioning for roles in Los Angeles . In 2001 , she was cast as Jo Ellison in the Bri</t>
+          <t xml:space="preserve">Government of Singapore = The Government of Singapore is defined by the Constitution of the Republic of Singapore to mean the Executive branch of government , which is made up of the President and the Cabinet of Singapore . Although the President acts in his personal discretion in the exercise of certain functions as a check on the Cabinet and Parliament of Singapore , his role is largely ceremonial . It is the Cabinet , composed of the Prime Minister and other Ministers appointed on his advice by the President , that generally directs and controls the Government . The Cabinet is formed by the political party that gains a simple majority in each general election . A statutory board is an autonomous agency of the Government that is established by an Act of Parliament and overseen by a government ministry . Unlike ministries and government departments that are subdivisions of ministries , statutory boards are not staffed by civil servants and have greater independence and flexibility in </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Secrets That I Never Want to Know = " Secrets That I Never Want to Know " is the eighth-season premiere episode of the American comedy-drama television series Desperate Housewives , and the 158th overall episode of the series . It was originally broadcast in the United States on September 25 , 2011 , on the American Broadcasting Company ( ABC ) . The episode focuses on the aftermath and cover-up of an accidental killing . The episode was written by executive producer Bob Daily and directed by David Grossman . In the episode , Bree ( Marcia Cross ) and Gabrielle ( Eva Longoria ) work together to conceal the death of Gabrielle 's stepfather ( Tony Plana ) while Susan ( Teri Hatcher ) and Carlos ( Ricardo Antonio Chavira ) struggle with their guilt over the cover-up . Meanwhile , Lynette ( Felicity Huffman ) and Tom ( Doug Savant ) deal with their separation . " Secrets That I Never Want to Know " received generally positive reviews from critics , most of whom agreed the episode provided </t>
+          <t>Constitution of the Republic of Singapore Tribunal = The Constitution of the Republic of Singapore Tribunal was established in 1994 pursuant to Article 100 of the Constitution of the Republic of Singapore . Article 100 provides a mechanism for the President of Singapore , acting on the advice of the Singapore Cabinet , to refer to the Tribunal for its opinion any question as to the effect of any provision of the Constitution which has arisen or appears to likely to arise . Questions referred to the Tribunal may concern the validity of enacted laws or of bills that have not yet been passed by Parliament . Constitutional questions may also be referred to the Tribunal when Parliament attempts to circumvent or curtail the discretionary powers conferred on the President by the Constitution . If the attempt is by way of an ordinary bill , the President can exercise personal discretion to withhold assent to it . It is then open to Cabinet to advise the President to refer to the Tribunal the q</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Abergil crime family = The Abergil crime family ( Hebrew : משפחת הפשע אברג 'יל ) is a Moroccan-Jewish crime organization based in Israel , and located around the world , founded by Ya 'akov Abergil . The group was headed by Ya 'akov Abergil ( Hebrew : יעקב אברג 'יל ) until his death in 2002 , and is now run under the auspices of Itzhak ( Itzik ) Abergil ( Hebrew : יצחק ( איציק ) אברג 'יל ) , and his brothers Meir Abergil ( Hebrew : מאיר אברג 'יל ) and Avraham ( Ibi ) Abergil ( Hebrew : אייבי אברג 'יל ) . Its illicit activities include drug trafficking , both in Israel and the US , murder , extortion , embezzlement , money laundering , the control of illegal casinos and other crimes . Considered one of the six major organized-crime cells in Israel , and one of the world ’ s top 40 biggest drug importers to the United States , the Abergils have been arrested and detained multiple times worldwide . Avraham Abergil is currently incarcerated on a slew of drug and attempted murder charges . </t>
+          <t>Article 14 of the Constitution of Singapore = Article 14 of the Constitution of the Republic of Singapore , specifically Article 14 ( 1 ) , guarantees to Singapore citizens the rights to freedom of speech and expression , peaceful assembly without arms , and association . However , the enjoyment of these rights may be restricted by laws imposed by the Parliament of Singapore on the grounds stated in Article 14 ( 2 ) of the Constitution . There are two types of grounds . For the first type , it must be shown that restricting the rights is " necessary or expedient in the interest " of the grounds . The grounds are the security of Singapore and public order ( applicable to all three rights protected by Article 14 ( 1 ) ) , morality ( freedom of speech and freedom of association ) , and friendly relations with other countries ( freedom of speech only ) . In a 2005 judgment , the High Court expressed the view that the phrase necessary or expedient confers upon Parliament " an extremely wide</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Adam Carter = Adam Henry Carter is a fictional character from the BBC espionage television series Spooks , which follows the exploits of Section D , a counter-terrorism division of MI5 . He is portrayed by British actor Rupert Penry-Jones . The character is a former MI6 officer who takes charge as the chief of Section D , and hence the head protagonist following the departure of Tom Quinn in series three . Adam Carter was created with the knowledge that Matthew Macfadyen , who played Tom Quinn , would leave the series . The intention was that Adam would be different from Tom ; the producers wanted a character who was a husband with an MI6 background . Rupert Penry-Jones was cast after three auditions . Before the sixth series finale aired , it was announced that Penry-Jones would leave the series . In the premiere episode of series seven , Carter is killed in a car bomb . His death was voted the fourth most shocking death in the series . Rupert Penry-Jones was awarded " Best Actor " at</t>
+          <t>Rule of law doctrine in Singapore = In Singapore , the rule of law doctrine has been the topic of considerable disagreement and debate , largely through differing conceptions of the doctrine . These conceptions can generally be divided into two categories developed by legal academics , the " thin " , or formal , conception and the " thick " , or substantive , conception of the rule of law . The thin conception , often associated with the legal scholars Albert Venn Dicey and Joseph Raz , advocates the view that the rule of law is fulfilled by adhering to formal procedures and requirements , such as the stipulations that all laws be prospective , clear , stable and constitutionally enacted , and that the parties to legal disputes are treated equally and without bias on the part of judges . While people subscribing to the thin conception do not dismiss the importance of the content of the law , they take the view that this is a matter of substantive justice and should not be regarded as p</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Angel One = This article is for the Star Trek : The Next Generation episode . For the cable channel known as " Angel One " , see Sky Angel . " Angel One " is the 14th episode of the first season of the American science fiction television series Star Trek : The Next Generation . It was first broadcast on January 25 , 1988 , in the United States in broadcast syndication . It was written by Patrick Barry and was directed by Michael Ray Rhodes . Set in the 24th century , the series follows the adventures of the crew of the Starfleet starship Enterprise-D. In this episode , an away team visits a world dominated by women to search for survivors of a downed freighter , while the crew of the Enterprise suffer from the effects of a debilitating virus . The episode was intended to be commentary on Apartheid in South Africa , using gender role reversal . However , there were problems between the cast and director during filming , and Patrick Stewart sought to have the sexist nature of the episode</t>
+          <t>Presidential Council for Minority Rights = The Presidential Council for Minority Rights ( PCMR ) is a non-elected government body in Singapore established in 1970 , the main function of which is to scrutinize most of the bills passed by Parliament to ensure that they do not discriminate against any racial or religious community . If the Council feels that any provision in a bill amounts to a differentiating measure , it will report its findings to Parliament and refer the bill back to Parliament for reconsideration . The Council also examines subsidiary legislation and statutes in force on 9 January 1970 . One member of the PCMR is nominated by the Chairman to the Presidential Elections Committee , which is empowered to ensure that candidates for the office of President have the qualifications required by the Constitution . The President also appoints and dismisses the chairman and members of the Presidential Council for Religious Harmony ( " PCRH " ) , established by the Maintenance o</t>
         </is>
       </c>
     </row>
@@ -2016,32 +2016,32 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>['motorway', 'croatia', 'adriatic', 'croatian', 'toll', 'traffic', 'interchanges', 'kilometre', 'route', 'interchange', 'kilometres', 'section', 'areas', 'rest', 'yugoslavia']</t>
+          <t>['motorway', 'croatia', 'toll', 'croatian', 'traffic', 'interchanges', 'kilometre', 'route', 'interchange', 'section', 'rest', 'kilometres', 'areas', 'tunnels', 'construction']</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>River Frome , Bristol = The River Frome / ˈfruːm / , historically the River Froom , is a river in South Gloucestershire and Bristol , England . It is approximately 20 miles ( 32 km ) long , rises in Dodington Park , South Gloucestershire , and flows in a south westerly direction through Bristol , joining the former course of the river Avon in Bristol 's Floating Harbour . The mean flow at Frenchay is 60 cubic feet per second ( 1.7 m3 / s ) The name Frome is shared with several other rivers in South West England and means ' fair , fine , brisk ’ . The river is familiarly known in east Bristol as the Danny . Originally the Frome joined the Avon downstream of Bristol Bridge , and formed part of the city defences , but in the thirteenth century the river was diverted through marshland belonging to St Augustine 's Abbey ( now Bristol Cathedral ) , as part of major port improvement works . In the late nineteenth and early twentieth centuries , the lower reaches of the river were culverted an</t>
+          <t xml:space="preserve">A5 ( Croatia ) = The A5 motorway ( Croatian : Autocesta A5 ) is a motorway in Croatia spanning 55.5 kilometres ( 34.5 mi ) . It connects Osijek , the largest city in Slavonia region , to the Croatian motorway network at the Sredanci interchange of the A3 motorway . The A5 represents a significant north – south transportation corridor in Croatia and is a part of the European route E73 . The A5 motorway route also follows Pan-European corridor Vc . In addition to Osijek , the A5 motorway also passes near Đakovo . The first section of the A5 , joining the Sredanci interchange to Đakovo , was opened in 2007 ; the route to Osijek opened in 2009 . As of September 2011 , the section south of the A3 , extending to the Sava River and border of Bosnia and Herzegovina , is under construction . Once the entire Pan-European corridor Vc is completed , motorists will recognize the A5 's importance as a transit route . When completed , the corridor shall entail the A5 itself extended to the Hungarian </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>MediaCityUK = MediaCityUK is a 200-acre ( 81 ha ) mixed-use property development site on the banks of the Manchester Ship Canal in Salford and Trafford , Greater Manchester , England . The project is being developed by Peel Media , and its principal tenants are media organisations and the University of Salford . The land occupied by the development was part of the Port of Manchester and Manchester Docks . The BBC signalled its intention to move jobs to Manchester in 2004 , and the Salford Quays site was chosen in 2006 . The Peel Group was granted planning permission to develop the site in 2007 , and construction of the development , with its own energy generation plant and communications network , began the same year . Based in Quay House , the principal tenant is the BBC , whose move marks a large-scale decentralisation from London . ITV Granada completed the first phase of its move to MediaCityUK on 25 March 2013 , followed in two stages by the northern arm of ITV Studios : the secon</t>
+          <t xml:space="preserve">A2 ( Croatia ) = The A2 motorway ( Croatian : Autocesta A2 ) is a motorway in the Hrvatsko Zagorje region of northern Croatia , connecting Zagreb to the Macelj border crossing and Slovenia . The A2 motorway is part of the European route E59 and the Pan-European Corridor Xa . The motorway spans 59.2 kilometres ( 36.8 mi ) between the Slovenian border and the Jankomir interchange within the Zagreb bypass , providing road connections to a number of cities and towns besides Zagreb , including Krapina , Zabok and Zaprešić . All sections of the motorway , except the northernmost one between the Macelj border crossing and Trakošćan , and the southernmost one near Zagreb , are tolled , using a closed toll collection system . Construction of the motorway began in 1990 , lbut a decade-long hiatus between the mid-1990s and 2004 caused by funding issues and the setting up of a separate company to develop and operate the motorway meant it was not completed until 2007 . As of July 2011 , the entire </t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Mehmed II 's first Albanian campaign = In 1452 , the newly acceded Ottoman Sultan Mehmed II ordered his first campaign against Skanderbeg , the chief of the League of Lezhë . Shortly after the First Siege of Krujë , Murad II died in Edirne , only to be succeeded by his son Mehmed II . Mehmed always supported more aggressive strategies of conquest which his father had continually rejected . Once in power , Mehmed ordered nearly annual invasions of Albania which often resulted in multiple battles in one year . The first of these expeditions was sent in 1452 under the dual-command of Hamza Pasha and Tahip Pasha , with an army of approximately 25,000 men . This campaign was the first major test for the new Sultan against western Europe and a high point of a diplomatic struggle between the major Mediterranean powers . Albania at the time was suffering a crisis of power as Skanderbeg , the chief of the League of Lezhë , became a vassal of Alfonso the Magnanimous , the king of Aragon . Worrie</t>
+          <t>A4 ( Croatia ) = The A4 motorway ( Croatian : Autocesta A4 ) is a motorway in Croatia spanning 97.0 kilometres ( 60.3 mi ) . It connects the nation 's capital , Zagreb , to the city of Varaždin and to Budapest , Hungary via the Goričan border crossing . The motorway represents a major north – south transportation corridor in Croatia and is a part of European routes E65 and E71 . The A4 motorway route also follows Pan-European corridor Vb . Apart from Zagreb and Varaždin , the A4 motorway runs near a number of Croatian cities , and connects to the rest of the Croatian motorway network east of Zagreb . The motorway route was completed in 2008 . The motorway 's national significance is reflected in the positive economic impact on the cities and towns it connects , as well as its importance to tourism in Croatia . The genuine importance of the motorway as a transit route will be demonstrated upon completion of proposed expansion of Port of Rijeka and Rijeka transport node , since the A4 re</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Theodoxus fluviatilis = Theodoxus fluviatilis , common name the river nerite , is a species of small freshwater and brackish water snail with a gill and an operculum , an aquatic gastropod mollusk in the family Neritidae , the nerites . This widely distributed neritid snail species occurs from Europe to Central Asia . It has a thick shell with a calcified operculum . The coloration pattern on the shell is very variable . Theodoxus fluviatilis lives in freshwater and in brackish water , in rivers and lakes on stones . It feeds mainly by grazing on biofilms and diatoms . Some of the populations of this species are spreading , and these can reach densities up to thousands of snails per square meter . Females lay egg capsules , each of which contains a large number of eggs , but only one snail hatches from the capsule . The snails reach sexual maturity in a year , and the total lifespan is 2 or 3 years . = = Taxonomy = = Theodoxus fluviatilis was originally described under the name Nerita </t>
+          <t>A7 ( Croatia ) = The A7 motorway ( Croatian : Autocesta A7 ) is a 42.4-kilometre-long ( 26.3 mi ) motorway in Croatia . It connects the nation 's largest port in Rijeka , to the Croatian motorway network , as well as to the Rupa and Pasjak border crossings to Slovenia . The motorway forms part of a longitudinal transportation corridor in Croatia , and it is a part of European route E61 Villach – Ljubljana – Trieste – Rijeka . The A7 motorway route south of Orehovica interchange , where it also intersects Pan-European corridor Vb , is a part of European route E65 . The A7 motorway runs near a number of Croatian cities and provides access to Učka Nature Park and , indirectly , to numerous resorts in the Istria and Kvarner Gulf regions . The motorway is nationally significant because of its positive economic impact on the cities and towns it connects , and because of its contribution to tourism in Croatia . The importance of the motorway as a transit route will be further increased upon c</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Spanish conquest of Chiapas = The Spanish conquest of Chiapas was the campaign undertaken by the Spanish conquistadores against the Late Postclassic Mesoamerican polities in the territory that is now incorporated into the modern Mexican state of Chiapas . The region is physically diverse , featuring a number of highland areas , including the Sierra Madre de Chiapas and the Montañas Centrales ( Central Highlands ) , a southern littoral plain known as Soconusco and a central depression formed by the drainage of the Grijalva River . Before the Spanish conquest , Chiapas was inhabited by a variety of indigenous peoples , including the Zoques , various Maya peoples , such as the Lakandon Ch 'ol and the Tzotzil , and an unidentified group referred to as the Chiapanecas . Soconusco had been incorporated into the Aztec Empire , centred in Valley of Mexico , and paid the Aztecs tribute . News of strangers first arrived in the region as the Spanish penetrated and overthrew the Aztec Empire . In </t>
+          <t>A6 ( Croatia ) = The A6 motorway ( Croatian : Autocesta A6 ) is a motorway in Croatia spanning 80.2 kilometres ( 49.8 mi ) . It connects the nation 's capital , Zagreb , via the A1 , to the seaport of Rijeka . The motorway forms a major north – south transportation corridor in Croatia and is a part of European route E65 Nagykanizsa – Zagreb – Rijeka – Zadar – Split – Dubrovnik – Podgorica . The A6 motorway route also follows Pan-European corridor Vb . The A6 motorway runs near a number of Croatian cities , provides access to Risnjak National Park and indirectly to numerous resorts , notably in the Istria and Kvarner Gulf regions . The motorway route was completed in 2008 . The motorway is nationally significant because of its positive economic impact on the cities and towns it connects , and because of its contribution to tourism in Croatia . The importance of the motorway as a transit route will be further increased upon completion of a proposed expansion of the Port of Rijeka and Rij</t>
         </is>
       </c>
     </row>
@@ -2051,32 +2051,32 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>['rockets', 'nba', 'arena', 'playoffs', 'houston', 'team', 'franchise', 'ownership', 'finals', 'relocation', 'toronto', 'draft', 'games', 'pick', 'season']</t>
+          <t>['clark', 'superman', 'oliver', 'finale', 'season', 'comic', 'character', 'relationship', 'whitney', 'metropolis', 'believes', 'discovers', 'secret', 'martha', 'series']</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SS Fort Stikine = Fort Stikine was a British Fort ship which was built in Canada in 1942 . Owned by the American War Shipping Administration , she was leased under charter to the Ministry of War Transport under the Lend-Lease scheme and operated under the management of the Port Line . Fort Stikine only had a short career , and was destroyed in an explosion at Bombay , India , in April 1944 that caused the loss of a further thirteen ships . = = Construction = = Fort Stikine was 441 feet 5 inches ( 134.54 m ) long , with a beam of 57 feet 2 inches ( 17.42 m ) . She had a depth of 35 feet 0 inches ( 10.67 m ) and a draught of 26 feet 11.5 inches ( 8.22 m ) . The ship was propelled by a 505 NHP triple expansion steam engine which was built by the Dominion Engineering Works , Montreal , Quebec , Canada . It had cylinders of 241 ⁄ 2 inches ( 62 cm ) , 37 inches ( 94 cm ) and 70 inches ( 180 cm ) bore by 48 inches ( 120 cm ) stroke . = = History = = Fort Stikine was built by Prince Rupert Dry</t>
+          <t>Batman in film = The fictional character Batman , a comic book superhero featured in DC Comics publications and created by Bob Kane and Bill Finger , has appeared in various films since his inception . The character first starred in two serial films in the 1940s , Batman and Batman and Robin . The character also appeared in the 1966 film Batman , which was a feature film adaptation of the 1960s Batman TV series starring Adam West and Burt Ward , who also starred in the film . Toward the end of the 1980s , the Warner Bros. studio began producing a series of feature films starring Batman , beginning with the 1989 film Batman , directed by Tim Burton and starring Michael Keaton . Burton and Keaton returned for the 1992 sequel Batman Returns , and in 1995 , Joel Schumacher directed Batman Forever with Val Kilmer as Batman . Schumacher also directed the 1997 sequel Batman &amp; Robin , which starred George Clooney . Batman &amp; Robin was poorly received by both critics and fans , leading to the ca</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Desert Strike = Desert Strike : Return to the Gulf , commonly known as Desert Strike , is a shoot ' em up video game released by Electronic Arts ( EA ) in February 1992 for the Sega Genesis . The game was later released on several other formats such as the Super Nintendo Entertainment System , including a much upgraded version for the Amiga home computer . The game was inspired by the Gulf War and depicts a conflict between an insane Middle Eastern dictator , General Kilbaba , and the United States . The player controls a lone Apache helicopter and attempts to destroy enemy weapons and installations , rescue hostages and capture enemy personnel , while managing supplies of fuel and ammunition . The lead designer , Mike Posehn , had no video game experience prior to developing Desert Strike . Inspired by Choplifter , he aimed to create a nonlinear game with smoothly animated vehicles . Posehn , a PhD in Mechanical Engineering , developed a camera system with momentum to mimic realistic </t>
+          <t>Clark Kent ( Smallville ) = Clark Kent is a fictional character on the television series Smallville . The character of Clark Kent , first created for comic books by Jerry Siegel and Joe Shuster in 1938 as the alternate identity of Superman , was adapted to television in 2001 by Alfred Gough and Miles Millar . This is the fourth time the character has been adapted to a live-action television series . Clark Kent has been played continually by Tom Welling , with various other actors portraying Clark as a child . The character has also appeared in various literature based on the Smallville series , all of which are completely independent of the television episodes . As of 2011 , Smallville 's Clark Kent has appeared in eighteen young adult novels . In the series , Clark Kent attempts to live the life of a normal human being , and struggles with keeping the secret of his alien heritage from his friends . He has an on-again , off-again relationship with Lana Lang through the first seven seas</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Jungle Strike = Jungle Strike is a video game developed and published by Electronic Arts in 1993 for the Sega Mega Drive . The game was later released on several other consoles such as the Super Nintendo Entertainment System ( SNES ) , and an upgraded version was made for the Amiga . The Amiga and other home computer conversions were the responsibility of Ocean Software while the SNES version was that of Gremlin Interactive . It is the direct sequel to Desert Strike : Return to the Gulf ( a best-seller released the previous year ) and is the second instalment in the Strike series . The game is a helicopter based shoot ' em up , mixing action and strategy . The plot concerns two villains intent on destroying Washington , D.C .. The player must use the helicopter and occasionally other vehicles to thwart their plans . Its game engine was carried over from a failed attempt at a flight simulator and was inspired by Matchbox toys and Choplifter . Jungle Strike retained its predecessor 's co</t>
+          <t>Kenny McCormick = Kenneth " Kenny " McCormick ( sometimes spelled as McKormick ) is a main character in the animated adult television series South Park , along with his friends Stan Marsh , Kyle Broflovski , and Eric Cartman . His oft-muffled and indiscernible speech — the result of his parka hood covering his mouth — is provided by co-creator Matt Stone . He debuted on television when South Park first aired on August 13 , 1997 , after having first appeared in The Spirit of Christmas shorts created by Stone and long-time collaborator Trey Parker in 1992 ( Jesus vs. Frosty ) and 1995 ( Jesus vs. Santa ) . Kenny is a third , later fourth-grade student who commonly has extraordinary experiences not typical of conventional small-town life in his hometown of South Park , Colorado , where he lives with his impoverished family . Kenny is animated by computer to look as he did in the show 's original method of cutout animation . He also appears in the 1999 full-length feature film South Park :</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Destruction of Syria 's chemical weapons = The destruction of Syria 's chemical weapons began with several international agreements that were arrived at with Syria , with an initial destruction deadline of 30 June 2014 . United Nations Security Council Resolution 2118 imposed on Syria responsibilities and a timeline for the destruction of its chemical weapons and chemical weapons production facilities . The Security Council resolution incorporated and bound Syria to an implementation plan enacted in an Organisation for the Prohibition of Chemical Weapons ( OPCW ) Executive Council Decision . On 23 June 2014 , the last declared chemical weapons were shipped out of Syria for destruction . The destruction of the most dangerous chemical weapons began at sea aboard the Maritime Administration Ready Reserve Force vessel CAPE RAY crewed with U.S. civilian merchant mariners . It took 42 days aboard ship to destroy 600 metric tons of chemical agents that would have been used to make deadly Sari</t>
+          <t>Lois Lane ( Smallville ) = Lois Lane is a fictional character on the television series Smallville ; she was portrayed continually by Erica Durance since her first appearance in the season four premier " Crusade " to the series finale . Durance began as a guest star in season four , but was promoted to series regular status beginning in season five . The character of Lois Lane , first created for comic books by Jerry Siegel and Joe Shuster in 1938 to be the love interest for Clark Kent and his alter-ego Superman , was adapted to television in 2001 by Alfred Gough and Miles Millar — this is the fourth time the character has been adapted to a live action television series . In Smallville , Lois comes to town to investigate the apparent death of her cousin Chloe Sullivan at the start of the fourth season . After finding Chloe still alive , Lois is forced to enroll in Smallville High to complete the remaining credits of high school she failed to achieve . As the series progresses , her inte</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Bill Cunningham ( rugby union ) = William " Bill " Cunningham ( 8 July 1874 – 3 September 1927 ) was a New Zealand rugby union player who represented New Zealand — known as the All Blacks — between 1901 and 1908 . Most notably he toured with the Original All Blacks on their 1905 – 06 tour of the British Isles , France and North America . They were the first New Zealand representative team to visit the British Isles , and of their 32 matches there Cunningham played in 23 . He played mainly at lock , and was added to the touring party due to his strong scrummaging ability . He played in three Test matches during the trip : against Scotland , Ireland and France , but did not play in the loss to Wales due to injury , the All Blacks ' only defeat on tour . Born near Te Awamutu , Cunningham originally played club rugby in Waihi , in the Coromandel region . Lying within the Auckland Rugby Football Union 's boundaries , he was selected to play for Auckland province in 1899 and continued to rep</t>
+          <t>Justice League ( Smallville ) = The Justice League is a fictional group of superheroes on the television series , Smallville , who were adapted for television by Alfred Gough and Miles Millar . The Justice League originally included Oliver Queen , Bart Allen , Victor Stone , and Arthur Curry ; Clark Kent did not accept a role until three seasons later . As the team continued to appear in the series , new characters were introduced and subsequently joined the team . The original Justice League first appeared in the DC comic book The Brave and the Bold # 28 ( 1960 ) , and consisted of members Superman , Batman , Wonder Woman , Flash , Green Lantern , Aquaman , and the Martian Manhunter . In Smallville , the team did not make its first official appearance until the season six episode " Justice " , although each member had been previously introduced individually on various episodes since season four . In the series , the team never formalized a name for themselves , although the cast and c</t>
         </is>
       </c>
     </row>
@@ -2086,32 +2086,32 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>['clark', 'superman', 'oliver', 'finale', 'season', 'comic', 'character', 'relationship', 'whitney', 'metropolis', 'believes', 'discovers', 'secret', 'martha', 'series']</t>
+          <t>['euro', 'coins', 'currency', 'note', 'notes', 'denominations', 'dollar', 'value', 'stripe', 'tender', 'silver', 'puerto_rico', 'thread', 'ink', 'issued']</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Adam ( Buffy the Vampire Slayer ) = Adam is a fictional character in the fourth season of the fantasy television series Buffy the Vampire Slayer . Portrayed by George Hertzberg , he is a monster created from a man and the collected parts of demons , vampires , and technology : the product of a perverse experiment carried out by military scientists . The series ' main character , Buffy Summers , encounters and ultimately defeats him in the fourth season . Adam is the creation of Dr. Maggie Walsh ( Lindsay Crouse ) , the head of a military-like organization called The Initiative that studies how to alter the harmful behavior inherent to demons . Adam and the Initiative are the fourth season 's primary antagonists , or Big Bad . The premise of the series is that Buffy ( Sarah Michelle Gellar ) is a Slayer , endowed with superhuman strength to fight vampires and evil creatures in the fictional town of Sunnydale . In the fourth season , Buffy begins attending college , where she discovers t</t>
+          <t>Euro = The euro ( sign : € ; code : EUR ) is the official currency of the eurozone , which consists of 19 of the 28 member states of the European Union : Austria , Belgium , Cyprus , Estonia , Finland , France , Germany , Greece , Ireland , Italy , Latvia , Lithuania , Luxembourg , Malta , the Netherlands , Portugal , Slovakia , Slovenia , and Spain . The currency is also officially used by the institutions of the European Union and four other European countries , as well as unilaterally by two others , and is consequently used daily by some 337 million Europeans as of 2015 . Outside of Europe , a number of overseas territories of EU members also use the euro as their currency . Additionally , 210 million people worldwide as of 2013 use currencies pegged to the euro . The euro is the second largest reserve currency as well as the second most traded currency in the world after the United States dollar . As of August 2014 , with more than € 995,000,000,000 in circulation , the euro has t</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Jimmy Frise = The Canadian cartoonist James Llewellyn " Jimmy " Frise ( / fraɪz / , 16 October 1891 – 13 June 1948 ) is best known for his work on the comic strip Birdseye Center and his illustrations of humorous prose pieces by Greg Clark . Born in Scugog Island , Ontario , Frise moved to Toronto at 19 and found illustration work on the Toronto Star 's Star Weekly supplement . His left hand was severely injured at the Battle of Vimy Ridge in 1917 during World War I , but his drawing hand was unhurt , and he continued cartooning at the Star upon his return . In 1919 he began his first weekly comic strip , Life 's Little Comedies , which evolved into the rural-centred humorous Birdseye Center in 1923 . He moved to the Montreal Standard in 1947 , but as the Star kept publication rights to Birdseye Center , Frise continued it as Juniper Junction with strongly similar characters and situations . Doug Wright took over the strip after Frise 's sudden death from a heart attack in 1948 , and i</t>
+          <t>500 euro note = The five hundred euro note ( € 500 ) is the highest-value euro banknote and has been used since the introduction of the euro ( in its cash form ) in 2002 . It is one of the highest value circulating banknotes in the world , worth around 551 USD , 3,677 CNY , 58,254 JPY , 543 CHF or 417 GBP . The note is used in the 23 countries which have the euro as their sole currency ( with 22 legally adopting it ) , with a population of about 338 million . It is the largest note measuring 160 × 82 mm and has a purple colour scheme . The five hundred euro banknotes depict bridges and arches / doorways in modern architecture ( around the late 20th century ) . The five hundred euro note contains several complex security features such as watermarks , invisible ink , holograms and microprinting that make counterfeiting very difficult . Initially the high denomination notes were introduced very rapidly so that in first 7 years ( by Dec 2008 ) there were 530,064,413 five hundred euro bankn</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>John Harrison Clark = John Harrison Clark or Changa-Changa ( c . 1860 – 1927 ) effectively ruled much of what is today southern Zambia from the early 1890s to 1902 . Alone and unassisted , he arrived from South Africa in about 1887 , reputedly as an outlaw , and assembled and trained a private army of Senga natives , which he used to drive off various bands of slave-raiders . He took control of a swathe of territory on the north bank of the Zambezi river called Mashukulumbwe , became known as Chief " Changa-Changa " and , through a series of treaties with local chiefs , gained mineral and labour concessions covering much of the region . Starting in 1897 , Clark attempted to secure protection for his holdings from the British South Africa Company . The Company took little notice of him . When a local chief , Chintanda , complained to the Company in 1899 that Clark had secured his concessions while passing himself off as a Company official and had been collecting hut tax for at least two</t>
+          <t xml:space="preserve">100 euro note = The one hundred euro note ( € 100 ) is one of the higher value euro banknotes and has been used since the introduction of the euro ( in its cash form ) in 2002 . The note is used daily by some 332 million Europeans and in the 23 countries which have it as their sole currency ( with 22 legally adopting it ) . It is the third largest note measuring 147 millimetres ( 5.8 in ) × 82 millimetres ( 3.2 in ) and has a green colour scheme . The hundred euro notes depict bridges and arches / doorways in the Baroque and Rococo style ( between the 17th and 18th century ) . The hundred euro note contains several complex security features such as watermarks , invisible ink , holograms and microprinting that document its authenticity . In May 2012 , there were approximately 1,652,287,100 hundred euro banknotes in circulation in the eurozone . = = History = = The euro was founded on 1 January 1999 , when it became the currency of over 300 million people in Europe . For the first three </t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Polikarpov I-6 = The Polikarpov I-6 was a Soviet biplane fighter prototype of the late 1920s . It was designed with traditional wooden construction in comparison with the wood and steel tube construction Polikarpov I-5 . Its development took longer than planned and the lead designer , Nikolai Polikarpov , was arrested for industrial sabotage , which only further delayed the project . Only two prototypes were built , as the I-5 was selected for production . = = Design and development = = Development of the I-6 ( Istrebitel ' — fighter ) began in September 1928 with a deadline for delivery for the first prototype of 1 August 1929 after the first prototypes of the Polikarpov I-3 were completed . Although the new fighter shared many of the characteristics of the earlier design , including the staggered sesquiplane , single-bay , layout of the wings , it was a new design which used a nine-cylinder , single-row , air-cooled Bristol Jupiter radial engine rather the water-cooled inline engine </t>
+          <t>5 euro note = The five euro note ( € 5 ) is the lowest value euro banknote and has been used since the introduction of the euro ( in its cash form ) in 2002 . The note is used in the 25 countries which have it as their sole currency ( with 23 legally adopting it ) ; with a population of about 332 million . Measuring 120 x 62mm , it is the smallest of the euro notes , and has a grey colour scheme . The five euro banknotes depict bridges and arches / doorways in Classical architecture ( up to the fifth century ) . The five euro note contains several complex security features such as watermarks , invisible ink , holograms and microprinting that document its authenticity . In November 2014 , there were approximately 1,653,458,000 five euro banknotes in circulation around the eurozone . On 8 November 2012 , the European Central Bank announced the first series of notes will be replaced , starting with the 5 euro note on 2 May 2013 . = = History = = The euro was founded on 1 January 1999 , wh</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>John D. Rockefeller = John Davison Rockefeller Sr. ( July 8 , 1839 – May 23 , 1937 ) was an American industrialist and philanthropist . He was a co-founder of the Standard Oil Company , which dominated the oil industry and was the first great U.S. business trust . Rockefeller revolutionized the petroleum industry , and along with other key contemporary industrialists such as Andrew Carnegie , defined the structure of modern philanthropy . In 1870 , he founded Standard Oil Company and actively ran it until he officially retired in 1897 . Rockefeller founded Standard Oil as an Ohio partnership with his brother William along with Henry Flagler , Jabez A. Bostwick , chemist Samuel Andrews , and a silent partner , Stephen V. Harkness . As kerosene and gasoline grew in importance , Rockefeller 's wealth soared and he became the world 's richest man and the first American worth more than a billion dollars , controlling 90 % of all oil in the United States at his peak . His fortune upon his de</t>
+          <t>200 euro note = The two hundred euro note ( € 200 ) is the second-highest value euro banknote and has been used since the introduction of the euro ( in its cash form ) in 2002 . The note is used in the 23 countries which have it as their sole currency ( with 22 legally adopting it ) ; with a population of about 332 million . It is the second-largest note , measuring 153 x 82 mm , and has a yellow colour scheme . The two hundred euro banknotes depict bridges and arches / doorways in Art Nouveau style ( 19th and 20th centuries ) . The € 200 note contains several complex security features such as watermarks , invisible ink , holograms and microprinting that document its authenticity . In September 2011 , there were about 178,838,200 € 200 banknotes in circulation around the eurozone . = = History = = The euro was founded on 1 January 1999 , when it became the currency of over 300 million people in Europe . For the first three years of its existence it was an invisible currency , only used</t>
         </is>
       </c>
     </row>
@@ -2121,32 +2121,32 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>['grammy', 'neo', 'hawaiian', 'soul', 'nominees', 'category', 'awards', 'rap', 'award', 'presented', 'categories', 'artists', 'recipients', 'academy', 'disco']</t>
+          <t>['painting', 'paintings', 'works', 'abstract', 'dots', 'art', 'canvas', 'okay', 'artist', 'breasts', 'portrait', 'mirror', 'girl', 'work', 'balloon']</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Reformed baptismal theology = In Reformed theology , baptism is a sacrament signifying the baptized person 's union with Christ , or becoming part of Christ and being treated as if they had done everything Christ had . Sacraments , along with preaching of God 's word , are means of grace through which God offers Christ to people . Sacraments are believed to have their effect through the Holy Spirit , but these effects are only believed to be beneficial to those who have faith in Christ . In Reformed theology , baptism is the sacrament of initiation into the visible church , or body of people who publicly claim faith in Christ . Baptism also signifies regeneration and remission of sin . Reformed Christians believe that the children of those who express faith in Christ should be baptized . Because baptism is believed to be beneficial only to those who have faith in Christ , infants are baptized on the basis of the promise of faith which will come to fruition later in life . = = History =</t>
+          <t xml:space="preserve">Artist 's Studio — Look Mickey = Artist 's Studio — Look Mickey ( sometimes Artist 's Studio , Look Mickey , Artist 's Studio – Look Mickey or Artist 's Studio No. 1 ( Look Mickey ) ) is a 1973 painting by Roy Lichtenstein . It is one of five large-scale studio interior paintings in a series . The series is either referred to as the Artist 's Studio series or more colloquially as the Studios and sometimes is described as excluding the other 1973 painting , reducing the series to four . The series refers to a set of works by Henri Matisse , with this work specifically referring to L 'Atelier Rouge . The work incorporates several other Lichtenstein 's works and gets its name from the large portion of Lichtenstein 's Look Mickey that is included . Lichtenstein used a much more realistic representation of his own works than is standard for most artists . Elements of the work also refer to works from both Fernand Léger and Matisse . = = Background = = Lichtenstein 's studios reference what </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Amanda Seyfried = Amanda Michelle Seyfried ( / ˈsaɪfrɛd / SY-fred ; born December 3 , 1985 ) is an American actress , model , and singer . She began her career as a model when she was 11 , then her acting career at 15 began an acting career with recurring parts on the soap operas As the World Turns and All My Children . In 2004 , Seyfried made her film debut in the teen comedy Mean Girls . Her subsequent supporting roles were in independent films , such as the drama Nine Lives ( 2005 ) and the crime drama Alpha Dog ( 2006 ) , she also had a recurring role in the UPN drama show Veronica Mars ( 2004 – 06 ) . Between 2006 and 2011 , she starred on the HBO drama series Big Love and appeared in the 2008 musical feature film Mamma Mia ! . Her other appearances include leading roles in the black comedy horror film Jennifer 's Body ( 2009 ) , as a call girl in the erotic thriller Chloe ( 2009 ) , the romantic drama-war film Dear John ( 2010 ) , and the romantic drama Letters to Juliet ( 2010 )</t>
+          <t>Big Painting No. 6 = Big Painting No. 6 ( sometimes Big Painting or Big Painting VI ) is a 1965 oil and Magna on canvas painting by Roy Lichtenstein . Measuring 235 cm × 330 cm ( 92.5 in × 129 in ) , it is part of the Brushstrokes series of artworks that includes several paintings and sculptures whose subject is the actions made with a house-painter 's brush . It set a record auction price for a painting by a living American artist when it sold for $ 60,000 in 1970 . The painting is in the Kunstsammlung Nordrhein-Westfalen collection . As with all of his Brushstrokes works , it is in part a satirical response to the gestural painting of Abstract Expressionism . Like most of Lichtenstein 's Ben-Day dots works it is a depiction of mechanical reproduction via painterly technique . In this case , the satire comes from the depiction of the graphical depiction of the spontaneous painting motion in painstaking painterly detail . = = History = = In early 1970 , Andy Warhol established the reco</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Mélanie Laurent = Mélanie Laurent ( French pronunciation : [ melani loʁɑ ̃ ] ; born 21 February 1983 ) is a French actress , singer , screenwriter and director . Born in Paris to a Jewish family , she was introduced to acting at the age of sixteen by French filmmaker Gérard Depardieu , who cast her in a minor role in the romantic drama The Bridge ( 1999 ) . The recipient of two César Awards , a Étoiles d 'or du cinéma français , and a Lumières Award , Laurent has established herself as an accomplished actress in the French film industry . Laurent gained recognition for her supporting work in several French films , most notably the 2006 Franco-Belgian comedy Dikkenek for which she won Étoiles d 'Or for Best Female Newcomer . Her breakthrough role came in the 2006 French drama film Don 't Worry , I 'm Fine for which she later won the César Award for Most Promising Actress , and the Prix Romy Schneider . Laurent made her Hollywood debut in 2009 with the starring role as Shosanna Dreyfus i</t>
+          <t>Girl with Ball = Girl with Ball is a 1961 painting by Roy Lichtenstein . It is an oil on canvas Pop art work that is now in the collection of the Museum of Modern Art , after being owned for several decades by Philip Johnson . It is one of Lichtenstein 's earliest Pop art works and is known for its source , which is a newspaper ad that ran for several decades and which was among Lichtenstein 's earliest works sourced from pop culture . Girl with Ball was exhibited at Lichtenstein 's first solo exhibition and was displayed in Newsweek 's review of the show . This work significantly alters the original source and is considered exemplary of Lichtenstein 's works that exaggerate the mechanically produced appearance although the result of his painterly work . It is an enduring depiction of the contemporary beauty figure . = = Background = = Girl with Ball was inspired by a 1961 advertisement for the Mount Airy Lodge in the Pocono Mountains . The ad , which started running in 1955 , was wide</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Life Is Good ( Nas album ) = Life Is Good is the eleventh studio album by American rapper Nas . It was recorded at various studios in New York and California , and produced primarily by No I.D. and Salaam Remi . Nas wrote the album after his divorce from recording artist Kelis and compared it to Marvin Gaye 's 1978 record Here , My Dear . He wanted to vent personal feelings and address moments in his life in his songs , while drawing on 1980s hip hop influences for the album 's production in order to complement its nostalgic tone . Life Is Good features personal subject matter , themes of adulthood and nostalgia , and reflections on Nas ' personal life and experience in hip hop . His rapping is characterized by a relaxed , plainspoken flow , internal rhymes , and a tone that veers from malicious to nostalgic and introspective . The album 's production incorporates orchestral elements and musical references to both contemporary and golden age hip hop , including boom bap beats and old s</t>
+          <t>Golf Ball = Golf Ball ( sometimes Golfball ) is a 1962 painting by Roy Lichtenstein . It is considered to fall within the art movement known as Pop art . It depicts " a single sphere with patterned , variously directional semi-circular grooves . " The work is commonly associated with black-and-white Piet Mondrian works . It is one of the works that was presented at Lichtenstein 's first solo exhibition and one that was critical to his early association with pop art . The work is commonly critiqued for its tension involving a three-dimensional representation in two dimensions with much discussion revolving around the choice of a background nearly without any perspective . = = History = = When Lichtenstein had his first solo show at the Leo Castelli Gallery in February 1962 , it sold out before opening . Golf Ball was one of the works that Lichtenstein exhibited . Later , Lichtenstein included Golf Ball in Still Life with Goldfish Bowl , 1972 , and Go for Baroque , 1979 . The painting ex</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Good Kid , M.A.A.D City = Good Kid , M.A.A.D City ( stylized as good kid , m.A.A.d city ) is the second studio album by American rapper Kendrick Lamar . The album was released on October 22 , 2012 , by Top Dawg Entertainment , Aftermath Entertainment , and was distributed by Interscope Records . The album serves as Lamar 's major label debut , after his signing to Aftermath and Interscope in early 2012 . It was preceded by the release of Kendrick 's debut studio album Section.80 ( 2011 ) , released exclusively through the iTunes Store independently . The album was recorded mostly at several studios in California with producers such as Dr. Dre , Just Blaze , Pharrell Williams , Hit-Boy , Scoop DeVille , Jack Splash and T-Minus , among others . Billed as a " short film by Kendrick Lamar " on the album cover , the concept album follows the story of Lamar 's teenage experiences in the drug-infested streets and gang lifestyle of his native Compton , California . Good Kid , M.A.A.D City rece</t>
+          <t>Brushstrokes series = Brushstrokes series is the name for a series of paintings produced in 1965 – 66 by Roy Lichtenstein . It also refers to derivative sculptural representations of these paintings that were first made in the 1980s . In the series , the theme is art as a subject , but rather than reproduce masterpieces as he had starting in 1962 , Lichtenstein depicted the gestural expressions of the painting brushstroke itself . The works in this series are linked to those produced by artists who use the gestural painting style of abstract expressionism made famous by Jackson Pollock , but differ from them due to their mechanically produced appearance . The series is considered a satire or parody of gestural painting by both Lichtenstein and his critics . After 1966 , Lichtenstein incorporated this series into later motifs and themes of his work . = = Background = = In the early 1960s , Lichtenstein reproduced masterpieces by Cézanne , Mondrian and Picasso before embarking on the Bru</t>
         </is>
       </c>
     </row>
@@ -2156,32 +2156,32 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>['euro', 'coins', 'currency', 'note', 'notes', 'denominations', 'dollar', 'value', 'stripe', 'tender', 'silver', 'thread', 'ink', 'issued', 'signature']</t>
+          <t>['ben', 'shannon', 'survivors', 'bernard', 'island', 'freighter', 'dave', 'frank', 'plane', 'jack', 'alex', 'miles', 'kate', 'crash', 'rose']</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Never Too Far / Hero Medley = " Never Too Far / Hero Medley " is a medley recorded by American singer-songwriter Mariah Carey , first released as a charity single on December 11 , 2001 through Virgin Records America and serving as the lead single for Carey 's second compilation album , Greatest Hits ( 2001 ) . The medley combines the first verse of " Never Too Far " , co-written and co-produced by Carey and Jimmy Jam and Terry Lewis , with a re-recorded version of the first verse and bridge of " Hero " , written and produced by Carey and Walter Afanasieff . As the latter did not receive co-production credits due to the change in instrumentation , Randy Jackson was named as producer alongside Carey instead . The single was meant to express a message of unity and love in the aftermath of the September 11 attacks . Though Carey did not promote Glitter ( 2001 ) , due to her hospitalization , she embarked on a short promotional tour for the single , and attended several charitable events . </t>
+          <t xml:space="preserve">Shannon Rutherford = Shannon Rutherford was a fictional character played by Maggie Grace on the ABC drama television series Lost , which chronicled the lives of the survivors of a plane crash in the South Pacific . Shannon was introduced in the pilot episode as the stepsister of fellow crash survivor Boone Carlyle ( Ian Somerhalder ) . She was a series regular until her funeral in " What Kate Did " . For most of her time on the Island , she was unhelpful and spent much of her time sunbathing . She formed a relationship with another survivor from the plane crash , Sayid Jarrah ( Naveen Andrews ) . Shannon was accidentally shot by Ana Lucia Cortez who mistakes her for an Other . During the casting process , she was compared to Paris Hilton . Naveen Andrews , who played the character Sayid on the show , had the idea of encouraging the writers to write a romantic relationship between his character and Shannon into the story . Critics found her to be a largely unsympathetic character until </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Joran van der Sloot = Joran Andreas Petrus van der Sloot ( Dutch pronunciation : [ ˈjoːrɑn vɑn dεr ˈsloːt ] ; born 6 August 1987 ) is a Dutch citizen , the murderer of Stephany Flores Ramírez in Lima , in 2010 , and the primary suspect in the 2005 disappearance of Natalee Holloway , in Aruba . After Flores Ramírez 's murder on 30 May 2010 van der Sloot fled to Chile , where he was arrested and extradited back to Peru for questioning regarding the murder . On 7 June 2010 , he confessed to bludgeoning Flores . He later tried to formally retract his confession , claiming that he had been intimidated by the National Police of Peru and framed by the FBI . A Peruvian judge ruled on 25 June 2010 that the confession was valid and on 13 January 2012 , Van der Sloot was sentenced to 28 years imprisonment for Flores ' murder . Five years earlier , while living in Aruba , van der Sloot had been the primary suspect in the disappearance of American teenager Natalee Holloway , who disappeared in Arub</t>
+          <t>Danielle Rousseau = Danielle Rousseau is a fictional character on the ABC drama television series Lost , which chronicles the lives of over forty people after their plane crashes on a remote island somewhere in the South Pacific . Croatian actress Mira Furlan plays the scientist who shipwrecks on the island sixteen years prior to the crash of Oceanic Flight 815 . After Rousseau is killed in the fourth season , the American actress Melissa Farman portrayed a younger version of the character in the fifth season . Furlan later reappears for one episode in the sixth season . Rousseau is a recurring on-island character who has appeared in nineteen episodes in seasons one through four , as well as one episode where her voice alone is heard , and her final episode in the sixth season . The character , who is commonly known as " The French Woman " among the survivors on the island , is introduced early in the first season . Sixteen years prior to the plane crash , Rousseau was a member of a Fr</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>William B. Washburn = William Barrett Washburn ( January 31 , 1820 – October 5 , 1887 ) was an American businessman and politician from Massachusetts . Washburn served several terms in the United States House of Representatives ( 1863 – 71 ) and as the 28th Governor of Massachusetts from 1872 to 1874 , when he won election to the United States Senate in a special election to succeed the recently deceased Charles Sumner . A moderate Republican , Washburn only partially supported the Radical Republican agenda during the American Civil War and the Reconstruction Era that followed . A Yale graduate , Washburn parlayed early business success in furniture manufacture into banking and railroads , based in the Connecticut River valley town of Greenfield . He was a major proponent of a railroads in northern and western Massachusetts , sitting on the board of the Connecticut River Railroad for many years , and playing an oversight role in the construction of the Hoosac Tunnel . He has been descr</t>
+          <t>Tom Friendly = Tom Friendly , often referred to as Tom or Mr. Friendly , is a fictional character portrayed by M. C. Gainey on the American Broadcasting Company ( ABC ) television series Lost . The series follows the lives of around forty survivors from the crash of Oceanic Flight 815 . The survivors find themselves on a mysterious tropical island , and interact with a group known as the Others , who appear to have lived on the island since long before the crash . Tom is an influential member of the Others , and is introduced in 2005 in the season one finale " Exodus : Part 2 " , where he kidnaps one of the survivors . The character makes another fifteen appearances before being killed in the season three finale " Through the Looking Glass " . Tom appears twice in season four in the flashbacks of other characters . Gainey was initially credited as playing " bearded man " and then as " Mr. Friendly " throughout season two before the character was given a first name . In a montage of dec</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Legal history of cannabis in the United States = The legal history of cannabis in the United States relates to the regulation of cannabis ( legal term marijuana ) use for medical , recreational or industrial purposes in the United States . Increased restrictions and labeling of cannabis as a poison began in many states from 1906 onward , and outright prohibitions began in the 1920s . By the mid-1930s marijuana was regulated as a drug in every state , including 35 states that adopted the Uniform State Narcotic Drug Act . The first national regulation was the Marihuana Tax Act of 1937 . Multiple efforts to reschedule cannabis under the Act have failed , and the United States Supreme Court has ruled in United States v. Oakland Cannabis Buyers ' Cooperative and Gonzales v. Raich that the federal government has a right to regulate and criminalize cannabis , even for medical purposes . = = Early history ( pre-1850s ) = = The Virgnia Company , by decree of King James I in 1619 , ordered every</t>
+          <t>Rose and Bernard Nadler = Rose and Bernard Nadler are fictional characters on the American Broadcasting Company ( ABC ) television series Lost , played by L. Scott Caldwell and Sam Anderson respectively . Rose and Bernard visit a faith healer on their honeymoon in Australia , in the hope of healing Rose 's cancer . When Bernard visits the restroom during the return flight , the plane splits in half , with the two halves crashing on different parts of an island in the South Pacific . The couple reunite midway through season two , and Rose reveals the Island has healed her . After time traveling in season five they separate from the remaining survivors and build a cabin near the ocean to live in . Originally , the story of a woman separated from her husband when the plane crashes was going to be used for Kate , but when Kate 's role in the series changed the producers kept that story for Rose . Much of the couple 's story prior to the plane crash was based on the events of Caldwell 's li</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thomas Cushing = Thomas Cushing III ( March 24 , 1725 – February 28 , 1788 ) was an American lawyer , merchant , and statesman from Boston , Massachusetts . Active in Boston politics , he represented the city in the provincial assembly from 1761 to its dissolution in 1774 , serving as the lower house 's speaker for most of those years . Because of his role as speaker , his signature was affixed to many documents protesting British policies , leading officials in London to consider him a dangerous radical . He engaged in extended communications with Benjamin Franklin who at times lobbied on behalf of the legislature 's interests in London , seeking ways to reduce the rising tensions of the American Revolution . Cushing represented Massachusetts in the First and Second Continental Congresses , but was voted out when he opposed independence . Despite this , he remained politically active after independence , continuing to serve in the state government . During the war he was a commissary </t>
+          <t>Ben Linus = Benjamin " Ben " Linus is a fictional character portrayed by Michael Emerson on the ABC television series Lost . Ben was the leader of a group of island natives called the Others and was initially known as Henry Gale to the survivors of Oceanic Flight 815 . He began as the main antagonist during the second and third seasons , but in subsequent seasons , becomes a morally ambiguous ally to the main characters . Other characters frequently describe him as loyal only to himself , though it is also often hinted that he may be driven by some higher purpose . As with most characters on Lost , Ben 's history is revealed through flashbacks and episodes set in other time periods which are revealed slowly as the series progresses . Sterling Beaumon first portrayed a young Ben late in season three , in the character 's first centric episode , " The Man Behind the Curtain " . Ben 's childhood is further explored in the fifth season of the series , partially set in 1977 . Fifth season e</t>
         </is>
       </c>
     </row>

--- a/data/top_docs/ctm/thetas_top_docs.xlsx
+++ b/data/top_docs/ctm/thetas_top_docs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,32 +476,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['album', 'song', 'chart', 'music', 'video', 'band', 'songs', 'madonna', 'track', 'pop', 'single', 'recording', 'lyrics', 'vocals', 'billboard']</t>
+          <t>['credits', 'composition', 'allmusic', 'listing', 'charts', 'piano', 'drums', 'beats', 'liner', 'label', 'recording', 'download', 'ballad', 'songwriter', 'vocals']</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Lo Mejor de Mí ( song ) = " Lo Mejor de Mí " ( " All My Best " ) is a song written and produced by Rudy Pérez and first recorded by Spanish singer Juan Ramon for his second studio album Por Haberte Amado Tanto ( 1990 ) . In the song , the protagonist tells his lover how he gave his best despite not meeting his lover 's expectation . In 1997 , Mexican recording artist Cristian Castro covered the song for his fifth studio album Lo Mejor de Mí which Pérez also produced and arranged . Castro 's version peaked at number-one on the Billboard Hot Latin Songs and the Billboard Latin Pop Songs charts in the United States . The song received a Billboard Latin Music Awards and a Lo Nuestro nomination for Pop Song of the Year . Pérez earned the American Society of Composers , Authors and Publishers award in the Pop / Ballad field . = = Background = = In 1990 , Spanish recording artist Juan Ramon released his second studio album Por Haberte Amado Tanto which was arranged and produced by Cuban-Ameri</t>
+          <t>Oh Blue Christmas = Oh Blue Christmas is an EP by the American band A Fine Frenzy , released in November 2009 in the United States by Virgin Records . It was initially released exclusively through Target just two months following the group 's previous studio album Bomb in a Birdcage . The EP contains cover versions of three popular holiday songs ( " Blue Christmas " , " Winter Wonderland " and " Christmas Time Is Here " from A Charlie Brown Christmas ) as well as three original tracks . According to Alison Sudol , A Fine Frenzy 's leader , the collection of songs was recorded in five days at record producer David Bianco 's studio in Los Angeles . The EP , and " Christmas Time Is Here " in particular , received positive critical reception overall . In the United States , Oh Blue Christmas peaked at number 87 on the Billboard 200 , number three on Billboard 's Top Holiday Albums chart and number 28 on the Top Rock Albums chart . A Fine Frenzy was touring throughout the United States arou</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enamorada de Ti ( song ) = " Enamorada de Ti " ( English : " In Love With You " ) is a song recorded by American Tejano recording artist Selena and originally written for her second studio album , Ven Conmigo ( 1990 ) . The song was written by Selena y Los Dinos band member Pete Astudillo and her brother , A.B. Quintanilla III , and produced by Quintanilla . " Enamorada de Ti " is a freestyle song , a musical genre popular during the late 1980s . The recording was remixed by Juan Magan for the eponymous album in 2012 , a project headed by Humberto Gatica . Although the song was moderately successful during the early 1990s , it was exposed to a wider audience in the remix album Enamorada de Ti . Because of this , the song peaked at number 17 on the US Billboard Regional Mexican Digital Songs chart that year . In 1997 , the posthumously-released single " Is It the Beat ? " adopted the rap verse found in " Enamorada de Ti " . In the lyrics the protagonist sings to her love interest about </t>
+          <t>The Stripped Mixes = The Stripped Mixes ( released on CD for a limited time as The Motown 50 Mixes ) , is a collection of American recording artist and former Jackson 5 member Michael Jackson 's classic songs . The songs featured on the album are mainly from Jackson 's career as a member of the Jackson 5 from the 1960s to the 1980s ; songs credited to Jackson as a solo artist are from his albums during his Motown-era . Other songs included on the album are " stripped " mixes of Jackson material , meaning the songs are of a quieter tone and most of the drums have been removed . Following a surge in Jackson 's popularity after his death in June 2009 , it was confirmed on July 7 , that The Stripped Mixes would be released . The album was made available as a digital download on July 7 , 2009 , and as a CD on July 28 . A remixed song , entitled " I 'll Be There ( Minus Mix ) " , was released on iTunes to promote the album on June 9 , 2009 , prior to Jackson 's death . The Stripped Mixes was</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Hot Tottie = " Hot Tottie " is a song by recording artist Usher . It was written by Usher , Ester Dean , Jay-Z and Polow da Don , with the latter producing it . The song features guest vocals from rapper Jay-Z and background vocals by Ester Dean . It is the second single in the United States and Canada from his EP , Versus , which is an extension of his sixth studio album , Raymond v. Raymond . The song was sent to rhythmic and urban airplay on August 9 , 2010 . " Hot Tottie " samples Big Tymers 's " Big Ballin ' " off their 1998 album How You Luv That Vol . 2 . " Hot Tottie " is an R &amp; B song with hip hop tones , accompanied by strobing , electronic beats . It received positive reviews , with many critics noting it as a standout from the EP . It peaked at number twenty-one on the US Billboard Hot 100 , and was a top ten hit on the US Hot R &amp; B / Hip-Hop Songs chart . Usher performed the song on The Early Show and on his OMG Tour . = = Background and composition = = The song was leaked</t>
+          <t>A Different Kind of Love Song = " A Different Kind of Love Song " is a song by American recording artist Cher , taken from her 24th studio album , Living Proof ( 2002 ) . The song was written and produced by Sigurd Rosnes and Johan Aberg , with additional writing done by Michelle Lewis , and was co-produced by Anders Hansson . The dance-pop song alludes to themes of tragedy , heroism and brotherhood , and was released as a double A-side single with " The Music 's No Good Without You " in July 2002 through Warner Bros. Records and WEA . " A Different Kind of Love Song " received mostly positive reviews from music critics , who deemed it as one of the album 's highlights , although noting Cher 's heavily processed vocals due to the use of auto-tune . The song charted on a few Billboard components , such as Dance / Club Play Songs , where it reached number one , Hot Dance Music / Maxi-Singles Sales , peaking at number two , and on the Adult Contemporary chart . No accompanying music video</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Joyas Prestadas = Joyas Prestadas : Pop and Joyas Prestadas : Banda ( English : Borrowed Jewels ) are the twelfth and final studio albums released by American recording artist Jenni Rivera on November 21 , 2011 by Fonovisa Records . Joyas Prestadas consists of eleven cover versions , with the first album being recorded in Latin pop , while the second was recorded in banda . Both albums were produced by Enrique Martinez . According to Rivera , the songs she chose to cover were those she was enamored with while working as a cashier in a record store . It was her first production to include ballad recordings . Joyas Prestadas : Pop reached number one on the Mexican Albums Chart and number one on the Billboard Top Latin Albums chart in the United States while Joyas Prestadas : Banda peaked at number three on the Mexican Albums Chart and number two on the Billboard Top Latin Albums chart . Three singles were released from the album : " ¡ Basta Ya ! " , " A Cambio de Qué " , and " Detrás de </t>
+          <t>Electric ( Robyn song ) = " Electric " is a song by Swedish recording artist Robyn from her second studio album My Truth ( 1999 ) . It was released as the album 's lead single on 29 April 1999 by BMG Sweden . Robyn wrote the track in collaboration with its producers Ulf Lindström and Johan Ekhé . The single artwork features the singer wearing a feather headpiece designed by Sebastian Wahl . Musically , " Electric " is an electronic funk song , and the lyrics address unexpected life events that make one feel alive . " Electric " was hailed by music critics as a highlight on My Truth . It achieved commercial success in Sweden , with a peak position of number six on the Sverigetopplistan chart and a gold certification by the Swedish Recording Industry Association ( GLF ) . Though it was initially planned to be serviced internationally , " Electric " and its parent album were never released outside of Sweden due to a dispute between Robyn and her overseas label RCA Records . = = Background</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>A + No Poder = A + No Poder ( English : " To the Max " ) is the fourteenth studio album by Mexican recording artist Alejandra Guzmán . It was released on September 11 , 2015 , by Sony Music Latin . After the success of her previous live album , Primera Fila ( 2013 ) and its promotional tour , Guzmán recorded the album with original songs , composed and produced by her and Argentinian musician José Luis Pagán . After its release , A + No Poder received favorable reviews from music critics , with one expressing appreciation for the balance between ballads and rock songs . The record peaked at number twelve on the US Billboard Latin Pop Albums and number six in Mexico . To promote the album , three singles were released : " Adiós " featuring reggaeton performer Farruko , which peaked at number 26 on the Billboard Latin Pop Songs chart , " Qué Ironía " and " Esta Noche " . = = Background = = In 2013 , Alejandra Guzmán released her fourth live album titled Primera Fila , selling 90,000 unit</t>
+          <t>No Quiero Saber = " No Quiero Saber " is a song recorded by American recording artist Selena . It was originally a track on her second studio album Ven Conmigo ( 1990 ) . It was composed and produced by her brother , A.B. Quintanilla III . Pete Astudillo , a backup singer with Selena y Los Dinos , produced the song with Quintanilla . The recording was later mixed by A.B. for Selena 's 1996 first remix album , Siempre Selena . It was released posthumously by EMI Latin in June 1996 , as the album 's second single , behind " Siempre Hace Frio " . The track was given positive reviews by music critics , with The Deseret News calling it one of Selena 's best songs . After its inclusion on her second remix album as a bonus acoustic track on Enamorada de Ti ( 2012 ) , critics gave a mixed review . The song won the Tejano Crossover Song of the Year award posthumously at the 1997 Tejano Music Awards . It peaked at number six on the US Billboard Hot Latin Tracks chart , while peaking within the t</t>
         </is>
       </c>
     </row>
@@ -511,32 +511,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['tropical', 'storm', 'hurricane', 'winds', 'depression', 'cyclone', 'mph', 'damage', 'rainfall', 'landfall', 'utc', 'wind', 'weakened', 'flooding', 'intensity']</t>
+          <t>['film', 'release', 'released', 'million', 'story', 'scene', 'scenes', 'script', 'effects', 'production', 'opening', 'plot', 'filming', 'original', 'director']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1949 Pacific hurricane season = The 1949 Pacific hurricane season was the first hurricane season in the Eastern Pacific hurricane database . Six tropical cyclones were known to have existed during the season , of which the first formed on June 11 and the final dissipated on September 30 . Another tropical cyclone had formed within the basin in 1949 , but was included in the Atlantic hurricane database , had it been classified operationally in the Eastern Pacific basin , would have tallied the overall season to seven tropical cyclones . In addition , there were two tropical cyclones that attained hurricane status , but none of them reached major hurricane intensity ( Category 3 or higher on the Saffir-Simpson Hurricane Scale ) . Tropical Storm Three threatened the Baja California Peninsula , while an unnumbered hurricane crossed into the Atlantic , later becoming the 1949 Texas hurricane . = = Season summary = = Tropical cyclones were recorded in the Eastern Pacific best track database </t>
+          <t>Batman in film = The fictional character Batman , a comic book superhero featured in DC Comics publications and created by Bob Kane and Bill Finger , has appeared in various films since his inception . The character first starred in two serial films in the 1940s , Batman and Batman and Robin . The character also appeared in the 1966 film Batman , which was a feature film adaptation of the 1960s Batman TV series starring Adam West and Burt Ward , who also starred in the film . Toward the end of the 1980s , the Warner Bros. studio began producing a series of feature films starring Batman , beginning with the 1989 film Batman , directed by Tim Burton and starring Michael Keaton . Burton and Keaton returned for the 1992 sequel Batman Returns , and in 1995 , Joel Schumacher directed Batman Forever with Val Kilmer as Batman . Schumacher also directed the 1997 sequel Batman &amp; Robin , which starred George Clooney . Batman &amp; Robin was poorly received by both critics and fans , leading to the ca</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1852 Atlantic hurricane season = The 1852 Atlantic hurricane season was one of only three Atlantic hurricane seasons in which every known tropical cyclone attained hurricane status . Five tropical cyclones were reported during the season , which lasted from late August through the middle of October ; these dates fall within the range of most Atlantic tropical cyclone activity , and none of the cyclones coexisted with another . Though there were officially five tropical cyclones in the season , hurricane scholar Michael Chenoweth assessed two of the cyclones as being the same storm . There may have been other unconfirmed tropical cyclones during the season , as meteorologist Christopher Landsea estimated that up to six storms were missed each year from the official database ; this estimate was due to small tropical cyclone size , sparse ship reports , and relatively unpopulated coastlines . = = Season summary = = Every tropical cyclone in the season was of hurricane status , or with win</t>
+          <t xml:space="preserve">Toy Story 3 = Toy Story 3 is a 2010 American 3D computer-animated comedy-drama film , and the third installment in the Toy Story series . It was produced by Pixar Animation Studios and released by Walt Disney Pictures . Directed by Lee Unkrich , the screenplay was written by Michael Arndt , while Unkrich wrote the story along with John Lasseter and Andrew Stanton , respectively director and co-writer of the first two films . The film was released in theaters June 18 , 2010 , and played worldwide from June through October in the Disney Digital 3-D , RealD , and IMAX 3D formats . Toy Story 3 was the first film to be released theatrically with Dolby Surround 7.1 sound . The plot focuses on the toys Woody , Buzz Lightyear , and their friends dealing with an uncertain future as their owner , Andy , prepares to leave for college . The film features an ensemble voice cast with Tom Hanks , Tim Allen , Joan Cusack , Don Rickles , Wallace Shawn , John Ratzenberger , Estelle Harris , Jodi Benson </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1868 Atlantic hurricane season = The 1868 Atlantic hurricane season was among the quietest on record , with only four tropical cyclones recorded . Only three seasons had fewer storms than in 1868 , and seven had the same number of storms . Initially , there were no known storms during the season , although a re-analysis confirmed the activity . All tropical activity occurred within a 45 day span . There may have been other unconfirmed tropical cyclones during the season . Meteorologist Christopher Landsea estimates up to six storms were missed from the official database , due to small tropical cyclone size , sparse ship reports , and relatively unpopulated coastlines . Only one of the storms , the second , made landfall , doing so near Apalachicola , Florida . It produced heavy rainfall and gusty winds across the southeastern United States , although there was no severe damage associated with the storm . The first hurricane killed two people when a ship passed through its winds for 14 </t>
+          <t xml:space="preserve">Batman ( 1989 film ) = Batman is a 1989 American superhero film directed by Tim Burton and produced by Jon Peters , based on the DC Comics character of the same name . It is the first installment of Warner Bros. ' initial Batman film series . The film stars Michael Keaton as Bruce Wayne / Batman , alongside Jack Nicholson , Kim Basinger , Robert Wuhl , Pat Hingle , Billy Dee Williams , Michael Gough , and Jack Palance . In the film , Batman is widely believed to be an urban legend until he actively goes to war with a rising criminal mastermind known as " the Joker " . After Burton was hired as director in 1986 , Steve Englehart and Julie Hickson wrote film treatments before Sam Hamm wrote the first screenplay . Batman was not greenlit until after the success of Burton 's Beetlejuice ( 1988 ) . Numerous A-list actors were considered for the role of Batman before Keaton was cast . Keaton 's casting caused a controversy since , by 1988 , he had become typecast as a comedic actor and many </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1884 Atlantic hurricane season = The 1884 Atlantic hurricane season was one of only three Atlantic hurricane seasons , along with 1852 and 1858 , in which every known tropical cyclone attained hurricane status . Overall , four tropical cyclones developed , three of which made landfall . The first system was initially observed over the northwestern Atlantic Ocean on September 1 . It struck Newfoundland the following day , but impact there is unknown . On September 3 , the next hurricane developed , though it did not effect land in its duration . The third hurricane struck Georgia , accompanied by damaging waves in north Florida . The final storm was last noted on October 17 . These dates fall within the period with the most tropical cyclone activity in the Atlantic . Only two tropical cyclones during the season existed simultaneously . The hurricane brought heavy rainfall to Jamaica , resulting in eight deaths . This storm also left damage to crops and vessels in portions of the Bahamas</t>
+          <t xml:space="preserve">Toy Story 2 = Toy Story 2 is a 1999 American computer-animated comedy adventure film produced by Pixar Animation Studios and released by Walt Disney Pictures . Directed by John Lasseter and co-directed by Lee Unkrich and Ash Brannon , it is the sequel to the 1995 film Toy Story . In the film , Woody is stolen by a toy collector , prompting Buzz Lightyear and his friends to vow to rescue him , but Woody is then tempted by the idea of immortality in a museum . Many of the original characters and voices from Toy Story return for this sequel , and several new characters — including Jessie ( voiced by Joan Cusack ) , Barbie ( voiced by Jodi Benson ) , Stinky Pete ( voiced by Kelsey Grammer ) and Mrs. Potato Head ( voiced by Estelle Harris ) — are introduced . Disney initially envisioned the film as a direct-to-video sequel . Toy Story 2 began production in a building separated from Pixar , on a small scale , as most of the main Pixar staff were busy working on A Bug 's Life ( 1998 ) . When </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1930 Atlantic hurricane season = The 1930 Atlantic hurricane season was the second least active Atlantic hurricane season on record – behind only 1914 – with only three systems reaching tropical storm intensity . Of those three , two reached hurricane status , both of which also became major hurricanes , Category 3 or higher storms on the Saffir – Simpson hurricane wind scale . The first system developed in the central Atlantic Ocean on August 21 . Later that month , a second storm , the Dominican Republic hurricane , formed on August 29 . It peaked as a Category 4 hurricane with winds of 155 mph ( 250 km / h ) . The third and final storm dissipated on October 21 . Due to the lack of systems that developed , only one tropical cyclone , the second hurricane , managed to make landfall during the season . It severely impacted areas of the Greater Antilles , particularly the Dominican Republic , before making subsequent landfalls on Cuba and the U.S. states of Florida and North Carolina , </t>
+          <t>Toy Story = Toy Story is a 1995 American computer-animated adventure buddy comedy film produced by Pixar Animation Studios and released by Walt Disney Pictures . Directed by John Lasseter at his directorial debut , Toy Story was the first feature-length computer-animated film and the first theatrical film produced by Pixar . Toy Story follows a group of anthropomorphic toys who pretend to be lifeless whenever humans are present , and focuses on the relationship between Woody , a pullstring cowboy doll ( voiced by Tom Hanks ) , and Buzz Lightyear , an astronaut action figure ( voiced by Tim Allen ) . The film was written by John Lasseter , Andrew Stanton , Joel Cohen , Alec Sokolow , and Joss Whedon , and featured music by Randy Newman . Its executive producers were Steve Jobs and Edwin Catmull . It was released in theatres November 22 , 1995 . Pixar , which produced short animated films to promote their computers , was approached by Disney to produce a computer-animated feature after t</t>
         </is>
       </c>
     </row>
@@ -546,32 +546,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['episode', 'mulder', 'scully', 'doctor', 'episodes', 'trek', 'files', 'series', 'character', 'enterprise', 'viewers', 'television', 'season', 'broadcast', 'star']</t>
+          <t>['career', 'hit', 'games', 'season', 'league', 'baseball', 'major_league_baseball', 'signed', 'home', 'played', 'manager', 'professional', 'minor', 'earned', 'hits']</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Per Manum = " Per Manum " is the thirteenth episode of the eighth season of the American science fiction television series The X-Files . It premiered on the Fox network on February 18 , 2001 . Written by Frank Spotnitz and series creator Chris Carter , and directed by Kim Manners , the episode helps to explore the series ' overarching mythology . " Per Manum " received a Nielsen rating of 9.4 and was watched by 9.61 million households . Overall , the episode received mostly positive reviews from critics . The series centers on FBI special agents Dana Scully ( Gillian Anderson ) and her new partner John Doggett ( Robert Patrick ) — following the alien abduction of her former partner , Fox Mulder ( David Duchovny ) — who work on cases linked to the paranormal , called X-Files . In this episode , Scully and Doggett investigate several women who had no way of naturally conceiving but who claim to have been abducted and impregnated with alien babies . Soon , Scully begins to worry about the</t>
+          <t>Jon Lieber = Jonathan Ray Lieber ( born April 2 , 1970 ) is a former Major League Baseball ( MLB ) pitcher . He stands 6 feet 2 inches ( 1.88 m ) tall and weighs 240 pounds ( 110 kg ) . He played for the Pittsburgh Pirates ( 1994 – 1998 ) , Chicago Cubs ( 1999 – 2002 and 2008 ) , New York Yankees ( 2004 ) , and Philadelphia Phillies ( 2005 – 2007 ) . He batted left-handed and threw right-handed , and utilized a fastball , a slider , and a changeup for his pitches . In a 14-season career , Lieber compiled a 131 – 124 record with 1,553 strikeouts and a 4.27 ERA in 2,198 innings pitched . Lieber attended the University of South Alabama , helping them win the Sun Belt Conference Championship . He was drafted by the Kansas City Royals in the second round of the 1992 Major League Baseball Draft , but he was traded to the Pittsburgh Pirates the following season before even throwing a pitch in the major leagues . He made his debut in 1994 and was named the Pirates ' Opening Day starter in 1995</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>This Is Not Happening = " This Is Not Happening " is the fourteenth episode of the eighth season and the 175th episode overall of the science fiction television series The X-Files . The episode first aired in the United States on February 25 , 2001 on the Fox Network , and subsequently aired in the United Kingdom . It was written by executive producers Chris Carter and Frank Spotnitz , and directed by Kim Manners . The episode received a Nielsen household rating of 9.7 and was watched by 16.9 million viewers , making it the highest-rated episode of the season . " This Is Not Happening " was received positively by television critics . The series centers on FBI special agents Dana Scully ( Gillian Anderson ) and her new partner John Doggett ( Robert Patrick ) — following the alien abduction of her former partner , Fox Mulder ( David Duchovny ) — who work on cases linked to the paranormal , called X-Files . In this episode , Scully , Doggett , and Walter Skinner ( Mitch Pileggi ) discover</t>
+          <t>John Bowker ( baseball ) = John Brite Bowker ( born July 8 , 1983 ) is an American professional baseball outfielder and first baseman who is a free agent . He stands 6 feet 1 inch ( 1.85 m ) tall and weighs 205 pounds ( 93 kg ) . He has played for the San Francisco Giants , Pittsburgh Pirates and Philadelphia Phillies of Major League Baseball ( MLB ) and the Yomiuri Giants and Tohoku Rakuten Golden Eagles of Nippon Professional Baseball ( NPB ) . He bats and throws left-handed . Bowker was drafted out of Long Beach State University in the third round of the 2004 MLB draft by the San Francisco Giants . He spent the next few years in their minor league system and ranked among the Eastern League leaders in several hitting categories in 2007 . He was called up by the Giants shortly after the 2008 season began , and he became the first San Francisco-era Giant to hit a home run in his first two major league games . He was the Giants ' starting first baseman for much of the season and finishe</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The X-Files ( season 2 ) = The second season of the science fiction television series The X-Files commenced airing on the Fox network in the United States on September 16 , 1994 , concluded on the same channel on May 19 , 1995 , after airing all 25 episodes . The series follows Federal Bureau of Investigation special agents Fox Mulder and Dana Scully , portrayed by David Duchovny and Gillian Anderson respectively , who investigate paranormal or supernatural cases , known as X-Files by the FBI . The second season of The X-Files takes place after the closure of the department following the events of the first season finale . In addition to stand-alone " Monster-of-the-Week " episodes , several episodes also furthered the alien conspiracy mythology that had begun to form . Season two introduced several recurring characters — X ( Steven Williams ) , an informant to Mulder ; Alex Krycek ( Nicholas Lea ) , Mulder 's partner-turned-enemy ; and the Alien Bounty Hunter ( Brian Thompson ) , a sh</t>
+          <t>Will Venable = William Dion Venable ( born October 29 , 1982 ) is an American professional baseball outfielder in the Los Angeles Dodgers organization . He has also played in MLB for the San Diego Padres and Texas Rangers . Venable is the son of former Major League outfielder Max Venable as well as the older brother of Canadian Football League safety Winston Venable . Venable played basketball for Princeton University , as well as San Rafael High School . He was the second athlete to earn first-team All-Ivy League honors in both baseball and basketball . In the 2005 MLB Draft , the Padres selected Venable in the seventh round . He made his major league debut on August 29 , 2008 , against the Colorado Rockies , collecting his first hit . Although he broke into the Major Leagues as a center fielder , he has played mostly right field since his second season . Venable has frequently batted lead off and has on several occasions come within one hit of the cycle . As of November 2013 , he has</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Wetwired = " Wetwired " is the twenty-third episode of the third season and the 72nd episode overall of the science fiction television series The X-Files . The episode first aired in the United States on May 10 , 1996 on Fox . It was written by the show 's visual effect designer Mat Beck , and directed by Rob Bowman . The episode earned a Nielsen rating of 9.7 and was viewed by 14.48 million people . The episode received mostly positive reviews from television critics . The show centers on FBI special agents Fox Mulder ( David Duchovny ) and Dana Scully ( Gillian Anderson ) who work on cases linked to the paranormal , called X-Files . Mulder is a believer in the paranormal , while the skeptical Scully has been assigned to debunk his work . In this episode , Mulder and Scully investigate a series of murders committed by ordinary citizens angered after seeing illusory images . Scully 's trust in Mulder is put to the ultimate test . " Wetwired " was written by Mat Beck , the show 's visua</t>
+          <t xml:space="preserve">Eric Hacker = Eric Lynn Hacker ( born March 26 , 1983 ) is an American professional baseball pitcher who plays for the NC Dinos of the Korea Baseball Organization . Hacker stands 6 feet 1 inch ( 1.85 m ) and weighs 230 pounds ( 100 kg ) . He throws right-handed but is a switch hitter . He has played for the Pittsburgh Pirates , Minnesota Twins , and San Francisco Giants . He throws a fastball , a slider , a curveball , and a changeup . Hacker was drafted out of Duncanville High School by the New York Yankees in 2002 . He pitched in their minor league system from 2002 – 2009 ( missing 2004 and 2006 with injuries ) before getting traded to the Pirates . He made his major league debut with Pittsburgh on September 22 , 2009 , and pitched in three games for them that season . He signed with the Giants in the offseason and spent the entire 2010 season in the minor leagues . In 2011 , he signed with the Twins and appeared in two games with them . He signed with San Francisco in 2012 and made </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>The X-Files ( season 8 ) = The eighth season of the American science fiction television series The X-Files commenced airing in the United States on November 5 , 2000 , concluded on May 20 , 2001 , and consisted of twenty-one episodes . Season eight takes place after Fox Mulder 's ( David Duchovny ) alien abduction in the seventh season . The story arc for the search of Mulder continues until the second half of the season , while a new arc about Dana Scully 's ( Gillian Anderson ) pregnancy is formed . This arc would continue , and end , with the next season . The season explores various themes such as life , death , and belief . For this season , Duchovny elected to return only as an intermittent main character , appearing in only half of the episodes . Actor Robert Patrick was hired as a replacement for Mulder , playing John Doggett . The season also marked the first appearance of Annabeth Gish as Monica Reyes , who would become a main character in the ninth season . In addition to th</t>
+          <t>Denny Bautista = Denny M. Bautista Germán ( born August 23 , 1980 ) is a Dominican professional baseball pitcher who is currently a free agent . Bautista is 6 feet 5 inches ( 1.96 m ) tall and weighs 190 pounds ( 86 kg ) . He played in Major League Baseball ( MLB ) for the Baltimore Orioles , Kansas City Royals , Colorado Rockies , Detroit Tigers , Pittsburgh Pirates , and San Francisco Giants from 2004 to 2010 . From 2011 through 2013 , he played for the Hanwha Eagles of the Korea Baseball Organization ( KBO ) . He bats and throws right-handed . Bautista throws three pitches : a fastball , a curveball , and a changeup . He has struggled with control throughout his career . Bautista grew up receiving instruction on pitching from his second cousin , Pedro Martínez . The Florida Marlins signed him in 2000 but traded him to the Baltimore Orioles before Bautista reached the major leagues . He debuted with the Orioles in 2004 , appearing in two games before getting traded to the Kansas City</t>
         </is>
       </c>
     </row>
@@ -581,32 +581,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['ship', 'guns', 'ships', 'tons', 'torpedo', 'knots', 'cruiser', 'inch', 'fleet', 'cruisers', 'deck', 'gun', 'turrets', 'admiral', 'steam']</t>
+          <t>['work', 'life', 'wrote', 'writing', 'published', 'book', 'written', 'women', 'works', 'history', 'world', 'writer', 'woman', 'early', 'books']</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>I-351-class submarine = The I-351-class submarine ( 伊三百五十一型潜水艦 , I-san-byaku-go-jū-ichi-gata sensuikan ) was a class of tanker / transport submarines built for the Imperial Japanese Navy ( IJN ) during World War II . The IJN called this type of submarine Senho type submarine ( 潜補型潜水艦 , Sen-Ho-gata sensuikan ) . The type name , was shortened to Hokyū Sensuikan ( 補給潜水艦 , Submarine Tanker ) . The IJN designed these submarines to support flying boats in forward areas . By the time the first submarine was finished , this capability was no longer needed and she was converted into an oil tanker . That boat , I-351 , was sunk on the return leg of her second voyage in 1945 ; the second boat was destroyed by an American air raid before she was completed . Four additional submarines were planned , but were cancelled before they were laid down . = = Design and description = = The I-351-class submarines were ordered under the 5th Fleet Replenishment Program of 1942 to support IJN flying boats in ar</t>
+          <t xml:space="preserve">Feminism = Feminism is a range of political movements , ideologies , and social movements that share a common goal : to define , establish , and achieve political , economic , personal , and social rights for women that are equal to those of men . This includes seeking to establish equal opportunities for women in education and employment . Feminists typically advocate or support the rights and equality of women . Feminist movements have campaigned and continue to campaign for women 's rights , including the right to vote , to hold public office , to work , to earn fair wages or equal pay , to own property , to receive education , to enter contracts , to have equal rights within marriage , and to have maternity leave . Feminists have also worked to promote bodily autonomy and integrity , and to protect women and girls from rape , sexual harassment , and domestic violence . Feminist campaigns are generally considered to be one of the main forces behind major historical societal changes </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HMS Unrivalled ( P45 ) = HMS Unrivalled ( P45 ) was a U-class submarine built for the Royal Navy during World War II . So far she has been the only ship of the Royal Navy to bear the name Unrivalled . Completed in 1942 , the boat spent most of the war in the Mediterranean . She sank a number of small merchant ships and naval auxiliaries , but major success eluded her during the war . Too small and slow for the post-war environment , Unrivalled was scrapped in 1946 . = = Design and description = = HMS Unrivalled was one of the second group of U-class submarines ordered on 23 August 1940 . These submarines differed from their predecessors in that they were lengthened by 5 feet ( 1.5 m ) " to give a more streamlined shape aft and to improve the flow of water over the propellers . " The submarine was 195 feet 6 inches ( 59.6 m ) long and 15 feet 9 inches ( 4.80 m ) abeam . Unrivalled had a single hull with internal ballast tanks and had a draft of 15 feet 19 inches ( 5.05 m ) when surfaced</t>
+          <t>New Age = The New Age is a term applied to a range of spiritual or religious beliefs and practices that developed in Western nations during the 1970s . Precise scholarly definitions of the movement differ in their emphasis , largely as a result of its highly eclectic structure . Although analytically often considered to be religious , those involved in it typically prefer the designation of " spiritual " and rarely use the term " New Age " themselves . Many scholars of the subject refer to it as the New Age movement , although others contest this term , believing that it gives a false sense of homogeneity to the phenomenon . As a form of Western esotericism , the New Age movement drew heavily upon a number of older esoteric traditions , in particular those that emerged from the occultist current that developed in the eighteenth century . Such prominent occult influences include the work of Emanuel Swedenborg and Franz Mesmer , as well as the ideas of Spiritualism , New Thought , and th</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>German aircraft carrier I ( 1915 ) = The aircraft carrier I was the first planned aircraft carrier conversion project of the German Imperial Navy ( Kaiserliche Marine ) during World War I. The Imperial Navy had experimented previously with seaplane carriers , though these earlier conversions were too slow to operate with the High Seas Fleet and carried an insufficient number of aircraft . I was intended to carry between 23 and 30 aircraft , including fighters , bombers , and torpedo-bombers . The ship was based on the incomplete hull of the Italian passenger ship Ausonia , which was being built in Hamburg . The conversion was proposed by the Air Department of the Reichs Navy Office , but it was abandoned after negotiations within the German Navy over a proposed moratorium on new ships at the end of the war . After World War I ended , high inflation in Germany added to the cost of the ship , and as a result , the Italian shipping company for whom the ship was originally built , declined</t>
+          <t>Objections to evolution = Scholars , theologians and lay-people have raised objections to evolution since evolutionary ideas came to prominence in the 19th century . When Charles Darwin published his 1859 book On the Origin of Species , his theory of evolution ( the idea that species arose through descent with modification from a single common ancestor in a process driven by natural selection ) initially met opposition from scientists with different theories , but eventually came to receive overwhelming acceptance in the scientific community . The observation of evolutionary processes occurring ( as well as the modern evolutionary synthesis explaining that evidence ) has been uncontroversial among mainstream biologists since the 1940s . Since then , most criticisms and denials of evolution have come from religious sources , rather than from the scientific community . Although many religions , such as those advocating theistic evolution , have accepted the occurrence of evolution , some</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">French battlecruiser proposals = In the years before the outbreak of World War I in 1914 , the French Navy considered several proposals for battlecruisers . The Navy issued specifications for a battlecruiser design to complete part of the 28 capital ships to be built by 1920 . Three designs , one by P. Gille and two by Lieutenant Durand-Viel , were completed in 1913 . All three designs were similar to contemporary battleship designs , specifically the Normandie class , which introduced a quadruple gun turret for the main battery , which was adopted for all three proposals . The first two called for the same 340 mm ( 13 in ) gun used on all French dreadnoughts , though the third proposed a much more powerful 370 mm ( 15 in ) gun . Though the design studies were complete , the French Navy did not authorize or begin construction of any battlecruisers before the start of the war . = = Background = = In the Naval Law of 30 March 1912 , the French Navy called for a total force of 20 capital </t>
+          <t>Alfred North Whitehead = Alfred North Whitehead OM FRS ( 15 February 1861 – 30 December 1947 ) was an English mathematician and philosopher . He is best known as the defining figure of the philosophical school known as process philosophy , which today has found application to a wide variety of disciplines , including ecology , theology , education , physics , biology , economics , and psychology , among other areas . In his early career Whitehead wrote primarily on mathematics , logic , and physics . His most notable work in these fields is the three-volume Principia Mathematica ( 1910 – 13 ) , which he wrote with former student Bertrand Russell . Principia Mathematica is considered one of the twentieth century 's most important works in mathematical logic , and placed 23rd in a list of the top 100 English-language nonfiction books of the twentieth century by Modern Library . Beginning in the late 1910s and early 1920s , Whitehead gradually turned his attention from mathematics to phil</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Blitz-class aviso = The Blitz class was a pair of avisos built by the Imperial German Navy ( Kaiserliche Marine ) in the 1880s . The ships , Blitz and Pfeil , were the first steel-hulled ships of any kind built by the German Navy , and the progenitors of the later light cruisers of the Gazelle type . They were armed with a 12.5 cm ( 4.9 in ) gun and one 35 cm ( 14 in ) torpedo tube as their principal armament , and were capable of a top speed in excess of 15 knots ( 28 km / h ; 17 mph ) . Blitz and Pfeil served extensively in various roles , including as flotilla leaders for torpedo boats . Pfeil was deployed to German East Africa in 1889 to suppress an anti-colonial revolt , and after 1899 , was used for fishery protection . They were both reduced to tenders by 1912 . Blitz was briefly used as a coastal patrol vessel early in World War I before returning to tender duties by 1915 . Both ships survived the war , and were sold for scrap in the early 1920s . = = Design = = The Blitz class</t>
+          <t>Benjamin Lee Whorf = Benjamin Lee Whorf ( / wɔːrf / ; April 24 , 1897 – July 26 , 1941 ) was an American linguist and fire prevention engineer . Whorf is widely known as an advocate for the idea that because of linguistic differences in grammar and usage , speakers of different languages conceptualize and experience the world differently . This principle has frequently been called the " Sapir – Whorf hypothesis " , after him and his mentor Edward Sapir , but Whorf called it the principle of linguistic relativity , because he saw the idea as having implications similar to Einstein 's principle of physical relativity . Throughout his life Whorf was a chemical engineer by profession , but as a young man he took up an interest in linguistics . At first this interest drew him to the study of Biblical Hebrew , but he quickly went on to study the indigenous languages of Mesoamerica on his own . Professional scholars were impressed by his work and in 1930 he received a grant to study the Nahua</t>
         </is>
       </c>
     </row>
@@ -616,32 +616,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['species', 'genus', 'shark', 'females', 'prey', 'eggs', 'males', 'cap', 'sharks', 'fruit', 'stem', 'brown', 'habitat', 'birds', 'specimens']</t>
+          <t>['tons', 'beam', 'deck', 'consisted', 'guns', 'laid', 'horsepower', 'armor', 'hull', 'boilers', 'displaced', 'steam', 'mounted', 'armament', 'battery']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Myco-heterotrophy = Myco-heterotrophy ( Greek : μυκός mykós , " fungus " , ἕτερος heteros = " another " , " different " and τροφή trophe = " nutrition " ) is a symbiotic relationship between certain kinds of plants and fungi , in which the plant gets all or part of its food from parasitism upon fungi rather than from photosynthesis . A myco-heterotroph is the parasitic plant partner in this relationship . Myco-heterotrophy is considered a kind of cheating relationship and myco-heterotrophs are sometimes informally referred to as " mycorrhizal cheaters " . This relationship is sometimes referred to as mycotrophy , though this term is also used for plants that engage in mutualistic mycorrhizal relationships . = = Relationship between myco-heterotrophs and host fungi = = Full ( or obligate ) myco-heterotrophy exists when a non-photosynthetic plant ( a plant largely lacking in chlorophyll or otherwise lacking a functional photosystem ) gets all of its food from the fungi that it parasitize</t>
+          <t xml:space="preserve">Colbert-class ironclad = The Colbert class were a pair of armored frigates built for the French Navy during the 1870s . The ships served as the flagships of the commander and deputy commander of the Mediterranean Squadron for most of their careers . The sister ships took part in the French conquest of Tunisia , notably shelling and landing troops in Sfax in 1881 . They were relegated to second-line roles in 1894 – 95 before being condemned in 1900 . The ships were finally sold for scrap in 1909 . = = Design and description = = The Colbert-class ships were designed by Constructor Sabattier as improved versions of the ironclad Richelieu and were the last ships authorized by the 1857 Naval Program . They reverted to a single propeller shaft to improve their sailing qualities and to lessen the chance of the propellers being fouled by fallen rigging . As central battery ironclads , they had their armament concentrated amidships . Like most ironclads of their era , they were equipped with a </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ramariopsis kunzei = Ramariopsis kunzei is an edible species of coral fungi in the Clavariaceae family , and the type species of the genus Ramariopsis . It is commonly known as white coral because of the branched structure of the fruit bodies that resemble marine coral . The fruit bodies are up to 5 cm ( 2.0 in ) tall by 4 cm ( 1.6 in ) wide , with numerous branches originating from a short rudimentary stem . The branches are one to two millimeters thick , smooth , and white , sometimes with yellowish tips in age . Ramariopsis kunzei has a widespread distribution , and is found in North America , Europe , Asia , and Australia . = = Taxonomy and phylogeny = = The species was first described as Clavaria kunzei by pioneer mycologist Elias Magnus Fries in 1821 . E.J.H. Corner transferred the species to Ramariopsis in 1950 , and made it the type species . In general , coral fungi often have extensive taxonomic histories , as mycologists have not agreed on the best way to classify them . In </t>
+          <t>La Galissonnière-class ironclad = The La Galissonnière class ironclads were a group of wooden-hulled , armored corvettes built for the French Navy during the 1870s , meant as a heavier armed and faster version of the Alma-class ironclad . While all three ships were begun before the Franco-Prussian War of 1870 – 71 , the construction of the last two ships was delayed for years . The navy took advantage of the extended construction time of the latter ships to upgrade their armament . La Galissonnière bombarded Sfax in 1881 as part of the French occupation of Tunisia . She and her half-sister Triomphante participated in a number of battles during the Sino-French War of 1884 – 85 . Their sister Victorieuse had a much quieter career . All three ships were decommissioned in the 1890s . = = Design and description = = The La Galissonnière-class ironclads were designed as faster , more heavily armed versions of the Alma-class ironclads by Henri Dupuy de Lôme . They used the same central battery</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Clavaria fragilis = Clavaria fragilis , commonly known as fairy fingers , white worm coral , or white spindles , is a species of fungus in the family Clavariaceae . It is synonymous with Clavaria vermicularis . The fungus is the type species of the genus Clavaria and is a typical member of the clavarioid or club fungi . It produces tubular , unbranched , white basidiocarps ( fruit bodies ) that typically grow in clusters . The fruit bodies can reach dimensions of 15 cm ( 5.9 in ) tall by 0.5 cm ( 0.2 in ) thick . Clavaria fragilis is a saprobic species , growing in woodland litter or in old , unimproved grassland . It is widespread throughout temperate regions in the Northern Hemisphere , but has also been reported from Australia and South Africa . The fungus is edible , but insubstantial and flavorless . There are several other small white coral-like fungi with which C. fragilis may be confused . = = History and taxonomy = = Clavaria fragilis was originally described from Denmark in 1</t>
+          <t xml:space="preserve">French ironclad Suffren = Suffren was a wooden-hulled , armored frigate of the Océan class , built for the French Navy in the mid to late 1860s as an improvement over the Provence-class ironclad . Although she was laid down in 1866 , the ship was not launched until 1872 and commissioned in 1876 . Suffren was one of the French ships assigned to the international squadron gathered to force the Ottoman Empire to carry out its obligations under the Treaty of Berlin in 1880 . The ship was paid off in 1895 and discarded two years later . = = Design and description = = The Océan-class ironclads were designed by Henri Dupuy de Lôme as an improved version of the Provence-class ironclads . The ships were central battery ironclads , with the armament concentrated amidships . For the first time in a French ironclad three watertight iron bulkheads were fitted in the hull . Like most ironclads of their era , they were equipped with a metal-reinforced ram . The ship measured 87.73 meters ( 287 ft 10 </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Cortinarius iodes = Cortinarius iodes , commonly known as the spotted cort or the viscid violet cort , is a species of agaric fungus in the family Cortinariaceae . The fruit bodies have small , slimy , purple caps up to 6 cm ( 2.4 in ) in diameter that develop yellowish spots and streaks in maturity . The gill color changes from violet to rusty or grayish brown as the mushroom matures . The species range includes the eastern North America , Central America , northern South America , and northern Asia , where it grows on the ground in a mycorrhizal association with deciduous trees . Although edible , the mushroom is not recommended for consumption . Cortinarius iodeoides , one of several potential lookalike species , can be distinguished from C. iodes by its bitter-tasting cap cuticle . = = Taxonomy = = The species was first described scientifically by Miles Joseph Berkeley and Moses Ashley Curtis in 1853 . The type collection was made by American botanist Henry William Ravenel in South</t>
+          <t xml:space="preserve">Océan-class ironclad = The Océan class ironclads were a group of three wooden-hulled armored frigates built for the French Navy in the mid to late 1860s . Océan attempted to blockade Prussian ports in the Baltic Sea in 1870 during the Franco-Prussian War . Marengo participated in the French conquest of Tunisia in 1881 . Suffren was often used as the flagship for the squadron she was assigned to . She was flagship of the Cherbourg Division , the Channel Division , Mediterranean Squadron and the Northern Squadron during her career . The ships were discarded during the 1890s . = = Design and description = = The Océan-class ironclads were designed by Henri Dupuy de Lôme as an improved version of the Provence-class ironclads . The ships were central battery ironclads with the armament concentrated amidships . For the first time in a French ironclad three watertight iron bulkheads were fitted in the hull . Like most ironclads of their era they were equipped with a metal-reinforced ram . The </t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Mycena multiplicata = Mycena multiplicata is a species of mushroom in the Mycenaceae family . First described as a new species in 2007 , the mushroom is known only from Kanagawa , Japan , where it grows on dead fallen twigs in lowland forests dominated by oak . The mushroom has a whitish cap that reaches up to 13 mm ( 0.51 in ) in diameter atop a slender stem 15 to 20 mm ( 0.59 to 0.79 in ) long by 1 to 1.3 mm ( 0.039 to 0.051 in ) thick . On the underside of the cap are whitish , distantly spaced gills that are narrowly attached to the stem . Microscopic characteristics of the mushroom include the amyloid spores ( turning bluish-black to black in the presence of Melzer 's reagent ) , the pear-shaped to broadly club-shaped cheilocystidia ( cystidia found on the gill edge ) covered with a few to numerous , unevenly spaced , cylindrical protuberances , the lack of pleurocystidia ( cystidia on the gill face ) , and the diverticulate hyphae in the outer layer of the cap and stem . The edib</t>
+          <t>French ironclad Victorieuse = Victorieuse ( Victorious ) was the second ship of the La Galissonnière class of wooden-hulled , armored corvettes built for the French Navy during the 1870s . Her construction was delayed for years and the navy took advantage of the extended construction time to upgrade her armament in comparison to the lead ship , La Galissonnière . Unlike her sisters , Victorieuse did not see any combat although she participated in the pacification of the Marquesas Islands in 1880 . She was condemned in 1900 . = = Design and description = = The La Galissonnière-class ironclads were designed as faster , more heavily armed versions of the Alma-class ironclads by Henri Dupuy de Lôme . They used the same central battery layout as their predecessors , although the battery was lengthened 4 meters ( 13 ft 1 in ) to provide enough room to work the larger 240-millimeter ( 9.4 in ) guns . Victorieuse and her sister ship Triomphante were modified by Sabattier who reduced the number</t>
         </is>
       </c>
     </row>
@@ -651,32 +651,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['highway', 'route', 'road', 'interchange', 'freeway', 'intersection', 'east', 'north', 'terminus', 'lane', 'continues', 'passes', 'avenue', 'state', 'highways']</t>
+          <t>['different', 'called', 'given', 'form', 'example', 'point', 'elements', 'real', 'use', 'possible', 'formula', 'sequence', 'particular', 'result', 'simple']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">New Brunswick Route 95 = Route 95 is a 14.5-kilometre-long ( 9.0 mi ) provincial highway in New Brunswick , which serves a connector route between Interstate 95 ( I-95 ) and U.S. Route 2 ( US 2 ) at the Houlton – Woodstock Border Crossing near Houlton , Maine , United States to Route 2 , which is part of the Trans-Canada Highway , in Woodstock , New Brunswick , Canada . Prior to the construction of Route 95 , the connection between the two cities was served by Route 5 . In 2007 the New Brunswick government completed a roadworks project to turn Route 95 into a full freeway for its entire length . = = Route description = = Route 95 begins at the Houlton – Woodstock Border Crossing on the Maine – New Brunswick border as an extension of I-95 and US 2 . The border between the two countries also marks the border between the Eastern Time Zone and the Atlantic Time Zone . The highway travels northeast through woodlands as it approaches its first interchange with Route 540 via a hybrid diamond </t>
+          <t>Hilbert space = The mathematical concept of a Hilbert space , named after David Hilbert , generalizes the notion of Euclidean space . It extends the methods of vector algebra and calculus from the two-dimensional Euclidean plane and three-dimensional space to spaces with any finite or infinite number of dimensions . A Hilbert space is an abstract vector space possessing the structure of an inner product that allows length and angle to be measured . Furthermore , Hilbert spaces are complete : there are enough limits in the space to allow the techniques of calculus to be used . Hilbert spaces arise naturally and frequently in mathematics and physics , typically as infinite-dimensional function spaces . The earliest Hilbert spaces were studied from this point of view in the first decade of the 20th century by David Hilbert , Erhard Schmidt , and Frigyes Riesz . They are indispensable tools in the theories of partial differential equations , quantum mechanics , Fourier analysis ( which inc</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Missouri Route 108 = Route 108 is a short highway in the Bootheel of southeastern Missouri . Its eastern terminus is the Arkansas state line at Arkansas Highway 77 , about six miles ( 10 km ) south of Arbyrd , the only town on the route . Its western terminus is at U.S. Route 412 ( US 412 ) about two miles ( 3 km ) north of Arbyrd . Although signed as an east – west route , the route follows mostly north – south roadways . The route was designated in 1930 , and was extended east in 1972 . = = Route description = = Route 108 begins at the Arkansas state line in Arkmo , Dunklin County , where the road continues south into that state as Highway 77 . From the Arkansas-Missouri state line , the route heads north as a two-lane undivided road , passing a few homes and businesses in Arkmo before running through farmland . The road continues through rural areas to the southern edge of Arbyrd , where it reaches an intersection with Route 164 . At this point , Route 108 turns east to form a concu</t>
+          <t xml:space="preserve">Derivative = The derivative of a function of a real variable measures the sensitivity to change of a quantity ( a function value or dependent variable ) which is determined by another quantity ( the independent variable ) . Derivatives are a fundamental tool of calculus . For example , the derivative of the position of a moving object with respect to time is the object 's velocity : this measures how quickly the position of the object changes when time is advanced . The derivative of a function of a single variable at a chosen input value , when it exists , is the slope of the tangent line to the graph of the function at that point . The tangent line is the best linear approximation of the function near that input value . For this reason , the derivative is often described as the " instantaneous rate of change " , the ratio of the instantaneous change in the dependent variable to that of the independent variable . Derivatives may be generalized to functions of several real variables . </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ontario Highway 400A = King 's Highway 400A , once known as the Highway 400 Extension , is an unsigned 400-series highway in the Canadian province of Ontario . The short 1.1-kilometre ( 0.7 mi ) freeway stub connects Highway 400 with Highway 11 and Simcoe County Road 93 , formerly Highway 93 . The highway was created in late 1959 by the opening of Highway 400 to Coldwater , although it has always featured Highway 400 signage along the southbound lanes and Highway 11 signage northbound . = = Route description = = Highway 400A is a 1.1-kilometre ( 0.7 mi ) 400-series highway located in the Canadian province of Ontario . The unisigned freeway includes a narrow grass median for the majority of its length , and features a speed limit of 100 kilometres per hour ( 62 mph ) . On average , the highway is used by approximately 11 , 900 vehicles daily . The route begins as Highway 400 exits on the right , with the northbound lanes rising up on an embankment and crossing Highway 400A . After the b</t>
+          <t>Vector space = A vector space ( also called a linear space ) is a collection of objects called vectors , which may be added together and multiplied ( " scaled " ) by numbers , called scalars in this context . Scalars are often taken to be real numbers , but there are also vector spaces with scalar multiplication by complex numbers , rational numbers , or generally any field . The operations of vector addition and scalar multiplication must satisfy certain requirements , called axioms , listed below . Euclidean vectors are an example of a vector space . They represent physical quantities such as forces : any two forces ( of the same type ) can be added to yield a third , and the multiplication of a force vector by a real multiplier is another force vector . In the same vein , but in a more geometric sense , vectors representing displacements in the plane or in three-dimensional space also form vector spaces . Vectors in vector spaces do not necessarily have to be arrow-like objects as t</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Illinois Route 98 = Illinois Route 98 ( IL 98 , Route 98 ) is a 8.36-mile ( 13.45 km ) east – west state highway located entirely within Tazewell County in central Illinois . The route runs from Route 29 on the border of Pekin and North Pekin east to Interstate 155 ( I-155 ) in Morton . The highway connects Pekin , North Pekin , Morton , and the community of Groveland ; it passes through a variety of landscapes between the towns . Route 98 is maintained by the Illinois Department of Transportation . The state of Illinois created Route 98 in 1924 ; the original route connected several cities in western Illinois . The eastern section of this route appeared on maps by 1928 , and the highway was completed in 1929 . In 1939 , Route 98 moved to its current alignment ; it has not changed since . = = Route description = = Route 98 begins at an intersection with Route 29 on the border of Pekin and North Pekin ; Worley Lake and the Illinois River lie to the west . The route heads east as a divid</t>
+          <t>Dirac delta function = In mathematics , the Dirac delta function , or δ function , is a generalized function , or distribution , on the real number line that is zero everywhere except at zero , with an integral of one over the entire real line . The delta function is sometimes thought of as a hypothetical function whose graph is an infinitely high , infinitely thin spike at the origin , with total area one under the spike , and physically represents the density of an idealized point mass or point charge . It was introduced by theoretical physicist Paul Dirac . From a purely mathematical viewpoint , the Dirac delta is not strictly a function , because any extended-real function that is equal to zero everywhere but a single point must have total integral zero . The delta function only makes sense as a mathematical object when it appears inside an integral . From this perspective the Dirac delta can usually be manipulated as though it were a function . The formal rules obeyed by this " fu</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delaware Route 44 = Delaware Route 44 ( DE 44 ) is a state highway in Kent County , Delaware . It runs from DE 300 in Everetts Corner southeast to DE 8 in Pearsons Corner . The route passes through rural areas of western Kent County as well as the town of Hartly . In Hartly , it intersects DE 11 . The route was built as a state highway east of Hartly by 1924 and west of Hartly by 1932 , receiving the DE 44 designation by 1936 . = = Route description = = Delaware Route 44 heads to the southeast of DE 300 on Everetts Corner Road . It passes through a mix of woodland and farmland before reaching the town of Hartly . In Hartly , the route intersects DE 11 , where it becomes Main Street , and passes by homes . It then heads to the east out of Hartly on Hartly Road , passing through more rural areas . The route continues to its eastern terminus at DE 8 near Pearsons Corner . DE 44 has an annual average daily traffic count ranging from a high of 4,478 vehicles at the eastern terminus at DE 8 </t>
+          <t>Matrix ( mathematics ) = In mathematics , a matrix ( plural matrices ) is a rectangular array of numbers , symbols , or expressions , arranged in rows and columns . The dimensions of matrix ( 1 ) are 2 × 3 ( read " two by three " ) , because there are two rows and three columns . The individual items in a matrix are called its elements or entries . Provided that they are the same size ( have the same number of rows and the same number of columns ) , two matrices can be added or subtracted element by element . The rule for matrix multiplication , however , is that two matrices can be multiplied only when the number of columns in the first equals the number of rows in the second . Any matrix can be multiplied element-wise by a scalar from its associated field . A major application of matrices is to represent linear transformations , that is , generalizations of linear functions such as f ( x ) = 4x . For example , the rotation of vectors in three dimensional space is a linear transformat</t>
         </is>
       </c>
     </row>
@@ -686,32 +686,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['game', 'player', 'gameplay', 'games', 'players', 'playstation', 'nintendo', 'released', 'xbox', 'characters', 'graphics', 'soundtrack', 'mode', 'version', 'mario']</t>
+          <t>['war', 'american', 'later', 'wrote', 'years', 'began', 'men', 'time', 'british', 'land', 'united_states', 'known', 'general', 'early', 'received']</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Fighting game = Fighting game is a video game genre in which the player controls an on-screen character and engages in close combat with an opponent . These characters tend to be of equal power and fight matches consisting of several rounds , which take place in an arena . Players must master techniques such as blocking , counter-attacking , and chaining together sequences of attacks known as " combos " . Since the early 1990s , most fighting games allow the player to execute special attacks by performing specific button combinations . The genre is related to but distinct from beat ' em ups , which involve large numbers of antagonists . The first video game to feature fist fighting was arcade game Heavyweight Champ in 1976 , but it was Karate Champ which popularized one-on-one martial arts games in arcades in 1984 . In 1985 , Yie Ar Kung-Fu featured antagonists with differing fighting styles , while The Way of the Exploding Fist further popularized the genre on home systems . In 1987 ,</t>
+          <t>George Washington = George Washington ( February 22 , 1732 [ O.S. February 11 , 1731 ] – December 14 , 1799 ) was the first President of the United States ( 1789 – 97 ) , the Commander-in-Chief of the Continental Army during the American Revolutionary War , and one of the Founding Fathers of the United States . He presided over the convention that drafted the current United States Constitution and during his lifetime was called the " father of his country " . Widely admired for his strong leadership qualities , Washington was unanimously elected president by the Electoral College in the first two national elections . He oversaw the creation of a strong , well-financed national government that maintained neutrality in the French Revolutionary Wars , suppressed the Whiskey Rebellion , and won acceptance among Americans of all types . Washington 's incumbency established many precedents , still in use today , such as the cabinet system , the inaugural address , and the title Mr. President</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Dr. Mario = Dr. Mario ( Japanese : ドクターマリオ , Hepburn : Dokutā Mario , often stylized as D ℞ . Mario ) is a 1990 Mario arcade-style action puzzle video game designed by Gunpei Yokoi and produced by Takahiro Harada . Nintendo developed and published the game for the Nintendo Entertainment System and Game Boy consoles . The game 's soundtrack was composed by Hirokazu Tanaka . The game focuses on the player character Mario , who assumes the role of a doctor and is tasked with eradicating deadly viruses . In this falling block puzzle game , the player 's objective is to destroy the viruses populating the on-screen playing field by using colored capsules that are dropped into the field . The player manipulates the capsules as they fall so that they are aligned with viruses of matching colors , which removes them from play . The player progresses through the game by eliminating all the viruses on the screen in each level . Dr. Mario received positive reception , appearing on several " Best Ni</t>
+          <t>Abraham Lincoln = Abraham Lincoln ( / ˈeɪbrəhæm ˈlɪŋkən / ; February 12 , 1809 – April 15 , 1865 ) was the 16th President of the United States , serving from March 1861 until his assassination in April 1865 . Lincoln led the United States through its Civil War — its bloodiest war and its greatest moral , constitutional , and political crisis . In doing so , he preserved the Union , abolished slavery , strengthened the federal government , and modernized the economy . Born in Hodgenville , Kentucky , Lincoln grew up on the western frontier in Kentucky and Indiana . Largely self-educated , he became a lawyer in Illinois , a Whig Party leader , and a member of the Illinois House of Representatives , in which he served for twelve years . Elected to the United States House of Representatives in 1846 , Lincoln promoted rapid modernization of the economy through banks , tariffs , and railroads . Because he had originally agreed not to run for a second term in Congress , and because his opposi</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CD-i games from The Legend of Zelda series = Link : The Faces of Evil , Zelda : The Wand of Gamelon and Zelda 's Adventure are three action-adventure games produced by Philips for the CD-i as part of Nintendo 's The Legend of Zelda video game series . Not designed for Nintendo platforms , the games owe their existence to negotiations related to Nintendo 's decision not to have Philips create a CD add-on to the Super NES . During these negotiations , Philips secured the rights to use Nintendo characters in CD-i third-party developer games . The Faces of Evil and The Wand of Gamelon were developed by Animation Magic and were both released in North America on October 10 , 1993 , and Zelda 's Adventure was developed by Viridis and was released in North America on June 5 , 1994 . The games were given little funding or time for completion , and Nintendo provided only cursory input . The Philips CD-i did not sell well and the games saw relatively small sales figures . Critical reception for a</t>
+          <t xml:space="preserve">Hamilton Fish = Hamilton Fish ( August 3 , 1808 – September 7 , 1893 ) , was an American statesman and politician who served as the 16th Governor of New York , a United States Senator and United States Secretary of State . Fish is recognized as the " pillar " of the Grant Administration and considered one of the best U.S. Secretaries of State by scholars , known for his judiciousness and efforts towards reform and diplomatic moderation . Fish settled the controversial Alabama Claims with Great Britain through his development of the concept of international arbitration . Fish kept the United States out of war with Spain over Cuban independence by coolly handling the volatile Virginius Incident . In 1875 , Fish initiated the process that would ultimately lead to Hawaiian statehood , by having negotiated a reciprocal trade treaty for the island nation 's sugar production . He also organized a peace conference and treaty in Washington D.C. between South American countries and Spain . Fish </t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Beat ' em up = Beat ' em up ( also known as brawler ) is a video game genre featuring hand-to-hand combat between the protagonist and an improbably large number of opponents . These games typically take place in urban settings and feature crime-fighting and revenge-based plots , though some games may employ historical , sci-fi or fantasy themes . Traditional beat ' em ups take place in scrolling , two-dimensional ( 2D ) levels , though some later games feature more open three-dimensional ( 3D ) environments with yet larger numbers of enemies . These games are noted for their simple gameplay , a source of both critical acclaim and derision . Two-player cooperative gameplay and multiple player characters are also hallmarks of the genre . The first influential beat ' em up was 1984 's Kung-Fu Master , with 1986 's Renegade introducing the urban settings and underworld revenge themes employed extensively by later games . The genre then saw a period of high popularity between the release of</t>
+          <t xml:space="preserve">Alexander Hamilton = Alexander Hamilton ( January 11 , 1755 or 1757 – July 12 , 1804 ) was a Founding Father of the United States , chief staff aide to General George Washington , one of the most influential interpreters and promoters of the U.S. Constitution , the founder of the nation 's financial system , the founder of the Federalist Party , the world 's first voter-based political party , the founder of the United States Coast Guard , and the founder of The New York Post newspaper . As the first Secretary of the Treasury , Hamilton was the primary author of the economic policies of the George Washington administration . Hamilton took the lead in the funding of the states ' debts by the Federal government , the establishment of a national bank , a system of tariffs , and friendly trade relations with Britain . He led the Federalist Party , created largely in support of his views ; he was opposed by the Democratic-Republican Party , led by Thomas Jefferson and James Madison , which </t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Blazing Lazers = Blazing Lazers , known in Japan as Gunhed ( ガンヘッド ) , is a 1989 sci-fi shoot ' em up video game developed by Hudson Soft and Compile . It was released in Japan on July 7 , 1989 ( 1989-07-07 ) for the PC Engine , and it was released in North America in November 1989 for the TurboGrafx-16 . It was later released on the Wii 's Virtual Console in North America on May 21 , 2007 ( 2007-05-21 ) , in Europe on May 25 , 2007 ( 2007-05-25 ) , in Australia on July 30 , 2007 ( 2007-07-30 ) , and in Japan on June 17 , 2008 ( 2008-06-17 ) . It was released for the PlayStation Network on July 21 , 2010 ( 2010-07-21 ) and on the Wii U 's Virtual Console on June 11 , 2014 ( 2014-06-11 ) both in Japan . It is based on the Japanese film Gunhed ( only referenced in the Japanese version ) . In the game , a fictional galaxy is under attack by an enemy space armada called the Dark Squadron , and this galaxy 's only chance for survival is the Gunhed Advanced Star Fighter , who must destroy th</t>
+          <t>Spanish Texas = Spanish Texas was one of the interior provinces of the Spanish colonial Viceroyalty of New Spain from 1690 until 1821 . = = History = = Spain had claimed ownership of the territory , which comprised part of the present-day U.S. state of Texas , including the land north of the Medina and Nueces Rivers , but did not attempt to colonize the area until after locating evidence of the failed French colony of Fort Saint Louis in 1689 . In 1690 , Alonso de León escorted several Catholic missionaries to east Texas , where they established the first mission in Texas . When native tribes resisted the Spanish invasion of their homeland , the missionaries returned to Mexico , abandoning Texas for the next two decades . The Spanish returned to southeastern Texas in 1716 , establishing several missions and a presidio to maintain a buffer between Spanish territory and the French colonial Louisiana district of New France . Two years later in 1718 , the first civilian settlement in Texas</t>
         </is>
       </c>
     </row>
@@ -721,32 +721,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['film', 'films', 'bond', 'disney', 'movie', 'role', 'actor', 'director', 'cast', 'filming', 'script', 'production', 'starred', 'grossing', 'batman']</t>
+          <t>['game', 'released', 'games', 'player', 'music', 'version', 'original', 'series', 'release', 'story', 'characters', 'players', 'main', 'character', 'japan']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Taapsee Pannu = Taapsee Pannu ( born 1 August 1987 ) is an Indian model and actress , who mainly works in the South Indian film industry , though she has also appeared in Bollywood films . Taapsee worked as a software professional and also pursued a career in modelling before becoming an actress . During her modelling career , she appeared in a number of commercials and won titles such as " Pantaloons Femina Miss Fresh Face " and " Safi Femina Miss Beautiful Skin " in 2008 . After a short stint with modelling , Taapsee made her acting debut with the 2010 Telugu film Jhummandi Naadam directed by Raghavendra Rao . Since then , she has appeared in a number of critically acclaimed films such as Aadukalam , Vastadu Naa Raju and Mr. Perfect . Her Tamil film Aadukalam won six National Film Awards at the 58th National Film Awards . She has also worked in a Malayalam film and has been signed on for three Telugu films and a Hindi film . She was awarded Most Enthusiastic Performer-Female Award at</t>
+          <t>Dragon Quest = Dragon Quest ( Japanese : ドラゴンクエスト , Hepburn : Doragon Kuesuto ) , published as Dragon Warrior in North America until 2005 , is a series of internationally best-selling console role-playing video game ( RPG ) titles created by Yuji Horii and his studio , Armor Project . The series is published by Square Enix ( formerly Enix ) , with localized versions of later installments for the Nintendo DS being published by Nintendo outside Japan . With its first title published in 1986 , there are currently ten main-series titles , along with numerous spin-off games . Nearly every game in the main series has either an anime or manga adaptation , or both . The series has had a significant impact on the development of console RPGs , and introduced a number of features to the genre . Installments of the series have appeared on MSX computers , Nintendo Entertainment System , Super Nintendo Entertainment System , Game Boy Color , Game Boy Advance , Nintendo DS , PlayStation , PlayStation</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Richard Smith ( silent film director ) = Richard Smith ( September 17 , 1886 – 1937 ) , also known as Dick Smith , was a screenwriter , actor , and film director . Smith was born in Cleveland , Ohio , and became a comedian active in the vaudeville era . He met his wife Alice Howell in 1910 and the two performed together as Howell and Howell . After working under direction of Mack Sennett at the American Mutoscope and Biograph Company in New York , Smith moved to Los Angeles , California . Smith and his wife starred in reels together produced by L-KO Kompany . While Howell was contracted at Universal Studios , Smith directed her in films described in the book Clown Princes and Court Jesters as , " some of Universal 's most memorable comedies of the twenties " . With colleague Vin Moore , Smith directed actor Oliver Hardy in the 1920 film Distilled Love . Smith directed the Marx Brothers in 1921 in their first film , titled Humor Risk , which has since been lost . In 1925 , Smith 's dire</t>
+          <t>Guitar Hero = The Guitar Hero series ( sometimes referred to as the Hero series ) is a series of music rhythm games first published in 2005 by RedOctane and Harmonix , and distributed by Activision , in which players use a guitar-shaped game controller to simulate playing lead , bass guitar , and rhythm guitar across numerous rock music songs . Players match notes that scroll on-screen to colored fret buttons on the controller , strumming the controller in time to the music in order to score points , and keep the virtual audience excited . The games attempt to mimic many features of playing a real guitar , including the use of fast-fingering hammer-ons and pull-offs and the use of the whammy bar to alter the pitch of notes . Most games support single player modes , typically a Career mode to play through all the songs in the game , and both competitive and cooperative multiplayer modes . With the introduction of Guitar Hero World Tour in 2008 , the game includes support for a four-play</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Manoj Bajpayee = Manoj Bajpayee ( born 23 April 1969 ) , also credited as Manoj Bajpai , is an Indian film actor who predominantly works in Hindi cinema and has also done some Telugu and Tamil language films . He is the recipient of two National Film Awards and two Filmfare Awards . Born in Belwa , a small village in Narkatiaganj , Bihar , Bajpayee aspired to become an actor since childhood . He relocated to Delhi at the age of seventeen , and applied for National School of Drama , only to be rejected for three times . He continued to do theatre while studying in the college . Bajpayee made his feature film debut with the one-minute role in Drohkaal ( 1994 ) , and a minor role of a dacoit in Shekhar Kapur 's Bandit Queen ( 1994 ) . After few unnoticed roles , he played gangster Bhiku Mhatre in Ram Gopal Varma 's 1998 crime drama Satya , which proved to be a breakthrough . Bajpayee received the National Film Award for Best Supporting Actor and Filmfare Critics Award for Best Actor for t</t>
+          <t xml:space="preserve">Tales ( series ) = The Tales series , known in Japan as the Tales of series ( 「 テイルズ オブ 」 シリーズ , " Teiruzu Obu " Shirīzu ) , is a franchise of fantasy Japanese role-playing video games published by Bandai Namco Entertainment ( formerly Namco ) , and developed by its subsidiary , Namco Tales Studio until 2011 and presently by Bandai Namco . First begun in 1995 with the development and release of Tales of Phantasia for the Super Famicom , the series currently spans sixteen main titles , multiple spin-off games and supplementary media in the form of manga series , anime series , and audio dramas . While entries in the series generally stand independent of each other with different characters and stories , they are commonly linked by their gameplay , themes and high fantasy settings . The series is characterized by its art style , which draws from Japanese manga and anime , and its action-based fighting system called the " Linear Motion Battle System " . Multiple people have become linked </t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Paresh Mokashi = Paresh Mokashi ( born 6 February 1969 ) is an Indian filmmaker , producer , actor and Theatre director-producer ; working predominantly in Marathi cinema and Marathi theatre . He started working as a backstage worker for theatre and did few minor roles for plays as well as films . Mokashi made his directorial debut for theatre with the Marathi play , Sangeet Debuchya Mulee in 1999 . He continued to work for theatre and made his directorial debut for cinema with the 2009 Marathi feature film , Harishchandrachi Factory . The film depicts the making of India 's first full-length feature film , Raja Harishchandra ( 1913 ) , made by Dadasaheb Phalke . The film was acclaimed critically and won several awards . It was also selected as India 's official entry to 82nd Academy Awards in the Best Foreign Language Film category . = = Personal life = = Paresh Mokashi was born to a Maharashtrian family in Pune and was brought up in Lonavla . He is a grandson of a noted Marathi write</t>
+          <t>Music of the Final Fantasy series = Final Fantasy is a media franchise created by Hironobu Sakaguchi and owned by Square Enix that includes video games , motion pictures , and other merchandise . The series began in 1987 as an eponymous role-playing video game developed by Square , spawning a video game series that became the central focus of the franchise . The music of the Final Fantasy series refers to the soundtracks of the Final Fantasy series of video games , as well as the surrounding medley of soundtrack , arranged , and compilation albums . The series ' music ranges from very light background music to emotionally intense interweavings of character and situation leitmotifs . The franchise includes a main series of numbered games as well as several spin-off series such as Crystal Chronicles and the Final Fantasy Tactics series . The primary composer of music for the main series was Nobuo Uematsu , who single-handedly composed the soundtracks for the first nine games , as well as</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Mani Ratnam = Gopala Ratnam Subramaniam ( born 2 June 1955 ) , commonly known by his screen name Mani Ratnam , is an Indian film director , screenwriter , and producer who predominantly works in Tamil cinema . Cited by the media as one of India 's most acclaimed and influential filmmakers , Mani Ratnam is widely credited with revolutionising the Tamil film industry and altering the profile of Indian cinema . Although working in the mainstream medium , his films are noted for their realism , technical finesse , and craft . The Government of India honoured him with the Padma Shri , acknowledging his contributions to film in 2002 . Despite being born into a film family , Mani Ratnam did not develop any interest towards films when he was young . Upon completion of his post graduation in management , he started his career as a consultant . He entered the film industry through the 1983 Kannada film Pallavi Anu Pallavi . The failure of his subsequent films would mean that he was left with lit</t>
+          <t>Dragon Quest ( video game ) = Dragon Quest ( Japanese : ドラゴンクエスト , Hepburn : Doragon Kuesuto ) , also released as Dragon Warrior , is the first role-playing video game ( RPG ) in the Dragon Quest media franchise . It was developed by Chunsoft for the Family Computer ( or Famicom for short ) and published by Enix in Japan in 1986 as Dragon Quest and by Nintendo in 1989 in North America for the Nintendo Entertainment System ( or NES ) as Dragon Warrior . Dragon Quest has been ported and remade for several video game platforms , including the MSX , PC-9801 , X68000 , Super Famicom , Game Boy Color , and mobile phones . In play , players control a hero character who is charged with saving the Kingdom of Alefgard and rescuing its princess from the evil Dragonlord . Dragon Warrior 's story became the second part in a trilogy . Several more anime and manga games , which revolved around this overarching plot were created . Dragon Quest was created by Yuji Horii , who took inspiration from prev</t>
         </is>
       </c>
     </row>
@@ -756,32 +756,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['army', 'persian', 'byzantine', 'arab', 'syria', 'emperor', 'polish', 'muslim', 'byzantines', 'constantine', 'battle', 'hungary', 'ottoman', 'king', 'forces']</t>
+          <t>['tropical', 'storm', 'cyclone', 'area', 'cyclones', 'near', 'level', 'wind', 'low', 'formed', 'depression', 'miles', 'winds', 'water', 'west']</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Battle of Pegae = The Battle of Pegae ( Bulgarian : битка при Пиги ) was fought between 11 and 18 March 921 in the outskirts of Constantinople between the forces of the Bulgarian Empire and the Byzantine Empire during the Byzantine – Bulgarian war of 913 – 927 . The battle took place in a locality called Pegae ( i.e. " the spring " ) , named after the nearby Church of St. Mary of the Spring . The Byzantine lines collapsed at the very first Bulgarian attack and their commanders fled the battlefield . In the subsequent rout most Byzantine soldiers were killed by the sword , drowned or were captured . In 922 the Bulgarians continued their successful campaigns in Byzantine Thrace , capturing a number of towns and fortresses , including Adrianople , Thrace 's the most important city , and Bizye . In June 922 they engaged and defeated yet another Byzantine army at Constantinople , confirming the Bulgarian domination of the Balkans . However , Constantinople itself remained outside their reac</t>
+          <t>1981 Pacific typhoon season = The 1981 Pacific typhoon season has no official bounds ; it ran year-round in 1981 , but most tropical cyclones tend to form in the northwestern Pacific Ocean between May and November . These dates conventionally delimit the period of each year when most tropical cyclones form in the northwestern Pacific Ocean . Tropical Storms formed in the entire west pacific basin were assigned a name by the Joint Typhoon Warning Center . Tropical depressions that enter or form in the Philippine area of responsibility are assigned a name by the Philippine Atmospheric , Geophysical and Astronomical Services Administration or PAGASA . This can often result in the same storm having two names . A total of 35 tropical depressions formed this year in the Western Pacific , of which 29 became tropical storms . Of the 29 , 13 storms reached typhoon intensity , of which 2 reached super typhoon strength . Seven tropical cyclones moved through the Philippines this season . The firs</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Siege of Klis = The Siege of Klis or Battle of Klis ( Croatian : Opsada Klisa or Bitka kod Klisa , Turkish : Klise Kuşatması ) was a siege of Klis Fortress in the Kingdom of Croatia within Habsburg Monarchy . The siege of the fortress , which lasted for more than two decades , and the final battle near Klis in 1537 , were fought as a part of the Ottoman – Habsburg wars between the defending Croatian-Habsburg forces under the leadership of Croatian feudal lord Petar Kružić , and the attacking Ottoman army under the leadership of the Ottoman general Murat-beg Tardić . After decisive Ottoman victory at the Battle of Krbava field in 1493 , and especially after the Battle of Mohács in 1526 , the Croats continued defending themselves against the Ottoman attacks . The Ottoman conquest during the early years of the 16th century prompted the formation of the Uskoks , which were led by Croatian captain Petar Kružić , also called ( Prince of Klis ) . As a part of the Habsburg defensive system , U</t>
+          <t>1984 Pacific typhoon season = The 1984 Pacific typhoon season has no official bounds , but most tropical cyclones tend to form in the northwestern Pacific Ocean between May and November . These dates conventionally delimit the period of each year when most tropical cyclones form in the northwestern Pacific Ocean . Tropical Storms formed in the entire west pacific basin were assigned a name by the Joint Typhoon Warning Center . Tropical depressions that enter or form in the Philippine area of responsibility are assigned a name by the Philippine Atmospheric , Geophysical and Astronomical Services Administration or PAGASA . This can often result in the same storm having two names . A total of 30 tropical depressions formed in 1984 in the Western Pacific , of which 27 became tropical storms , 16 reached typhoon intensity , and two reached super typhoon strength . Eight tropical cyclones moved into mainland China , four struck Vietnam , four moved through the Philippines , and one cyclone m</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Ivan the Russian = Ivan the Russian ( Bulgarian : Иван Русина , Ivan Rusina ; Hungarian : Orosz Iván ) ( fl . 1288 / 1323 – 1332 ) was a 14th-century Bulgarian military leader of Russian origin who served Bulgarian tsars Michael Shishman and Ivan Alexander . Prior to joining the armed forces of the Second Bulgarian Empire , Ivan the Russian may have been a military commander in the service of the Hungarian governor of Severin . Ivan the Russian rose to a high rank in the Bulgarian military in the wake of the accession of Michael Shishman to the throne . In 1323 , he was in charge of the Bulgarian defence of Plovdiv during the prolonged and ultimately successful Byzantine siege of the city . In 1328 , he was involved in a failed Bulgarian attempt to capture the Byzantine capital Constantinople from within . Probably taking part in the turbulent events that surrounded and followed Michael Shishman 's death , Ivan the Russian was last mentioned as a representative of Ivan Alexander in 133</t>
+          <t>1982 Pacific typhoon season = The 1982 Pacific typhoon season had no official bounds ; it ran year-round in 1982 . On average , most tropical cyclones tend to form in the northwestern Pacific Ocean between May and November . These dates conventionally delimit the period of each year when most tropical cyclones form in the northwestern Pacific Ocean . The scope of this article is limited to the Pacific Ocean , north of the equator and west of the International Date Line . Storms that form east of the date line and north of the equator are called hurricanes . Tropical Storms that formed in the entire west Pacific basin were assigned a name by the Joint Typhoon Warning Center . Tropical depressions that enter or form in the Philippine area of responsibility are assigned a name by the Philippine Atmospheric , Geophysical and Astronomical Services Administration or PAGASA . This can often result in the same storm having two names . During this season , the first tropical cyclone formed on M</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Cutzinas = Cutzinas or Koutzinas ( Greek : Κουτζίνας ) was a Berber tribal leader who played a major role in the wars of the East Roman or Byzantine Empire against the Berber tribes in Africa in the middle of the 6th century , fighting both against and for the Byzantines . A staunch Byzantine ally during the latter stages of the Berber rebellion , he remained an imperial vassal until his murder in 563 by the new Byzantine governor . = = Life = = Cutzinas was of mixed stock : his father was a Berber , while his mother came from the Romanized population of North Africa . Following the reconquest of North Africa by the East Roman ( Byzantine ) Empire in the Vandalic War ( 533 – 534 ) , several uprisings by the native Berber tribes occurred in the North African provinces . Cutzinas is mentioned by the eyewitness historian Procopius of Caesarea as one of the leaders of the rebellion in the province of Byzacena , alongside Esdilasas , Medisinissas and Iourphouthes . In spring 535 , however ,</t>
+          <t>1986 Pacific typhoon season = The 1986 Pacific typhoon season has no official bounds ; it ran year-round in 1986 , but most tropical cyclones tend to form in the northwestern Pacific Ocean between May and December . These dates conventionally delimit the period of each year when most tropical cyclones form in the northwestern Pacific Ocean . Tropical Storms formed in the entire west pacific basin were assigned a name by the Joint Typhoon Warning Center . Tropical depressions that enter or form in the Philippine area of responsibility are assigned a name by the Philippine Atmospheric , Geophysical and Astronomical Services Administration or PAGASA . This can often result in the same storm having two names . A total of 32 tropical depressions formed in 1986 in the Western Pacific over an eleven-month time span . Of the 32 , 30 became tropical storms , 19 storms reached typhoon intensity , and 3 reached super typhoon strength . The Joint Typhoon Warning Center considered Vera as two tropi</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Siege of Güns = The Siege of Güns or Siege of Kőszeg ( Turkish : Güns Kuşatması ) was a siege of Kőszeg ( German : Güns ) in the Kingdom of Hungary within the Habsburg Empire , that took place in 1532 . In the siege , the defending forces of the Austrian Habsburg Monarchy under the leadership of Croatian Captain Nikola Jurišić ( Hungarian : Miklós Jurisics ) , defended the small border fort of Kőszeg with only 700 – 800 Croatian soldiers , with no cannons and few guns . The defenders prevented the advance of the Ottoman army of 120,000 – 200,000 toward Vienna , under the leadership of Sultan Suleiman the Magnificent ( Ottoman Turkish : سليمان Süleymān ) and Pargalı Ibrahim Pasha . The exact outcome is unknown , since it has two versions which differ depending on the source . In the first version Nikola Jurišić rejected the offer to surrender on favourable terms , and in the second version , the city was offered terms for a nominal surrender . Suleiman , having been delayed nearly four </t>
+          <t>1994 Pacific typhoon season = The 1994 Pacific typhoon season was an extremely active season in the annual cycle of tropical cyclone formation in the Western North Pacific , with a total of 41 tropical cyclones during the course of the season . The season had no official bounds and it ran year-round in 1994 , but most tropical cyclones tend to form in the northwestern Pacific Ocean between May and November . Tropical storms that formed west of the date line were assigned a name by the Joint Typhoon Warning Center . The World Meteorological Organization-designated Regional Specialized Meteorological Centre for tropical cyclones for the region is the Japan Meteorological Agency . Tropical depressions that entered or formed in the Philippine area of responsibility were assigned a name by the Philippine Atmospheric , Geophysical and Astronomical Services Administration or PAGASA . This resulted in some storms having two names . The season started on January 4 with the formation of Tropical</t>
         </is>
       </c>
     </row>
@@ -791,32 +791,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['trains', 'station', 'railway', 'building', 'line', 'tunnel', 'bridge', 'rail', 'services', 'train', 'oslo', 'passenger', 'stations', 'river', 'built']</t>
+          <t>['court', 'act', 'public', 'law', 'state', 'rights', 'case', 'government', 'right', 'cases', 'united_states', 'courts', 'decision', 'singapore', 'person']</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Eidsvoll Verk Station = Eidsvoll Verk Station ( Norwegian : Eidsvoll Verk stasjon ) is a railway station located on the Gardermoen Line at Råholt near Eidsvoll Verk in Eidsvoll , Norway . The station was taken into use in 1999 when the commuter trains to Eidsvoll started using the Gardermoen Line . It was designed by Arkitektskap and built in concrete , with details in metal and wood , and is sunk into the ground . = = Service = = The Oslo Commuter Rail , operated by the Norwegian State Railways , serves Eidsvoll Verk twice per hour with lines L12 Eidsvoll - Oslo S - Drammen - Kongsberg , and R11 Eidsvoll - Oslo S - Larvik / Skien . The service has only one northbound station , Eidsvoll , 5 minutes away . Travel time to Oslo Airport is 5 minutes , and to Oslo Central Station , 30 minutes . The public transport authority Ruter operates bus services to the station , including a correspondence from Eidsvoll Verk via the station to Dal . There is also a taxi stand at the station . = = Faci</t>
+          <t>Article 14 of the Constitution of Singapore = Article 14 of the Constitution of the Republic of Singapore , specifically Article 14 ( 1 ) , guarantees to Singapore citizens the rights to freedom of speech and expression , peaceful assembly without arms , and association . However , the enjoyment of these rights may be restricted by laws imposed by the Parliament of Singapore on the grounds stated in Article 14 ( 2 ) of the Constitution . There are two types of grounds . For the first type , it must be shown that restricting the rights is " necessary or expedient in the interest " of the grounds . The grounds are the security of Singapore and public order ( applicable to all three rights protected by Article 14 ( 1 ) ) , morality ( freedom of speech and freedom of association ) , and friendly relations with other countries ( freedom of speech only ) . In a 2005 judgment , the High Court expressed the view that the phrase necessary or expedient confers upon Parliament " an extremely wide</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Oslo Airport Station = Oslo Airport Station ( Norwegian : Oslo lufthavn stasjon ) , also known as Gardermoen Station , is a railway station located in the airport terminal building of Oslo Airport , Gardermoen in Norway . Located on the Gardermoen Line , it is served by the Airport Express Trains , express trains to Trondheim and Oslo , regional trains to Lillehammer and Skien ( via Oslo ) and commuter trains to Eidsvoll and Kongsberg ( via Oslo ) . The station is located 48 kilometres ( 30 mi ) from Oslo Central Station . The station is manned , and there is a single bus route , and several coach services , to and from the airport . It opened in 1998 , along with the new airport . During 2000 – 2001 , there were several derailments at the station . South of the station is a terminal for unloading freight trains carrying aviation fuel . = = Location = = Gardermoen is at kilometer marker 51.85 ( 32.22 mi ) from Oslo S , but the actual distance is only 48.07 km ( 29.87 mi ) . This is bec</t>
+          <t>Exclusion of judicial review in Singapore law = Exclusion of judicial review has been attempted by the Parliament of Singapore to protect the exercise of executive power . Typically , this has been done though the insertion of finality or total ouster clauses into Acts of Parliament , or by wording powers conferred by Acts on decision-makers subjectively . Finality clauses are generally viewed restrictively by courts in the United Kingdom . The courts there have taken the view that such clauses are , subject to some exceptions , not effective in denying or restricting the extent to which the courts are able to exercise judicial review . In contrast , Singapore cases suggest that ouster clauses cannot prevent the High Court from exercising supervisory jurisdiction over the exercise of executive power where authorities have committed jurisdictional errors of law , but are effective against non-jurisdictional errors of law . A partial ouster or time limit clause specifies a restricted per</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Åndalsnes Station = Åndalsnes Station ( Norwegian : Åndalsnes stasjon ) is a railway station in the town of Åndalsnes , the administrative centre of Rauma Municipality in Møre og Romsdal county , Norway . It has been the terminal station of the Raumabanen railway line since the line was extended to Åndalsnes on 30 November 1924 . The station was designed by Gudmund Hoel and is located on reclaimed land along the Isfjorden . To get the line to the station , a cutting had to be built . In addition to a station building , the station has an engine shed and a bus station ; the station building is next to a cruise ship port . It serves four passenger trains per day , and has correspondence by bus onwards to the nearby towns of Molde and Ålesund . The station is manned and features a chapel within a retired train carriage . = = History = = The area where the station is located is built on reclaimed land , as the Åndalsnes side of Isfjorden is sufficiently shallow . The earthwork for the recl</t>
+          <t>Threshold issues in Singapore administrative law = Threshold issues are legal requirements in Singapore administrative law that must be satisfied by applicants before their claims for judicial review of acts or decisions of public authorities can be dealt with by the High Court . These include showing that they have standing ( locus standi ) to bring cases , and that the matters are amenable to judicial review and justiciable by the Court . Depending on the interest that the applicant seeks to represent , standing can be categorized as either private or public standing . Applicants must establish they have private standing if they seek to represent personal interests . In contrast , an applicant who seeks to represent the interests of a larger group or the public at large must establish he or she has public or representative standing . Where private standing is concerned , the Singapore courts have not yet directly addressed the issue of the standing required to obtain a declaration in</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Upminster Bridge tube station = Upminster Bridge is a London Underground station on Upminster Road in the Upminster Bridge neighbourhood of the London Borough of Havering in northeast London , England . The station is on the District line and is the penultimate station on the eastern extremity of that line . The station was opened on 17 December 1934 by the London , Midland and Scottish Railway on the local electrified tracks between Upminster and Barking that were constructed in 1932 . The main station building is of a distinctive polygonal design . It has relatively low usage for a suburban station with approximately 1 million entries and exits during 2011 . = = History = = The London , Tilbury and Southend Railway from Fenchurch Street and Barking was constructed through the Upminster Bridge area in 1885 , with stations at Hornchurch and Upminster . The Whitechapel and Bow Railway opened in 1902 and allowed through services of the District Railway to operate to Upminster . The Metro</t>
+          <t xml:space="preserve">Article 9 of the Constitution of Singapore = Article 9 of the Constitution of the Republic of Singapore , specifically Article 9 ( 1 ) , guarantees the right to life and the right to personal liberty . The Court of Appeal has called the right to life the most basic of human rights , but has yet to fully define the term in the Constitution . Contrary to the broad position taken in jurisdictions such as Malaysia and the United States , the High Court of Singapore has said that personal liberty only refers to freedom from unlawful incarceration or detention . Article 9 ( 1 ) states that persons may be deprived of life or personal liberty " in accordance with law " . In Ong Ah Chuan v. Public Prosecutor ( 1980 ) , an appeal to the Judicial Committee of the Privy Council from Singapore , it was held that the term law means more than just legislation validly enacted by Parliament , and includes fundamental rules of natural justice . Subsequently , in Yong Vui Kong v. Attorney-General ( 2011 </t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Winschoten railway station = Winschoten ( Dutch pronunciation : [ ˈʋɪnsxoːtən ] ; abbreviation : Ws ) is an unstaffed railway station in Winschoten in the Netherlands . It is located on the Harlingen – Nieuweschans railway between Scheemda and Bad Nieuweschans in the province of Groningen . The station building , designed by Karel Hendrik van Brederode , was completed in 1865 and expanded in 1904 . Train services started on 1 May 1868 and have since been provided by Maatschappij tot Exploitatie van Staatsspoorwegen ( 1868 – 1937 ) , Nederlandse Spoorwegen ( 1938 – 2000 ) , NoordNed ( 2000 – 2005 ) , and Arriva ( 2005 – present ) . During World War II , 500 Jews were transported from the station via the Westerbork transit camp to Nazi concentration camps , where most of them were killed . The station has three tracks and two platforms . As of 2016 there are two local train services with trains every half an hour to and from Groningen , and trains every hour to and from Bad Nieuweschans </t>
+          <t xml:space="preserve">United States constitutional criminal procedure = The United States Constitution contains several provisions regarding the law of criminal procedure . Petit jury and venue provisions — both traceable to enumerated complaints in the Declaration of Independence — are included in Article Three of the United States Constitution . More criminal procedure provisions are contained in the United States Bill of Rights , specifically the Fifth , Sixth , and Eighth Amendments . With the exception of the Grand Jury Clause of the Fifth Amendment , the Vicinage Clause of the Sixth Amendment , and ( maybe ) the Excessive Bail Clause of the Eighth Amendment , all of the criminal procedure provisions of the Bill of Rights have been incorporated to apply to the state governments . Several of these rights regulate pre-trial procedure : access to a non-excessive bail , the right to indictment by a grand jury , the right to an information ( charging document ) , the right to a speedy trial , and the right </t>
         </is>
       </c>
     </row>
@@ -826,32 +826,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['battalion', 'brigade', 'aircraft', 'division', 'regiment', 'squadron', 'wing', 'infantry', 'training', 'battalions', 'unit', 'units', 'flight', 'air', 'australian']</t>
+          <t>['bridge', 'miles', 'area', 'road', 'construction', 'river', 'route', 'line', 'traffic', 'dam', 'water', 'station', 'feet', 'tunnel', 'built']</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>No. 77 Wing RAAF = No. 77 Wing was a Royal Australian Air Force ( RAAF ) wing of World War II . It formed part of No. 10 Operational Group ( later the Australian First Tactical Air Force ) at its establishment in November 1943 , when it comprised three squadrons equipped with Vultee Vengeance dive bombers . No. 77 Wing commenced operations in early 1944 , flying out of Nadzab , Papua New Guinea . Soon afterwards , however , the Vengeance units were withdrawn from combat and replaced with squadrons flying Douglas Bostons , Bristol Beaufighters and Bristol Beauforts . The wing saw action in the assaults on Noemfoor , Tarakan , and North Borneo , by which time it was an all-Beaufighter formation made up of Nos. 22 , 30 and 31 Squadrons . It was to have taken part in the Battle of Balikpapan in June 1945 , but unsuitable landing grounds meant that the Beaufighter units were withdrawn to Morotai , sitting out the remainder of the war before returning to Australia , where they disbanded , al</t>
+          <t>Big Wapwallopen Creek = Big Wapwallopen Creek ( also known as Wapwallopen Creek or Big Wap ) is a tributary of the Susquehanna River in Luzerne County , Pennsylvania , in the United States . It is approximately 23 miles ( 37 km ) long and flows through Bear Creek Township , Fairview Township , Rice Township , Wright Township , Dorrance Township , Hollenback Township , Nescopeck Township , and Conyngham Township . The watershed of the creek has an area of 53.2 square miles ( 138 km2 ) . The creek has three named tributaries : Balliet Run , Watering Run , and Bow Creek . The creek is designated as a Coldwater Fishery and a Migratory Fishery and is also Class A Wild Trout Waters for part of its length . However , it is considered to be impaired by organic enrichment and / or low levels of dissolved oxygen and its pH ranges from moderately acidic to slightly alkaline . Big Wapwallopen Creek has three large waterfalls , all of which are more than 25 feet ( 7.6 m ) high . The creek flows thr</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>No. 73 Wing RAAF = No. 73 Wing was a Royal Australian Air Force ( RAAF ) wing of World War II . It was formed in February 1943 at Port Moresby , Papua New Guinea , as part of No. 9 Operational Group . The wing initially comprised three attack squadrons flying CAC Wirraways , Douglas Bostons , and Bristol Beaufighters , with which it took part in the New Guinea campaign until mid-year . It was then reorganised with three fighter squadrons operating P-40 Kittyhawks and Supermarine Spitfires ; in this form it saw action in the New Britain and Admiralty Islands campaigns through 1943 – 44 . The wing was disbanded at Los Negros in August 1944 , and by the beginning of 1945 its squadrons had been absorbed into other RAAF wings under No. 10 Operational Group ( later the Australian First Tactical Air Force ) . = = History = = = = = New Guinea campaign = = = Formed in February 1943 , No. 73 Wing consisted of No. 4 Squadron ( flying CAC Wirraways ) , No. 22 Squadron ( Douglas Bostons ) and No. 3</t>
+          <t>A7 ( Croatia ) = The A7 motorway ( Croatian : Autocesta A7 ) is a 42.4-kilometre-long ( 26.3 mi ) motorway in Croatia . It connects the nation 's largest port in Rijeka , to the Croatian motorway network , as well as to the Rupa and Pasjak border crossings to Slovenia . The motorway forms part of a longitudinal transportation corridor in Croatia , and it is a part of European route E61 Villach – Ljubljana – Trieste – Rijeka . The A7 motorway route south of Orehovica interchange , where it also intersects Pan-European corridor Vb , is a part of European route E65 . The A7 motorway runs near a number of Croatian cities and provides access to Učka Nature Park and , indirectly , to numerous resorts in the Istria and Kvarner Gulf regions . The motorway is nationally significant because of its positive economic impact on the cities and towns it connects , and because of its contribution to tourism in Croatia . The importance of the motorway as a transit route will be further increased upon c</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10th Combat Aviation Brigade ( United States ) = The Combat Aviation Brigade , 10th Mountain Division is a combat aviation brigade of the United States Army based at Fort Drum , New York . It is a subordinate unit of the 10th Mountain Division . Reactivated in 1988 , the 10th Mountain Division 's Combat Aviation Brigade supported the division as it undertook numerous operations and overseas contingencies in the 1990s , including Operation Restore Hope , Operation Uphold Democracy , and Task Force Eagle , as well as disaster relief following Hurricane Andrew . The brigade has since become involved in the War on Terrorism , seeing four deployments to Afghanistan to support Operation Enduring Freedom and a deployment to Iraq to support Operation Iraqi Freedom . The brigade is currently on its fourth deployment to Afghanistan and is serving in Regional Command - East under Combined Joint Task Force 101 in support of Operation Enduring Freedom . = = Organization = = The Combat Aviation Brig</t>
+          <t>A6 ( Croatia ) = The A6 motorway ( Croatian : Autocesta A6 ) is a motorway in Croatia spanning 80.2 kilometres ( 49.8 mi ) . It connects the nation 's capital , Zagreb , via the A1 , to the seaport of Rijeka . The motorway forms a major north – south transportation corridor in Croatia and is a part of European route E65 Nagykanizsa – Zagreb – Rijeka – Zadar – Split – Dubrovnik – Podgorica . The A6 motorway route also follows Pan-European corridor Vb . The A6 motorway runs near a number of Croatian cities , provides access to Risnjak National Park and indirectly to numerous resorts , notably in the Istria and Kvarner Gulf regions . The motorway route was completed in 2008 . The motorway is nationally significant because of its positive economic impact on the cities and towns it connects , and because of its contribution to tourism in Croatia . The importance of the motorway as a transit route will be further increased upon completion of a proposed expansion of the Port of Rijeka and Rij</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">No. 78 Wing RAAF = No. 78 Wing is a Royal Australian Air Force ( RAAF ) operational training wing , headquartered at RAAF Base Williamtown , New South Wales . It comprises Nos. 76 and 79 Squadrons , operating the BAE Hawk 127 lead-in fighter , and No. 278 Squadron , a technical training unit . No. 79 Squadron , located at RAAF Base Pearce , Western Australia , is responsible for converting new pilots to fast jets , while No. 76 Squadron at Williamtown conducts introductory fighter courses ; both units also fly support missions for the Royal Australian Navy and the Australian Army . Formed as a fighter wing in November 1943 , No. 78 Wing comprised three flying units , Nos. 75 , 78 and 80 Squadrons , operating P-40 Kittyhawks in the South West Pacific theatre of World War II . After the war , it re-equipped with P-51 Mustangs at Williamtown . During the early 1950s , the wing was based at Malta on garrison duties with the Royal Air Force , operating two squadrons of De Havilland Vampire </t>
+          <t>A1 ( Croatia ) = The A1 motorway ( Croatian : Autocesta A1 ) is the longest motorway in Croatia , spanning 478.9 kilometers ( 297.6 mi ) . As it connects Zagreb , the nation 's capital , to Split , the second largest city in the country and the largest city in Dalmatia , the motorway represents a major north – south transportation corridor in Croatia and a significant part of the Adriatic – Ionian motorway . Apart from Zagreb and Split , the A1 motorway runs near a number of major Croatian cities , provides access to several national parks or nature parks , world heritage sites , and numerous resorts , especially along the Adriatic Coast . National significance of the motorway is reflected through its positive economic impact on the cities and towns it connects as well as its importance to tourism in Croatia . The motorway consists of two traffic lanes and an emergency lane in each driving direction separated by a central reservation . All intersections of the A1 motorway are grade sep</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>166th Aviation Brigade ( United States ) = The 166th Aviation Brigade was an aviation training brigade of the United States Army headquartered at Fort Hood , Texas . It was a subordinate unit of First Army - Division West . An " AC / RC " ( Active Component / Reserve Component ) formation , the 166th Aviation Brigade was the sole organization responsible for the post-mobilization training of United States Army Reserve &amp; National Guard aviation units . The unit was formerly designated as 3rd Brigade , 75th Division . From 1997 , the 166th Aviation Brigade has trained other aviation units for front-line service . As such , it has never seen combat , and has thus never earned any campaign streamers or unit awards . As the only brigade in the First Army responsible for training aviation units , the 166th Aviation Brigade is the principal unit for training Army Reserve and Army National Guard assets preparing to deploy to contingencies around the world , which means it is responsible for 47</t>
+          <t>Staten Island Tunnel = The Staten Island Tunnel is an abandoned , incomplete railway / subway tunnel in New York City . It was intended to connect railways on Staten Island ( precursors to the modern-day Staten Island Railway ) to the BMT Fourth Avenue Line of the New York City Subway , in Brooklyn , via a new crossing under the Narrows . Planned to extend 10,400 feet ( 3,200 m ) , the tunnel would have been among the world 's longest at the time of its planning , in the late 19th and early 20th centuries . Construction began in 1923 , but New York City Mayor John Hylan , a former Brooklyn – Manhattan Transit Corporation ( BMT ) employee , canceled the project , and the tunnel only went 150 feet ( 46 m ) into the Narrows before it was halted . The tunnel lies dormant under Owl 's Head Park in Bay Ridge , Brooklyn . Later proposals to complete the tunnel , including the 1939 plans for the Independent Subway System 's ambitious Second System , were never funded . Modern proposals for com</t>
         </is>
       </c>
     </row>
@@ -861,32 +861,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['election', 'governor', 'bush', 'republican', 'senate', 'president', 'democratic', 'massachusetts', 'campaign', 'presidential', 'elected', 'kentucky', 'lincoln', 'senator', 'vote']</t>
+          <t>['century', 'known', 'breed', 'horses', 'horse', 'found', 'popular', 'island', 'today', 'breeds', 'including', 'period', 'dog', 'large', 'early']</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Edwin Maxwell ( attorney general ) = Edwin Maxwell ( July 16 , 1825 – February 5 , 1903 ) was an American lawyer , judge , and politician in the U.S. state of West Virginia . Maxwell served as Attorney General of West Virginia in 1866 and was an Associate Justice of the Supreme Court of Appeals of West Virginia from 1867 until 1872 . He was elected to the West Virginia Senate ( 1863 – 1866 ; 1886 – 1893 ) and the West Virginia House of Delegates ( 1893 – 1895 ; 1903 ) . Maxwell was born in 1825 in Weston , Virginia ( present-day West Virginia ) and raised on a farm until the age of 21 . Despite his father 's plans for him to become a carpenter , Maxwell studied jurisprudence under his uncle Lewis Maxwell , a U.S. Representative . Maxwell was admitted to the bar in 1848 , and relocated to West Union , where he served two terms as the Commonwealth 's attorney for Doddridge County . In 1857 , Maxwell moved to Clarksburg and established a law partnership with Burton Despard , which was lat</t>
+          <t>Israeli cuisine = Israeli cuisine ( Hebrew : המטבח הישראלי ha-mitbach ha-yisra ’ eli ) comprises local dishes by people native to Israel and dishes brought to Israel by Jews from the Diaspora . Since before the establishment of the State of Israel in 1948 , and particularly since the late 1970s , an Israeli Jewish fusion cuisine has developed . Israeli cuisine has adopted , and continues to adapt , elements of various styles of Jewish cuisine , particularly the Mizrahi , Sephardic and Ashkenazi styles of cooking . It incorporates many foods traditionally eaten in Levantine , Middle Eastern and Mediterranean cuisines , and foods such as falafel , hummus , msabbha , shakshouka , couscous , and za 'atar are now widely popular in Israel . Other influences on the cuisine are the availability of foods common to the Mediterranean region , especially certain kinds of fruits and vegetables , dairy products and fish ; the distinctive traditional dishes prepared at holiday times ; the tradition o</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Mary Isenhour = Mary Isenhour is an American political strategist , campaign manager , and government official , currently serving as Chief of Staff for Pennsylvania Governor Tom Wolf . Prior to the Wolf administration , Isenhour served executive director of the Pennsylvania Democratic Party , was state director of Hillary Clinton 's 2008 presidential campaign , and assisted with the successful campaigns of U.S. Senator Bob Casey , Jr. and Pennsylvania Governor Ed Rendell . Isenhour also previously worked as executive director of the Pennsylvania House Democratic Campaign Committee , and started a political consulting firm with former state party chairman T.J. Rooney . In 2010 , PoliticsPA called her " one of the top consultants in the state " , and said , " few can move between the strategy of campaigning and its mechanics with the ease that she does " . Starting her career working on the Kansas House of Representatives staff , Isenhour eventually becoming chief of staff to House Mino</t>
+          <t>Palestinian cuisine = Palestinian cuisine consists of foods from or commonly eaten by Palestinians — which includes those living in Palestine , Israel , Jordan , refugee camps in nearby countries as well as by the Palestinian diaspora . The cuisine is a diffusion of the cultures of civilizations that settled in the region of Palestine , particularly during and after the Islamic era beginning with the Arab Ummayad conquest , then the eventual Persian-influenced Abbasids and ending with the strong influences of Turkish cuisine , resulting from the coming of the Ottoman Turks . It is similar to other Levantine cuisines , including Lebanese , Syrian and Jordanian . Cooking styles vary by region and each type of cooking style and the ingredients used are generally based on the climate and location of the particular region and on traditions . Rice and variations of kibbee are common in the Galilee . The West Bank engages primarily in heavier meals involving the use of taboon bread , rice and</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>James Fisher Robinson = James Fisher Robinson ( October 4 , 1800 – October 31 , 1882 ) was the 22nd Governor of Kentucky , serving the remainder of the unfinished term of Governor Beriah Magoffin . Magoffin , a Confederate sympathizer , became increasingly ineffective after the elections of 1861 yielded a supermajority to pro-Union forces in both houses of the Kentucky General Assembly . Magoffin agreed to resign the governorship , provided he could select his successor . He selected Robinson . Politically , Robinson opposed both secession and abolition . Though he had Union sympathies , he was considered a moderate , opposing both fugitive slave laws and the enlistment of black soldiers . As a state senator , he supported the Crittenden Compromise and opposed the Civil War . As governor , he drew criticism from the administration of President Abraham Lincoln for opposing the Emancipation Proclamation . = = Early life = = Robinson was born to Jonathan and Jane Black Robinson in Scott C</t>
+          <t>Mediterranean cuisine = Mediterranean cuisine is the food from the lands around the Mediterranean Sea and its preparation . This geographical area broadly follows the distribution of the olive tree , which provides one of the most distinctive features of the region 's cooking , olive oil . Although this region spans a wide variety of cultures with distinct cuisines , the historical connections of the region , as well as the impact of the Mediterranean Sea on the region 's climate and economy , mean that there are common elements in these cuisines , which include Italian , Levantine , Maghrebi , Ottoman , Provençal ( French ) , and Spanish cuisines . The region 's food came to be seen as a more or less unified cuisine following the cookery writer Elizabeth David 's book , A Book of Mediterranean Food ( 1950 ) . Other writers , such as the Tunisian historian Mohamed Yassine Essid , have agreed with David , defining the three core elements of the cuisine as the olive , wheat , and the gra</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Christopher Greenup = Christopher Greenup ( c . 1750 – April 27 , 1818 ) was an American politician who served as a U.S. Representative and the third Governor of Kentucky . Little is known about his early life ; the first reliable records about him are documents recording his service in the Revolutionary War where he served as a lieutenant in the Continental Army and a colonel in the Virginia militia . After his service in the war , Greenup helped settle the trans-Appalachian regions of Virginia . He became involved in politics , and played an active role in three of the ten statehood conventions that secured the separation of Kentucky from Virginia in 1792 . He became one of the state 's first representatives , and served in the Kentucky General Assembly before being elected governor in a race where , due to his immense popularity , he ran unopposed . Greenup 's term in office was marred by accusations that he had participated in the Burr Conspiracy to align Kentucky with Spain prior </t>
+          <t xml:space="preserve">French cuisine = French cuisine consists of the cooking traditions and practices from France . In the 14th century Guillaume Tirel , a court chef known as " Taillevent " , wrote Le Viandier , one of the earliest recipe collections of medieval France . During that time , French cuisine was heavily influenced by Italian cuisine . In the 17th century , chefs François Pierre La Varenne and Marie-Antoine Carême spearheaded movements that shifted French cooking away from its foreign influences and developed France 's own indigenous style . Cheese and wine are a major part of the cuisine , playing different roles regionally and nationally , with many variations and appellation d 'origine contrôlée ( AOC ) ( regulated appellation ) laws . French cuisine was codified in the 20th century by Auguste Escoffier to become the modern haute cuisine ; Escoffier , however , left out much of the local culinary character to be found in the regions of France and was considered difficult to execute by home </t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>John Breathitt = John Breathitt ( September 9 , 1786 – February 21 , 1834 ) was the 11th Governor of Kentucky . He was the first Democrat to hold this office and was the second Kentucky governor to die in office . Shortly after his death , Breathitt County , Kentucky was created and named in his honor . Early in life , Breathitt was appointed a deputy surveyor in Illinois Territory . On his return to Kentucky , he taught at a country school , and through wise investments , amassed enough wealth to sustain him while he studied law with Judge Caleb Wallace . In 1811 , he was elected to the first of several terms in the Kentucky House of Representatives . He was the Democratic nominee for lieutenant governor in 1828 . Although his running mate William T. Barry lost the office of governor to Thomas Metcalfe , Breathitt defeated his opponent for lieutenant governor . During his term as lieutenant governor , Breathitt was one of several proposed candidates to succeed John Rowan in the United</t>
+          <t xml:space="preserve">Arabian horse = The Arabian or Arab horse ( Arabic : الحصان العربي [ ħisˤaːn ʕarabiː ] , DMG ḥiṣān ʿarabī ) is a breed of horse that originated on the Arabian Peninsula . With a distinctive head shape and high tail carriage , the Arabian is one of the most easily recognizable horse breeds in the world . It is also one of the oldest breeds , with archaeological evidence of horses in the Middle East that resemble modern Arabians dating back 4,500 years . Throughout history , Arabian horses have spread around the world by both war and trade , used to improve other breeds by adding speed , refinement , endurance , and strong bone . Today , Arabian bloodlines are found in almost every modern breed of riding horse . The Arabian developed in a desert climate and was prized by the nomadic Bedouin people , often being brought inside the family tent for shelter and protection from theft . Selective breeding for traits including an ability to form a cooperative relationship with humans created a </t>
         </is>
       </c>
     </row>
@@ -896,32 +896,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['castle', 'church', 'century', 'castles', 'king', 'cathedral', 'tower', 'medieval', 'earl', 'england', 'nave', 'bishop', 'edward', 'chancel', 'built']</t>
+          <t>['september', 'storm', 'mph', 'august', 'hurricane', 'october', 'day', 'damage', 'near', 'early', 'developed', 'later', 'tropical', 'began', 'caused']</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Nidan = Nidan ( sometimes known as Midan or Idan ) was a Welsh priest and , according to some sources , a bishop , in the 6th and 7th centuries . He is now commemorated as a saint . He was the confessor for the monastery headed by St Seiriol at Penmon , and established a church at what is now known as Llanidan , which are both places on the Welsh island of Anglesey . He is the patron saint of two churches in Anglesey : St Nidan 's Church , Llanidan , built in the 19th century , and its medieval predecessor , the Old Church of St Nidan , Llanidan . Midmar Old Kirk in Aberdeenshire , Scotland , is also dedicated to him : Nidan is said to have helped to establish Christianity in that area as a companion of St Kentigern . St Nidan 's , Llanidan , has a reliquary dating from the 14th or 16th century , which is said to house his relics . = = Life = = Little is known in detail about Nidan 's life , and his year and place of birth are unknown . He is sometimes referred to as " Midan " or " Ida</t>
+          <t>2004 Atlantic hurricane season = The 2004 Atlantic hurricane season was the costliest Atlantic hurricane season on record until surpassed by the following year . More than half of the 16 tropical cyclones brushed or struck the United States . The season officially began on June 1 , and ended on November 30 . Due to a Modoki El Niño – a rare type of El Niño in which unfavorable conditions are produced over the eastern Pacific instead of the Atlantic basin due to warmer sea surface temperatures farther west along the equatorial Pacific – activity was above average . The first storm , Alex , developed offshore of the Southeastern United States on July 31 . It brushed the Carolinas and the Mid-Atlantic , causing one death and $ 7.5 million ( 2004 USD ) in damage . Several storms caused only minor damage , including tropical storms Bonnie , Earl , Hermine , and Matthew . In addition , hurricanes Danielle , Karl , and Lisa , Tropical Depression Ten , Subtropical Storm Nicole and Tropical Sto</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Bowes Castle = Bowes Castle was a medieval castle in the village of Bowes in County Durham , England . Built within the perimeter of the former Roman fort of Lavatrae , the early timber castle on the site was replaced by a more substantial stone structure between 1170 and 1174 on the orders of Henry II . A planned village was built alongside the castle . Bowes Castle withstood Scottish attack during the Great Revolt of 1173-74 but was successfully looted by rebels in 1322 . The castle went into decline and was largely dismantled after the English Civil War . The ruins are now owned by English Heritage and run as a tourist attraction . = = History = = = = = 12th century = = = Bowes Castle was built within the ruins of the Roman fort of Lavatrae . The route was one of the few upland passes to link England and Scotland and had remained strategically important during the medieval period . The castle site lay within the Honour of Richmond , a grouping of lands traditionally owned by the Cou</t>
+          <t xml:space="preserve">1969 Atlantic hurricane season = The 1969 Atlantic hurricane season was the busiest Atlantic hurricane season since 1933 . The hurricane season officially began on June 1 , and lasted until November 30 . The season had the highest number of systems reach hurricane status – twelve – in a single season , until that record was surpassed in 2005 . Activity began with a series of five tropical depressions , the first of which developed on May 29 . The third system in that series , Tropical Depression Seven , caused extensive flooding in Cuba and Jamaica in early June . The final in the series formed on July 25 , the same day that Tropical Storm Anna developed . Neither the former nor latter caused significant impact on land . Later in the season , Tropical Depression Twenty-Nine caused severe local flooding in the Florida Panhandle and southwestern Georgia in September . Hurricane Blanche was a small and short-lived tropical cyclone in mid-August that resulted in minimal effects . The most </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Cynfarwy = Cynfarwy was a Christian in the 7th century about whom little is known . He was venerated by the early church in Wales as a saint , although he was never formally canonised . St Cynfarwy 's Church in Anglesey is dedicated to him , and his name is also preserved in the name of the settlement around the church , Llechgynfarwy ( or sometimes " Llechcynfarwy " ) . His feast day is in November , although the date varies between sources . = = Life and commemoration = = Little is known for certain about Cynfarwy ; his dates of birth and death are not given in the Bonedd y Saint ( a Welsh genealogical tract compiled in the late 18th century using material from older manuscripts ) . According to the 19th-century Celtic scholar Robert Williams , Cynfarwy was active in the 7th century . According to the Bonedd y Saint , he was the son of the otherwise unknown " Awy ab Llehenog , Lord of Cornwall " . Cynfarwy is venerated as a saint , although he was never canonized by a pope : as the h</t>
+          <t xml:space="preserve">1979 Atlantic hurricane season = The 1979 Atlantic hurricane season was the first season to include both male and female names . The season officially began on June 1 , and lasted until November 30 . These dates conventionally delimit the period of each year when most tropical cyclones form in the Atlantic basin . It was slightly below average , with nine systems reaching tropical storm intensity . The first system , an unnumbered tropical depression , developed north of Puerto Rico on June 9 . Two days later , Tropical Depression One formed and produced severe flooding in Jamaica , with 40 deaths and about $ 27 million ( 1979 USD ) in damage . Tropical Storm Ana caused minimal impact in the Lesser Antilles . Hurricane Bob spawned tornadoes and produced minor wind damage along the Gulf Coast of the United States , primarily in Louisiana , while the remnants caused flooding , especially in Indiana . Tropical Storm Claudette caused extensive flooding , due to torrential rainfall . There </t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Æthelric II = Æthelric ( called Æthelric II to distinguish him from an earlier Æthelric who was also bishop of Selsey and also spelled Ethelric ; died c . 1076 ) was the second to last medieval Bishop of Selsey in England before the see was moved to Chichester . Consecrated a bishop in 1058 , he was deposed in 1070 for unknown reasons and then imprisoned by King William I of England . He was considered one of the best legal experts of his time , and was even brought from his prison to attend the trial on Penenden Heath where he gave testimony about English law before the Norman Conquest of England . = = Early life = = Æthelric was a monk at Christ Church Priory at Canterbury prior to his becoming a bishop . Several historians opine that he might have been the same as the Æthelric who was a monk of Canterbury and a relative of Godwin , Earl of Wessex . That Æthelric was elected by the monks of Canterbury to be Archbishop of Canterbury in 1050 , but was not confirmed by King Edward the C</t>
+          <t>1998 Atlantic hurricane season = The 1998 Atlantic hurricane season was one of the deadliest Atlantic hurricane seasons that featured the highest number of storm-related fatalities in over 200 years . It officially began on June 1 and ended on November 30 , dates which conventionally delimit the period during which most tropical cyclones form in the Atlantic Ocean . The first tropical cyclone , Tropical Storm Alex , developed on July 27 , and the season 's final storm , Hurricane Nicole , became extratropical on December 1 . The strongest storm , Mitch , was tied with Hurricane Dean for the seventh most intense Atlantic hurricane ever recorded . Mitch is also the second deadliest Atlantic hurricane in recorded history . The system dropped tremendous amounts of rainfall in Central America , causing 19,000 confirmed deaths and at least $ 6.2 billion ( 1998 USD ) in damage . The season was the first to feature a Category 5 hurricane on the Saffir – Simpson hurricane wind scale since Hurri</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Robert Bloet = Robert Bloet ( sometimes Robert Bloett ; died 1123 ) was Bishop of Lincoln 1093-1123 and Chancellor of England . Born into a noble Norman family , he became a royal clerk under King William I. Under William I 's son and successor King William II , Bloet was first named chancellor then appointed to the See of Lincoln . Continuing to serve the king while bishop , Bloet remained a close royal councillor to William II 's successor , King Henry I. He did much to embellish Lincoln Cathedral , and gave generously to his cathedral and other religious houses . He educated a number of noblemen , including illegitimate children of Henry I. He also was the patron of the medieval chronicler Henry of Huntingdon , and was an early patron of Gilbert of Sempringham , the founder of the Gilbertine monastic order . = = Early life = = Bloet was a member of the Norman noble family that held Ivry in Normandy . Bloet was related in some manner to Hugh , the Bishop of Bayeux from 1015 to 1049 ,</t>
+          <t>2000 Atlantic hurricane season = The 2000 Atlantic hurricane season was the first Atlantic hurricane season without a tropical cyclone in the month of July since 1993 . The hurricane season officially began on June 1 , and ended on November 30 . It was slightly above average due to a La Niña weather pattern . The first cyclone , Tropical Depression One , developed in the southern Gulf of Mexico on June 7 and dissipated after an uneventful duration . However , it would be almost two months before the first named storm , Alberto , formed near Cape Verde ; Alberto also dissipated with no effects on land . Several other tropical cyclones – Tropical Depression Two , Tropical Depression Four , Chris , Ernesto , Nadine , and an unnamed subtropical storm – did not impact land . Five additional storms – Tropical Depression Nine , Florence , Isaac , Joyce , and Leslie – minimally effected land areas . The most significant storm of the season was Hurricane Keith , which caused extensive damage in</t>
         </is>
       </c>
     </row>
@@ -931,32 +931,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['yard', 'yards', 'touchdown', 'season', 'michigan', 'team', 'nba', 'league', 'coach', 'tech', 'alabama', 'football', 'points', 'quarter', 'games']</t>
+          <t>['said', 'told', 'death', 'police', 'murder', 'family', 'life', 'found', 'asked', 'relationship', 'killed', 'later', 'mother', 'character', 'man']</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Chad Mottola = Charles Edward " Chad " Mottola ( born October 15 , 1971 ) is an American retired professional baseball player who played five seasons in Major League Baseball ( MLB ) as an outfielder . Considered a journeyman , Mottola played professionally from 1992 through 2007 , appearing in 59 MLB games and 1,801 minor league games . He was the hitting coach for the Toronto Blue Jays during the 2013 season , but his contract was not renewed for 2014 . Mottola is an alumnus of the University of Central Florida ( UCF ) , where he played college baseball for the UCF Knights baseball team . A highly regarded prospect , Mottola was selected by the Cincinnati Reds with the fifth overall selection of the 1992 MLB Draft . Mottola played in minor league baseball for different organizations , receiving major league playing time with the Cincinnati Reds in 1996 , the Toronto Blue Jays in 2000 and 2006 , the Florida Marlins in 2001 and the Baltimore Orioles in 2004 . As he received less playin</t>
+          <t>Mercedes McQueen = Mercedes Maria Theresa Immaculata McQueen ( previously Owen , Fisher and Browning ) is a fictional character from the British Channel 4 soap opera Hollyoaks , played by Jennifer Metcalfe . She debuted on-screen during the episode airing on 19 June 2006 as the first character to be introduced to the series by series producer , Bryan Kirkwood . In 2008 Metcalfe feared that the character was to be axed but was later reassured by the series producer that she would not be . Metcalfe later stated her intention to stay with the series . Mercedes is part of the McQueen family and is the longest serving McQueen on the series . On 26 August 2014 , it was revealed that Metcalfe had decided to quit the soap . In November 2014 , Mercedes was presumably stabbed to death , with her body discarded . However , Metcalfe returned to screens on 17 February 2015 in a surprise , unannounced twist which saw Mercedes revealed as alive and well , living in Nice , France . It was announced th</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Mickey Micelotta = Robert Peter " Mickey " Micelotta ( born October 20 , 1928 ) is a former American shortstop in Major League Baseball ( MLB ) . He played 13 total seasons of professional baseball , two of which were spent in the National League with the Philadelphia Phillies . In 17 career MLB games , Micelotta posted a batting average of .000 and had two runs in nine plate appearances . Born and raised in Wisconsin , Micelotta first played professionally with the Dayton Indians and Carbondale Pioneers in 1947 . Over the next three seasons , he played for various minor league teams in the Phillies organization before missing the 1951 and 1952 seasons , serving in the Korean War . He returned and played for the Terre Haute Phillies in 1953 and the Syracuse Chiefs from 1954 to 1955 , splitting time between the Chiefs and the Phillies ' major league squad . Micelotta spent the next three seasons with the Miami Marlins and three seasons after that with the Birmingham Barons before retiri</t>
+          <t xml:space="preserve">Susan Kennedy = Susan Wendy Kennedy ( also Smith and Kinski ) , is a fictional character from the Australian soap opera Neighbours , played by Jackie Woodburne . The character and her family were created by storyliners in an attempt to bring the show back to its roots . Susan made her first screen appearance during the episode broadcast on 3 October 1994 , along with her eldest son and daughter . The storyliners made Susan a teacher at Erinsborough High to give her immediate links with other characters . Since her introduction , Susan 's personality and appearance have been through several changes . Her storylines have seen her begin a relationship with a Priest , being married , divorced and widowed . Susan has become a stepmother and a grandmother and she has been central to three plots revolving around health issues : Retrograde amnesia , Multiple sclerosis and Surrogacy . She has also been central to a cyber-bullying plot . In October 2009 , Susan became the longest-running female </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Dan Meyer ( first baseman ) = Daniel Thomas Meyer ( born August 3 , 1952 in Hamilton , Ohio ) is a retired professional baseball player whose career spanned 15 seasons , 12 of which were played in Major League Baseball ( MLB ) with the Detroit Tigers ( 1974 – 76 ) , the Seattle Mariners ( 1977 – 81 ) , and the Oakland Athletics ( 1982 – 85 ) . Meyer primarily played first base , but also played left field , third base , and right field . He batted left-handed while throwing right-handed . During his playing career , Meyer was listed at 5 feet 11 inches ( 180 cm ) and weighed 180 pounds ( 82 kg ) . After attending the University of Arizona and Santa Ana College , Meyer was drafted by the Detroit Tigers during the 1972 Major League Baseball draft . He began his career in the minor leagues with the Bristol Tigers . Meyer made his major league debut in 1974 . Over his career in the majors , Meyer compiled a .253 batting average with 411 runs scored , 944 hits , 153 doubles , 31 triples , 8</t>
+          <t>Joran van der Sloot = Joran Andreas Petrus van der Sloot ( Dutch pronunciation : [ ˈjoːrɑn vɑn dεr ˈsloːt ] ; born 6 August 1987 ) is a Dutch citizen , the murderer of Stephany Flores Ramírez in Lima , in 2010 , and the primary suspect in the 2005 disappearance of Natalee Holloway , in Aruba . After Flores Ramírez 's murder on 30 May 2010 van der Sloot fled to Chile , where he was arrested and extradited back to Peru for questioning regarding the murder . On 7 June 2010 , he confessed to bludgeoning Flores . He later tried to formally retract his confession , claiming that he had been intimidated by the National Police of Peru and framed by the FBI . A Peruvian judge ruled on 25 June 2010 that the confession was valid and on 13 January 2012 , Van der Sloot was sentenced to 28 years imprisonment for Flores ' murder . Five years earlier , while living in Aruba , van der Sloot had been the primary suspect in the disappearance of American teenager Natalee Holloway , who disappeared in Arub</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve">J. T. White = John T. " J.T. " White ( July 10 , 1920 – November 21 , 2005 ) was a college football assistant coach , and a second-team 1947 College Football All-American center who played for national championship teams at both the University of Michigan and Ohio State University . White also played basketball for the Ohio State Buckeyes men 's basketball team . Although White was drafted to play professional football , he chose to pursue a career as an assistant football coach for both the Michigan Wolverines and Penn State Nittany Lions football teams . He served as an assistant coach for a national champion at Michigan and three undefeated and untied seasons at Penn State . White served in the United States Army during World War II causing a break in his collegiate education . = = Personal = = White was born in Wadley , Georgia and raised in River Rouge , Michigan . White earned his bachelor 's degree in education from Michigan in 1948 . He earned his master 's degree in education </t>
+          <t>Mark Brennan ( Neighbours ) = Mark Brennan is a fictional character from the Australian soap opera Neighbours , played by Scott McGregor . He made his first screen appearance on 30 August 2010 . McGregor initially had a four-week guest contract with the show , but this was increased to six months . Shortly after , it was announced that McGregor 's contract had been extended again to twelve months and that he would become a regular cast member . In February 2011 , McGregor announced his departure from Neighbours , so he could pursue modelling opportunities in Europe . He filmed his final scenes at the end of April and departed on screen on 22 June 2011 . On 4 November 2012 , it was announced that McGregor had reprised his role and Mark made a brief return from 20 May 2013 , before returning permanently on 5 February 2014 . After an attempt on Paul Robinson 's ( Stefan Dennis ) life , Mark is introduced as the lead detective in the case . When he received conflicting information from the</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dave Martinez = David Martinez ( born September 26 , 1964 ) is an American professional baseball coach and former outfielder . He is the bench coach for the Chicago Cubs of Major League Baseball ( MLB ) . He played in MLB for the Cubs , Montreal Expos , Cincinnati Reds , San Francisco Giants , Chicago White Sox , Tampa Bay Devil Rays , Texas Rangers , Toronto Blue Jays , and Atlanta Braves from 1986 to 2001 . Martinez had a .276 career batting average , 1,599 hits , 91 home runs , 795 runs scored , and 580 runs batted in . Martinez became the bench coach for the Tampa Bay Rays in 2008 , during which time he became a candidate for several managerial positions in MLB . After Rays ' manager Joe Maddon became manager of the Cubs after the 2014 season , Martinez joined the Cubs as their bench coach . = = Early life = = Martinez was born in Brooklyn , New York , to Puerto Rican parents . He lived at East 93rd Street and Lexington Avenue in Manhattan . At age 13 , his family moved to Orlando </t>
+          <t>Paul Robinson ( Neighbours ) = Paul Stewart Robinson is a fictional character from the Australian television soap opera Neighbours , a long-running serial drama about social life in the fictional Melbourne suburb of Erinsborough . He is played by Stefan Dennis . Paul was created by producer Reg Watson as one of Neighbours ' original characters . He debuted in the first episode of the show broadcast on 18 March 1985 and is currently the sole remaining original cast member . Paul appeared on a regular basis until 1992 when Dennis quit Neighbours to pursue work elsewhere . He agreed to reprise the role for a guest appearance in 1993 . Dennis returned to the show full-time in 2004 and has since remained in the role . Dennis views his decision to leave Neighbours as a mistake . Early character development during 1980s episodes changed Paul into a powerful , arrogant and sometimes villainous business man . Paul has an evil persona which has long been admired by Dennis for the entertainment v</t>
         </is>
       </c>
     </row>
@@ -966,32 +966,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['olympics', 'olympic', 'athletes', 'medal', 'championships', 'murray', 'meter', 'freestyle', 'round', 'beijing', 'medals', 'games', 'gold', 'seconds', 'relay']</t>
+          <t>['city', 'million', 'school', 'company', 'building', 'stadium', 'students', 'center', 'schools', 'year', 'sports', 'largest', 'located', 'community', 'years']</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cape Verde at the 2008 Summer Olympics = Cape Verde competed at the 2008 Summer Olympics in Beijing , China . Their participation marked their fourth Olympic appearance . Two Cape Verdeans competed in the Olympic games : Nelson Cruz participated as a marathon runner , and Wania Monteiro participated in gymnastics . Another athlete , Lenira Santos , was selected to compete in athletics but was forced to pull out due to injury . Monteiro was selected as the flag bearer for both the opening and closing ceremonies . Neither of the Cape Verdeans progressed beyond the first round . = = Background = = Cape Verde had participated in three previous Summer Olympics , between its debut in the 1996 Summer Olympics in Atlanta , United States and the 2008 Summer Olympics in Beijing . At their debut , the country sent three athletes to the games , all in athletics . The most number of Cape Verde athletes participating in a summer games , is three in 1996 , 2004 and 2012 . No Cape Verde athlete has ev</t>
+          <t xml:space="preserve">Dartmouth College Greek organizations = Dartmouth College is host to many Greek organizations , and a significant percentage of the undergraduate student body is active in Greek life . In 2005 , the school stated that 1,785 students were members of a fraternity , sorority , or coeducational Greek house , comprising about 43 percent of all students , or about 60 percent of the eligible student body . Greek organizations at Dartmouth provide both social and residential opportunities for students , and are the only single-sex residential option on campus . Greek organizations at Dartmouth do not provide dining options , as regular meals service has been banned in Greek houses since 1909 . Social fraternities at Dartmouth College grew out of a tradition of student literary societies that began in the late eighteenth and early nineteenth centuries . The first social fraternities were founded in 1842 and rapidly expanded to include the active participation of over half of the student body . </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jon Pollock = Jon Pollock ( born 11 May 1977 ) is a British wheelchair basketball player . He was selected to train with the British wheelchair basketball squad in 1992 . Pollock has played at four Paralympic games : the 2000 Summer Paralympics in Sydney , the 2004 Summer Paralympics in Athens , the 2008 Summer Paralympics in Beijing and the 2012 Summer Paralympics in London . He won a bronze medal at the 2004 Paralympics and the 2008 Paralympic Games . = = Personal life = = Pollock was born on 11 May 1977 in Liverpool , England with Spina bifida , a developmental congenital disorder caused by the incomplete closing of the embryonic neural tube . He currently lives in Wigan , Greater Manchester in north west England . = = Wheelchair basketball = = Pollock is a class 2.5 wheelchair basketball player and currently plays for the RGK TCAT Rhinos of Wolverhampton . He has been competing in wheelchair basketball for over twenty years . In his twenty-year career , he has represented Team GB a</t>
+          <t>Chemical Bank = Chemical Bank was a bank with headquarters in New York City from 1824 until 1996 . The bank operated as the primary subsidiary of the Chemical Banking Corporation , a bank holding company established in 1988 . At the end of 1995 , Chemical was the third largest bank in the U.S. with approximately $ 182.9 billion in assets . Beginning in 1920 but accelerating in the 1980s and 1990s , Chemical was a leading consolidator of the banking industry in the United States , acquiring Chase Manhattan Bank , Manufacturers Hanover , Texas Commerce Bank and Corn Exchange Bank among others . Following Chemical 's acquisition of Chase , the bank adopted the venerable Chase brand . What had been Chemical Bank is now a foundational component of what today is JPMorgan Chase . Chemical Bank was headquartered in New York City with more than 39,000 employees globally as of the end of 1995 . = = Overview of the company = = Chemical Bank was the principal operating subsidiary of the Chemical B</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Benin at the 2008 Summer Olympics = Benin took part in the 2008 Summer Olympics , which were held in Beijing , China from 8 to 24 August 2008 . The country 's participation at Beijing marked its eighth consecutive appearance in the summer Olympics since its debut in 1972 , and its ninth Olympic appearance ever . The Benin delegation included five athletes in 2008 , participating in three sports : athletics , swimming and taekwondo . Fabienne Feraez , a sprinter , was selected as the flag bearer for the opening ceremony . None of the Benin athletes progressed further than the heat round . = = Background = = Benin participated in eight summer Olympic games between its debut in the 1972 Summer Olympics in Munich and the 2008 Summer Olympics in Beijing . Competing under the name Dahomey , Benin made their Olympic debut in 1972 , sending two athletes to the games . The most number of Benin athletes participating in a summer games , is 16 in the 1980 games in Moscow . Five athletes from Beni</t>
+          <t xml:space="preserve">Gulfton , Houston = Gulfton is a community in Southwest Houston , Texas , United States that includes a 3.2 sq mi ( 8.3 km2 ) group of apartment complexes that primarily house Hispanic and immigrant populations . It is located between the 610 Loop and Beltway 8 , west of the City of Bellaire , southeast of Interstate 69 / U.S. Highway 59 , and north of Bellaire Boulevard . In the 1960s and 1970s Gulfton experienced rapid development , with new apartment complexes built for young individuals from the Northeast and Midwest United States . They came to work in the oil industry during the 1970s oil boom . In the 1980s , as the economy declined , existing tenants left , resulting in significant drop in occupancy rates in the apartment complexes and forcing many complexes into bankruptcy and foreclosure . Owners marketed the empty units to newly arrived immigrants and Gulfton became a predominantly immigrant community . Beginning in the 1980s Gulfton 's crime rate increased and schools were </t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Suriname at the 2008 Summer Olympics = Suriname sent a delegation of four people to compete at the 2008 Summer Olympics in Beijing , China : two athletes ( Jurgen Themen and Kirsten Nieuwendam and two swimmers ( Gordon Touw Ngie Tjouw and Chinyere Pigot ) who participated in four distinct events . The appearance of Suriname at Beijing marked its tenth Olympic appearance , which included every Olympic games since the 1968 Summer Olympics in Mexico City and excluded the 1980 Summer Olympics in Moscow . Its four athletes did not advance past the first round in each of their events . The Surinamese flag bearer in Beijing was not an athlete , but Anthony Nesty , the only medalist in Surinamese history ( as of the Beijing Olympics ) and the nation 's Olympic swimming coach . = = Background = = Up to and including its participation in the Beijing Games , Surinamese athletes participated in ten Olympic games , all of which were summer Games . The first case of a Surinamese athlete 's participa</t>
+          <t>Bridgewater Associates = Bridgewater Associates is an American investment management firm founded by Ray Dalio in 1975 . The firm serves institutional clients including pension funds , endowments , foundations , foreign governments and central banks . It utilizes a global macro investing style based on economic trends , such as inflation , currency exchange rates , and U.S. gross domestic product . Bridgewater Associates began as an institutional investment advisory service , graduated to institutional investing and pioneered the risk parity investment approach in 1996 . In 1981 the company moved its headquarters from New York City to Westport , Connecticut and currently engages 1,200 employees . It embraces a corporate culture that encourages transparency and the elimination of the decision making hierarchy , and in 2011 was the " world 's largest macro hedge fund " company with US $ 122 billion in assets under management . = = History = = The firm 's history includes the pioneering o</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>São Tomé and Príncipe at the 2012 Summer Olympics = The African island nation of São Tomé and Príncipe competed at the 2012 Summer Olympic Games in London , United Kingdom from 27 July to 12 August 2012 . This was the nation 's fifth appearance at the Olympics since its debut in 1996 . Two track and field athletes , Christopher Lima da Costa and Lecabela Quaresma were selected to the team by wildcard places , without having qualified at any sporting event . Quaresma was selected as flag bearer for the opening and closing ceremonies . Neither of the two athletes progressed beyond the first round of their respective events . = = Background = = São Tomé and Príncipe participated in five Summer Olympic games between its debut in the 1996 Summer Olympics in Atlanta and the 2012 Summer Olympics in London . The highest number of São Tomé and Príncipe athletes participating in a summer games is three in the 2008 games in Beijing , China . No São Tomé and Príncipe athlete has ever won a medal a</t>
+          <t>Design management = Design management is a business discipline that uses project management , design , strategy , and supply chain techniques to control a creative process , support a culture of creativity , and build a structure and organization for design . The objective of design management is to develop and maintain a business environment in which an organization can achieve its strategic and mission goals through design , and by establishing and managing an efficient and effective system . Design management is a comprehensive activity at all levels of business ( operational to strategic ) , from the discovery phase to the execution phase . " Simply put , design management is the business side of design . Design management encompasses the ongoing processes , business decisions , and strategies that enable innovation and create effectively-designed products , services , communications , environments , and brands that enhance our quality of life and provide organizational success . "</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1001,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>['match', 'tag', 'wrestling', 'championship', 'wwe', 'ring', 'raw', 'event', 'michaels', 'defeated', 'heavyweight', 'smackdown', 'feud', 'wwf', 'angle']</t>
+          <t>['film', 'role', 'appeared', 'award', 'acting', 'director', 'roles', 'success', 'actor', 'performance', 'directed', 'comedy', 'drama', 'actors', 'films']</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Backlash ( 2007 ) = Backlash ( 2007 ) was a professional wrestling pay-per-view event produced by World Wrestling Entertainment ( WWE ) , which took place on April 29 , 2007 , at the Philips Arena in Atlanta , Georgia . Following WrestleMania , all pay-per-views became tri-branded . It was the ninth annual event under the Backlash name and starred talent from Raw , SmackDown ! , and ECW . The main match on the Raw brand was a Fatal Four-Way match for the WWE Championship involving champion John Cena , Randy Orton , Edge , and Shawn Michaels . Cena won the match and retained the championship after pinning Orton . The primary match on the SmackDown ! brand was a Last Man Standing match for the World Heavyweight Championship between The Undertaker and Batista , which ended in a no-contest after both men failed get to their feet before the referee counted to ten . The featured match on the ECW brand was Bobby Lashley versus Team McMahon ( Umaga , Vince and Shane McMahon ) in a Handicap mat</t>
+          <t>Manoj Bajpayee = Manoj Bajpayee ( born 23 April 1969 ) , also credited as Manoj Bajpai , is an Indian film actor who predominantly works in Hindi cinema and has also done some Telugu and Tamil language films . He is the recipient of two National Film Awards and two Filmfare Awards . Born in Belwa , a small village in Narkatiaganj , Bihar , Bajpayee aspired to become an actor since childhood . He relocated to Delhi at the age of seventeen , and applied for National School of Drama , only to be rejected for three times . He continued to do theatre while studying in the college . Bajpayee made his feature film debut with the one-minute role in Drohkaal ( 1994 ) , and a minor role of a dacoit in Shekhar Kapur 's Bandit Queen ( 1994 ) . After few unnoticed roles , he played gangster Bhiku Mhatre in Ram Gopal Varma 's 1998 crime drama Satya , which proved to be a breakthrough . Bajpayee received the National Film Award for Best Supporting Actor and Filmfare Critics Award for Best Actor for t</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Survivor Series ( 2007 ) = Survivor Series ( 2007 ) was a professional wrestling pay-per-view ( PPV ) event produced by World Wrestling Entertainment ( WWE ) , which took place on November 18 , 2007 , at the American Airlines Arena in Miami , Florida . It was presented by THQ 's WWE SmackDown vs. Raw 2008 . It was the 21st annual Survivor Series and starred wrestlers from the Raw , SmackDown ! , and ECW brands . The show 's seven matches showcased prominent WWE wrestlers , who acted out the franchise 's stories in and out of the ring . The main event featured SmackDown wrestlers in a Hell in a Cell match , in which the ring was surrounded by a roofed steel structure . In this match , World Heavyweight Champion Batista defeated The Undertaker to retain his title . In Raw 's main match , Randy Orton defeated Shawn Michaels in a singles match , while in ECW 's prime match , ECW Champion CM Punk defeated John Morrison and The Miz in a Triple Threat match to retain the title . Two matches w</t>
+          <t>Shriya Saran = Shriya Saran ( pronounced [ ʂrɪjaː sərən ] ( born as Shriya Saran Bhatnagar on 11 September 1982 ) , also known by the mononym Shriya , is an Indian film actress and model . She has acted in Telugu , Tamil , and Hindi language films , as well as a few films in English , Malayalam and Kannada . Saran was born in Dehradun and spent most of her childhood in Haridwar . In 2001 , her dance master gave her the opportunity to appear in Renoo Nathan 's debut music video " Thirakti Kyun Hawa " , which brought Saran to the attention of many Indian filmmakers . Although Saran aspired to become a well-known dancer , she was rather offered a leading role . Thus , Saran made her film debut in 2001 with the Telugu film Ishtam , and had her first commercial success with Santhosham ( 2002 ) . She subsequently appeared in several more Telugu films , while making in-roads in the Hindi and Tamil film industries . In 2007 , Saran starred in Sivaji , the highest-grossing Tamil film at that ti</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve">World Heavyweight Championship ( WWE ) = The World Heavyweight Championship was a professional wrestling world heavyweight championship owned by WWE . It was one of two top championships in WWE , complementing the WWE World Championship . It was established under the Raw brand in 2002 , after Raw and SmackDown ! became distinct brands under WWE , and moved between both brands on different occasions ( mainly as a result of the WWE draft ) until August 29 , 2011 when all programming became full roster " supershows " . The World Heavyweight Championship was retired at the WWE PPV TLC : Tables , Ladders , and Chairs on December 15 , 2013 when it was unified with the WWE Championship . The title was one of six to be represented by the historic Big Gold Belt , first introduced in 1986 . Its heritage can be traced back to the first world heavyweight championship , thereby giving the belt a legacy over 100 years old , the oldest in the world . = = History = = = = = Origin = = = WWE introduced </t>
+          <t>Emma Thompson = Emma Thompson ( born 15 April 1959 ) is a British actress , a comedian , and a writer . Thompson is known for her portrayals of reticent women and playing haughty or matronly characters with a sense of irony , often in period dramas and literary adaptations . She is considered one of Britain 's most accomplished actresses . Born in London to English actor , Eric Thompson , and Scottish actress , Phyllida Law , Thompson was educated at Newnham College , University of Cambridge , where she became a member of the Footlights troupe . After appearing in several comedy programmes , she first came to prominence in 1987 , in two BBC TV series , Tutti Frutti and Fortunes of War , winning the BAFTA TV Award for Best Actress for her work in both series . Thompson 's first film role came in the 1989 romantic comedy , The Tall Guy , and in the early 1990s she frequently collaborated with her then husband , actor , and director , Kenneth Branagh . The pair became popular in the Briti</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Survivor Series ( 2004 ) = Survivor Series ( 2004 ) was the 18th annual Survivor Series professional wrestling pay-per-view event produced by World Wrestling Entertainment ( WWE ) . It was presented by Microsoft 's Xbox and took place on November 14 , 2004 , at the Gund Arena in Cleveland , Ohio and starred talent from both the Raw and SmackDown ! brands . The main match on the Raw brand was a 4 on 4 Survivor Series match , a type of elimination match , between Team Orton ( Randy Orton , Chris Benoit , Chris Jericho , and Maven ) and Team Triple H ( Triple H , Edge , Batista , and Snitsky ) , which Team Orton won after Orton last eliminated Triple H. The predominant match on the SmackDown ! brand was John " Bradshaw " Layfield ( JBL ) versus Booker T for the WWE Championship , which JBL won by pinfall after hitting Booker with the title belt . The primary match on the undercard was a 4 on 4 Survivor Series match between Team Guerrero ( Eddie Guerrero , The Big Show , Rob Van Dam , and </t>
+          <t>Rachel Weisz = Rachel Hannah Weisz ( / ˈvaɪs / VYSS ; born 7 March 1970 ) is an English film and theatre actress as well as a former fashion model who holds both British and American citizenship . Weisz began her acting career at Trinity Hall , Cambridge in the early 1990s , then started working in television , appearing in the detective drama Inspector Morse , the British mini-series Scarlet and Black and the television film Advocates II . She made her film debut in the science fiction movie Death Machine ( 1994 ) . Her first Hollywood appearance came in the action film Chain Reaction ( 1996 ) , opposite Keanu Reeves and Morgan Freeman . Next , she appeared as Evelyn Carnahan-O 'Connell in the adventure films The Mummy ( 1999 ) and The Mummy Returns ( 2001 ) . Other notable films featuring Weisz are the war film Enemy at the Gates ( 2001 ) , opposite Jude Law ; the comedy-drama About a Boy ( 2002 ) , opposite Hugh Grant ; the supernatural action-thriller Constantine ( 2005 ) , pairing</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Royal Rumble ( 2005 ) = Royal Rumble ( 2005 ) was the eighteenth annual Royal Rumble professional wrestling pay-per-view event produced by World Wrestling Entertainment ( WWE ) . It was presented by PlayStation 2 and took place on January 30 , 2005 , at the Save Mart Center in Fresno , California and featured talent from both the Raw and SmackDown ! brands . As has been customary since 1993 , the Royal Rumble match winner received a match at that year 's WrestleMania , ( in this instance : WrestleMania 21 ) for his choice at either the WWE Championship or the World Heavyweight Championship . Five professional wrestling matches were featured on the event 's supercard , a scheduling of more than one main event . The main event was the annual 30-man Royal Rumble match , which featured wrestlers from both brands . Batista , the twenty-eighth entrant , won the match by last eliminating John Cena , the twenty-fifth entrant . The primary match on the Raw brand was Triple H versus Randy Orton </t>
+          <t>Mani Ratnam = Gopala Ratnam Subramaniam ( born 2 June 1955 ) , commonly known by his screen name Mani Ratnam , is an Indian film director , screenwriter , and producer who predominantly works in Tamil cinema . Cited by the media as one of India 's most acclaimed and influential filmmakers , Mani Ratnam is widely credited with revolutionising the Tamil film industry and altering the profile of Indian cinema . Although working in the mainstream medium , his films are noted for their realism , technical finesse , and craft . The Government of India honoured him with the Padma Shri , acknowledging his contributions to film in 2002 . Despite being born into a film family , Mani Ratnam did not develop any interest towards films when he was young . Upon completion of his post graduation in management , he started his career as a consultant . He entered the film industry through the 1983 Kannada film Pallavi Anu Pallavi . The failure of his subsequent films would mean that he was left with lit</t>
         </is>
       </c>
     </row>
@@ -1036,32 +1036,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>['watershed', 'creek', 'dam', 'island', 'population', 'city', 'area', 'river', 'volcano', 'volcanic', 'flows', 'lighthouse', 'lava', 'bay', 'water']</t>
+          <t>['cambridge', 'oxford', 'boat', 'competition', 'silver', 'summer', 'competed', 'referred', 'medal', 'seconds', 'olympics', 'compete', 'athletes', 'champions', 'heat']</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Little Catawissa Creek = Little Catawissa Creek is a tributary of Catawissa Creek in Columbia County and Schuylkill County , in Pennsylvania , in the United States . It is approximately 10.8 miles ( 17.4 km ) long and flows through Conyngham Township in Columbia County and Union Township and North Union Township in Schuylkill County . The named tributaries of the creek include Stony Run and Trexler Run . The creek has some alkalinity and is slightly acidic . The main rock formations in the watershed of it are the Mauch Chunk Formation , the Pocono Formation , and the Pottsville Formation . A number of other rock formations occur in small areas of the watershed as well . The main soils in the watershed are the Leck Kill soil and the Hazleton soil . The watershed of Little Catawissa Creek has an area of 16.70 square miles ( 43.3 km2 ) . A number of bridges cross the creek . There are a number of major roads in the watershed of the creek and most of the creek is within several hundred met</t>
+          <t>The Boat Race 1904 = The 61st Boat Race took place on 26 March 1904 . Held annually , the Boat Race is a side-by-side rowing race between crews from the Universities of Oxford and Cambridge along the River Thames . Neither boat club president was able to row through injury . In a race umpired by former rower Frederick I. Pitman , Cambridge won by four-and-a-half lengths in a time of 21 minutes 37 seconds . Their third victory in a row , it took the overall record in the event to 33 – 27 in Oxford 's favour . = = Background = = The Boat Race is a side-by-side rowing competition between the University of Oxford ( sometimes referred to as the " Dark Blues " ) and the University of Cambridge ( sometimes referred to as the " Light Blues " ) . The race was first held in 1829 , and since 1845 has taken place on the 4.2-mile ( 6.8 km ) Championship Course on the River Thames in southwest London . The rivalry is a major point of honour between the two universities ; it is followed throughout th</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Muncy Creek = Muncy Creek ( also known as Big Muncy Creek ) is a tributary of the West Branch Susquehanna River in Sullivan County and Lycoming County , in Pennsylvania , in the United States . It is approximately 34.5 miles ( 55.5 km ) long . The watershed of the creek has an area of 216 square miles ( 560 km2 ) . The creek 's discharge averages 49 cubic feet per second ( 1.4 m3 / s ) at Sonestown , but can be up to a thousand times higher at Muncy . The headwaters of the creek are on the Allegheny Plateau . Rock formations in the watershed include the Chemung Formation and the Catskill Formation . There are a number of lakes in the watershed of Muncy Creek , including Eagles Mere Lake , Highland Lake , and Beaver Lake . The creek was known as Occohpocheny to Native Americans . The area in its vicinity was settled in 1783 . Various other industries and mills were constructed in the creek 's vicinity from the late 18th century to the early 20th century . Wild trout naturally reproduce </t>
+          <t>The Boat Race 2005 = The 151st Boat Race took place on 27 March 2005 . Oxford won the race by two lengths in a time of 16 minutes 41 seconds . The race , umpired by the six-time Boat Race winner Boris Rankov , featured seven Olympic rowers . It was the first time the event was broadcast in the United Kingdom on ITV . In the reserve race Goldie beat Isis and Cambridge won the Women 's race . = = Background = = The Boat Race is an annual rowing eight competition between the University of Oxford and the University of Cambridge . First held in 1829 , the competition is a 4.2-mile ( 6.8 km ) race along The Championship Course on the River Thames in southwest London . The rivalry is a major point of honour between the two universities and followed throughout the United Kingdom and worldwide . Cambridge went into the race as reigning champions , having won the 2004 race by six lengths , and led overall with 78 victories to Oxford 's 71 ( excluding the " dead heat " of 1877 ) . The race was sp</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lake Neepaulin = Lake Neepaulin is a small man-made freshwater lake located in Wantage Township in Sussex County , New Jersey in the United States . Located in the watershed of Papakating Creek , a tributary of the Wallkill River , the lake was created in the 1950s by damming an unnamed mountain stream as the feature of a private residential development . The stream , now known as Neepaulakating Creek , did not receive a name until 2002 . = = Description = = Lake Neepaulin is a man-made lake created from the damming of Neepaulakating Creek , a small mountain stream that was not named until 2002 . The creek 's headwaters are located approximately 0.4 miles ( 0.6 km ) northwest of the north end of Lake Neepaulin . These headwaters are located a short distance south of County Route 650 ( Libertyville Road ) roughly halfway between the hamlet of Libertville in Wantage Township and Sussex Borough . Lake Neepaulin 's elevation is 509 feet ( 155m ) above sea level . The lake is the center of </t>
+          <t>The Boat Race 1994 = The 140th Boat Race took place on 26 March 1994 . Held annually , the Boat Race is a side-by-side rowing race between crews from the Universities of Oxford and Cambridge along the River Thames . Cambridge won by six-and-a-half lengths . The race saw the first competitors from Norway in the history of the race , in brothers Snorre and Sverke Lorgen . It was also the first time that both competing coxes had previously won the event . In the reserve race , Cambridge 's Goldie defeated Oxford 's Isis , while Cambridge won the Women 's Boat Race . = = Background = = The Boat Race is a side-by-side rowing competition between the University of Oxford ( sometimes referred to as the " Dark Blues " ) and the University of Cambridge ( sometimes referred to as the " Light Blues " ) . First held in 1829 , the race takes place on the 4.2-mile ( 6.8 km ) Championship Course on the River Thames in southwest London . The rivalry is a major point of honour between the two universiti</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve">West Branch Fishing Creek = West Branch Fishing Creek is one of the northernmost major tributaries of Fishing Creek in Sullivan County , Pennsylvania and Columbia County , Pennsylvania , in the United States . It is 11.1 miles ( 17.9 km ) long and flows through Davidson Township , Sullivan County and Sugarloaf Township , Columbia County . The creek 's watershed has an area of 33.5 square miles , nearly all of which is forested land . Rock formations in the watershed of West Branch Fishing Creek include the Catskill Formation , the Huntley Mountain Formation , and the Burgoon Sandstone . North Mountain , Huckleberry Mountain , and Central Mountain are all in the creek 's vicinity . The temperature of the creek 's waters ranges from − 2 ° C ( 28 ° F ) to 23 ° C ( 73 ° F ) and its pH ranges from approximately 5.5 to just under 7.0 . The creek 's discharge ranges from nearly 0 cubic meters per second to approximately 25 cubic meters per second . Communities in the watershed of West Branch </t>
+          <t>The Boat Race 1962 = The 108th Boat Race took place on 7 April 1962 . Held annually , the Boat Race is a side-by-side rowing race between crews from the Universities of Oxford and Cambridge along the River Thames . Umpired by former Blue , Ran Laurie , it was won by Cambridge by five lengths in a time of 19 minutes 46 seconds . The race featured the heaviest oarsman since the 1829 race . = = Background = = The Boat Race is a side-by-side rowing competition between the University of Oxford ( sometimes referred to as the " Dark Blues " ) and the University of Cambridge ( sometimes referred to as the " Light Blues " ) . First held in 1829 , the race takes place on the 4.2-mile ( 6.8 km ) Championship Course on the River Thames in southwest London . The rivalry is a major point of honour between the two universities ; it is followed throughout the United Kingdom and , as of 2014 , broadcast worldwide . Cambridge went into the race as reigning champions , having won the 1961 race by four-an</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Mahanoy Creek = Mahanoy Creek is a 51.6-mile-long ( 83.0 km ) tributary of the Susquehanna River in Northumberland and Schuylkill counties , Pennsylvania . There are at least 35 sources of acid mine drainage in the creek 's watershed . Anthracite was mined in the upper part of the Mahanoy Creek watershed in the 19th and 20th centuries . Mahanoy Creek 's tributaries include Schwaben Creek , Zerbe Run , Little Mahanoy Creek , Shenandoah Creek , and North Mahanoy Creek . Little Mahanoy Creek and Schwaben Creek are two streams in the watershed that are unaffected by acid mine drainage . Schwaben Creek has a higher number and diversity of fish species than the main stem . There are two passive treatment systems in the Mahanoy Creek watershed by the Mahanoy Creek Watershed Association . Coal mining has been done in the watershed since the 19th century and continues to some extent in the 21st century . The watershed is in the Western Middle Anthracite Coal Field . = = Course = = Mahanoy Creek</t>
+          <t xml:space="preserve">Vanuatu at the 2008 Summer Olympics = Vanuatu competed at the 2008 Summer Olympics in Beijing , China . A total of three Vanuatuan athletes competed in two sports . Moses Kamut and Elis Lapenmal competed in , respectively , the men 's and women 's 100m sprints , and Priscilla Tommy competed in women 's singles table tennis after being selected by the IOC 's Tripartite Commission . Tommy 's appearance in particular was Vanuatu 's debut into table tennis . Tommy was also the country 's flagbearer during the opening ceremony . The Vanuatuan delegation to Beijing included the country 's head of state and prime minister , but only included Elis Lapenmal ; the other two athletes did not accompany the delegation and arrived in China at different times . None of the three Vanuatuan Olympians progressed past the first round in their events , and thus did not earn any medals . = = Background = = Vanuatu has participated in the Olympics since the 1988 Summer Olympics in Seoul , South Korea ; its </t>
         </is>
       </c>
     </row>
@@ -1071,32 +1071,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['liz', 'dwight', 'jim', 'pam', 'michael', 'episode', 'nbc', 'jack', 'fey', 'jenna', 'andy', 'office', 'tracy', 'kenneth', 'tgs']</t>
+          <t>['album', 'music', 'songs', 'rock', 'recorded', 'recording', 'band', 'beatles', 'lyrics', 'musicians', 'george_harrison', 'sound', 'harrison', 'song', 'bands']</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Tracy Does Conan = " Tracy Does Conan " is the seventh episode of NBC 's first season of 30 Rock . It was written by the series ' creator and executive producer , Tina Fey and it was directed by one of the season 's supervising producers , Adam Bernstein . It first aired on December 7 , 2006 in the United States and November 29 , 2007 in the United Kingdom . Guest stars in the episode included Katrina Bowden , Kevin Brown , Grizz Chapman , Rachel Dratch , Dave Finkel , Steve Hollander , Johnnie May , Maulik Pancholy , Chris Parnell , Aubrey Plaza , Keith Powell , R. N. Rao and Dean Winters . Conan O 'Brien appeared as himself in this episode . The episode marks the first appearance of Chris Parnell as recurring character , Dr. Leo Spaceman . This episode revolves around Liz Lemon ( played by Tina Fey ) and Pete Hornberger ( Scott Adsit ) trying to get Tracy Jordan ( Tracy Morgan ) to make a successful appearance on Late Night with Conan O 'Brien , a late night talk show . These attempt</t>
+          <t>My Sweet Lord = " My Sweet Lord " is a song by English musician and former Beatle George Harrison that was released in November 1970 on his triple album All Things Must Pass . Also issued as a single , Harrison 's first as a solo artist , " My Sweet Lord " topped charts worldwide and was the biggest-selling single of 1971 in the UK . In America and Britain , the song was the first number 1 single by an ex-Beatle . Harrison originally gave the song to his fellow Apple Records artist Billy Preston to record ; this version , which Harrison co-produced , appeared on Preston 's Encouraging Words album in September 1970 . Harrison wrote " My Sweet Lord " in praise of the Hindu god Krishna , while at the same time intending the lyrics to serve as a call to abandon religious sectarianism through his deliberate blending of the Hebrew word hallelujah with chants of " Hare Krishna " and Vedic prayer . The recording features producer Phil Spector 's Wall of Sound treatment and heralded the arrival</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Pilot ( 30 Rock ) = The pilot episode of the American situation comedy series 30 Rock premiered on October 10 , 2006 on the CTV Television Network in Canada , and October 11 , 2006 on NBC in the United States . The episode was directed by Adam Bernstein and written by Tina Fey , the series ' creator , executive producer , and lead actor . In 2002 , Tina Fey , then head writer of Saturday Night Live ( SNL ) , pitched the idea for a series about a cable news network to NBC , who rejected it . Two years later , Fey approached NBC with a similar idea : a behind-the-scenes look at The Girlie Show , a television show similar to SNL . NBC approved the series in May 2006 and production began shortly after . Although the episode received generally positive reviews , it finished third in its timeslot among all viewers and among adults aged 18 to 49 . Critics praised the performances of Jack McBrayer and Jane Krakowski , who played Kenneth Parcell and Jenna Maroney , respectively . Several charac</t>
+          <t>All Things Must Pass = All Things Must Pass is a triple album by English musician George Harrison . Recorded and released in 1970 , the album was Harrison 's first solo work since the break-up of the Beatles in April that year , and his third solo album overall . It includes the hit singles " My Sweet Lord " and " What Is Life " , as well as songs such as " Isn 't It a Pity " and the title track that were turned down by the Beatles . The album reflects the influence of his musical activities with artists such as Bob Dylan , the Band , Delaney &amp; Bonnie and Billy Preston during 1968 – 70 , as well as Harrison 's growth as an artist beyond his supporting role to former bandmates John Lennon and Paul McCartney . All Things Must Pass introduced Harrison 's signature sound , the slide guitar , and the spiritual themes that would be present throughout his subsequent solo work . The original vinyl release consisted of two LPs of songs and a third disc of informal jams , titled Apple Jam . Comm</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>The Convention ( The Office ) = " The Convention " is the second episode of the third season of the American comedy television series The Office , and the show 's thirtieth episode overall . Written by the writing team of Gene Stupnitsky and Lee Eisenberg , and directed by Ken Whittingham , the episode originally aired in the United States on September 28 , 2006 on NBC . In the episode , Josh and Jim from Dunder Mifflin Stamford , as well as Michael and Dwight from Dunder Mifflin Scranton leave for Philadelphia for the annual office supply convention . Michael , angry at both Jim for leaving the Scranton branch , as well as Josh for being superior to him , tries to one-up both Jim and Josh at every opportunity . Meanwhile , Kelly sets up Pam on a double date with one of her friends which goes nowhere . Toby 's interest in Pam is piqued , beginning an unrequited crush on his part . = = Plot = = Michael Scott ( Steve Carell ) and Dwight Schrute ( Rainn Wilson ) from the Scranton branch o</t>
+          <t>All Things Must Pass ( song ) = " All Things Must Pass " is a song by English musician George Harrison , issued in November 1970 as the title track to his triple album of the same name . Billy Preston released the song originally – as " All Things ( Must ) Pass " – on his Apple Records album Encouraging Words ( 1970 ) , after the Beatles had rejected it for inclusion on their Let It Be album in January 1969 . The composition reflects the influence of the Band 's sound and communal music-making on Harrison , after he had spent time with the group in Woodstock , New York , in late 1968 , while Timothy Leary 's poem " All Things Pass " , a psychedelic adaptation of the Tao Te Ching , provided inspiration for his song lyrics . The subject matter deals with the transient nature of human existence , and in Harrison 's All Things Must Pass reading , words and music combine to reflect impressions of optimism against fatalism . On release , together with Barry Feinstein 's album cover image , c</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>The Coup ( The Office ) = " The Coup " is the third episode of the third season of the American comedy television series The Office . It first aired on October 5 , 2006 on NBC in the United States . The series depicts the everyday lives of office employees in the Scranton , Pennsylvania branch of the fictional Dunder Mifflin Paper Company . In this episode , Jan Levenson ( Melora Hardin ) becomes unimpressed with how Michael Scott ( Steve Carell ) is controlling his branch , so Dwight Schrute ( Rainn Wilson ) tries to take his job and an office power play ensues . Meanwhile , Pam Beesly ( Jenna Fischer ) conducts a lunchtime fashion show , and the Stamford branch plays Call of Duty as a team-building exercise , something Jim Halpert ( John Krasinski ) does not do well in . The episode was written by co-executive producer Paul Lieberstein and directed by executive producer Greg Daniels . Several cast members noted that the episode contained Shakespearean elements , such as Angela Martin</t>
+          <t xml:space="preserve">Progressive rock = Progressive rock ( first known as progressive pop , later prog rock , prog , and sometimes art rock ) is a rock music subgenre that originated in the United Kingdom and United States throughout the mid-to-late 1960s . It developed from psychedelic rock , and began as an attempt to give greater artistic weight and credibility to rock music . Songs were replaced by musical suites that often stretched to 20 or 40 minutes in length and contained symphonic influences , extended musical themes , fantasy-like ambience and lyrics , and complex orchestrations . The style was an outgrowth of retrospectively termed " proto-prog " bands who abandoned the short pop single in favor of instrumentation and compositional techniques more frequently associated with jazz or classical music as part of an effort to give rock music the same level of musical sophistication and critical respect . It saw a high level of popularity throughout the 1970s , especially in the middle of the decade </t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Sandwich Day = " Sandwich Day " is the fourteenth episode of the second season of 30 Rock and the thirty-fifth episode overall . It was written by one of the season 's executive producers , Robert Carlock , and one of the season 's co-executive producers , Jack Burditt . The episode was directed by one of the season 's producers , Don Scardino . The episode first aired on May 1 , 2008 on the NBC network in the United States . Guest stars in this episode included Bill Cwikowski , Brian Dennehy , Marceline Hugot , Johnnie May , Jason Sudeikis , Miriam Tolan and Rip Torn . The episode earned Tina Fey the Primetime Emmy Award for Outstanding Lead Actress in a Comedy Series . Unusually this episode begins on the 30 Rock title sequence - there is no cold open as is normally the case . This episode begins on the annual TGS with Tracy Jordan ( a fictional sketch comedy series ) Sandwich Day . Liz Lemon ( Tina Fey ) receives a phone call from her ex-boyfriend , Floyd ( Jason Sudeikis ) , asking</t>
+          <t>Living in the Material World = Living in the Material World is the fourth studio album by English musician George Harrison , released in 1973 on Apple Records . As the follow-up to 1970 's critically acclaimed All Things Must Pass and his pioneering charity project , the Concert for Bangladesh , it was among the most highly anticipated releases of that year . The album was certified gold by the Recording Industry Association of America two days after release , on its way to becoming Harrison 's second number 1 album in the United States , and produced the international hit " Give Me Love ( Give Me Peace on Earth ) " . It also topped albums charts in Canada and Australia , and reached number 2 in Britain . Living in the Material World is notable for the uncompromising lyrical content of its songs , reflecting Harrison 's struggle for spiritual enlightenment against his status as a superstar , as well as for what many commentators consider to be the finest guitar and vocal performances o</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1106,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['oxford', 'cambridge', 'race', 'boat', 'blues', 'rowed', 'rowing', 'lengths', 'crews', 'rower', 'thames', 'races', 'crew', 'universities', 'university_of_cambridge']</t>
+          <t>['song', 'video', 'number', 'like', 'performance', 'tour', 'music', 'madonna', 'performed', 'best', 'songs', 'stage', 'beyoncé', 'week', 'gaga']</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>The Boat Race 1873 = The 30th Boat Race took place on the 29 March 1873 . The Boat Race is an annual side-by-side rowing race between crews from the Universities of Oxford and Cambridge along the River Thames . In a race umpired by former Oxford rower Joseph William Chitty , Cambridge won by three lengths in a time of 19 minutes and 35 seconds , the fastest time in the history of the event . It was the first time that rowers raced on sliding seats . = = Background = = The Boat Race is a side-by-side rowing competition between the University of Oxford ( sometimes referred to as the " Dark Blues " ) and the University of Cambridge ( sometimes referred to as the " Light Blues " ) . The race was first held in 1829 , and since 1845 has taken place on the 4.2-mile ( 6.8 km ) Championship Course on the River Thames in southwest London . Cambridge went into the race as reigning champions , having defeated Oxford by two lengths in the previous year 's race , while Oxford led overall with sixtee</t>
+          <t xml:space="preserve">The Monster Ball Tour = The Monster Ball Tour was the second worldwide concert tour by American singer Lady Gaga . Staged in support of her extended play The Fame Monster ( 2009 ) and comprising a set list of songs from that and her debut album The Fame ( 2008 ) , the tour visited arenas and stadiums from 2009 through 2011 . Described as " the first-ever pop electro opera " by Gaga , the tour was announced in October 2009 after an intended joint concert tour with hip-hop artist Kanye West was suddenly canceled . The Monster Ball Tour commenced four days after the release of The Fame Monster in November 2009 . A revision of the tour occurred after only a few months of performances , due to Gaga 's concern that the original version was constructed within a very short span of time . The stage of the original show looked like a frame , comparable to that of a hollowed-out television set . Since The Fame Monster dealt with the paranoias Gaga had faced , the main theme of the original shows </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Boat Race 1874 = The 31st Boat Race took place on the 28 March 1874 . The Boat Race is an annual side-by-side rowing race between crews from the Universities of Oxford and Cambridge along the River Thames . In a race umpired by former Oxford rower Joseph William Chitty , Cambridge won by three and a half lengths in their fifth consecutive victory . = = Background = = The Boat Race is a side-by-side rowing competition between the University of Oxford ( sometimes referred to as the " Dark Blues " ) and the University of Cambridge ( sometimes referred to as the " Light Blues " ) . The race was first held in 1829 , and since 1845 has taken place on the 4.2-mile ( 6.8 km ) Championship Course on the River Thames in southwest London . Cambridge went into the race as reigning champions , having defeated Oxford by three lengths in the previous year 's race , while Oxford led overall with sixteen wins to Cambridge 's fourteen . Cambridge were coached by John Graham Chambers ( who rowed for </t>
+          <t>Tabitha and Napoleon D 'umo = Tabitha A. D 'umo ( née Cortopassi ; born September 11 , 1973 ) and Napoleon Buddy D 'umo ( born October 17 , 1968 ) , known together as Nappytabs , are Emmy Award-winning married choreographers who are often credited with developing lyrical hip-hop . They are best known for their choreography on the television show So You Think You Can Dance and for being supervising choreographers and executive producers of America 's Best Dance Crew . Since being with the former , their choreography has received both praise and criticism . They own Nappytabs urban dancewear and have been working in the dance industry since 1996 . Tabitha and Napoleon grew up on opposite coasts of the United States and met in the early 1990s as students at the University of Nevada , Las Vegas . They began their dance career together while still in college by choreographing industrial musicals for large corporations with the hip-hop dance company Culture Shock . After moving to Los Angele</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Boat Race 1852 = The 11th Boat Race took place on the River Thames on 3 April 1852 . Typically held annually , the event is a side-by-side rowing race between crews from the Universities of Oxford and Cambridge . Former Cambridge cox Thomas Selby Egan coached Oxford , the first time that either crew had been trained by a member of the opposing university . The race was won by Oxford , their first Boat Race victory at Easter , who triumphed over Cambridge by nine lengths . = = Background = = The Boat Race is a side-by-side rowing competition between the University of Oxford ( sometimes referred to as the " Dark Blues " ) and the University of Cambridge ( sometimes referred to as the " Light Blues " ) . The race was first held in 1829 , and since 1845 has taken place on the 4.2-mile ( 6.8 km ) Championship Course on the River Thames in southwest London . Oxford went into the race as reigning champions , having defeated Cambridge , who were disqualified , in the previous race held in </t>
+          <t>Run the World ( Girls ) = " Run the World ( Girls ) " is a song recorded by American recording artist Beyoncé , from her fourth studio album 4 ( 2011 ) , released as the lead single from the album on April 21 , 2011 . It was written by Terius " The-Dream " Nash , Beyoncé , Nick " Afrojack " van de Wall , Wesley " Diplo " Pentz , David " Switch " Taylor , and Adidja Palmer . Production was handled by Switch , The-Dream , Beyoncé , and Shea Taylor . The song 's development was motivated by the fact that Beyoncé wanted something different : a mixture of different cultures and eras , a new sound , and a message which would give women strength . An unedited demo of the song , then thought to be titled " Girls ( Who Run the World ) " , was leaked on the internet on April 18 , 2011 . " Run the World " premiered on US radio on April 21 , 2011 , and was digitally released the same day . " Run the World " is a electropop and R &amp; B song that heavily samples " Pon de Floor " by Major Lazer . The s</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>The Boat Race 1896 = The 53rd Boat Race took place on 28 March 1896 . The Boat Race is an annual side-by-side rowing race between crews from the Universities of Oxford and Cambridge along the River Thames . In a race umpired by former rower Frank Willan , Oxford won by two-fifths of a length in a time of 20 minutes 1 second , taking the overall record in the event to 30 – 22 in their favour . It was their seventh consecutive victory and the narrowest winning margin since 1877 . = = Background = = The Boat Race is a side-by-side rowing competition between the boat clubs of University of Oxford ( sometimes referred to as the " Dark Blues " ) and the University of Cambridge ( sometimes referred to as the " Light Blues " ) . The race was first held in 1829 , and since 1845 has taken place on the 4.2-mile ( 6.8 km ) Championship Course on the River Thames in southwest London . The rivalry is a major point of honour between the two universities , as of 2014 it is followed throughout the Unit</t>
+          <t xml:space="preserve">ArtRave : The Artpop Ball = ArtRave : The Artpop Ball ( stylized as artRAVE : The ARTPOP Ball ) was the fourth headlining concert tour by American singer Lady Gaga . Supporting her third studio album Artpop ( 2013 ) , the tour ran from May 4 , 2014 to November 24 , 2014 . The tour dates included cities where Gaga had canceled shows of her previous Born This Way Ball tour after suffering a hip injury . The ArtRave tour was preceded by a performance at the South by Southwest music festival , which drew controversy due to a segment where an artist vomited on Gaga , and a seven-day residency at the Roseland Ballroom in Manhattan , New York . ArtRave 's concept and name are derived from the similarly named release party for Artpop . The stage resembled a cave and consisted of two sections connected by catwalks made of translucent lucite , allowing the audience to move underneath the catwalks while still being able to watch the show . Gaga 's costumes in the show included one with tentacles </t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Boat Race 1879 = The 36th Boat Race took place on 5 April 1879 . The Boat Race is an annual side-by-side rowing race between crews from the Universities of Oxford and Cambridge along the River Thames . Each crew contained four Blues . In a race umpired by former Oxford rower Joseph William Chitty , Cambridge led all the way , and won by a margin of three lengths in a time of 21 minutes 18 seconds . The victory took the overall record to 18 – 17 in Oxford 's favour . = = Background = = The Boat Race is a side-by-side rowing competition between the University of Oxford ( sometimes referred to as the " Dark Blues " ) and the University of Cambridge ( sometimes referred to as the " Light Blues " ) . The race was first held in 1829 , and since 1845 has taken place on the 4.2-mile ( 6.8 km ) Championship Course on the River Thames in southwest London . Cambridge went into the race as reigning champions having won the previous year 's race by ten lengths . However Oxford held the overall </t>
+          <t>Who 's That Girl World Tour = Who 's That Girl World Tour was the second concert tour by American singer-songwriter Madonna . The tour supported her third studio album , True Blue ( 1986 ) , as well as the soundtrack Who 's That Girl ( 1987 ) . It was Madonna 's first world tour , reaching Asia , North America and Europe . Madonna 's 1987 film Who 's That Girl was a box office failure , but its soundtrack proved to be a commercial success . Warner Bros. felt that they could encache on Madonna 's success further and they sent her on a world tour . Musically and technically superior to her previous Virgin Tour , the Who 's That Girl Tour incorporated multimedia components to make the show more appealing . Madonna trained herself physically with aerobics , jogging and weight-lifting , to cope with the choreography and the dance routines . For the costumes , she collaborated with designer Marlene Stewart , expanding on the idea of bringing her popular video characters to life onstage , rew</t>
         </is>
       </c>
     </row>
@@ -1141,32 +1141,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['women', 'party', 'police', 'labour', 'book', 'rights', 'suffrage', 'government', 'feminist', 'political', 'feminism', 'murder', 'case', 'minister', 'trial']</t>
+          <t>['class', 'built', 'main', 'guns', 'line', 'castle', 'new', 'service', 'use', 'long', 'locomotives', 'london', 'speed', 'intended', 'locomotive']</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Feminism = Feminism is a range of political movements , ideologies , and social movements that share a common goal : to define , establish , and achieve political , economic , personal , and social rights for women that are equal to those of men . This includes seeking to establish equal opportunities for women in education and employment . Feminists typically advocate or support the rights and equality of women . Feminist movements have campaigned and continue to campaign for women 's rights , including the right to vote , to hold public office , to work , to earn fair wages or equal pay , to own property , to receive education , to enter contracts , to have equal rights within marriage , and to have maternity leave . Feminists have also worked to promote bodily autonomy and integrity , and to protect women and girls from rape , sexual harassment , and domestic violence . Feminist campaigns are generally considered to be one of the main forces behind major historical societal changes </t>
+          <t xml:space="preserve">Great Western Railway = The Great Western Railway ( GWR ) was a British railway company that linked London with The Midlands , the south-west and west of England and most of Wales . It was founded in 1833 , received its enabling Act of Parliament in 1835 and ran its first trains in 1838 . It was engineered by Isambard Kingdom Brunel , who chose a broad gauge of 7 ft ( 2,134 mm ) but , from 1854 , a series of amalgamations saw it also operate 4 ft 8 1 ⁄ 2 in ( 1,435 mm ) standard-gauge trains ; the last broad-gauge services were operated in 1892 . The GWR was the only company to keep its identity through the Railways Act 1921 , which amalgamated it with the remaining independent railways within its territory , and it was finally merged at the end of 1947 when it was nationalised and became the Western Region of British Railways . The GWR was called by some " God 's Wonderful Railway " and by others the " Great Way Round " but it was famed as the " Holiday Line " , taking many people to </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free Expression Policy Project = The Free Expression Policy Project ( FEPP ) is an organization devoted to assisting researchers with assembling information related to freedom of speech , media democracy , and copyright , and advocating for these issues . Civil liberties lawyer Marjorie Heins founded the nonprofit organization in 2000 . Based in Manhattan , New York , it was initially associated with the National Coalition Against Censorship , and subsequently operated as part of the Democracy Program of the Brennan Center for Justice at New York University Law School . The FEPP conducted a survey in 2001 which revealed that online monitoring software , including Net Nanny , SurfWatch , and Cybersitter , cast too broad a net and often blocked legitimate educational websites in their attempts to censor material from youths . In 2003 , the organization assisted 33 academics in filing a friend-of-the-court brief challenging a law which restricted the sale of violent video games to minors </t>
+          <t>SECR N1 class = The SECR N1 class was a type of 3-cylinder 2-6-0 ( ' mogul ' ) steam locomotive designed by Richard Maunsell for mixed traffic duties , initially on the South Eastern and Chatham Railway ( SECR ) , and later operated for the Southern Railway ( SR ) . The N1 was a development of the basic principles established by the Great Western Railway 's ( GWR ) Chief Mechanical Engineer ( CME ) George Jackson Churchward and by Maunsell 's previous N class design . The N1 prototype was the result of modifications made to N class No. 822 during construction in 1922 . The locomotive became operational in 1923 and used parts interchangeable with other Maunsell locomotive classes . The prototype N1 was the only member of the class constructed before the SECR became part of the Southern Railway at the Grouping in 1923 , and featured a variant of the Gresley conjugated valve gear designed by Harold Holcroft . The class set the precedent for the Southern Railway 's subsequent 3-cylinder de</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Weiquan movement = The Weiquan movement is a non-centralized group of lawyers , legal experts , and intellectuals in China who seek to protect and defend the civil rights of the citizenry through litigation and legal activism . The movement , which began in the early 2000s , has organized demonstrations , sought reform via the legal system and media , defended victims of human rights abuses , and written appeal letters , despite opposition from Communist Party authorities . Among the issues adopted by Weiquan lawyers are property and housing rights , protection for AIDS victims , environmental damage , religious freedom , freedom of speech and the press , and defending the rights of other lawyers facing disbarment or imprisonment . Individuals involved in the Weiquan movement have met with occasionally harsh reprisals from Chinese officials , including disbarment , detention , harassment , and , in extreme instances , torture . Authorities have also responded to the movement with the l</t>
+          <t>LNER Gresley Classes A1 and A3 = The London and North Eastern Railway LNER Gresley Classes A1 and A3 locomotives represented two distinct stages in the history of the British 4-6-2 " Pacific " steam locomotives designed by Nigel Gresley . They were designed for main line passenger services , initially on the Great Northern Railway ( GNR ) , a constituent company of the London and North Eastern Railway after the amalgamation of 1923 , for which they became a standard design . The change in class designation to A3 reflected the fitting to the same chassis of a higher pressure boiler with a greater superheating surface and a small reduction in cylinder diameter , leading to an increase in locomotive weight . Eventually all of the A1 locomotives were rebuilt , most to A3 specifications , but no . 4470 was completely rebuilt as Class A1 / 1 . The names for the locomotives came from a variety of sources . The first , Great Northern , was named after its parent company . Others were given the</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Feminism in Russia = Feminism in Russia originated in the 18th century , influenced by the Western European Enlightenment and mostly confined to the aristocracy . Throughout the 19th century , the idea of feminism remained closely tied to revolutionary politics and to social reform . In the 20th century Russian feminists , inspired by socialist doctrine , shifted their focus from philanthropic works to organizing among peasants and factory workers . After the February Revolution of 1917 , feminist lobbying gained suffrage and nominal equality for women in education and the workplace ; however , in the 1960s and 1970s , women continued to experience discrimination in certain career-paths ( including politics ) as well as income inequality and a greater burden of household work . In spite of this , the concern with feminism waned during this period . After the fall of the Soviet Union in 1991 , feminist circles arose among the intelligentsia , though the term continues to carry negative </t>
+          <t>British Rail Class 47 = The British Rail Class 47 is a class of British railway diesel-electric locomotive that was developed in the 1960s by Brush Traction . A total of 512 Class 47s were built at Crewe Works and Brush 's Falcon Works , Loughborough between 1962 and 1968 , which made them the most numerous class of British mainline diesel locomotive . They were fitted with the Sulzer 12LDA28C twin-bank twelve-cylinder unit producing 2,750 bhp ( 2,050 kW ) - though this was later derated to 2,580 bhp ( 1,920 kW ) to improve reliability - and have been used on both passenger and freight trains on Britain 's railways for over 50 years . Despite the introduction of more modern types of traction , a significant number are still in use , both on the mainline and on heritage railways . As of July 2015 , 82 locomotives still exist as Class 47s , with further examples having been converted to other classes ; approximately 30 retain " operational status " on the mainline . = = Origins = = The C</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Azimzhan Askarov = Azimzhan Askarov ( Uzbek : Azimjon Asqarov , Азимжон Асқаров ; born 1951 ) is an ethnically Uzbek Kyrgyzstani political activist who founded the group Vozduh in 2002 to investigate police brutality . During the 2010 South Kyrgyzstan ethnic clashes , which primarily targeted people of the Uzbek nationality , Askarov worked to document the violence . He was subsequently arrested and prosecuted on charges of creating mass disturbances , incitement of ethnic hatred , and complicity in murder . Following a trial protested by several international human rights groups for irregularities — including alleged torture and the courtroom intimidation of witnesses by police — Askarov was given a life sentence , which he is currently serving . In November 2010 , Askarov 's health was reported to be rapidly deteriorating as a result of his confinement . Numerous groups have advocated on his behalf , including Human Rights Watch , Reporters Without Borders , People In Need , the Comm</t>
+          <t>Castles in Great Britain and Ireland = Castles have played an important military , economic and social role in Great Britain and Ireland since their introduction following the Norman invasion of England in 1066 . Although a small number of castles had been built in England in the 1050s the Normans began to build motte and bailey and ringworks castles in large numbers to control their newly occupied territories in England and the Welsh Marches . During the 12th century the Normans began to build more castles in stone , with characteristic square keeps that played both military and political roles . Royal castles were used to control key towns and the economically important forests , while baronial castles were used by the Norman lords to control their widespread estates . David I invited Anglo-Norman lords into Scotland in the early 12th century to help him colonise and control areas of his kingdom such as Galloway ; the new lords brought castle technologies with them and wooden castles</t>
         </is>
       </c>
     </row>
@@ -1176,32 +1176,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>['officer', 'commander', 'lieutenant', 'command', 'fighter', 'promoted', 'victories', 'war', 'aircraft', 'flying', 'squadron', 'enemy', 'rank', 'medal', 'training']</t>
+          <t>['cap', 'fruit', 'color', 'shaped', 'spores', 'bodies', 'fungus', 'stem', 'mushroom', 'spore', 'taxonomy', 'yellow', 'diameter', 'collected', 'gill']</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Benjamin Freakley = Benjamin C. Freakley ( born 21 August 1953 ) is a retired United States Army lieutenant general , and a professor &amp; policy advisor at Arizona State University . From Woodstock , Virginia , Freakley was commissioned as an infantry officer in 1975 , and served in Operation Desert Storm , Operation Iraqi Freedom , and Operation Enduring Freedom - Afghanistan before retiring in 2012 . After retirement Freakley began a career in education . = = Early life = = Originally from Woodstock , Virginia , he graduated from Central High School in Woodstock in 1971 . Freakley also became an Eagle Scout . Applying for admission to three military schools ( Virginia Military Institute , The Citadel , and West Point ) , he ended up graduating from West Point with the Class of 1975 . = = Military career = = Being commissioned as a second lieutenant of infantry in 1975 , he was assigned to the 506th Infantry Regiment until 1979 . He then was an aide-de-camp to the commanding general of </t>
+          <t xml:space="preserve">Tylopilus alboater = Tylopilus alboater , commonly known as the black velvet bolete , is a bolete fungus in the Boletaceae family . The species is found in North America east of the Rocky Mountains , and in eastern Asia , including China , Japan , Taiwan , and Thailand . A mycorrhizal species , it grows solitarily , scattered , or in groups on the ground usually under deciduous trees , particularly oak , although it has been recorded from deciduous , coniferous , and mixed forests . The fruit bodies have a black to grayish-brown cap that measures up to 15 cm ( 5.9 in ) in diameter . The caps of young specimens have a velvety texture and are covered with a whitish to gray powdery coating ; this texture and coating is gradually lost as the mushroom matures , and the cap often develops cracks . The pores on the underside of the cap are small and pinkish . The stem is bluish-purple to black , and measures up to 10 cm ( 3.9 in ) long by 4 cm ( 1.6 in ) thick . Both the pore surface and the </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Neville McNamara = Air Chief Marshal Sir Neville Patrick McNamara , KBE , AO , AFC , AE ( 17 April 1923 – 7 May 2014 ) was a senior commander of the Royal Australian Air Force ( RAAF ) . He served as Chief of the Air Staff ( CAS ) , the RAAF 's highest-ranking position , from 1979 until 1982 , and as Chief of the Defence Force Staff ( CDFS ) , Australia 's top military role at the time , from 1982 until 1984 . He was the second RAAF officer to hold the rank of air chief marshal . Born in Queensland , McNamara joined the RAAF during World War II and saw action in the South West Pacific , flying P-40 Kittyhawks . He also flew combat missions in Gloster Meteors during the Korean War . In 1961 , he was awarded the Air Force Cross for his leadership of No. 2 Operational Conversion Unit . He gained further operational experience heading the RAAF presence in Ubon , Thailand , in the late 1960s . Promoted to air commodore , McNamara was Commander RAAF Forces Vietnam , and Deputy Commander Aust</t>
+          <t>Lactarius fallax = Lactarius fallax , commonly known as the velvety milk cap , is a species of fungus in the Russulaceae family . Found in both spruce and mixed conifer forests , it is a fairly common species in the Pacific Northwest region of North America , with a northerly range extending to Alaska . Its fruit bodies are medium-sized , with velvety , brown to blackish caps up to 3 – 9 cm ( 1.2 – 3.5 in ) in diameter bearing a distinct pointed umbo . The caps are supported by velvety stems up to 6 cm ( 2.4 in ) long and 1.5 cm ( 0.6 in ) thick . The mushroom oozes a whitish latex when it is cut , and injured tissue eventually turns a dull reddish color . The eastern North American and European species Lactarius lignyotus is closely similar in appearance , but can be distinguished by its differing range . = = Taxonomy and classification = = The species was originally described by American mycologists Alexander H. Smith and Lexemuel Ray Hesler in a 1962 publication . Smith made the ini</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Richard Barrons = General Sir Richard Lawson Barrons KCB , CBE , ADC Gen ( born 17 May 1959 ) is a retired British Army officer . He was Commander Joint Forces Command from April 2013 until his retirement in April 2016 . Barrons ' early career was spent in various staff and field posts in the UK , across Europe , and in the Far East . He also spent time working at the Ministry of Defence and in education . Sent to Germany in 1991 , Barrons then served his first tour of duty in the Balkans in 1993 . Returning to the UK , Barrons took up a staff position and went on to do a tour in Northern Ireland and then to become a Military Assistant , first to the High Representative for Bosnia and Herzegovina and then to the Chief of the General Staff . Between 2000 and 2003 , Barrons served again in the Balkans , in Afghanistan during the early days of International Security Assistance Force , and then in a staff position in Basra , Iraq . As a brigadier in 2003 , Barrons served his second tour in</t>
+          <t>Mycena lanuginosa = Mycena lanuginosa is a species of mushroom in the Mycenaceae family . First collected in 2000 and reported as a new species in 2007 , it is known only from lowland oak-dominated forests in central Honshu in Japan . The small mushroom is characterized by its grooved , grayish-brown to violet-brown cap up to 11 mm ( 0.43 in ) in diameter , and the slender grayish-brown to reddish-brown stem covered with minute , fine , soft hairs . The mushroom produces amyloid spores ( spores that stain when treated with Melzer 's reagent ) . Microscopic distinguishing features include the smooth , spindle-shaped cheilocystidia and pleurocystidia ( cystidia on the gill edge and face , respectively ) and the diverticulate elements in the outer layer of the cap and the stem . = = Taxonomy , naming , and classification = = Mycena lanuginosa was first collected by Haruki Takahashi in 2000 , and published as a new species in 2007 , along with seven other Japanese Mycena species . The spec</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>John Emilius Fauquier = Air Commodore John Emilius " Johnny " Fauquier DSO &amp; Two Bars , DFC ( March 19 , 1909 – April 3 , 1981 ) was a Canadian aviator and Second World War Bomber Command leader . He commanded No. 405 Squadron RCAF and later No. 617 Squadron RAF ( the Dambusters ) over the course of the war . A bush pilot , prior to the war , he joined the Royal Canadian Air Force as a flight instructor in 1939 . He then joined 405 Squadron in 1941 and would fly operationally for the rest of the war , taking a drop in rank on one occasion to return to active command . During his three tours of operation he participated in Operation Hydra and dozens of other sorties over Europe . = = Early years = = John Emilius " Johnny " Fauquier was born at Ottawa , Ontario on March 19 , 1909 , educated at Ashbury College and then entered the investment business at Montreal , Quebec where he joined a flying club . After earning his commercial pilot 's licence he formed Commercial Airways at Noranda ,</t>
+          <t>Boletus subluridellus = Boletus subluridellus is a species of bolete fungus in the family Boletaceae . Described as new to science in 1971 by American mycologists , the bolete is found in the eastern United States and Canada . It grows on the ground in coniferous and mixed forests in a mycorrhizal association with deciduous trees , especially oak . The fruit bodies ( mushrooms ) have orangish-red , broadly convex caps that are up to 10 cm ( 3.9 in ) in diameter , with small , dark reddish pores on the underside . The pale yellow stipe measures 4 – 9 cm ( 1.6 – 3.5 in ) long by 1.5 – 2.3 cm ( 0.6 – 0.9 in ) thick . All parts of the fruit body will quickly stain blue when injured or touched . = = Taxonomy = = The species was described by American mycologists Alexander H. Smith and Harry D. Thiers in their 1971 monograph on the bolete fungi of Michigan . The type collection was made by Smith on a golf course near Ypsilanti , Michigan in September 1961 ; it is kept at the University of Mic</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>William Garnett Braithwaite = Brigadier General William Garnett Braithwaite , CB , CMG , DSO ( 21 October 1870 – 15 October 1937 ) was a British Army officer who participated in the Boer War and the First World War . Born in England in 1870 , he joined the British Army in 1891 . He served with the Royal Welsh Fusiliers during the Boer War , during which he received the Distinguished Service Order . After the war he was an instructor at the Royal Military College . In 1911 , he went to New Zealand on secondment to help with the training and administration of the New Zealand Military Forces . Following the outbreak of the First World War , he served as a staff officer in the New Zealand Expeditionary Force . He commanded the New Zealand Division 's 2nd Infantry Brigade for nearly two years on the Western Front and on occasion was acting commander of the division . In December 1917 , he was medically evacuated to England . After a period of rest , he returned to military duty with the Bri</t>
+          <t>Tricholoma vaccinum = Tricholoma vaccinum , commonly known as the russet scaly tricholoma , the scaly knight , or the fuzztop , is a fungus of the agaric genus Tricholoma . It produces medium-sized fruit bodies ( mushrooms ) that have a distinctive hairy reddish-brown cap with a shaggy margin when young . The cap , which can reach a diameter of up to 6.5 cm ( 2.6 in ) wide , breaks up into flattened scales in maturity . It has cream-buff to pinkish gills with brown spots . Its fibrous , hollow stipe is white above and reddish brown below , and measures 4 to 7.5 cm ( 1.6 to 3.0 in ) long . Although young fruit bodies have a partial veil , it does not leave a ring on the stipe . Widely distributed in the Northern Hemisphere , Tricholoma vaccinum is found in northern Asia , Europe and North America . The fungus grows in a mycorrhizal association with spruce or pine trees , and its mushrooms are found on the ground growing in groups or clusters in late summer and autumn . Although some con</t>
         </is>
       </c>
     </row>
@@ -1211,32 +1211,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>['breed', 'horses', 'horse', 'breeds', 'dog', 'dogs', 'arabian', 'bred', 'breeding', 'stud', 'stallion', 'breeders', 'pony', 'registered', 'hair']</t>
+          <t>['episode', 'mulder', 'plot', 'find', 'scully', 'nielsen', 'doctor', 'files', 'scene', 'david_duchovny', 'finds', 'x-files', 'filmed', 'dana_scully', 'enterprise']</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Heck horse = The Heck horse is a horse breed that is claimed to resemble the tarpan ( Equus ferus ferus ) , an extinct wild equine . The breed was created by the German zoologist brothers Heinz Heck and Lutz Heck in an attempt to breed back the tarpan . Although unsuccessful at creating a genetic copy of the extinct species , they developed a breed with grullo coloration and primitive markings . After the Nazi invasion of Poland , they were introduced to the Białowieża Forest , where a small herd still survives . Heck horses were subsequently exported to the United States , where a breed association was created in the 1960s . = = Breed characteristics = = Heck horses are dun or grullo ( a dun variant ) in color , with no white markings . The breed has primitive markings , including a dorsal stripe and horizontal striping on the legs . Heck horses generally stand between 12.2 and 13.2 hands ( 50 and 54 inches , 127 and 137 cm ) tall . The head is large , the withers low , and the legs a</t>
+          <t xml:space="preserve">Redux ( The X-Files ) = " Redux " is the collective name for the two-part fifth season premiere of the science fiction television series The X-Files . " Redux I " first aired on November 2 , 1997 on Fox in the United States , with " Redux II " airing on November 9 . Both episodes subsequently aired in the United Kingdom and Ireland . Both episodes were written by series creator Chris Carter , with " Redux " directed by R. W. Goodwin and " Redux II " helmed by Kim Manners . " Redux " became the second-most-watched episode ever broadcast , earning more than 27 million viewers in the United States alone . The first part of the episode received mixed to negative reviews , whereas the second part received mixed to positive reviews from critics . The show centers on FBI special agents Fox Mulder ( David Duchovny ) and Dana Scully ( Gillian Anderson ) who work on cases linked to the paranormal , called X-Files . The episodes ' story continues on from the fourth season finale " Gethsemane " . </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Florida Cracker Horse = The Florida Cracker Horse is a breed of horse from Florida in the United States . It is genetically and physically similar to many other Spanish-style horses , especially those from the Spanish Colonial Horse group . The Florida Cracker is a gaited breed known for its agility and speed . The Spanish first brought horses to Florida with their expeditions in the early 16th century ; as colonial settlement progressed , they used the horses for herding cattle . These horses developed into the Florida Cracker type seen today , and continued to be used by Florida cowboys ( known as " crackers " ) until the 1930s . At this point they were superseded by American Quarter Horses needed to work larger cattle brought to Florida during the Dust Bowl , and population numbers declined precipitously . Through the efforts of several private families and the Florida government , the breed was saved from extinction , but there is still concern about its low numbers . Both The Live</t>
+          <t>Requiem ( The X-Files ) = " Requiem " is the twenty-second episode and the finale of the seventh season the science fiction television series The X-Files , and the show 's 161st episode overall . It premiered on the Fox network in the United States on May 21 , 2000 . The episode was written by Chris Carter , and directed by Kim Manners . The episode helped to explore the series ' overarching mythology . " Requiem " earned a Nielsen household rating of 8.9 , being watched by 15.26 million viewers in its initial broadcast . The episode received mostly positive reviews from television critics . Many applauded the way it made the series ' increasingly marginalized alien mythology relevant again , although others lamented the partial loss of David Duchovny . The show centers on FBI special agents Fox Mulder ( Duchovny ) and Dana Scully ( Gillian Anderson ) who work on cases linked to the paranormal , called X-Files . Mulder is a believer in the paranormal , while the skeptical Scully has be</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Pony of the Americas = The Pony of the Americas ( POA ) is a pony breed developed in the state of Iowa in the United States . The foundation stallion was an Arabian / Appaloosa / Shetland pony cross . A breed registry was founded in 1954 , and within 15 years had registered 12,500 ponies . Today , the Pony of the Americas Club is one of the largest and most active youth-oriented horse breed registries in the US . Although called ponies , POAs have the phenotype of a small horse , combining mainly Arabian and American Quarter Horse attributes . The registry is open , allowing blood from many other breeds , but has strict criteria for entry , including Appaloosa coloration , specified height and other physical characteristics . Although mainly bred for Western riding , the breed has been used for many other disciplines , including driving , endurance riding and some English disciplines . = = Breed characteristics = = Ponies are only registered with the Pony of the Americas club if they h</t>
+          <t>End Game ( The X-Files ) = " End Game " is the seventeenth episode of the second season of the American science fiction television series The X-Files . It premiered on the Fox network on February 17 , 1995 . It was directed by Rob Bowman , and written by Frank Spotnitz . " End Game " featured guest appearances by Megan Leitch , Peter Donat , Brian Thompson and saw Steven Williams reprise his role as X. The episode helped explore the series ' overarching mythology . " End Game " earned a Nielsen household rating of 11.2 , being watched by 10.7 million households in its initial broadcast . It received positive reviews from critics . The show centers on FBI special agents Fox Mulder ( David Duchovny ) and Dana Scully ( Gillian Anderson ) who work on cases linked to the paranormal , called X-Files . In this episode , Scully is kidnapped by an alien bounty hunter and Mulder offers his sister Samantha ( Leitch ) forward as ransom . However , Samantha is merely one of several clones created a</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Castillonnais = The Castillonais or Cheval Ariègeois de Castillon , once called the cheval du Biros or Saint-Gironnais , is an ancient breed of small riding horse from the Ariège département of southwestern France . The breed 's phenotype is currently in flux , but overall it resembles ( and is sometimes confused with ) the more common Merens horse . Members of the breed are either dark bay or black , and all have pangare color modification , which results in paler color around the eyes and muzzle and on the underside of the body . Today it is used principally for pleasure riding ( including equine tourism ) and driving . The Castillonnais probably descends from the horses that inspired the Magdalenian-era paintings found , for example , at the Cave of Niaux , with Oriental and Iberian blood added later . Originally bred as a multipurpose breed used for cavalry , agriculture and driving , the breed declined in population during the 20th century , and almost became extinct . In 1980 , a</t>
+          <t>The Gift ( The X-Files ) = " The Gift " is the eleventh episode of the eighth season of the American science fiction television series The X-Files . It premiered on the Fox network in the United States on February 4 , 2001 . The episode was written by Frank Spotnitz and directed by Kim Manners . " The Gift " has elements of both a " Monster-of-the-Week " episode , and an entry in the series ' mythology . The episode received a Nielsen rating of 8.8 and was viewed by 14.6 million viewers . Overall , the episode received largely mixed reviews from television critics ; while many appreciated the return focus on Fox Mulder 's ( David Duchovny ) absence , others felt that the plot revelations were unnaturally forced into the show . The season centers on FBI special agents Dana Scully ( Gillian Anderson ) and her new partner John Doggett ( Robert Patrick ) — following the alien abduction of her former partner , Mulder — who work on cases linked to the paranormal , called X-Files . In this ep</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colorado Ranger = The Colorado Ranger is a horse breed from the Colorado High Plains in the United States . The breed is descended from two stallions imported from Turkey to the US state of Virginia in the late 1800s . These stallions were then bred to ranch horses in Nebraska and Colorado , and in the early 1900s the two stallions who every registered Colorado Ranger traces to , Patches # 1 and Max # 2 , were foaled . The breed was championed by rancher Mike Ruby , who founded the Colorado Ranger Horse Association in 1935 . Original registry membership limits resulted in many Colorado Ranger horses being registered instead as Appaloosas , but pedigree research is ongoing to discover additional horses who trace their ancestry back to the original stallions . By 2005 , more than 6,000 Colorado Ranger horses had been registered . Colorado Rangers may be any solid color or carry leopard spotting patterns . Pinto coloration and American Paint Horse breeding are not allowed , nor are draft </t>
+          <t>Closure ( The X-Files ) = " Closure " is the eleventh episode of the seventh season of the science fiction television series The X-Files , and the 150th episode overall . It was directed by Kim Manners and written by series creator Chris Carter and Frank Spotnitz . The installment explores the series ' overarching mythology and is the conclusion of a two-part episode revolving around the final revelation of what really happened to Fox Mulder 's ( David Duchovny ) sister , Samantha . Originally aired by the Fox network on February 13 , 2000 , " Closure " received a Nielsen rating of 9.1 and was seen by 15.35 million viewers . The episode received mostly positive reviews from critics ; many felt that the final reveal was emotional and powerful , although some were unhappy with the resolution . The show centers on FBI special agents Fox Mulder ( Duchovny ) and Dana Scully ( Gillian Anderson ) who work on cases linked to the paranormal , called X-Files . Mulder is a believer in the paranor</t>
         </is>
       </c>
     </row>
@@ -1246,32 +1246,32 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>['british', 'french', 'militia', 'troops', 'fort', 'howe', 'battle', 'frigate', 'spanish', 'men', 'washington', 'fleet', 'expedition', 'continental_army', 'wounded']</t>
+          <t>['son', 'king', 'died', 'brother', 'death', 'daughter', 'father', 'reign', 'royal', 'kings', 'younger', 'succeeded', 'sons', 'kingdom', 'probably']</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Battle of Bonchurch = The Battle of Bonchurch took place sometime in late July 1545 at Bonchurch on the Isle of Wight . No source of information states a specific date , although it could have happened on 21 July . The battle was a part of the wider Italian War of 1542 – 1546 , and took place during the 1545 French invasion of the Isle of Wight . Several landings were made by the French during the invasion of the Isle of Wight , including the one at Bonchurch . The two combatants were the Kingdom of England and the Kingdom of France . England won the battle , and the French advance across the Isle of Wight was halted . The battle was fought between French regular soldiers , and English militiamen . The number of French soldiers involved is believed to be around 500 . The number of English militiamen is uncertain , with one source of information stating 300 , and another stating 2800 . English forces at the battle are understood to have been commanded by Captain Robert Fyssher , whilst </t>
+          <t>Domnall mac Taidc = Domnall mac Taidc Uí Briain ( died 1115 ) , also known as Domnall Ua Briain , Domhnall Ua Briain , and Domhnall mac Taidhg , was the ruler of the Kingdom of the Isles , the Kingdom of Thomond , and perhaps the Kingdom of Dublin as well . His father was Tadc , son of Toirdelbach Ua Briain , King of Munster , which meant that Domnall was a member of the Meic Taidc , a branch of the Uí Briain . Domnall 's mother was Mór , daughter of Echmarcach mac Ragnaill , King of Dublin and the Isles , which may have given Domnall a stake to the kingship of the Isles . In 1094 , Domnall 's uncle , Muirchertach Ua Briain , High King of Ireland , drove Gofraid Crobán , King of Dublin and the Isles from Dublin , and may have replaced him with Domnall himself . Certainly at some point following Gofraid 's death in 1095 , Muirchertach installed Domnall as King of the Isles . The latter 's reign was short-lived however , and Domnall appears to have been forced from the Isles prior to its</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Boston campaign = The Boston campaign was the opening campaign of the American Revolutionary War , taking place primarily in the Province of Massachusetts Bay . The campaign began with the Battles of Lexington and Concord on April 19 , 1775 , in which the local colonial militias interdicted a British government attempt to seize military stores and leaders in Concord , Massachusetts . The entire British expedition suffered significant casualties during a running battle back to Charlestown against an ever-growing number of militia . Subsequently , accumulated militia forces surrounded the city of Boston , beginning the Siege of Boston . The main action during the siege , the Battle of Bunker Hill on June 17 , 1775 , was one of the bloodiest encounters of the war , an resulted in a Pyrrhic British victory . There were also numerous skirmishes near Boston and the coastal areas of Boston , resulting in loss of life , military supplies , or both . In July 1775 , George Washington took comman</t>
+          <t>Andrew I of Hungary = Andrew I the White or the Catholic ( Hungarian : I. Fehér or Katolikus András or Endre ; c . 1015 – Zirc , before 6 December 1060 ) was King of Hungary from 1046 to 1060 . He descended from a younger branch of the Árpád dynasty . After spending fifteen years in exile , he ascended the throne during an extensive revolt of the pagan Hungarians . He strengthened the position of Christianity in the Kingdom of Hungary and successfully defended its independence against the Holy Roman Empire . His efforts to ensure the succession of his son , Solomon , resulted in the open revolt of his brother , Béla . Béla dethroned Andrew by force in 1060 . Andrew suffered severe injuries during the fighting and died before his brother was crowned king . = = Early life = = = = = Childhood ( c . 1015 – 1031 ) = = = Medieval sources provide two contradictory reports of the parents of Andrew , and his two brothers , Levente and Béla . For instance , the Chronicle of Zagreb and Saint Gera</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Meigs Raid = The Meigs Raid ( also known as the Battle of Sag Harbor ) was a military raid by American Continental Army forces , under the command of Connecticut Colonel Return Jonathan Meigs , on a British Loyalist foraging party at Sag Harbor , New York on May 24 , 1777 during the American Revolutionary War . Six Loyalists were killed and 90 captured while the Americans suffered no casualties . The raid was made in response to a successful British raid on Danbury , Connecticut in late April that was opposed by American forces in the Battle of Ridgefield . Organized in New Haven , Connecticut by Brigadier General Samuel Holden Parsons , the expedition crossed Long Island Sound from Guilford on May 23 , dragged whaleboats across the North Fork of Long Island , and raided Sag Harbor early the next morning , destroying boats and supplies . The battle marked the first American victory in the state of New York after New York City and Long Island had fallen in the British campaign for the c</t>
+          <t>Andrew III of Hungary = Andrew III the Venetian ( Hungarian : III . Velencei András , Croatian : Andrija III . Mlečanin , Slovak : Ondrej III . ; c . 1265 – 14 January 1301 ) was King of Hungary and Croatia between 1290 and 1301 . His father , Stephen the Posthumous , was the posthumous son of Andrew II of Hungary although Stephen 's brothers considered him a bastard . Andrew grew up in Venice , and first arrived in Hungary upon the invitation of a rebellious baron , Ivan Kőszegi , in 1278 . Kőszegi tried to play Andrew off against Ladislaus IV of Hungary , but the conspiracy collapsed and Andrew returned to Venice . Being the last male member of the House of Árpád , Andrew was elected king after the death of King Ladislaus IV in 1290 . He was the first Hungarian monarch to issue a coronation diploma confirming the privileges of the noblemen and the clergy . At least three pretenders — Albert of Austria , Mary of Hungary , and an adventurer — challenged his claim to the throne . Andrew</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Battle of Pell 's Point = The Battle of Pell 's Point ( October 18 , 1776 ) , also known as the Battle of Pelham , was a skirmish fought between British and American troops during the New York and New Jersey campaign of the American Revolutionary War . The conflict took place in what is now part of Pelham Bay Park in the Bronx , New York City . On October 12 , British forces landed at Throgs Neck in order to execute a flanking maneuver that would trap Gen. George Washington , commander-in-chief of the American revolutionary forces , and the main body of the Continental Army on the island of Manhattan . The Americans thwarted the landing , and Gen. Sir William Howe , commander-in-chief of British forces in North America , looked for another location along Long Island Sound to disembark his troops . On October 18 , he landed 4,000 men at Pelham , 3 miles ( 4.8 km ) north of Throgs Neck . Inland were 750 men of a brigade under the command of the American Col. John Glover . Glover position</t>
+          <t>Andrew II of Hungary = Andrew II ( Hungarian : II . András , Croatian : Andrija II . , Slovak : Ondrej II . , Ukrainian : Андрій II ; c . 1177 – 21 September 1235 ) , also known as Andrew of Jerusalem , was King of Hungary and Croatia between 1205 and 1235 . He ruled the Principality of Halych from 1188 until 1189 / 1190 , and again between 1208 / 1209 and 1210 . He was the younger son of Béla III of Hungary , who entrusted him with the administration of the newly conquered Principality of Halych in 1188 . Andrew 's rule was unpopular , and the boyars expelled him . Béla III willed property and money to Andrew , obliging him to lead a crusade to the Holy Land . Instead , Andrew forced his elder brother , King Emeric of Hungary , to cede Croatia and Dalmatia as an appanage to him in 1197 . The following year , Andrew occupied Hum . Despite the fact that Andrew did not stop conspiring against Emeric , the dying king made Andrew guardian of his son , Ladislaus III , in 1204 . After the pr</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Battle of Roatán = The Battle of Roatán ( sometimes spelled " Rattan " ) was an American War of Independence battle fought on March 16 , 1782 , between British and Spanish forces for control of Roatán , an island off the Caribbean coast of present-day Honduras . A Spanish expeditionary force under Matías de Gálvez , the Captain General of Spanish Guatemala , gained control of the British-held island after bombarding its main defences . The British garrison surrendered the next day . The Spanish evacuated the captured soldiers , 135 civilians and 300 slaves , and destroyed their settlement , which they claimed had been used as a base for piracy and privateering . The assault was part of a larger plan by Gálvez to eliminate British influence in Central America . Although he met with temporary successes , the British were able to maintain a colonial presence in the area . = = Background = = Following the entry of Spain into the American War of Independence in 1779 , both Spain and Great B</t>
+          <t>Géza I of Hungary = Géza I ( Hungarian pronunciation : [ ˈɡeːzɒ ] ; Hungarian : I. Géza ; c . 1040 – 25 April 1077 ) was King of Hungary from 1074 until his death . He was the eldest son of King Béla I. His baptismal name was Magnus . When his father died in 1063 , Géza 's cousin Solomon acquired the crown with German assistance , forcing Géza to leave Hungary . Géza returned with Polish reinforcements and signed a treaty with Solomon in early 1064 . In the treaty , Géza and his brother , Ladislaus acknowledged the rule of Solomon , who granted them their father 's former duchy , which encompassed one-third of the Kingdom of Hungary . Géza closely cooperated with Solomon , but their relationship became tense from 1071 . The king invaded the duchy in February 1074 and defeated Géza in a battle . However , Géza was victorious at the decisive battle of Mogyoród on 14 March 1074 . He soon acquired the throne , although Solomon maintained his rule in the regions of Moson and Pressburg ( pre</t>
         </is>
       </c>
     </row>
@@ -1281,32 +1281,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>['lap', 'race', 'drivers', 'laps', 'pit', 'car', 'ferrari', 'prix', 'driver', 'qualifying', 'session', 'fastest', 'ahead', 'hamilton', 'points']</t>
+          <t>['text', 'notes', 'book', 'bach', 'sunday', 'published', 'setting', 'edition', 'movements', 'describes', 'publication', 'bass', 'read', 'author', 'magazine']</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2010 Showtime Southern 500 = The 2010 Showtime Southern 500 , 61st running of the event , was a NASCAR Sprint Cup Series motor race that was held on May 8 , 2010 at Darlington Raceway in Darlington , South Carolina . It was the eleventh race of the 2010 NASCAR Sprint Cup Series season . The event began at 7 : 30 p.m. EDT . It was televised live in the United States on Fox and its U.S. radio coverage was broadcast on Motor Racing Network starting at 6 p.m. EDT . The 367-lap race was won by Denny Hamlin for Joe Gibbs Racing after starting seven positions behind polesitter Jamie McMurray . McMurray finished second in a Chevrolet , and Kurt Busch finished third in a Dodge . The race had a total of 11 cautions and 22 lead changes among 11 different drivers . Kevin Harvick remained the point leader after finishing the race in the sixth position . = = Background = = Coming into the race , Richard Childress Racing driver Kevin Harvick led the Drivers ' Championship with 1,467 points , with Hen</t>
+          <t>Gleichwie der Regen und Schnee vom Himmel fällt , BWV 18 = Gleichwie der Regen und Schnee vom Himmel fällt ( Just as the rain and snow fall from heaven ) , BWV 18 , is an early church cantata by Johann Sebastian Bach . He composed it in Weimar for the Sunday Sexagesimae , the second Sunday before Lent , likely by 1713 . The cantata is based on a text by Erdmann Neumeister published in 1711 . It is one of Bach cantata texts of the Weimar period not written by the court poet Salomon Franck . The text cites Isaiah , related to the gospel , the parable of the Sower . The third movement is in the style of a sermon , combined with a litany by Martin Luther . The closing chorale is the eighth stanza of Lazarus Spengler 's hymn " Durch Adams Fall ist ganz verderbt " . The cantata falls relatively early in Bach 's chronology of cantata compositions . It was possibly composed for 24 February 1715 , but more likely a year or even two earlier . Bach structured the work in five movements , a sinfon</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2013 Mudsummer Classic = The 2013 Mudsummer Classic ( formally the CarCash Mudsummer Classic presented by CNBC Prime 's The Profit ) was a NASCAR Camping World Truck Series stock car race held on July 24 , 2013 at Eldora Speedway in New Weston , Ohio . The race was the first dirt track race held by a NASCAR national touring series ( Cup , Xfinity , Trucks ) since 1970 . Contested over 150 laps , the race was the tenth of the 2013 NASCAR Camping World Truck Series season . Ken Schrader of self-owned Ken Schrader Racing won the pole position , and became the oldest pole sitter in NASCAR history at 58 years of age . Austin Dillon of Richard Childress Racing won the race , while Kyle Larson and Ryan Newman finished second and third , respectively . The qualifying procedure was unique for the race ; drivers ' qualifying times set the starting grids for five heat races to determine the feature race 's starting lineup , while the top five of a last chance qualifier ( LCQ ) advance to the feat</t>
+          <t>Ich bin vergnügt mit meinem Glücke , BWV 84 = Ich bin vergnügt mit meinem Glücke ( I am content in my good fortune ) , BWV 84 , is a church cantata by Johann Sebastian Bach . He composed the solo cantata for soprano in Leipzig in 1727 for the Sunday Septuagesima , and led the first performance , probably on 9 February 1727 . Bach composed the work in his fourth year as Thomaskantor in Leipzig . The text is similar to a cantata text Ich bin vergnügt mit meinem Stande ( I am content with my position ) , which Picander published in 1728 , but it is not certain that he wrote also the cantata text . Its thoughts about being content are in the spirit of the beginning Enlightenment , expressed in simple language . The closing chorale is the 12th stanza of the hymn " Wer weiß , wie nahe mir mein Ende " by Ämilie Juliane von Schwarzburg-Rudolstadt . Ich bin vergnügt mit meinem Glücke is one of the few works which Bach called " Cantata " himself . Bach structured the work in five movements , alt</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2011 Subway Fresh Fit 500 = The 2011 Subway Fresh Fit 500 was a NASCAR Sprint Cup Series stock car race held on February 27 , 2011 at Phoenix International Raceway in Avondale , Arizona . Contested over 312 laps , it was the second race of the 2011 season and was won by Jeff Gordon for Hendrick Motorsports . Kyle Busch of Joe Gibbs Racing finished in second , while Gordon 's teammate , Jimmie Johnson , finished third . Carl Edwards led the first lap from pole position ahead of Kurt Busch who started second on the grid . The race was caution free until lap 29 ( debris ) , and then 48 laps later a multiple crash occurred involving 13 drivers . Later there were several lead changes , and another four cautions . With nine laps remaining , Gordon took the lead from Kyle Busch to win his first race of the season , his first in more than 60 races . There were eight cautions and 29 lead changes among 12 different drivers during the race . Gordon 's win moved him to sixth position in the driver</t>
+          <t>Lobe den Herrn , meine Seele , BWV 143 = Lobe den Herrn , meine Seele ( Praise the Lord , my soul ) , BWV 143 , is an early cantata by Johann Sebastian Bach . It is not known if he composed the cantata for New Year 's Day in Mühlhausen or Weimar , as the date of composition is unclear . An unknown librettist drew mainly from Psalm 146 and from Jakob Ebert 's hymn " Du Friedefürst , Herr Jesu Christ " to develop seven movements , supplying only two of the movements himself . The text assembly is similar to Bach 's early cantatas . Bach 's authorship is doubted because the cantata has several features unusual for Bach 's later cantatas : it is the only Bach cantata to combine three corni da caccia with timpani . The cantata is in seven movements which combine the three major text sources : psalm , hymn and contemporary poetry . The opening chorus is based on a psalm verse , followed by the first hymn stanza and another psalm verse as a recitative . An aria on poetry is followed by a thir</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2009 Samsung 500 = The 2009 Samsung 500 was the seventh stock car race of the 2009 NASCAR Sprint Cup Series . It was held on April 5 , 2009 at Texas Motor Speedway in Fort Worth , Texas before a crowd of 176,300 people . The 334-lap race was won by Jeff Gordon of the Hendrick Motorsports team after starting from second position . His teammate Jimmie Johnson finished second and Greg Biffle came in third . David Reutimann won the pole position , and maintained his lead going into the first corner to begin the race , but Gordon took over the lead before the first lap was over . Afterward , Reutimann took back the lead , holding it until Matt Kenseth passed him on lap 47 . Gordon led after the final pit stops . In the final laps , Johnson was gaining on Gordon , but Gordon maintained his position to win . There were six cautions and twenty-eight lead changes among thirteen different drivers during the race . The race was Gordon 's first win of the 2009 season , and the eighty-second of his</t>
+          <t>Jauchzet Gott in allen Landen , BWV 51 = Jauchzet Gott in allen Landen ( " Exult in God in every land " or " Shout for joy to God in all lands " ) BWV 51 , is a church cantata by Johann Sebastian Bach . The work is Bach 's only church cantata scored for a solo soprano and trumpet . He composed it for general use ( ogni tempo ) , in other words not for a particular date in the church calendar , although he used it for the 15th Sunday after Trinity : the first known performance was on 17 September 1730 in Leipzig . The work may have been composed earlier , possibly for an occasion at the court of Christian , Duke of Saxe-Weissenfels , for whom Bach had composed the Hunting Cantata and the Shepherd Cantata . The text was written by an unknown poet who took inspiration from various biblical books , especially from psalms , and included as a closing chorale a stanza from the hymn " Nun lob , mein Seel , den Herren " . Bach structured the work in five movements , with the solo voice accompan</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>BMW M1 Procar Championship = For the later German touring car series , see ADAC Procar Series . The BMW M1 Procar Championship , sometimes known simply as Procar , was a one-make auto racing series created by Jochen Neerpasch , head of BMW Motorsport GmbH , the racing division of automobile manufacturer BMW . The series pitted professional drivers from the Formula One World Championship , World Sportscar Championship , European Touring Car Championship , and other international series against one another using identically modified BMW M1 sports cars . Billed as an opportunity to see a mix of drivers from various motorsport disciplines , the championship served as support races for various European rounds of the 1979 Formula One season , with Formula One drivers earning automatic entry into the Procar event based on their performance in their Formula One cars . Austrian Niki Lauda won the inaugural championship . In 1980 , the series held some events outside of Formula One schedule , an</t>
+          <t xml:space="preserve">Du wahrer Gott und Davids Sohn , BWV 23 = Du wahrer Gott und Davids Sohn ( You true God and Son of David ) , BWV 23 , is a church cantata by Johann Sebastian Bach . He composed it in Köthen between 1717 and 1723 for Quinquagesima Sunday and performed it as an audition piece for the position of Thomaskantor in Leipzig on 7 February 1723 . The Sunday was the last occasion for music at church before the quiet time of Lent . Bach had at least the first three movements ready for the audition in Leipzig and may have added the substantial last movement , derived from the lost Weimarer Passion , rather late . The cantata deals with healing the blind near Jericho . An anonymous author stayed close to the gospel , having the blind man call Jesus in the first movement , and begging Jesus not to pass in the second . In the last movement Bach presents an extended version of " Christe , du Lamm Gottes " , the German Agnus Dei of the Lutheran mass . He scored the cantata for three vocal soloists , a </t>
         </is>
       </c>
     </row>
@@ -1316,32 +1316,32 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>['temple', 'mosque', 'han', 'dynasty', 'sanskrit', 'buddhist', 'hindu', 'chinese', 'bce', 'texts', 'monastery', 'buddhism', 'temples', 'wall', 'text']</t>
+          <t>['raaf', 'flying', 'wing', 'combat', 'unit', 'training', 'operational', 'pilot', 'officer', 'aircraft', 'flight', 'pilots', 'disbanded', 'commanding', 'squadron']</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Pundarikakshan Perumal Temple = Pundarikakshan Perumal Temple or Thiruvellarai a in Thiruvellarai , a village in the outskirts of Tiruchirappalli in the South Indian state of Tamil Nadu , is dedicated to the Hindu god Vishnu . Constructed in the Dravidian style of architecture , the temple is glorified in the Divya Prabandha , the early medieval Tamil canon of the Azhwar saints from the 6th – 9th centuries AD . It is one of the 108 Divyadesam dedicated to Vishnu , who is worshipped as Pundarikakshan and his consort Lakshmi as Pankajavalli . The temple was built by Shivi Chakravarthy , king of Ayodhya in Treta Yuga 15 lakh years ago . This temple is older than Srirangam temple.The temple has three inscriptions in its two rock-cut caves , two dating from the period of Nandivarman II ( 732 – 796 AD ) and the other to that of Dantivarman ( 796 – 847 ) . It also has Pallava sculptural depictions of Narasimha and Varaha , two of the ten avatars of Vishnu . A granite wall surrounds the temple</t>
+          <t xml:space="preserve">No. 84 Wing RAAF = No. 84 Wing is a Royal Australian Air Force ( RAAF ) transport wing . Coming under the control of Air Mobility Group ( AMG ) , it is headquartered at RAAF Base Richmond , New South Wales . The wing comprises No. 34 Squadron , operating Boeing 737 and Bombardier Challenger 604 VIP jets ; No. 37 Squadron , operating Lockheed Martin C-130J Super Hercules medium transports ; and a technical training unit , No. 285 Squadron . Formed in 1944 for army co-operation duties in the South West Pacific theatre of World War II , No. 84 Wing operated a mix of aircraft including CAC Boomerangs , CAC Wirraways , Auster AOPs and Bristol Beauforts , before disbanding in 1946 . It was re-formed in 1991 as a tactical transport wing headquartered at RAAF Base Townsville , Queensland , comprising Nos. 35 and 38 Squadrons operating de Havilland Canada DHC-4 Caribous . By 1996 , it had been augmented by No. 32 Squadron , operating Hawker Siddeley HS 748 trainer-transports . In 1998 , No. 84 </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Munneswaram temple = Munneswaram temple ( Sinhalese : මුන ් නේශ ් වරම ් කෝවිල , Tamil : முன ் னேசுவரம ் கோயில ் ) is an important regional Hindu temple complex in Sri Lanka . It has been in existence at least since 1000 CE , although myths surrounding the temple associate it with the popular Indian epic Ramayana , and its legendary hero-king Rama . The temple is one of the ancient Pancha Ishwarams dedicated to Shiva in the region . The temple complex is a collection of five temples , including a Buddhist temple . The central temple dedicated to Shiva ( Siva ) is the most prestigious and biggest , and is popular amongst Hindus . The other temples are dedicated to Ganesha , Ayyanayake and Kali . The Kali temple is also popular with Buddhists , who frequent the complex . Post-19th century , most of the devotees of all temples in the complex belong to the majority Sinhala Buddhist ethnic group ; the temples , excluding the Ayyanayake and the Buddhist temple , are administered by families b</t>
+          <t>No. 1 Operational Conversion Unit RAAF = No. 1 Operational Conversion Unit ( No. 1 OCU ) was an operational training unit of the Royal Australian Air Force ( RAAF ) . Formed in January 1959 at RAAF Base Amberley , Queensland , its role was to convert pilots and navigators to the English Electric Canberra bombers flown by Nos. 1 , 2 and 6 Squadrons . The unit 's complement of Canberras included T.4 and Mk.21 dual-control trainers , and Mk.20 bombers . Originally a component of No. 82 Wing , No. 1 OCU became an independent unit at Amberley in April 1968 , its focus being the provision of operationally ready pilots for service with No. 2 Squadron in the Vietnam War . No. 1 OCU was disbanded in June 1971 , following the withdrawal of No. 2 Squadron from South-East Asia . By then the RAAF 's only Canberra unit , No. 2 Squadron ran its own conversion courses before disbanding in 1982 . = = History = = During World War II , the Royal Australian Air Force ( RAAF ) established several operation</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Kataragama temple = Kataragamam temple ( Sinhalese Katharagama ; Tamil Katirkāmam ) in Kataragama , Sri Lanka , is a temple complex dedicated to Kataragama deviyo . It is one of the few religious sites in Sri Lanka that is venerated by the Sinhala Buddhists , Hindu Sri Lankan Tamils , Sri Lankan Moors and the Vedda people . It is a collection of modest shrines , of which the one dedicated to Kataragama deviyo , is the most important . For most of the past millennia , it was a jungle shrine very difficult to access ; today it is accessible by an all-weather road . Almost all the shrines — and the nearby Kiri Vehera — are managed by Buddhists , apart from shrines dedicated to Teyvāṉai and Shiva and mosques . Up until the 1940s a majority of the pilgrims were Tamil Hindus from Sri Lanka and South India who undertook an arduous padayatra or " pilgrimage on foot " . Since then most pilgrims tend to be Sinhala Buddhists and the cult of Kataragama deviyo has become the most popular amongst th</t>
+          <t>No. 486 Squadron RAAF = No. 486 Squadron was a maintenance unit of the Royal Australian Air Force ( RAAF ) . It was formed in August 1946 as part of No. 86 ( Transport ) Wing , which operated Douglas C-47 Dakotas out of RAAF Station Schofields , New South Wales . The squadron transferred to RAAF Station Richmond in June 1949 . It relocated again to RAAF Base Canberra in April 1954 , before returning to Richmond in August 1958 to commence maintenance of No. 86 Wing 's newly delivered Lockheed C-130 Hercules . The squadron was disbanded between August 1964 and March 1966 . In the 1980s and 1990s , it was responsible for servicing the RAAF 's Boeing 707 tanker / transports , as well as the Hercules . No. 486 Squadron was again disbanded at Richmond in October 1998 , and its functions handed over to No. 86 Wing 's Hercules squadrons . = = History = = No. 486 ( Maintenance ) Squadron was established at RAAF Station Schofields , New South Wales , on 26 August 1946 . Commanded by Wing Command</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Badrinath Temple = Badrinath or Badrinarayan Temple is a Hindu temple dedicated to Vishnu which is situated in the town of Badrinath in Uttarakhand , India . The temple and town form one of the four Char Dham and Chota Char Dham pilgrimage sites . The temple is also one of the 108 Divya Desams dedicated to Vishnu , who is worshipped as Badrinath — holy shrines for Vaishnavites . It is open for six months every year ( between the end of April and the beginning of November ) , because of extreme weather conditions in the Himalayan region . The temple is located in Garhwal hill tracks in Chamoli district along the banks of Alaknanda River at an elevation of 3,133 m ( 10,279 ft ) above the mean sea level . It is one of the most visited pilgrimage centres of India , having recorded 1,060,000 visits . The image of the presiding deity worshipped in the temple is a 1 m ( 3.3 ft ) tall , black stone statue of Vishnu in the form of Badrinarayan . The statue is considered by many Hindus to be one</t>
+          <t>No. 2 Elementary Flying Training School RAAF = No. 2 Elementary Flying Training School ( No. 2 EFTS ) was a Royal Australian Air Force ( RAAF ) pilot training unit that operated during World War II . It was one of twelve elementary flying training schools employed by the RAAF to provide introductory flight instruction to new pilots as part of Australia 's contribution to the Empire Air Training Scheme . No. 2 EFTS was established in November 1939 as No. 3 Flying Training School at Archerfield , Queensland , and partially utilised aircraft and facilities of the civilian air training organisations based there . The school was renamed No. 2 EFTS in January 1940 . It was disbanded in March 1942 , and its operations transferred to No. 5 Elementary Flying School at Narromine , New South Wales , and No. 11 Elementary Flying School at Benalla , Victoria . = = History = = Flying instruction in the Royal Australian Air Force ( RAAF ) underwent major changes following the outbreak of World War II</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kandariya Mahadeva Temple = The Kandariya Mahadeva Temple ( Devanagari : कंदारिया महादेव मंदिर , Kaṇḍāriyā Mahādeva Mandir ) , meaning " the Great God of the Cave " , is the largest and most ornate Hindu temple in the medieval temple group found at Khajuraho in Madhya Pradesh , India . It is considered one of the best examples of temples preserved from the medieval period in India . = = Location = = Kaṇḍāriyā Mahādeva Temple is located in the Chhatarpur district of Madhya Pradesh in Central India . It is in the Khajuraho village , and the temple complex is spread over an area of 6 square kilometres ( 2.3 sq mi ) . It is in the western part of the village to the west of the Vishnu temple . The temple complex , in the Khajuraho village at an elevation of 282 metres ( 925 ft ) , is well connected by road , rail and air services . Khajuraho is 34 miles ( 55 km ) to the south of Mahoba , 29 miles ( 47 km ) away from the Chhatarpur city to its east , 27 miles ( 43 km ) away from Panna , 400 </t>
+          <t>No. 1 Basic Flying Training School RAAF = No. 1 Basic Flying Training School ( No. 1 BFTS ) was a flying training school of the Royal Australian Air Force ( RAAF ) . Along with No. 1 Initial Flying Training School ( No. 1 IFTS ) , it was formed in response to increased demand for aircrew during the Korean War and Malayan Emergency . No. 1 BFTS was established in December 1951 at RAAF Base Uranquinty , New South Wales , where it operated de Havilland Tiger Moths and CAC Wirraways . The school absorbed the activities of No. 1 IFTS in January 1955 , as aircrew training requirements had ased following the end of the Korean War . No. 1 BFTS moved to RAAF Base Point Cook , Victoria , in May 1958 , by which time it was exclusively flying CAC Winjeels . Its training program expanded in the mid-1960s owing to Australia 's commitments in the Vietnam War . No. 1 BFTS was re-formed as No. 1 Flying Training School at Point Cook in January 1969 . = = History = = Prior to World War II , all pilot tra</t>
         </is>
       </c>
     </row>
@@ -1351,32 +1351,32 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>['simpsons', 'south_park', 'homer', 'lisa', 'episode', 'episodes', 'kenny', 'jake', 'stan', 'kyle', 'finn', 'animated', 'parker', 'voice', 'voiced']</t>
+          <t>['took', 'second', 'played', 'runs', 'team', 'tour', 'england', 'australia', 'playing', 'class', 'run', 'came', 'score', 'match', 'taking']</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>The Itchy &amp; Scratchy Show = The Itchy &amp; Scratchy Show ( often shortened as Itchy &amp; Scratchy ) is a running gag and fictional animated television series featured in the animated television series The Simpsons . It usually appears as a part of The Krusty the Clown Show , watched regularly by Bart and Lisa Simpson . Itself an animated cartoon , The Itchy &amp; Scratchy Show depicts a sadistic anthropomorphic blue mouse , Itchy ( voiced by Dan Castellaneta ) , who repeatedly maims and kills an anthropomorphic , hapless threadbare black cat , Scratchy ( voiced by Harry Shearer ) . The cartoon first appeared in the Tracey Ullman Show short " The Bart Simpson Show " , which originally aired November 20 , 1988 . The cartoon 's first appearance in The Simpsons was in the 1990 episode " There 's No Disgrace Like Home " . Typically presented as 15-to-60-second-long cartoons , the show is filled with gratuitous violence . The Simpsons also occasionally features characters who are involved with the pro</t>
+          <t xml:space="preserve">Irfan Pathan = Irfan Khan Pathan ( pronunciation ; born 27 October 1984 ) is an Indian cricketer who made his debut for India in the 2003 / 04 Border-Gavaskar Trophy , and was a core member of the national team until a decline in form set in during 2006 , forcing him out of the team . Since then , he has been in and out of the limited-overs teams ( ODIs and T20Is ) , and has only sporadic appearances in Test cricket . Pathan played his last Test in April , 2008 at the age of 24 . Beginning his career as a fast-medium swing and seam bowler , Pathan broke into the national team soon after turning 19 , and evoked comparisons with Pakistan 's Wasim Akram with his promising performances and prodigious swing . He cemented his position in the team and was named by the International Cricket Council as the 2004 Emerging Player of the Year . Pathan was instrumental in India 's One-day international and Test series wins in Pakistan in 2004 . He was described by the media as the " blue-eyed boy " </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Santa 's Little Helper = Santa 's Little Helper is a recurring character in the American animated television series The Simpsons . He is the pet greyhound of the Simpson family . The dog was introduced in the first episode of the show , the 1989 Christmas special " Simpsons Roasting on an Open Fire " , in which his owner abandons him for finishing last in a greyhound race . Homer Simpson and his son Bart , who are at the race track in hope of winning some money for Christmas presents , see this and decide to adopt the dog . Santa 's Little Helper has since appeared frequently on The Simpsons and the plots of many episodes center on him . During the course of the show , he has , for example , fathered litters of puppies , passed obedience school , had surgery for bloat , replaced Duffman as the mascot for Duff Beer , and been trained as a police dog at Springfield 's Animal Police Academy . Some of the episodes that focus on Santa 's Little Helper have been inspired by popular culture o</t>
+          <t>Australian cricket team in England in 1948 = The Australian cricket team in England in 1948 was captained by Don Bradman , who was making his fourth and final tour of England . The team is famous for being the first Test match side to play an entire tour of England without losing a match . This feat earned them the nickname of The Invincibles , and they are regarded as one of the greatest cricket teams of all time . According to the Australian federal government the team " is one of Australia 's most cherished sporting legends " . Including five Test matches , Australia played a total of 31 first-class fixtures , plus three other games , two of the non-first-class matches being played in Scotland . They had a busy schedule , with 112 days of play scheduled in 144 days , meaning that they often played every day of the week except Sunday . Their record in the first-class games was 23 won and 8 drawn ; in all matches , they won 25 and drew 9 ; many of the victories were by large margins .</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Dan Castellaneta = Daniel Louis " Dan " Castellaneta ( born October 29 , 1957 ) is an American actor , voice actor , comedian , singer and screenwriter . Noted for his long-running role as Homer Simpson on the animated television series The Simpsons , he voices many other characters on the show , including Abraham " Grampa " Simpson , Barney Gumble , Krusty the Clown , Sideshow Mel , Groundskeeper Willie , Mayor Quimby and Hans Moleman . Born in Oak Park , Illinois , a suburb of Chicago , Castellaneta started taking acting classes at a young age . He would listen to his father 's comedy records and do impressions of the artists . After graduating from Northern Illinois University , Castellaneta joined Chicago 's Second City in 1983 , and performed with the troupe until 1987 . He was cast in The Tracey Ullman Show , which debuted in 1987 . The Tracey Ullman Show included a series of animated shorts about a dysfunctional family . Voices were needed for the shorts , so the producers decid</t>
+          <t>Neil Harvey = Robert Neil Harvey MBE ( born 8 October 1928 ) is a former Australian cricketer who represented the Australian cricket team between 1948 and 1963 , playing in 79 Test matches . He was the vice-captain of the team from 1957 until his retirement . An attacking left-handed batsman , sharp fielder and occasional off-spin bowler , Harvey was the senior batsman in the Australian team for much of the 1950s and was regarded by Wisden as the finest fielder of his era . Upon his retirement , Harvey was the second-most prolific Test run-scorer and century-maker for Australia . One of six cricketing brothers , four of whom represented Victoria , Harvey followed his elder brother Merv into Test cricket and made his debut in January 1948 , aged 19 and three months . In his second match , he became the youngest Australian to score a Test century , a record that still stands . Harvey was the youngest member of the 1948 Invincibles of Don Bradman to tour England , regarded as one of the f</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>SpongeBob SquarePants ( season 7 ) = The seventh season of the American animated television series SpongeBob SquarePants , created by marine biologist and animator Stephen Hillenburg , originally aired on Nickelodeon in the United States from July 19 , 2009 to June 11 , 2011 . It contained 26 episodes , beginning with the episodes " Tentacle Vision " and " I Heart Dancing " . The series chronicles the exploits and adventures of the title character and his various friends in the fictional underwater city of Bikini Bottom . The season was executive produced by series creator Hillenburg and writer Paul Tibbitt , who also acted as the showrunner . In 2011 , Legends of Bikini Bottom , an anthology series consists of five episodes from the season , was launched . A number of guest stars appeared on the season 's episodes . Several compilation DVDs that contained episodes from the season were released . The SpongeBob SquarePants : Complete Seventh Season DVD was released in Region 1 on Decemb</t>
+          <t>Bob Willis = Robert George Dylan Willis MBE ( born Robert George Willis on 30 May 1949 ) , known as Bob Willis , is an English former cricketer who played for Surrey , Warwickshire , Northern Transvaal and England . A right-handed and aggressive fast bowler with a notably long run-up , Willis spearheaded several England bowling attacks between 1971 and 1984 , across 90 Test matches in which he took 325 wickets at 25.20 runs per wicket , at the time second only to Dennis Lillee . He is currently England 's fourth leading wicket taker , behind James Anderson , Ian Botham , and Stuart Broad . Willis took 899 first-class wickets overall , although from 1975 onwards he bowled with constant pain , having had surgery on both knees . He nevertheless continued to find success , taking a Test career best eight wickets for 43 runs in the 1981 Ashes series against Australia , one of the all-time best Test bowling performances . He was Wisden Cricketer of the Year for 1978 . In addition to the Test</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Cartman 's Mom Is a Dirty Slut = " Cartman 's Mom Is a Dirty Slut " is the first season finale of the American animated television series South Park . It originally aired on Comedy Central in the United States on February 25 , 1998 . The episode is the highest viewed episode in the entire South Park series , with 6.4 million views . It is part one of a two-episode story arc , which concluded with " Cartman 's Mom Is Still a Dirty Slut " . The episode follows Eric Cartman , one of the show 's child protagonists , becoming curious about the identity of his father . He discovers that his father is most likely a man his mother had sexual intercourse with during an annual party called " The Drunken Barn Dance " . Meanwhile , his friends Stan , Kyle and Kenny participate on America 's Stupidest Home Videos , after filming Cartman playing in his yard with plush toys . The episode was written by Trey Parker and staff writer David A. Goodman , and directed by Parker . It featured a guest appear</t>
+          <t>Leah Poulton = Leah Joy Poulton ( born 27 February 1984 ) is a female Australian cricketer who plays for New South Wales and Australia . She is a specialist batsman who usually opens the batting . Poulton came to prominence in youth cricket by captaining New South Wales to the Under-17 national championships in 2000 . In 2002 – 03 , she made her senior debut for New South Wales in the Women 's National Cricket League ( WNCL ) . She found runs hard to come by in her first three seasons and was in and out of the team frequently , aggregating only 24 runs in her second and third seasons combined . Despite this , she regularly captained Australia 's Under-19 and Under-23 teams during this time , leading the latter on a successful tour of Sri Lanka in 2004 . In 2005 – 06 , made a substantial impact on the WNCL for the first time , scoring 325 runs , more than twice her previous best season 's total , playing in the first of five consecutive WNCL triumphs for New South Wales . Poulton was re</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>['formula', 'matrix', 'function', 'newton', 'linear', 'plants', 'constant', 'language', 'defined', 'theory', 'functions', 'example', 'consciousness', 'space', 'derivative']</t>
+          <t>['highway', 'north', 'road', 'east', 'route', 'lane', 'south', 'intersection', 'west', 'continues', 'interchange', 'designated', 'completed', 'state', 'passes']</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Biology = Biology is a natural science concerned with the study of life and living organisms , including their structure , function , growth , evolution , distribution , identification and taxonomy . Modern biology is a vast and eclectic field , composed of many branches and subdisciplines . However , despite the broad scope of biology , there are certain general and unifying concepts within it that govern all study and research , consolidating it into single , coherent field . In general , biology recognizes the cell as the basic unit of life , genes as the basic unit of heredity , and evolution as the engine that propels the synthesis and creation of new species . It is also understood today that all the organisms survive by consuming and transforming energy and by regulating their internal environment to maintain a stable and vital condition known as homeostasis . Sub-disciplines of biology are defined by the scale at which organisms are studied , the kinds of organisms studied , an</t>
+          <t>Business routes of Interstate 94 in Michigan = There are currently eight business routes of Interstate 94 ( I-94 ) in the US state of Michigan . These business routes connect I-94 to the downtown business districts of neighboring cities . These eight routes are all business loops which bear the Business Loop I-94 ( BL I-94 ) designation . These loops are former routings of I-94 's two predecessors in Michigan : US Highway 12 ( US 12 ) or US 25 . The westernmost BL I-94 runs through the twin cities of Benton Harbor and St. Joseph along the former routing of US 12 and US 31 / US 33 that now includes a section of the Lake Michigan Circle Tour in the state . The loops in Kalamazoo , Battle Creek , Marshall , Albion , and Jackson were also formerly segments of US 12 which were later designated as separate version of Business US Highway 12 ( Bus . US 12 ) through their respective cities before becoming BL I-94s in 1960 . The route of the business loop through Ann Arbor was previously US 12 a</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Myco-heterotrophy = Myco-heterotrophy ( Greek : μυκός mykós , " fungus " , ἕτερος heteros = " another " , " different " and τροφή trophe = " nutrition " ) is a symbiotic relationship between certain kinds of plants and fungi , in which the plant gets all or part of its food from parasitism upon fungi rather than from photosynthesis . A myco-heterotroph is the parasitic plant partner in this relationship . Myco-heterotrophy is considered a kind of cheating relationship and myco-heterotrophs are sometimes informally referred to as " mycorrhizal cheaters " . This relationship is sometimes referred to as mycotrophy , though this term is also used for plants that engage in mutualistic mycorrhizal relationships . = = Relationship between myco-heterotrophs and host fungi = = Full ( or obligate ) myco-heterotrophy exists when a non-photosynthetic plant ( a plant largely lacking in chlorophyll or otherwise lacking a functional photosystem ) gets all of its food from the fungi that it parasitize</t>
+          <t>Maryland Route 2 = Maryland Route 2 ( MD 2 ) is the longest state highway in the U.S. state of Maryland . The 79.24-mile ( 127.52 km ) route runs from Solomons Island in Calvert County north to an intersection with U.S. Route 1 ( US 1 ) and US 40 Truck ( North Avenue ) in Baltimore . The route runs concurrent with MD 4 through much of Calvert County along a four-lane divided highway known as Solomons Island Road , passing through rural areas as well as the communities of Lusby , Port Republic , Prince Frederick , and Huntingtown . In Sunderland , MD 2 splits from MD 4 and continues north as two-lane undivided Solomons Island Road into Anne Arundel County , still passing through rural areas . Upon reaching Annapolis , the route runs concurrent with US 50 and US 301 around the city . Between Annapolis and Baltimore , MD 2 runs along the Governor Ritchie Highway ( also known as the Ritchie Highway ) , a multilane divided highway that heads through suburban areas of businesses and residenc</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Botany = Botany , also called plant science ( s ) , plant biology or phytology , is the science of plant life and a branch of biology . A botanist or plant scientist is a scientist who specializes in this field . The term " botany " comes from the Ancient Greek word βοτάνη ( botanē ) meaning " pasture " , " grass " , or " fodder " ; βοτάνη is in turn derived from βόσκειν ( boskein ) , " to feed " or " to graze " . Traditionally , botany has also included the study of fungi and algae by mycologists and phycologists respectively , with the study of these three groups of organisms remaining within the sphere of interest of the International Botanical Congress . Nowadays , botanists study approximately 400,000 species of living organisms of which some 260,000 species are vascular plants and about 248,000 are flowering plants . Botany originated in prehistory as herbalism with the efforts of early humans to identify – and later cultivate – edible , medicinal and poisonous plants , making it</t>
+          <t>Maryland Route 32 = Maryland Route 32 ( MD 32 ) is a state highway in the U.S. state of Maryland . The road runs 51.79 miles ( 83.35 km ) from Interstate 97 ( I-97 ) and MD 3 in Millersville west and north to Washington Road in Westminster . The east – west portion of MD 32 is the Patuxent Freeway , a four- to six-lane freeway between I-97 and MD 108 in Clarksville . The freeway passes through Odenton and Fort Meade , the site of Fort George G. Meade and the National Security Agency ( NSA ) , in western Anne Arundel County and along the southern part of Columbia in Howard County . Via I-97 , MD 32 connects those communities with U.S. Route 50 and US 301 in Annapolis . The state highway also intersects the four primary highways connecting Baltimore and Washington : the Baltimore – Washington Parkway , US 1 , I-95 , and US 29 . MD 32 's north – south section , Sykesville Road , connects Clarksville and Westminster by way of Sykesville and Eldersburg in southern Carroll County . MD 32 was</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Avogadro constant = In chemistry and physics , the Avogadro constant ( named after the scientist Amedeo Avogadro ) is the number of constituent particles , usually atoms or molecules , that are contained in the amount of substance given by one mole . Thus , it is the proportionality factor that relates the molar mass of a compound to the mass of a sample . Avogadro 's constant , often designated with the symbol NA or L , has the value 6.022140857 ( 74 ) × 1023 mol − 1 in the International System of Units ( SI ) . Previous definitions of chemical quantity involved Avogadro 's number , a historical term closely related to the Avogadro constant , but defined differently : Avogadro 's number was initially defined by Jean Baptiste Perrin as the number of atoms in one gram-molecule of atomic hydrogen , meaning one gram of hydrogen . This number is also known as Loschmidt constant in German literature . The constant was later redefined as the number of atoms in 12 grams of the isotope carbon-</t>
+          <t>Business routes of Interstate 75 in Michigan = There have been nine business routes for Interstate 75 in the US state of Michigan . Numbered either Business Loop Interstate 75 ( BL I-75 ) or Business Spur Interstate 75 ( BS I-75 ) depending if they are a full business loop or a business spur , these highways are former routings of I-75 's predecessor highways in the state . They were designated as I-75 was completed through the various areas of Michigan . The business loop in Pontiac runs through that city 's downtown along a section of Woodward Avenue and a segment of roadway formerly used by M-24 . The former Saginaw business loop was once a part of US Highway 23 ( US 23 ) , as was most of the original Bay City business loop . The roadways that make up the business loops in West Branch and Roscommon were previously part of M-76 , I-75 's predecessor through that part of the state . In Northern Michigan , the Grayling and Gaylord BL I-75s were part of US 27 , and the two business rout</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Philosophy of science = Philosophy of science is a branch of philosophy concerned with the foundations , methods , and implications of science . The central questions of this study concern what qualifies as science , the reliability of scientific theories , and the ultimate purpose of science . This discipline overlaps with metaphysics , ontology , and epistemology , for example , when it explores the relationship between science and truth . There is no consensus among philosophers about many of the central problems concerned with the philosophy of science , including whether science can reveal the truth about unobservable things and whether scientific reasoning can be justified at all . In addition to these general questions about science as a whole , philosophers of science consider problems that apply to particular sciences ( such as biology or physics ) . Some philosophers of science also use contemporary results in science to reach conclusions about philosophy itself . While philo</t>
+          <t xml:space="preserve">Business routes of U.S. Route 127 in Michigan = There have been 10 business routes of US Highway 127 in the state of Michigan . The business routes are all sections of state trunkline highway that run through the central business districts of their respective towns connecting them to the mainline highway outside of those downtown areas . These various business routes were formerly part of the routing of US Highway 127 ( US 127 ) or its predecessor in Central Michigan , US 27 before the construction of highway bypasses . The southern two , in Jackson and Mason were previously parts of US 127 , while seven of the northern eight ( Lansing , St. Johns , Ithaca , St. Louis , Mount Pleasant , Clare and Harrison ) were originally part of US 27 , a highway which was replaced on its northern end by US 127 in 2002 . The business loop through Alma was once numbered US 27A . In the late 1920s , US 27 was shifted to run through St. Louis instead of Alma , and the former route was renumbered US 27A </t>
         </is>
       </c>
     </row>
@@ -1421,32 +1421,32 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>['glee', 'kurt', 'rachel', 'meredith', 'finn', 'episode', 'grey', 'quinn', 'anatomy', 'viewers', 'sue', 'watched', 'yang', 'club', 'grace']</t>
+          <t>['game', 'team', 'play', 'season', 'second', 'defense', 'kick', 'led', 'lead', 'week', 'half', 'record', 'end', 'football', 'field']</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ballad ( Glee ) = " Ballad " is the tenth episode of the American television series Glee . The episode premiered on the Fox network on November 18 , 2009 , and was written and directed by series creator Brad Falchuk . " Ballad " sees the glee club split into pairs to sing ballads to one another . Rachel ( Lea Michele ) is paired with club director Will ( Matthew Morrison ) and develops a crush on him . Quinn 's ( Dianna Agron ) parents learn that Quinn is pregnant , and she moves in with Finn ( Cory Monteith ) and his mother when her own parents evict her . Gregg Henry and Charlotte Ross guest-star as Quinn 's parents Russell and Judy Fabray , and Sarah Drew appears as Suzy Pepper , a student with a former crush on Will . Romy Rosemont returns as Finn 's mother , Carole Hudson . The episode features covers of seven songs , including a mash-up of " Don 't Stand So Close to Me " by The Police and " Young Girl " by Gary Puckett and The Union Gap . Studio recordings of all songs performed </t>
+          <t xml:space="preserve">1997 Michigan Wolverines football team = The 1997 Michigan Wolverines football team represented the University of Michigan in the 1997 NCAA Division I-A football season . In its third year under head coach Lloyd Carr , Michigan compiled a perfect 12 – 0 record , won the Big Ten Conference championship , defeated Washington State in the 1998 Rose Bowl , and was declared the national champion by the Associated Press and numerous other polls . The Nebraska Cornhuskers , who also went undefeated and beat Tennessee in the Orange Bowl , captured the top spot in the final Coaches ' Poll . Michigan 's defense was led by cornerback and Heisman Trophy-winner Charles Woodson . Woodson , who intercepted eight passes and also scored touchdowns via pass receptions , runs from scrimmage and punt return , became the first primarily defensive player to win the Heisman . Woodson and defensive end Glen Steele were both first-team selections on the 1997 College Football All-America Team . Other standouts </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>The Power of Madonna = " The Power of Madonna " is the fifteenth episode of the American television series Glee . The episode premiered on the Fox network on April 20 , 2010 . When cheerleading coach Sue Sylvester ( Jane Lynch ) demands that Madonna 's music be played over the school intercom system , glee club director Will Schuester ( Matthew Morrison ) sets the club a Madonna-themed assignment , hoping to empower the female club members . " The Power of Madonna " was written and directed by series creator Ryan Murphy , and serves as a musical tribute to Madonna , featuring cover versions of eight of her songs , with the singer having granted Glee the rights to her entire catalogue of music . Glee : The Music , The Power of Madonna , an album containing studio recordings of songs performed in the episode , was released on April 20 , 2010 . The episode was watched by 12.98 million American viewers , and was generally well received by critics . Tim Stack of Entertainment Weekly and Aly</t>
+          <t>2012 Alabama Crimson Tide football team = The 2012 Alabama Crimson Tide football team ( variously " Alabama " , " UA " , " Bama " or " The Tide " ) represented the University of Alabama in the 2012 National Collegiate Athletic Association ( NCAA ) Division I Football Bowl Subdivision ( FBS ) football season . It marked the Crimson Tide 's 118th overall season of playing college football , 79th as a member of the Southeastern Conference ( SEC ) and 21st within the SEC Western Division . The team was led by head coach Nick Saban , in his sixth year , and played its home games at Bryant – Denny Stadium in Tuscaloosa , Alabama . They finished the season with a record of 13 wins and 1 loss ( 13 – 1 overall , 7 – 1 in the SEC ) , as SEC champions and as consensus national champions after they defeated Notre Dame in the Bowl Championship Series ( BCS ) National Championship Game . After they captured the 2011 national championship , the Crimson Tide signed a highly rated recruiting class in F</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>The Rhodes Not Taken = " The Rhodes Not Taken " is the fifth episode of the American television series Glee . It premiered on the Fox network on September 30 , 2009 and was written by series co-creator Ian Brennan and directed by John Scott . The episode features glee club director Will Schuester ( Matthew Morrison ) recruiting former star April Rhodes ( Kristin Chenoweth ) , hoping to improve the club 's chances in the wake of Rachel 's ( Lea Michele ) defection to the school musical . Finn ( Cory Monteith ) flirts with Rachel in an attempt to convince her to return , and although Rachel is angry when she discovers Finn 's girlfriend is pregnant , she ultimately rejoins the club . Special guest star Kristin Chenoweth played April , and performed on three of the episode 's six musical tracks . Studio recordings of four of the songs performed in the episode were released as singles , available for digital download , and two appear on the album Glee : The Music , Volume 1 . The episode w</t>
+          <t>2013 Alabama Crimson Tide football team = The 2013 Alabama Crimson Tide football team ( variously " Alabama " , " UA " , " Bama " or " The Tide " ) represented the University of Alabama in the 2013 NCAA Division I FBS football season . It was the Crimson Tide 's 119th overall season , 80th as a member of the Southeastern Conference ( SEC ) and its 22nd within the SEC Western Division . The team was led by head coach Nick Saban , in his seventh year , and played its home games at Bryant – Denny Stadium in Tuscaloosa , Alabama . They finished the season with a record of eleven wins and two losses ( 11 – 2 overall , 7 – 1 in the SEC ) and with a loss in the 2014 Sugar Bowl to Oklahoma . After they captured the 2012 national championship , the Crimson Tide signed a highly rated recruiting class in February 2013 and completed spring practice the following April . With thirteen returning starters from the previous season , Alabama entered the 2013 season as the two-time defending national ch</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Laryngitis ( Glee ) = " Laryngitis " is the eighteenth episode of the American television series Glee . The episode premiered on the Fox network on May 11 , 2010 . It was directed by Alfonso Gomez-Rejon and written by series creator Ryan Murphy . In " Laryngitis " , glee club member Puck ( Mark Salling ) dates Mercedes ( Amber Riley ) in an attempt to raise his social status . Kurt ( Chris Colfer ) is jealous of the time his father is spending with Finn ( Cory Monteith ) , and Rachel ( Lea Michele ) worries about her future when she is diagnosed with tonsillitis . Mike O 'Malley guest-stars as Kurt 's father Burt , and Zack Weinstein appears as disabled former football player Sean Fretthold . The episode features cover versions of seven songs , five of which were released as singles , available for digital download , and three of which are included on the soundtrack album Glee : The Music , Volume 3 – Showstoppers . " Laryngitis " was watched by 11.57 million American viewers and recei</t>
+          <t xml:space="preserve">2009 Alabama Crimson Tide football team = The 2009 Alabama Crimson Tide football team ( variously " Alabama " , " UA " , " Bama " or " The Tide " ) represented the University of Alabama in the 2009 NCAA Division I FBS football season . It was the Crimson Tide 's 115th overall season , 76th season as a member of the Southeastern Conference ( SEC ) and its 18th within the SEC Western Division . The team was led by head coach Nick Saban , in his third year , and played their home games at Bryant – Denny Stadium in Tuscaloosa , Alabama . They finished the season undefeated with a record of 14 – 0 ( 8 – 0 in the SEC ) and as national champions . Looking to build on the successes of the 2008 campaign , Alabama entered the 2009 season as the favorite to win the Western Division and meet the Florida Gators in the 2009 SEC Championship Game . Alabama closed the regular season with a 12 – 0 record including four wins against Top 25-ranked teams — and met the Gators for the SEC Championship in a </t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Get It Right ( Glee cast song ) = " Get It Right " is a song performed by the cast of American television series Glee , taken from their sixth soundtrack album , Glee : The Music , Volume 5 . It is sung by Lea Michele who portrays the series ' lead character , Rachel Berry . The song was written by the series ' music producer Adam Anders , who created the song with his wife Nikki Hassman , and writing partner Peer Åström . Anders and company wrote the song specifically for Michele , and based the lyrics on the storyline of Rachel . The song was released with a number of Glee songs on the iTunes Store on March 15 , 2011 . Musically , " Get It Right " is a piano-driven pop ballad , with mild country influences . According to MTV 's Aly Semigran , the song has similarities to Britney Spears ' Everytime " ( 2004 ) . While critics praised Michele 's vocals in the song , they were not as receptive to the song itself with it being coined as " dull " and " boring . " The lyrics of the song rev</t>
+          <t xml:space="preserve">2001 Gator Bowl = The 2001 Gator Bowl was a post-season American college football bowl game between the Virginia Tech Hokies and the Clemson Tigers at Alltel Stadium in Jacksonville , Florida on January 1 , 2001 . The game was the final contest of the 2000 NCAA Division I-A football season for both teams , and ended in a 41 – 20 victory for Virginia Tech . Virginia Tech entered the game headed by star quarterback Michael Vick , who led the Hokies to a 10 – 1 regular-season record despite being injured for a part of the season . Clemson entered the game with a regular-season record of 9 – 2 under the command of head coach Tommy Bowden , who was in the second year of his tenure . The contest featured two high-scoring offenses that emphasized different aspects of the game . These aspects were exemplified in the game , which saw Clemson pass for more yards than Virginia Tech , while the Hokies ran for more yards than the Tigers . Virginia Tech jumped out to an early lead and maintained it </t>
         </is>
       </c>
     </row>
@@ -1456,32 +1456,32 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>['bach', 'poem', 'poems', 'shakespeare', 'poet', 'poetry', 'movement', 'ode', 'movements', 'soprano', 'text', 'alto', 'aria', 'stanza', 'narrator']</t>
+          <t>['second', 'place', 'position', 'race', 'track', 'car', 'lead', 'fifth', 'fourth', 'sixth', 'pole', 'passed', 'championship', 'ferrari', 'stop']</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Der Herr ist mein getreuer Hirt , BWV 112 = Der Herr ist mein getreuer Hirt ( The Lord is my faithful Shepherd ) , BWV 112 , is a cantata by Johann Sebastian Bach , a church cantata for the second Sunday after Easter . Bach composed the chorale cantata in Leipzig and first performed it on 8 April 1731 . It is based on the hymn by Wolfgang Meuslin , a paraphrase of Psalm 23 written in 1530 , sung to a melody by Nikolaus Decius . Bach , the Thomaskantor in Leipzig from May 1723 , composed this cantata to complete his second cantata cycle of chorale cantatas , begun in 1724 . He used the lyrics of the hymn unchanged , which reflect the psalm and Jesus as the Good Shepherd . Bach structured the work in five movements . The outer choral movements are a chorale fantasia and a four-part closing chorale , both on the hymn tune . Bach set the inner stanzas as aria – recitative – aria , with music unrelated to the hymn tune . He scored the cantata for four vocal soloists , a four-part choir and </t>
+          <t>2010 Singapore Grand Prix = The 2010 Singapore Grand Prix ( formally the 2010 Formula 1 SingTel Singapore Grand Prix ) was a Formula One motor race held on 26 September 2010 at the Marina Bay Street Circuit , Marina Bay , Singapore . It was the fifteenth race of the 2010 Formula One season , and the third Singapore Grand Prix held as part of the Formula One World Championship . The 61-lap race was won by Ferrari driver Fernando Alonso who started in pole position . Sebastian Vettel finished second for Red Bull , his teammate Mark Webber was third . Alonso held off Vettel to maintain his start line advantage on the first lap . Lewis Hamilton , who started third , fought off teammate Jenson Button to retain his start position . The top two remained the same through the first and only round of pit stops . Webber 's team , Red Bull , opted to pit him early allowing him to move ahead of Hamilton . The race was neutralised by the deployment of the safety car after Kamui Kobayashi and Bruno S</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Lobe den Herrn , meine Seele , BWV 143 = Lobe den Herrn , meine Seele ( Praise the Lord , my soul ) , BWV 143 , is an early cantata by Johann Sebastian Bach . It is not known if he composed the cantata for New Year 's Day in Mühlhausen or Weimar , as the date of composition is unclear . An unknown librettist drew mainly from Psalm 146 and from Jakob Ebert 's hymn " Du Friedefürst , Herr Jesu Christ " to develop seven movements , supplying only two of the movements himself . The text assembly is similar to Bach 's early cantatas . Bach 's authorship is doubted because the cantata has several features unusual for Bach 's later cantatas : it is the only Bach cantata to combine three corni da caccia with timpani . The cantata is in seven movements which combine the three major text sources : psalm , hymn and contemporary poetry . The opening chorus is based on a psalm verse , followed by the first hymn stanza and another psalm verse as a recitative . An aria on poetry is followed by a thir</t>
+          <t>2010 Korean Grand Prix = The 2010 Korean Grand Prix ( formally the 2010 Formula 1 Korean Grand Prix ) was a Formula One motor race held on 24 October 2010 at the Korea International Circuit in Yeongam , South Jeolla , South Korea . It was the seventeenth round of the 2010 Formula One season and the first Korean Grand Prix . The 55-lap race was won by Ferrari driver Fernando Alonso , who started from third position . Lewis Hamilton finished second for McLaren and Alonso 's teammate Felipe Massa was third . The race began behind the safety car but was stopped after three laps because of a large amount of standing water on the circuit . After a 45-minute delay , the race was restarted and the safety car pulled into the pit lane after thirteen laps . Pole sitter Sebastian Vettel maintained his lead going into the first corner . A second safety car deployment caused by the collision of Mark Webber and Nico Rosberg on lap nineteen closed up the field but Vettel retained the lead . Alonso mai</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Ach Gott , wie manches Herzeleid , BWV 3 = Ach Gott , wie manches Herzeleid ( Oh God , how much heartache ) , BWV 3 , is a church cantata by Johann Sebastian Bach . He composed the chorale cantata in Leipzig for the Second Sunday after Epiphany and first performed it on 14 January 1725 . It is based on the hymn published by Martin Moller in 1587 . Bach composed the cantata in his second year as Thomaskantor in Leipzig as part of cantata cycle of chorale cantatas , for the second Sunday after Epiphany . The work is based on a hymn without evident connection to the prescribed readings . It is a meditation on Jesus as a comforter in distress , based on a medieval model . An unknown librettist reworked the ideas of the 18 stanzas in six movements , retaining the words of stanzas 1 , 2 and 18 as movements 1 , 2 and 6 . Similarly , Bach retained the choral melody in three movements , set as a chorale fantasia in the opening chorus with the bass singing the cantus firmus , as a four-part sett</t>
+          <t>2001 German Grand Prix = The 2001 German Grand Prix ( formally the LXIII Großer Mobil 1 Preis von Deutschland ) was a Formula One motor race held on 29 July 2001 at the Hockenheimring , Baden-Württemberg , Germany . It was the twelfth round of the 2001 Formula One season and the 63rd German Grand Prix . The 45-lap race was won by Williams driver Ralf Schumacher after starting from the second position . Rubens Barrichello finished second for Ferrari with BAR driver Jacques Villeneuve third . Juan Pablo Montoya started from pole position alongside Ralf Schumacher . Michael Schumacher , the eventual Drivers ' Champion started fourth , behind Mika Häkkinen of McLaren . The race was marked by an airborne accident going into the first corner involving Michael Schumacher and Luciano Burti for Prost , which caused the track to be scattered with shreds of carbon fibre and the race restarted as a result . Both Williams drivers retained their positions at the end of the first lap , with Michael S</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Unser Mund sei voll Lachens , BWV 110 = Unser Mund sei voll Lachens ( May our mouth be full of laughter ) , BWV 110 , is a church cantata by Johann Sebastian Bach . He composed the Christmas cantata in Leipzig for Christmas Day and first performed it on 25 December 1725 . Bach composed the cantata in his third year as Thomaskantor in Leipzig . He used a text by Georg Christian Lehms , which was published already in 1711 . The text has no recitatives alternating with arias , but instead three biblical quotations , opening with verses from Psalm 26 , then a verse from the Book of Jeremiah about God 's greatness , and finally the angels ' song from the Nativity according to the Gospel of Luke . The closing chorale is taken from Caspar Füger 's " Wir Christenleut " . Bach scored the work festively for four vocal soloists , a four-part choir and a Baroque instrumental ensemble of trumpets and timpani , transverse flutes , different kinds of oboe , strings and basso continuo including bassoo</t>
+          <t>1995 British Grand Prix = The 1995 British Grand Prix ( formally the XLVIII British Grand Prix ) was a Formula One motor race held on 16 July 1995 at Silverstone Circuit , Silverstone , Northamptonshire , England . It was the eighth round of the 1995 Formula One season . The 61-lap race was won by Johnny Herbert for the Benetton team after he started from fifth position . Jean Alesi finished second in a Ferrari , with David Coulthard third in a Williams car . The remaining points-scoring positions were filled by Olivier Panis ( Ligier ) , Mark Blundell ( McLaren ) and Heinz-Harald Frentzen ( Sauber ) . Herbert 's victory was his first in Formula One , and the Benetton team 's fifth of the season . The race was dominated , however , by the fight between World Drivers ' Championship protagonists , Michael Schumacher ( Benetton ) and Damon Hill ( Williams ) . Hill , who started from a pole position achieved during qualifying sessions held in variable weather conditions , retained his lead</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Nach dir , Herr , verlanget mich , BWV 150 = Nach dir , Herr , verlanget mich ( For Thee , O Lord , I long ) , BWV 150 , is an early church cantata by Johann Sebastian Bach composed for an unknown occasion . It is unique among Bach 's cantatas in its sparse orchestration and in the independence and prominence of the chorus , which is featured in four out of seven movements . The text alternates verses from Psalm 25 and poetry by an unknown librettist . Bach scored the work for four vocal parts and a small Baroque instrumental ensemble of two violins , bassoon and basso continuo . Many scholars think that it may be the earliest extant cantata by Bach , possibly composed in Arnstadt in 1707 . = = History and text = = Bach 's original score is lost . The music survives in a copy made by C F Penzel , one of Bach 's last pupils , after the composer 's death . Although the date of composition is not known , this is one of Bach 's earliest surviving cantatas . Sources differ as to when and wh</t>
+          <t>2006 Bank of America 500 = The 2006 Bank of America 500 was the 31st stock car race of the 2006 NASCAR Nextel Cup Series and the fifth in the ten-race season-ending Chase for the Nextel Cup . It was held on October 14 , 2006 , before a crowd of 175,000 in Concord , North Carolina , at Lowe 's Motor Speedway , one of ten intermediate tracks to hold NASCAR races . The 334-lap race was won by Kasey Kahne of the Evernham Motorsports team , who started from second position . Jimmie Johnson finished second and Jeff Burton came in third . Although Scott Riggs won the pole position , he was immediately passed by teammate Kahne at the start of the race . Riggs regained the lap twelve laps later , only to lose it to Tony Raines on the 19th lap . Riggs retook the lead on lap 31 and maintained it for the following sixteen laps , until he was passed by Dale Earnhardt , Jr. who led the next 31 laps . Kahne moved back into the first position on lap 96 , with Raines moving back into the lead on the 12</t>
         </is>
       </c>
     </row>
@@ -1491,32 +1491,32 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>['wickets', 'innings', 'test', 'cricket', 'wicket', 'runs', 'matches', 'australia', 'england', 'scored', 'bowling', 'match', 'bowled', 'overs', 'miller']</t>
+          <t>['episode', 'viewers', 'glee', 'club', 'watched', 'relationship', 'finn', 'rating', 'rachel', 'character', 'tells', 'kurt', 'storyline', 'share', 'demographic']</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Munir Malik = Munir Malik ( Urdu : منيرملک ; 10 July 1934 – 30 November 2012 ) was a Pakistani cricketer who played three Tests for Pakistan between 1959 and 1962 . A right-arm fast-medium bowler , he took nine wickets in Test cricket at an average of 39.77 , including a five-wicket haul against England . During his first-class career , he took 197 wickets at the average of 21.75 . = = First-class career = = Malik played 49 first-class matches for Karachi , Punjab , Rawalpindi and Services teams during 1956 – 66 . During his first-class career , he achieved five or more wickets in an innings on fourteen occasions , and ten or more wickets in a match four times . Malik made his first-class debut for Punjab B during the Quaid-e-Azam Trophy , against Bahawalpur in 1956 – 57 . He finished the season taking 13 wickets at an average of 8.30 . His 5 wickets for 19 runs for Punjab B , against Punjab , was his best performance in the season . Malik played three matches during 1957 – 58 and his </t>
+          <t>I Am Unicorn = " I Am Unicorn " is the second episode of the third season of the American musical television series Glee , and the forty-sixth overall . The episode was written by series co-creator Ryan Murphy , directed by series co-creator Brad Falchuk , and first aired on September 27 , 2011 on Fox in the United States . It features the return of Shelby Corcoran ( Idina Menzel ) to the show to direct a rival glee club at William McKinley High even while New Directions , the current club , is having trouble recruiting members . Shelby also wants Quinn ( Dianna Agron ) and Puck ( Mark Salling ) , the biological parents of her adopted daughter Beth , to be a part of Beth 's life . The director of New Directions , Will Schuester ( Matthew Morrison ) sets up a " booty camp " for the less capable dancers in the club , and auditions for the school musical , West Side Story , begin . The episode received mostly positive reviews , which ranged from okay to fabulous , with approval being give</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Alimuddin ( cricketer ) = Alimuddin ( Urdu : علیم الدین ; 15 December 1930 – 12 July 2012 ) was a Pakistani cricketer who played 25 Tests for Pakistan between 1954 and 1962 . A fast-scoring , right-handed opening batsman and occasional right-arm leg break bowler , he was the youngest player ever to appear in first-class cricket , aged 12 years and 73 days . In international cricket , he scored 1,091 runs at the average of 25.37 , including two centuries and seven fifties . In 1954 , he was a member of the Pakistani squad which toured England and recorded Pakistan 's first Test match win . Former Pakistani captain Mushtaq Mohammad said about him that he was " a thorough gentleman as well as a great cricketer for Pakistan " . = = First-class career = = During his career Alimuddin played 140 first-class matches and scored 7,275 runs , with the average of 32.77 , including 14 centuries and 38 fifties ; he also took 40 wickets . Critics considered him to be an excellent fielder . He made hi</t>
+          <t>Furt = " Furt " is the eighth episode of the second season of the American musical television series Glee , and the thirtieth episode overall . It was written by series creator Ryan Murphy , directed by Carol Banker , and premiered on Fox in the United States on November 23 , 2010 . The episode features a guest appearance by actress Carol Burnett as a Nazi hunter and mother of cheerleading coach Sue Sylvester ( Jane Lynch ) , who shows up for the first time in years , just in time to attend Sue 's wedding to herself . The long-anticipated wedding of Burt Hummel ( Mike O 'Malley ) and Carole Hudson ( Romy Rosemont ) is also featured , and the bullying storyline reaches a climax that results in Kurt ( Chris Colfer ) transferring from McKinley High to Dalton Academy at the end of the episode . The episode features covers of four songs ; they received generally favorable reviews . Three were featured during the Hummel – Hudson wedding sequence , and the two songs by Bruno Mars , " Marry Yo</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1889 – 90 Currie Cup = The 1889 – 90 Currie Cup was the inaugural edition of the Currie Cup , the premier first-class cricket tournament in South Africa . The 1889 – 90 competition involved just two teams , Transvaal and Kimberley . The two sides played a single , three-day match , which was won by Transvaal by six wickets . Both sides made low scores in their first innings ; Kimberley , who had opted to bat first , were dismissed for 98 runs , and in their reply Transvaal reached 117 , a lead of just 19 runs . In the second innings , they both fared better ; a century from Bernard Tancred helped Kimberley to a total of 235 , but Transvaal reached their total in 38 five-ball overs , helped by a century from Monty Bowden . = = Background = = First-class cricket was first played in South Africa in the previous 1888 – 89 season , when Robert Warton managed a side which toured the country , playing against representative teams from each of the provinces , and two matches against South Afri</t>
+          <t>Props ( Glee ) = " Props " is the twentieth episode of the third season of the American musical television series Glee , and the sixty-fourth overall . Written and directed by Ian Brennan , the episode is the first of two new episodes that aired back-to-back on Fox in the United States on May 15 , 2012 . It features New Directions preparing a new performance routine for the impending Nationals competition , an extended sequence in which Tina ( Jenna Ushkowitz ) has a vision of the glee club having swapped roles , including herself as Rachel , and an appearance by special guest star Whoopi Goldberg as NYADA dean Carmen Tibideaux . The episode received mostly positive reviews overall , though reaction to the musical performances was not as strong . The body-swap sequence was given an enthusiastic reception . The scenes featuring Coach Beiste ( Dot-Marie Jones ) and Puck ( Mark Salling ) were also much praised , and in particular the pair 's acting was highlighted . Their performance of t</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Maurice Fernandes = Maurius Pacheco " Maurice " Fernandes , ( 12 August 1897 – 8 May 1981 ) was a West Indian Test cricketer who played first-class cricket for British Guiana between 1922 and 1932 . He made two Test appearances for the West Indies , in 1928 and 1930 . Fernandes played as a right-handed top-order batsman and occasional wicket-keeper . He scored 2,087 first-class runs in 46 appearances at an average of 28.20 . Graduating from playing at the Demerara Cricket Club as a teenager , to play for British Guiana in 1922 , Fernandes took part in tours of England in 1923 and 1928 . He made his debut Test appearance during the 1928 tour , playing in the first of the three Tests . His next , and final Test match came during the English tour of the West Indies in 1930 . At the time , the West Indies had a practice of picking their captain from the colony that the match was being played in , and Fernandes was granted the honour for the match in British Guiana . The West Indies won the</t>
+          <t>Audition ( Glee ) = " Audition " is the second season premiere and twenty-third episode overall of the American television series Glee . The episode was written by Ian Brennan , directed by Brad Falchuk , and premiered on the Fox network on September 21 , 2010 . In " Audition " , the glee club members attempt to attract new recruits , including foreign exchange student Sunshine Corazon ( Charice ) and transfer student Sam Evans ( Chord Overstreet ) . A new football coach , Shannon Beiste ( Dot-Marie Jones ) , arrives at McKinley High , and school blogger Jacob Ben Israel ( Josh Sussman ) provides updates on the glee club 's summer break . The episode features eight musical and dance performances , five of which were released as singles , available for download . Musical performances attracted mixed reviews from critics . Lea Michele 's rendition of " What I Did for Love " from A Chorus Line was described by Robert Bianco of USA Today as putting " every amateur musical performance on ev</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Haseeb Ahsan = Haseeb Ahsan ( Urdu : حسيب احسن ; 15 July 1939 – 8 March 2013 ) was a Pakistani cricketer who played 12 Tests for Pakistan between 1958 and 1962 . He was born in Peshawar , Khyber Pakhtunkhwa . A right-arm off spinner , he took 27 wickets in Test cricket at an average of 49.25 , including two five-wicket hauls . During his first-class career , he played 49 matches and took 142 wickets at an average of 27.71 . Former Pakistan cricketer Waqar Hasan said about him that he " was a fighter to the core and served Pakistan cricket with honour and dignity . " Ahsan had conflicts with former Pakistan captain Javed Burki . A controversy regarding his bowling action resulted in the premature end of his international career when he was only 23 . He worked as chief selector , team manager of Pakistan , and member of the 1987 Cricket World Cup organising committee . He died in Karachi on 8 March 2013 , aged 73 . = = Cricketing career = = Ahsan played 49 first-class matches for Pakista</t>
+          <t xml:space="preserve">The Substitute ( Glee ) = " The Substitute " is the seventh episode of the second season of the American television series Glee , and the twenty-ninth episode overall . It was written by Ian Brennan , directed by Ryan Murphy , and premiered on Fox on November 16 , 2010 . The episode guest stars Gwyneth Paltrow as Holly Holliday , a substitute teacher who takes the place of glee club director Will Schuester ( Matthew Morrison ) while he is ill . Cheerleading coach Sue Sylvester ( Jane Lynch ) becomes principal of William McKinley High School , and glee club members Mercedes Jones ( Amber Riley ) and Kurt Hummel ( Chris Colfer ) experience tension in their friendship . The episode features cover versions of six songs , which received mixed reviews from critics . While the Glee cover of Cee Lo Green 's " Forget You " and mash-up of " Singin ' in the Rain " with Rihanna 's " Umbrella " attracted critical praise and charted both on the Billboard Hot 100 and internationally , the episode 's </t>
         </is>
       </c>
     </row>
@@ -1526,32 +1526,32 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>['hitler', 'holocaust', 'physics', 'jews', 'nazi', 'nuclear', 'germany', 'manhattan_project', 'atomic', 'berlin', 'jewish', 'nobel', 'german', 'munich', 'research']</t>
+          <t>['time', 'year', 'world', 'won', 'games', 'record', 'team', 'years', 'title', 'season', 'final', 'second', 'player', 'win', 'best']</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Henry DeWolf Smyth = Henry DeWolf " Harry " Smyth ( / ˈhɛnri dəˈwʊlf ˈsmaɪθ / ; May 1 , 1898 – September 11 , 1986 ) was an American physicist , diplomat , and bureaucrat . He played a number of key roles in the early development of nuclear energy , as a participant in the Manhattan Project , a member of the U.S. Atomic Energy Commission ( AEC ) , and U.S. ambassador to the International Atomic Energy Agency ( IAEA ) . Educated at Princeton University and the University of Cambridge , he was a faculty member in Princeton 's Department of Physics from 1924 to 1966 . He chaired the department from 1935 to 1949 . His early research was on the ionization of gases , but his interests shifted toward nuclear physics beginning in the mid-1930s . During World War II he was a member of the National Defense Research Committee 's Uranium Section and a consultant on the Manhattan Project . He wrote the Manhattan Project 's first public official history , which came to be known as the Smyth Report .</t>
+          <t xml:space="preserve">Big Four ( tennis ) = In tennis , the term Big Four refers to the quartet of men 's singles players Roger Federer , Rafael Nadal , Novak Djokovic , and Andy Murray . They reigned as the four best players in the world every season from 2008 – 2016 . These players were considered dominant in terms of ranking and tournament victories , including Grand Slam tournaments and ATP Masters 1000 events , as well as the ATP World Tour Finals and Olympic Games . Federer was the first to come to prominence after winning Wimbledon in 2003 and established himself as the world No. 1 by the beginning of 2004 . Nadal followed in 2005 after a French Open triumph including a win over Federer , and they occupied the top two places in the ATP rankings for 211 consecutive weeks from July 2005 to August 2009 . Djokovic , from 2007 , and later Murray , from 2009 , increasingly challenged Federer 's and Nadal 's dominance with seasonal consistency : Djokovic captured three of the four major tournaments in 2011 </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">George T. Reynolds = George Thomas Reynolds ( May 27 , 1917 – April 19 , 2005 ) was an American physicist best known for his accomplishments in particle physics , biophysics and environmental science . Reynolds received his PhD in physics from Princeton in 1943 , writing a thesis of the propagation of shock waves . During World War II , he joined the United States Navy , and served with the Manhattan Project . He worked with George Kistiakowsky on the design of the explosive lenses required by the implosion-type nuclear weapon . He was involved in the investigation of the Port Chicago disaster , served with Project Alberta on Tinian , and was part of the Manhattan Project team sent to Hiroshima and Nagasaki to inspect the bomb damage . After the war , Reynolds began a long academic career at Princeton University . He was director of the Princeton 's High Energy Physics Program from 1948 until 1970 , when he became the first director of Princeton 's new Center for Environmental Studies </t>
+          <t xml:space="preserve">Andy Murray = Andrew Barron " Andy " Murray , OBE ( born 15 May 1987 ) is a Scottish professional tennis player currently ranked world No. 2 in singles . Murray represents Great Britain in his sporting activities and is a three-time Grand Slam tournament winner , Olympic champion and Davis Cup champion . His elder brother is former world No. 1 doubles player Jamie Murray . Murray has reached at least the quarterfinals of all Grand Slam tournaments he has participated in since 2011 , with the exception of the 2015 US Open . He was first ranked as British No. 1 on 27 February 2006 . He achieved a top-10 ranking by the ATP for the first time on 16 April 2007 , and reached a career peak of world No. 2 on 17 August 2009 . Murray is the 2012 Olympic Gold Medalist , having defeated Roger Federer to become the first British singles champion in over 100 years . He won a silver medal in the 2012 mixed doubles with Laura Robson . At the 2012 US Open , Murray became the first British player since </t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Julius Schreck = Julius Schreck ( 13 July 1898 – 16 May 1936 ) was a senior Nazi official and close confidant of Adolf Hitler . Born on 13 July 1898 in Munich , Schreck served in World War I and shortly afterwards joined right-wing paramilitary units . He joined the Nazi Party in 1920 and developed a close friendship with Adolf Hitler . Schreck was a founding member of the Sturmabteilung ( " Storm Department " ; SA ) and was active in its development . Later in 1925 , he became the first leader of the Schutzstaffel ( " Protection Squadron " ; SS ) . He then served for a time as a chauffeur for Hitler . Schreck developed meningitis in 1936 and died on 16 May . Hitler gave him a state funeral which was attended by several members of the Nazi elite with Hitler delivering the eulogy . = = Early life = = Julius Schreck was born on 13 July 1898 in Munich , a largely Catholic city in Bavaria . He served in the German Army during World War I. After the war ended in November 1918 , he became a </t>
+          <t>Roger Federer = Roger Federer ( German : [ ˈfeːdərər ] born 8 August 1981 ) is a Swiss professional tennis player who is currently ranked world No. 3 by the Association of Tennis Professionals ( ATP ) . His accomplishments in professional tennis have led to him being regarded by many as the greatest tennis player of all time . Federer turned professional in 1998 and has been continuously ranked in the top 10 since October 2002 . Federer holds several records of the Open Era : holding the world No. 1 position for 302 weeks ( including 237 consecutive weeks ) ; winning 17 Grand Slam singles titles ; reaching each Grand Slam final at least five times ( an all-time record ) ; and reaching the Wimbledon final ten times . He is among the eight men ( and among the five in Open Era ) to capture a career Grand Slam . Federer shares an Open Era record for most titles at Wimbledon with Pete Sampras ( seven ) and at the US Open with Jimmy Connors and Sampras ( five ) . He is the only male player t</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Robert Brode = Robert Bigham Brode ( June 12 , 1900 – February 19 , 1986 ) was an American physicist , who during World War II led the group at the Manhattan Project 's Los Alamos laboratory that developed the fuses used in the atomic bombing of Hiroshima and Nagasaki . A graduate of the California Institute of Technology , where he earned his doctorate in 1924 , Brode attended Oxford University on a Rhodes Scholarship and the University of Göttingen on a National Research Council Fellowship . During World War II , Brode worked at Applied Physics Laboratory at Johns Hopkins University , where he helped develop the proximity fuse , and then as a group leader at the Los Alamos Laboratory . In 1950 he was one of a dozen prominent scientists who petitioned President Harry S. Truman to declare that the United States would never be the first to use the hydrogen bomb . After the war , Brode returned to teaching at Berkeley . Between 1930 and 1957 he supervised 37 graduate students . In additi</t>
+          <t>Usain Bolt = Usain St. Leo Bolt , OJ , CD ( / ˈjuːseɪn / ; born 21 August 1986 ) , is a Jamaican sprinter . Regarded as the fastest person ever timed , he is the first man to hold both the 100 metres and 200 metres world records since fully automatic time measurements became mandatory in 1977 . Along with his teammates , he also set the world record in the 4 × 100 metres relay . He is the reigning Olympic champion in these three events , and the first man at the modern Olympic Games to win six gold medals in sprinting , and an eleven-time World champion . He was the first in the modern Olympics era to achieve the " double double " of winning 100 m and 200 m titles at consecutive games ( 2008 and 2012 ) , and topped this through the first " double triple " ( including 4 × 100 m relays ) . Although gaining worldwide popularity for a sprint double victory at the Beijing Games , Bolt has had more victories as a 200 m runner . While he had not won any significant 100 m title prior to the 20</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Sexuality of Adolf Hitler = Adolf Hitler 's sexuality has long been a matter of historical and scholarly debate . There is evidence that he had romantic encounters with a number of women during his lifetime , as well as evidence of his antipathy to homosexuality , and no evidence of homosexual encounters . His name has been linked to a number of possible female lovers , two of whom committed suicide . Another died of complications eight years after a suicide attempt , and one made a failed suicide attempt . Hitler created a public image as a celibate man without a domestic life , dedicated entirely to his political mission and the nation . His relationship with Eva Braun , which lasted nearly 14 years , was hidden from the public and all but his inner circle . Braun biographer Heike Görtemaker notes that the couple enjoyed a normal sex life . Hitler and Braun married in late April 1945 , less than 40 hours before committing suicide together . Two wartime reports by the Allies attempted</t>
+          <t>Svetlana Kuznetsova = Svetlana Aleksandrovna Kuznetsova ( Russian : Светла ́ на Алекса ́ ндровна Кузнецо ́ ва ; IPA : [ svʲɪtˈlanə ɐlʲɪkˈsandrəvnə kʊznʲɪˈtsovə ] ; born 27 June 1985 ) is a Russian professional tennis player . Kuznetsova has appeared in four Grand Slam singles finals , winning two , and has also appeared in seven doubles finals , winning twice . As a doubles player , Kuznetsova has reached the finals of each Grand Slam at least once , winning the Australian Open twice . She has qualified five times for the round-robin stage of the WTA Tour Championships but has never reached the semifinals . Born to an athletic family , Kuznetsova moved at the age of seven to Spain to attend the Sanchez-Casal Academy . In 2001 she first took part on a WTA tournament , the Madrid Open , and a year later won her first WTA title at the Nordea Nordic Light Open in Helsinki , Finland . Her first appearance in a Grand Slam was at the 2002 Australian Open and her first Grand Slam title came at</t>
         </is>
       </c>
     </row>
@@ -1561,32 +1561,32 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>['ride', 'coaster', 'roller', 'riders', 'train', 'flags', 'coasters', 'park', 'cedar', 'lift', 'attraction', 'drop', 'queue', 'trains', 'rides']</t>
+          <t>['game', 'player', 'mario', 'mega', 'gameplay', 'graphics', 'praised', 'enemies', 'players', 'ign', 'controls', 'gaming', 'sonic', 'arcade', 'console']</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Floorless Coaster = A Floorless Coaster is a type of steel roller coaster manufactured by Bolliger &amp; Mabillard where riders sit with no floor underneath them allowing their feet to swing freely just above the track . Development of the Floorless Coaster began between 1995 and 1996 with Medusa ( now known as Bizarro ) at Six Flags Great Adventure opening on April 2 , 1999 , making it the world 's first Floorless Coaster . Floorless Coasters also tend to have 3 to 7 inversions incorporated in the layout of the coaster . Recently , Bolliger &amp; Mabillard have used floorless trains on their Dive Coasters , such as Griffon and SheiKra . Though they contain floorless trains , the coasters are still not considered Floorless Coasters as B &amp; M classifies them as another model . Also , Maurer Söhne have designed their own version of the Floorless Coaster , a variant of their X-Car called X-Car Floorless , but currently do not have any installations . = = History = = According to Walter Bolliger , </t>
+          <t>Super Mario Land = Super Mario Land is a 1989 side-scrolling platform video game , the first in the Super Mario Land series , developed and published by Nintendo as a launch title for their Game Boy handheld game console . In gameplay similar to that of the 1985 Super Mario Bros. , but resized for the smaller device 's screen , the player advances Mario to the end of 12 levels by moving to the right and jumping across platforms to avoid enemies and pitfalls . Unlike other Mario games , Super Mario Land is set in Sarasaland , a new environment depicted in line art , and Mario pursues Princess Daisy . The game introduces two Gradius-style shooter levels . At Nintendo CEO Hiroshi Yamauchi 's request , Game Boy creator Gunpei Yokoi 's Nintendo R &amp; D1 developed a Mario game to sell the new console . It was the first portable version of Mario and the first to be made without Mario creator and Yokoi protégé Shigeru Miyamoto . Accordingly , the development team shrunk Mario gameplay elements f</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Wing Coaster = A Wing Coaster is a type of steel roller coaster manufactured by Bolliger &amp; Mabillard where pairs of riders sit on either side of a roller coaster track in which nothing is above or below the riders . Development of the Wing Coaster began between 2007 and 2008 leading to the opening of Raptor at Gardaland , the world 's first Wing Coaster , on 1 April 2011 . There are currently eight Wing Coasters operating worldwide . = = History = = According to Walter Bolliger , development of the Wing Coaster began between 2007 and 2008 . In 2010 , Bolliger &amp; Mabillard announced a prototype Wing Coaster design that would be built at Merlin Entertainments ' Gardaland . It became known as Raptor , which opened on 1 April 2011 . A year later , Merlin Entertainments opened a second Wing Coaster on 15 March 2012 , called The Swarm at Thorpe Park . In the United States , the first Wing Coaster to be announced was X-Flight , which opened at Six Flags Great America on 16 May 2012 . Dollywood</t>
+          <t>Paper Mario = Paper Mario , known in Japanese as Mario Story ( マリオストーリー , Mario Sutōrī ) and originally known as Super Mario RPG 2 , is a role-playing video game developed by Intelligent Systems and published by Nintendo for the Nintendo 64 game console . It was first released in Japan on August 11 , 2000 , in North America on February 5 , 2001 , and in Europe and Australia on October 5 , 2001 . Paper Mario was re-released for Nintendo 's Wii Virtual Console in July 2007 as well as Wii U Virtual Console in 2015 . Paper Mario is set in the Mushroom Kingdom as the protagonist Mario tries to rescue Princess Peach from Bowser , who has imprisoned the seven " Star Spirits " , lifted her castle into the sky and has successfully defeated his foe after stealing the Star Rod from Star Haven and making himself invulnerable to any attacks . To save Mushroom Kingdom , rescue Peach , get the castle back , and defeat Bowser , Mario must locate the Star Spirits , who can negate the effects of the sto</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Dive Coaster = The Dive Coaster is a steel roller coaster manufactured by Bolliger &amp; Mabillard where riders experience a moment of free-falling with at least one 90-degree drop . Unlike other roller coasters where the lift hill takes the train directly to the first drop , a Dive Coaster lift hill leads to a flat section of track followed by a holding brake which stops the train just as it enters the vertical drop . After a few seconds , the train is released into the drop . Development of the Dive Coaster began between 1994 and 1995 with Oblivion at Alton Towers opening on March 14 , 1998 , making it the world 's first Dive Coaster . The trains for this type of coaster are relatively short consisting of two to three cars . Bolliger &amp; Mabillard have recently begun to also use floorless trains on this model to enhance the experience . As of May 2016 , ten Dive Coasters have been built , with the newest being Valravn at Cedar Point . = = History = = According to Walter Bolliger , developm</t>
+          <t>Super Punch-Out ! ! = Super Punch-Out ! ! ( スーパーパンチアウト ！ ！ , Sūpā Panchi-Auto ! ! ) is a boxing video game developed and published by Nintendo for the SNES . It was released on September 14 , 1994 in North America and again in the same region in 1996 . It was released in Europe on January 26 , 1995 for the same console and in Japan in 1998 for the Nintendo Power flash RAM cartridge series and the Super Famicom . The game was released for the Wii 's Virtual Console in Europe on March 20 , 2009 , in North America on March 30 , 2009 , and in Japan on July 7 , 2009 . The game was also released on the New Nintendo 3ds eShop on May 5 , 2016 . It is the fourth game in the Punch-Out ! ! series , taking place after the Punch-Out ! ! game for the NES . In Super Punch-Out ! ! the player controls Little Mac , as he fights his way to become the World Video Boxing Association champion . Players , fighting from a " behind the back " perspective , must knockout their opponent in three minutes to win .</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Outlaw Run = Outlaw Run is a wooden roller coaster located at the Silver Dollar City amusement park in Branson , Missouri . The ride was the first wooden roller coaster manufactured by Rocky Mountain Construction and the first wooden roller coaster with multiple inversions , in which riders are turned upside-down and then back upright . The 2,937-foot-long ( 895 m ) ride features three inversions and a top speed of 68 miles per hour ( 109 km / h ) , making Outlaw Run the fourth-fastest wooden roller coaster in the world . The 162-foot-tall ( 49 m ) first drop of the ride is the second steepest in the world among wooden roller coasters , at 81 ° beyond horizontal . Planning for Outlaw Run began in 2009 , three years before its official announcement in August 2012 . Rocky Mountain Construction were contracted to manufacture the ride as their proposal best suited Silver Dollar City 's available space and budget . The ride 's track layout was designed by Alan Schilke . Outlaw Run opened to</t>
+          <t>Metroid Prime Pinball = Metroid Prime Pinball is a pinball video game themed after the Metroid series . The game uses the graphical style and various story elements from Metroid Prime . It was developed by Fuse Games for the Nintendo DS handheld game console , and released by Nintendo in North America and Australia in 2005 , in Japan in 2006 , and in Europe in 2007 . Metroid Prime Pinball uses the basic mechanics of pinball , along with typical pinball items . New mechanics are introduced , such as wall jumping and the ability to fire weapons . The Nintendo DS 's touchscreen can be nudged with a finger to alter the pinball 's trajectory while in motion . The initial idea for a video game that presented the Metroid series in a pinball setting came to Kensuke Tanabe after he learned that Fuse Games had previously worked on Mario Pinball Land , another pinball video game . Recalling that the series ' protagonist , Samus , can morph into a ball , Tanabe was convinced that the Metroid unive</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Superman : Escape from Krypton = Superman : Escape from Krypton ( originally known as Superman : The Escape ) is a steel shuttle roller coaster located at Six Flags Magic Mountain in Valencia , California . When it opened in 1997 , it was the tallest roller coaster in the world , and its speed of 100 mph ( 160 km / h ) was tied for the fastest with Tower of Terror II , a similar roller coaster which opened two months earlier at Dreamworld in Australia . These two coasters were the first to utilize Linear Synchronous Motor ( LSM ) technology to propel vehicles to top speed . The park originally intended to open the ride in 1996 , but the opening was delayed because of several issues with the launch system . The ride was closed in late 2010 for refurbishment , and it emerged in 2011 as " Superman : Escape from Krypton " . The refurbished ride featured new trains which face backward , and it was painted with a new color scheme . As of 2013 , Superman : Escape from Krypton has the third-ta</t>
+          <t>Mario &amp; Luigi : Superstar Saga = Mario &amp; Luigi : Superstar Saga , known in Japan as Mario &amp; Luigi RPG ( マリオ ＆ ルイージRPG , Mario ando Ruīji Aru Pī Jī ) , is a role-playing video game developed by AlphaDream and published by Nintendo for the Game Boy Advance in 2003 . The first game in the Mario &amp; Luigi RPG series , Superstar Saga was followed by four sequels : Mario &amp; Luigi : Partners in Time and Mario &amp; Luigi : Bowser 's Inside Story for the Nintendo DS , Mario &amp; Luigi : Dream Team for the Nintendo 3DS and Mario &amp; Luigi : Paper Jam also for the Nintendo 3DS . The game was later re-released for the Wii U Virtual Console on the Nintendo eShop in 2014 . The setting of the game begins in the Mushroom Kingdom , but progresses to the Beanbean Kingdom for the majority of the game . In the game , Mario and Luigi combat Cackletta , the primary antagonist . The quest begins when Cackletta , with the aid of her assistant Fawful , steals Princess Peach 's voice after adopting the guise of an ambassa</t>
         </is>
       </c>
     </row>
@@ -1596,32 +1596,32 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>['chicken', 'cheese', 'fried', 'sandwich', 'wine', 'dishes', 'recipes', 'dish', 'cream', 'cuisine', 'cooking', 'food', 'ingredients', 'bacon', 'meat']</t>
+          <t>['series', 'character', 'television', 'season', 'episodes', 'episode', 'characters', 'story', 'cast', 'dvd', 'aired', 'doctor', 'viewers', 'producer', 'seasons']</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Beurre Maître d 'Hôtel = Beurre Maître d 'Hôtel , also referred to as Maître d 'Hôtel butter , is a type of compound butter ( French : " Beurre composé " ) of French origin , prepared with butter , parsley , lemon juice , salt and pepper . It is a savory butter that is used on meats such as steak ( including the chateaubriand sauce for chateaubriand steak ) , fish , vegetables and other foods . It may be used in place of a sauce , and can significantly enhance a dish 's flavor . Some variations with a sweet flavor exist . It is usually served cold as sliced disks on foods , and is sometimes served as a side condiment . = = Etymology = = The name of Beurre Maître d 'Hôtel is derived from the manner in which it was commonly prepared from scratch by a restaurant 's maître d 'hôtel at diners ' tables . It is also referred to as Maître d 'Hôtel butter . = = Preparation = = Beurre Maître d 'Hôtel is a savory butter prepared by mixing softened butter with very finely minced parsley , lemon ju</t>
+          <t>Doctor Who ( series 5 ) = The fifth series of British science fiction television programme Doctor Who began on 3 April 2010 with " The Eleventh Hour " and ended with " The Big Bang " on 26 June 2010 . The series was led by head writer and executive producer Steven Moffat , who took over after Russell T Davies , who ended his involvement with the show after The End of Time . The series comprises 13 episodes , six of which Moffat wrote . Piers Wenger and Beth Willis served with Moffat as executive producers , while Tracie Simpson and Peter Bennett served as producers . Though it is the fifth series since the show 's revival in 2005 and the thirty-first since it began in 1963 , the largely new production team led to the series production codes being reset . This is the first series to feature Matt Smith as the eleventh incarnation of the Doctor , an alien Time Lord who travels through time and space in his TARDIS , which appears to be a British police box on the outside . It also introduc</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Applesauce cake = Applesauce cake is a dessert cake prepared using apple sauce , flour and sugar as primary ingredients . Various spices are typically used , and it tends to be a moist cake . Applesauce cake prepared with chunky-style apple sauce may be less moist . Several additional ingredients may also be used in its preparation , and it is sometimes prepared and served as a coffee cake . The cake dates back to early colonial times in the United States . National Applesauce Cake Day occurs annually on June 6 in the U.S. = = History = = The preparation of applesauce cake dates back to early colonial times in the New England Colonies of the northeastern United States . From 1900 to the 1950s , recipes for applesauce cake frequently appeared in American cookbooks . In the United States , National Applesauce Cake Day occurs annually on June 6 . = = Ingredients and preparation = = Applesauce cake is a dessert cake prepared using apple sauce , flour and sugar as main ingredients . Store-b</t>
+          <t>Star Trek = Star Trek is an American science fiction entertainment franchise created by Gene Roddenberry and owned by CBS and Paramount Pictures . The television series Star Trek : The Original Series , Star Trek : The Animated Series , Star Trek : The Next Generation , Star Trek : Deep Space Nine , Star Trek : Voyager , Star Trek : Enterprise , Star Trek : Discovery as well as the Star Trek film franchise make up the franchise 's canon . The first series , now referred to as The Original Series , debuted in 1966 and ran for three seasons on NBC . It followed the galactic adventures of James T. Kirk and the crew of the starship Enterprise , an exploration vessel of a 23rd-century interstellar " United Federation of Planets " . In creating the first Star Trek , Roddenberry was inspired by Westerns such as Wagon Train , the Horatio Hornblower novels and Gulliver 's Travels . In fact , the original series was originally described as Wagon Train to the Stars . These adventures continued in</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Avocado cake = Avocado cake is a cake prepared using avocado as a primary ingredient , together with other typical cake ingredients . The avocados may be mashed , and may be used as an ingredient in cake batter , in cake toppings and alone atop a cake . Cake variations include raw avocado cake , avocado brownies and avocado cheesecake . Raw , uncooked versions of avocado cake can be high in vitamin E and essential fatty acids , which are derived from avocado . Avocado-based cake toppings include avocado fool and avocado crazy . = = Overview = = Avocado is a main ingredient in avocado cake , along with other typical cake ingredients . Various varieties of avocados may be used . Avocado cake may have a subtle avocado flavor imbued in the dish . Mashed avocado may be used as an ingredient in the batter and in cake frostings and toppings . Sliced avocado may be used to top or garnish it , as may other ingredients such as the zest of citrus fruits . Additional ingredients used may include y</t>
+          <t>The Sarah Jane Adventures = The Sarah Jane Adventures is a British science fiction television programme , that was produced by BBC Cymru Wales for CBBC , created by Russell T Davies starring Elisabeth Sladen . The programme is a spin-off of the long-running BBC science fiction programme Doctor Who and is aimed at a younger audience than Doctor Who . It focuses on the adventures of Sarah Jane Smith , an investigative journalist who , as a young woman , had numerous adventures across time and space . The series debuted on BBC One with a 60-minute special , " Invasion of the Bane " , on 1 January 2007 , and broadcast through to 2011 . It was nominated for a British Academy Children 's Award in 2008 in the Drama category , and for a BAFTA Cymru in 2009 in the Children 's Drama category . The programme won a Royal Television Society 2010 award for Best Children 's Drama . = = Series = = A full series of ten 25-minute episodes began on 24 September 2007 . The first series consisted of five t</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Crab dip = Crab dip , sometimes referred to as Maryland crab dip , is a thick , creamy dip that is typically prepared from cream cheese and lump crab meat . Other primary ingredients such as mayonnaise may be used . Various types of crab preparations , species and superfamilies are used , as are a variety of added ingredients . It is typically served hot , although cold versions also exist . Hot versions are typically baked or broiled . It is sometimes served as an appetizer . Accompaniments may include crackers and various breads . Some U.S. restaurants offer crab dip , commercially produced varieties exist , and some stadiums offer it as a part of their concessions . = = Ingredients = = Fresh , frozen or canned crab meat may be used in the preparation of crab dip . Different types of crab meat may be used , such as jumbo lump , lump backfin , leg and claw , among others . Various types of crab species and superfamilies are also used , such as blue crab , Dungeness crab and Alaska kin</t>
+          <t>Lisa Simpson = Lisa Marie Simpson is a fictional character in the animated television series The Simpsons . She is the middle child and most intelligent of the Simpson family . Voiced by Yeardley Smith , Lisa first appeared on television in The Tracey Ullman Show short " Good Night " on April 19 , 1987 . Cartoonist Matt Groening created and designed her while waiting to meet James L. Brooks . Groening had been invited to pitch a series of shorts based on his comic Life in Hell , but instead decided to create a new set of characters . He named the elder Simpson daughter after his younger sister Lisa Groening . After appearing on The Tracey Ullman Show for three years , the Simpson family were moved to their own series on Fox , which debuted on December 17 , 1989 . Intelligent , passionate , and the moral centre of the family , Lisa Simpson , at eight years old , is the second child of Homer and Marge , younger sister of Bart , and older sister of Maggie . Lisa 's high intellect and libe</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Clam dip = Clam dip is a dipping sauce and condiment prepared with clams , sour cream or cream cheese , and seasonings as primary ingredients . Various additional ingredients can be used . It is usually served chilled , although it is sometimes served hot or at room temperature . It is used as a dip for potato chips , crackers , bread , and crudités . After a recipe for the dip was presented during a popular U.S. radio show , canned clams in New York City sold out in 24 hours . Commercial varieties of clam dip are mass-produced by some companies and marketed to consumers in grocery stores and supermarkets . = = History = = In the early 1950s in the United States , the first televised recipe for clam dip appeared on the Kraft Music Hall show , a well-known and popular radio and television variety program that ran from 1933 to 1971 . After the recipe segment aired , canned clams in New York City sold out within 24 hours . The ingredients used in this recipe were minced , canned clams , c</t>
+          <t>Justice League ( Smallville ) = The Justice League is a fictional group of superheroes on the television series , Smallville , who were adapted for television by Alfred Gough and Miles Millar . The Justice League originally included Oliver Queen , Bart Allen , Victor Stone , and Arthur Curry ; Clark Kent did not accept a role until three seasons later . As the team continued to appear in the series , new characters were introduced and subsequently joined the team . The original Justice League first appeared in the DC comic book The Brave and the Bold # 28 ( 1960 ) , and consisted of members Superman , Batman , Wonder Woman , Flash , Green Lantern , Aquaman , and the Martian Manhunter . In Smallville , the team did not make its first official appearance until the season six episode " Justice " , although each member had been previously introduced individually on various episodes since season four . In the series , the team never formalized a name for themselves , although the cast and c</t>
         </is>
       </c>
     </row>
@@ -1631,32 +1631,32 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>['buenos_aires', 'soviet', 'argentina', 'argentine', 'revolution', 'cuban', 'dictator', 'drug', 'government', 'soviet_union', 'mafia', 'cuba', 'spanish', 'political', 'spain']</t>
+          <t>['campaign', 'said', 'announced', 'stated', 'saying', 'support', 'election', 'media', 'party', 'political', 'criticized', 'government', 'president', 'leader', 'presidential']</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Last use of capital punishment in Spain = The last use of capital punishment in Spain took place on 27 September 1975 when two members of the armed Basque nationalist and separatist group ETA political-military and three members of the Revolutionary Antifascist Patriotic Front ( FRAP ) were shot dead by firing squads after having been convicted and sentenced to death by military tribunals for the murder of policemen and civil guards . Spain was Western Europe 's last dictatorship at this time and had been unpopular and internationally isolated in the post-war period due to its relations with Nazi Germany in the 1930s and the fact that the authoritarian Spanish leader , Francisco Franco , had come to power by overthrowing a democratically elected government . As a result , the executions resulted in substantial criticism of the Spanish government , both domestically and abroad . Reactions included street protests , attacks on Spanish embassies , international criticism of the Spanish go</t>
+          <t>Stephen Harper = Stephen Joseph Harper PC MP ( born April 30 , 1959 ) is a Canadian politician and member of Parliament who served as the 22nd Prime Minister of Canada , from February 6 , 2006 to November 4 , 2015 . He was the first prime minister to come from the modern Conservative Party of Canada , which was formed by a merger of the Progressive Conservative Party and the Canadian Alliance . Harper has been the member of parliament for the riding of Calgary Heritage in Alberta , since 2002 ( previously known as Calgary Southwest from 2002 to 2015 ) . Earlier , from 1993 to 1997 , he was the MP for Calgary West , representing the Reform Party of Canada . He was one of the founding members of the Reform Party , but did not seek re-election in the 1997 federal election . Harper instead joined and later led the National Citizens Coalition , a conservative lobbyist group . In 2002 , he succeeded Stockwell Day as leader of the Canadian Alliance , the successor to the Reform Party and retu</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ricardo Arias Calderón = Ricardo Arias Calderón ( born 4 May 1933 ) is a Panamanian politician who served as First Vice President from 1989 to 1992 . A Roman Catholic who studied at Yale and the Sorbonne , Arias returned to Panama in the 1960s to work for political reform . He went on to become the president of the Christian Democratic Party of Panama and a leading opponent of the military government of Manuel Noriega . In 1984 , he ran as a candidate for Second Vice President on the ticket of three-time former president Arnulfo Arias , but they were defeated by pro-Noriega candidate Nicolás Ardito Barletta . Following an annulled 1989 election and the US invasion of Panama later in the same year , Arias Calderón was sworn in as First Vice President of Panama under President Guillermo Endara . After growing tensions in the ruling coalition , Arias resigned his position on December 17 , 1992 , stating that the government had not done enough to help Panama 's people . He continued to be </t>
+          <t xml:space="preserve">Richard Nixon presidential campaign , 1968 = The 1968 presidential campaign of Richard Nixon , the 36th Vice President of the United States , began when Nixon , the Republican nominee of 1960 , formally announced his candidacy following a year 's preparation and five years ' political reorganization following defeats in the 1960 presidential election , and the 1962 California gubernatorial election . En route to the Republican Party 's presidential nomination , Nixon faced challenges from Governor George Romney of Michigan , Governor Nelson Rockefeller of New York , Governor Ronald Reagan of California , and Senator Charles Percy of Illinois . Nixon won nine of the thirteen state primaries held that season , although due to the population of his state , Governor Reagan won the popular vote while carrying only California . These victories , along with pledged delegate support from states not holding primaries , secured Nixon the nomination on the first ballot of the Republican National </t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Adolfo Rodríguez Saá = Adolfo Rodríguez Saá ( born July 25 , 1947 ) is an Argentine Peronist politician . Born in a family that was highly influential in the history of the San Luis Province , he became governor in 1983 , after the end of the National Reorganization Process military dictatorship . He remained governor up to 2001 , being re-elected in successive elections . President Fernando de la Rúa resigned in that year , amid the December 2001 riots , and the Congress appointed Rodríguez Saá as president of Argentina . In response to the 1998 – 2002 Argentine great depression , he declared the highest sovereign default in history and resigned days later amid civil unrest . The Congress appointed a new president , Eduardo Duhalde , who completed the term of office of De la Rúa . Rodríguez Saá ran for the 2003 and 2015 presidential elections but did not win . = = Early life = = Rodríguez Saá was born to an important political family in San Luis . The Rodriguez Saá family is well know</t>
+          <t>Al Gore = Albert Arnold " Al " Gore Jr . ( born March 31 , 1948 ) is an American politician and environmentalist who served as the 45th Vice President of the United States from 1993 to 2001 under President Bill Clinton . Chosen as Clinton 's running mate in their successful 1992 campaign , he was reelected in 1996 . At the end of Clinton 's second term , Gore was the Democratic Party 's nominee for President in 2000 . After leaving office , Gore remained prominent as an author and environmental activist , whose work in climate change activism earned him ( jointly with the IPCC ) the Nobel Peace Prize in 2007 . Gore was an elected official for 24 years . He was a Congressman from Tennessee ( 1977 – 85 ) and from 1985 to 1993 served as one of the state 's Senators . He served as Vice President during the Clinton administration from 1993 to 2001 . In the 2000 presidential election , in what was one of the closest presidential races in history , Gore won the popular vote but lost in the El</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Lev Chernyi = Lev Chernyi ( Russian : Лев Чёрный ; IPA : [ ˈlʲɛf ˈtɕɵrnɨj ] ; died September 21 , 1921 ) was a Russian individualist anarchist theorist , activist and poet , and a leading figure of the Third Russian Revolution . In 1917 , Chernyi was released from his political imprisonment by the Imperial Russian regime , and swiftly became one of the leading figures in Russian anarchism . After strongly denouncing the new Bolshevik government in various anarchist publications and joining several underground resistance movements , Chernyi was arrested by the Cheka on a charge of counterfeiting and in 1921 was executed without trial . = = Early life , philosophy and imprisonment = = Chernyi was born Pavel Dimitrievich Turchaninov ( Russian : Па ́ вел Дми ́ триевич Турчани ́ нов ; IPA : [ ˈpavʲɪl ˈdmʲitrʲɪjɪvʲɪt ͡ ɕ tʊrt ͡ ɕɐˈnʲinəf ] ) to an army colonel father . A " déclassé intellectual " whom anarchist historian Paul Avrich compares with Volin , Chernyi advocated a Nietzschean overt</t>
+          <t>Hubert Humphrey presidential campaign , 1968 = The Hubert Humphrey presidential campaign of 1968 began when Vice President of the United States Hubert Humphrey of Minnesota decided to seek the Democratic Party nomination for President of the United States following the announcement by President Lyndon B. Johnson that he would not seek the party 's nomination . Johnson had been stalled by the anti-Vietnam War candidacy of Senator Eugene McCarthy of Minnesota , who along with Senator Robert F. Kennedy of New York , became the main opponents for Humphrey . The contest between the men featured a battle for control of the Democratic Party , and cast Humphrey 's " old politics " , against the " new politics " of McCarthy and Kennedy . The main cause of the division was the Vietnam War , which intensified during Humphrey 's tenure as Vice President and grew increasingly unpopular . Humphrey entered the race too late to participate in any primaries , and relied on " favorite son " candidates t</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Early life of Fidel Castro = The early life of Cuban revolutionary and politician Fidel Castro , born Lina Castro , spans the first 26 years of his life , from 1926 to 1952 . Born in Birán , Oriente Province , Castro was the illegitimate son of Ángel Castro y Argiz , a wealthy farmer and landowner , and his mistress Lina Ruz González . First educated by a tutor in Santiago de Cuba , Fidel Castro then attended two boarding schools before being sent to El Colegio de Belén , a school run by Jesuits in Havana . In 1945 he began studying law at the University of Havana , where he first became politically conscious , becoming a staunch anti-imperialist and critic of United States involvement in the Caribbean . Involved in student politics , he was affiliated to Eduardo Chibás and his Partido Ortodoxo , achieving publicity as a vocal critic of the pro-U.S. administration of President Ramón Grau and his Partido Auténtico . Immersed in the university 's violent gang culture , in 1947 he took pa</t>
+          <t>Gary Johnson = Gary Earl Johnson ( born January 1 , 1953 ) is an American businessman , politician and the Libertarian Party nominee for President of the United States in the 2016 election . He served as the 29th Governor of New Mexico from 1995 to 2003 as a member of the Republican Party . He was the Libertarian Party 's nominee for President of the United States in the 2012 election . Johnson announced his candidacy for president on April 21 , 2011 , as a Republican , on a libertarian platform emphasizing the United States public debt and a balanced budget through a 43 % reduction of all federal government spending , protection of civil liberties , an immediate end to the War in Afghanistan and his advocacy of the FairTax . On December 28 , 2011 , after being excluded from the majority of the Republican Party 's presidential debates and failing to gain traction while campaigning for the New Hampshire primary , he withdrew his candidacy for the Republican nomination and announced that</t>
         </is>
       </c>
     </row>
@@ -1666,32 +1666,32 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>['twitter', 'cylinder', 'cylinders', 'vehicle', 'watson', 'vehicles', 'toyota', 'users', 'model', 'models', 'gas', 'car', 'electric', 'engine', 'valve']</t>
+          <t>['member', 'served', 'elected', 'governor', 'committee', 'serving', 'worked', 'election', 'appointed', 'kentucky', 'married', 'resigned', 'attended', 'born', 'fellow']</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Saviem = The Société Anonyme de Véhicules Industriels et d 'Equipements Mécaniques ( French pronunciation : ​ [ sɔsjete də vɛikyl ɛ ̃ dystʁijɛl e dəkipəmɑ ̃ mekanik ] ) , commonly known by the acronym Saviem ( French pronunciation : ​ [ savjɛ ̃ ] ) , was a French manufacturer of trucks and buses / coaches part of the Renault group , headquartered in Suresnes . The company was established in 1955 by merging Renault heavy vehicle operations with Somua and Latil and disappeared in 1978 when was merged with former rival Berliet to form Renault Véhicules Industriels . The company initially had various factories for vehicle production around France ( mainly at the Paris area ) which came from its predecessors and Chausson , but it soon centred assembly on Blainville-sur-Orne ( trucks ) and Annonay ( buses and coaches ) . Saviem formed partnerships with other manufacturers , leading to technology-sharing agreements . = = History = = = = = Early years = = = At the end of 1946 , Renault abandon</t>
+          <t>Gabriel Slaughter = Gabriel Slaughter ( December 12 , 1767 – September 19 , 1830 ) was the seventh Governor of Kentucky and was the first person to ascend to that office upon the death of the sitting governor . His family moved to Kentucky from Virginia when he was very young . He became a member of the Kentucky militia , serving throughout his political career . He received a citation from the state legislature in recognition of his service at the Battle of New Orleans . After spending a decade in the state legislature , Slaughter was elected the fourth Lieutenant Governor , serving under Charles Scott . With the War of 1812 looming at the end of his tenure , Slaughter ran for governor against Isaac Shelby , the state 's first governor and a noted military leader . Shelby beat Slaughter soundly . Four years later , Slaughter was again elected as lieutenant governor , serving under George Madison . Madison died a short time into his term , whereupon Slaughter became acting governor . H</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Renault Agriculture = Renault Agriculture S.A.S. ( French pronunciation : ​ [ ʁəno aɡʁikyltyʁ ( ə ) ] ) was the agricultural machinery division of the French car manufacturer Renault established in 1918 from its armored military vehicles division . While in operation , Renault Agriculture had various partnerships with major manufacturers and focussed production on tractors . The company was sold between 2003 and 2008 to German rival Claas . Renault Agriculture was dissolved in 2008 and its facilities became part of Claas ' tractor division . Claas ' tractor division and Renault 's Auto Châssis International are Renault Agriculture successors . = = History = = After the end of World War I , the Renault company used its experience in armored tanks to devise agricultural vehicles . The Renault 's Department 14 ( responsible for the FT tank ) developed the first tractor of the company , the Type GP , which was powered by an engine similar to that of the FT ( a four-cylinder ) and had track</t>
+          <t xml:space="preserve">Thomas E. Bramlette = Thomas Elliott Bramlette ( January 3 , 1817 – January 12 , 1875 ) was the 23rd Governor of Kentucky . He was elected in 1863 and guided the state through the latter part of the Civil War and the beginning of Reconstruction . At the outbreak of the war , Bramlette put his promising political career on hold and enlisted in the Union Army , raising and commanding the 3rd Kentucky Infantry . In 1862 , President Abraham Lincoln appointed him district attorney for Kentucky . A year later , he was the Union Democrats ' nominee for governor . Election interference by the Union Army gave him a landslide victory over his opponent , Charles A. Wickliffe . Within a year , however , federal policies such as recruiting Kentucky Negroes for the Union Army and suspending the writ of habeas corpus for Kentucky citizens caused Bramlette to abandon his support of the Lincoln administration and declare that he would " bloodily baptize the state into the Confederacy " . After the war </t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve">TouchWave = TouchWave , Inc . ( now WebCom ) , was a privately held Palo Alto , California IP-telephony network switch provider founded in 1997 . TouchWave developed a product line called WebSwitch that was designed to replace traditional private telephone exchange systems in small-to-medium-sized companies . WebSwitch was part of a phone system that incorporates communication features provided by the Internet . The rapid success of TouchWave was memorialized with awards and an acquisition by Ericsson Communications for $ 46M two years after TouchWave was founded . Ericsson continued the TouchWave product line under the name WebCom , but its efforts have been viewed as less than successful . = = History = = In 1997 , TouchWave was a privately held , venture-backed startup company in Palo Alto , California , with future entrepreneur Oliver Muoto as its marketing director . Co-founded by CEO Bo Larsson , Jeff Snider , David F. Wittenkamp , and Jesper Stroe , TouchWave released its first </t>
+          <t>Herbert Charles Wilson = Herbert Charles Wilson ( December 7 , 1859 – December 17 , 1909 ) was a Canadian politician and physician . He served as mayor of the Town of Edmonton and Speaker of the Legislative Assembly of the North-West Territories . Wilson was born in 1859 in what would become the province of Ontario . The son of a manufacturer , Wilson 's family had extensive business interests in the area of Picton , Ontario . Wilson studied medicine and moved to Edmonton in 1882 , one of the first physicians to settle there . He was appointed to official medical positions and , for several years , owned a drugstore in town . He served as a consultant to First Nations reserves near Edmonton and also became a director of many local corporations . He was elected to the Territorial council in 1885 , and soon became its speaker . During his speakership , he helped to change the council 's rules and procedures . He left territorial politics after six years , citing health reasons . He maint</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Renault Samsung Motors = Renault Samsung Motors ( Korean : 르노삼성자동차 , IPA : [ ɾɯnoː sʰamsʰʌŋ dʑadoŋtɕʰa ] ) , also known by the acronym RSM , is a South Korean car manufacturer headquartered in Busan where its single assembly site is also located , with additional facilities at Seoul ( administration ) and Giheung ( research and development ) . It was first established as Samsung Motors in 1994 by the chaebol Samsung , with technical assistance from Nissan . The company started selling cars in 1998 , just before South Korea was hit by the Asian financial crisis . In September 2000 , it became a subsidiary of Renault and adopted its present name , although Samsung maintained a minority ownership . RSM markets a range of cars , including electric models and crossovers . = = History = = = = = Beginnings : Samsung Group era ( 1994 – 2000 ) = = = In the early 1990s , Samsung 's Chairman Kun Hee Lee recognised the automotive industry as the culmination of several others . For the Samsung Grou</t>
+          <t xml:space="preserve">Henry Bell Gilkeson = Henry Bell Gilkeson ( June 6 , 1850 – September 29 , 1921 ) was an American lawyer , politician , school administrator , and banker in West Virginia . Gilkeson was born in Moorefield , Virginia ( now West Virginia ) , the eldest child of a dry goods merchant , and was raised in Romney . Following his graduation from Hampden – Sydney College , Gilkeson became a schoolteacher and served as superintendent of the Hampshire County Schools district from 1877 to 1879 . Gilkeson later studied law and started a law practice in Romney . Following the death of John Collins Covell in 1887 , Gilkeson served as the principal of the West Virginia Schools for the Deaf and Blind until 1888 . Gilkeson served in the West Virginia Legislature as a state senator representing the 12th District in the West Virginia Senate ( 1890 – 93 ) and as a member of the West Virginia House of Delegates ( 1883 – 85 and 1909 – 11 ) . Gilkeson served as the mayor of Romney beginning in 1885 , and the </t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Electric vehicle warning sounds = Electric vehicle warning sounds are a series of sounds designed to alert pedestrians to the presence of electric drive vehicles such as hybrid electric vehicles ( HEVs ) , plug-in hybrid electric vehicles ( PHEVs ) , and all-electric vehicles ( EVs ) travelling at low speeds . Warning sound devices were deemed necessary because vehicles operating in all-electric mode produce less noise than traditional combustion engine vehicles and can make it more difficult for pedestrians , the blind , cyclists , and others , to be aware of their presence . Warning sounds may be driver triggered ( as in a horn but less urgent ) or automatic at low speeds ; in type , they vary from clearly artificial ( beeps , chimes ) to those that mimic engine sounds and those of tires moving over gravel . Japan issued guidelines for such warning devices in January 2010 and the U.S. approved legislation on December 2010 . The European Parliament approved legislation that requires t</t>
+          <t xml:space="preserve">James D. Black = James Dixon Black ( September 24 , 1849 – August 5 , 1938 ) was the 39th Governor of Kentucky , serving for seven months in 1919 . He ascended to the office when Governor Augustus O. Stanley was elected to the U.S. Senate . Black graduated from Tusculum College in 1872 and taught school while studying law . He was admitted to the bar in 1874 and opened his legal practice in Barbourville , Kentucky . Eventually , his son , Pitzer Dixon , and his son-in-law , Hiram H. Owens , became partners in his practice , called Black , Black and Owens . Deeply interested in education , he served as superintendent of the Knox County public schools for two years , and was instrumental in the founding of Union College in Barbourville . He served as president of the college from 1910 to 1912 . Black was chosen as the Democratic nominee for lieutenant governor in 1915 , despite having only meager previous political experience . He was elected on a ticket with Augustus O. Stanley and was </t>
         </is>
       </c>
     </row>
@@ -1701,32 +1701,32 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>['fiction', 'gay', 'stories', 'pulp', 'lgbt', 'science', 'magazine', 'lesbian', 'comics', 'fantasy', 'issue', 'magazines', 'comic', 'hugo', 'published']</t>
+          <t>['daily', 'trunkline', 'roadway', 'national_highway_system', 'travels', 'designated', 'surveys', 'entire', 'paved', 'intersections', 'designation', 'traveling', 'terminus', 'rural', 'mdot']</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Uncanny Stories ( magazine ) = Uncanny Stories was a pulp magazine which published a single issue , dated April 1941 . It was published by Abraham and Martin Goodman , who were better known for " weird-menace " pulp magazines that included much more sex in the fiction than was usual in science fiction of that era . The Goodmans published Marvel Science Stories from 1938 to 1941 , and Uncanny Stories appeared just as Marvel Science Stories ceased publication , perhaps in order to use up the material in inventory acquired by Marvel Science Stories . The fiction was poor quality ; the lead story , Ray Cummings ' " Coming of the Giant Germs " , has been described as " one of his most appalling stories " . = = Publication history = = Although science fiction had been published before the 1920s , it did not begin to coalesce into a separately marketed genre until the appearance in 1926 of Amazing Stories , a pulp magazine published by Hugo Gernsback . After 1931 , when Miracle Science and Fa</t>
+          <t xml:space="preserve">Delaware Route 44 = Delaware Route 44 ( DE 44 ) is a state highway in Kent County , Delaware . It runs from DE 300 in Everetts Corner southeast to DE 8 in Pearsons Corner . The route passes through rural areas of western Kent County as well as the town of Hartly . In Hartly , it intersects DE 11 . The route was built as a state highway east of Hartly by 1924 and west of Hartly by 1932 , receiving the DE 44 designation by 1936 . = = Route description = = Delaware Route 44 heads to the southeast of DE 300 on Everetts Corner Road . It passes through a mix of woodland and farmland before reaching the town of Hartly . In Hartly , the route intersects DE 11 , where it becomes Main Street , and passes by homes . It then heads to the east out of Hartly on Hartly Road , passing through more rural areas . The route continues to its eastern terminus at DE 8 near Pearsons Corner . DE 44 has an annual average daily traffic count ranging from a high of 4,478 vehicles at the eastern terminus at DE 8 </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>A. Merritt 's Fantasy Magazine = A. Merritt 's Fantasy Magazine was a pulp magazine which published five issues from December 1949 to October 1950 . It took its name from fantasy writer A. Merritt , who had died in 1943 , and it aimed to capitalize on Merritt 's popularity . It was published by Popular Publications , alternating months with Fantastic Novels , another title of theirs . It may have been edited by Mary Gnaedinger , who also edited Fantastic Novels and Famous Fantastic Mysteries . It was a companion to Famous Fantastic Mysteries , and like that magazine mostly reprinted science-fiction and fantasy classics from earlier decades . = = Publication history and contents = = In 1942 , Popular Publications acquired Famous Fantastic Mysteries and Fantastic Novels , both of them pulp magazines specializing in reprints of fantasy , from the Munsey Company . Fantastic Novels had ceased publication in April 1941 , but was relaunched by Popular in early 1948 as a companion to Famous Fa</t>
+          <t>M-100 ( Michigan highway ) = M-100 is a north – south state trunkline highway in the central region of the U.S. state of Michigan . It runs between Potterville and Grand Ledge , connecting Interstate 69 ( I-69 ) and I-96 west of the state capital , Lansing . The highway was previously a section of M-16 . After M-16 was realigned , M-100 was created by 1927 . Three extensions in the 1930s , 1950s and 1990s resulted in the current highway routing . = = Route description = = M-100 starts at exit 66 on I-69 in Potterville . The highway runs north along Hartel Road , intersecting Lansing Road , the former route of US Highway 27 ( US 27 ) south of downtown . Hartel Road runs due north from Potterville to Grand Ledge . North of M-43 ( Saginaw Highway ) , M-100 follows Clinton Street , jogging northwest along Jefferson Street north of Willow Highway . Crossing the Grand River on Bridge Street , M-100 returns to Clinton Street north of the river . North of town , the roadway is once again known</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Out of This World Adventures = Out of This World Adventures was a pulp magazine which published two issues , in July and December 1950 . It included several pages of comics as well as science fiction stories . It was edited by Donald A. Wollheim and published by Avon . Sales were weak , and after two issues Avon decided to cancel it . = = Publication history = = The early 1950s saw dramatic changes in the world of U.S. science fiction publishing . At the start of 1949 , all but one of the major magazines in the field were in pulp format ; by the end of 1955 , almost all had either ceased publication or switched to digest format . Despite the rapid decline of the pulp market , several new science fiction magazines were launched in pulp format during these years ; Out of This World Adventures was one of these . In 1947 Avon Books launched the Avon Fantasy Reader , a series of fantasy anthologies in digest format , edited by Donald A. Wollheim . Two years later , Joseph Meyers , Avon 's p</t>
+          <t>Nebraska Highway 88 = Nebraska Highway 88 ( N-88 ) is a highway in northwestern Nebraska . It has a western terminus at Wyoming Highway 151 ( WYO 151 ) at the Wyoming – Nebraska state line . The road travels eastward to N-71 , where it turns south . N-88 continues east to south of Bridgeport . The road turns north , ends at an intersection with U.S. Highway 385 ( US 385 ) and N-92 in Bridgeport . The route was designated in 1937 , before the official state highway system was created . It was extended to the state line in 1986 . = = Route description = = N-88 starts at the Nebraska – Wyoming state line in Banner County , where WYO 151 ends , and travels northeast . The road quickly bends east after less than one mile ( 1.6 km ) , and continues in a straight line . For the next twenty miles ( 32 km ) , N-88 intersects minor streets , through rural farmland . The route turns south at N-71 , and becomes concurrent . Four miles ( 6.4 km ) later , N-88 turns east , ending the concurrency wit</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Dynamic Science Stories = Dynamic Science Stories was a pulp magazine which published two issues , dated February and April 1939 . A companion to Marvel Science Stories , it was edited by Robert O. Erisman and published by Western Fiction Publishing . Among the better known authors who appeared in its pages were L. Sprague de Camp and Manly Wade Wellman . = = Publication history and contents = = Although science fiction had been published before the 1920s , it did not begin to coalesce into a separately marketed genre until the appearance in 1926 of Amazing Stories , a pulp magazine published by Hugo Gernsback . By the end of the 1930s the field was booming . In 1938 Abraham and Martin Goodman , two brothers who owned a publishing company with multiple imprints , launched Marvel Science Stories , edited by Robert O. Erisman . In February of the following year they added Dynamic Science Stories as a companion magazine intended to run longer stories . The contents were typical pulp scien</t>
+          <t xml:space="preserve">M-61 ( Michigan highway ) = M-61 is a state trunkline highway in the US state of Michigan that runs between Marion and Standish . The highway runs along the boundary area between Northern Michigan and Central Michigan in the Lower Peninsula . M-61 runs through rural forestland connecting several smaller communities together as it connects M-115 , US Highway 127 ( US 127 ) , Interstate 75 ( I-75 ) and US 23 . Less than 10,000 vehicles a day use various segments of the roadway on average . The trunkline was first designated along a portion of its current alignment by 1919 . M-61 was extended in segments through 1940 , with a truncation at the end of the 1950s . One change in routing in the 1970s resulted in the current routing of the highway . = = Route description = = M-61 starts in eastern Osceola County south of Marion at an intersection with M-115 . It runs eastward and meets M-66 before crossing into Clare County . The highway runs along the boundary between the regions of Northern </t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Wonder Story Annual = Wonder Story Annual was a science fiction pulp magazine which was launched in 1950 by Standard Magazines . It was created as a vehicle to reprint stories from early issues of Wonder Stories , Startling Stories , and Wonder Stories Quarterly , which were owned by the same publisher . It lasted for four issues , succumbing in 1953 to competition from the growing market for paperback science fiction . Reprinted stories included Twice in Time , by Manly Wade Wellman , and " The Brain-Stealers of Mars " , by John W. Campbell . = = Publication history and contents = = The first science fiction ( sf ) magazine , Amazing Stories , was launched in 1926 by Hugo Gernsback at the height of the pulp magazine era . It helped to form science fiction as a separately marketed genre , and by the mid-1930s several more sf magazines had appeared , including Wonder Stories , also published by Gernsback . In 1936 , Ned Pines of Beacon Publications bought Wonder Stories from Gernsback ,</t>
+          <t xml:space="preserve">Ohio State Route 249 = State Route 249 ( SR 249 ) is an Ohio State Route that runs between the Indiana state line and Ney in the US state of Ohio . The 14.45 miles ( 23.26 km ) of SR 249 that lie within the state serve as a minor highway . None of the highway is listed on the National Highway System . The whole route is a rural two-lane highway and passes through farmland . The highway was first signed in 1925 and was a north – south route , a route that later became U.S. Route 127 ( US 127 ) . SR 249 was given its current route in 1927 , as a replacement for SR 22 . The route was completely paved by 1942 . = = Route description = = SR 249 heads southeast from the Indiana – Ohio state line , as a two-lane highway passing through farmland , with some houses . The route passes over the St. Joseph River and turns due east . The highway has an intersection at SR 49 , in rural Defiance County . After the intersection with SR 49 the highway enters farmland and woodland , with a few houses . </t>
         </is>
       </c>
     </row>
@@ -1736,32 +1736,32 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>['nickelodeon', 'patrick', 'dvd', 'bikini', 'episodes', 'animation', 'kenny', 'voice', 'kids', 'storyboard', 'episode', 'animated', 'lawrence', 'character', 'television']</t>
+          <t>['song', 'video', 'number', 'single', 'chart', 'performed', 'peaked', 'weeks', 'carey', 'debuted', 'rihanna', 'hot', 'background', 'week', 'girl']</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Crab dip = Crab dip , sometimes referred to as Maryland crab dip , is a thick , creamy dip that is typically prepared from cream cheese and lump crab meat . Other primary ingredients such as mayonnaise may be used . Various types of crab preparations , species and superfamilies are used , as are a variety of added ingredients . It is typically served hot , although cold versions also exist . Hot versions are typically baked or broiled . It is sometimes served as an appetizer . Accompaniments may include crackers and various breads . Some U.S. restaurants offer crab dip , commercially produced varieties exist , and some stadiums offer it as a part of their concessions . = = Ingredients = = Fresh , frozen or canned crab meat may be used in the preparation of crab dip . Different types of crab meat may be used , such as jumbo lump , lump backfin , leg and claw , among others . Various types of crab species and superfamilies are also used , such as blue crab , Dungeness crab and Alaska kin</t>
+          <t>Take a Bow ( Rihanna song ) = " Take a Bow " is a song recorded by Barbadian singer Rihanna for Good Girl Gone Bad : Reloaded ( 2008 ) , the re-release of her third studio album Good Girl Gone Bad ( 2007 ) . The song was written and produced by Tor Erik Hermansen , Mikkel Eriksen , and Shaffer Smith under their stage names StarGate and Ne-Yo . " Take a Bow " was released as the first single from the re-release and the fifth single overall from the two releases . It is an R &amp; B song that contains elements of dance-pop . Critical reception of " Take a Bow " was mixed , with some critics praising the song 's lyrics and powerful balladry impact , while others criticized the lack of originality with regard to StarGate 's production . In the US , the song peaked at number one on the Billboard Hot 100 chart and became Rihanna 's third song to do so . " Take a Bow " also peaked at number one on the US Hot R &amp; B / Hip-Hop Songs chart and US Pop Songs chart , and has been certified quadruple pla</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SpongeBob SquarePants ( season 7 ) = The seventh season of the American animated television series SpongeBob SquarePants , created by marine biologist and animator Stephen Hillenburg , originally aired on Nickelodeon in the United States from July 19 , 2009 to June 11 , 2011 . It contained 26 episodes , beginning with the episodes " Tentacle Vision " and " I Heart Dancing " . The series chronicles the exploits and adventures of the title character and his various friends in the fictional underwater city of Bikini Bottom . The season was executive produced by series creator Hillenburg and writer Paul Tibbitt , who also acted as the showrunner . In 2011 , Legends of Bikini Bottom , an anthology series consists of five episodes from the season , was launched . A number of guest stars appeared on the season 's episodes . Several compilation DVDs that contained episodes from the season were released . The SpongeBob SquarePants : Complete Seventh Season DVD was released in Region 1 on Decemb</t>
+          <t>Hate That I Love You = " Hate That I Love You " is a song recorded by Barbadian singer Rihanna for her third studio album , Good Girl Gone Bad ( 2007 ) . It features vocals by American singer and songwriter Ne-Yo , who co-wrote the song with its producers StarGate . Def Jam Recordings released the song on August 21 , 2007 , as the third single from Good Girl Gone Bad . A Spanglish version featuring David Bisbal was made available on April 28 , 2008 . " Hate That I Love You " is a mid-tempo R &amp; B song about the power of love , with influences of folk music . " Hate That I Love You " received generally positive reviews from critics , many of whom compared it to previous works by Ne-Yo . The song achieved moderate success in comparison to other singles from the album , reaching the top twenty in thirteen countries . It reached number 15 on the UK Singles Chart , and number seven on the US Billboard Hot 100 chart . " Hate That I Love You " was certified platinum by the Recording Industry A</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>SpongeBob SquarePants vs. The Big One = " SpongeBob SquarePants vs. The Big One " is the 5th episode of the sixth season and the 105th overall episode of the American animated television series SpongeBob SquarePants . The episode was written by Aaron Springer , Paul Tibbitt , and Steven Banks , and was directed by Andrew Overtoom and Alan Smart . The episode was part of the series ' tenth anniversary celebration in 2009 . It features guest appearances by Johnny Depp as the voice of Jack Kahuna Laguna , Bruce Brown as the narrator , and Davy Jones as himself . It originally aired on Nickelodeon in the United States on April 17 , 2009 . The series follows the adventures and endeavors of the title character and his various friends in the underwater city of Bikini Bottom . In this episode , SpongeBob and his friends — Patrick , Squidward , Mr. Krabs , and Sandy — are swept away by a giant wave . They get separated from each other ; SpongeBob , Patrick , and Squidward find themselves strand</t>
+          <t>California King Bed = " California King Bed " is a song by Barbadian singer Rihanna from her fifth studio album , Loud ( 2010 ) . The sixth single from the album , it was released on May 13 , 2011 , by Def Jam . Priscilla Renea and Alex Delicata wrote the song with its main producers , Jermaine Jackson and Andrew Harr of The Runners . Its recording took place in 2010 in the studios We The Best in Miami and Burst HQ in Wisconsin . Released digitally on iTunes Store May 13 , 2011 , it began to be played on April 4 in Australian radios and May 31 in the US . Later , after their impact on radio areas , the song was also issued on CD single format in Europe and also an extended play ( EP ) digital with nine remixes from the original track . The song had a moderate effect on music charts , leading the tables Slovakia , Poland and reaching the five best-selling bands in Germany , Australia , Austria , New Zealand and Portugal , while on the Billboard Hot 100 reached the 37th position . = = Ba</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>The Itchy &amp; Scratchy Show = The Itchy &amp; Scratchy Show ( often shortened as Itchy &amp; Scratchy ) is a running gag and fictional animated television series featured in the animated television series The Simpsons . It usually appears as a part of The Krusty the Clown Show , watched regularly by Bart and Lisa Simpson . Itself an animated cartoon , The Itchy &amp; Scratchy Show depicts a sadistic anthropomorphic blue mouse , Itchy ( voiced by Dan Castellaneta ) , who repeatedly maims and kills an anthropomorphic , hapless threadbare black cat , Scratchy ( voiced by Harry Shearer ) . The cartoon first appeared in the Tracey Ullman Show short " The Bart Simpson Show " , which originally aired November 20 , 1988 . The cartoon 's first appearance in The Simpsons was in the 1990 episode " There 's No Disgrace Like Home " . Typically presented as 15-to-60-second-long cartoons , the show is filled with gratuitous violence . The Simpsons also occasionally features characters who are involved with the pro</t>
+          <t xml:space="preserve">Rude Boy ( Rihanna song ) = " Rude Boy " is a song by Barbadian singer Rihanna , taken from her fourth studio album , Rated R ( 2009 ) . It was released as the album 's third single on February 19 , 2010 , through Def Jam . Rihanna co-wrote the song with StarGate , Ester Dean , Makeba Riddick , and Rob Swire , with Swire also co-producing it with StarGate . " Rude Boy " is an up-tempo dancehall song which incorporates elements of raggamuffin . The song received mixed to positive reviews from critics ; some called it is the highlight of the album , but others criticized Rihanna 's " monotone " and " icy " vocal performance . " Rude Boy " peaked at number one on the US Billboard Hot 100 in its fourth week for five consecutive weeks , and was Rihanna 's sixth US number one single . It was a commercial success globally , peaked at number one in Australia and attained top five positions in Germany , Hungary , Ireland , New Zealand , Norway , Poland , Slovakia , and the United Kingdom . The </t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>SpongeBob SquarePants ( season 6 ) = The sixth season of the American animated television series SpongeBob SquarePants , created by former marine biologist and animator Stephen Hillenburg , aired on Nickelodeon from March 3 , 2008 to July 5 , 2010 , and contained 26 episodes , beginning with the episode " Krabby Road " . The series chronicles the exploits and adventures of the title character and his various friends in the fictional underwater city of Bikini Bottom . The season was executive produced by series creator Hillenburg , who also acted as the showrunner . In 2009 , the show celebrated its tenth anniversary on television . The documentary film titled Square Roots : The Story of SpongeBob SquarePants premiered on July 17 , 2009 , and marked the anniversary . SpongeBob 's Truth or Square , a television film , and the special episode " To SquarePants or Not to SquarePants " were broadcast on Nickelodeon , as part of the celebration . The show itself received several recognition ,</t>
+          <t>Te Amo ( Rihanna song ) = " Te Amo " ( English : " I Love You " ) is a song by Barbadian recording artist Rihanna from her fourth studio album , Rated R ( 2009 ) . The electro-Latin song was written by Mikkel S. Eriksen , Tor Erik Hermansen , James Fauntleroy II and Rihanna , with production helmed by Eriksen and Hermansen under their production name , Stargate . " Te Amo " impacted radio in Canada on June 7 , 2010 , and was released via digital download on June 8 , 2010 , in Australia , Italy and New Zealand , as the album 's third international and fifth overall single . " Te Amo " incorporates elements of Latin American music and conveys Rihanna 's struggles as the object of another woman 's desires . Music critics praised the song for its lyrics and for a less futuristic sound than other songs on Rated R. " Te Amo " peaked inside the top ten of national charts , including the Czech Republic , Hungary and Poland . The song also attained top forty positions in Australia , The Netherl</t>
         </is>
       </c>
     </row>
@@ -1771,32 +1771,32 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>['scottish', 'scotland', 'painting', 'edinburgh', 'architecture', 'houses', 'century', 'churches', 'scots', 'bricks', 'portrait', 'highlands', 'glasgow', 'brick', 'portraits']</t>
+          <t>['war', 'following', 'german', 'april', 'training', 'japanese', 'division', 'attack', 'march', 'assigned', 'transferred', 'november', 'december', 'command', 'commander']</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Architecture of Scotland in the Middle Ages = The architecture of Scotland in the Middle Ages includes all building within the modern borders of Scotland , between the departure of the Romans from Northern Britain in the early fifth century and the adoption of the Renaissance in the early sixteenth century , and includes vernacular , ecclesiastical , royal , aristocratic and military constructions . The first surviving houses in Scotland go back 9500 years . There is evidence of different forms of stone and wooden houses exist and earthwork hill forts from the Iron Age . The arrival of the Romans from about led to the abandonment of many of these forts . After the departure of the Romans in the fifth century , there evidence their reoccupation and of the building of a series of smaller " nucleated " constructions sometimes utilising major geographical features , as at Dunadd and Dumbarton . In the following centuries new forms of construction emerged throughout Scotland that would come</t>
+          <t>27th Battalion ( Australia ) = The 27th Battalion was an infantry battalion of the Australian Army . It was initially raised in 1915 as part of the First Australian Imperial Force for service during World War I. During the conflict , the battalion saw action briefly at Gallipoli before later fighting on the Western Front between 1916 and 1918 . It was disbanded in 1919 , but was re-raised in 1921 as part of the Citizens Force , which later became the " Militia " . During World War II the battalion was used mainly in a garrison role until the last year of the war when it was committed to the fighting against the Japanese during the Bougainville campaign . Following the end of hostilities it was disbanded in May 1946 . Between 1948 and 1965 the battalion was re-raised and disbanded a number of times before eventually becoming part of the Royal South Australia Regiment . It was disbanded for a final time in 1987 , when it was amalgamated with the 10th Battalion , Royal South Australia Reg</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Landscape painting in Scotland = Landscape painting in Scotland includes all forms of painting of landscapes in Scotland since its origins in the sixteenth century to the present day . The earliest examples of Scottish landscape painting are in the tradition of Scottish house decoration that arose in the sixteenth century . Often said to be the earliest surviving painted landscape created in Scotland is a depiction by the Flemish artist Alexander Keirincx undertaken for Charles I. The capriccios of Italian and Dutch landscapes undertaken as house decoration by James Norie and his sons in the eighteenth century brought the influence of French artists such as Claude Lorrain and Nicolas Poussin . Students of the Nories included Jacob More whose produced Claudian-inspired landscapes . This period saw a shift in attitudes to the Highlands and mountain landscapes to interpreting them as aesthetically pleasing exemplars of nature . Watercolours were pioneered in Scotland by Paul Sandby and Al</t>
+          <t>6th Division ( Australia ) = The 6th Division was an infantry division of the Australian Army . It was raised briefly in 1917 during World War I , but was broken up to provide reinforcements before seeing action . It was not re-raised until the outbreak of World War II , when it was formed as a unit of the Second Australian Imperial Force ( 2nd AIF ) . Throughout 1940 – 41 it served in the North African Campaign , the Greek campaign , on Crete and in Syria , fighting against the Germans , Italians and Vichy French . In 1942 , the division left the Middle East and returned to Australia to meet the threat of Japan 's entry into the war . Part of the division garrisoned Ceylon for a short period of time , before the division was committed to the New Guinea campaign . In New Guinea , its component brigades had a major role in the successful counter-offensive along the Kokoda Track , at Buna – Gona and around Salamaua – Lae in 1942 – 43 . Throughout late 1943 – 44 , the division was re-orga</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Architecture of Scotland = The architecture of Scotland includes all human building within the modern borders of Scotland , from the Neolithic era to the present day . The earliest surviving houses go back around 9500 years , and the first villages 6000 years : Skara Brae on the Mainland of Orkney being the earliest preserved example in Europe . Crannogs , roundhouses , each built on an artificial island , date from the Bronze Age and stone buildings called Atlantic roundhouses and larger earthwork hill forts from the Iron Age . The arrival of the Romans from about 71 AD led to the creation of forts like that at Trimontium , and a continuous fortification between the Firth of Forth and the Firth of Clyde known as the Antonine Wall , built in the second century AD . Beyond Roman influence , there is evidence of wheelhouses and underground souterrains . After the departure of the Romans there were a series of nucleated hill forts , often utilising major geographical features , as at Duna</t>
+          <t xml:space="preserve">15th Battalion ( Australia ) = The 15th Battalion was an infantry battalion of the Australian Army . Formed in 1914 as part of the all-volunteer Australian Imperial Force from Queensland and Tasmanian recruits , the battalion fought during the Gallipoli Campaign and on the Western Front during the First World War . It was disbanded after the war in 1919 , but later re-raised as a part-time Citizens Forces unit based in Queensland in 1921 , consisting of a mixture of volunteers and conscripts . Economic pressures and limited manpower resulted in the battalion being amalgamated with other battalions a couple of times during the inter-war years . In mid-1939 , as rising tensions in Europe led to an expansion of the Australian military , the battalion was re-formed in its own right . During the Second World War the 15th Battalion was mobilised for wartime service and initially undertook defensive duties in Australia before taking part in the fighting against the Japanese in New Guinea and </t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Architecture in early modern Scotland = Architecture in early modern Scotland encompasses all building within the borders of the kingdom of Scotland , from the early sixteenth century to the mid-eighteenth century . The time period roughly corresponds to the early modern era in Europe , beginning with the Renaissance and Reformation and ending with the start of the Enlightenment and Industrialisation . Vernacular architecture made use of local materials such as stone , turf and , where available , wood . Most of the population was housed in small hamlets and isolated dwellings . The most common form of dwelling throughout Scotland was the long house , shared by humans and animals . About ten per cent of the population lived in the burghs , in a mixture of half-timbered and stone houses . The impact of the Renaissance on Scottish architecture began in the reign of James III in the late fifteenth century with the rebuilding of royal palaces such as Linlithgow , and reached its peak under</t>
+          <t>10th Battalion ( Australia ) = The 10th Battalion was an infantry battalion of the Australian Army that served as part of the Australian Imperial Force during World War I. Among the first units raised in Australia during the war , the battalion was recruited from South Australia in August 1914 and along with the 9th , 11th and 12th Battalions , it formed part of the 3rd Brigade , 1st Division . After its personnel completed basic training , the battalion embarked for the Middle East , where further training was undertaken in Egypt before the battalion was committed to the Gallipoli Campaign . On 25 April 1915 , the 10th Battalion took part in the Landing at Anzac Cove , coming ashore during the initial stages of the operation as part of the covering force . Members from the 10th Battalion penetrated the furthest inland of any Australian troops during the initial fighting , before the Allied advance inland was checked . After this , the battalion helped defend the beachhead against a Tu</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scottish castles = Scottish castles are buildings that combine fortifications and residence , built within the borders of modern Scotland . Castles arrived in Scotland with the introduction of feudalism in the twelfth century . Initially these were wooden motte-and-bailey constructions , but many were replaced by stone castles with a high curtain wall . During the Wars of Independence , Robert the Bruce pursued a policy of castle slighting . In the late Middle Ages new castles were built , some on a grander scale as " livery and maintenance " castles that could support a large garrison . Gunpowder weaponry led to the use of gun ports , platforms to mount guns and walls adapted to resist bombardment . Many of the late Medieval castles built in the borders were in the form of tower houses , smaller pele towers or simpler bastle houses . From the fifteenth century there was a phase of Renaissance palace building , which restructured them as castle-type palaces , beginning at Linlithgow . </t>
+          <t>2 / 15th Battalion ( Australia ) = The 2 / 15th Battalion was an infantry battalion of the Australian Army that served during World War II . Formed in May 1940 primarily from Queensland volunteers , the battalion saw action in North Africa in 1941 – 42 as part of the 20th Brigade , which was part of the 7th Division before being reassigned to the 9th Division . After completing training in Palestine , in early 1941 , the 2 / 15th took up positions along the front line in the Western Desert , before being pushed back to Tobruk . Between April and October 1941 , along with a garrison of British and other Australian personnel , the battalion helped to hold the strategically important port , which had been surrounded following the landing of German troops at Tripoli . It was withdrawn by sea in late October 1941 as the 9th Division was relieved by the British 70th Division . Following its withdrawal from Tobruk , the battalion re-formed at Gaza before undertaking garrison duties in Syria .</t>
         </is>
       </c>
     </row>
@@ -1806,32 +1806,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>['hebrew', 'text', 'manuscripts', 'gospel', 'jesus', 'manuscript', 'matthew', 'john', 'biblical', 'luke', 'greek', 'printing', 'readings', 'scholars', 'letters']</t>
+          <t>['rainfall', 'meteorological', 'preparations', 'watch', 'florida', 'flooding', 'damage', 'winds', 'hurricane', 'issued', 'reported', 'rain', 'landfall', 'mexico', 'usd']</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Codex Carolinus = Codex Carolinus is a Gothic-Latin diglot uncial manuscript of the New Testament on parchment , dated to the 6th or 7th century . The Gothic text is designated by siglum Car , the Latin text is designated by siglum gue ( traditional system ) or by 79 ( on the list of Beuron ) , it represents the Old Latin translation of the New Testament . It is housed in the Herzog August Bibliothek . It is one of very few manuscripts of Wulfilas Gothic Bible . The manuscript is fragmentary . The four leaves of the codex were used as raw material for the production of another manuscript – Codex Guelferbytanus 64 Weissenburgensis . It is a palimpsest , and its text was reconstructed several times . Franz Anton Knittel was the first to examine it and decipher its text . = = Description = = The codex has survived to the present day in a very fragmentary condition . It contains only the text of the Epistle to the Romans 11-15 on four parchment leaves ( size 26.5 cm by 21.5 cm ) . The text</t>
+          <t>Hurricane Baker ( 1950 ) = Hurricane Baker was a major hurricane that affected the Leeward Islands , Greater Antilles , and the Gulf Coast of the United States . The tropical cyclone was the second intense hurricane , second hurricane , and second tropical storm of the 1950 Atlantic hurricane season . Hurricane Baker attained peak winds of 120 mph ( 195 km / h ) near the Leeward Islands , traversed Antigua , and weakened to a tropical depression southwest of Puerto Rico . It re-intensified south of Cuba , strengthened to a strong Category 2 hurricane in the Gulf of Mexico , and hit the United States near Gulf Shores , Alabama , with winds of 85 mph ( 140 km / h ) . Hurricane Baker produced extensive damage in the Lesser Antilles and Cuba , but impacts were minimal in the United States . = = Meteorological history = = On the morning of August 20 , a strong tropical storm developed about 446 miles ( 718 km ) east of Basse-Terre , Guadeloupe . The tropical storm deepened to hurricane inte</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Codex Ephraemi Rescriptus = Codex Ephraemi Rescriptus ( Paris , National Library of France , Greek 9 ; Gregory-Aland no . C or 04 , von Soden δ 3 ) is a fifth-century Greek manuscript of the Bible , sometimes referred to as one of the four great uncials ( see Codex Sinaiticus , Alexandrinus and Vaticanus ) . The manuscript is not intact : in its current condition , Codex C contains material from every New Testament book except Second Thessalonians and Second John ; however , only six books of the Greek Old Testament are represented . The manuscript is called Codex Ephraemi Rescriptus because ( a ) it is a codex , i.e. , a handmade book ; ( b ) its parchment has been recycled ; originally inscribed with Scriptural texts , the pages were washed ( removing most of the ink ) and reused for another text , and ( c ) the text that was written on the recycled pages , in the 12th century , consisted of Greek translations of 38 treatises composed by Ephrem the Syrian , a prominent theologian of </t>
+          <t>Tropical Storm Barbara ( 2007 ) = Tropical Storm Barbara was the first tropical cyclone to make landfall during the 2007 Pacific hurricane season . The second storm of the season , Barbara developed from a small low pressure area on May 29 about 235 miles ( 380 km ) southeast of Acapulco , Mexico . The system drifted southward before turning to a steadily eastward motion , and quickly intensified into a tropical storm . Increased wind shear weakened Barbara , though it re-organized to attain peak winds of 50 mph ( 85 km / h ) before moving ashore just west of the border of Mexico and Guatemala . It rapidly weakened over land , and on June 2 the National Hurricane Center discontinued advisories on the storm . Despite expectations that the storm would attain hurricane status , Barbara moved ashore as a small , weak tropical storm . It produced locally heavy rainfall and gusty winds , and in most locations damage was minor . However , in southern Mexico , the rainfall destroyed large area</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Codex Basilensis A. N. IV . 2 = Codex Basilensis A. N. IV . 2 , Minuscule 1 ( on the list of Gregory-Aland ) , δ 254 ( in von Soden 's numbering ) and formerly designated by 1eap to distinguish it from minuscule 1rK ( which previously used number 1 ) is a Greek minuscule manuscript of the New Testament , usually dated palaeographically to the 12th century AD . It is written on 297 parchment leaves and contains the entire New Testament except the Book of Revelation . The codex was prepared for liturgical use with marginalia ( text 's division ) , and has almost completely survived ; it was used by Erasmus for his Novum Instrumentum omne . The text of the manuscript has been cited in all critical editions of the Greek New Testament ; in this codex , the text of the Gospels is more highly esteemed by scholars than that of the remaining New Testament books . The codex is housed at the Basel University Library , with shelf number A. N. IV , 2 ( earlier B. VI . 27 ) . = = Description = = The</t>
+          <t>Tropical Depression One ( 1992 ) = Tropical Depression One in June 1992 produced 100-year floods in portions of southwestern Florida . The first tropical depression and second tropical cyclone of the 1992 Atlantic hurricane season , the depression developed on June 25 from a tropical wave . Located in an environment of strong wind shear , much of the convection in the system was located well to the southeast of the poorly defined center of circulation . The depression moved northeastward and made landfall near Tampa , Florida on June 26 shortly before dissipating over land . The depression , in combination with an upper-level trough to its west , produced heavy rainfall to the east of its path , peaking at 33.43 inches ( 849 mm ) in Cuba and 25 inches ( 635 mm ) in Florida . In Cuba , the rainfall destroyed hundreds of homes and caused two fatalities . In Florida , particularly in Sarasota and Manatee counties , the rainfall caused severe flooding . 4,000 houses were affected , forcing</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Gospel of the Hebrews = The Gospel of the Hebrews ( Greek : τὸ καθ ' Ἑβραίους εὐαγγέλιον ) , or Gospel according to the Hebrews , was a syncretic Jewish – Christian gospel , the text of which is lost ; only fragments of it survive as brief quotations by the early Church Fathers and apocryphal writings such as reference table in The Lost Books of the Bible in Table 1 ( as The Gospel According to the Hebrews ) . The fragments contain traditions of Jesus ' pre-existence , incarnation , baptism , and probable temptation , along with some of his sayings . Distinctive features include a Christology characterized by the belief that the Holy Spirit is Jesus ' Divine Mother and a first resurrection appearance to James , the brother of Jesus , showing a high regard for James as the leader of the Jewish Christian church in Jerusalem . It was probably composed in Greek in the first decades of the 2nd century , and is believed to have been used by Greek-speaking Jewish Christians in Egypt during th</t>
+          <t>Hurricane Henriette ( 1995 ) = Hurricane Henriette was the ninth tropical cyclone , eight named storm and fifth hurricane of the 1995 Pacific hurricane season . Henriette developed from a tropical wave that emerged from the west coast of Africa on August 15 . After crossing the Atlantic and moving into the eastern Pacific on August 29 , it developed a low-level circulation that was designated a tropical depression on September 1 . The next day , the depression was upgraded to Tropical Storm Henriette , and it was further upgraded to a hurricane on September 3 . The storm peaked as a Category 2 hurricane on the Saffir-Simpson Hurricane Scale , and crossed the southern tip of Baja California Peninsula . On land , wind gusts of 100 mph ( 160 km / h ) were reported , knocking out power and water supplies . Heavy rainfall and strong storm surge contributed to flooding that damaged many roads ; throughout the region , 800 people were forced from their homes . = = Meteorological history = = A</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Codex Boreelianus = Codex Boreelianus , Codex Boreelianus Rheno-Trajectinus ( full name ) , designated by Fe or 09 in the Gregory-Aland numbering and ε 86 in von Soden numbering , is a 9th ( or 10th ) century uncial manuscript of the four Gospels in Greek . The manuscript , written on parchment , is full of lacunae ( or gaps ) , many of which arose between 1751 and 1830 . The codex was named Boreelianus after Johannes Boreel ( 1577 – 1629 ) , who brought it from the East . The text of the codex represents the majority of the text ( Byzantine text-type ) , but with numerous alien readings ( non-Byzantine ) . Some of its readings do not occur in any other manuscript ( so called singular readings ) . According to the present textual critics its text is not a very important manuscript , but it is quoted in all modern editions of the Greek New Testament . The manuscript was brought from the East at the beginning of the 17th century . It was in private hands for over 100 years . Since 1830 i</t>
+          <t>Subtropical Storm One ( 1974 ) = Subtropical Storm One was a short-lived subtropical cyclone that brought copious amounts of rainfall to central Florida in late June 1974 . The storm originated in an area of convection that detached from a tropical depression over the southwestern Gulf of Mexico on June 24 . A new area of low pressure developed underneath the convection and the system began to intensify . Later that day , the storm had become sufficiently organized to be classified as a subtropical depression . Early on June 25 , it made landfall near Clearwater , Florida with winds of 50 mph ( 85 km / h ) and later attained its peak intensity over eastern Florida with winds of 65 mph ( 100 km / h ) . After reemerging into the Atlantic Ocean , the system began to weaken as it underwent an extratropical transition . The storm ultimately dissipated off the coast of North Carolina early on June 26 . Despite its relatively weak strength , the system produced nearly 12 in ( 300 mm ) of rain</t>
         </is>
       </c>
     </row>
@@ -1841,32 +1841,32 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>['comics', 'story', 'belgian', 'adventures', 'snowy', 'moon', 'brussels', 'cartoonist', 'comic', 'depiction', 'belgium', 'adventure', 'sun', 'explorers', 'book']</t>
+          <t>['rating', 'office', 'jim', 'dwight', 'episode', 'aired', 'nbc', 'watching', 'nielsen', 'michael', 'pam', 'share', 'rated', 'viewed', 'ratings']</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Comics = Comics is a medium used to express ideas by images , often combined with text or other visual information . Comics frequently takes the form of juxtaposed sequences of panels of images . Often textual devices such as speech balloons , captions , and onomatopoeia indicate dialogue , narration , sound effects , or other information . Size and arrangement of panels contribute to narrative pacing . Cartooning and similar forms of illustration are the most common image-making means in comics ; fumetti is a form which uses photographic images . Common forms of comics include comic strips , editorial and gag cartoons , and comic books . Since the late 20th century , bound volumes such as graphic novels , comic albums , and tankōbon have become increasingly common , and online webcomics have proliferated in the 21st century . The history of comics has followed different paths in different cultures . Scholars have posited a pre-history as far back as the Lascaux cave paintings . By the</t>
+          <t>Christmas Wishes ( The Office ) = " Christmas Wishes " is the tenth episode of the eighth season of the American comedy television series The Office , and the show 's 162nd episode overall . The episode originally aired on NBC in the United States on December 8 , 2011 . It was written by executive producer Mindy Kaling and was directed by Ed Helms in his directorial debut . The episode guest starred Lindsey Broad , Ameenah Kaplan , and Eleanor Seigler . The series — presented as if it were a real documentary — depicts the everyday lives of office employees in the Scranton , Pennsylvania , branch of the fictional Dunder Mifflin Paper Company . In this episode , Andy Bernard ( Ed Helms ) attempts to make everyone 's Christmas wishes come true , including those of a drunken Erin Hannon ( Ellie Kemper ) . Meanwhile , Dwight Schrute ( Rainn Wilson ) and Jim Halpert ( John Krasinski ) are entangled in an escalating prank war wherein one attempts to frame the other . " Christmas Wishes " rece</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Out of This World Adventures = Out of This World Adventures was a pulp magazine which published two issues , in July and December 1950 . It included several pages of comics as well as science fiction stories . It was edited by Donald A. Wollheim and published by Avon . Sales were weak , and after two issues Avon decided to cancel it . = = Publication history = = The early 1950s saw dramatic changes in the world of U.S. science fiction publishing . At the start of 1949 , all but one of the major magazines in the field were in pulp format ; by the end of 1955 , almost all had either ceased publication or switched to digest format . Despite the rapid decline of the pulp market , several new science fiction magazines were launched in pulp format during these years ; Out of This World Adventures was one of these . In 1947 Avon Books launched the Avon Fantasy Reader , a series of fantasy anthologies in digest format , edited by Donald A. Wollheim . Two years later , Joseph Meyers , Avon 's p</t>
+          <t>Conflict Resolution ( The Office ) = " Conflict Resolution " is the twenty-first and penultimate episode of the second season of the American comedy television series The Office , the show 's twenty-seventh episode overall . Written by executive producer and show runner Greg Daniels and directed by Charles McDougall , " Conflict Resolution " first aired in the United States on May 4 , 2006 on NBC . The episode guest stars Scott Adsit , from Moral Orel and 30 Rock , as a photographer . The series depicts the everyday lives of office employees in the Scranton , Pennsylvania branch of the fictional Dunder Mifflin Paper Company . In the episode , Michael Scott ( Steve Carell ) resolves a conflict between Oscar Martinez ( Oscar Nunez ) and Angela Martin ( Angela Kinsey ) , and then discovers a file of other unresolved complaints between staff members and he determines to resolve them . But Michael 's attempts actually unearth old tensions and create new ones between the office employees . M</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Flash Gordon Strange Adventure Magazine = Flash Gordon Strange Adventure Magazine was a pulp magazine which was launched in December 1936 . It was published by Harold Hersey , and was an attempt to cash in on the growing comics boom , and the popularity of the Flash Gordon comic strip in particular . The magazine contained a novel about Flash Gordon and three unrelated stories ; there were also eight full-page color illustrations . The quality of both the artwork and the fiction was low , and the magazine only saw a single issue . It is now extremely rare . = = Publication history and contents = = Although science fiction ( sf ) had been published before the 1920s , it did not begin to coalesce into a separately marketed genre until the appearance in 1926 of Amazing Stories , a pulp magazine published by Hugo Gernsback . After 1931 , when Miracle Science and Fantasy Stories was launched , no new science fiction magazines appeared for several years . In 1934 a science fiction comic stri</t>
+          <t>Viewing Party = " Viewing Party " is the eighth episode of seventh season of the American comedy television series The Office , and the show 's 134th episode overall . Written by Jon Vitti and directed by Ken Whittingham , the episode aired on NBC in the United States on November 11 , 2010 . The series — presented as if it were a real documentary — depicts the everyday lives of office employees in the Scranton , Pennsylvania , branch of the fictional Dunder Mifflin Paper Company . In the episode , Erin Hannon ( Ellie Kemper ) and Gabe Lewis ( Zach Woods ) invite the office over to Gabe 's house for a Glee viewing party . Michael Scott cannot handle the fact that the office workers think of Gabe as their boss instead of him . Growing more jealous of Gabe and Erin 's relationship , Andy Bernard ( Ed Helms ) goes to extremes in order to impress her . Dwight Schrute ( Rainn Wilson ) helps Pam Halpert ( Jenna Fischer ) with Cece , much to her husband Jim 's chagrin . The episode featured se</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Canadian comics = Canadian comics refers to comics and cartooning by citizens of Canada or permanent residents of Canada regardless of residence . Canada has two official languages , and distinct comics cultures have developed in English and French Canada . The English tends to follow American trends , and the French Franco-Belgian ones , with little crossover between the two cultures . Canadian comics run the gamut of comics forms , including editorial cartooning , comic strips , comic books , graphic novels , and webcomics , and are published in newspapers , magazines , books , and online . They have received attention in international comics communities and have received support from the federal and provincial governments , including grants from the Canada Council for the Arts . There are a comics publishers throughout the country , as well as large small press , self-publishing , and minicomics communities . In English Canada many cartoonists , from Hal Foster to Todd McFarlane , h</t>
+          <t>The Target ( The Office ) = " The Target " is the eighth episode of the ninth season of the American comedy television series The Office and the 184th episode overall . The episode originally aired on NBC on November 29 , 2012 . It features guest star Chris Gethard as Trevor . The series depicts the everyday lives of office employees in the Scranton , Pennsylvania branch of the fictional Dunder Mifflin Paper Company . In the episode , Angela Lipton ( Angela Kinsey ) goes to Dwight Schrute ( Rainn Wilson ) for help when she learns that her husband is having an affair . Stanley Hudson ( Leslie David Baker ) and Phyllis Vance ( Phyllis Smith ) take advantage of Jim Halpert ( John Krasinski ) when he needs a favor , and Pete ( Jake Lacy ) distracts Pam Halpert ( Jenna Fischer ) as she begins painting her mural . " The Target " received positive reviews from critics , with many commenting on Nunez and Kinsey 's performances . The episode was viewed by 3.88 million viewers and received 1.9 /</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Miracle Science and Fantasy Stories = Miracle Science and Fantasy Stories was a pulp science fiction magazine which published two issues in 1931 . The fiction was unremarkable , but the cover art and illustrations , by Elliott Dold , were high quality , and have made the magazine a collector 's item . The magazine ceased publication when Dold became ill and was unable to continue his duties both as editor and artist . = = Publication history = = In 1931 , Harold Hersey , who had been working in the pulp magazine field for over a decade , decided to launch a new science fiction ( sf ) and fantasy magazine . Hersey had been the editor for the first half of The Thrill Book 's run of 16 issues in 1919 , and had also worked for Clayton Magazines , where in 1928 he had proposed a sf magazine to William Clayton . Clayton turned down the idea , but the following year changed his mind and launched Astounding Stories of Super Science , with Harry Bates as editor . After Hersey left Clayton and s</t>
+          <t>The Merger ( The Office ) = " The Merger " is the eighth episode of the third season of the American comedy television series The Office and the show 's 36th overall . It was written by consulting producer Brent Forrester and directed by Ken Whittingham . It first aired on November 16 , 2006 , as a special " super-sized " 40-minute ( including commercials ) episode on NBC . The series depicts the everyday lives of office employees in the Scranton and Stamford branches of the fictional Dunder Mifflin Paper Company . In this episode , the two branches are merged . Jim Halpert ( John Krasinski ) and Pam Beesley ( Jenna Fischer ) have an awkward reunion , Michael Scott ( Steve Carell ) tries to make his new employees feel welcome , and a rivalry begins between Dwight Schrute ( Rainn Wilson ) and Andy Bernard ( Ed Helms ) . The episode featured recurring guest stars Helms , Creed Bratton , Rashida Jones , Wayne Wilderson , Mike Bruner , and Ursula Burton . According to Nielsen Media Researc</t>
         </is>
       </c>
     </row>
@@ -1876,32 +1876,32 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>['spacecraft', 'apollo', 'nasa', 'lunar', 'mission', 'orbit', 'launch', 'moon', 'saturn', 'module', 'manned', 'docking', 'landing', 'flight', 'space']</t>
+          <t>['species', 'small', 'female', 'large', 'male', 'found', 'larger', 'size', 'long', 'shark', 'dorsal', 'head', 'adult', 'waters', 'body']</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Advanced Gemini = Advanced Gemini is a number of proposals that would have extended the Gemini program by the addition of various missions , including manned low Earth orbit , circumlunar and lunar landing missions . Gemini was the second manned spaceflight program operated by NASA , and consisted of a two-seat spacecraft capable of maneuvering in orbit , docking with unmanned spacecraft such as Agena Target Vehicles , and allowing the crew to perform tethered extra-vehicular activities . A range of applications were considered for Advanced Gemini missions , including military flights , space station crew and logistics delivery , and lunar flights . The Lunar proposals ranged from reusing the docking systems developed for the Agena target vehicle on more powerful upper stages such as the Centaur , which could propel the spacecraft to the Moon , to complete modifications of the Gemini to enable it to land on the Lunar surface . Its applications would have ranged from manned lunar flybys</t>
+          <t>Whitetip reef shark = The whitetip reef shark ( Triaenodon obesus ) is a species of requiem shark , in the family Carcharhinidae , and the only member of its genus . A small shark usually not exceeding 1.6 m ( 5.2 ft ) in length , this species is easily recognizable by its slender body and short but broad head , as well as tubular skin flaps beside the nostrils , oval eyes with vertical pupils , and white-tipped dorsal and caudal fins . One of the most common sharks found on Indo-Pacific coral reefs , the whitetip reef shark occurs as far east as South Africa and as far west as Central America . It is typically found on or near the bottom in clear water , at a depth of 8 – 40 m ( 26 – 131 ft ) . During the day , whitetip reef sharks spend much of their time resting inside caves . Unlike other requiem sharks , which rely on ram ventilation and must constantly swim to breathe , this shark can pump water over its gills and lie still on the bottom . At night , whitetip reef sharks emerge t</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Soyuz TM-30 = Soyuz TM-30 ( Russian : Союз ТМ-30 , Union TM-30 ) , also known as Mir EO-28 , was a Soyuz mission , the 39th and final human spaceflight to the Mir space station . The crew of the mission was sent by MirCorp , a privately funded company , to reactivate and repair the station . The crew also resupplied the station and boosted the station to an orbit with a low point ( perigee ) of 360 and a high point ( apogee ) of 378 kilometers ( 223 and 235 miles , respectively ) . The boost in the station 's orbit , which was done by utilizing the engines of the Progress M1-1 and M1-2 spacecraft , made transit between Mir and the International Space Station impossible , as desired by NASA . The mission was the first privately funded mission to a space station . The mission was part of an effort by MirCorp to refurbish and privatize the aging Mir space station , which was nearing the end of its operational life . Further commercially funded missions beyond Soyuz TM-30 were originally p</t>
+          <t>Dusky shark = The dusky shark ( Carcharhinus obscurus ) is a species of requiem shark , in the family Carcharhinidae , occurring in tropical and warm-temperate continental seas worldwide . A generalist apex predator , the dusky shark can be found from the coast to the outer continental shelf and adjacent pelagic waters , and has been recorded from a depth of 400 m ( 1,300 ft ) . Populations migrate seasonally towards the poles in the summer and towards the equator in the winter , traveling hundreds to thousands of kilometers . One of the largest members of its genus , the dusky shark reaches 4.2 m ( 14 ft ) in length and 347 kg ( 765 lb ) in weight . It has a slender , streamlined body and can be identified by its short round snout , long sickle-shaped pectoral fins , ridge between the first and second dorsal fins , and faintly marked fins . Adult dusky sharks have a broad and varied diet , consisting mostly of bony fishes , sharks and rays , and cephalopods , but also occasionally cru</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Mir EO-19 = Mir EO-19 ( Russian : Мир ЭО-19 , also known as Principal Expedition 19 ) was the nineteenth manned expedition to the space station Mir , lasting from June to September 1995 . The crew , consisting of Russian cosmonauts Anatoly Solovyev and Nikolai Budarin , launched on June 27 , 1995 aboard the Space Shuttle Atlantis on the STS-71 mission . After remaining aboard Mir for approximately 75 days , Solovyev and Budarin returned aboard the Soyuz TM-21 spacecraft on September 11 , 1995 . EO-19 lasted just under three months and was the only complete all-Russian crewed expedition to Mir in 1995 and was the first Mir expedition launched on an American Space Shuttle . The mission that launched EO-19 , STS-71 , was the first Space Shuttle docking to Mir . = = Crew = = Antatoly Solovyev served as a crew member on three spaceflights prior to EO-19 : Mir EP-2 , Soyuz TM-9 , and Soyuz TM-15 . This flight was his first aboard a Space Shuttle , with his three previous flights being on the</t>
+          <t>Tiger shark = The tiger shark ( Galeocerdo cuvier ) is a species of requiem shark and the only extant member of the genus Galeocerdo . Commonly known as the " Sea Tiger " , the tiger shark is a relatively large macropredator , capable of attaining a length over 5 m ( 16 ft 5 in ) . It is found in many tropical and temperate waters , and it is especially common around central Pacific islands . Its name derives from the dark stripes down its body which resemble a tiger 's pattern , which fade as the shark matures . The tiger shark is a solitary , mostly nocturnal hunter and is notable for having the widest food spectrum of all sharks , consuming a variety of prey ranging from crustaceans , fish , seals , birds , squid , turtles and sea snakes to dolphins and even other smaller sharks . The tiger shark has been known to eat inedible manmade objects that linger in its stomach , and it has a reputation as a " garbage eater " . While the tiger shark sits atop the food chain as an apex predat</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Apollo program = The Apollo program , also known as Project Apollo , was the third United States human spaceflight program carried out by the National Aeronautics and Space Administration ( NASA ) , which accomplished landing the first humans on the Moon from 1969 to 1972 . First conceived during Dwight D. Eisenhower 's administration as a three-man spacecraft to follow the one-man Project Mercury which put the first Americans in space , Apollo was later dedicated to President John F. Kennedy 's national goal of " landing a man on the Moon and returning him safely to the Earth " by the end of the 1960s , which he proposed in an address to Congress on May 25 , 1961 . Kennedy 's goal was accomplished on the Apollo 11 mission when astronauts Neil Armstrong and Buzz Aldrin landed their Lunar Module ( LM ) on July 20 , 1969 , and walked on the lunar surface , while Michael Collins remained in lunar orbit in the Command / Service Module ( CSM ) , and all three landed safely on Earth on July </t>
+          <t>Shark = Sharks are a group of fish characterized by a cartilaginous skeleton , five to seven gill slits on the sides of the head , and pectoral fins that are not fused to the head . Modern sharks are classified within the clade Selachimorpha ( or Selachii ) and are the sister group to the rays . However , the term " shark " has also been used for extinct members of the subclass Elasmobranchii outside the Selachimorpha , such as Cladoselache and Xenacanthus , as well as other Chondrichthyes such as the holocephalid eugenedontidans . Under this broader definition , the earliest known sharks date back to more than 420 million years ago . Acanthodians are often referred to as " spiny sharks " ; though they are not part of Chondrichthyes proper , they are a paraphyletic assemblage leading to cartilaginous fish as a whole . Since then , sharks have diversified into over 500 species . They range in size from the small dwarf lanternshark ( Etmopterus perryi ) , a deep sea species of only 17 ce</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Apollo program = The Apollo program , also known as Project Apollo , was the third United States human spaceflight program carried out by the National Aeronautics and Space Administration ( NASA ) , which accomplished landing the first humans on the Moon from 1969 to 1972 . First conceived during Dwight D. Eisenhower 's administration as a three-man spacecraft to follow the one-man Project Mercury which put the first Americans in space , Apollo was later dedicated to President John F. Kennedy 's national goal of " landing a man on the Moon and returning him safely to the Earth " by the end of the 1960s , which he proposed in an address to Congress on May 25 , 1961 . Kennedy 's goal was accomplished on the Apollo 11 mission when astronauts Neil Armstrong and Buzz Aldrin landed their Lunar Module ( LM ) on July 20 , 1969 , and walked on the lunar surface , while Michael Collins remained in lunar orbit in the Command / Service Module ( CSM ) , and all three landed safely on Earth on July </t>
+          <t>Grey reef shark = The grey reef shark ( Carcharhinus amblyrhynchos , sometimes misspelled amblyrhynchus or amblyrhinchos ) is a species of requiem shark , in the family Carcharhinidae . One of the most common reef sharks in the Indo-Pacific , it is found as far east as Easter Island and as far west as South Africa . This species is most often seen in shallow water near the drop-offs of coral reefs . The grey reef shark has the typical " reef shark " shape , with a broad , round snout and large eyes . This species can be distinguished from similar species by the plain or white-tipped first dorsal fin , the dark tips on the other fins , the broad , black rear margin on the tail fin , and the lack of a ridge between the dorsal fins . Most individuals are less than 1.9 m ( 6.2 ft ) long . Grey reef sharks are fast-swimming , agile predators that feed primarily on free-swimming bony fishes and cephalopods . Their aggressive demeanor enables them to dominate many other shark species on the r</t>
         </is>
       </c>
     </row>
@@ -1911,32 +1911,32 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>['phillies', 'inning', 'yankees', 'dodgers', 'giants', 'yankee', 'breaker', 'innings', 'tie', 'pitcher', 'run', 'braves', 'game', 'runs', 'pennant']</t>
+          <t>['ride', 'train', 'coaster', 'roller', 'riders', 'station', 'steel', 'trains', 'lift', 'operate', 'hour', 'brake', 'drop', 'themed', 'officially']</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2013 American League Wild Card tie-breaker game = The 2013 American League Wild Card tie-breaker game was a one-game extension to Major League Baseball 's ( MLB ) 2013 regular season , played between the Texas Rangers and Tampa Bay Rays to determine the second participant in the 2013 American League ( AL ) Wild Card Game . It was played at the Rangers Ballpark in Arlington on September 30 , 2013 . The Rays defeated the Rangers , 5 – 2 , and advanced to the AL Wild Card Game against the Cleveland Indians at Progressive Field , which they won 4 – 0 ; the Rangers failed to qualify for the postseason . The tie-breaker game was necessary after both teams finished the season with win – loss records of 91 – 71 and thus tied for the second Wild Card position in the AL . The Rangers were awarded home field for the game , as they won the regular season series against the Rays , four-games-to-three . The game was televised on TBS . It was the fourth tie-breaker in MLB history for a Wild Card spot</t>
+          <t>Phantom 's Revenge = Phantom 's Revenge ( formerly known as Steel Phantom ) is a steel roller coaster at Kennywood . When it opened in 1991 , it was the fastest roller coaster and had the longest drop of any roller coaster in the world . The ride was originally manufactured by Arrow Dynamics . After the 2000 season , D.H. Morgan Manufacturing was brought in to renovate the ride , most notably to remove the four inversions . Unlike most roller coasters , the ride 's second drop through Thunderbolt 's structure is longer than its first drop . The ride has been ranked in the Golden Ticket Awards every year since 2000 . It was ranked in the top 10 every year from 2002 - 2011 . In addition , it has been ranked in the top 25 of Mitch Hawker 's Best Steel Roller Coaster Poll every year since 2001 and in the top 5 of the National Amusement Park Historical Association Favorite Steel Roller Coaster poll every year except 2008 . = = History = = Henry Henniger , the president of Kennywood Entertai</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2014 National League Wild Card Game = The 2014 National League Wild Card Game was a play-in game during Major League Baseball 's ( MLB ) 2014 postseason played between the National League 's ( NL ) two wild card teams , the San Francisco Giants and the Pittsburgh Pirates . It was held at PNC Park in Pittsburgh , Pennsylvania , on October 1 , 2014 , starting at 8 : 07 p.m. EDT . After both teams finished the regular season with identical records of 88 – 74 , the Pirates were awarded home field for the game , as they won the season series against the Giants , four games to two . Despite this advantage , the Giants won by a score of 8 – 0 and advanced to play the Washington Nationals in the NL Division Series ( NLDS ) . In addition to being the third NL Wild Card Game played , it is notable for the first postseason grand slam hit by a shortstop . The game was televised on ESPN , and was also broadcast on ESPN Radio . = = Background = = In Major League Baseball , the two teams with the bes</t>
+          <t xml:space="preserve">Bolliger &amp; Mabillard = Bolliger &amp; Mabillard , abbreviated B &amp; M and formally known as Bolliger &amp; Mabillard Consulting Engineers Inc . , is a roller coaster design consultancy based in Monthey , Switzerland . The company was founded in 1988 by Walter Bolliger and Claude Mabillard , with Bolliger as president and Mabillard as vice-president . Since 1988 , B &amp; M has built 100 roller coasters around the world and have pioneered several new ride technologies , most notably the inverted roller coaster . Since 1990 , all coasters designed by B &amp; M that have been built within North America have been manufactured by Clermont Steel Fabricators which is located in Batavia , Ohio , United States . B &amp; M started with four employees and has since grown ; as of 2012 it employs 37 people , mostly engineers and draftsmen . In 2016 the company completed its 100th coaster . = = History = = Walter Bolliger and Claude Mabillard starting working for Giovanola , a manufacturing company who supplied rides to </t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1980 National League West tie-breaker game = The 1980 National League West tie-breaker game was a one-game extension to Major League Baseball 's ( MLB ) 1980 regular season , played between the Houston Astros and the Los Angeles Dodgers to decide the winner of the National League 's ( NL ) West Division . The game was played on October 6 , 1980 , at Dodger Stadium in Los Angeles , California . It was necessary after the Dodgers overcame a three-game deficit in the final three games of the season and both teams finished with identical win – loss records of 92 – 70 . The Dodgers won a coin flip late in the season which , by rule at the time , awarded them home field for the game . The Astros won the game , 7 – 1 , with Houston starter Joe Niekro throwing a complete game . This victory advanced the Astros to the 1980 NL Championship Series ( NLCS ) , in which they lost to the Philadelphia Phillies , ending the Astros ' season . In baseball statistics , the tie-breaker counted as the 163rd</t>
+          <t>Superman : Escape from Krypton = Superman : Escape from Krypton ( originally known as Superman : The Escape ) is a steel shuttle roller coaster located at Six Flags Magic Mountain in Valencia , California . When it opened in 1997 , it was the tallest roller coaster in the world , and its speed of 100 mph ( 160 km / h ) was tied for the fastest with Tower of Terror II , a similar roller coaster which opened two months earlier at Dreamworld in Australia . These two coasters were the first to utilize Linear Synchronous Motor ( LSM ) technology to propel vehicles to top speed . The park originally intended to open the ride in 1996 , but the opening was delayed because of several issues with the launch system . The ride was closed in late 2010 for refurbishment , and it emerged in 2011 as " Superman : Escape from Krypton " . The refurbished ride featured new trains which face backward , and it was painted with a new color scheme . As of 2013 , Superman : Escape from Krypton has the third-ta</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1951 National League tie-breaker series = The 1951 National League tie-breaker series was a best-of-three playoff series at the conclusion of Major League Baseball 's ( MLB ) 1951 regular season to decide the winner of the National League ( NL ) pennant . The games were played on October 1 , 2 , and 3 , 1951 , between the New York Giants and Brooklyn Dodgers . It was necessary after both teams finished the season with identical win – loss records of 96 – 58 . It is most famous for the walk-off home run hit by Bobby Thomson of the Giants in the deciding game , which has come to be known as baseball 's " Shot Heard ' Round the World " . This was the second three-game playoff in NL history . After no tiebreakers had been needed since the American League ( AL ) became a major league in 1901 , this was the third such tie in the previous six seasons . The Dodgers had been involved in the previous one as well , losing to the St. Louis Cardinals during the 1946 season in two straight games . I</t>
+          <t>Superman : Krypton Coaster = Superman : Krypton Coaster is a Bolliger &amp; Mabillard Floorless Coaster at the Six Flags Fiesta Texas amusement park in San Antonio , Texas , USA . Opened in 2000 , Superman : Krypton Coaster was one of the first floorless roller coasters in the world . The well-received ride held the title for the world 's tallest vertical loop ( 145 feet ) from its opening until 2013 . It is also known as for being the world 's tallest and fastest floorless coaster at 168 ft ( 51 m ) high and a top speed of 70 mph ( 110 km / h ) . Six Flags describes the coaster Thrill Level at MAXIMUM . Six Flags has announced plans to add Virtual Reality to Superman : Krypton Coaster to enchance the experience . = = History = = In 1999 , Six Flags Great Adventure spent $ 42 million on new attractions including a prototype Floorless Coaster by Bolliger &amp; Mabillard , Medusa ( later Bizarro ) . The immediate popularity of the ride , led to Six Flags Fiesta Texas and three other amusement pa</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2009 Philadelphia Phillies season = The Philadelphia Phillies ' 2009 season was the 127th season in the history of the franchise . The team , managed by Charlie Manuel , began their sixth season at Citizens Bank Park and defense of their 2008 World Series championship on April 5 . After collecting a third straight Eastern Division championship , the Phillies won their second consecutive National League pennant for the first time in franchise history ; they were defeated by the New York Yankees in the 2009 World Series . The Phillies posted a second consecutive winning April to open the season with an 11 – 9 record , but the month was marred by the death of " legendary " broadcaster Harry Kalas . After opening the month of May against the rival New York Mets , the Phillies met President Barack Obama to celebrate their World Series victory the previous season , and had two rookie pitchers win consecutive starts for the first time since 2007 . Starting pitcher Jamie Moyer earned his 250th</t>
+          <t>Maverick ( roller coaster ) = Maverick is a steel roller coaster built by Intamin at Cedar Point in Sandusky , Ohio , United States . It was the seventeenth roller coaster built at the park since Blue Streak in 1964 . It is notable as being the 500th roller coaster designed by German engineer Werner Stengel and the first roller coaster featuring a Twisted Horseshoe Roll . Maverick 's US $ 21-million price tag makes it Cedar Point 's third most expensive roller coaster . The 4,450-foot ( 1,360 m ) course makes it the fourth longest roller coaster at Cedar Point . Maverick was scheduled to open on May 12 , 2007 , but opening was delayed until May 26 , 2007 after testing revealed the heartline roll element to be too intense . Continued use of the element would have put excessive stress on trains . At a drop angle of 95 degrees , Maverick is Cedar Point 's steepest roller coaster . The ride 's tagline is " The Old West Was Never This Wild . " = = History = = Maverick sits on the former sit</t>
         </is>
       </c>
     </row>
@@ -1946,32 +1946,32 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>['amendment', 'shall', 'constitution', 'clause', 'defendant', 'states', 'rights', 'congress', 'jury', 'amendments', 'ratification', 'constitutional', 'supreme_court', 'senate', 'convention']</t>
+          <t>['building', 'church', 'stone', 'wall', 'built', 'site', 'listed', 'roof', 'windows', 'century', 'walls', 'buildings', 'tower', '19th', 'restoration']</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>United States Bill of Rights = The Bill of Rights is the collective name for the first ten amendments to the United States Constitution . Proposed following the oftentimes bitter 1787 – 88 battle over ratification of the U.S. Constitution , and crafted to address the objections raised by Anti-Federalists , the Bill of Rights amendments add to the Constitution specific guarantees of personal freedoms and rights , clear limitations on the government 's power in judicial and other proceedings , and explicit declarations that all powers not specifically delegated to Congress by the Constitution are reserved for the states or the people . The concepts codified in these amendments are built upon those found in several earlier documents , including the Virginia Declaration of Rights and the English Bill of Rights 1689 , along with earlier documents such as Magna Carta ( 1215 ) . On June 8 , 1789 , Representative James Madison introduced nine amendments to the constitution in the House of Repr</t>
+          <t>St Mary 's Church , Astbury = St Mary 's Church is an Anglican parish church in the village of Newbold Astbury , Cheshire , England . It is recorded in the National Heritage List for England as a designated Grade I listed building , and its architecture has been praised by a number of writers . It is possible that a church was present on the site in the Saxon era , although the earliest fabric in the church is Norman . The present ground plan was established in the 13th and 14th centuries , from which time the church 's external appearance dates , apart from a major rebuilding in the later part of the 15th century , when the range of high windows or clerestory was added . All styles of English Gothic architecture , are represented in the church : Early English , Decorated , and Perpendicular . During the civil war , a group of Roundheads stabled their horses in the church . In the 19th century the interior of the church was restored by George Gilbert Scott ; some wall paintings were re</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Constitution of Virginia = The Constitution of the Commonwealth of Virginia is the document that defines and limits the powers of the state government and the basic rights of the citizens of the U.S. Commonwealth of Virginia . Like all other state constitutions , it is supreme over Virginia 's laws and acts of government , though it may be superseded by the United States Constitution and U.S. federal law as per the Supremacy Clause . The original Virginia Constitution of 1776 was enacted in conjunction with the Declaration of Independence by the first thirteen states of the United States of America . Virginia was an early state to adopt its own Constitution on June 29 , 1776 , and the document was widely influential both in the United States and abroad . In addition to frequent amendments , there have been six major subsequent revisions of the constitution ( by Conventions for the constitutions of 1830 , 1851 , 1864 , 1870 , 1902 , and by commission for 1971 amendments ) . These new co</t>
+          <t xml:space="preserve">St Margaret 's Church , Ifield = St Margaret 's Church is an Anglican church in the Ifield neighbourhood of Crawley , a town and borough in West Sussex , England . It is the ancient parish church of the village of Ifield ; the medieval settlement was expanded to form one of the New Town of Crawley 's 13 neighbourhoods , and the church 's modern parish now serves several other neighbourhoods as well . The present building incorporates the chancel from a 13th-century church which may have replaced a wooden building of two or three centuries earlier . Additions in the 14th century included stone effigies representing a knight and his wife , considered to be excellent examples of such sculptures . More structural changes took place at regular intervals , and a major Victorian restoration by architect Somers Clarke included an extension to the nave and a new tower . English Heritage has listed the church at Grade I because of its architectural and historical importance . The churchyard has </t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Crimes Act of 1790 = The Crimes Act of 1790 ( or the Federal Criminal Code of 1790 ) , formally titled An Act for the Punishment of Certain Crimes Against the United States , defined some of the first federal crimes in the United States and expanded on the criminal procedure provisions of the Judiciary Act of 1789 . The Crimes Act was a " comprehensive statute defining an impressive variety of federal crimes . " As an enactment of the First Congress , the Crimes Act is often regarded as a quasi-constitutional text . The punishment of treason , piracy , counterfeiting , as well as crimes committed on the high seas or against the law of nations , followed from relatively explicit constitutional authority . The creation of crimes within areas under exclusive federal jurisdiction followed from the plenary power of Congress over the " Seat of the Government , " federal enclaves , and federal territories . The creation of crimes involving the integrity of the judicial process derived from Co</t>
+          <t>St Eugrad 's Church , Llaneugrad = St Eugrad 's Church , Llaneugrad is an isolated church near the village of Marian-glas , in Anglesey , north Wales . A church was supposedly founded here by St Eugrad in about 605 , although the earliest parts of the present structure are the nave , chancel and chancel arch , which date from the 12th century . A side chapel was added to the north in the 16th century , and some moderate restoration work was carried out in the 19th century . It contains a 12th-century font , a 13th-century carved stone depicting the crucifixion , and a memorial to one of the officers killed when the Royal Charter sank off Anglesey in 1859 . The church is still used for worship by the Church in Wales , one of four in a combined parish ; one of the others is St Gallgo 's Church , Llanallgo , founded by Eugrad 's brother . As of 2012 , the parish does not have an incumbent priest . St Eugrad 's is a Grade II * listed building , a national designation given to " particularl</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Fourteenth Amendment to the United States Constitution = The Fourteenth Amendment ( Amendment XIV ) to the United States Constitution was adopted on July 9 , 1868 , as one of the Reconstruction Amendments . The amendment addresses citizenship rights and equal protection of the laws , and was proposed in response to issues related to former slaves following the American Civil War . The amendment was bitterly contested , particularly by Southern states , which were forced to ratify it in order for them to regain representation in Congress . The Fourteenth Amendment , particularly its first section , is one of the most litigated parts of the Constitution , forming the basis for landmark decisions such as Roe v. Wade ( 1973 ) regarding abortion , Bush v. Gore ( 2000 ) regarding the 2000 presidential election , and Obergefell v. Hodges ( 2015 ) regarding same-sex marriage . The amendment limits the actions of all state and local officials , including those acting on behalf of such an offici</t>
+          <t xml:space="preserve">St Peter 's Church , Llanbedrgoch = St Peter 's Church , Llanbedrgoch , is a small medieval parish church near the village of Llanbedrgoch in Anglesey , north Wales . The oldest parts of the building date from the 15th century ; it was extended in the 17th century and restored twice in the 19th century . The doorway is decorated with carvings of two human heads , one wearing a mitre . The church contains a reading desk made from 15th-century bench ends , one carved with a mermaid holding a mirror and comb . The church is still used for worship by the Church in Wales , as of 2013 , and is one of three in a group of parishes . It is a Grade II * listed building , a national designation given to " particularly important buildings of more than special interest " , because of its " substantial medieval fabric " . = = History and location = = St Peter 's Church is in a rural location along a narrow lane near the village of Llanbedrgoch in Anglesey , north Wales . The village itself is about </t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>United States v. More = United States v. More , 7 U.S. 159 ( 1805 ) , was a United States Supreme Court case in which the Court held that it had no jurisdiction to hear appeals from criminal cases in the circuit courts by writs of error . Relying on the Exceptions Clause , More held that Congress 's enumerated grants of appellate jurisdiction to the Court operated as an exercise of Congress 's power to eliminate all other forms of appellate jurisdiction . The second of forty-one criminal cases heard by the Marshall Court , More ensured that the Court 's criminal jurisprudence would be limited to writs of error from the state ( and later , territorial ) courts , original habeas petitions and writs of error from habeas petitions in the circuit courts , and certificates of division and mandamus from the circuit courts . Congress did not grant the Court jurisdiction to hear writs of error from the circuit courts in criminal cases until 1889 , for capital crimes , and 1891 , for other " inf</t>
+          <t xml:space="preserve">St Mary 's Church , Nantwich = St Mary 's Church is in the centre of the market town of Nantwich , Cheshire , England . The church is recorded in the National Heritage List for England as a designated Grade I listed building . It has been called the " Cathedral of South Cheshire " and it is considered by some to be one of the finest medieval churches , not only in Cheshire , but in the whole of England . The architectural writer Raymond Richards described it as " one of the great architectural treasures of Cheshire " , and Alec Clifton-Taylor included it in his list of " outstanding " English parish churches . The building dates from the 14th century , although a number of changes have since been made , particularly a substantial 19th-century restoration by Sir George Gilbert Scott . The church and its octagonal tower are built in red sandstone . Features of the church 's interior include the lierne-vaulted ceiling of the choir , the carved stone canopies of the sedilia in the chancel </t>
         </is>
       </c>
     </row>
@@ -1981,32 +1981,32 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>['singapore', 'law', 'judicial', 'parliament', 'constitution', 'article', 'courts', 'minister', 'court', 'constitutional', 'high_court', 'persons', 'public', 'tribunal', 'act']</t>
+          <t>['battle', 'men', 'army', 'troops', 'french', 'command', 'general', 'british', 'sent', 'attack', 'soldiers', 'forces', 'wounded', 'killed', 'commanded']</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Government of Singapore = The Government of Singapore is defined by the Constitution of the Republic of Singapore to mean the Executive branch of government , which is made up of the President and the Cabinet of Singapore . Although the President acts in his personal discretion in the exercise of certain functions as a check on the Cabinet and Parliament of Singapore , his role is largely ceremonial . It is the Cabinet , composed of the Prime Minister and other Ministers appointed on his advice by the President , that generally directs and controls the Government . The Cabinet is formed by the political party that gains a simple majority in each general election . A statutory board is an autonomous agency of the Government that is established by an Act of Parliament and overseen by a government ministry . Unlike ministries and government departments that are subdivisions of ministries , statutory boards are not staffed by civil servants and have greater independence and flexibility in </t>
+          <t>Battle of the Lippe = The Battle of the Lippe was a cavalry action fought on 2 September 1595 on the banks of the Lippe river , in Germany , between a corps of Spanish cavalry led by Juan de Córdoba and a corps of Dutch cavalry , supported by English troops , led by Philip of Nassau . The Dutch statholder Maurice of Nassau , taking advantage of the fact that the bulk of the Spanish army was busied in operations in France , besieged the town of Groenlo in Gelderland , but the elderly governor of the citadel of Antwerp , Cristóbal de Mondragón , organized a relief army and forced Maurice to lift the siege . Mondragón next moved to Wesel , positioning his troops on the southern bank of the Lippe river to cover Rheinberg from a Dutch attack . Maurice aimed then , relying on his superior army , to entice Mondragón into a pitched battle , planning to use an ambush to draw the Spanish army into a trap . However , the plan was discovered by the Spanish commander , who organized a counter-ambus</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Constitution of the Republic of Singapore Tribunal = The Constitution of the Republic of Singapore Tribunal was established in 1994 pursuant to Article 100 of the Constitution of the Republic of Singapore . Article 100 provides a mechanism for the President of Singapore , acting on the advice of the Singapore Cabinet , to refer to the Tribunal for its opinion any question as to the effect of any provision of the Constitution which has arisen or appears to likely to arise . Questions referred to the Tribunal may concern the validity of enacted laws or of bills that have not yet been passed by Parliament . Constitutional questions may also be referred to the Tribunal when Parliament attempts to circumvent or curtail the discretionary powers conferred on the President by the Constitution . If the attempt is by way of an ordinary bill , the President can exercise personal discretion to withhold assent to it . It is then open to Cabinet to advise the President to refer to the Tribunal the q</t>
+          <t>Battle of White Plains = The Battle of White Plains was a battle in the New York and New Jersey campaign of the American Revolutionary War fought on October 28 , 1776 , near White Plains , New York . Following the retreat of George Washington 's Continental Army northward from New York City , British General William Howe landed troops in Westchester County , intending to cut off Washington 's escape route . Alerted to this move , Washington retreated farther , establishing a position in the village of White Plains but failed to establish firm control over local high ground . Howe 's troops drove Washington 's troops from a hill near the village ; following this loss , Washington ordered the Americans to retreat farther north . Later British movements chased Washington across New Jersey and into Pennsylvania . Washington then crossed the Delaware and surprised a brigade of Hessian troops in the December 26 Battle of Trenton . = = Background = = British General William Howe , after evacu</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Article 14 of the Constitution of Singapore = Article 14 of the Constitution of the Republic of Singapore , specifically Article 14 ( 1 ) , guarantees to Singapore citizens the rights to freedom of speech and expression , peaceful assembly without arms , and association . However , the enjoyment of these rights may be restricted by laws imposed by the Parliament of Singapore on the grounds stated in Article 14 ( 2 ) of the Constitution . There are two types of grounds . For the first type , it must be shown that restricting the rights is " necessary or expedient in the interest " of the grounds . The grounds are the security of Singapore and public order ( applicable to all three rights protected by Article 14 ( 1 ) ) , morality ( freedom of speech and freedom of association ) , and friendly relations with other countries ( freedom of speech only ) . In a 2005 judgment , the High Court expressed the view that the phrase necessary or expedient confers upon Parliament " an extremely wide</t>
+          <t>Battle of Harlem Heights = The Battle of Harlem Heights was fought during the New York and New Jersey campaign of the American Revolutionary War . The action took place in what is now the Morningside Heights and east into the future Harlem neighborhoods of northwestern Manhattan Island in what is now New York City on September 16 , 1776 . The Continental Army , under Commander-in-Chief General George Washington , Major General Nathanael Greene , and Major General Israel Putnam , totaling around 9,000 men , held a series of high ground positions in upper Manhattan . Immediately opposite was the vanguard of the British Army totaling around 5,000 men under the command of Major General Henry Clinton . An early morning skirmish between a patrol of Knowlton 's Rangers and British light infantry piquets developed into a running fight as the British pursued the Americans back through woods towards Washington 's position on Harlem Heights . The overconfident British light troops , having advanc</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Rule of law doctrine in Singapore = In Singapore , the rule of law doctrine has been the topic of considerable disagreement and debate , largely through differing conceptions of the doctrine . These conceptions can generally be divided into two categories developed by legal academics , the " thin " , or formal , conception and the " thick " , or substantive , conception of the rule of law . The thin conception , often associated with the legal scholars Albert Venn Dicey and Joseph Raz , advocates the view that the rule of law is fulfilled by adhering to formal procedures and requirements , such as the stipulations that all laws be prospective , clear , stable and constitutionally enacted , and that the parties to legal disputes are treated equally and without bias on the part of judges . While people subscribing to the thin conception do not dismiss the importance of the content of the law , they take the view that this is a matter of substantive justice and should not be regarded as p</t>
+          <t>Battle of Kings Mountain = The Battle of Kings Mountain was a decisive victory in South Carolina for the Patriot militia over the Loyalist militia in the Southern campaign of the American Revolutionary War . The battle took place on October 7 , 1780 , 9 miles ( 14 km ) south of the present-day town of Kings Mountain , North Carolina in rural Cherokee County , South Carolina , where the Patriot militia defeated the Loyalist militia commanded by British Major Patrick Ferguson of the 71st Foot . Ferguson had arrived in North Carolina in early September 1780 to recruit troops for the Loyalist militia and protect the flank of Lord Cornwallis ' main force . Ferguson issued a challenge to the rebel militias to lay down their arms or suffer the consequences . In response , the Patriot militias led by Benjamin Cleveland , James Johnston , William Campbell , John Sevier , Joseph McDowell and Isaac Shelby rallied for an attack on Ferguson . Receiving intelligence on the oncoming attack , Ferguson</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Presidential Council for Minority Rights = The Presidential Council for Minority Rights ( PCMR ) is a non-elected government body in Singapore established in 1970 , the main function of which is to scrutinize most of the bills passed by Parliament to ensure that they do not discriminate against any racial or religious community . If the Council feels that any provision in a bill amounts to a differentiating measure , it will report its findings to Parliament and refer the bill back to Parliament for reconsideration . The Council also examines subsidiary legislation and statutes in force on 9 January 1970 . One member of the PCMR is nominated by the Chairman to the Presidential Elections Committee , which is empowered to ensure that candidates for the office of President have the qualifications required by the Constitution . The President also appoints and dismisses the chairman and members of the Presidential Council for Religious Harmony ( " PCRH " ) , established by the Maintenance o</t>
+          <t>Battle of Staten Island = The Battle of Staten Island was a raid by Continental Army troops under Major General John Sullivan against British forces on Staten Island on August 22 , 1777 , during the American Revolutionary War . After British Lieutenant General William Howe sailed with most of his army from New York in July , the Americans recognized that the British position on Staten Island was vulnerable , and planned an attack . Sullivan 's raid was well-executed , but it suffered from a shortage of boats to effect the crossing , and one of its detachments was misled by its guide to the front of the enemy position rather than its rear . As a result , Sullivan did not take as many prisoners as expected , and had about 200 of his own men taken prisoner due in part to the lack of boats . Although Sullivan was accused of mismanaging the raid , a court martial held later in 1777 exonerated Sullivan of all charges . = = Background = = In March 1776 the British forces of General William Ho</t>
         </is>
       </c>
     </row>
@@ -2016,32 +2016,32 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>['motorway', 'croatia', 'toll', 'croatian', 'traffic', 'interchanges', 'kilometre', 'route', 'interchange', 'section', 'rest', 'kilometres', 'areas', 'tunnels', 'construction']</t>
+          <t>['championship', 'match', 'title', 'defeated', 'event', 'team', 'face', 'won', 'night', 'following', 'kane', 'attacked', 'main', 'wrestler', 'win']</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">A5 ( Croatia ) = The A5 motorway ( Croatian : Autocesta A5 ) is a motorway in Croatia spanning 55.5 kilometres ( 34.5 mi ) . It connects Osijek , the largest city in Slavonia region , to the Croatian motorway network at the Sredanci interchange of the A3 motorway . The A5 represents a significant north – south transportation corridor in Croatia and is a part of the European route E73 . The A5 motorway route also follows Pan-European corridor Vc . In addition to Osijek , the A5 motorway also passes near Đakovo . The first section of the A5 , joining the Sredanci interchange to Đakovo , was opened in 2007 ; the route to Osijek opened in 2009 . As of September 2011 , the section south of the A3 , extending to the Sava River and border of Bosnia and Herzegovina , is under construction . Once the entire Pan-European corridor Vc is completed , motorists will recognize the A5 's importance as a transit route . When completed , the corridor shall entail the A5 itself extended to the Hungarian </t>
+          <t>TNA Unbreakable = Unbreakable was a professional wrestling pay-per-view ( PPV ) event produced by the Total Nonstop Action Wrestling ( TNA ) promotion that took place on September 11 , 2005 at the TNA Impact ! Zone in Orlando , Florida . It was the first and only show under the Unbreakable name and ninth event in the 2005 TNA PPV schedule . Nine professional wrestling matches and two pre-show matches were featured on the card , three of which were for championships . The main event at Unbreakable was a Three Way match for the TNA X Division Championship , in which then-champion Christopher Daniels defended the title against the challengers A.J. Styles and Samoa Joe . Styles ended up gaining the pinfall in the bout , thus winning the title . The NWA World Heavyweight Championship was defended in a Raven 's Rules match between then-champion Raven and the challenger Rhino . Raven pinned Rhino in the encounter to retain the championship . A Four Way Elimination Tag Team match for the NWA W</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">A2 ( Croatia ) = The A2 motorway ( Croatian : Autocesta A2 ) is a motorway in the Hrvatsko Zagorje region of northern Croatia , connecting Zagreb to the Macelj border crossing and Slovenia . The A2 motorway is part of the European route E59 and the Pan-European Corridor Xa . The motorway spans 59.2 kilometres ( 36.8 mi ) between the Slovenian border and the Jankomir interchange within the Zagreb bypass , providing road connections to a number of cities and towns besides Zagreb , including Krapina , Zabok and Zaprešić . All sections of the motorway , except the northernmost one between the Macelj border crossing and Trakošćan , and the southernmost one near Zagreb , are tolled , using a closed toll collection system . Construction of the motorway began in 1990 , lbut a decade-long hiatus between the mid-1990s and 2004 caused by funding issues and the setting up of a separate company to develop and operate the motorway meant it was not completed until 2007 . As of July 2011 , the entire </t>
+          <t>Night of Champions ( 2008 ) = Night of Champions ( 2008 ) was a professional wrestling pay-per-view event produced by World Wrestling Entertainment ( WWE ) and presented by P &amp; G 's Gillette Fusion Power , which took place on June 29 , 2008 , at the American Airlines Center in Dallas , Texas . It was the first annual event to be promoted solely under the Night of Champions name and the eighth annual event under the Vengeance / Night of Champions chronology . It starred wrestlers from the Raw , SmackDown , and ECW brands . Like the previous year before , every match on the card was contested for a championship ; three were won and five were retained . The main event was an interpromotional match for the WWE Championship between SmackDown representative , Triple H , and Raw representative , John Cena ; Triple H won the match and retained the championship . The main match was also an interpromotional match for the World Heavyweight Championship between SmackDown representative , Edge , an</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>A4 ( Croatia ) = The A4 motorway ( Croatian : Autocesta A4 ) is a motorway in Croatia spanning 97.0 kilometres ( 60.3 mi ) . It connects the nation 's capital , Zagreb , to the city of Varaždin and to Budapest , Hungary via the Goričan border crossing . The motorway represents a major north – south transportation corridor in Croatia and is a part of European routes E65 and E71 . The A4 motorway route also follows Pan-European corridor Vb . Apart from Zagreb and Varaždin , the A4 motorway runs near a number of Croatian cities , and connects to the rest of the Croatian motorway network east of Zagreb . The motorway route was completed in 2008 . The motorway 's national significance is reflected in the positive economic impact on the cities and towns it connects , as well as its importance to tourism in Croatia . The genuine importance of the motorway as a transit route will be demonstrated upon completion of proposed expansion of Port of Rijeka and Rijeka transport node , since the A4 re</t>
+          <t xml:space="preserve">WrestleMania XXIV = WrestleMania XXIV was the twenty-fourth annual WrestleMania professional wrestling pay-per-view event produced by World Wrestling Entertainment ( WWE ) . The event took place on March 30 , 2008 , at the Florida Citrus Bowl in Orlando , Florida and was the first WrestleMania to be held in the state of Florida . WrestleMania XXIV was the second WrestleMania to be held outdoors , with the first being WrestleMania IX , held in Caesars Palace in Las Vegas , Nevada . Nine professional wrestling matches were scheduled for the event , which featured a supercard , a scheduling of more than one main bout . The first of these matches was a Singles match from the SmackDown brand that featured The Undertaker defeating World Heavyweight Champion Edge to win the title . The second was a Triple Threat match from the Raw brand , in which WWE Champion Randy Orton defeated challengers Triple H and John Cena to retain the championship . The other was a singles match from the ECW brand </t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>A7 ( Croatia ) = The A7 motorway ( Croatian : Autocesta A7 ) is a 42.4-kilometre-long ( 26.3 mi ) motorway in Croatia . It connects the nation 's largest port in Rijeka , to the Croatian motorway network , as well as to the Rupa and Pasjak border crossings to Slovenia . The motorway forms part of a longitudinal transportation corridor in Croatia , and it is a part of European route E61 Villach – Ljubljana – Trieste – Rijeka . The A7 motorway route south of Orehovica interchange , where it also intersects Pan-European corridor Vb , is a part of European route E65 . The A7 motorway runs near a number of Croatian cities and provides access to Učka Nature Park and , indirectly , to numerous resorts in the Istria and Kvarner Gulf regions . The motorway is nationally significant because of its positive economic impact on the cities and towns it connects , and because of its contribution to tourism in Croatia . The importance of the motorway as a transit route will be further increased upon c</t>
+          <t>Backlash ( 2003 ) = Backlash ( 2003 ) was the fifth annual Backlash professional wrestling pay-per-view event produced by the World Wrestling Entertainment ( WWE ) . It was presented by Castrol GTX , and took place on April 27 , 2003 , at the Worcester Centrum in Worcester , Massachusetts and starred talent from the promotion 's Raw and SmackDown ! brands . The main event and featured match of the Raw brand was the encounter of Goldberg and The Rock , where Goldberg , in his first WWE Pay-Per-View , defeated Rock by pinfall , following a spear and a Jackhammer . The featured match on the undercard was a WWE Championship match from the SmackDown ! brand , between John Cena and the reigning champion , Brock Lesnar , where Lesnar defeated Cena by pinfall after an F-5 . The other predominant match on the undercard was a six-man tag team match from the Raw brand , between the team of Triple H , Ric Flair , and Chris Jericho facing Shawn Michaels , Kevin Nash , and Booker T. Triple H , Flair</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>A6 ( Croatia ) = The A6 motorway ( Croatian : Autocesta A6 ) is a motorway in Croatia spanning 80.2 kilometres ( 49.8 mi ) . It connects the nation 's capital , Zagreb , via the A1 , to the seaport of Rijeka . The motorway forms a major north – south transportation corridor in Croatia and is a part of European route E65 Nagykanizsa – Zagreb – Rijeka – Zadar – Split – Dubrovnik – Podgorica . The A6 motorway route also follows Pan-European corridor Vb . The A6 motorway runs near a number of Croatian cities , provides access to Risnjak National Park and indirectly to numerous resorts , notably in the Istria and Kvarner Gulf regions . The motorway route was completed in 2008 . The motorway is nationally significant because of its positive economic impact on the cities and towns it connects , and because of its contribution to tourism in Croatia . The importance of the motorway as a transit route will be further increased upon completion of a proposed expansion of the Port of Rijeka and Rij</t>
+          <t xml:space="preserve">Vengeance ( 2006 ) = Vengeance ( 2006 ) was a professional wrestling pay-per-view event produced by World Wrestling Entertainment ( WWE ) , which took place on June 25 , 2006 , at the Charlotte Bobcats Arena in Charlotte , North Carolina . It was the sixth annual Vengeance event . Eight professional wrestling matches were featured on the event 's card . The buildup to the matches and the scenarios that took place before , during , and after the event were planned by WWE 's script writers . The event starred wrestlers from the Raw brand : a storyline expansion of the promotion where employees are assigned to a wrestling brand under the WWE banner . The card featured eight televised matches , including two main events which resulted in Rob Van Dam defeating Edge to retain the WWE Championship and D-Generation X ( DX ) ( Triple H and Shawn Michaels ) defeating Spirit Squad ( Kenny , Johnny , Mitch , Nicky , and Mikey ) in a 5-on-2 Handicap match . One bout was featured on the undercard . </t>
         </is>
       </c>
     </row>
@@ -2051,32 +2051,32 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>['clark', 'superman', 'oliver', 'finale', 'season', 'comic', 'character', 'relationship', 'whitney', 'metropolis', 'believes', 'discovers', 'secret', 'martha', 'series']</t>
+          <t>['entertain', 'entertained', 'buddy', 'profanity', 'flamboyant', 'racially', 'courted', 'rampant', 'subtitles', 'bishop', 'psychologically', 'app', 'oppressed', 'horrific', 'bother']</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Batman in film = The fictional character Batman , a comic book superhero featured in DC Comics publications and created by Bob Kane and Bill Finger , has appeared in various films since his inception . The character first starred in two serial films in the 1940s , Batman and Batman and Robin . The character also appeared in the 1966 film Batman , which was a feature film adaptation of the 1960s Batman TV series starring Adam West and Burt Ward , who also starred in the film . Toward the end of the 1980s , the Warner Bros. studio began producing a series of feature films starring Batman , beginning with the 1989 film Batman , directed by Tim Burton and starring Michael Keaton . Burton and Keaton returned for the 1992 sequel Batman Returns , and in 1995 , Joel Schumacher directed Batman Forever with Val Kilmer as Batman . Schumacher also directed the 1997 sequel Batman &amp; Robin , which starred George Clooney . Batman &amp; Robin was poorly received by both critics and fans , leading to the ca</t>
+          <t>Pomeroy State Park = Pomeroy State Park is an undeveloped and unmarked Connecticut state park located in the town of Lebanon just south of Willimantic . Established around 1955 on the estate of Charles Pomeroy , the park has grown to be 200 acres in total , but lacks an entrance or parking . Activities in the park include hiking and hunting with bows . The park is accessed by parking off the roadside of Connecticut Route 289 . = = History = = Located on the top of Bush Hill , south of Hosmer Mountain , Pomeroy State Park that is named for Charles Pomeroy , a textile manufacturer . The park preserves a forested area that shares a boundary with preserved farmland . The natural setting of the park is undisturbed by development of even an entrance to the park . The park consists of 200 acres of land , of which 90 acres were previously part of the Pomeroy estate before the establishment of the state park . Established circa 1955 , the park was listed as containing 99 acres in the Connecticu</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Clark Kent ( Smallville ) = Clark Kent is a fictional character on the television series Smallville . The character of Clark Kent , first created for comic books by Jerry Siegel and Joe Shuster in 1938 as the alternate identity of Superman , was adapted to television in 2001 by Alfred Gough and Miles Millar . This is the fourth time the character has been adapted to a live-action television series . Clark Kent has been played continually by Tom Welling , with various other actors portraying Clark as a child . The character has also appeared in various literature based on the Smallville series , all of which are completely independent of the television episodes . As of 2011 , Smallville 's Clark Kent has appeared in eighteen young adult novels . In the series , Clark Kent attempts to live the life of a normal human being , and struggles with keeping the secret of his alien heritage from his friends . He has an on-again , off-again relationship with Lana Lang through the first seven seas</t>
+          <t>Applesauce cake = Applesauce cake is a dessert cake prepared using apple sauce , flour and sugar as primary ingredients . Various spices are typically used , and it tends to be a moist cake . Applesauce cake prepared with chunky-style apple sauce may be less moist . Several additional ingredients may also be used in its preparation , and it is sometimes prepared and served as a coffee cake . The cake dates back to early colonial times in the United States . National Applesauce Cake Day occurs annually on June 6 in the U.S. = = History = = The preparation of applesauce cake dates back to early colonial times in the New England Colonies of the northeastern United States . From 1900 to the 1950s , recipes for applesauce cake frequently appeared in American cookbooks . In the United States , National Applesauce Cake Day occurs annually on June 6 . = = Ingredients and preparation = = Applesauce cake is a dessert cake prepared using apple sauce , flour and sugar as main ingredients . Store-b</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Kenny McCormick = Kenneth " Kenny " McCormick ( sometimes spelled as McKormick ) is a main character in the animated adult television series South Park , along with his friends Stan Marsh , Kyle Broflovski , and Eric Cartman . His oft-muffled and indiscernible speech — the result of his parka hood covering his mouth — is provided by co-creator Matt Stone . He debuted on television when South Park first aired on August 13 , 1997 , after having first appeared in The Spirit of Christmas shorts created by Stone and long-time collaborator Trey Parker in 1992 ( Jesus vs. Frosty ) and 1995 ( Jesus vs. Santa ) . Kenny is a third , later fourth-grade student who commonly has extraordinary experiences not typical of conventional small-town life in his hometown of South Park , Colorado , where he lives with his impoverished family . Kenny is animated by computer to look as he did in the show 's original method of cutout animation . He also appears in the 1999 full-length feature film South Park :</t>
+          <t>Romanus ( bishop of Rochester ) = Romanus ( died before 627 ) was the second bishop of Rochester and presumably was a member of the Gregorian mission sent to Kent to Christianize the Anglo-Saxons from their native Anglo-Saxon paganism . Romanus was consecrated bishop around 624 and died before 627 by drowning . Little is known of his life beyond these facts . = = Career = = Presumably Romanus came to England with Augustine of Canterbury 's mission to Kent , He would have arrived either in 597 with the first group of missionaries , or in 601 with the second group . He was consecrated as bishop by his predecessor Justus in 624 , after Justus became Archbishop of Canterbury . He was the second bishop at Rochester . Romanus died before 627 , probably about 625 . He drowned in the Mediterranean Sea off Italy while on a mission to Rome for Justus . Presumably this happened before Justus ' death in 627 . He was certainly dead by 633 , when Paulinus of York became bishop at Rochester after fle</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Lois Lane ( Smallville ) = Lois Lane is a fictional character on the television series Smallville ; she was portrayed continually by Erica Durance since her first appearance in the season four premier " Crusade " to the series finale . Durance began as a guest star in season four , but was promoted to series regular status beginning in season five . The character of Lois Lane , first created for comic books by Jerry Siegel and Joe Shuster in 1938 to be the love interest for Clark Kent and his alter-ego Superman , was adapted to television in 2001 by Alfred Gough and Miles Millar — this is the fourth time the character has been adapted to a live action television series . In Smallville , Lois comes to town to investigate the apparent death of her cousin Chloe Sullivan at the start of the fourth season . After finding Chloe still alive , Lois is forced to enroll in Smallville High to complete the remaining credits of high school she failed to achieve . As the series progresses , her inte</t>
+          <t>Avocado cake = Avocado cake is a cake prepared using avocado as a primary ingredient , together with other typical cake ingredients . The avocados may be mashed , and may be used as an ingredient in cake batter , in cake toppings and alone atop a cake . Cake variations include raw avocado cake , avocado brownies and avocado cheesecake . Raw , uncooked versions of avocado cake can be high in vitamin E and essential fatty acids , which are derived from avocado . Avocado-based cake toppings include avocado fool and avocado crazy . = = Overview = = Avocado is a main ingredient in avocado cake , along with other typical cake ingredients . Various varieties of avocados may be used . Avocado cake may have a subtle avocado flavor imbued in the dish . Mashed avocado may be used as an ingredient in the batter and in cake frostings and toppings . Sliced avocado may be used to top or garnish it , as may other ingredients such as the zest of citrus fruits . Additional ingredients used may include y</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Justice League ( Smallville ) = The Justice League is a fictional group of superheroes on the television series , Smallville , who were adapted for television by Alfred Gough and Miles Millar . The Justice League originally included Oliver Queen , Bart Allen , Victor Stone , and Arthur Curry ; Clark Kent did not accept a role until three seasons later . As the team continued to appear in the series , new characters were introduced and subsequently joined the team . The original Justice League first appeared in the DC comic book The Brave and the Bold # 28 ( 1960 ) , and consisted of members Superman , Batman , Wonder Woman , Flash , Green Lantern , Aquaman , and the Martian Manhunter . In Smallville , the team did not make its first official appearance until the season six episode " Justice " , although each member had been previously introduced individually on various episodes since season four . In the series , the team never formalized a name for themselves , although the cast and c</t>
+          <t>Beurre Maître d 'Hôtel = Beurre Maître d 'Hôtel , also referred to as Maître d 'Hôtel butter , is a type of compound butter ( French : " Beurre composé " ) of French origin , prepared with butter , parsley , lemon juice , salt and pepper . It is a savory butter that is used on meats such as steak ( including the chateaubriand sauce for chateaubriand steak ) , fish , vegetables and other foods . It may be used in place of a sauce , and can significantly enhance a dish 's flavor . Some variations with a sweet flavor exist . It is usually served cold as sliced disks on foods , and is sometimes served as a side condiment . = = Etymology = = The name of Beurre Maître d 'Hôtel is derived from the manner in which it was commonly prepared from scratch by a restaurant 's maître d 'hôtel at diners ' tables . It is also referred to as Maître d 'Hôtel butter . = = Preparation = = Beurre Maître d 'Hôtel is a savory butter prepared by mixing softened butter with very finely minced parsley , lemon ju</t>
         </is>
       </c>
     </row>
@@ -2086,32 +2086,32 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>['euro', 'coins', 'currency', 'note', 'notes', 'denominations', 'dollar', 'value', 'stripe', 'tender', 'silver', 'puerto_rico', 'thread', 'ink', 'issued']</t>
+          <t>['production', 'system', 'crew', 'mission', 'use', 'development', 'based', 'high', 'million', 'aircraft', 'engine', 'control', 'announced', 'new', 'flight']</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Euro = The euro ( sign : € ; code : EUR ) is the official currency of the eurozone , which consists of 19 of the 28 member states of the European Union : Austria , Belgium , Cyprus , Estonia , Finland , France , Germany , Greece , Ireland , Italy , Latvia , Lithuania , Luxembourg , Malta , the Netherlands , Portugal , Slovakia , Slovenia , and Spain . The currency is also officially used by the institutions of the European Union and four other European countries , as well as unilaterally by two others , and is consequently used daily by some 337 million Europeans as of 2015 . Outside of Europe , a number of overseas territories of EU members also use the euro as their currency . Additionally , 210 million people worldwide as of 2013 use currencies pegged to the euro . The euro is the second largest reserve currency as well as the second most traded currency in the world after the United States dollar . As of August 2014 , with more than € 995,000,000,000 in circulation , the euro has t</t>
+          <t xml:space="preserve">Apollo program = The Apollo program , also known as Project Apollo , was the third United States human spaceflight program carried out by the National Aeronautics and Space Administration ( NASA ) , which accomplished landing the first humans on the Moon from 1969 to 1972 . First conceived during Dwight D. Eisenhower 's administration as a three-man spacecraft to follow the one-man Project Mercury which put the first Americans in space , Apollo was later dedicated to President John F. Kennedy 's national goal of " landing a man on the Moon and returning him safely to the Earth " by the end of the 1960s , which he proposed in an address to Congress on May 25 , 1961 . Kennedy 's goal was accomplished on the Apollo 11 mission when astronauts Neil Armstrong and Buzz Aldrin landed their Lunar Module ( LM ) on July 20 , 1969 , and walked on the lunar surface , while Michael Collins remained in lunar orbit in the Command / Service Module ( CSM ) , and all three landed safely on Earth on July </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>500 euro note = The five hundred euro note ( € 500 ) is the highest-value euro banknote and has been used since the introduction of the euro ( in its cash form ) in 2002 . It is one of the highest value circulating banknotes in the world , worth around 551 USD , 3,677 CNY , 58,254 JPY , 543 CHF or 417 GBP . The note is used in the 23 countries which have the euro as their sole currency ( with 22 legally adopting it ) , with a population of about 338 million . It is the largest note measuring 160 × 82 mm and has a purple colour scheme . The five hundred euro banknotes depict bridges and arches / doorways in modern architecture ( around the late 20th century ) . The five hundred euro note contains several complex security features such as watermarks , invisible ink , holograms and microprinting that make counterfeiting very difficult . Initially the high denomination notes were introduced very rapidly so that in first 7 years ( by Dec 2008 ) there were 530,064,413 five hundred euro bankn</t>
+          <t xml:space="preserve">Apollo program = The Apollo program , also known as Project Apollo , was the third United States human spaceflight program carried out by the National Aeronautics and Space Administration ( NASA ) , which accomplished landing the first humans on the Moon from 1969 to 1972 . First conceived during Dwight D. Eisenhower 's administration as a three-man spacecraft to follow the one-man Project Mercury which put the first Americans in space , Apollo was later dedicated to President John F. Kennedy 's national goal of " landing a man on the Moon and returning him safely to the Earth " by the end of the 1960s , which he proposed in an address to Congress on May 25 , 1961 . Kennedy 's goal was accomplished on the Apollo 11 mission when astronauts Neil Armstrong and Buzz Aldrin landed their Lunar Module ( LM ) on July 20 , 1969 , and walked on the lunar surface , while Michael Collins remained in lunar orbit in the Command / Service Module ( CSM ) , and all three landed safely on Earth on July </t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 euro note = The one hundred euro note ( € 100 ) is one of the higher value euro banknotes and has been used since the introduction of the euro ( in its cash form ) in 2002 . The note is used daily by some 332 million Europeans and in the 23 countries which have it as their sole currency ( with 22 legally adopting it ) . It is the third largest note measuring 147 millimetres ( 5.8 in ) × 82 millimetres ( 3.2 in ) and has a green colour scheme . The hundred euro notes depict bridges and arches / doorways in the Baroque and Rococo style ( between the 17th and 18th century ) . The hundred euro note contains several complex security features such as watermarks , invisible ink , holograms and microprinting that document its authenticity . In May 2012 , there were approximately 1,652,287,100 hundred euro banknotes in circulation in the eurozone . = = History = = The euro was founded on 1 January 1999 , when it became the currency of over 300 million people in Europe . For the first three </t>
+          <t>SpaceX reusable launch system development program = The SpaceX reusable launch system development program is a privately funded program to develop a set of new technologies for an orbital launch system that may be reused many times in a manner similar to the reusability of aircraft . The company SpaceX is developing the technologies over a number of years to facilitate full and rapid reusability of space launch vehicles . The project 's long-term objectives include returning a launch vehicle first stage to the launch site in minutes and to return a second stage to the launch pad following orbital realignment with the launch site and atmospheric reentry in up to 24 hours . SpaceX 's long term goal is that both stages of their orbital launch vehicle will be designed to allow reuse a few hours after return . The program was publicly announced in 2011 and the design for returning the rocket to its launchpad using only its own propulsion systems was completed in February 2012 . SpaceX 's ac</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>5 euro note = The five euro note ( € 5 ) is the lowest value euro banknote and has been used since the introduction of the euro ( in its cash form ) in 2002 . The note is used in the 25 countries which have it as their sole currency ( with 23 legally adopting it ) ; with a population of about 332 million . Measuring 120 x 62mm , it is the smallest of the euro notes , and has a grey colour scheme . The five euro banknotes depict bridges and arches / doorways in Classical architecture ( up to the fifth century ) . The five euro note contains several complex security features such as watermarks , invisible ink , holograms and microprinting that document its authenticity . In November 2014 , there were approximately 1,653,458,000 five euro banknotes in circulation around the eurozone . On 8 November 2012 , the European Central Bank announced the first series of notes will be replaced , starting with the 5 euro note on 2 May 2013 . = = History = = The euro was founded on 1 January 1999 , wh</t>
+          <t>Apollo 1 = Apollo 1 , initially designated AS-204 , was the first manned mission of the United States Apollo program , which had as its ultimate goal a manned lunar landing . The low Earth orbital test of the Apollo Command / Service Module never made its target launch date of February 21 , 1967 . A cabin fire during a launch rehearsal test on January 27 at Cape Kennedy Air Force Station Launch Complex 34 killed all three crew members — Command Pilot Virgil I. " Gus " Grissom , Senior Pilot Edward H. White II , and Pilot Roger B. Chaffee — and destroyed the Command Module ( CM ) . The name Apollo 1 , chosen by the crew , was officially retired by NASA in commemoration of them on April 24 , 1967 . Immediately after the fire , NASA convened the Apollo 204 Accident Review Board to determine the cause of the fire , and both houses of the United States Congress conducted their own committee inquiries to oversee NASA 's investigation . The ignition source of the fire was determined to be ele</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>200 euro note = The two hundred euro note ( € 200 ) is the second-highest value euro banknote and has been used since the introduction of the euro ( in its cash form ) in 2002 . The note is used in the 23 countries which have it as their sole currency ( with 22 legally adopting it ) ; with a population of about 332 million . It is the second-largest note , measuring 153 x 82 mm , and has a yellow colour scheme . The two hundred euro banknotes depict bridges and arches / doorways in Art Nouveau style ( 19th and 20th centuries ) . The € 200 note contains several complex security features such as watermarks , invisible ink , holograms and microprinting that document its authenticity . In September 2011 , there were about 178,838,200 € 200 banknotes in circulation around the eurozone . = = History = = The euro was founded on 1 January 1999 , when it became the currency of over 300 million people in Europe . For the first three years of its existence it was an invisible currency , only used</t>
+          <t>Advanced Gemini = Advanced Gemini is a number of proposals that would have extended the Gemini program by the addition of various missions , including manned low Earth orbit , circumlunar and lunar landing missions . Gemini was the second manned spaceflight program operated by NASA , and consisted of a two-seat spacecraft capable of maneuvering in orbit , docking with unmanned spacecraft such as Agena Target Vehicles , and allowing the crew to perform tethered extra-vehicular activities . A range of applications were considered for Advanced Gemini missions , including military flights , space station crew and logistics delivery , and lunar flights . The Lunar proposals ranged from reusing the docking systems developed for the Agena target vehicle on more powerful upper stages such as the Centaur , which could propel the spacecraft to the Moon , to complete modifications of the Gemini to enable it to land on the Lunar surface . Its applications would have ranged from manned lunar flybys</t>
         </is>
       </c>
     </row>
@@ -2121,32 +2121,32 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>['painting', 'paintings', 'works', 'abstract', 'dots', 'art', 'canvas', 'okay', 'artist', 'breasts', 'portrait', 'mirror', 'girl', 'work', 'balloon']</t>
+          <t>['album', 'songs', 'number', 'band', 'release', 'single', 'music', 'track', 'copies', 'released', 'chart', 'billboard', 'tracks', 'sound', 'recording']</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Artist 's Studio — Look Mickey = Artist 's Studio — Look Mickey ( sometimes Artist 's Studio , Look Mickey , Artist 's Studio – Look Mickey or Artist 's Studio No. 1 ( Look Mickey ) ) is a 1973 painting by Roy Lichtenstein . It is one of five large-scale studio interior paintings in a series . The series is either referred to as the Artist 's Studio series or more colloquially as the Studios and sometimes is described as excluding the other 1973 painting , reducing the series to four . The series refers to a set of works by Henri Matisse , with this work specifically referring to L 'Atelier Rouge . The work incorporates several other Lichtenstein 's works and gets its name from the large portion of Lichtenstein 's Look Mickey that is included . Lichtenstein used a much more realistic representation of his own works than is standard for most artists . Elements of the work also refer to works from both Fernand Léger and Matisse . = = Background = = Lichtenstein 's studios reference what </t>
+          <t>Hall of Fame ( Big Sean album ) = Hall of Fame is the second studio album by American hip hop recording artist Big Sean . It was released on August 27 , 2013 , by GOOD Music and Def Jam Recordings . Recording sessions took place from 2011 to 2013 , at the variety of the recording studios ; primarily in Los Angeles , California . The album features guest appearances from Nas , 2 Chainz , Nicki Minaj and Jeezy , while the production on the album was primarily handled by No I.D. , Key Wane , Da Internz , Mano , Young Chop and Hey DJ among others . The album was supported by six singles : " Guap " , " Switch Up " , " Beware " , " Fire " , " Ashley " and " You Don 't Know " . Hall of Fame received generally positive reviews from critics . At Metacritic , the album received an average score of 72 , based on 14 reviews . The album debuted at number 3 on the US Billboard 200 , selling 72,000 copies in its first week . As of February 2015 , the album has sold 155,000 copies in the United States</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Big Painting No. 6 = Big Painting No. 6 ( sometimes Big Painting or Big Painting VI ) is a 1965 oil and Magna on canvas painting by Roy Lichtenstein . Measuring 235 cm × 330 cm ( 92.5 in × 129 in ) , it is part of the Brushstrokes series of artworks that includes several paintings and sculptures whose subject is the actions made with a house-painter 's brush . It set a record auction price for a painting by a living American artist when it sold for $ 60,000 in 1970 . The painting is in the Kunstsammlung Nordrhein-Westfalen collection . As with all of his Brushstrokes works , it is in part a satirical response to the gestural painting of Abstract Expressionism . Like most of Lichtenstein 's Ben-Day dots works it is a depiction of mechanical reproduction via painterly technique . In this case , the satire comes from the depiction of the graphical depiction of the spontaneous painting motion in painstaking painterly detail . = = History = = In early 1970 , Andy Warhol established the reco</t>
+          <t>Paramore ( album ) = Paramore is the self-titled fourth studio album by the American rock band Paramore . It was released on April 5 , 2013 , through Fueled by Ramen as a follow-up to Brand New Eyes ( 2009 ) . It is their first full-length album released after the departure of co-founders Josh and Zac Farro in 2010 . Recorded between April and November 1 , 2012 , the album was described by the band as being a " statement " and a reintroduction of the band to the world and to themselves . The album was the final one recorded with bassist Jeremy Davis before departing the band in 2015 . The album was produced by Justin Meldal-Johnsen , with lead guitarist Taylor York co-producing on four tracks . In contrast to band 's previous work , the production of Paramore contains the band 's experimentation with new musical genres , such as new wave and funk rock , and features three acoustic interludes . Paramore received acclaim from music critics , who praised the band 's maturity and experimen</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Girl with Ball = Girl with Ball is a 1961 painting by Roy Lichtenstein . It is an oil on canvas Pop art work that is now in the collection of the Museum of Modern Art , after being owned for several decades by Philip Johnson . It is one of Lichtenstein 's earliest Pop art works and is known for its source , which is a newspaper ad that ran for several decades and which was among Lichtenstein 's earliest works sourced from pop culture . Girl with Ball was exhibited at Lichtenstein 's first solo exhibition and was displayed in Newsweek 's review of the show . This work significantly alters the original source and is considered exemplary of Lichtenstein 's works that exaggerate the mechanically produced appearance although the result of his painterly work . It is an enduring depiction of the contemporary beauty figure . = = Background = = Girl with Ball was inspired by a 1961 advertisement for the Mount Airy Lodge in the Pocono Mountains . The ad , which started running in 1955 , was wide</t>
+          <t>American Tragedy ( album ) = American Tragedy is the second studio album by American rap rock band Hollywood Undead . Production for the album began following the induction of Daniel Murillo into the band in early 2010 and lasted until December . Don Gilmore and Ben Grosse , who helped produce the band 's debut album , Swan Songs ( 2008 ) , also returned to produce the album along with several other producers including Kevin Rudolf , Sam Hollander , Dave Katz , Griffin Boice , Jeff Halavacs , and Jacob Kasher . The album is musically heavier and features darker lyrical content than the band 's previous effort . Originally set to release in March , American Tragedy was released on April 5 , 2011 in the United States and was released on various other dates that month in other countries . A remix of the album , American Tragedy Redux , was released on November 21 , 2011 . The album debuted at number four on the US Billboard 200 , selling approximately 67,000 copies in its first week in th</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Golf Ball = Golf Ball ( sometimes Golfball ) is a 1962 painting by Roy Lichtenstein . It is considered to fall within the art movement known as Pop art . It depicts " a single sphere with patterned , variously directional semi-circular grooves . " The work is commonly associated with black-and-white Piet Mondrian works . It is one of the works that was presented at Lichtenstein 's first solo exhibition and one that was critical to his early association with pop art . The work is commonly critiqued for its tension involving a three-dimensional representation in two dimensions with much discussion revolving around the choice of a background nearly without any perspective . = = History = = When Lichtenstein had his first solo show at the Leo Castelli Gallery in February 1962 , it sold out before opening . Golf Ball was one of the works that Lichtenstein exhibited . Later , Lichtenstein included Golf Ball in Still Life with Goldfish Bowl , 1972 , and Go for Baroque , 1979 . The painting ex</t>
+          <t>Thank Me Later = Thank Me Later is the debut studio album by Canadian recording artist Drake , released on June 15 , 2010 , by Aspire Music Group , Young Money Entertainment , Cash Money Records , and Universal Motown Records . Production for the album took place at various recording studios during 2009 to 2010 and was mostly produced by longtime collaborators Noah " 40 " Shebib and Boi-1da . It also featured contributions from Timbaland , Swizz Beatz , Nicki Minaj , Lil Wayne , The-Dream , and Kanye West , among others . Thank Me Later has a languorous , ambient production that incorporates moody synthesizers , sparse beats , obscured keyboards , minor keys , and subtle arrangements . Thematically , the album focuses on Drake 's introduction to fame and his romances over the course of confessional , club-oriented , and sexual songs . Drake 's emotionally transparent , self-deprecating lyrics are delivered in both rapped and subtly sung verses , and explore feelings of doubt , insecuri</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Brushstrokes series = Brushstrokes series is the name for a series of paintings produced in 1965 – 66 by Roy Lichtenstein . It also refers to derivative sculptural representations of these paintings that were first made in the 1980s . In the series , the theme is art as a subject , but rather than reproduce masterpieces as he had starting in 1962 , Lichtenstein depicted the gestural expressions of the painting brushstroke itself . The works in this series are linked to those produced by artists who use the gestural painting style of abstract expressionism made famous by Jackson Pollock , but differ from them due to their mechanically produced appearance . The series is considered a satire or parody of gestural painting by both Lichtenstein and his critics . After 1966 , Lichtenstein incorporated this series into later motifs and themes of his work . = = Background = = In the early 1960s , Lichtenstein reproduced masterpieces by Cézanne , Mondrian and Picasso before embarking on the Bru</t>
+          <t>Gravity ( Lecrae album ) = Gravity is the sixth studio album by American Christian hip hop artist Lecrae , released on September 4 , 2012 . The album features appearances from Big K.R.I.T. , Mathai , Ashthon Jones , and Mali Music , along with labelmates Trip Lee , Andy Mineo , Derek Minor , who was formerly known as PRo , and Tedashii . Producers on the album include DJ Khalil , Street Symphony 's Heat Academy , and The Watchmen . The first single off the album , " I Know " , was released on July 24 , 2012 , and was followed by " Tell the World " featuring Mali Music on August 15 , 2012 , and " Mayday " featuring Big K.R.I.T. and Ashthon Jones on August 30 , 2012 . Reach Records released five music videos for the album : " Lord Have Mercy " , featuring Tedashii along with No Malice of Clipse , on August 1 , 2012 , " Tell the World " , featuring Mali Music , on October 19 , 2012 , " Mayday " , featuring Big K.R.I.T. and Ashthon Jones , on December 13 , 2012 , " Fakin ' " , featuring Th</t>
         </is>
       </c>
     </row>
@@ -2156,32 +2156,67 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>['ben', 'shannon', 'survivors', 'bernard', 'island', 'freighter', 'dave', 'frank', 'plane', 'jack', 'alex', 'miles', 'kate', 'crash', 'rose']</t>
+          <t>['ship', 'ships', 'torpedo', 'tons', 'guns', 'admiral', 'cruiser', 'fleet', 'submarine', 'sank', 'laid', 'sinking', 'convoy', 'german', 'destroyer']</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shannon Rutherford = Shannon Rutherford was a fictional character played by Maggie Grace on the ABC drama television series Lost , which chronicled the lives of the survivors of a plane crash in the South Pacific . Shannon was introduced in the pilot episode as the stepsister of fellow crash survivor Boone Carlyle ( Ian Somerhalder ) . She was a series regular until her funeral in " What Kate Did " . For most of her time on the Island , she was unhelpful and spent much of her time sunbathing . She formed a relationship with another survivor from the plane crash , Sayid Jarrah ( Naveen Andrews ) . Shannon was accidentally shot by Ana Lucia Cortez who mistakes her for an Other . During the casting process , she was compared to Paris Hilton . Naveen Andrews , who played the character Sayid on the show , had the idea of encouraging the writers to write a romantic relationship between his character and Shannon into the story . Critics found her to be a largely unsympathetic character until </t>
+          <t>German cruiser Admiral Hipper = Admiral Hipper , the first of five ships of her class , was the lead ship of the Admiral Hipper class of heavy cruisers which served with Nazi Germany 's Kriegsmarine during World War II . The ship was laid down at the Blohm &amp; Voss shipyard in Hamburg in July 1935 and launched February 1937 ; Admiral Hipper entered service shortly before the outbreak of war , in April 1939 . The ship was named after Admiral Franz von Hipper , commander of the German battlecruiser squadron during the Battle of Jutland in 1916 and later commander-in-chief of the German High Seas Fleet . Admiral Hipper saw a significant amount of action during the war . She led the assault on Trondheim during Operation Weserübung ; while en route to her objective , she sank the British destroyer HMS Glowworm . In December 1940 , she broke out into the Atlantic Ocean to operate against Allied merchant shipping , though this operation ended without significant success . In February 1941 , Adm</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Danielle Rousseau = Danielle Rousseau is a fictional character on the ABC drama television series Lost , which chronicles the lives of over forty people after their plane crashes on a remote island somewhere in the South Pacific . Croatian actress Mira Furlan plays the scientist who shipwrecks on the island sixteen years prior to the crash of Oceanic Flight 815 . After Rousseau is killed in the fourth season , the American actress Melissa Farman portrayed a younger version of the character in the fifth season . Furlan later reappears for one episode in the sixth season . Rousseau is a recurring on-island character who has appeared in nineteen episodes in seasons one through four , as well as one episode where her voice alone is heard , and her final episode in the sixth season . The character , who is commonly known as " The French Woman " among the survivors on the island , is introduced early in the first season . Sixteen years prior to the plane crash , Rousseau was a member of a Fr</t>
+          <t>German destroyer Z4 Richard Beitzen = The German destroyer Z4 Richard Beitzen was a Type 1934 destroyer built for the Kriegsmarine during the 1930s . At the beginning of World War II in September 1939 , the ship was initially deployed to blockade the Polish coast , but she was soon transferred to the Kattegat where she inspected neutral shipping for contraband goods . In late 1939 and early 1940 , the ship laid two offensive minefields off the English coast that claimed 17 merchant ships . Richard Beitzen was in reserve during the Norwegian Campaign of early 1940 and was transferred to France later that year where she made several attacks on British shipping . The ship returned to Germany in early 1941 for a refit and was transferred to Norway in June 1941 as part of the preparations for Operation Barbarossa , the German invasion of the Soviet Union . Richard Beitzen spent some time at the beginning of the campaign conducting anti-shipping patrols in Soviet waters , but these were gene</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Tom Friendly = Tom Friendly , often referred to as Tom or Mr. Friendly , is a fictional character portrayed by M. C. Gainey on the American Broadcasting Company ( ABC ) television series Lost . The series follows the lives of around forty survivors from the crash of Oceanic Flight 815 . The survivors find themselves on a mysterious tropical island , and interact with a group known as the Others , who appear to have lived on the island since long before the crash . Tom is an influential member of the Others , and is introduced in 2005 in the season one finale " Exodus : Part 2 " , where he kidnaps one of the survivors . The character makes another fifteen appearances before being killed in the season three finale " Through the Looking Glass " . Tom appears twice in season four in the flashbacks of other characters . Gainey was initially credited as playing " bearded man " and then as " Mr. Friendly " throughout season two before the character was given a first name . In a montage of dec</t>
+          <t xml:space="preserve">G and H-class destroyer = The G- and H-class destroyers were a group of 18 destroyers built for the Royal Navy during the 1930s . Six additional ships being built for the Brazilian Navy when World War II began in 1939 were purchased by the British and named the Havant class . The design was a major export success with other ships built for the Argentine and Royal Hellenic Navies . They were assigned to the Mediterranean Fleet upon completion and enforced the Non-Intervention Agreement during the Spanish Civil War of 1936 – 39 . Most ships were recalled home or were sent to the North Atlantic from October – November 1939 , after it became clear that Fascist Italy was not going to intervene in World War II . Then they began to escort convoys and patrol for German submarines and commerce raiders . Two ships were lost to German mines in the first six months of the war . Three more were lost during the Norwegian Campaign , one in combat with a German cruiser and two during the First Battle </t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Rose and Bernard Nadler = Rose and Bernard Nadler are fictional characters on the American Broadcasting Company ( ABC ) television series Lost , played by L. Scott Caldwell and Sam Anderson respectively . Rose and Bernard visit a faith healer on their honeymoon in Australia , in the hope of healing Rose 's cancer . When Bernard visits the restroom during the return flight , the plane splits in half , with the two halves crashing on different parts of an island in the South Pacific . The couple reunite midway through season two , and Rose reveals the Island has healed her . After time traveling in season five they separate from the remaining survivors and build a cabin near the ocean to live in . Originally , the story of a woman separated from her husband when the plane crashes was going to be used for Kate , but when Kate 's role in the series changed the producers kept that story for Rose . Much of the couple 's story prior to the plane crash was based on the events of Caldwell 's li</t>
+          <t xml:space="preserve">German destroyer Z16 Friedrich Eckoldt = Z16 Friedrich Eckoldt was a Type 1934A-class destroyer built for Nazi Germany 's Kriegsmarine in the late 1930s . It was named after Kapitänleutnant Friedrich Eckoldt ( 1887-1916 ) , the commander of torpedo boat V 48 , who was killed when his boat was sunk during the Battle of Jutland on 31 May 1916 . At the beginning of World War II , the ship was initially deployed to blockade the Polish coast , but she was quickly transferred to the German Bight to lay minefields in German waters . In late 1939 and 1940 the ship made multiple successful minelaying sorties off the English coast that claimed 21 merchant ships . Eckoldt participated in the early stages of the Norwegian Campaign by transporting troops to the Trondheim area in early April 1940 . The ship was transferred to France later in the year . Eckoldt returned to Germany in late 1940 for a refit and was transferred to Norway in June 1941 as part of the preparations for Operation Barbarossa </t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Ben Linus = Benjamin " Ben " Linus is a fictional character portrayed by Michael Emerson on the ABC television series Lost . Ben was the leader of a group of island natives called the Others and was initially known as Henry Gale to the survivors of Oceanic Flight 815 . He began as the main antagonist during the second and third seasons , but in subsequent seasons , becomes a morally ambiguous ally to the main characters . Other characters frequently describe him as loyal only to himself , though it is also often hinted that he may be driven by some higher purpose . As with most characters on Lost , Ben 's history is revealed through flashbacks and episodes set in other time periods which are revealed slowly as the series progresses . Sterling Beaumon first portrayed a young Ben late in season three , in the character 's first centric episode , " The Man Behind the Curtain " . Ben 's childhood is further explored in the fifth season of the series , partially set in 1977 . Fifth season e</t>
+          <t>SMS Pillau = SMS Pillau was a light cruiser ordered by the Imperial Russian navy under the name Maraviev Amurskyy from the Schichau-Werke shipyard in Danzig in 1913 and launched in April 1914 . Following the outbreak of World War I , the ship was confiscated in August 1914 and renamed SMS Pillau in honor of the East Prussian port of Pillau ( now Baltiysk , Russia ) . The ship was commissioned into the High Seas Fleet in December 1914 . The lead ship of her class , she had one sister ship , Elbing . She was armed with a main battery of eight 15 cm SK L / 45 guns and had a top speed of 27.5 kn ( 50.9 km / h ; 31.6 mph ) . Pillau spent the majority of her career in the II Scouting Group , and saw service in both the Baltic and North Seas . In August 1915 , she participated in the Battle of the Gulf of Riga against the Russian Navy , and on 31 May – 1 June 1916 , she saw significant action at the Battle of Jutland . She was hit by a large-caliber shell once in the engagement , but suffered</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>['government', 'war', 'military', 'led', 'political', 'country', 'party', 'support', 'polish', 'foreign', 'soviet', 'revolution', 'leader', 'russian', 'members']</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Polish Underground State = The Polish Underground State ( Polish : Polskie Państwo Podziemne , also known as the Polish Secret State ) is a collective term for the underground resistance organizations in Poland during World War II , both military and civilian , that were loyal to the Government of the Republic of Poland in exile in London . The first elements of the Underground State were established in the final days of the German invasion of Poland that began in September 1939 . The Underground State was perceived by supporters as a legal continuation of the pre-war Republic of Poland ( and its institutions ) that waged an armed struggle against the country 's occupying powers : Nazi Germany and the Soviet Union . The Underground State encompassed not only military resistance , one of the largest in the world , but also civilian structures , such as education , culture and social services . Although the Underground State enjoyed broad support throughout much of the war , it was not s</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Shukri al-Quwatli = Shukri al-Quwatli ( 1891 – 30 June 1967 ; Arabic : شكري القوتلي ) was the first president of post-independence Syria . He began his career as a dissident working towards the independence and unity of the Ottoman Empire 's Arab territories and was consequently imprisoned and tortured for his activism . When the Kingdom of Syria was established , Quwatli became a government official , though he was disillusioned with monarchism and co-founded the republican Independence Party . Quwatli was immediately sentenced to death by the French who took control over Syria in 1920 . Afterward , he based himself in Cairo where he served as the chief ambassador of the Syrian-Palestinian Congress , cultivating particularly strong ties with Saudi Arabia . He used these connections to help finance the Great Syrian Revolt ( 1925 – 1927 ) . In 1930 , the French authorities pardoned Quwatli and thereafter , he returned to Syria , where he gradually became a principal leader of the Nation</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Michel Aflaq = Michel Aflaq ( Arabic : ميشيل عفلق , 1910 – 23 June 1989 ) was a Syrian philosopher , sociologist and Arab nationalist . His ideas played a significant role in the development of Ba 'athism and its political movement ; he is considered by several Ba 'athists to be the principal founder of Ba 'athist thought . He published various books during his lifetime , the most notable being The Battle for One Destiny ( 1958 ) and The Struggle Against Distorting the Movement of Arab Revolution ( 1975 ) . Born into a middle-class family in Damascus , Syria , Aflaq studied at the Sorbonne , where he met his future political companion Salah al-Din al-Bitar . He returned to Syria in 1932 , and began his political career in communist politics . Aflaq became a communist activist , but broke his ties with the communist movement when the Syrian – Lebanese Communist Party supported France 's colonial policies . Later in 1940 Aflaq and al-Bitar established the Arab Ihya Movement ( later renam</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Roman Dmowski = Roman Stanisław Dmowski [ ˈrɔman staˈɲiswaf ˈdmɔfski ] ( 9 August 1864 – 2 January 1939 ) was a Polish politician , statesman , and co-founder and chief ideologue of the right-wing National Democracy ( " ND " : in Polish , " Endecja " ) political movement . He saw the aggressive Germanization of Polish territories controlled by the German Empire as the major threat to Polish culture and therefore advocated a degree of accommodation with another power that had partitioned Poland , the Russian Empire . He favored the re-establishment of Polish independence by nonviolent means , and supported policies favorable to the Polish middle class . During World War I , in Paris , through his Polish National Committee he was a prominent spokesman , to the Allies , for Polish aspirations . He was a principal figure instrumental in the postwar restoration of Poland 's independent existence . Dmowski never wielded official political power , except for a brief period in 1923 as minister</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">German nationalism in Austria = German nationalism ( German : Deutschnationalismus ) is a political ideology and historical current in Austrian politics . It arose in the 19th century as a nationalist movement amongst the German-speaking population of the Austro-Hungarian Empire . It favours close ties with Germany , which it views as the nation-state for all ethnic Germans , and the possibility of the incorporation of Austria into a Greater Germany . Over the course of Austrian history , from the Austrian Empire , to Austria-Hungary , and the First and the Second Austrian Republics , several political parties and groups have expressed pan-German nationalist sentiment . National liberal and pan-Germanist parties have been termed the " Third Camp " ( German : Drittes Lager ) of Austrian politics , as they have traditionally been ranked behind mainstream Catholic conservatives and socialists . The Freedom Party of Austria , a far-right political party with representation in the Austrian </t>
         </is>
       </c>
     </row>
